--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1021,7 +1021,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 02-04-2020, 13:19</t>
+    <t>Ostatnia aktualizacja: 07-04-2020, 13:56</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OiDanych\_SDG\_dyzur\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1021,7 +1021,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-04-2020, 13:56</t>
+    <t>Ostatnia aktualizacja: 21-04-2020, 13:24</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1565,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1021,7 +1021,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 21-04-2020, 13:24</t>
+    <t>Ostatnia aktualizacja: 21-04-2020, 15:42</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_OiDanych\_SDG\_dyzur\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="337">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -502,9 +502,16 @@
     <t>Ministerstwo Rolnictwa i Rozwoju Wsi</t>
   </si>
   <si>
+    <t>Zwiększenie dyspozycyjnych zasobów wód, poprawa ich stanu ekologicznego i
+  jakości chemicznej</t>
+  </si>
+  <si>
     <t>6.1.b Odsetek ludności zaopatrywanej z sieci wodociągowej w wodę nieodpowiadającą wymaganiom</t>
   </si>
   <si>
+    <t>&lt;p&gt;Ministerstwo Zdrowia&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>Utworzenie mechanizmów prawno-finansowych sprzyjających racjonalnemu wykorzystaniu zasobów wodnych i wdrażania wodo-oszczędnych technologii, jak również budowa i modernizacja oczyszczalni ścieków</t>
   </si>
   <si>
@@ -568,6 +575,11 @@
     <t>8.1.a Udział eksportu wyrobów wysokiej techniki w eksporcie ogółem</t>
   </si>
   <si>
+    <t>Poszukiwanie nowych przewag konkurencyjnych opartych na zaawansowaniu
+  technologicznym produktów, jakości i innowacyjności oferowanych produktów, jak
+  również mechanizmów umiędzynarodowienia przedsiębiorstw</t>
+  </si>
+  <si>
     <t>8.1.b Nakłady na działalność innowacyjną w przedsiębiorstwach w relacji do PKB</t>
   </si>
   <si>
@@ -718,6 +730,9 @@
     <t>9.5.a Wskaźnik Międzygałęziowej dostępności transportowej (WMDT)</t>
   </si>
   <si>
+    <t>&lt;p&gt;Polska Akademia Nauk / Ministerstwo Funduszy i Polityki Regionalnej&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>9.5.b Gęstość dróg ekspresowych i autostrad na 1000 km2</t>
   </si>
   <si>
@@ -1021,7 +1036,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 21-04-2020, 15:42</t>
+    <t>Ostatnia aktualizacja: 28-04-2020, 11:11</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1580,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2101,9 @@
       <c r="N12" s="5">
         <v>0.36</v>
       </c>
-      <c r="O12" s="3"/>
+      <c r="O12" s="5">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="2" t="s">
         <v>45</v>
@@ -3145,7 +3162,9 @@
       <c r="N33" s="4">
         <v>434.8</v>
       </c>
-      <c r="O33" s="3"/>
+      <c r="O33" s="4">
+        <v>437.2</v>
+      </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="2" t="s">
         <v>24</v>
@@ -3194,7 +3213,9 @@
       <c r="N34" s="4">
         <v>259.3</v>
       </c>
-      <c r="O34" s="3"/>
+      <c r="O34" s="4">
+        <v>263.89999999999998</v>
+      </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="2" t="s">
         <v>24</v>
@@ -3243,7 +3264,9 @@
       <c r="N35" s="4">
         <v>22.9</v>
       </c>
-      <c r="O35" s="3"/>
+      <c r="O35" s="4">
+        <v>23.5</v>
+      </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="2" t="s">
         <v>24</v>
@@ -3292,7 +3315,9 @@
       <c r="N36" s="4">
         <v>26.4</v>
       </c>
-      <c r="O36" s="3"/>
+      <c r="O36" s="4">
+        <v>24.6</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="2" t="s">
         <v>24</v>
@@ -3446,7 +3471,9 @@
       <c r="O39" s="4">
         <v>4.2</v>
       </c>
-      <c r="P39" s="3"/>
+      <c r="P39" s="4">
+        <v>4.2</v>
+      </c>
       <c r="Q39" s="2" t="s">
         <v>24</v>
       </c>
@@ -4948,7 +4975,9 @@
       <c r="N72" s="4">
         <v>7.2</v>
       </c>
-      <c r="O72" s="3"/>
+      <c r="O72" s="4">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="P72" s="3"/>
       <c r="Q72" s="2" t="s">
         <v>30</v>
@@ -5205,15 +5234,15 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>28</v>
@@ -5253,7 +5282,7 @@
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="2" t="s">
-        <v>24</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="45" x14ac:dyDescent="0.25">
@@ -5261,10 +5290,10 @@
         <v>154</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>28</v>
@@ -5312,10 +5341,10 @@
         <v>154</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>28</v>
@@ -5360,13 +5389,13 @@
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>28</v>
@@ -5375,7 +5404,7 @@
         <v>22</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G81" s="7">
         <v>0.31900000000000001</v>
@@ -5409,13 +5438,13 @@
     </row>
     <row r="82" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>28</v>
@@ -5460,13 +5489,13 @@
     </row>
     <row r="83" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>28</v>
@@ -5506,18 +5535,18 @@
       </c>
       <c r="P83" s="3"/>
       <c r="Q83" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>28</v>
@@ -5526,7 +5555,7 @@
         <v>22</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G84" s="4">
         <v>316.10000000000002</v>
@@ -5555,18 +5584,18 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>28</v>
@@ -5611,13 +5640,13 @@
     </row>
     <row r="86" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>28</v>
@@ -5662,13 +5691,13 @@
     </row>
     <row r="87" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>28</v>
@@ -5703,21 +5732,23 @@
       <c r="N87" s="4">
         <v>8.4</v>
       </c>
-      <c r="O87" s="3"/>
+      <c r="O87" s="4">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="P87" s="3"/>
       <c r="Q87" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="54" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>28</v>
@@ -5752,7 +5783,9 @@
       <c r="N88" s="5">
         <v>2.0699999999999998</v>
       </c>
-      <c r="O88" s="3"/>
+      <c r="O88" s="5">
+        <v>1.72</v>
+      </c>
       <c r="P88" s="3"/>
       <c r="Q88" s="2" t="s">
         <v>24</v>
@@ -5760,13 +5793,13 @@
     </row>
     <row r="89" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>28</v>
@@ -5775,7 +5808,7 @@
         <v>22</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G89" s="6">
         <v>39</v>
@@ -5808,27 +5841,27 @@
         <v>37</v>
       </c>
       <c r="Q89" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -5857,18 +5890,18 @@
         <v>40</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>73</v>
@@ -5913,13 +5946,13 @@
     </row>
     <row r="92" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>73</v>
@@ -5964,13 +5997,13 @@
     </row>
     <row r="93" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>73</v>
@@ -6015,19 +6048,19 @@
     </row>
     <row r="94" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>23</v>
@@ -6066,19 +6099,19 @@
     </row>
     <row r="95" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>23</v>
@@ -6117,19 +6150,19 @@
     </row>
     <row r="96" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>23</v>
@@ -6168,19 +6201,19 @@
     </row>
     <row r="97" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>23</v>
@@ -6219,19 +6252,19 @@
     </row>
     <row r="98" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>23</v>
@@ -6270,19 +6303,19 @@
     </row>
     <row r="99" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>23</v>
@@ -6321,19 +6354,19 @@
     </row>
     <row r="100" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>23</v>
@@ -6372,13 +6405,13 @@
     </row>
     <row r="101" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>28</v>
@@ -6423,13 +6456,13 @@
     </row>
     <row r="102" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>28</v>
@@ -6474,13 +6507,13 @@
     </row>
     <row r="103" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>28</v>
@@ -6517,16 +6550,16 @@
     </row>
     <row r="104" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>22</v>
@@ -6568,16 +6601,16 @@
     </row>
     <row r="105" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>76</v>
@@ -6619,19 +6652,19 @@
     </row>
     <row r="106" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>23</v>
@@ -6670,19 +6703,19 @@
     </row>
     <row r="107" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>23</v>
@@ -6721,19 +6754,19 @@
     </row>
     <row r="108" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>23</v>
@@ -6772,13 +6805,13 @@
     </row>
     <row r="109" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>28</v>
@@ -6823,13 +6856,13 @@
     </row>
     <row r="110" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>28</v>
@@ -6874,13 +6907,13 @@
     </row>
     <row r="111" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>28</v>
@@ -6925,13 +6958,13 @@
     </row>
     <row r="112" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>28</v>
@@ -6974,13 +7007,13 @@
     </row>
     <row r="113" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>28</v>
@@ -6989,11 +7022,15 @@
         <v>22</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
+      <c r="H113" s="6">
+        <v>43</v>
+      </c>
+      <c r="I113" s="6">
+        <v>44</v>
+      </c>
       <c r="J113" s="6">
         <v>49</v>
       </c>
@@ -7016,18 +7053,18 @@
         <v>39</v>
       </c>
       <c r="Q113" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>28</v>
@@ -7072,13 +7109,13 @@
     </row>
     <row r="115" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>28</v>
@@ -7123,13 +7160,13 @@
     </row>
     <row r="116" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>28</v>
@@ -7174,13 +7211,13 @@
     </row>
     <row r="117" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>28</v>
@@ -7215,7 +7252,9 @@
       <c r="N117" s="4">
         <v>8.4</v>
       </c>
-      <c r="O117" s="3"/>
+      <c r="O117" s="4">
+        <v>8.3000000000000007</v>
+      </c>
       <c r="P117" s="3"/>
       <c r="Q117" s="2" t="s">
         <v>24</v>
@@ -7223,13 +7262,13 @@
     </row>
     <row r="118" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>28</v>
@@ -7269,18 +7308,18 @@
       </c>
       <c r="P118" s="3"/>
       <c r="Q118" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>28</v>
@@ -7325,13 +7364,13 @@
     </row>
     <row r="120" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>28</v>
@@ -7365,18 +7404,18 @@
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="2" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>28</v>
@@ -7385,7 +7424,7 @@
         <v>22</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G121" s="4">
         <v>4.9000000000000004</v>
@@ -7421,13 +7460,13 @@
     </row>
     <row r="122" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>28</v>
@@ -7462,13 +7501,13 @@
     </row>
     <row r="123" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>28</v>
@@ -7513,13 +7552,13 @@
     </row>
     <row r="124" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>28</v>
@@ -7560,13 +7599,13 @@
     </row>
     <row r="125" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>28</v>
@@ -7575,7 +7614,7 @@
         <v>22</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G125" s="4">
         <v>31.1</v>
@@ -7611,13 +7650,13 @@
     </row>
     <row r="126" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>28</v>
@@ -7662,13 +7701,13 @@
     </row>
     <row r="127" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>28</v>
@@ -7677,7 +7716,7 @@
         <v>22</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G127" s="4">
         <v>24.7</v>
@@ -7713,13 +7752,13 @@
     </row>
     <row r="128" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>28</v>
@@ -7764,13 +7803,13 @@
     </row>
     <row r="129" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>28</v>
@@ -7815,13 +7854,13 @@
     </row>
     <row r="130" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>28</v>
@@ -7861,24 +7900,24 @@
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>23</v>
@@ -7917,19 +7956,19 @@
     </row>
     <row r="132" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>23</v>
@@ -7968,19 +8007,19 @@
     </row>
     <row r="133" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>23</v>
@@ -8019,19 +8058,19 @@
     </row>
     <row r="134" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>23</v>
@@ -8070,13 +8109,13 @@
     </row>
     <row r="135" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>28</v>
@@ -8121,13 +8160,13 @@
     </row>
     <row r="136" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>28</v>
@@ -8136,7 +8175,7 @@
         <v>22</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G136" s="4">
         <v>20.8</v>
@@ -8172,13 +8211,13 @@
     </row>
     <row r="137" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>28</v>
@@ -8187,7 +8226,7 @@
         <v>22</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G137" s="5">
         <v>0.56000000000000005</v>
@@ -8223,13 +8262,13 @@
     </row>
     <row r="138" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>28</v>
@@ -8238,7 +8277,7 @@
         <v>22</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G138" s="5">
         <v>16.95</v>
@@ -8274,13 +8313,13 @@
     </row>
     <row r="139" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>28</v>
@@ -8316,18 +8355,18 @@
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>28</v>
@@ -8372,13 +8411,13 @@
     </row>
     <row r="141" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>28</v>
@@ -8387,16 +8426,16 @@
         <v>22</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G141" s="4">
         <v>100</v>
       </c>
       <c r="H141" s="4">
-        <v>99.9</v>
+        <v>99.8</v>
       </c>
       <c r="I141" s="4">
-        <v>97.6</v>
+        <v>97.5</v>
       </c>
       <c r="J141" s="4">
         <v>96.3</v>
@@ -8405,29 +8444,31 @@
         <v>92.6</v>
       </c>
       <c r="L141" s="4">
-        <v>93.7</v>
+        <v>93.6</v>
       </c>
       <c r="M141" s="4">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="N141" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="O141" s="4">
         <v>100.9</v>
       </c>
-      <c r="O141" s="3"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>28</v>
@@ -8436,7 +8477,7 @@
         <v>22</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G142" s="4">
         <v>100</v>
@@ -8445,38 +8486,40 @@
         <v>99.8</v>
       </c>
       <c r="I142" s="4">
-        <v>98.1</v>
+        <v>98</v>
       </c>
       <c r="J142" s="4">
-        <v>97.2</v>
+        <v>97.1</v>
       </c>
       <c r="K142" s="4">
-        <v>94</v>
+        <v>94.1</v>
       </c>
       <c r="L142" s="4">
         <v>94.9</v>
       </c>
       <c r="M142" s="4">
-        <v>97</v>
+        <v>96.9</v>
       </c>
       <c r="N142" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="O142" s="3"/>
+        <v>100.4</v>
+      </c>
+      <c r="O142" s="4">
+        <v>100</v>
+      </c>
       <c r="P142" s="3"/>
       <c r="Q142" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>28</v>
@@ -8521,13 +8564,13 @@
     </row>
     <row r="144" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>28</v>
@@ -8536,7 +8579,7 @@
         <v>22</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G144" s="6">
         <v>563</v>
@@ -8572,19 +8615,19 @@
     </row>
     <row r="145" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>23</v>
@@ -8618,24 +8661,24 @@
       </c>
       <c r="P145" s="3"/>
       <c r="Q145" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>23</v>
@@ -8669,24 +8712,24 @@
       </c>
       <c r="P146" s="3"/>
       <c r="Q146" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="147" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>23</v>
@@ -8720,24 +8763,24 @@
       </c>
       <c r="P147" s="3"/>
       <c r="Q147" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:17" ht="81" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>23</v>
@@ -8771,18 +8814,18 @@
       </c>
       <c r="P148" s="3"/>
       <c r="Q148" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:17" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>28</v>
@@ -8791,7 +8834,7 @@
         <v>22</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G149" s="4">
         <v>100</v>
@@ -8827,13 +8870,13 @@
     </row>
     <row r="150" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>28</v>
@@ -8842,7 +8885,7 @@
         <v>22</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G150" s="4">
         <v>59.5</v>
@@ -8878,13 +8921,13 @@
     </row>
     <row r="151" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>28</v>
@@ -8893,7 +8936,7 @@
         <v>22</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G151" s="4">
         <v>88</v>
@@ -8929,13 +8972,13 @@
     </row>
     <row r="152" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>28</v>
@@ -8975,18 +9018,18 @@
       </c>
       <c r="P152" s="3"/>
       <c r="Q152" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="153" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>28</v>
@@ -9031,13 +9074,13 @@
     </row>
     <row r="154" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>28</v>
@@ -9082,13 +9125,13 @@
     </row>
     <row r="155" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>28</v>
@@ -9133,13 +9176,13 @@
     </row>
     <row r="156" spans="1:17" ht="36" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>28</v>
@@ -9184,13 +9227,13 @@
     </row>
     <row r="157" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>28</v>
@@ -9232,18 +9275,18 @@
         <v>89</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>28</v>
@@ -9275,18 +9318,18 @@
       </c>
       <c r="P158" s="3"/>
       <c r="Q158" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>28</v>
@@ -9295,7 +9338,7 @@
         <v>22</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G159" s="5">
         <v>0.98</v>
@@ -9326,18 +9369,18 @@
       </c>
       <c r="P159" s="3"/>
       <c r="Q159" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="160" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>28</v>
@@ -9346,7 +9389,7 @@
         <v>22</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G160" s="6">
         <v>830</v>
@@ -9379,18 +9422,18 @@
         <v>685</v>
       </c>
       <c r="Q160" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>28</v>
@@ -9399,7 +9442,7 @@
         <v>22</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G161" s="5">
         <v>0.64</v>
@@ -9430,18 +9473,18 @@
       </c>
       <c r="P161" s="3"/>
       <c r="Q161" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="162" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>28</v>
@@ -9488,13 +9531,13 @@
     </row>
     <row r="163" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>28</v>
@@ -9539,13 +9582,13 @@
     </row>
     <row r="164" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>28</v>
@@ -9554,7 +9597,7 @@
         <v>22</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G164" s="5">
         <v>377.75</v>
@@ -9585,18 +9628,18 @@
       </c>
       <c r="P164" s="3"/>
       <c r="Q164" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="165" spans="1:17" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>28</v>
@@ -9605,7 +9648,7 @@
         <v>22</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G165" s="5">
         <v>96.04</v>
@@ -9636,18 +9679,18 @@
       </c>
       <c r="P165" s="3"/>
       <c r="Q165" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>28</v>
@@ -9687,14 +9730,14 @@
       </c>
       <c r="P166" s="3"/>
       <c r="Q166" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="167" spans="1:17" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="168" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="169" spans="1:17" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B169" s="8"/>
     </row>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -208,7 +208,8 @@
     <t>2.5.a Odsetek długości dróg publicznych o nawierzchni twardej ulepszonej na terenach zamiejskich</t>
   </si>
   <si>
-    <t>Poszanowanie różnorodności biologicznej poprzez jej zwiększanie lub co najmniej niepogarszanie jej stanu</t>
+    <t>Poszanowanie różnorodności biologicznej poprzez jej zwiększanie lub co
+  najmniej niepogarszanie jej stanu</t>
   </si>
   <si>
     <t>2.6.a Liczba zasobów genetycznych roślin i zwierząt dla wyżywienia i rolnictwa zabezpieczonych w kolekcjach banków genów</t>
@@ -217,7 +218,7 @@
     <t>zasoby genetyczne roślin</t>
   </si>
   <si>
-    <t>Ministerstwo Rolnictwa i Rozwoju Wsi / Instytut Hodowli i Aklimatyzacji Roślin - PIB in Radzików / Instytut Ogrodnictwa w Skierniewicach</t>
+    <t>Ministerstwo Rolnictwa i Rozwoju Wsi / Instytut Hodowli i Aklimatyzacji Roślin  - PIB in Radzików / Instytut Ogrodnictwa w Skierniewicach/ Instytut  Zootechniki</t>
   </si>
   <si>
     <t>zasoby genetyczne zwierząt</t>
@@ -1036,7 +1037,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 28-04-2020, 11:11</t>
+    <t>Ostatnia aktualizacja: 12-05-2020, 07:43</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1581,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2515,7 +2516,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2674,7 +2675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2727,7 +2728,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="54" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1037,7 +1037,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 26-05-2020, 08:21</t>
+    <t>Ostatnia aktualizacja: 02-06-2020, 12:46</t>
   </si>
 </sst>
 </file>
@@ -1581,7 +1581,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1058,7 +1058,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 21-07-2020, 12:08</t>
+    <t>Ostatnia aktualizacja: 04-08-2020, 09:18</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1602,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10302,7 +10302,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1058,7 +1058,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 04-08-2020, 09:18</t>
+    <t>Ostatnia aktualizacja: 11-08-2020, 08:53</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1602,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10302,7 +10302,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="341">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -529,9 +529,6 @@
   </si>
   <si>
     <t>6.1.b Odsetek ludności zaopatrywanej z sieci wodociągowej w wodę nieodpowiadającą wymaganiom</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Ministerstwo Zdrowia&lt;/p&gt;</t>
   </si>
   <si>
     <t>Utworzenie mechanizmów prawno-finansowych sprzyjających racjonalnemu wykorzystaniu zasobów wodnych i wdrażania wodo-oszczędnych technologii, jak również budowa i modernizacja oczyszczalni ścieków</t>
@@ -620,7 +617,7 @@
     <t>8.2.a Wskaźnik łatwości prowadzenia interesów (pozycja w rankingu Doing Business)</t>
   </si>
   <si>
-    <t>World Bank</t>
+    <t>Bank Światowy</t>
   </si>
   <si>
     <t>Zwiększanie wskaźnika zatrudnienia</t>
@@ -752,7 +749,7 @@
     <t>9.5.a Wskaźnik Międzygałęziowej dostępności transportowej (WMDT)</t>
   </si>
   <si>
-    <t>&lt;p&gt;Polska Akademia Nauk / Ministerstwo Funduszy i Polityki Regionalnej&lt;/p&gt;</t>
+    <t>Polska Akademia Nauk / Ministerstwo Funduszy i Polityki Regionalnej</t>
   </si>
   <si>
     <t>9.5.b Gęstość dróg ekspresowych i autostrad na 1000 km2</t>
@@ -863,9 +860,6 @@
     <t>12.1.c Wskaźnik powtórnego wykorzystania materiałów</t>
   </si>
   <si>
-    <t>EUROSTAT</t>
-  </si>
-  <si>
     <t>Rozwój rolnictwa ekologicznego</t>
   </si>
   <si>
@@ -1005,9 +999,6 @@
   </si>
   <si>
     <t>punkty</t>
-  </si>
-  <si>
-    <t>Bank Światowy</t>
   </si>
   <si>
     <t>Zwiększenie efektywności funkcjonowania instytucji publicznych</t>
@@ -1059,7 +1050,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 10-11-2020, 11:05</t>
+    <t>Ostatnia aktualizacja: 15-12-2020, 08:04</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1594,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5703,7 +5694,7 @@
       </c>
       <c r="Q84" s="3"/>
       <c r="R84" s="2" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="45" x14ac:dyDescent="0.25">
@@ -5711,10 +5702,10 @@
         <v>162</v>
       </c>
       <c r="B85" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>29</v>
@@ -5765,10 +5756,10 @@
         <v>162</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>29</v>
@@ -5816,22 +5807,22 @@
     </row>
     <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="G87" s="7">
         <v>0.318</v>
@@ -5868,13 +5859,13 @@
     </row>
     <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>29</v>
@@ -5920,13 +5911,13 @@
     </row>
     <row r="89" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>29</v>
@@ -5967,27 +5958,27 @@
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
       <c r="R89" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="G90" s="4">
         <v>316.10000000000002</v>
@@ -6019,18 +6010,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>29</v>
@@ -6076,13 +6067,13 @@
     </row>
     <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>29</v>
@@ -6130,13 +6121,13 @@
     </row>
     <row r="93" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>29</v>
@@ -6182,13 +6173,13 @@
     </row>
     <row r="94" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>29</v>
@@ -6234,22 +6225,22 @@
     </row>
     <row r="95" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="C95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="G95" s="6">
         <v>39</v>
@@ -6283,19 +6274,19 @@
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="D96" s="2" t="s">
         <v>29</v>
       </c>
@@ -6303,7 +6294,7 @@
         <v>23</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -6333,18 +6324,18 @@
       </c>
       <c r="Q96" s="3"/>
       <c r="R96" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>74</v>
@@ -6392,13 +6383,13 @@
     </row>
     <row r="98" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>74</v>
@@ -6446,13 +6437,13 @@
     </row>
     <row r="99" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>74</v>
@@ -6500,19 +6491,19 @@
     </row>
     <row r="100" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>24</v>
@@ -6554,19 +6545,19 @@
     </row>
     <row r="101" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>24</v>
@@ -6608,19 +6599,19 @@
     </row>
     <row r="102" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>24</v>
@@ -6662,19 +6653,19 @@
     </row>
     <row r="103" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B103" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>24</v>
@@ -6716,19 +6707,19 @@
     </row>
     <row r="104" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>24</v>
@@ -6770,19 +6761,19 @@
     </row>
     <row r="105" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>24</v>
@@ -6824,19 +6815,19 @@
     </row>
     <row r="106" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>24</v>
@@ -6878,13 +6869,13 @@
     </row>
     <row r="107" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>29</v>
@@ -6930,13 +6921,13 @@
     </row>
     <row r="108" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>29</v>
@@ -6984,13 +6975,13 @@
     </row>
     <row r="109" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>29</v>
@@ -7028,16 +7019,16 @@
     </row>
     <row r="110" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="D110" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>23</v>
@@ -7082,16 +7073,16 @@
     </row>
     <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>77</v>
@@ -7136,19 +7127,19 @@
     </row>
     <row r="112" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="E112" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>24</v>
@@ -7190,19 +7181,19 @@
     </row>
     <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B113" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="D113" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="E113" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>24</v>
@@ -7244,19 +7235,19 @@
     </row>
     <row r="114" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="D114" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="E114" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>24</v>
@@ -7298,13 +7289,13 @@
     </row>
     <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>29</v>
@@ -7352,13 +7343,13 @@
     </row>
     <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>29</v>
@@ -7406,13 +7397,13 @@
     </row>
     <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B117" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>29</v>
@@ -7460,13 +7451,13 @@
     </row>
     <row r="118" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B118" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>29</v>
@@ -7512,14 +7503,14 @@
     </row>
     <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="D119" s="2" t="s">
         <v>29</v>
       </c>
@@ -7527,7 +7518,7 @@
         <v>23</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="6">
@@ -7561,18 +7552,18 @@
         <v>38</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>230</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>29</v>
@@ -7618,13 +7609,13 @@
     </row>
     <row r="121" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>29</v>
@@ -7670,13 +7661,13 @@
     </row>
     <row r="122" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>29</v>
@@ -7722,13 +7713,13 @@
     </row>
     <row r="123" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>29</v>
@@ -7774,13 +7765,13 @@
     </row>
     <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>29</v>
@@ -7823,18 +7814,18 @@
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>29</v>
@@ -7880,13 +7871,13 @@
     </row>
     <row r="126" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>29</v>
@@ -7921,27 +7912,27 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="G127" s="4">
         <v>4.9000000000000004</v>
@@ -7980,13 +7971,13 @@
     </row>
     <row r="128" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>29</v>
@@ -8022,13 +8013,13 @@
     </row>
     <row r="129" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>29</v>
@@ -8074,13 +8065,13 @@
     </row>
     <row r="130" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>29</v>
@@ -8122,22 +8113,22 @@
     </row>
     <row r="131" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8174,13 +8165,13 @@
     </row>
     <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>29</v>
@@ -8226,22 +8217,22 @@
     </row>
     <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C133" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="G133" s="4">
         <v>24.7</v>
@@ -8280,13 +8271,13 @@
     </row>
     <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>29</v>
@@ -8332,13 +8323,13 @@
     </row>
     <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>29</v>
@@ -8386,13 +8377,13 @@
     </row>
     <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>29</v>
@@ -8435,24 +8426,24 @@
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C137" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>24</v>
@@ -8494,19 +8485,19 @@
     </row>
     <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C138" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E138" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>24</v>
@@ -8548,19 +8539,19 @@
     </row>
     <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C139" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E139" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>24</v>
@@ -8602,19 +8593,19 @@
     </row>
     <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="C140" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="E140" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>24</v>
@@ -8656,13 +8647,13 @@
     </row>
     <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>29</v>
@@ -8710,13 +8701,13 @@
     </row>
     <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>29</v>
@@ -8725,7 +8716,7 @@
         <v>23</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8764,22 +8755,22 @@
     </row>
     <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -8816,22 +8807,22 @@
     </row>
     <row r="144" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C144" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -8868,13 +8859,13 @@
     </row>
     <row r="145" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>272</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
@@ -8913,18 +8904,18 @@
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
       <c r="R145" s="2" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
     </row>
     <row r="146" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>29</v>
@@ -8972,22 +8963,22 @@
     </row>
     <row r="147" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C147" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="D147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9019,27 +9010,27 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9071,18 +9062,18 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>29</v>
@@ -9128,14 +9119,14 @@
     </row>
     <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="D150" s="2" t="s">
         <v>29</v>
       </c>
@@ -9143,7 +9134,7 @@
         <v>23</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9180,19 +9171,19 @@
     </row>
     <row r="151" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="E151" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>24</v>
@@ -9229,24 +9220,24 @@
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E152" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>24</v>
@@ -9283,24 +9274,24 @@
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E153" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>24</v>
@@ -9337,24 +9328,24 @@
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E154" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>24</v>
@@ -9391,27 +9382,27 @@
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9448,22 +9439,22 @@
     </row>
     <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9502,22 +9493,22 @@
     </row>
     <row r="157" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="D157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9556,13 +9547,13 @@
     </row>
     <row r="158" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>29</v>
@@ -9605,18 +9596,18 @@
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>29</v>
@@ -9664,13 +9655,13 @@
     </row>
     <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>29</v>
@@ -9718,13 +9709,13 @@
     </row>
     <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B161" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>29</v>
@@ -9772,13 +9763,13 @@
     </row>
     <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>29</v>
@@ -9826,13 +9817,13 @@
     </row>
     <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>29</v>
@@ -9877,18 +9868,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>29</v>
@@ -9923,27 +9914,27 @@
         <v>74</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -9975,18 +9966,18 @@
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
       <c r="R165" s="2" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>29</v>
@@ -9995,7 +9986,7 @@
         <v>23</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10029,19 +10020,19 @@
       </c>
       <c r="Q166" s="3"/>
       <c r="R166" s="2" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="D167" s="2" t="s">
         <v>29</v>
       </c>
@@ -10049,7 +10040,7 @@
         <v>23</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10081,18 +10072,18 @@
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
       <c r="R167" s="2" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>29</v>
@@ -10140,13 +10131,13 @@
     </row>
     <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>29</v>
@@ -10194,22 +10185,22 @@
     </row>
     <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10243,27 +10234,27 @@
       </c>
       <c r="Q170" s="3"/>
       <c r="R170" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10297,18 +10288,18 @@
       </c>
       <c r="Q171" s="3"/>
       <c r="R171" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>29</v>
@@ -10351,14 +10342,14 @@
       </c>
       <c r="Q172" s="3"/>
       <c r="R172" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B175" s="8"/>
     </row>
@@ -10373,7 +10364,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1050,7 +1050,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 22-12-2020, 14:20</t>
+    <t>Ostatnia aktualizacja: 12-01-2021, 12:02</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1594,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1050,7 +1050,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 12-01-2021, 12:02</t>
+    <t>Ostatnia aktualizacja: 26-01-2021, 12:47</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1594,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8084,25 +8084,25 @@
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="6">
-        <v>120451</v>
+        <v>10166</v>
       </c>
       <c r="I130" s="6">
-        <v>-63307</v>
+        <v>-27471</v>
       </c>
       <c r="J130" s="6">
-        <v>63845</v>
+        <v>11803</v>
       </c>
       <c r="K130" s="6">
-        <v>295265</v>
+        <v>35266</v>
       </c>
       <c r="L130" s="6">
-        <v>250661</v>
+        <v>24986</v>
       </c>
       <c r="M130" s="6">
-        <v>433179</v>
+        <v>49727</v>
       </c>
       <c r="N130" s="6">
-        <v>1127454</v>
+        <v>46034</v>
       </c>
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
@@ -10364,7 +10364,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="342">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -564,7 +564,7 @@
     <t>7.3.a Stosunek pozyskania energii ogółem do globalnego zużycia energii</t>
   </si>
   <si>
-    <t>Ministerstwo Energii / Główny Urząd Statystyczny</t>
+    <t>Ministerstwo Klimatu i Środowiska/ Główny Urząd Statystyczny</t>
   </si>
   <si>
     <t>7.3.b SAIDI (Wskaźnik przeciętnego systemowego czasu trwania przerwy długiej i bardzo długiej w przeliczeniu na jednego odbiorcę)</t>
@@ -722,7 +722,7 @@
     <t>9.2.b Nakłady sektora przedsiębiorstw na działalność B+R w relacji do PKB</t>
   </si>
   <si>
-    <t>9.2.c Udział przychodów netto ze sprzedaży produktów nowych lub istotnie ulepszonych w przychodach netto ze sprzedaży ogółem w przedsiębiorstwach przemysłowych</t>
+    <t>9.2.c Udział przychodów netto ze sprzedaży produktów nowych lub ulepszonych w przychodach netto ze sprzedaży ogółem w przedsiębiorstwach przemysłowych</t>
   </si>
   <si>
     <t>9.2.d Udział eksportu wyrobów wysokiej techniki w eksporcie ogółem</t>
@@ -761,10 +761,14 @@
     <t>Cel 10. Mniej nierówności</t>
   </si>
   <si>
+    <t>Niwelowanie różnic w rozwoju społeczno-gospodarczym regionów, zapobieganie
+  tworzeniu się nowych dysproporcji rozwojowych</t>
+  </si>
+  <si>
+    <t>10.1.a Zróżnicowanie wartości dodanej brutto na 1 pracującego na poziomie regionów (NUTS 2)</t>
+  </si>
+  <si>
     <t>Niwelowanie różnic w rozwoju społeczno-gospodarczym regionów, zapobieganie tworzeniu się nowych dysproporcji rozwojowych</t>
-  </si>
-  <si>
-    <t>10.1.a Zróżnicowanie wartości dodanej brutto na 1 pracującego na poziomie regionów (NUTS 2)</t>
   </si>
   <si>
     <t>10.1.b Relacja przeciętnych rocznych dochodów do dyspozycji netto na 1 osobę w gospodarstwie domowym na wsi do miasta</t>
@@ -1050,7 +1054,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 26-01-2021, 12:47</t>
+    <t>Ostatnia aktualizacja: 02-02-2021, 09:10</t>
   </si>
 </sst>
 </file>
@@ -1857,33 +1861,35 @@
         <v>30</v>
       </c>
       <c r="G7" s="5">
-        <v>107.05</v>
+        <v>107.56</v>
       </c>
       <c r="H7" s="5">
-        <v>107.44</v>
+        <v>107.93</v>
       </c>
       <c r="I7" s="5">
-        <v>108.58</v>
+        <v>108.78</v>
       </c>
       <c r="J7" s="5">
-        <v>110.19</v>
+        <v>110.25</v>
       </c>
       <c r="K7" s="5">
-        <v>113.39</v>
+        <v>113.67</v>
       </c>
       <c r="L7" s="5">
-        <v>117.66</v>
+        <v>118.48</v>
       </c>
       <c r="M7" s="5">
-        <v>124.68</v>
+        <v>125.18</v>
       </c>
       <c r="N7" s="5">
-        <v>128.55000000000001</v>
+        <v>129.18</v>
       </c>
       <c r="O7" s="5">
-        <v>132.25</v>
-      </c>
-      <c r="P7" s="3"/>
+        <v>133.29</v>
+      </c>
+      <c r="P7" s="5">
+        <v>141.4</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="2" t="s">
         <v>31</v>
@@ -1979,7 +1985,9 @@
       <c r="O9" s="4">
         <v>116.1</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="4">
+        <v>115.4</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="2" t="s">
         <v>25</v>
@@ -2189,7 +2197,9 @@
       <c r="O13" s="5">
         <v>0.05</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="5">
+        <v>0.06</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="2" t="s">
         <v>25</v>
@@ -2616,7 +2626,9 @@
       <c r="P21" s="6">
         <v>85876</v>
       </c>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="6">
+        <v>85876</v>
+      </c>
       <c r="R21" s="2" t="s">
         <v>65</v>
       </c>
@@ -2670,7 +2682,9 @@
       <c r="P22" s="6">
         <v>4453</v>
       </c>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="6">
+        <v>4350</v>
+      </c>
       <c r="R22" s="2" t="s">
         <v>65</v>
       </c>
@@ -2724,7 +2738,9 @@
       <c r="P23" s="6">
         <v>1497</v>
       </c>
-      <c r="Q23" s="3"/>
+      <c r="Q23" s="6">
+        <v>1578</v>
+      </c>
       <c r="R23" s="2" t="s">
         <v>65</v>
       </c>
@@ -2778,7 +2794,9 @@
       <c r="P24" s="6">
         <v>8198</v>
       </c>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="6">
+        <v>8160</v>
+      </c>
       <c r="R24" s="2" t="s">
         <v>65</v>
       </c>
@@ -2832,7 +2850,9 @@
       <c r="P25" s="6">
         <v>144</v>
       </c>
-      <c r="Q25" s="3"/>
+      <c r="Q25" s="6">
+        <v>156</v>
+      </c>
       <c r="R25" s="2" t="s">
         <v>65</v>
       </c>
@@ -2886,7 +2906,9 @@
       <c r="P26" s="6">
         <v>37589</v>
       </c>
-      <c r="Q26" s="3"/>
+      <c r="Q26" s="6">
+        <v>40100</v>
+      </c>
       <c r="R26" s="2" t="s">
         <v>65</v>
       </c>
@@ -3441,7 +3463,9 @@
       <c r="O37" s="4">
         <v>23.3</v>
       </c>
-      <c r="P37" s="3"/>
+      <c r="P37" s="4">
+        <v>23.7</v>
+      </c>
       <c r="Q37" s="3"/>
       <c r="R37" s="2" t="s">
         <v>25</v>
@@ -3493,7 +3517,9 @@
       <c r="O38" s="4">
         <v>56.2</v>
       </c>
-      <c r="P38" s="3"/>
+      <c r="P38" s="4">
+        <v>56.3</v>
+      </c>
       <c r="Q38" s="3"/>
       <c r="R38" s="2" t="s">
         <v>25</v>
@@ -4393,7 +4419,9 @@
       <c r="O58" s="4">
         <v>87.3</v>
       </c>
-      <c r="P58" s="3"/>
+      <c r="P58" s="4">
+        <v>88.5</v>
+      </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="2" t="s">
         <v>25</v>
@@ -4445,7 +4473,9 @@
       <c r="O59" s="4">
         <v>101.9</v>
       </c>
-      <c r="P59" s="3"/>
+      <c r="P59" s="4">
+        <v>102.7</v>
+      </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="2" t="s">
         <v>25</v>
@@ -4497,7 +4527,9 @@
       <c r="O60" s="4">
         <v>67</v>
       </c>
-      <c r="P60" s="3"/>
+      <c r="P60" s="4">
+        <v>68.5</v>
+      </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="2" t="s">
         <v>25</v>
@@ -5066,7 +5098,9 @@
       <c r="P71" s="6">
         <v>21</v>
       </c>
-      <c r="Q71" s="3"/>
+      <c r="Q71" s="6">
+        <v>26</v>
+      </c>
       <c r="R71" s="2" t="s">
         <v>25</v>
       </c>
@@ -5109,7 +5143,7 @@
         <v>7.4</v>
       </c>
       <c r="M72" s="4">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="N72" s="4">
         <v>7.2</v>
@@ -5117,10 +5151,12 @@
       <c r="O72" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="P72" s="3"/>
+      <c r="P72" s="4">
+        <v>8.8000000000000007</v>
+      </c>
       <c r="Q72" s="3"/>
       <c r="R72" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.25">
@@ -5877,39 +5913,41 @@
         <v>24</v>
       </c>
       <c r="G88" s="5">
-        <v>9.25</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H88" s="5">
-        <v>10.29</v>
+        <v>10.35</v>
       </c>
       <c r="I88" s="5">
-        <v>10.9</v>
+        <v>10.97</v>
       </c>
       <c r="J88" s="5">
-        <v>11.37</v>
+        <v>11.46</v>
       </c>
       <c r="K88" s="5">
-        <v>11.5</v>
+        <v>11.61</v>
       </c>
       <c r="L88" s="5">
-        <v>11.74</v>
+        <v>11.89</v>
       </c>
       <c r="M88" s="5">
-        <v>11.27</v>
+        <v>11.4</v>
       </c>
       <c r="N88" s="5">
-        <v>10.96</v>
+        <v>11.12</v>
       </c>
       <c r="O88" s="5">
-        <v>11.28</v>
-      </c>
-      <c r="P88" s="3"/>
+        <v>11.48</v>
+      </c>
+      <c r="P88" s="5">
+        <v>12.16</v>
+      </c>
       <c r="Q88" s="3"/>
       <c r="R88" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>171</v>
       </c>
@@ -5955,7 +5993,9 @@
       <c r="O89" s="6">
         <v>58</v>
       </c>
-      <c r="P89" s="3"/>
+      <c r="P89" s="6">
+        <v>57</v>
+      </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2" t="s">
         <v>179</v>
@@ -6322,7 +6362,9 @@
       <c r="P96" s="6">
         <v>40</v>
       </c>
-      <c r="Q96" s="3"/>
+      <c r="Q96" s="6">
+        <v>40</v>
+      </c>
       <c r="R96" s="2" t="s">
         <v>196</v>
       </c>
@@ -6913,7 +6955,9 @@
       <c r="O107" s="4">
         <v>73.900000000000006</v>
       </c>
-      <c r="P107" s="3"/>
+      <c r="P107" s="4">
+        <v>74.2</v>
+      </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="2" t="s">
         <v>25</v>
@@ -7584,7 +7628,7 @@
         <v>0.88</v>
       </c>
       <c r="J120" s="5">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K120" s="5">
         <v>0.94</v>
@@ -7601,7 +7645,9 @@
       <c r="O120" s="5">
         <v>1.21</v>
       </c>
-      <c r="P120" s="3"/>
+      <c r="P120" s="5">
+        <v>1.32</v>
+      </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="2" t="s">
         <v>25</v>
@@ -7653,7 +7699,9 @@
       <c r="O121" s="5">
         <v>0.8</v>
       </c>
-      <c r="P121" s="3"/>
+      <c r="P121" s="5">
+        <v>0.83</v>
+      </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="2" t="s">
         <v>25</v>
@@ -7705,7 +7753,9 @@
       <c r="O122" s="4">
         <v>9.1</v>
       </c>
-      <c r="P122" s="3"/>
+      <c r="P122" s="4">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="2" t="s">
         <v>25</v>
@@ -7988,24 +8038,36 @@
       <c r="F128" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="3"/>
-      <c r="J128" s="3"/>
+      <c r="G128" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="H128" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="I128" s="4">
+        <v>16</v>
+      </c>
+      <c r="J128" s="4">
+        <v>15.7</v>
+      </c>
       <c r="K128" s="4">
-        <v>16</v>
+        <v>15.7</v>
       </c>
       <c r="L128" s="4">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="M128" s="4">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="N128" s="4">
-        <v>14.8</v>
-      </c>
-      <c r="O128" s="3"/>
-      <c r="P128" s="3"/>
+        <v>14.7</v>
+      </c>
+      <c r="O128" s="4">
+        <v>15</v>
+      </c>
+      <c r="P128" s="4">
+        <v>15</v>
+      </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="2" t="s">
         <v>25</v>
@@ -8016,10 +8078,10 @@
         <v>243</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>29</v>
@@ -8055,9 +8117,11 @@
         <v>68.900000000000006</v>
       </c>
       <c r="O129" s="4">
-        <v>77.8</v>
-      </c>
-      <c r="P129" s="3"/>
+        <v>71.7</v>
+      </c>
+      <c r="P129" s="4">
+        <v>77.099999999999994</v>
+      </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="2" t="s">
         <v>25</v>
@@ -8068,10 +8132,10 @@
         <v>243</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>29</v>
@@ -8116,10 +8180,10 @@
         <v>243</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>29</v>
@@ -8128,7 +8192,7 @@
         <v>23</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8157,7 +8221,9 @@
       <c r="O131" s="4">
         <v>27.8</v>
       </c>
-      <c r="P131" s="3"/>
+      <c r="P131" s="4">
+        <v>28.5</v>
+      </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="2" t="s">
         <v>25</v>
@@ -8165,13 +8231,13 @@
     </row>
     <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>29</v>
@@ -8209,7 +8275,9 @@
       <c r="O132" s="4">
         <v>13.8</v>
       </c>
-      <c r="P132" s="3"/>
+      <c r="P132" s="4">
+        <v>12.6</v>
+      </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="2" t="s">
         <v>25</v>
@@ -8217,13 +8285,13 @@
     </row>
     <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>29</v>
@@ -8232,7 +8300,7 @@
         <v>23</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G133" s="4">
         <v>24.7</v>
@@ -8271,13 +8339,13 @@
     </row>
     <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>29</v>
@@ -8315,7 +8383,9 @@
       <c r="O134" s="4">
         <v>10.5</v>
       </c>
-      <c r="P134" s="3"/>
+      <c r="P134" s="4">
+        <v>10.4</v>
+      </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="2" t="s">
         <v>25</v>
@@ -8323,13 +8393,13 @@
     </row>
     <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>29</v>
@@ -8377,13 +8447,13 @@
     </row>
     <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>29</v>
@@ -8426,24 +8496,24 @@
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>24</v>
@@ -8485,19 +8555,19 @@
     </row>
     <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>24</v>
@@ -8539,19 +8609,19 @@
     </row>
     <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>24</v>
@@ -8593,19 +8663,19 @@
     </row>
     <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>24</v>
@@ -8647,13 +8717,13 @@
     </row>
     <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>29</v>
@@ -8701,13 +8771,13 @@
     </row>
     <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>29</v>
@@ -8716,7 +8786,7 @@
         <v>23</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8755,13 +8825,13 @@
     </row>
     <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>29</v>
@@ -8770,7 +8840,7 @@
         <v>23</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -8797,9 +8867,11 @@
         <v>0.64</v>
       </c>
       <c r="O143" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="P143" s="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="P143" s="5">
+        <v>0.71</v>
+      </c>
       <c r="Q143" s="3"/>
       <c r="R143" s="2" t="s">
         <v>31</v>
@@ -8807,13 +8879,13 @@
     </row>
     <row r="144" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>29</v>
@@ -8822,7 +8894,7 @@
         <v>23</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -8846,12 +8918,14 @@
         <v>17.7</v>
       </c>
       <c r="N144" s="5">
-        <v>18.760000000000002</v>
+        <v>18.71</v>
       </c>
       <c r="O144" s="5">
-        <v>20.37</v>
-      </c>
-      <c r="P144" s="3"/>
+        <v>19.34</v>
+      </c>
+      <c r="P144" s="5">
+        <v>18.489999999999998</v>
+      </c>
       <c r="Q144" s="3"/>
       <c r="R144" s="2" t="s">
         <v>31</v>
@@ -8859,13 +8933,13 @@
     </row>
     <row r="145" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
@@ -8898,10 +8972,14 @@
         <v>10.199999999999999</v>
       </c>
       <c r="N145" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="O145" s="3"/>
-      <c r="P145" s="3"/>
+        <v>9.9</v>
+      </c>
+      <c r="O145" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P145" s="4">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="Q145" s="3"/>
       <c r="R145" s="2" t="s">
         <v>31</v>
@@ -8909,13 +8987,13 @@
     </row>
     <row r="146" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>29</v>
@@ -8963,13 +9041,13 @@
     </row>
     <row r="147" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>29</v>
@@ -8978,7 +9056,7 @@
         <v>23</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9010,18 +9088,18 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>29</v>
@@ -9030,7 +9108,7 @@
         <v>23</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9062,18 +9140,18 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>29</v>
@@ -9085,33 +9163,35 @@
         <v>24</v>
       </c>
       <c r="G149" s="5">
-        <v>9.25</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="H149" s="5">
-        <v>10.29</v>
+        <v>10.35</v>
       </c>
       <c r="I149" s="5">
-        <v>10.9</v>
+        <v>10.97</v>
       </c>
       <c r="J149" s="5">
-        <v>11.37</v>
+        <v>11.46</v>
       </c>
       <c r="K149" s="5">
-        <v>11.5</v>
+        <v>11.61</v>
       </c>
       <c r="L149" s="5">
-        <v>11.74</v>
+        <v>11.89</v>
       </c>
       <c r="M149" s="5">
-        <v>11.27</v>
+        <v>11.4</v>
       </c>
       <c r="N149" s="5">
-        <v>10.96</v>
+        <v>11.12</v>
       </c>
       <c r="O149" s="5">
-        <v>11.28</v>
-      </c>
-      <c r="P149" s="3"/>
+        <v>11.48</v>
+      </c>
+      <c r="P149" s="5">
+        <v>12.16</v>
+      </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="2" t="s">
         <v>25</v>
@@ -9119,13 +9199,13 @@
     </row>
     <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>29</v>
@@ -9134,7 +9214,7 @@
         <v>23</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9163,7 +9243,9 @@
       <c r="O150" s="6">
         <v>991</v>
       </c>
-      <c r="P150" s="3"/>
+      <c r="P150" s="6">
+        <v>1050</v>
+      </c>
       <c r="Q150" s="3"/>
       <c r="R150" s="2" t="s">
         <v>25</v>
@@ -9171,19 +9253,19 @@
     </row>
     <row r="151" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>24</v>
@@ -9220,24 +9302,24 @@
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>24</v>
@@ -9274,24 +9356,24 @@
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>24</v>
@@ -9328,24 +9410,24 @@
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>24</v>
@@ -9382,18 +9464,18 @@
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>29</v>
@@ -9402,7 +9484,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9431,7 +9513,9 @@
       <c r="O155" s="4">
         <v>130</v>
       </c>
-      <c r="P155" s="3"/>
+      <c r="P155" s="4">
+        <v>189.5</v>
+      </c>
       <c r="Q155" s="3"/>
       <c r="R155" s="2" t="s">
         <v>25</v>
@@ -9439,13 +9523,13 @@
     </row>
     <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>29</v>
@@ -9454,7 +9538,7 @@
         <v>23</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9493,13 +9577,13 @@
     </row>
     <row r="157" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>29</v>
@@ -9508,7 +9592,7 @@
         <v>23</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9547,13 +9631,13 @@
     </row>
     <row r="158" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>29</v>
@@ -9596,18 +9680,18 @@
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>29</v>
@@ -9655,13 +9739,13 @@
     </row>
     <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>29</v>
@@ -9709,13 +9793,13 @@
     </row>
     <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>29</v>
@@ -9763,13 +9847,13 @@
     </row>
     <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>29</v>
@@ -9817,13 +9901,13 @@
     </row>
     <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>29</v>
@@ -9868,18 +9952,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>29</v>
@@ -9914,18 +9998,18 @@
         <v>74</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>29</v>
@@ -9934,7 +10018,7 @@
         <v>23</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -9963,7 +10047,9 @@
       <c r="O165" s="5">
         <v>0.88</v>
       </c>
-      <c r="P165" s="3"/>
+      <c r="P165" s="5">
+        <v>1.01</v>
+      </c>
       <c r="Q165" s="3"/>
       <c r="R165" s="2" t="s">
         <v>196</v>
@@ -9971,13 +10057,13 @@
     </row>
     <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>29</v>
@@ -9986,7 +10072,7 @@
         <v>23</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10025,22 +10111,22 @@
     </row>
     <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10069,7 +10155,9 @@
       <c r="O167" s="5">
         <v>0.66</v>
       </c>
-      <c r="P167" s="3"/>
+      <c r="P167" s="5">
+        <v>0.6</v>
+      </c>
       <c r="Q167" s="3"/>
       <c r="R167" s="2" t="s">
         <v>196</v>
@@ -10077,13 +10165,13 @@
     </row>
     <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>29</v>
@@ -10124,20 +10212,22 @@
       <c r="P168" s="6">
         <v>31</v>
       </c>
-      <c r="Q168" s="3"/>
+      <c r="Q168" s="6">
+        <v>34</v>
+      </c>
       <c r="R168" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>29</v>
@@ -10185,13 +10275,13 @@
     </row>
     <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>29</v>
@@ -10200,7 +10290,7 @@
         <v>23</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10230,22 +10320,22 @@
         <v>766.04</v>
       </c>
       <c r="P170" s="5">
-        <v>765.54</v>
+        <v>776.56</v>
       </c>
       <c r="Q170" s="3"/>
       <c r="R170" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>29</v>
@@ -10254,7 +10344,7 @@
         <v>23</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10284,22 +10374,22 @@
         <v>244.93</v>
       </c>
       <c r="P171" s="5">
-        <v>221.73</v>
+        <v>223.31</v>
       </c>
       <c r="Q171" s="3"/>
       <c r="R171" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>29</v>
@@ -10342,14 +10432,14 @@
       </c>
       <c r="Q172" s="3"/>
       <c r="R172" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B175" s="8"/>
     </row>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1054,7 +1054,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 02-02-2021, 09:10</t>
+    <t>Ostatnia aktualizacja: 09-02-2021, 08:30</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1598,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,7 +1937,9 @@
       <c r="O8" s="4">
         <v>2.7</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="4">
+        <v>2.7</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="2" t="s">
         <v>25</v>
@@ -10454,7 +10456,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="343">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -136,13 +136,14 @@
     <t>osoby</t>
   </si>
   <si>
-    <t>Poprawa dostępności do usług społecznych (np. wsparcie dla rodzin z dziećmi, opieka nad dziećmi, nad starszymi osobami) i zdrowotnych</t>
+    <t>Poprawa dostępności do usług społecznych (np. wsparcie dla rodzin z dziećmi,
+  opieka nad dziećmi, nad starszymi osobami) i zdrowotnych</t>
   </si>
   <si>
     <t>1.3.a Odsetek dzieci w wieku 1-3 lata objętych różnymi formami opieki instytucjonalnej</t>
   </si>
   <si>
-    <t>Ministerstwo Rodziny, Pracy i Polityki Społecznej</t>
+    <t>Ministerstwo Rodziny i Polityki Społecznej</t>
   </si>
   <si>
     <t>Poprawa sytuacji mieszkaniowej</t>
@@ -353,7 +354,7 @@
     <t>3.6.a Odsetek podmiotów leczniczych posiadających rozwiązania informatyczne umożliwiające prowadzenie dokumentacji medycznej w postaci elektronicznej</t>
   </si>
   <si>
-    <t>Centrum Systemów Informacyjnych Ochrony Zdrowia</t>
+    <t>Centrum e-Zdrowia (CeZ)</t>
   </si>
   <si>
     <t>Kompleksowa poprawa jakości powietrza do stanu niepowodującego narażenia zdrowia oraz środowiska, zgodnego z prawodawstwem unijnym, a w dalszej perspektywie z wytycznymi WHO</t>
@@ -383,28 +384,32 @@
     <t xml:space="preserve">4.2.a Odsetek studentów-cudzoziemców studiujących na polskich uczelniach na terenie Polski </t>
   </si>
   <si>
+    <t>Tworzenie warunków dla rozwoju edukacji na całym obszarze kraju i wyrównywanie
+  szans edukacyjnych</t>
+  </si>
+  <si>
+    <t>4.3.a Wyniki testów PISA - odsetek uczniów na najwyższych poziomach osiągnięć w czytaniu i interpretacji</t>
+  </si>
+  <si>
+    <t>Organizacja Współpracy Gospodarczej i Rozwoju / Ministerstwo Edukacji i Nauki</t>
+  </si>
+  <si>
+    <t>4.3.b Wyniki testów PISA - odsetek uczniów na najwyższych poziomach osiągnięć w matematyce</t>
+  </si>
+  <si>
+    <t>4.3.c Wyniki testów PISA - odsetek uczniów na najniższych poziomach osiągnięć w czytaniu i interpretacji</t>
+  </si>
+  <si>
+    <t>4.3.d Wyniki testów PISA - odsetek uczniów na najniższych poziomach osiągnięć w matematyce</t>
+  </si>
+  <si>
+    <t>4.3.e Wyniki testów PISA - odsetek uczniów na minimalnym wymagalnym poziomie osiągnięć w czytaniu i interpretacji</t>
+  </si>
+  <si>
+    <t>4.3.f Wyniki testów PISA - odsetek uczniów na minimalnym wymagalnym poziomie osiągnięć w matematyce</t>
+  </si>
+  <si>
     <t>Tworzenie warunków dla rozwoju edukacji na całym obszarze kraju i wyrównywanie szans edukacyjnych</t>
-  </si>
-  <si>
-    <t>4.3.a Wyniki testów PISA - odsetek uczniów na najwyższych poziomach osiągnięć w czytaniu i interpretacji</t>
-  </si>
-  <si>
-    <t>Organizacja Współpracy Gospodarczej i Rozwoju / Ministerstwo Edukacji Narodowej</t>
-  </si>
-  <si>
-    <t>4.3.b Wyniki testów PISA - odsetek uczniów na najwyższych poziomach osiągnięć w matematyce</t>
-  </si>
-  <si>
-    <t>4.3.c Wyniki testów PISA - odsetek uczniów na najniższych poziomach osiągnięć w czytaniu i interpretacji</t>
-  </si>
-  <si>
-    <t>4.3.d Wyniki testów PISA - odsetek uczniów na najniższych poziomach osiągnięć w matematyce</t>
-  </si>
-  <si>
-    <t>4.3.e Wyniki testów PISA - odsetek uczniów na minimalnym wymagalnym poziomie osiągnięć w czytaniu i interpretacji</t>
-  </si>
-  <si>
-    <t>4.3.f Wyniki testów PISA - odsetek uczniów na minimalnym wymagalnym poziomie osiągnięć w matematyce</t>
   </si>
   <si>
     <t>4.3.g Odsetek dzieci w wieku 3-5 lat objętych wychowaniem przedszkolnym</t>
@@ -573,7 +578,7 @@
     <t xml:space="preserve">minuty </t>
   </si>
   <si>
-    <t>Ministerstwo Energii</t>
+    <t>Ministerstwo Klimatu i Środowiska</t>
   </si>
   <si>
     <t>Zaspokojenie potrzeb energetycznych przedsiębiorstw i gospodarstw domowych</t>
@@ -1054,7 +1059,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 09-02-2021, 08:30</t>
+    <t>Ostatnia aktualizacja: 16-02-2021, 11:25</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1603,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,7 +2000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -4380,13 +4385,13 @@
         <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>23</v>
@@ -4434,16 +4439,16 @@
         <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>24</v>
@@ -4488,16 +4493,16 @@
         <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>24</v>
@@ -4542,10 +4547,10 @@
         <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>29</v>
@@ -4596,16 +4601,16 @@
         <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>24</v>
@@ -4650,16 +4655,16 @@
         <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>24</v>
@@ -4704,16 +4709,16 @@
         <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>24</v>
@@ -4758,16 +4763,16 @@
         <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>24</v>
@@ -4812,16 +4817,16 @@
         <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>24</v>
@@ -4866,16 +4871,16 @@
         <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>24</v>
@@ -4920,16 +4925,16 @@
         <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>24</v>
@@ -4974,16 +4979,16 @@
         <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>24</v>
@@ -5028,10 +5033,10 @@
         <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>29</v>
@@ -5066,10 +5071,10 @@
         <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>29</v>
@@ -5109,13 +5114,13 @@
     </row>
     <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>29</v>
@@ -5163,13 +5168,13 @@
     </row>
     <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>29</v>
@@ -5178,7 +5183,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G73" s="4">
         <v>10.8</v>
@@ -5217,16 +5222,16 @@
     </row>
     <row r="74" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>23</v>
@@ -5261,19 +5266,19 @@
     </row>
     <row r="75" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>24</v>
@@ -5305,19 +5310,19 @@
     </row>
     <row r="76" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>24</v>
@@ -5349,19 +5354,19 @@
     </row>
     <row r="77" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>24</v>
@@ -5393,19 +5398,19 @@
     </row>
     <row r="78" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>24</v>
@@ -5437,19 +5442,19 @@
     </row>
     <row r="79" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>24</v>
@@ -5481,19 +5486,19 @@
     </row>
     <row r="80" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>24</v>
@@ -5525,13 +5530,13 @@
     </row>
     <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>29</v>
@@ -5577,13 +5582,13 @@
     </row>
     <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>29</v>
@@ -5631,13 +5636,13 @@
     </row>
     <row r="83" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>29</v>
@@ -5646,7 +5651,7 @@
         <v>23</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G83" s="4">
         <v>732401.6</v>
@@ -5678,18 +5683,18 @@
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>29</v>
@@ -5737,13 +5742,13 @@
     </row>
     <row r="85" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>29</v>
@@ -5791,13 +5796,13 @@
     </row>
     <row r="86" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>29</v>
@@ -5845,13 +5850,13 @@
     </row>
     <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>29</v>
@@ -5860,7 +5865,7 @@
         <v>23</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G87" s="7">
         <v>0.318</v>
@@ -5897,13 +5902,13 @@
     </row>
     <row r="88" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>29</v>
@@ -5951,13 +5956,13 @@
     </row>
     <row r="89" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>29</v>
@@ -6000,18 +6005,18 @@
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>29</v>
@@ -6020,7 +6025,7 @@
         <v>23</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G90" s="4">
         <v>316.10000000000002</v>
@@ -6052,18 +6057,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>29</v>
@@ -6109,13 +6114,13 @@
     </row>
     <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>29</v>
@@ -6163,13 +6168,13 @@
     </row>
     <row r="93" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>29</v>
@@ -6215,13 +6220,13 @@
     </row>
     <row r="94" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>29</v>
@@ -6267,13 +6272,13 @@
     </row>
     <row r="95" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>29</v>
@@ -6282,7 +6287,7 @@
         <v>23</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G95" s="6">
         <v>39</v>
@@ -6316,18 +6321,18 @@
       </c>
       <c r="Q95" s="3"/>
       <c r="R95" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>29</v>
@@ -6336,7 +6341,7 @@
         <v>23</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -6368,18 +6373,18 @@
         <v>40</v>
       </c>
       <c r="R96" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>74</v>
@@ -6427,13 +6432,13 @@
     </row>
     <row r="98" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>74</v>
@@ -6481,13 +6486,13 @@
     </row>
     <row r="99" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>74</v>
@@ -6535,19 +6540,19 @@
     </row>
     <row r="100" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>24</v>
@@ -6589,19 +6594,19 @@
     </row>
     <row r="101" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>24</v>
@@ -6643,19 +6648,19 @@
     </row>
     <row r="102" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>24</v>
@@ -6697,19 +6702,19 @@
     </row>
     <row r="103" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>24</v>
@@ -6751,19 +6756,19 @@
     </row>
     <row r="104" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>24</v>
@@ -6805,19 +6810,19 @@
     </row>
     <row r="105" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>24</v>
@@ -6859,19 +6864,19 @@
     </row>
     <row r="106" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>24</v>
@@ -6913,13 +6918,13 @@
     </row>
     <row r="107" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>29</v>
@@ -6967,13 +6972,13 @@
     </row>
     <row r="108" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>29</v>
@@ -7021,13 +7026,13 @@
     </row>
     <row r="109" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>29</v>
@@ -7065,16 +7070,16 @@
     </row>
     <row r="110" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>23</v>
@@ -7119,16 +7124,16 @@
     </row>
     <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>77</v>
@@ -7173,19 +7178,19 @@
     </row>
     <row r="112" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>24</v>
@@ -7227,19 +7232,19 @@
     </row>
     <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>24</v>
@@ -7281,19 +7286,19 @@
     </row>
     <row r="114" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>24</v>
@@ -7335,13 +7340,13 @@
     </row>
     <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>29</v>
@@ -7389,13 +7394,13 @@
     </row>
     <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>29</v>
@@ -7443,13 +7448,13 @@
     </row>
     <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>29</v>
@@ -7497,13 +7502,13 @@
     </row>
     <row r="118" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>29</v>
@@ -7549,13 +7554,13 @@
     </row>
     <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>29</v>
@@ -7564,7 +7569,7 @@
         <v>23</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="6">
@@ -7598,18 +7603,18 @@
         <v>38</v>
       </c>
       <c r="R119" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="120" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>29</v>
@@ -7657,13 +7662,13 @@
     </row>
     <row r="121" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>29</v>
@@ -7711,13 +7716,13 @@
     </row>
     <row r="122" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>29</v>
@@ -7765,13 +7770,13 @@
     </row>
     <row r="123" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>29</v>
@@ -7817,13 +7822,13 @@
     </row>
     <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>29</v>
@@ -7866,18 +7871,18 @@
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>29</v>
@@ -7923,13 +7928,13 @@
     </row>
     <row r="126" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>29</v>
@@ -7964,18 +7969,18 @@
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
       <c r="R126" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>29</v>
@@ -7984,7 +7989,7 @@
         <v>23</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G127" s="4">
         <v>4.9000000000000004</v>
@@ -8023,13 +8028,13 @@
     </row>
     <row r="128" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>29</v>
@@ -8077,13 +8082,13 @@
     </row>
     <row r="129" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>29</v>
@@ -8131,13 +8136,13 @@
     </row>
     <row r="130" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>29</v>
@@ -8179,13 +8184,13 @@
     </row>
     <row r="131" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>29</v>
@@ -8194,7 +8199,7 @@
         <v>23</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8233,13 +8238,13 @@
     </row>
     <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>29</v>
@@ -8287,13 +8292,13 @@
     </row>
     <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>29</v>
@@ -8302,7 +8307,7 @@
         <v>23</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G133" s="4">
         <v>24.7</v>
@@ -8341,13 +8346,13 @@
     </row>
     <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>29</v>
@@ -8395,13 +8400,13 @@
     </row>
     <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>29</v>
@@ -8449,13 +8454,13 @@
     </row>
     <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>29</v>
@@ -8498,24 +8503,24 @@
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>24</v>
@@ -8557,19 +8562,19 @@
     </row>
     <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>24</v>
@@ -8611,19 +8616,19 @@
     </row>
     <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>24</v>
@@ -8665,19 +8670,19 @@
     </row>
     <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>24</v>
@@ -8719,13 +8724,13 @@
     </row>
     <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>29</v>
@@ -8773,13 +8778,13 @@
     </row>
     <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>29</v>
@@ -8788,7 +8793,7 @@
         <v>23</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8827,13 +8832,13 @@
     </row>
     <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>29</v>
@@ -8842,7 +8847,7 @@
         <v>23</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -8881,13 +8886,13 @@
     </row>
     <row r="144" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>29</v>
@@ -8896,7 +8901,7 @@
         <v>23</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -8935,13 +8940,13 @@
     </row>
     <row r="145" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
@@ -8989,13 +8994,13 @@
     </row>
     <row r="146" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>29</v>
@@ -9043,13 +9048,13 @@
     </row>
     <row r="147" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>29</v>
@@ -9058,7 +9063,7 @@
         <v>23</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9090,18 +9095,18 @@
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
       <c r="R147" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>29</v>
@@ -9110,7 +9115,7 @@
         <v>23</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9142,18 +9147,18 @@
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
       <c r="R148" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>29</v>
@@ -9201,13 +9206,13 @@
     </row>
     <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>29</v>
@@ -9216,7 +9221,7 @@
         <v>23</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9255,19 +9260,19 @@
     </row>
     <row r="151" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>24</v>
@@ -9304,24 +9309,24 @@
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>24</v>
@@ -9358,24 +9363,24 @@
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>24</v>
@@ -9412,24 +9417,24 @@
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>24</v>
@@ -9466,18 +9471,18 @@
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>29</v>
@@ -9486,7 +9491,7 @@
         <v>23</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9525,13 +9530,13 @@
     </row>
     <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>29</v>
@@ -9540,7 +9545,7 @@
         <v>23</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9579,13 +9584,13 @@
     </row>
     <row r="157" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>29</v>
@@ -9594,7 +9599,7 @@
         <v>23</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9633,13 +9638,13 @@
     </row>
     <row r="158" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>29</v>
@@ -9682,18 +9687,18 @@
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>29</v>
@@ -9741,13 +9746,13 @@
     </row>
     <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>29</v>
@@ -9795,13 +9800,13 @@
     </row>
     <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>29</v>
@@ -9849,13 +9854,13 @@
     </row>
     <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>29</v>
@@ -9903,13 +9908,13 @@
     </row>
     <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>29</v>
@@ -9954,18 +9959,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>29</v>
@@ -10000,18 +10005,18 @@
         <v>74</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>29</v>
@@ -10020,7 +10025,7 @@
         <v>23</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -10054,18 +10059,18 @@
       </c>
       <c r="Q165" s="3"/>
       <c r="R165" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>29</v>
@@ -10074,7 +10079,7 @@
         <v>23</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10108,27 +10113,27 @@
       </c>
       <c r="Q166" s="3"/>
       <c r="R166" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10162,18 +10167,18 @@
       </c>
       <c r="Q167" s="3"/>
       <c r="R167" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>29</v>
@@ -10223,13 +10228,13 @@
     </row>
     <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>29</v>
@@ -10277,13 +10282,13 @@
     </row>
     <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>29</v>
@@ -10292,7 +10297,7 @@
         <v>23</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10326,18 +10331,18 @@
       </c>
       <c r="Q170" s="3"/>
       <c r="R170" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>29</v>
@@ -10346,7 +10351,7 @@
         <v>23</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10380,18 +10385,18 @@
       </c>
       <c r="Q171" s="3"/>
       <c r="R171" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>29</v>
@@ -10434,14 +10439,14 @@
       </c>
       <c r="Q172" s="3"/>
       <c r="R172" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B175" s="8"/>
     </row>
@@ -10456,7 +10461,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1059,7 +1059,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 16-02-2021, 11:25</t>
+    <t>Ostatnia aktualizacja: 16-03-2021, 19:47</t>
   </si>
 </sst>
 </file>
@@ -2047,7 +2047,9 @@
       <c r="P10" s="4">
         <v>22.6</v>
       </c>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="4">
+        <v>25.9</v>
+      </c>
       <c r="R10" s="2" t="s">
         <v>39</v>
       </c>
@@ -5575,7 +5577,9 @@
       <c r="P81" s="4">
         <v>22.6</v>
       </c>
-      <c r="Q81" s="3"/>
+      <c r="Q81" s="4">
+        <v>25.9</v>
+      </c>
       <c r="R81" s="2" t="s">
         <v>39</v>
       </c>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1059,7 +1059,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 16-03-2021, 19:47</t>
+    <t>Ostatnia aktualizacja: 30-03-2021, 09:23</t>
   </si>
 </sst>
 </file>
@@ -1603,7 +1603,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10465,7 +10465,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1059,7 +1059,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 30-03-2021, 09:23</t>
+    <t>Ostatnia aktualizacja: 20-04-2021, 08:15</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1047,7 +1047,7 @@
     <t xml:space="preserve">17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 27-04-2021, 10:09</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 29-04-2021, 07:01</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1362,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B170" activeCellId="0" sqref="B170"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2112,9 +2112,15 @@
       <c r="N16" s="6" t="n">
         <v>12.1</v>
       </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+      <c r="O16" s="6" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Q16" s="6" t="n">
+        <v>16.5</v>
+      </c>
       <c r="R16" s="4" t="s">
         <v>52</v>
       </c>
@@ -5721,8 +5727,12 @@
       <c r="O90" s="6" t="n">
         <v>133</v>
       </c>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
+      <c r="P90" s="6" t="n">
+        <v>138.5</v>
+      </c>
+      <c r="Q90" s="6" t="n">
+        <v>118.7</v>
+      </c>
       <c r="R90" s="4" t="s">
         <v>182</v>
       </c>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1016,8 +1016,7 @@
     <t xml:space="preserve">16.4.a Odsetek osób korzystających z Internetu w kontaktach z administracją publiczną do przekazywania wypełnionych formularzy</t>
   </si>
   <si>
-    <t xml:space="preserve">Lepsze gospodarowanie środkami publicznymi, w tym efektywne wykorzystanie
-  środków z UE</t>
+    <t xml:space="preserve">Lepsze gospodarowanie środkami publicznymi, w tym efektywne wykorzystanie środków z UE</t>
   </si>
   <si>
     <t xml:space="preserve">16.5.a Stopa inwestycji sektora instytucji rządowych i samorządowych</t>
@@ -1047,7 +1046,7 @@
     <t xml:space="preserve">17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 29-04-2021, 07:01</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 11-05-2021, 07:18</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1320,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1302480</xdr:colOff>
+      <xdr:colOff>1305000</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
@@ -1337,7 +1336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="2231640" cy="457920"/>
+          <a:ext cx="2234160" cy="457920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1362,7 +1361,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2013,7 +2012,9 @@
       <c r="O14" s="8" t="n">
         <v>41</v>
       </c>
-      <c r="P14" s="5"/>
+      <c r="P14" s="8" t="n">
+        <v>43</v>
+      </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="4" t="s">
         <v>25</v>
@@ -2903,7 +2904,9 @@
       <c r="O31" s="6" t="n">
         <v>60.5</v>
       </c>
-      <c r="P31" s="5"/>
+      <c r="P31" s="6" t="n">
+        <v>60.9</v>
+      </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="4" t="s">
         <v>30</v>
@@ -2953,7 +2956,9 @@
       <c r="O32" s="6" t="n">
         <v>64.3</v>
       </c>
-      <c r="P32" s="5"/>
+      <c r="P32" s="6" t="n">
+        <v>64.1</v>
+      </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="4" t="s">
         <v>30</v>
@@ -6094,7 +6099,9 @@
       <c r="P97" s="6" t="n">
         <v>54.4</v>
       </c>
-      <c r="Q97" s="5"/>
+      <c r="Q97" s="6" t="n">
+        <v>54.3</v>
+      </c>
       <c r="R97" s="4" t="s">
         <v>25</v>
       </c>
@@ -6148,7 +6155,9 @@
       <c r="P98" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="Q98" s="5"/>
+      <c r="Q98" s="6" t="n">
+        <v>63.1</v>
+      </c>
       <c r="R98" s="4" t="s">
         <v>25</v>
       </c>
@@ -6202,7 +6211,9 @@
       <c r="P99" s="6" t="n">
         <v>46.4</v>
       </c>
-      <c r="Q99" s="5"/>
+      <c r="Q99" s="6" t="n">
+        <v>46.3</v>
+      </c>
       <c r="R99" s="4" t="s">
         <v>25</v>
       </c>
@@ -6256,7 +6267,9 @@
       <c r="P100" s="6" t="n">
         <v>31.7</v>
       </c>
-      <c r="Q100" s="5"/>
+      <c r="Q100" s="6" t="n">
+        <v>28.4</v>
+      </c>
       <c r="R100" s="4" t="s">
         <v>25</v>
       </c>
@@ -6310,7 +6323,9 @@
       <c r="P101" s="6" t="n">
         <v>68.2</v>
       </c>
-      <c r="Q101" s="5"/>
+      <c r="Q101" s="6" t="n">
+        <v>68.7</v>
+      </c>
       <c r="R101" s="4" t="s">
         <v>25</v>
       </c>
@@ -6418,7 +6433,9 @@
       <c r="P103" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="Q103" s="5"/>
+      <c r="Q103" s="6" t="n">
+        <v>73.6</v>
+      </c>
       <c r="R103" s="4" t="s">
         <v>25</v>
       </c>
@@ -6472,7 +6489,9 @@
       <c r="P104" s="6" t="n">
         <v>32.6</v>
       </c>
-      <c r="Q104" s="5"/>
+      <c r="Q104" s="6" t="n">
+        <v>33</v>
+      </c>
       <c r="R104" s="4" t="s">
         <v>25</v>
       </c>
@@ -6526,7 +6545,9 @@
       <c r="P105" s="6" t="n">
         <v>49.5</v>
       </c>
-      <c r="Q105" s="5"/>
+      <c r="Q105" s="6" t="n">
+        <v>51.8</v>
+      </c>
       <c r="R105" s="4" t="s">
         <v>25</v>
       </c>
@@ -6780,7 +6801,9 @@
       <c r="P110" s="6" t="n">
         <v>56.2</v>
       </c>
-      <c r="Q110" s="5"/>
+      <c r="Q110" s="6" t="n">
+        <v>56.1</v>
+      </c>
       <c r="R110" s="4" t="s">
         <v>25</v>
       </c>
@@ -6834,7 +6857,9 @@
       <c r="P111" s="6" t="n">
         <v>48.2</v>
       </c>
-      <c r="Q111" s="5"/>
+      <c r="Q111" s="6" t="n">
+        <v>47.9</v>
+      </c>
       <c r="R111" s="4" t="s">
         <v>25</v>
       </c>
@@ -6888,7 +6913,9 @@
       <c r="P112" s="6" t="n">
         <v>35.2</v>
       </c>
-      <c r="Q112" s="5"/>
+      <c r="Q112" s="6" t="n">
+        <v>31.8</v>
+      </c>
       <c r="R112" s="4" t="s">
         <v>25</v>
       </c>
@@ -6942,7 +6969,9 @@
       <c r="P113" s="6" t="n">
         <v>33.4</v>
       </c>
-      <c r="Q113" s="5"/>
+      <c r="Q113" s="6" t="n">
+        <v>33.7</v>
+      </c>
       <c r="R113" s="4" t="s">
         <v>25</v>
       </c>
@@ -6996,7 +7025,9 @@
       <c r="P114" s="6" t="n">
         <v>17.1</v>
       </c>
-      <c r="Q114" s="5"/>
+      <c r="Q114" s="6" t="n">
+        <v>17.5</v>
+      </c>
       <c r="R114" s="4" t="s">
         <v>25</v>
       </c>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="343">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -136,8 +136,7 @@
     <t>osoby</t>
   </si>
   <si>
-    <t>Poprawa dostępności do usług społecznych (np. wsparcie dla rodzin z dziećmi,
-  opieka nad dziećmi, nad starszymi osobami) i zdrowotnych</t>
+    <t>Poprawa dostępności do usług społecznych (np. wsparcie dla rodzin z dziećmi, opieka nad dziećmi, nad starszymi osobami) i zdrowotnych</t>
   </si>
   <si>
     <t>1.3.a Odsetek dzieci w wieku 1-2 lata objętych różnymi formami opieki instytucjonalnej</t>
@@ -212,8 +211,7 @@
     <t>2.5.a Odsetek długości dróg publicznych o nawierzchni twardej ulepszonej na terenach zamiejskich</t>
   </si>
   <si>
-    <t>Poszanowanie różnorodności biologicznej poprzez jej zwiększanie lub co
-  najmniej niepogarszanie jej stanu</t>
+    <t>Poszanowanie różnorodności biologicznej poprzez jej zwiększanie lub co najmniej niepogarszanie jej stanu</t>
   </si>
   <si>
     <t>2.6.a Liczba zasobów genetycznych roślin i zwierząt dla wyżywienia i rolnictwa zabezpieczonych w kolekcjach banków genów</t>
@@ -382,33 +380,36 @@
   </si>
   <si>
     <t xml:space="preserve">4.2.a Odsetek studentów-cudzoziemców studiujących na polskich uczelniach na terenie Polski </t>
+  </si>
+  <si>
+    <t>Tworzenie warunków dla rozwoju edukacji na całym obszarze kraju i wyrównywanie szans edukacyjnych</t>
+  </si>
+  <si>
+    <t>4.3.a Wyniki testów PISA - odsetek uczniów na najwyższych poziomach osiągnięć w czytaniu i interpretacji</t>
+  </si>
+  <si>
+    <t>Organizacja Współpracy Gospodarczej i Rozwoju / Ministerstwo Edukacji i Nauki</t>
+  </si>
+  <si>
+    <t>4.3.b Wyniki testów PISA - odsetek uczniów na najwyższych poziomach osiągnięć w matematyce</t>
+  </si>
+  <si>
+    <t>4.3.c Wyniki testów PISA - odsetek uczniów na najniższych poziomach osiągnięć w czytaniu i interpretacji</t>
+  </si>
+  <si>
+    <t>4.3.d Wyniki testów PISA - odsetek uczniów na najniższych poziomach osiągnięć w matematyce</t>
+  </si>
+  <si>
+    <t>4.3.e Wyniki testów PISA - odsetek uczniów na minimalnym wymagalnym poziomie osiągnięć w czytaniu i interpretacji</t>
+  </si>
+  <si>
+    <t>4.3.f Wyniki testów PISA - odsetek uczniów na minimalnym wymagalnym poziomie osiągnięć w matematyce</t>
   </si>
   <si>
     <t>Tworzenie warunków dla rozwoju edukacji na całym obszarze kraju i wyrównywanie
   szans edukacyjnych</t>
   </si>
   <si>
-    <t>4.3.a Wyniki testów PISA - odsetek uczniów na najwyższych poziomach osiągnięć w czytaniu i interpretacji</t>
-  </si>
-  <si>
-    <t>Organizacja Współpracy Gospodarczej i Rozwoju / Ministerstwo Edukacji i Nauki</t>
-  </si>
-  <si>
-    <t>4.3.b Wyniki testów PISA - odsetek uczniów na najwyższych poziomach osiągnięć w matematyce</t>
-  </si>
-  <si>
-    <t>4.3.c Wyniki testów PISA - odsetek uczniów na najniższych poziomach osiągnięć w czytaniu i interpretacji</t>
-  </si>
-  <si>
-    <t>4.3.d Wyniki testów PISA - odsetek uczniów na najniższych poziomach osiągnięć w matematyce</t>
-  </si>
-  <si>
-    <t>4.3.e Wyniki testów PISA - odsetek uczniów na minimalnym wymagalnym poziomie osiągnięć w czytaniu i interpretacji</t>
-  </si>
-  <si>
-    <t>4.3.f Wyniki testów PISA - odsetek uczniów na minimalnym wymagalnym poziomie osiągnięć w matematyce</t>
-  </si>
-  <si>
     <t>4.3.g Odsetek dzieci w wieku 3-5 lat objętych wychowaniem przedszkolnym</t>
   </si>
   <si>
@@ -520,8 +521,7 @@
     <t>Cel 6. Czysta woda i warunki sanitarne</t>
   </si>
   <si>
-    <t>Zwiększenie dyspozycyjnych zasobów wód, poprawa ich stanu ekologicznego i
-  jakości chemicznej</t>
+    <t>Zwiększenie dyspozycyjnych zasobów wód, poprawa ich stanu ekologicznego i jakości chemicznej</t>
   </si>
   <si>
     <t>6.1.a Pojemność obiektów małej retencji wodnej</t>
@@ -600,11 +600,6 @@
     <t>8.1.a Udział eksportu wyrobów wysokiej techniki w eksporcie ogółem</t>
   </si>
   <si>
-    <t>Poszukiwanie nowych przewag konkurencyjnych opartych na zaawansowaniu
-  technologicznym produktów, jakości i innowacyjności oferowanych produktów, jak
-  również mechanizmów umiędzynarodowienia przedsiębiorstw</t>
-  </si>
-  <si>
     <t>8.1.b Nakłady na działalność innowacyjną w przedsiębiorstwach w relacji do PKB</t>
   </si>
   <si>
@@ -767,14 +762,10 @@
     <t>Cel 10. Mniej nierówności</t>
   </si>
   <si>
-    <t>Niwelowanie różnic w rozwoju społeczno-gospodarczym regionów, zapobieganie
-  tworzeniu się nowych dysproporcji rozwojowych</t>
+    <t>Niwelowanie różnic w rozwoju społeczno-gospodarczym regionów, zapobieganie tworzeniu się nowych dysproporcji rozwojowych</t>
   </si>
   <si>
     <t>10.1.a Zróżnicowanie wartości dodanej brutto na 1 pracującego na poziomie regionów (NUTS 2)</t>
-  </si>
-  <si>
-    <t>Niwelowanie różnic w rozwoju społeczno-gospodarczym regionów, zapobieganie tworzeniu się nowych dysproporcji rozwojowych</t>
   </si>
   <si>
     <t>10.1.b Relacja przeciętnych rocznych dochodów do dyspozycji netto na 1 osobę w gospodarstwie domowym na wsi do miasta</t>
@@ -1035,8 +1026,7 @@
     <t>16.4.a Odsetek osób korzystających z Internetu w kontaktach z administracją publiczną do przekazywania wypełnionych formularzy</t>
   </si>
   <si>
-    <t>Lepsze gospodarowanie środkami publicznymi, w tym efektywne wykorzystanie
-  środków z UE</t>
+    <t>Lepsze gospodarowanie środkami publicznymi, w tym efektywne wykorzystanie środków z UE</t>
   </si>
   <si>
     <t>16.5.a Stopa inwestycji sektora instytucji rządowych i samorządowych</t>
@@ -1066,7 +1056,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 18-05-2021, 10:35</t>
+    <t>Ostatnia aktualizacja: 25-05-2021, 10:57</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1600,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2007,7 +1997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -3687,7 +3677,9 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="P41" s="4">
+        <v>21.6</v>
+      </c>
       <c r="Q41" s="3"/>
       <c r="R41" s="2" t="s">
         <v>25</v>
@@ -3725,7 +3717,9 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="P42" s="4">
+        <v>51.3</v>
+      </c>
       <c r="Q42" s="3"/>
       <c r="R42" s="2" t="s">
         <v>25</v>
@@ -3763,7 +3757,9 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="P43" s="4">
+        <v>88.6</v>
+      </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="2" t="s">
         <v>25</v>
@@ -3799,7 +3795,9 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="P44" s="4">
+        <v>40.200000000000003</v>
+      </c>
       <c r="Q44" s="3"/>
       <c r="R44" s="2" t="s">
         <v>25</v>
@@ -4416,13 +4414,13 @@
         <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>23</v>
@@ -4462,7 +4460,7 @@
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -4470,16 +4468,16 @@
         <v>114</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>24</v>
@@ -4516,7 +4514,7 @@
       </c>
       <c r="Q59" s="3"/>
       <c r="R59" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -4524,16 +4522,16 @@
         <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>24</v>
@@ -4570,7 +4568,7 @@
       </c>
       <c r="Q60" s="3"/>
       <c r="R60" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="27" x14ac:dyDescent="0.25">
@@ -4578,10 +4576,10 @@
         <v>114</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>29</v>
@@ -4632,16 +4630,16 @@
         <v>114</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>24</v>
@@ -4686,16 +4684,16 @@
         <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>24</v>
@@ -4740,16 +4738,16 @@
         <v>114</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>24</v>
@@ -4794,16 +4792,16 @@
         <v>114</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>24</v>
@@ -4848,16 +4846,16 @@
         <v>114</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>24</v>
@@ -4902,16 +4900,16 @@
         <v>114</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>24</v>
@@ -4956,16 +4954,16 @@
         <v>114</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>24</v>
@@ -5010,16 +5008,16 @@
         <v>114</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>24</v>
@@ -5064,10 +5062,10 @@
         <v>114</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>29</v>
@@ -5102,10 +5100,10 @@
         <v>114</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>29</v>
@@ -5145,13 +5143,13 @@
     </row>
     <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>29</v>
@@ -5199,13 +5197,13 @@
     </row>
     <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>29</v>
@@ -5214,7 +5212,7 @@
         <v>23</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G73" s="4">
         <v>10.8</v>
@@ -5253,16 +5251,16 @@
     </row>
     <row r="74" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>23</v>
@@ -5297,19 +5295,19 @@
     </row>
     <row r="75" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>24</v>
@@ -5341,19 +5339,19 @@
     </row>
     <row r="76" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>24</v>
@@ -5385,19 +5383,19 @@
     </row>
     <row r="77" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>24</v>
@@ -5429,19 +5427,19 @@
     </row>
     <row r="78" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>24</v>
@@ -5473,19 +5471,19 @@
     </row>
     <row r="79" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>24</v>
@@ -5517,19 +5515,19 @@
     </row>
     <row r="80" spans="1:18" ht="54" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>24</v>
@@ -5561,13 +5559,13 @@
     </row>
     <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>29</v>
@@ -5615,13 +5613,13 @@
     </row>
     <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>29</v>
@@ -5669,13 +5667,13 @@
     </row>
     <row r="83" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>29</v>
@@ -5684,7 +5682,7 @@
         <v>23</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G83" s="4">
         <v>732401.6</v>
@@ -5716,18 +5714,18 @@
       </c>
       <c r="Q83" s="3"/>
       <c r="R83" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>29</v>
@@ -5775,13 +5773,13 @@
     </row>
     <row r="85" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>29</v>
@@ -5829,13 +5827,13 @@
     </row>
     <row r="86" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>29</v>
@@ -5883,13 +5881,13 @@
     </row>
     <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>29</v>
@@ -5898,7 +5896,7 @@
         <v>23</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G87" s="7">
         <v>0.318</v>
@@ -5935,13 +5933,13 @@
     </row>
     <row r="88" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>29</v>
@@ -5989,13 +5987,13 @@
     </row>
     <row r="89" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>29</v>
@@ -6038,18 +6036,18 @@
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>29</v>
@@ -6058,7 +6056,7 @@
         <v>23</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G90" s="4">
         <v>316.10000000000002</v>
@@ -6094,18 +6092,18 @@
         <v>118.7</v>
       </c>
       <c r="R90" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>29</v>
@@ -6153,13 +6151,13 @@
     </row>
     <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>29</v>
@@ -6207,13 +6205,13 @@
     </row>
     <row r="93" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>29</v>
@@ -6259,12 +6257,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>191</v>
@@ -6313,10 +6311,10 @@
     </row>
     <row r="95" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>192</v>
@@ -6367,7 +6365,7 @@
     </row>
     <row r="96" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>195</v>
@@ -6419,7 +6417,7 @@
     </row>
     <row r="97" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>198</v>
@@ -6475,7 +6473,7 @@
     </row>
     <row r="98" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>198</v>
@@ -6531,7 +6529,7 @@
     </row>
     <row r="99" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>198</v>
@@ -6587,7 +6585,7 @@
     </row>
     <row r="100" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>198</v>
@@ -6643,7 +6641,7 @@
     </row>
     <row r="101" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>198</v>
@@ -6699,7 +6697,7 @@
     </row>
     <row r="102" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>198</v>
@@ -6753,7 +6751,7 @@
     </row>
     <row r="103" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>198</v>
@@ -6809,7 +6807,7 @@
     </row>
     <row r="104" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>198</v>
@@ -6865,7 +6863,7 @@
     </row>
     <row r="105" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>198</v>
@@ -6921,7 +6919,7 @@
     </row>
     <row r="106" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>198</v>
@@ -6975,7 +6973,7 @@
     </row>
     <row r="107" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>207</v>
@@ -7029,7 +7027,7 @@
     </row>
     <row r="108" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>209</v>
@@ -7083,7 +7081,7 @@
     </row>
     <row r="109" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>211</v>
@@ -7127,7 +7125,7 @@
     </row>
     <row r="110" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>213</v>
@@ -7183,7 +7181,7 @@
     </row>
     <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>213</v>
@@ -7239,7 +7237,7 @@
     </row>
     <row r="112" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>213</v>
@@ -7295,7 +7293,7 @@
     </row>
     <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>213</v>
@@ -7351,7 +7349,7 @@
     </row>
     <row r="114" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>213</v>
@@ -7407,7 +7405,7 @@
     </row>
     <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>213</v>
@@ -7461,7 +7459,7 @@
     </row>
     <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>213</v>
@@ -7515,7 +7513,7 @@
     </row>
     <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>221</v>
@@ -7569,7 +7567,7 @@
     </row>
     <row r="118" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>223</v>
@@ -7987,10 +7985,10 @@
         <v>15.4</v>
       </c>
       <c r="O125" s="4">
-        <v>15.1</v>
+        <v>14.8</v>
       </c>
       <c r="P125" s="4">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="2" t="s">
@@ -8156,10 +8154,10 @@
         <v>244</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>29</v>
@@ -8210,10 +8208,10 @@
         <v>244</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>29</v>
@@ -8260,19 +8258,19 @@
         <v>244</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D131" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8311,13 +8309,13 @@
     </row>
     <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>29</v>
@@ -8365,22 +8363,22 @@
     </row>
     <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C133" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="G133" s="4">
         <v>24.7</v>
@@ -8419,13 +8417,13 @@
     </row>
     <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>29</v>
@@ -8473,13 +8471,13 @@
     </row>
     <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>29</v>
@@ -8527,13 +8525,13 @@
     </row>
     <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>29</v>
@@ -8576,24 +8574,24 @@
       </c>
       <c r="Q136" s="3"/>
       <c r="R136" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C137" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>24</v>
@@ -8635,19 +8633,19 @@
     </row>
     <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C138" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E138" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>24</v>
@@ -8689,19 +8687,19 @@
     </row>
     <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C139" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E139" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>24</v>
@@ -8743,19 +8741,19 @@
     </row>
     <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C140" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="E140" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>24</v>
@@ -8797,13 +8795,13 @@
     </row>
     <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>29</v>
@@ -8851,13 +8849,13 @@
     </row>
     <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>29</v>
@@ -8866,7 +8864,7 @@
         <v>23</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8905,22 +8903,22 @@
     </row>
     <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="D143" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -8959,22 +8957,22 @@
     </row>
     <row r="144" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C144" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -9013,13 +9011,13 @@
     </row>
     <row r="145" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C145" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>29</v>
@@ -9067,13 +9065,13 @@
     </row>
     <row r="146" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C146" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>29</v>
@@ -9121,22 +9119,22 @@
     </row>
     <row r="147" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="D147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9170,18 +9168,18 @@
       </c>
       <c r="Q147" s="3"/>
       <c r="R147" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="148" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C148" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>29</v>
@@ -9190,7 +9188,7 @@
         <v>23</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9224,18 +9222,18 @@
       </c>
       <c r="Q148" s="3"/>
       <c r="R148" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C149" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>289</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>29</v>
@@ -9283,22 +9281,22 @@
     </row>
     <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C150" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F150" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9337,19 +9335,19 @@
     </row>
     <row r="151" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="E151" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>24</v>
@@ -9386,24 +9384,24 @@
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="152" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="D152" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E152" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>24</v>
@@ -9440,24 +9438,24 @@
       </c>
       <c r="Q152" s="3"/>
       <c r="R152" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="153" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E153" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>24</v>
@@ -9494,24 +9492,24 @@
       </c>
       <c r="Q153" s="3"/>
       <c r="R153" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:18" ht="81" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="D154" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="E154" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>24</v>
@@ -9548,27 +9546,27 @@
       </c>
       <c r="Q154" s="3"/>
       <c r="R154" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B155" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C155" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="D155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F155" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9607,22 +9605,22 @@
     </row>
     <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9661,22 +9659,22 @@
     </row>
     <row r="157" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="D157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F157" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9715,13 +9713,13 @@
     </row>
     <row r="158" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>29</v>
@@ -9764,18 +9762,18 @@
       </c>
       <c r="Q158" s="3"/>
       <c r="R158" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>29</v>
@@ -9823,13 +9821,13 @@
     </row>
     <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>29</v>
@@ -9877,13 +9875,13 @@
     </row>
     <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>29</v>
@@ -9931,13 +9929,13 @@
     </row>
     <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>29</v>
@@ -9985,13 +9983,13 @@
     </row>
     <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>29</v>
@@ -10036,18 +10034,18 @@
         <v>85</v>
       </c>
       <c r="R163" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>29</v>
@@ -10082,27 +10080,27 @@
         <v>74</v>
       </c>
       <c r="R164" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F165" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -10141,22 +10139,22 @@
     </row>
     <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10195,13 +10193,13 @@
     </row>
     <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>29</v>
@@ -10210,7 +10208,7 @@
         <v>23</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10249,13 +10247,13 @@
     </row>
     <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>29</v>
@@ -10305,13 +10303,13 @@
     </row>
     <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>29</v>
@@ -10359,22 +10357,22 @@
     </row>
     <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="D170" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10410,18 +10408,18 @@
         <v>802.9</v>
       </c>
       <c r="R170" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>29</v>
@@ -10430,7 +10428,7 @@
         <v>23</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10466,18 +10464,18 @@
         <v>206.01</v>
       </c>
       <c r="R171" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="172" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>29</v>
@@ -10520,14 +10518,14 @@
       </c>
       <c r="Q172" s="3"/>
       <c r="R172" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B175" s="8"/>
     </row>
@@ -10542,7 +10540,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="67" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -510,7 +510,7 @@
     <t xml:space="preserve">Aktywna polityka prorodzinna</t>
   </si>
   <si>
-    <t xml:space="preserve">5.2.a Odsetek dzieci w wieku 1-3 lata objętych różnymi formami opieki instytucjonalnej </t>
+    <t xml:space="preserve">5.2.a Odsetek dzieci w wieku 1-2 lata objętych różnymi formami opieki instytucjonalnej </t>
   </si>
   <si>
     <t xml:space="preserve">Zapewnienie warunków dla powrotu kobiet na rynek pracy po przerwie z tytułu urodzenia i opieki nad dzieckiem</t>
@@ -1057,7 +1057,7 @@
     <t xml:space="preserve">17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 08-06-2021, 08:32</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 13-07-2021, 08:08</t>
   </si>
 </sst>
 </file>
@@ -1372,7 +1372,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4849,16 +4849,16 @@
         <v>24</v>
       </c>
       <c r="G72" s="6" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="J72" s="6" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="K72" s="6" t="n">
         <v>7.7</v>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="346">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
   <si>
     <t>Źródło danych</t>
@@ -1065,7 +1068,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 20-07-2021, 10:19</t>
+    <t>Ostatnia aktualizacja: 27-07-2021, 10:02</t>
   </si>
 </sst>
 </file>
@@ -1089,22 +1092,30 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Fira Sans"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1605,11 +1616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,21 +1631,22 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="17" width="6.42578125" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" customWidth="1"/>
+    <col min="7" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1689,25 +1701,28 @@
       <c r="R3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="4">
         <v>17.399999999999999</v>
@@ -1742,28 +1757,29 @@
       <c r="Q4" s="4">
         <v>11.8</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R4" s="3"/>
+      <c r="S4" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G5" s="4">
         <v>23.7</v>
@@ -1798,28 +1814,29 @@
       <c r="Q5" s="4">
         <v>13.4</v>
       </c>
-      <c r="R5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R5" s="3"/>
+      <c r="S5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4">
         <v>12</v>
@@ -1854,28 +1871,29 @@
       <c r="Q6" s="4">
         <v>10</v>
       </c>
-      <c r="R6" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R6" s="3"/>
+      <c r="S6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="5">
         <v>107.56</v>
@@ -1908,28 +1926,29 @@
         <v>141.4</v>
       </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R7" s="3"/>
+      <c r="S7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1958,28 +1977,29 @@
         <v>2.7</v>
       </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R8" s="3"/>
+      <c r="S8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2008,28 +2028,29 @@
         <v>115.4</v>
       </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R9" s="3"/>
+      <c r="S9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4">
@@ -2062,28 +2083,29 @@
       <c r="Q10" s="4">
         <v>25.9</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R10" s="3"/>
+      <c r="S10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4">
         <v>349.6</v>
@@ -2115,29 +2137,32 @@
       <c r="P11" s="4">
         <v>385.9</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="Q11" s="4">
+        <v>392.4</v>
+      </c>
+      <c r="R11" s="3"/>
+      <c r="S11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="G12" s="5">
         <v>0.51</v>
@@ -2170,28 +2195,29 @@
         <v>0.44</v>
       </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R12" s="3"/>
+      <c r="S12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5">
         <v>0.06</v>
@@ -2224,28 +2250,29 @@
         <v>0.06</v>
       </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R13" s="3"/>
+      <c r="S13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G14" s="6">
         <v>39</v>
@@ -2278,28 +2305,29 @@
         <v>43</v>
       </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R14" s="3"/>
+      <c r="S14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" s="5">
         <v>2.0699999999999998</v>
@@ -2332,28 +2360,29 @@
         <v>2.66</v>
       </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R15" s="3"/>
+      <c r="S15" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G16" s="4">
         <v>16.2</v>
@@ -2388,28 +2417,29 @@
       <c r="Q16" s="4">
         <v>16.5</v>
       </c>
-      <c r="R16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R16" s="3"/>
+      <c r="S16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" s="4">
         <v>53.9</v>
@@ -2442,28 +2472,29 @@
         <v>55.1</v>
       </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R17" s="3"/>
+      <c r="S17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G18" s="5">
         <v>1401.46</v>
@@ -2496,28 +2527,29 @@
         <v>3555.37</v>
       </c>
       <c r="Q18" s="3"/>
-      <c r="R18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R18" s="3"/>
+      <c r="S18" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G19" s="5">
         <v>11.22</v>
@@ -2550,28 +2582,29 @@
         <v>13.34</v>
       </c>
       <c r="Q19" s="3"/>
-      <c r="R19" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R19" s="3"/>
+      <c r="S19" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G20" s="4">
         <v>48.6</v>
@@ -2604,28 +2637,29 @@
         <v>53.2</v>
       </c>
       <c r="Q20" s="3"/>
-      <c r="R20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="R20" s="3"/>
+      <c r="S20" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" s="6">
         <v>73660</v>
@@ -2660,28 +2694,29 @@
       <c r="Q21" s="6">
         <v>85876</v>
       </c>
-      <c r="R21" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="R21" s="3"/>
+      <c r="S21" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" s="6">
         <v>3681</v>
@@ -2716,28 +2751,29 @@
       <c r="Q22" s="6">
         <v>4350</v>
       </c>
-      <c r="R22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="R22" s="3"/>
+      <c r="S22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="6">
         <v>1293</v>
@@ -2772,28 +2808,29 @@
       <c r="Q23" s="6">
         <v>1578</v>
       </c>
-      <c r="R23" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="R23" s="3"/>
+      <c r="S23" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G24" s="6">
         <v>7225</v>
@@ -2828,28 +2865,29 @@
       <c r="Q24" s="6">
         <v>8160</v>
       </c>
-      <c r="R24" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="R24" s="3"/>
+      <c r="S24" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25" s="6">
         <v>31</v>
@@ -2884,28 +2922,29 @@
       <c r="Q25" s="6">
         <v>156</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="R25" s="3"/>
+      <c r="S25" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" s="6">
         <v>7565</v>
@@ -2940,28 +2979,29 @@
       <c r="Q26" s="6">
         <v>40100</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R26" s="3"/>
+      <c r="S26" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4">
         <v>22.5</v>
@@ -2988,28 +3028,29 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="2" t="s">
+      <c r="R27" s="3"/>
+      <c r="S27" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G28" s="4">
         <v>21.6</v>
@@ -3036,28 +3077,29 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="2" t="s">
+      <c r="R28" s="3"/>
+      <c r="S28" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G29" s="4">
         <v>23.3</v>
@@ -3084,28 +3126,29 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R29" s="3"/>
+      <c r="S29" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G30" s="4">
         <v>9.5</v>
@@ -3132,28 +3175,29 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R30" s="3"/>
+      <c r="S30" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G31" s="4">
         <v>58.5</v>
@@ -3186,28 +3230,29 @@
         <v>60.9</v>
       </c>
       <c r="Q31" s="3"/>
-      <c r="R31" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R31" s="3"/>
+      <c r="S31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="G32" s="4">
         <v>62.3</v>
@@ -3240,28 +3285,29 @@
         <v>64.099999999999994</v>
       </c>
       <c r="Q32" s="3"/>
-      <c r="R32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R32" s="3"/>
+      <c r="S32" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" s="4">
         <v>451.8</v>
@@ -3294,28 +3340,29 @@
         <v>421</v>
       </c>
       <c r="Q33" s="3"/>
-      <c r="R33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R33" s="3"/>
+      <c r="S33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34" s="4">
         <v>240.4</v>
@@ -3348,28 +3395,29 @@
         <v>261.3</v>
       </c>
       <c r="Q34" s="3"/>
-      <c r="R34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R34" s="3"/>
+      <c r="S34" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" s="4">
         <v>16.899999999999999</v>
@@ -3402,28 +3450,29 @@
         <v>24.2</v>
       </c>
       <c r="Q35" s="3"/>
-      <c r="R35" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R35" s="3"/>
+      <c r="S35" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36" s="4">
         <v>25.3</v>
@@ -3456,28 +3505,29 @@
         <v>22.6</v>
       </c>
       <c r="Q36" s="3"/>
-      <c r="R36" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R36" s="3"/>
+      <c r="S36" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" s="4">
         <v>20.6</v>
@@ -3510,28 +3560,29 @@
         <v>23.7</v>
       </c>
       <c r="Q37" s="3"/>
-      <c r="R37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R37" s="3"/>
+      <c r="S37" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" s="4">
         <v>53.7</v>
@@ -3564,28 +3615,29 @@
         <v>56.3</v>
       </c>
       <c r="Q38" s="3"/>
-      <c r="R38" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R38" s="3"/>
+      <c r="S38" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G39" s="4">
         <v>8.3000000000000007</v>
@@ -3618,28 +3670,29 @@
         <v>4.2</v>
       </c>
       <c r="Q39" s="3"/>
-      <c r="R39" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R39" s="3"/>
+      <c r="S39" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G40" s="4">
         <v>28.2</v>
@@ -3656,28 +3709,29 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R40" s="3"/>
+      <c r="S40" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G41" s="4">
         <v>21.9</v>
@@ -3696,28 +3750,29 @@
         <v>21.3</v>
       </c>
       <c r="Q41" s="3"/>
-      <c r="R41" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R41" s="3"/>
+      <c r="S41" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G42" s="4">
         <v>40.700000000000003</v>
@@ -3736,28 +3791,29 @@
         <v>49.1</v>
       </c>
       <c r="Q42" s="3"/>
-      <c r="R42" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R42" s="3"/>
+      <c r="S42" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G43" s="4">
         <v>79.3</v>
@@ -3776,28 +3832,29 @@
         <v>86.7</v>
       </c>
       <c r="Q43" s="3"/>
-      <c r="R43" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R43" s="3"/>
+      <c r="S43" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -3814,28 +3871,29 @@
         <v>40.200000000000003</v>
       </c>
       <c r="Q44" s="3"/>
-      <c r="R44" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R44" s="3"/>
+      <c r="S44" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G45" s="4">
         <v>28.6</v>
@@ -3866,28 +3924,29 @@
       </c>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R45" s="3"/>
+      <c r="S45" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G46" s="5">
         <v>3.18</v>
@@ -3922,28 +3981,29 @@
       <c r="Q46" s="5">
         <v>27.22</v>
       </c>
-      <c r="R46" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R46" s="3"/>
+      <c r="S46" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -3968,28 +4028,29 @@
       </c>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R47" s="3"/>
+      <c r="S47" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -4008,28 +4069,29 @@
       </c>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R48" s="3"/>
+      <c r="S48" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G49" s="6">
         <v>28</v>
@@ -4062,28 +4124,29 @@
         <v>21</v>
       </c>
       <c r="Q49" s="3"/>
-      <c r="R49" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R49" s="3"/>
+      <c r="S49" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G50" s="4">
         <v>36.1</v>
@@ -4118,28 +4181,29 @@
       <c r="Q50" s="4">
         <v>22</v>
       </c>
-      <c r="R50" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R50" s="3"/>
+      <c r="S50" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G51" s="4">
         <v>1.2</v>
@@ -4174,28 +4238,29 @@
       <c r="Q51" s="4">
         <v>6.8</v>
       </c>
-      <c r="R51" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R51" s="3"/>
+      <c r="S51" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G52" s="4">
         <v>7.2</v>
@@ -4216,28 +4281,29 @@
       </c>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R52" s="3"/>
+      <c r="S52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G53" s="4">
         <v>10.4</v>
@@ -4258,28 +4324,29 @@
       </c>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R53" s="3"/>
+      <c r="S53" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G54" s="4">
         <v>15</v>
@@ -4300,28 +4367,29 @@
       </c>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R54" s="3"/>
+      <c r="S54" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G55" s="4">
         <v>20.5</v>
@@ -4342,28 +4410,29 @@
       </c>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R55" s="3"/>
+      <c r="S55" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G56" s="4">
         <v>85</v>
@@ -4384,28 +4453,29 @@
       </c>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R56" s="3"/>
+      <c r="S56" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G57" s="4">
         <v>79.5</v>
@@ -4426,28 +4496,29 @@
       </c>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R57" s="3"/>
+      <c r="S57" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G58" s="4">
         <v>62.6</v>
@@ -4480,28 +4551,29 @@
         <v>88.5</v>
       </c>
       <c r="Q58" s="3"/>
-      <c r="R58" s="2" t="s">
+      <c r="R58" s="3"/>
+      <c r="S58" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E59" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G59" s="4">
         <v>78.8</v>
@@ -4534,28 +4606,29 @@
         <v>102.7</v>
       </c>
       <c r="Q59" s="3"/>
-      <c r="R59" s="2" t="s">
+      <c r="R59" s="3"/>
+      <c r="S59" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E60" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G60" s="4">
         <v>41</v>
@@ -4588,28 +4661,29 @@
         <v>68.5</v>
       </c>
       <c r="Q60" s="3"/>
-      <c r="R60" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R60" s="3"/>
+      <c r="S60" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G61" s="4">
         <v>5.4</v>
@@ -4644,28 +4718,29 @@
       <c r="Q61" s="4">
         <v>5.4</v>
       </c>
-      <c r="R61" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R61" s="3"/>
+      <c r="S61" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G62" s="4">
         <v>5.2</v>
@@ -4700,28 +4775,29 @@
       <c r="Q62" s="4">
         <v>3.7</v>
       </c>
-      <c r="R62" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R62" s="3"/>
+      <c r="S62" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G63" s="4">
         <v>11.2</v>
@@ -4756,28 +4832,29 @@
       <c r="Q63" s="4">
         <v>6.3</v>
       </c>
-      <c r="R63" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R63" s="3"/>
+      <c r="S63" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G64" s="4">
         <v>7.5</v>
@@ -4812,28 +4889,29 @@
       <c r="Q64" s="4">
         <v>4.8</v>
       </c>
-      <c r="R64" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R64" s="3"/>
+      <c r="S64" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G65" s="4">
         <v>4.5999999999999996</v>
@@ -4868,28 +4946,29 @@
       <c r="Q65" s="4">
         <v>3.1</v>
       </c>
-      <c r="R65" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R65" s="3"/>
+      <c r="S65" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G66" s="4">
         <v>5.2</v>
@@ -4924,28 +5003,29 @@
       <c r="Q66" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R66" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R66" s="3"/>
+      <c r="S66" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G67" s="4">
         <v>2.7</v>
@@ -4980,28 +5060,29 @@
       <c r="Q67" s="4">
         <v>2.6</v>
       </c>
-      <c r="R67" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R67" s="3"/>
+      <c r="S67" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G68" s="4">
         <v>1.2</v>
@@ -5036,28 +5117,29 @@
       <c r="Q68" s="4">
         <v>1.2</v>
       </c>
-      <c r="R68" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R68" s="3"/>
+      <c r="S68" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G69" s="4">
         <v>1</v>
@@ -5092,28 +5174,29 @@
       <c r="Q69" s="4">
         <v>1.4</v>
       </c>
-      <c r="R69" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+      <c r="R69" s="3"/>
+      <c r="S69" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="4">
@@ -5130,28 +5213,29 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="72" x14ac:dyDescent="0.25">
+      <c r="R70" s="3"/>
+      <c r="S70" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -5176,28 +5260,29 @@
       <c r="Q71" s="6">
         <v>26</v>
       </c>
-      <c r="R71" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R71" s="3"/>
+      <c r="S71" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G72" s="4">
         <v>4.9000000000000004</v>
@@ -5230,28 +5315,29 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="Q72" s="3"/>
-      <c r="R72" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R72" s="3"/>
+      <c r="S72" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G73" s="4">
         <v>10.8</v>
@@ -5286,28 +5372,29 @@
       <c r="Q73" s="4">
         <v>13</v>
       </c>
-      <c r="R73" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R73" s="3"/>
+      <c r="S73" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G74" s="4">
         <v>45.3</v>
@@ -5330,28 +5417,29 @@
       </c>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="63" x14ac:dyDescent="0.25">
+      <c r="R74" s="3"/>
+      <c r="S74" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G75" s="4">
         <v>27.6</v>
@@ -5374,28 +5462,29 @@
       </c>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R75" s="3"/>
+      <c r="S75" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G76" s="4">
         <v>45.3</v>
@@ -5418,28 +5507,29 @@
       </c>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R76" s="3"/>
+      <c r="S76" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G77" s="4">
         <v>25.4</v>
@@ -5462,28 +5552,29 @@
       </c>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R77" s="3"/>
+      <c r="S77" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G78" s="4">
         <v>60.7</v>
@@ -5506,28 +5597,29 @@
       </c>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R78" s="3"/>
+      <c r="S78" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G79" s="4">
         <v>38.299999999999997</v>
@@ -5550,28 +5642,29 @@
       </c>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" ht="54" x14ac:dyDescent="0.25">
+      <c r="R79" s="3"/>
+      <c r="S79" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G80" s="4">
         <v>55.5</v>
@@ -5594,28 +5687,29 @@
       </c>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R80" s="3"/>
+      <c r="S80" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="4">
@@ -5648,28 +5742,29 @@
       <c r="Q81" s="4">
         <v>25.9</v>
       </c>
-      <c r="R81" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R81" s="3"/>
+      <c r="S81" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G82" s="4">
         <v>58.5</v>
@@ -5704,28 +5799,29 @@
       <c r="Q82" s="4">
         <v>62.9</v>
       </c>
-      <c r="R82" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R82" s="3"/>
+      <c r="S82" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G83" s="4">
         <v>732401.6</v>
@@ -5758,28 +5854,29 @@
       <c r="Q83" s="4">
         <v>852978.8</v>
       </c>
-      <c r="R83" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R83" s="3"/>
+      <c r="S83" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G84" s="4">
         <v>6.4</v>
@@ -5812,28 +5909,29 @@
         <v>0.3</v>
       </c>
       <c r="Q84" s="3"/>
-      <c r="R84" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R84" s="3"/>
+      <c r="S84" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G85" s="4">
         <v>64.7</v>
@@ -5866,28 +5964,29 @@
         <v>74.5</v>
       </c>
       <c r="Q85" s="3"/>
-      <c r="R85" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R85" s="3"/>
+      <c r="S85" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G86" s="5">
         <v>65.73</v>
@@ -5920,80 +6019,84 @@
         <v>73.930000000000007</v>
       </c>
       <c r="Q86" s="3"/>
-      <c r="R86" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R86" s="3"/>
+      <c r="S86" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G87" s="7">
         <v>0.318</v>
       </c>
       <c r="H87" s="7">
-        <v>0.315</v>
+        <v>0.316</v>
       </c>
       <c r="I87" s="7">
-        <v>0.29599999999999999</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="J87" s="7">
-        <v>0.29099999999999998</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="K87" s="7">
-        <v>0.27700000000000002</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="L87" s="7">
-        <v>0.27</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="M87" s="7">
-        <v>0.27100000000000002</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="N87" s="7">
-        <v>0.27100000000000002</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="O87" s="7">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="P87" s="3"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="P87" s="7">
+        <v>0.249</v>
+      </c>
       <c r="Q87" s="3"/>
-      <c r="R87" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R87" s="3"/>
+      <c r="S87" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G88" s="5">
         <v>9.3000000000000007</v>
@@ -6026,28 +6129,29 @@
         <v>12.16</v>
       </c>
       <c r="Q88" s="3"/>
-      <c r="R88" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R88" s="3"/>
+      <c r="S88" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G89" s="6">
         <v>66</v>
@@ -6080,28 +6184,29 @@
         <v>57</v>
       </c>
       <c r="Q89" s="3"/>
-      <c r="R89" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R89" s="3"/>
+      <c r="S89" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G90" s="4">
         <v>316.10000000000002</v>
@@ -6136,28 +6241,29 @@
       <c r="Q90" s="4">
         <v>118.7</v>
       </c>
-      <c r="R90" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R90" s="3"/>
+      <c r="S90" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G91" s="4">
         <v>30.7</v>
@@ -6190,28 +6296,29 @@
         <v>11.5</v>
       </c>
       <c r="Q91" s="3"/>
-      <c r="R91" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R91" s="3"/>
+      <c r="S91" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G92" s="4">
         <v>11.9</v>
@@ -6244,28 +6351,29 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="Q92" s="3"/>
-      <c r="R92" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="93" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R92" s="3"/>
+      <c r="S92" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G93" s="4">
         <v>6</v>
@@ -6298,28 +6406,29 @@
         <v>8.6</v>
       </c>
       <c r="Q93" s="3"/>
-      <c r="R93" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R93" s="3"/>
+      <c r="S93" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G94" s="5">
         <v>2.39</v>
@@ -6350,28 +6459,29 @@
       </c>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R94" s="3"/>
+      <c r="S94" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G95" s="6">
         <v>39</v>
@@ -6404,28 +6514,29 @@
         <v>37</v>
       </c>
       <c r="Q95" s="3"/>
-      <c r="R95" s="2" t="s">
+      <c r="R95" s="3"/>
+      <c r="S95" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="3" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -6456,28 +6567,29 @@
       <c r="Q96" s="6">
         <v>40</v>
       </c>
-      <c r="R96" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R96" s="3"/>
+      <c r="S96" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G97" s="4">
         <v>50</v>
@@ -6512,28 +6624,29 @@
       <c r="Q97" s="4">
         <v>54.3</v>
       </c>
-      <c r="R97" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R97" s="3"/>
+      <c r="S97" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G98" s="4">
         <v>57.8</v>
@@ -6568,28 +6681,29 @@
       <c r="Q98" s="4">
         <v>63.1</v>
       </c>
-      <c r="R98" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R98" s="3"/>
+      <c r="S98" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G99" s="4">
         <v>42.8</v>
@@ -6624,28 +6738,29 @@
       <c r="Q99" s="4">
         <v>46.3</v>
       </c>
-      <c r="R99" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R99" s="3"/>
+      <c r="S99" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G100" s="4">
         <v>26.4</v>
@@ -6680,28 +6795,29 @@
       <c r="Q100" s="4">
         <v>28.4</v>
       </c>
-      <c r="R100" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R100" s="3"/>
+      <c r="S100" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G101" s="4">
         <v>58.9</v>
@@ -6736,28 +6852,29 @@
       <c r="Q101" s="4">
         <v>68.7</v>
       </c>
-      <c r="R101" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R101" s="3"/>
+      <c r="S101" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G102" s="4">
         <v>44.7</v>
@@ -6792,28 +6909,29 @@
       <c r="Q102" s="4">
         <v>50.4</v>
       </c>
-      <c r="R102" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R102" s="3"/>
+      <c r="S102" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G103" s="4">
         <v>64.3</v>
@@ -6848,28 +6966,29 @@
       <c r="Q103" s="4">
         <v>73.599999999999994</v>
       </c>
-      <c r="R103" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R103" s="3"/>
+      <c r="S103" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G104" s="4">
         <v>30.3</v>
@@ -6904,28 +7023,29 @@
       <c r="Q104" s="4">
         <v>33</v>
       </c>
-      <c r="R104" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="105" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R104" s="3"/>
+      <c r="S104" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G105" s="4">
         <v>34.1</v>
@@ -6960,28 +7080,29 @@
       <c r="Q105" s="4">
         <v>51.8</v>
       </c>
-      <c r="R105" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R105" s="3"/>
+      <c r="S105" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G106" s="4">
         <v>9.4</v>
@@ -7016,28 +7137,29 @@
       <c r="Q106" s="4">
         <v>11.3</v>
       </c>
-      <c r="R106" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R106" s="3"/>
+      <c r="S106" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G107" s="4">
         <v>73.8</v>
@@ -7070,28 +7192,29 @@
         <v>74.2</v>
       </c>
       <c r="Q107" s="3"/>
-      <c r="R107" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R107" s="3"/>
+      <c r="S107" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G108" s="4">
         <v>58.5</v>
@@ -7126,28 +7249,29 @@
       <c r="Q108" s="4">
         <v>62.9</v>
       </c>
-      <c r="R108" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R108" s="3"/>
+      <c r="S108" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G109" s="4">
         <v>17.899999999999999</v>
@@ -7170,28 +7294,29 @@
       </c>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-      <c r="R109" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R109" s="3"/>
+      <c r="S109" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G110" s="4">
         <v>55.3</v>
@@ -7226,28 +7351,29 @@
       <c r="Q110" s="4">
         <v>56.1</v>
       </c>
-      <c r="R110" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R110" s="3"/>
+      <c r="S110" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G111" s="4">
         <v>47.6</v>
@@ -7282,28 +7408,29 @@
       <c r="Q111" s="4">
         <v>47.9</v>
       </c>
-      <c r="R111" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R111" s="3"/>
+      <c r="S111" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G112" s="4">
         <v>34.6</v>
@@ -7338,28 +7465,29 @@
       <c r="Q112" s="4">
         <v>31.8</v>
       </c>
-      <c r="R112" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R112" s="3"/>
+      <c r="S112" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G113" s="4">
         <v>32.700000000000003</v>
@@ -7394,28 +7522,29 @@
       <c r="Q113" s="4">
         <v>33.700000000000003</v>
       </c>
-      <c r="R113" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R113" s="3"/>
+      <c r="S113" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G114" s="4">
         <v>16.899999999999999</v>
@@ -7450,28 +7579,29 @@
       <c r="Q114" s="4">
         <v>17.5</v>
       </c>
-      <c r="R114" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R114" s="3"/>
+      <c r="S114" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G115" s="4">
         <v>31.8</v>
@@ -7506,28 +7636,29 @@
       <c r="Q115" s="4">
         <v>20.399999999999999</v>
       </c>
-      <c r="R115" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R115" s="3"/>
+      <c r="S115" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G116" s="4">
         <v>10.8</v>
@@ -7562,28 +7693,29 @@
       <c r="Q116" s="4">
         <v>8.6</v>
       </c>
-      <c r="R116" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R116" s="3"/>
+      <c r="S116" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G117" s="4">
         <v>69</v>
@@ -7618,28 +7750,29 @@
       <c r="Q117" s="4">
         <v>78.2</v>
       </c>
-      <c r="R117" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R117" s="3"/>
+      <c r="S117" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G118" s="6">
         <v>-2114</v>
@@ -7672,28 +7805,29 @@
       <c r="Q118" s="6">
         <v>4483</v>
       </c>
-      <c r="R118" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R118" s="3"/>
+      <c r="S118" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="6">
@@ -7726,28 +7860,29 @@
       <c r="Q119" s="6">
         <v>38</v>
       </c>
-      <c r="R119" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R119" s="3"/>
+      <c r="S119" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G120" s="5">
         <v>0.72</v>
@@ -7780,28 +7915,29 @@
         <v>1.32</v>
       </c>
       <c r="Q120" s="3"/>
-      <c r="R120" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R120" s="3"/>
+      <c r="S120" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G121" s="5">
         <v>0.19</v>
@@ -7834,28 +7970,29 @@
         <v>0.83</v>
       </c>
       <c r="Q121" s="3"/>
-      <c r="R121" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="122" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R121" s="3"/>
+      <c r="S121" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G122" s="4">
         <v>11.3</v>
@@ -7888,28 +8025,29 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="Q122" s="3"/>
-      <c r="R122" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R122" s="3"/>
+      <c r="S122" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G123" s="4">
         <v>6</v>
@@ -7942,28 +8080,29 @@
         <v>8.6</v>
       </c>
       <c r="Q123" s="3"/>
-      <c r="R123" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R123" s="3"/>
+      <c r="S123" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G124" s="4">
         <v>0.1</v>
@@ -7998,28 +8137,29 @@
       <c r="Q124" s="4">
         <v>28.3</v>
       </c>
-      <c r="R124" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R124" s="3"/>
+      <c r="S124" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G125" s="4">
         <v>11.3</v>
@@ -8052,28 +8192,29 @@
         <v>15.3</v>
       </c>
       <c r="Q125" s="3"/>
-      <c r="R125" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R125" s="3"/>
+      <c r="S125" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G126" s="4">
         <v>30.8</v>
@@ -8104,28 +8245,29 @@
       <c r="Q126" s="4">
         <v>38.700000000000003</v>
       </c>
-      <c r="R126" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R126" s="3"/>
+      <c r="S126" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G127" s="4">
         <v>4.9000000000000004</v>
@@ -8158,28 +8300,29 @@
         <v>13.1</v>
       </c>
       <c r="Q127" s="3"/>
-      <c r="R127" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R127" s="3"/>
+      <c r="S127" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G128" s="4">
         <v>16.2</v>
@@ -8212,28 +8355,29 @@
         <v>15</v>
       </c>
       <c r="Q128" s="3"/>
-      <c r="R128" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R128" s="3"/>
+      <c r="S128" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G129" s="4">
         <v>66.5</v>
@@ -8266,28 +8410,29 @@
         <v>77.099999999999994</v>
       </c>
       <c r="Q129" s="3"/>
-      <c r="R129" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R129" s="3"/>
+      <c r="S129" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="6">
@@ -8316,28 +8461,29 @@
       </c>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
-      <c r="R130" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R130" s="3"/>
+      <c r="S130" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G131" s="4">
         <v>31.1</v>
@@ -8370,28 +8516,29 @@
         <v>28.5</v>
       </c>
       <c r="Q131" s="3"/>
-      <c r="R131" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R131" s="3"/>
+      <c r="S131" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G132" s="4">
         <v>16.2</v>
@@ -8424,28 +8571,29 @@
         <v>12.6</v>
       </c>
       <c r="Q132" s="3"/>
-      <c r="R132" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R132" s="3"/>
+      <c r="S132" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G133" s="4">
         <v>24.7</v>
@@ -8477,29 +8625,32 @@
       <c r="P133" s="4">
         <v>28.1</v>
       </c>
-      <c r="Q133" s="3"/>
-      <c r="R133" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="Q133" s="4">
+        <v>28.7</v>
+      </c>
+      <c r="R133" s="3"/>
+      <c r="S133" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G134" s="4">
         <v>13</v>
@@ -8532,28 +8683,29 @@
         <v>10.4</v>
       </c>
       <c r="Q134" s="3"/>
-      <c r="R134" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R134" s="3"/>
+      <c r="S134" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G135" s="4">
         <v>2.2999999999999998</v>
@@ -8586,28 +8738,29 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="Q135" s="3"/>
-      <c r="R135" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R135" s="3"/>
+      <c r="S135" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G136" s="4">
         <v>166.5</v>
@@ -8640,28 +8793,29 @@
         <v>167.6</v>
       </c>
       <c r="Q136" s="3"/>
-      <c r="R136" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R136" s="3"/>
+      <c r="S136" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G137" s="5">
         <v>14.82</v>
@@ -8694,28 +8848,29 @@
         <v>25.03</v>
       </c>
       <c r="Q137" s="3"/>
-      <c r="R137" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R137" s="3"/>
+      <c r="S137" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G138" s="5">
         <v>1.5</v>
@@ -8748,28 +8903,29 @@
         <v>9.0399999999999991</v>
       </c>
       <c r="Q138" s="3"/>
-      <c r="R138" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R138" s="3"/>
+      <c r="S138" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G139" s="5">
         <v>0.32</v>
@@ -8802,28 +8958,29 @@
         <v>22.9</v>
       </c>
       <c r="Q139" s="3"/>
-      <c r="R139" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R139" s="3"/>
+      <c r="S139" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G140" s="5">
         <v>66.8</v>
@@ -8856,28 +9013,29 @@
         <v>43.03</v>
       </c>
       <c r="Q140" s="3"/>
-      <c r="R140" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R140" s="3"/>
+      <c r="S140" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G141" s="6">
         <v>28</v>
@@ -8910,28 +9068,29 @@
         <v>21</v>
       </c>
       <c r="Q141" s="3"/>
-      <c r="R141" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R141" s="3"/>
+      <c r="S141" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G142" s="4">
         <v>20.8</v>
@@ -8964,28 +9123,29 @@
         <v>22.2</v>
       </c>
       <c r="Q142" s="3"/>
-      <c r="R142" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R142" s="3"/>
+      <c r="S142" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G143" s="5">
         <v>0.56000000000000005</v>
@@ -9018,28 +9178,29 @@
         <v>0.71</v>
       </c>
       <c r="Q143" s="3"/>
-      <c r="R143" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R143" s="3"/>
+      <c r="S143" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G144" s="5">
         <v>16.95</v>
@@ -9072,28 +9233,29 @@
         <v>18.489999999999998</v>
       </c>
       <c r="Q144" s="3"/>
-      <c r="R144" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R144" s="3"/>
+      <c r="S144" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G145" s="4">
         <v>10.8</v>
@@ -9126,28 +9288,29 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="Q145" s="3"/>
-      <c r="R145" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R145" s="3"/>
+      <c r="S145" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G146" s="5">
         <v>2.0699999999999998</v>
@@ -9180,28 +9343,29 @@
         <v>2.66</v>
       </c>
       <c r="Q146" s="3"/>
-      <c r="R146" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R146" s="3"/>
+      <c r="S146" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G147" s="4">
         <v>100</v>
@@ -9234,28 +9398,29 @@
         <v>95.4</v>
       </c>
       <c r="Q147" s="3"/>
-      <c r="R147" s="2" t="s">
+      <c r="R147" s="3"/>
+      <c r="S147" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="3" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="G148" s="4">
         <v>100</v>
@@ -9288,28 +9453,29 @@
         <v>94.5</v>
       </c>
       <c r="Q148" s="3"/>
-      <c r="R148" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R148" s="3"/>
+      <c r="S148" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G149" s="5">
         <v>9.3000000000000007</v>
@@ -9342,28 +9508,29 @@
         <v>12.16</v>
       </c>
       <c r="Q149" s="3"/>
-      <c r="R149" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R149" s="3"/>
+      <c r="S149" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G150" s="6">
         <v>563</v>
@@ -9396,28 +9563,29 @@
         <v>1050</v>
       </c>
       <c r="Q150" s="3"/>
-      <c r="R150" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+      <c r="R150" s="3"/>
+      <c r="S150" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G151" s="6">
         <v>40</v>
@@ -9450,28 +9618,29 @@
         <v>40</v>
       </c>
       <c r="Q151" s="3"/>
-      <c r="R151" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+      <c r="R151" s="3"/>
+      <c r="S151" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G152" s="6">
         <v>40</v>
@@ -9504,28 +9673,29 @@
         <v>25</v>
       </c>
       <c r="Q152" s="3"/>
-      <c r="R152" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+      <c r="R152" s="3"/>
+      <c r="S152" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G153" s="6">
         <v>0</v>
@@ -9558,28 +9728,29 @@
         <v>0</v>
       </c>
       <c r="Q153" s="3"/>
-      <c r="R153" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="81" x14ac:dyDescent="0.25">
+      <c r="R153" s="3"/>
+      <c r="S153" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G154" s="6">
         <v>60</v>
@@ -9612,28 +9783,29 @@
         <v>75</v>
       </c>
       <c r="Q154" s="3"/>
-      <c r="R154" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="R154" s="3"/>
+      <c r="S154" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G155" s="4">
         <v>100</v>
@@ -9666,28 +9838,29 @@
         <v>189.5</v>
       </c>
       <c r="Q155" s="3"/>
-      <c r="R155" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R155" s="3"/>
+      <c r="S155" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G156" s="4">
         <v>59.5</v>
@@ -9720,28 +9893,29 @@
         <v>93.9</v>
       </c>
       <c r="Q156" s="3"/>
-      <c r="R156" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R156" s="3"/>
+      <c r="S156" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G157" s="4">
         <v>88.4</v>
@@ -9774,28 +9948,29 @@
         <v>77.400000000000006</v>
       </c>
       <c r="Q157" s="3"/>
-      <c r="R157" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R157" s="3"/>
+      <c r="S157" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G158" s="7">
         <v>0.19600000000000001</v>
@@ -9830,28 +10005,29 @@
       <c r="Q158" s="7">
         <v>0.2</v>
       </c>
-      <c r="R158" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R158" s="3"/>
+      <c r="S158" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G159" s="4">
         <v>30.5</v>
@@ -9886,28 +10062,29 @@
       <c r="Q159" s="4">
         <v>30.9</v>
       </c>
-      <c r="R159" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R159" s="3"/>
+      <c r="S159" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G160" s="6">
         <v>28</v>
@@ -9940,28 +10117,29 @@
         <v>21</v>
       </c>
       <c r="Q160" s="3"/>
-      <c r="R160" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R160" s="3"/>
+      <c r="S160" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G161" s="4">
         <v>64.7</v>
@@ -9994,28 +10172,29 @@
         <v>74.5</v>
       </c>
       <c r="Q161" s="3"/>
-      <c r="R161" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+      <c r="R161" s="3"/>
+      <c r="S161" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G162" s="5">
         <v>65.73</v>
@@ -10048,28 +10227,29 @@
         <v>73.930000000000007</v>
       </c>
       <c r="Q162" s="3"/>
-      <c r="R162" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R162" s="3"/>
+      <c r="S162" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G163" s="6">
         <v>70</v>
@@ -10104,28 +10284,29 @@
       <c r="Q163" s="6">
         <v>85</v>
       </c>
-      <c r="R163" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R163" s="3"/>
+      <c r="S163" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G164" s="6">
         <v>55</v>
@@ -10150,28 +10331,29 @@
       <c r="Q164" s="6">
         <v>74</v>
       </c>
-      <c r="R164" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R164" s="3"/>
+      <c r="S164" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G165" s="5">
         <v>0.98</v>
@@ -10204,28 +10386,29 @@
         <v>1.01</v>
       </c>
       <c r="Q165" s="3"/>
-      <c r="R165" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R165" s="3"/>
+      <c r="S165" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G166" s="6">
         <v>830</v>
@@ -10258,28 +10441,29 @@
         <v>685</v>
       </c>
       <c r="Q166" s="3"/>
-      <c r="R166" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R166" s="3"/>
+      <c r="S166" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="G167" s="5">
         <v>0.64</v>
@@ -10312,28 +10496,29 @@
         <v>0.6</v>
       </c>
       <c r="Q167" s="3"/>
-      <c r="R167" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R167" s="3"/>
+      <c r="S167" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G168" s="6">
         <v>10</v>
@@ -10368,28 +10553,29 @@
       <c r="Q168" s="6">
         <v>34</v>
       </c>
-      <c r="R168" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R168" s="3"/>
+      <c r="S168" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G169" s="4">
         <v>5.7</v>
@@ -10424,28 +10610,29 @@
       <c r="Q169" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R169" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+      <c r="R169" s="3"/>
+      <c r="S169" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G170" s="5">
         <v>377.75</v>
@@ -10480,28 +10667,29 @@
       <c r="Q170" s="5">
         <v>802.9</v>
       </c>
-      <c r="R170" s="2" t="s">
+      <c r="R170" s="3"/>
+      <c r="S170" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F171" s="3" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="27" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="G171" s="5">
         <v>96.04</v>
@@ -10536,28 +10724,29 @@
       <c r="Q171" s="5">
         <v>206.01</v>
       </c>
-      <c r="R171" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="R171" s="3"/>
+      <c r="S171" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G172" s="5">
         <v>0.08</v>
@@ -10592,15 +10781,16 @@
       <c r="Q172" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R172" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="173" spans="1:18" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:18" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R172" s="3"/>
+      <c r="S172" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B175" s="8"/>
     </row>
@@ -10615,7 +10805,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1981" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2177" uniqueCount="393">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -750,6 +750,15 @@
     <t>55-64 lata</t>
   </si>
   <si>
+    <t>65-69 lat</t>
+  </si>
+  <si>
+    <t>policealne oraz średnie zawodowe</t>
+  </si>
+  <si>
+    <t>gimnazjalne lub podstawowe lub bez formalnego wykształcenia</t>
+  </si>
+  <si>
     <t>Promowanie stabilnych form zatrudnienia</t>
   </si>
   <si>
@@ -772,6 +781,18 @@
   </si>
   <si>
     <t>8.7.a Współczynnik aktywności zawodowej</t>
+  </si>
+  <si>
+    <t>osoby w wieku 15-24 lata</t>
+  </si>
+  <si>
+    <t>osoby w wieku 50 lat i więcej</t>
+  </si>
+  <si>
+    <t>osoby niepełnosprawne</t>
+  </si>
+  <si>
+    <t>w wieku 16 lat i więcej</t>
   </si>
   <si>
     <t>8.7.b Udział osób długotrwale bezrobotnych w ogólnej liczbie bezrobotnych (20-64 lata)</t>
@@ -1199,7 +1220,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 12-10-2021, 14:02</t>
+    <t>Ostatnia aktualizacja: 19-10-2021, 08:31</t>
   </si>
 </sst>
 </file>
@@ -1739,11 +1760,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S285"/>
+  <dimension ref="A1:S313"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10911,37 +10932,37 @@
         <v>25</v>
       </c>
       <c r="G183" s="4">
-        <v>44.7</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="H183" s="4">
-        <v>42.3</v>
+        <v>65</v>
       </c>
       <c r="I183" s="4">
-        <v>41.9</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="J183" s="4">
-        <v>41</v>
+        <v>65.7</v>
       </c>
       <c r="K183" s="4">
-        <v>43.8</v>
+        <v>67.5</v>
       </c>
       <c r="L183" s="4">
-        <v>44.5</v>
+        <v>68.7</v>
       </c>
       <c r="M183" s="4">
-        <v>48.4</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="N183" s="4">
-        <v>50.7</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="O183" s="4">
-        <v>53.5</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="P183" s="4">
-        <v>55.5</v>
+        <v>74.5</v>
       </c>
       <c r="Q183" s="4">
-        <v>50.4</v>
+        <v>74.900000000000006</v>
       </c>
       <c r="R183" s="3"/>
       <c r="S183" s="2" t="s">
@@ -10968,37 +10989,37 @@
         <v>25</v>
       </c>
       <c r="G184" s="4">
-        <v>64.3</v>
+        <v>44.7</v>
       </c>
       <c r="H184" s="4">
-        <v>64.5</v>
+        <v>42.3</v>
       </c>
       <c r="I184" s="4">
-        <v>64.7</v>
+        <v>41.9</v>
       </c>
       <c r="J184" s="4">
-        <v>64.900000000000006</v>
+        <v>41</v>
       </c>
       <c r="K184" s="4">
-        <v>66.5</v>
+        <v>43.8</v>
       </c>
       <c r="L184" s="4">
-        <v>67.8</v>
+        <v>44.5</v>
       </c>
       <c r="M184" s="4">
-        <v>69.3</v>
+        <v>48.4</v>
       </c>
       <c r="N184" s="4">
-        <v>70.900000000000006</v>
+        <v>50.7</v>
       </c>
       <c r="O184" s="4">
-        <v>72.2</v>
+        <v>53.5</v>
       </c>
       <c r="P184" s="4">
-        <v>73</v>
+        <v>55.5</v>
       </c>
       <c r="Q184" s="4">
-        <v>73.599999999999994</v>
+        <v>50.4</v>
       </c>
       <c r="R184" s="3"/>
       <c r="S184" s="2" t="s">
@@ -11025,37 +11046,37 @@
         <v>25</v>
       </c>
       <c r="G185" s="4">
-        <v>30.3</v>
+        <v>64.3</v>
       </c>
       <c r="H185" s="4">
-        <v>31.2</v>
+        <v>64.5</v>
       </c>
       <c r="I185" s="4">
-        <v>31.5</v>
+        <v>64.7</v>
       </c>
       <c r="J185" s="4">
-        <v>31.6</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="K185" s="4">
-        <v>32.1</v>
+        <v>66.5</v>
       </c>
       <c r="L185" s="4">
-        <v>32.5</v>
+        <v>67.8</v>
       </c>
       <c r="M185" s="4">
-        <v>32.6</v>
+        <v>69.3</v>
       </c>
       <c r="N185" s="4">
-        <v>33.200000000000003</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="O185" s="4">
-        <v>32.9</v>
+        <v>72.2</v>
       </c>
       <c r="P185" s="4">
-        <v>32.6</v>
+        <v>73</v>
       </c>
       <c r="Q185" s="4">
-        <v>33</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="R185" s="3"/>
       <c r="S185" s="2" t="s">
@@ -11082,37 +11103,37 @@
         <v>25</v>
       </c>
       <c r="G186" s="4">
-        <v>34.1</v>
+        <v>30.3</v>
       </c>
       <c r="H186" s="4">
-        <v>36.9</v>
+        <v>31.2</v>
       </c>
       <c r="I186" s="4">
-        <v>38.700000000000003</v>
+        <v>31.5</v>
       </c>
       <c r="J186" s="4">
-        <v>40.6</v>
+        <v>31.6</v>
       </c>
       <c r="K186" s="4">
-        <v>42.5</v>
+        <v>32.1</v>
       </c>
       <c r="L186" s="4">
-        <v>44.3</v>
+        <v>32.5</v>
       </c>
       <c r="M186" s="4">
-        <v>46.1</v>
+        <v>32.6</v>
       </c>
       <c r="N186" s="4">
-        <v>48.3</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="O186" s="4">
-        <v>48.9</v>
+        <v>32.9</v>
       </c>
       <c r="P186" s="4">
-        <v>49.5</v>
+        <v>32.6</v>
       </c>
       <c r="Q186" s="4">
-        <v>51.8</v>
+        <v>33</v>
       </c>
       <c r="R186" s="3"/>
       <c r="S186" s="2" t="s">
@@ -11139,37 +11160,37 @@
         <v>25</v>
       </c>
       <c r="G187" s="4">
-        <v>9.4</v>
+        <v>34.1</v>
       </c>
       <c r="H187" s="4">
-        <v>9.4</v>
+        <v>36.9</v>
       </c>
       <c r="I187" s="4">
-        <v>9.5</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J187" s="4">
-        <v>9.4</v>
+        <v>40.6</v>
       </c>
       <c r="K187" s="4">
-        <v>9.6999999999999993</v>
+        <v>42.5</v>
       </c>
       <c r="L187" s="4">
-        <v>9.5</v>
+        <v>44.3</v>
       </c>
       <c r="M187" s="4">
-        <v>9.9</v>
+        <v>46.1</v>
       </c>
       <c r="N187" s="4">
-        <v>11</v>
+        <v>48.3</v>
       </c>
       <c r="O187" s="4">
-        <v>10.5</v>
+        <v>48.9</v>
       </c>
       <c r="P187" s="4">
-        <v>10.8</v>
+        <v>49.5</v>
       </c>
       <c r="Q187" s="4">
-        <v>11.3</v>
+        <v>51.8</v>
       </c>
       <c r="R187" s="3"/>
       <c r="S187" s="2" t="s">
@@ -11181,51 +11202,53 @@
         <v>219</v>
       </c>
       <c r="B188" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E188" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F188" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G188" s="4">
-        <v>73.8</v>
+        <v>9.4</v>
       </c>
       <c r="H188" s="4">
-        <v>73.400000000000006</v>
+        <v>9.4</v>
       </c>
       <c r="I188" s="4">
-        <v>73</v>
+        <v>9.5</v>
       </c>
       <c r="J188" s="4">
-        <v>73</v>
+        <v>9.4</v>
       </c>
       <c r="K188" s="4">
-        <v>73.2</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L188" s="4">
-        <v>73.2</v>
+        <v>9.5</v>
       </c>
       <c r="M188" s="4">
-        <v>73.599999999999994</v>
+        <v>9.9</v>
       </c>
       <c r="N188" s="4">
-        <v>73.7</v>
+        <v>11</v>
       </c>
       <c r="O188" s="4">
-        <v>73.900000000000006</v>
+        <v>10.5</v>
       </c>
       <c r="P188" s="4">
-        <v>74.2</v>
-      </c>
-      <c r="Q188" s="3"/>
+        <v>10.8</v>
+      </c>
+      <c r="Q188" s="4">
+        <v>11.3</v>
+      </c>
       <c r="R188" s="3"/>
       <c r="S188" s="2" t="s">
         <v>26</v>
@@ -11236,52 +11259,52 @@
         <v>219</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G189" s="4">
-        <v>58.5</v>
+        <v>49.7</v>
       </c>
       <c r="H189" s="4">
-        <v>57.7</v>
+        <v>50.1</v>
       </c>
       <c r="I189" s="4">
-        <v>58.3</v>
+        <v>50.1</v>
       </c>
       <c r="J189" s="4">
-        <v>59.1</v>
+        <v>50.1</v>
       </c>
       <c r="K189" s="4">
-        <v>61.8</v>
+        <v>51.4</v>
       </c>
       <c r="L189" s="4">
-        <v>64.099999999999994</v>
+        <v>52.2</v>
       </c>
       <c r="M189" s="4">
-        <v>63</v>
+        <v>52.9</v>
       </c>
       <c r="N189" s="4">
-        <v>63.4</v>
+        <v>53.8</v>
       </c>
       <c r="O189" s="4">
-        <v>62.4</v>
+        <v>54.4</v>
       </c>
       <c r="P189" s="4">
-        <v>62.5</v>
+        <v>54.4</v>
       </c>
       <c r="Q189" s="4">
-        <v>62.9</v>
+        <v>54.2</v>
       </c>
       <c r="R189" s="3"/>
       <c r="S189" s="2" t="s">
@@ -11293,325 +11316,337 @@
         <v>219</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G190" s="4">
-        <v>61.5</v>
+        <v>50.4</v>
       </c>
       <c r="H190" s="4">
-        <v>61.7</v>
+        <v>50.4</v>
       </c>
       <c r="I190" s="4">
-        <v>62.2</v>
+        <v>50.4</v>
       </c>
       <c r="J190" s="4">
-        <v>63</v>
+        <v>50.3</v>
       </c>
       <c r="K190" s="4">
-        <v>65.900000000000006</v>
+        <v>50.9</v>
       </c>
       <c r="L190" s="4">
-        <v>69.099999999999994</v>
+        <v>51.6</v>
       </c>
       <c r="M190" s="4">
-        <v>67.8</v>
+        <v>52.6</v>
       </c>
       <c r="N190" s="4">
-        <v>68.400000000000006</v>
+        <v>53.5</v>
       </c>
       <c r="O190" s="4">
-        <v>66.599999999999994</v>
+        <v>53.8</v>
       </c>
       <c r="P190" s="4">
-        <v>67.099999999999994</v>
+        <v>54.2</v>
       </c>
       <c r="Q190" s="4">
-        <v>69.5</v>
+        <v>54.5</v>
       </c>
       <c r="R190" s="3"/>
       <c r="S190" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G191" s="4">
-        <v>54.2</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="H191" s="4">
-        <v>51.6</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="I191" s="4">
-        <v>52.4</v>
+        <v>75.5</v>
       </c>
       <c r="J191" s="4">
-        <v>53.3</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="K191" s="4">
-        <v>55.7</v>
+        <v>76.5</v>
       </c>
       <c r="L191" s="4">
-        <v>56.7</v>
+        <v>77.2</v>
       </c>
       <c r="M191" s="4">
-        <v>56.4</v>
+        <v>77.8</v>
       </c>
       <c r="N191" s="4">
-        <v>56.4</v>
+        <v>78.2</v>
       </c>
       <c r="O191" s="4">
-        <v>56.5</v>
+        <v>78.8</v>
       </c>
       <c r="P191" s="4">
-        <v>55.8</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="Q191" s="4">
-        <v>53.5</v>
+        <v>78.2</v>
       </c>
       <c r="R191" s="3"/>
       <c r="S191" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G192" s="4">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="H192" s="3"/>
+        <v>60.9</v>
+      </c>
+      <c r="H192" s="4">
+        <v>61</v>
+      </c>
       <c r="I192" s="4">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="J192" s="3"/>
+        <v>60.5</v>
+      </c>
+      <c r="J192" s="4">
+        <v>59.6</v>
+      </c>
       <c r="K192" s="4">
-        <v>19</v>
-      </c>
-      <c r="L192" s="3"/>
+        <v>59.7</v>
+      </c>
+      <c r="L192" s="4">
+        <v>59.9</v>
+      </c>
       <c r="M192" s="4">
-        <v>17.5</v>
-      </c>
-      <c r="N192" s="3"/>
+        <v>60.8</v>
+      </c>
+      <c r="N192" s="4">
+        <v>60.6</v>
+      </c>
       <c r="O192" s="4">
-        <v>16.2</v>
-      </c>
-      <c r="P192" s="3"/>
-      <c r="Q192" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="P192" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="Q192" s="4">
+        <v>58.6</v>
+      </c>
       <c r="R192" s="3"/>
       <c r="S192" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G193" s="4">
-        <v>55.3</v>
+        <v>41.4</v>
       </c>
       <c r="H193" s="4">
-        <v>55.5</v>
+        <v>41.1</v>
       </c>
       <c r="I193" s="4">
-        <v>55.9</v>
+        <v>41.7</v>
       </c>
       <c r="J193" s="4">
-        <v>55.9</v>
+        <v>42.2</v>
       </c>
       <c r="K193" s="4">
-        <v>56.2</v>
+        <v>43.9</v>
       </c>
       <c r="L193" s="4">
-        <v>56.2</v>
+        <v>44.2</v>
       </c>
       <c r="M193" s="4">
-        <v>56.2</v>
+        <v>45.8</v>
       </c>
       <c r="N193" s="4">
-        <v>56.4</v>
+        <v>47.5</v>
       </c>
       <c r="O193" s="4">
-        <v>56.3</v>
+        <v>49.2</v>
       </c>
       <c r="P193" s="4">
-        <v>56.2</v>
+        <v>49.9</v>
       </c>
       <c r="Q193" s="4">
-        <v>56.1</v>
+        <v>49.3</v>
       </c>
       <c r="R193" s="3"/>
       <c r="S193" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G194" s="4">
-        <v>47.6</v>
+        <v>56.8</v>
       </c>
       <c r="H194" s="4">
-        <v>47.8</v>
+        <v>56.3</v>
       </c>
       <c r="I194" s="4">
-        <v>48.1</v>
+        <v>54.9</v>
       </c>
       <c r="J194" s="4">
-        <v>48.2</v>
+        <v>53.7</v>
       </c>
       <c r="K194" s="4">
-        <v>48.5</v>
+        <v>54.3</v>
       </c>
       <c r="L194" s="4">
-        <v>48.4</v>
+        <v>54.6</v>
       </c>
       <c r="M194" s="4">
-        <v>48.3</v>
+        <v>54.4</v>
       </c>
       <c r="N194" s="4">
-        <v>48.4</v>
+        <v>54.7</v>
       </c>
       <c r="O194" s="4">
-        <v>48.5</v>
+        <v>54.3</v>
       </c>
       <c r="P194" s="4">
-        <v>48.2</v>
+        <v>53.2</v>
       </c>
       <c r="Q194" s="4">
-        <v>47.9</v>
+        <v>52.9</v>
       </c>
       <c r="R194" s="3"/>
       <c r="S194" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G195" s="4">
-        <v>34.6</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H195" s="4">
-        <v>33.5</v>
+        <v>16</v>
       </c>
       <c r="I195" s="4">
-        <v>33.6</v>
+        <v>15.7</v>
       </c>
       <c r="J195" s="4">
-        <v>33.299999999999997</v>
+        <v>14.9</v>
       </c>
       <c r="K195" s="4">
-        <v>33.9</v>
+        <v>14.8</v>
       </c>
       <c r="L195" s="4">
-        <v>32.799999999999997</v>
+        <v>15.1</v>
       </c>
       <c r="M195" s="4">
-        <v>34.5</v>
+        <v>14.6</v>
       </c>
       <c r="N195" s="4">
-        <v>34.799999999999997</v>
+        <v>14.8</v>
       </c>
       <c r="O195" s="4">
-        <v>35.1</v>
+        <v>14.9</v>
       </c>
       <c r="P195" s="4">
-        <v>35.200000000000003</v>
+        <v>15.6</v>
       </c>
       <c r="Q195" s="4">
-        <v>31.8</v>
+        <v>15.3</v>
       </c>
       <c r="R195" s="3"/>
       <c r="S195" s="2" t="s">
@@ -11623,52 +11658,52 @@
         <v>219</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G196" s="4">
-        <v>32.700000000000003</v>
+        <v>73.8</v>
       </c>
       <c r="H196" s="4">
-        <v>33.6</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="I196" s="4">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="J196" s="4">
-        <v>34.200000000000003</v>
+        <v>73</v>
       </c>
       <c r="K196" s="4">
-        <v>34.299999999999997</v>
+        <v>73.2</v>
       </c>
       <c r="L196" s="4">
-        <v>34.4</v>
+        <v>73.2</v>
       </c>
       <c r="M196" s="4">
-        <v>34.1</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="N196" s="4">
-        <v>34.4</v>
+        <v>73.7</v>
       </c>
       <c r="O196" s="4">
-        <v>33.799999999999997</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="P196" s="4">
-        <v>33.4</v>
+        <v>74.2</v>
       </c>
       <c r="Q196" s="4">
-        <v>33.700000000000003</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="R196" s="3"/>
       <c r="S196" s="2" t="s">
@@ -11680,52 +11715,52 @@
         <v>219</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G197" s="4">
-        <v>16.899999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="H197" s="4">
-        <v>17</v>
+        <v>75.3</v>
       </c>
       <c r="I197" s="4">
-        <v>17.399999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="J197" s="4">
-        <v>17.3</v>
+        <v>75.3</v>
       </c>
       <c r="K197" s="4">
-        <v>17.399999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="L197" s="4">
-        <v>16.5</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="M197" s="4">
-        <v>16.3</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="N197" s="4">
-        <v>17.600000000000001</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="O197" s="4">
-        <v>17.3</v>
+        <v>76.5</v>
       </c>
       <c r="P197" s="4">
-        <v>17.100000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="Q197" s="4">
-        <v>17.5</v>
+        <v>76.7</v>
       </c>
       <c r="R197" s="3"/>
       <c r="S197" s="2" t="s">
@@ -11737,52 +11772,52 @@
         <v>219</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G198" s="4">
-        <v>31.8</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="H198" s="4">
-        <v>38</v>
+        <v>71.7</v>
       </c>
       <c r="I198" s="4">
-        <v>41.3</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="J198" s="4">
-        <v>43.3</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="K198" s="4">
-        <v>43.5</v>
+        <v>71.2</v>
       </c>
       <c r="L198" s="4">
-        <v>40.200000000000003</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="M198" s="4">
-        <v>36</v>
+        <v>71.3</v>
       </c>
       <c r="N198" s="4">
-        <v>31.7</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="O198" s="4">
-        <v>27.5</v>
+        <v>71.7</v>
       </c>
       <c r="P198" s="4">
-        <v>22</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="Q198" s="4">
-        <v>20.399999999999999</v>
+        <v>71.5</v>
       </c>
       <c r="R198" s="3"/>
       <c r="S198" s="2" t="s">
@@ -11794,13 +11829,13 @@
         <v>219</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>24</v>
@@ -11809,37 +11844,37 @@
         <v>25</v>
       </c>
       <c r="G199" s="4">
-        <v>10.8</v>
+        <v>58.5</v>
       </c>
       <c r="H199" s="4">
-        <v>11.5</v>
+        <v>57.7</v>
       </c>
       <c r="I199" s="4">
-        <v>11.8</v>
+        <v>58.3</v>
       </c>
       <c r="J199" s="4">
-        <v>12.2</v>
+        <v>59.1</v>
       </c>
       <c r="K199" s="4">
-        <v>12</v>
+        <v>61.8</v>
       </c>
       <c r="L199" s="4">
-        <v>11</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="M199" s="4">
-        <v>10.5</v>
+        <v>63</v>
       </c>
       <c r="N199" s="4">
-        <v>9.5</v>
+        <v>63.4</v>
       </c>
       <c r="O199" s="4">
-        <v>8.6999999999999993</v>
+        <v>62.4</v>
       </c>
       <c r="P199" s="4">
-        <v>8.1</v>
+        <v>62.5</v>
       </c>
       <c r="Q199" s="4">
-        <v>8.6</v>
+        <v>62.9</v>
       </c>
       <c r="R199" s="3"/>
       <c r="S199" s="2" t="s">
@@ -11851,52 +11886,52 @@
         <v>219</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G200" s="4">
-        <v>69</v>
+        <v>61.5</v>
       </c>
       <c r="H200" s="4">
-        <v>69.599999999999994</v>
+        <v>61.7</v>
       </c>
       <c r="I200" s="4">
-        <v>70.3</v>
+        <v>62.2</v>
       </c>
       <c r="J200" s="4">
-        <v>71.8</v>
+        <v>63</v>
       </c>
       <c r="K200" s="4">
-        <v>73.099999999999994</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="L200" s="4">
-        <v>72.900000000000006</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="M200" s="4">
-        <v>75.7</v>
+        <v>67.8</v>
       </c>
       <c r="N200" s="4">
-        <v>76.7</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="O200" s="4">
-        <v>77.8</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="P200" s="4">
-        <v>78.900000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="Q200" s="4">
-        <v>78.2</v>
+        <v>69.5</v>
       </c>
       <c r="R200" s="3"/>
       <c r="S200" s="2" t="s">
@@ -11908,50 +11943,52 @@
         <v>219</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G201" s="6">
-        <v>-2114</v>
-      </c>
-      <c r="H201" s="6">
-        <v>-4334</v>
-      </c>
-      <c r="I201" s="6">
-        <v>-6617</v>
-      </c>
-      <c r="J201" s="6">
-        <v>-19904</v>
-      </c>
-      <c r="K201" s="6">
-        <v>-15750</v>
-      </c>
-      <c r="L201" s="3"/>
-      <c r="M201" s="6">
-        <v>1505</v>
-      </c>
-      <c r="N201" s="6">
-        <v>1436</v>
-      </c>
-      <c r="O201" s="6">
-        <v>3612</v>
-      </c>
-      <c r="P201" s="6">
-        <v>6183</v>
-      </c>
-      <c r="Q201" s="6">
-        <v>4483</v>
+        <v>25</v>
+      </c>
+      <c r="G201" s="4">
+        <v>54.2</v>
+      </c>
+      <c r="H201" s="4">
+        <v>51.6</v>
+      </c>
+      <c r="I201" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="J201" s="4">
+        <v>53.3</v>
+      </c>
+      <c r="K201" s="4">
+        <v>55.7</v>
+      </c>
+      <c r="L201" s="4">
+        <v>56.7</v>
+      </c>
+      <c r="M201" s="4">
+        <v>56.4</v>
+      </c>
+      <c r="N201" s="4">
+        <v>56.4</v>
+      </c>
+      <c r="O201" s="4">
+        <v>56.5</v>
+      </c>
+      <c r="P201" s="4">
+        <v>55.8</v>
+      </c>
+      <c r="Q201" s="4">
+        <v>53.5</v>
       </c>
       <c r="R201" s="3"/>
       <c r="S201" s="2" t="s">
@@ -11960,108 +11997,88 @@
     </row>
     <row r="202" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="6">
-        <v>43</v>
-      </c>
-      <c r="I202" s="6">
-        <v>44</v>
-      </c>
-      <c r="J202" s="6">
-        <v>49</v>
-      </c>
-      <c r="K202" s="6">
-        <v>45</v>
-      </c>
-      <c r="L202" s="6">
-        <v>46</v>
-      </c>
-      <c r="M202" s="6">
-        <v>39</v>
-      </c>
-      <c r="N202" s="6">
-        <v>38</v>
-      </c>
-      <c r="O202" s="6">
-        <v>39</v>
-      </c>
-      <c r="P202" s="6">
-        <v>39</v>
-      </c>
-      <c r="Q202" s="6">
-        <v>38</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G202" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H202" s="3"/>
+      <c r="I202" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J202" s="3"/>
+      <c r="K202" s="4">
+        <v>19</v>
+      </c>
+      <c r="L202" s="3"/>
+      <c r="M202" s="4">
+        <v>17.5</v>
+      </c>
+      <c r="N202" s="3"/>
+      <c r="O202" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="P202" s="3"/>
+      <c r="Q202" s="3"/>
       <c r="R202" s="3"/>
       <c r="S202" s="2" t="s">
-        <v>257</v>
+        <v>26</v>
       </c>
     </row>
     <row r="203" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G203" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="H203" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="I203" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="J203" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="K203" s="5">
-        <v>0.94</v>
-      </c>
-      <c r="L203" s="5">
-        <v>1</v>
-      </c>
-      <c r="M203" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="N203" s="5">
-        <v>1.03</v>
-      </c>
-      <c r="O203" s="5">
-        <v>1.21</v>
-      </c>
-      <c r="P203" s="5">
-        <v>1.32</v>
-      </c>
+      <c r="G203" s="4">
+        <v>19</v>
+      </c>
+      <c r="H203" s="3"/>
+      <c r="I203" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="J203" s="3"/>
+      <c r="K203" s="4">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L203" s="3"/>
+      <c r="M203" s="4">
+        <v>17.7</v>
+      </c>
+      <c r="N203" s="3"/>
+      <c r="O203" s="4">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
       <c r="R203" s="3"/>
       <c r="S203" s="2" t="s">
@@ -12070,53 +12087,43 @@
     </row>
     <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G204" s="5">
-        <v>0.19</v>
-      </c>
-      <c r="H204" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="I204" s="5">
-        <v>0.33</v>
-      </c>
-      <c r="J204" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="K204" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="L204" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="M204" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="N204" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="O204" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="P204" s="5">
-        <v>0.83</v>
-      </c>
+      <c r="G204" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="H204" s="3"/>
+      <c r="I204" s="4">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J204" s="3"/>
+      <c r="K204" s="4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L204" s="3"/>
+      <c r="M204" s="4">
+        <v>17.2</v>
+      </c>
+      <c r="N204" s="3"/>
+      <c r="O204" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
       <c r="R204" s="3"/>
       <c r="S204" s="2" t="s">
@@ -12125,53 +12132,43 @@
     </row>
     <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G205" s="4">
-        <v>11.3</v>
-      </c>
-      <c r="H205" s="4">
-        <v>8.9</v>
-      </c>
+        <v>16.5</v>
+      </c>
+      <c r="H205" s="3"/>
       <c r="I205" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="J205" s="4">
-        <v>8.6999999999999993</v>
-      </c>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J205" s="3"/>
       <c r="K205" s="4">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="L205" s="4">
-        <v>9.5</v>
-      </c>
+        <v>17.5</v>
+      </c>
+      <c r="L205" s="3"/>
       <c r="M205" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="N205" s="4">
-        <v>7.1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="N205" s="3"/>
       <c r="O205" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="P205" s="4">
-        <v>9.3000000000000007</v>
-      </c>
+        <v>14.6</v>
+      </c>
+      <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
       <c r="R205" s="3"/>
       <c r="S205" s="2" t="s">
@@ -12180,53 +12177,43 @@
     </row>
     <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G206" s="4">
-        <v>6</v>
-      </c>
-      <c r="H206" s="4">
-        <v>5.0999999999999996</v>
-      </c>
+        <v>24.4</v>
+      </c>
+      <c r="H206" s="3"/>
       <c r="I206" s="4">
-        <v>6</v>
-      </c>
-      <c r="J206" s="4">
-        <v>6.7</v>
-      </c>
+        <v>26.3</v>
+      </c>
+      <c r="J206" s="3"/>
       <c r="K206" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="L206" s="4">
-        <v>8.5</v>
-      </c>
+        <v>26.3</v>
+      </c>
+      <c r="L206" s="3"/>
       <c r="M206" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="N206" s="4">
-        <v>8.4</v>
-      </c>
+        <v>24.1</v>
+      </c>
+      <c r="N206" s="3"/>
       <c r="O206" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="P206" s="4">
-        <v>8.6</v>
-      </c>
+        <v>23.3</v>
+      </c>
+      <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
       <c r="R206" s="3"/>
       <c r="S206" s="2" t="s">
@@ -12235,16 +12222,16 @@
     </row>
     <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>24</v>
@@ -12253,93 +12240,95 @@
         <v>25</v>
       </c>
       <c r="G207" s="4">
-        <v>0.1</v>
+        <v>55.3</v>
       </c>
       <c r="H207" s="4">
-        <v>0.2</v>
+        <v>55.5</v>
       </c>
       <c r="I207" s="4">
-        <v>0.5</v>
+        <v>55.9</v>
       </c>
       <c r="J207" s="4">
-        <v>1</v>
+        <v>55.9</v>
       </c>
       <c r="K207" s="4">
-        <v>2.2000000000000002</v>
+        <v>56.2</v>
       </c>
       <c r="L207" s="4">
-        <v>5.5</v>
+        <v>56.2</v>
       </c>
       <c r="M207" s="4">
-        <v>7.8</v>
+        <v>56.2</v>
       </c>
       <c r="N207" s="4">
-        <v>12.8</v>
+        <v>56.4</v>
       </c>
       <c r="O207" s="4">
-        <v>19.3</v>
+        <v>56.3</v>
       </c>
       <c r="P207" s="4">
-        <v>23.3</v>
+        <v>56.2</v>
       </c>
       <c r="Q207" s="4">
-        <v>28.3</v>
+        <v>56.1</v>
       </c>
       <c r="R207" s="3"/>
       <c r="S207" s="2" t="s">
-        <v>265</v>
+        <v>26</v>
       </c>
     </row>
     <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G208" s="4">
-        <v>11.3</v>
+        <v>47.6</v>
       </c>
       <c r="H208" s="4">
-        <v>12.4</v>
+        <v>47.8</v>
       </c>
       <c r="I208" s="4">
-        <v>13.1</v>
+        <v>48.1</v>
       </c>
       <c r="J208" s="4">
-        <v>14.1</v>
+        <v>48.2</v>
       </c>
       <c r="K208" s="4">
-        <v>14.5</v>
+        <v>48.5</v>
       </c>
       <c r="L208" s="4">
-        <v>14</v>
+        <v>48.4</v>
       </c>
       <c r="M208" s="4">
-        <v>15.3</v>
+        <v>48.3</v>
       </c>
       <c r="N208" s="4">
-        <v>15.4</v>
+        <v>48.4</v>
       </c>
       <c r="O208" s="4">
-        <v>14.8</v>
+        <v>48.5</v>
       </c>
       <c r="P208" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="Q208" s="3"/>
+        <v>48.2</v>
+      </c>
+      <c r="Q208" s="4">
+        <v>47.9</v>
+      </c>
       <c r="R208" s="3"/>
       <c r="S208" s="2" t="s">
         <v>26</v>
@@ -12347,107 +12336,113 @@
     </row>
     <row r="209" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="G209" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
+        <v>63.7</v>
+      </c>
+      <c r="H209" s="4">
+        <v>64</v>
+      </c>
+      <c r="I209" s="4">
+        <v>64.3</v>
+      </c>
       <c r="J209" s="4">
-        <v>33.4</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="K209" s="4">
-        <v>34.5</v>
+        <v>64.7</v>
       </c>
       <c r="L209" s="4">
-        <v>35.200000000000003</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="M209" s="4">
-        <v>35.9</v>
+        <v>64.8</v>
       </c>
       <c r="N209" s="4">
-        <v>36.6</v>
+        <v>65.2</v>
       </c>
       <c r="O209" s="4">
-        <v>37.5</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="P209" s="4">
-        <v>38.799999999999997</v>
+        <v>65</v>
       </c>
       <c r="Q209" s="4">
-        <v>38.700000000000003</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="R209" s="3"/>
       <c r="S209" s="2" t="s">
-        <v>270</v>
+        <v>26</v>
       </c>
     </row>
     <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="G210" s="4">
-        <v>4.9000000000000004</v>
+        <v>55.2</v>
       </c>
       <c r="H210" s="4">
-        <v>5.8</v>
+        <v>55.4</v>
       </c>
       <c r="I210" s="4">
-        <v>7.7</v>
+        <v>55.7</v>
       </c>
       <c r="J210" s="4">
-        <v>8.6999999999999993</v>
+        <v>55.8</v>
       </c>
       <c r="K210" s="4">
-        <v>9.6</v>
+        <v>56.2</v>
       </c>
       <c r="L210" s="4">
-        <v>9.8000000000000007</v>
+        <v>56.3</v>
       </c>
       <c r="M210" s="4">
-        <v>10.1</v>
+        <v>56.2</v>
       </c>
       <c r="N210" s="4">
-        <v>10.9</v>
+        <v>56.4</v>
       </c>
       <c r="O210" s="4">
-        <v>11.9</v>
+        <v>56.5</v>
       </c>
       <c r="P210" s="4">
-        <v>13.1</v>
-      </c>
-      <c r="Q210" s="3"/>
+        <v>56.2</v>
+      </c>
+      <c r="Q210" s="4">
+        <v>55.9</v>
+      </c>
       <c r="R210" s="3"/>
       <c r="S210" s="2" t="s">
         <v>26</v>
@@ -12455,54 +12450,56 @@
     </row>
     <row r="211" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G211" s="4">
-        <v>16.2</v>
+        <v>55.5</v>
       </c>
       <c r="H211" s="4">
-        <v>16.2</v>
+        <v>55.7</v>
       </c>
       <c r="I211" s="4">
-        <v>16</v>
+        <v>56.1</v>
       </c>
       <c r="J211" s="4">
-        <v>15.7</v>
+        <v>56.1</v>
       </c>
       <c r="K211" s="4">
-        <v>15.7</v>
+        <v>56.3</v>
       </c>
       <c r="L211" s="4">
-        <v>15.5</v>
+        <v>56</v>
       </c>
       <c r="M211" s="4">
-        <v>15</v>
+        <v>56.2</v>
       </c>
       <c r="N211" s="4">
-        <v>14.7</v>
+        <v>56.5</v>
       </c>
       <c r="O211" s="4">
-        <v>15</v>
+        <v>56.2</v>
       </c>
       <c r="P211" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q211" s="3"/>
+        <v>56.2</v>
+      </c>
+      <c r="Q211" s="4">
+        <v>56.3</v>
+      </c>
       <c r="R211" s="3"/>
       <c r="S211" s="2" t="s">
         <v>26</v>
@@ -12510,54 +12507,56 @@
     </row>
     <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>24</v>
+        <v>250</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G212" s="4">
-        <v>66.5</v>
+        <v>34.6</v>
       </c>
       <c r="H212" s="4">
-        <v>67.5</v>
+        <v>33.5</v>
       </c>
       <c r="I212" s="4">
-        <v>67.2</v>
+        <v>33.6</v>
       </c>
       <c r="J212" s="4">
-        <v>69</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="K212" s="4">
-        <v>68</v>
+        <v>33.9</v>
       </c>
       <c r="L212" s="4">
-        <v>69.5</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="M212" s="4">
-        <v>71.599999999999994</v>
+        <v>34.5</v>
       </c>
       <c r="N212" s="4">
-        <v>68.900000000000006</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="O212" s="4">
-        <v>71.7</v>
+        <v>35.1</v>
       </c>
       <c r="P212" s="4">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="Q212" s="3"/>
+        <v>35.200000000000003</v>
+      </c>
+      <c r="Q212" s="4">
+        <v>31.8</v>
+      </c>
       <c r="R212" s="3"/>
       <c r="S212" s="2" t="s">
         <v>26</v>
@@ -12565,281 +12564,341 @@
     </row>
     <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G213" s="3"/>
-      <c r="H213" s="6">
-        <v>9009</v>
-      </c>
-      <c r="I213" s="6">
-        <v>-32498</v>
-      </c>
-      <c r="J213" s="6">
-        <v>13290</v>
-      </c>
-      <c r="K213" s="6">
-        <v>35266</v>
-      </c>
-      <c r="L213" s="6">
-        <v>28601</v>
-      </c>
-      <c r="M213" s="6">
-        <v>49727</v>
-      </c>
-      <c r="N213" s="6">
-        <v>44900</v>
-      </c>
-      <c r="O213" s="6">
-        <v>34350</v>
-      </c>
-      <c r="P213" s="3"/>
-      <c r="Q213" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G213" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="H213" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="I213" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="J213" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="K213" s="4">
+        <v>74.3</v>
+      </c>
+      <c r="L213" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="M213" s="4">
+        <v>75.2</v>
+      </c>
+      <c r="N213" s="4">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="O213" s="4">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="P213" s="4">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="Q213" s="4">
+        <v>77.400000000000006</v>
+      </c>
       <c r="R213" s="3"/>
       <c r="S213" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="G214" s="4">
-        <v>31.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="H214" s="4">
-        <v>31.1</v>
+        <v>33.6</v>
       </c>
       <c r="I214" s="4">
-        <v>30.9</v>
+        <v>34</v>
       </c>
       <c r="J214" s="4">
-        <v>30.7</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="K214" s="4">
-        <v>30.8</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="L214" s="4">
-        <v>30.6</v>
+        <v>34.4</v>
       </c>
       <c r="M214" s="4">
-        <v>29.8</v>
+        <v>34.1</v>
       </c>
       <c r="N214" s="4">
-        <v>29.2</v>
+        <v>34.4</v>
       </c>
       <c r="O214" s="4">
-        <v>27.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="P214" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="Q214" s="3"/>
+        <v>33.4</v>
+      </c>
+      <c r="Q214" s="4">
+        <v>33.700000000000003</v>
+      </c>
       <c r="R214" s="3"/>
       <c r="S214" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G215" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H215" s="4">
+        <v>17</v>
+      </c>
+      <c r="I215" s="4">
+        <v>17.399999999999999</v>
+      </c>
       <c r="J215" s="4">
-        <v>30</v>
+        <v>17.3</v>
       </c>
       <c r="K215" s="4">
-        <v>30.1</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="L215" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="M215" s="3"/>
+        <v>16.5</v>
+      </c>
+      <c r="M215" s="4">
+        <v>16.3</v>
+      </c>
       <c r="N215" s="4">
-        <v>28.9</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O215" s="4">
-        <v>27.3</v>
-      </c>
-      <c r="P215" s="3"/>
-      <c r="Q215" s="3"/>
+        <v>17.3</v>
+      </c>
+      <c r="P215" s="4">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="Q215" s="4">
+        <v>17.5</v>
+      </c>
       <c r="R215" s="3"/>
       <c r="S215" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G216" s="4">
+        <v>31.8</v>
+      </c>
+      <c r="H216" s="4">
+        <v>38</v>
+      </c>
+      <c r="I216" s="4">
+        <v>41.3</v>
+      </c>
       <c r="J216" s="4">
-        <v>29.1</v>
+        <v>43.3</v>
       </c>
       <c r="K216" s="4">
-        <v>29.2</v>
+        <v>43.5</v>
       </c>
       <c r="L216" s="4">
-        <v>29.3</v>
-      </c>
-      <c r="M216" s="3"/>
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M216" s="4">
+        <v>36</v>
+      </c>
       <c r="N216" s="4">
-        <v>26.9</v>
+        <v>31.7</v>
       </c>
       <c r="O216" s="4">
-        <v>26.5</v>
-      </c>
-      <c r="P216" s="3"/>
-      <c r="Q216" s="3"/>
+        <v>27.5</v>
+      </c>
+      <c r="P216" s="4">
+        <v>22</v>
+      </c>
+      <c r="Q216" s="4">
+        <v>20.5</v>
+      </c>
       <c r="R216" s="3"/>
       <c r="S216" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-      <c r="J217" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G217" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H217" s="4">
+        <v>39</v>
+      </c>
+      <c r="I217" s="4">
+        <v>42.7</v>
+      </c>
+      <c r="J217" s="4">
+        <v>44.3</v>
+      </c>
       <c r="K217" s="4">
-        <v>31.7</v>
+        <v>43.2</v>
       </c>
       <c r="L217" s="4">
-        <v>32.1</v>
-      </c>
-      <c r="M217" s="3"/>
+        <v>39.6</v>
+      </c>
+      <c r="M217" s="4">
+        <v>34.9</v>
+      </c>
       <c r="N217" s="4">
-        <v>34</v>
+        <v>30.7</v>
       </c>
       <c r="O217" s="4">
-        <v>32.9</v>
-      </c>
-      <c r="P217" s="3"/>
-      <c r="Q217" s="3"/>
+        <v>27.2</v>
+      </c>
+      <c r="P217" s="4">
+        <v>20.3</v>
+      </c>
+      <c r="Q217" s="4">
+        <v>20.2</v>
+      </c>
       <c r="R217" s="3"/>
       <c r="S217" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>284</v>
+        <v>92</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G218" s="4">
+        <v>31.5</v>
+      </c>
+      <c r="H218" s="4">
+        <v>37</v>
+      </c>
+      <c r="I218" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="J218" s="4">
+        <v>42.3</v>
+      </c>
       <c r="K218" s="4">
-        <v>29.3</v>
+        <v>43.7</v>
       </c>
       <c r="L218" s="4">
-        <v>29.7</v>
-      </c>
-      <c r="M218" s="3"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="M218" s="4">
+        <v>36.9</v>
+      </c>
       <c r="N218" s="4">
-        <v>28.2</v>
+        <v>32.6</v>
       </c>
       <c r="O218" s="4">
-        <v>28</v>
-      </c>
-      <c r="P218" s="3"/>
-      <c r="Q218" s="3"/>
+        <v>27.8</v>
+      </c>
+      <c r="P218" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="Q218" s="4">
+        <v>20.8</v>
+      </c>
       <c r="R218" s="3"/>
       <c r="S218" s="2" t="s">
         <v>26</v>
@@ -12847,231 +12906,301 @@
     </row>
     <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>285</v>
+        <v>31</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G219" s="4">
+        <v>31.4</v>
+      </c>
+      <c r="H219" s="4">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="I219" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="J219" s="4">
+        <v>43.2</v>
+      </c>
       <c r="K219" s="4">
-        <v>32</v>
+        <v>44.3</v>
       </c>
       <c r="L219" s="4">
-        <v>30.7</v>
-      </c>
-      <c r="M219" s="3"/>
+        <v>39.700000000000003</v>
+      </c>
+      <c r="M219" s="4">
+        <v>35.200000000000003</v>
+      </c>
       <c r="N219" s="4">
-        <v>28.6</v>
+        <v>30.5</v>
       </c>
       <c r="O219" s="4">
-        <v>26.3</v>
-      </c>
-      <c r="P219" s="3"/>
-      <c r="Q219" s="3"/>
+        <v>26.7</v>
+      </c>
+      <c r="P219" s="4">
+        <v>21.2</v>
+      </c>
+      <c r="Q219" s="4">
+        <v>17.3</v>
+      </c>
       <c r="R219" s="3"/>
       <c r="S219" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>286</v>
+        <v>32</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G220" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H220" s="4">
+        <v>38.6</v>
+      </c>
+      <c r="I220" s="4">
+        <v>41.3</v>
+      </c>
+      <c r="J220" s="4">
+        <v>43.5</v>
+      </c>
       <c r="K220" s="4">
-        <v>30.3</v>
+        <v>42.4</v>
       </c>
       <c r="L220" s="4">
-        <v>30.1</v>
-      </c>
-      <c r="M220" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="M220" s="4">
+        <v>37.1</v>
+      </c>
       <c r="N220" s="4">
-        <v>31.3</v>
+        <v>33.5</v>
       </c>
       <c r="O220" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="P220" s="3"/>
-      <c r="Q220" s="3"/>
+        <v>28.6</v>
+      </c>
+      <c r="P220" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="Q220" s="4">
+        <v>25.2</v>
+      </c>
       <c r="R220" s="3"/>
       <c r="S220" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>287</v>
+        <v>24</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G221" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="H221" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="I221" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="J221" s="4">
+        <v>12.2</v>
+      </c>
       <c r="K221" s="4">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L221" s="4">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="M221" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="M221" s="4">
+        <v>10.5</v>
+      </c>
       <c r="N221" s="4">
-        <v>29.4</v>
+        <v>9.5</v>
       </c>
       <c r="O221" s="4">
-        <v>27.8</v>
-      </c>
-      <c r="P221" s="3"/>
-      <c r="Q221" s="3"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P221" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="Q221" s="4">
+        <v>8.6</v>
+      </c>
       <c r="R221" s="3"/>
       <c r="S221" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>288</v>
+        <v>93</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G222" s="4">
+        <v>11</v>
+      </c>
+      <c r="H222" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="I222" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="J222" s="4">
+        <v>12.3</v>
+      </c>
       <c r="K222" s="4">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="L222" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="M222" s="3"/>
+        <v>10.8</v>
+      </c>
+      <c r="M222" s="4">
+        <v>11.1</v>
+      </c>
       <c r="N222" s="4">
-        <v>34.1</v>
+        <v>10.7</v>
       </c>
       <c r="O222" s="4">
-        <v>26.9</v>
-      </c>
-      <c r="P222" s="3"/>
-      <c r="Q222" s="3"/>
+        <v>10.1</v>
+      </c>
+      <c r="P222" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="Q222" s="4">
+        <v>9.5</v>
+      </c>
       <c r="R222" s="3"/>
       <c r="S222" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>282</v>
+        <v>90</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-      <c r="J223" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G223" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="H223" s="4">
+        <v>11.2</v>
+      </c>
+      <c r="I223" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="J223" s="4">
+        <v>12.1</v>
+      </c>
       <c r="K223" s="4">
-        <v>29.8</v>
+        <v>12</v>
       </c>
       <c r="L223" s="4">
-        <v>34.4</v>
-      </c>
-      <c r="M223" s="3"/>
+        <v>11.2</v>
+      </c>
+      <c r="M223" s="4">
+        <v>10</v>
+      </c>
       <c r="N223" s="4">
-        <v>23.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="O223" s="4">
-        <v>25</v>
-      </c>
-      <c r="P223" s="3"/>
-      <c r="Q223" s="3"/>
+        <v>7.3</v>
+      </c>
+      <c r="P223" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="Q223" s="4">
+        <v>7.8</v>
+      </c>
       <c r="R223" s="3"/>
       <c r="S223" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>24</v>
@@ -13080,421 +13209,425 @@
         <v>25</v>
       </c>
       <c r="G224" s="4">
-        <v>16.2</v>
+        <v>69</v>
       </c>
       <c r="H224" s="4">
-        <v>14.5</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="I224" s="4">
-        <v>14.2</v>
+        <v>70.3</v>
       </c>
       <c r="J224" s="4">
-        <v>14</v>
+        <v>71.8</v>
       </c>
       <c r="K224" s="4">
-        <v>13.4</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="L224" s="4">
-        <v>12.4</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="M224" s="4">
-        <v>13</v>
+        <v>75.7</v>
       </c>
       <c r="N224" s="4">
-        <v>12.4</v>
+        <v>76.7</v>
       </c>
       <c r="O224" s="4">
-        <v>13.8</v>
+        <v>77.8</v>
       </c>
       <c r="P224" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="Q224" s="3"/>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="Q224" s="4">
+        <v>78.2</v>
+      </c>
       <c r="R224" s="3"/>
       <c r="S224" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="G225" s="4">
-        <v>24.7</v>
+        <v>67.5</v>
       </c>
       <c r="H225" s="4">
-        <v>25</v>
+        <v>68.7</v>
       </c>
       <c r="I225" s="4">
-        <v>25.4</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="J225" s="4">
-        <v>25.7</v>
+        <v>72.2</v>
       </c>
       <c r="K225" s="4">
-        <v>26.1</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="L225" s="4">
-        <v>26.4</v>
+        <v>73.5</v>
       </c>
       <c r="M225" s="4">
-        <v>26.8</v>
+        <v>76.5</v>
       </c>
       <c r="N225" s="4">
-        <v>27.2</v>
+        <v>78.2</v>
       </c>
       <c r="O225" s="4">
-        <v>27.7</v>
+        <v>79.2</v>
       </c>
       <c r="P225" s="4">
-        <v>28.1</v>
+        <v>80</v>
       </c>
       <c r="Q225" s="4">
-        <v>28.7</v>
+        <v>79.7</v>
       </c>
       <c r="R225" s="3"/>
       <c r="S225" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>296</v>
+        <v>258</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G226" s="4">
-        <v>13</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="H226" s="4">
-        <v>10.3</v>
+        <v>70.2</v>
       </c>
       <c r="I226" s="4">
-        <v>9.3000000000000007</v>
+        <v>70.5</v>
       </c>
       <c r="J226" s="4">
-        <v>8.8000000000000007</v>
+        <v>71.5</v>
       </c>
       <c r="K226" s="4">
-        <v>8.9</v>
+        <v>72.5</v>
       </c>
       <c r="L226" s="4">
-        <v>10.6</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="M226" s="4">
-        <v>10.1</v>
+        <v>75</v>
       </c>
       <c r="N226" s="4">
-        <v>10.5</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="O226" s="4">
-        <v>10.5</v>
+        <v>76.7</v>
       </c>
       <c r="P226" s="4">
-        <v>10.4</v>
-      </c>
-      <c r="Q226" s="3"/>
+        <v>78.099999999999994</v>
+      </c>
+      <c r="Q226" s="4">
+        <v>77.2</v>
+      </c>
       <c r="R226" s="3"/>
       <c r="S226" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G227" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H227" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="I227" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="J227" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="K227" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="L227" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="M227" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="N227" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="O227" s="4">
-        <v>7</v>
-      </c>
-      <c r="P227" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="Q227" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="G227" s="6">
+        <v>-2114</v>
+      </c>
+      <c r="H227" s="6">
+        <v>-4334</v>
+      </c>
+      <c r="I227" s="6">
+        <v>-6617</v>
+      </c>
+      <c r="J227" s="6">
+        <v>-19904</v>
+      </c>
+      <c r="K227" s="6">
+        <v>-15750</v>
+      </c>
+      <c r="L227" s="3"/>
+      <c r="M227" s="6">
+        <v>1505</v>
+      </c>
+      <c r="N227" s="6">
+        <v>1436</v>
+      </c>
+      <c r="O227" s="6">
+        <v>3612</v>
+      </c>
+      <c r="P227" s="6">
+        <v>6183</v>
+      </c>
+      <c r="Q227" s="6">
+        <v>4483</v>
+      </c>
       <c r="R227" s="3"/>
       <c r="S227" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G228" s="4">
-        <v>166.5</v>
-      </c>
-      <c r="H228" s="4">
-        <v>166.2</v>
-      </c>
-      <c r="I228" s="4">
-        <v>165.6</v>
-      </c>
-      <c r="J228" s="4">
-        <v>155.5</v>
-      </c>
-      <c r="K228" s="4">
-        <v>159.69999999999999</v>
-      </c>
-      <c r="L228" s="4">
-        <v>158.30000000000001</v>
-      </c>
-      <c r="M228" s="4">
-        <v>162.69999999999999</v>
-      </c>
-      <c r="N228" s="4">
-        <v>161.69999999999999</v>
-      </c>
-      <c r="O228" s="4">
-        <v>163.4</v>
-      </c>
-      <c r="P228" s="4">
-        <v>167.6</v>
-      </c>
-      <c r="Q228" s="3"/>
+      <c r="G228" s="6">
+        <v>-3150</v>
+      </c>
+      <c r="H228" s="6">
+        <v>-4043</v>
+      </c>
+      <c r="I228" s="6">
+        <v>-4772</v>
+      </c>
+      <c r="J228" s="6">
+        <v>-11884</v>
+      </c>
+      <c r="K228" s="6">
+        <v>-8724</v>
+      </c>
+      <c r="L228" s="3"/>
+      <c r="M228" s="6">
+        <v>401</v>
+      </c>
+      <c r="N228" s="6">
+        <v>166</v>
+      </c>
+      <c r="O228" s="6">
+        <v>1074</v>
+      </c>
+      <c r="P228" s="6">
+        <v>2279</v>
+      </c>
+      <c r="Q228" s="6">
+        <v>1850</v>
+      </c>
       <c r="R228" s="3"/>
       <c r="S228" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>301</v>
+        <v>90</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>302</v>
+        <v>92</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G229" s="5">
-        <v>14.82</v>
-      </c>
-      <c r="H229" s="5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I229" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="J229" s="5">
-        <v>13.27</v>
-      </c>
-      <c r="K229" s="5">
-        <v>21.1</v>
-      </c>
-      <c r="L229" s="5">
-        <v>26.39</v>
-      </c>
-      <c r="M229" s="5">
-        <v>27.84</v>
-      </c>
-      <c r="N229" s="5">
-        <v>26.73</v>
-      </c>
-      <c r="O229" s="5">
-        <v>26.18</v>
-      </c>
-      <c r="P229" s="5">
-        <v>25.03</v>
-      </c>
-      <c r="Q229" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="G229" s="6">
+        <v>1036</v>
+      </c>
+      <c r="H229" s="6">
+        <v>-291</v>
+      </c>
+      <c r="I229" s="6">
+        <v>-1845</v>
+      </c>
+      <c r="J229" s="6">
+        <v>-8020</v>
+      </c>
+      <c r="K229" s="6">
+        <v>-7026</v>
+      </c>
+      <c r="L229" s="3"/>
+      <c r="M229" s="6">
+        <v>1104</v>
+      </c>
+      <c r="N229" s="6">
+        <v>1270</v>
+      </c>
+      <c r="O229" s="6">
+        <v>2538</v>
+      </c>
+      <c r="P229" s="6">
+        <v>3904</v>
+      </c>
+      <c r="Q229" s="6">
+        <v>2633</v>
+      </c>
       <c r="R229" s="3"/>
       <c r="S229" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>303</v>
+        <v>24</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G230" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="H230" s="5">
-        <v>1.73</v>
-      </c>
-      <c r="I230" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="J230" s="5">
-        <v>1.88</v>
-      </c>
-      <c r="K230" s="5">
-        <v>5.42</v>
-      </c>
-      <c r="L230" s="5">
-        <v>6.09</v>
-      </c>
-      <c r="M230" s="5">
-        <v>6.99</v>
-      </c>
-      <c r="N230" s="5">
-        <v>7.08</v>
-      </c>
-      <c r="O230" s="5">
-        <v>8.11</v>
-      </c>
-      <c r="P230" s="5">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="Q230" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="G230" s="3"/>
+      <c r="H230" s="6">
+        <v>43</v>
+      </c>
+      <c r="I230" s="6">
+        <v>44</v>
+      </c>
+      <c r="J230" s="6">
+        <v>49</v>
+      </c>
+      <c r="K230" s="6">
+        <v>45</v>
+      </c>
+      <c r="L230" s="6">
+        <v>46</v>
+      </c>
+      <c r="M230" s="6">
+        <v>39</v>
+      </c>
+      <c r="N230" s="6">
+        <v>38</v>
+      </c>
+      <c r="O230" s="6">
+        <v>39</v>
+      </c>
+      <c r="P230" s="6">
+        <v>39</v>
+      </c>
+      <c r="Q230" s="6">
+        <v>38</v>
+      </c>
       <c r="R230" s="3"/>
       <c r="S230" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G231" s="5">
-        <v>0.32</v>
+        <v>0.72</v>
       </c>
       <c r="H231" s="5">
-        <v>0.37</v>
+        <v>0.75</v>
       </c>
       <c r="I231" s="5">
-        <v>0.42</v>
+        <v>0.88</v>
       </c>
       <c r="J231" s="5">
-        <v>6.78</v>
+        <v>0.88</v>
       </c>
       <c r="K231" s="5">
-        <v>15.1</v>
+        <v>0.94</v>
       </c>
       <c r="L231" s="5">
-        <v>13.25</v>
+        <v>1</v>
       </c>
       <c r="M231" s="5">
-        <v>19.440000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="N231" s="5">
-        <v>24.41</v>
+        <v>1.03</v>
       </c>
       <c r="O231" s="5">
-        <v>24.13</v>
+        <v>1.21</v>
       </c>
       <c r="P231" s="5">
-        <v>22.9</v>
+        <v>1.32</v>
       </c>
       <c r="Q231" s="3"/>
       <c r="R231" s="3"/>
@@ -13502,54 +13635,54 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G232" s="5">
-        <v>66.8</v>
+        <v>0.19</v>
       </c>
       <c r="H232" s="5">
-        <v>69.260000000000005</v>
+        <v>0.23</v>
       </c>
       <c r="I232" s="5">
-        <v>66.91</v>
+        <v>0.33</v>
       </c>
       <c r="J232" s="5">
-        <v>61.95</v>
+        <v>0.38</v>
       </c>
       <c r="K232" s="5">
-        <v>58.38</v>
+        <v>0.44</v>
       </c>
       <c r="L232" s="5">
-        <v>54.29</v>
+        <v>0.47</v>
       </c>
       <c r="M232" s="5">
-        <v>45.74</v>
+        <v>0.63</v>
       </c>
       <c r="N232" s="5">
-        <v>41.77</v>
+        <v>0.67</v>
       </c>
       <c r="O232" s="5">
-        <v>41.58</v>
+        <v>0.8</v>
       </c>
       <c r="P232" s="5">
-        <v>43.03</v>
+        <v>0.83</v>
       </c>
       <c r="Q232" s="3"/>
       <c r="R232" s="3"/>
@@ -13557,15 +13690,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>45</v>
@@ -13574,53 +13707,53 @@
         <v>24</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G233" s="6">
-        <v>28</v>
-      </c>
-      <c r="H233" s="6">
-        <v>27</v>
-      </c>
-      <c r="I233" s="6">
-        <v>26</v>
-      </c>
-      <c r="J233" s="6">
-        <v>25</v>
-      </c>
-      <c r="K233" s="6">
-        <v>24</v>
-      </c>
-      <c r="L233" s="6">
-        <v>23</v>
-      </c>
-      <c r="M233" s="6">
-        <v>22</v>
-      </c>
-      <c r="N233" s="6">
-        <v>22</v>
-      </c>
-      <c r="O233" s="6">
-        <v>22</v>
-      </c>
-      <c r="P233" s="6">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G233" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="H233" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="I233" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J233" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K233" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L233" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="M233" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="N233" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="O233" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="P233" s="4">
+        <v>9.3000000000000007</v>
       </c>
       <c r="Q233" s="3"/>
       <c r="R233" s="3"/>
       <c r="S233" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>45</v>
@@ -13629,37 +13762,37 @@
         <v>24</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="G234" s="4">
-        <v>20.8</v>
+        <v>6</v>
       </c>
       <c r="H234" s="4">
-        <v>20.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I234" s="4">
-        <v>20.6</v>
+        <v>6</v>
       </c>
       <c r="J234" s="4">
-        <v>20.399999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="K234" s="4">
-        <v>20.5</v>
+        <v>7.9</v>
       </c>
       <c r="L234" s="4">
-        <v>20.7</v>
+        <v>8.5</v>
       </c>
       <c r="M234" s="4">
-        <v>21.5</v>
+        <v>8.5</v>
       </c>
       <c r="N234" s="4">
-        <v>21.6</v>
+        <v>8.4</v>
       </c>
       <c r="O234" s="4">
-        <v>21.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P234" s="4">
-        <v>22.2</v>
+        <v>8.6</v>
       </c>
       <c r="Q234" s="3"/>
       <c r="R234" s="3"/>
@@ -13667,15 +13800,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>45</v>
@@ -13684,53 +13817,55 @@
         <v>24</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G235" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="H235" s="5">
-        <v>0.48</v>
-      </c>
-      <c r="I235" s="5">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="J235" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="K235" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="L235" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="M235" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="N235" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="O235" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="P235" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="Q235" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="G235" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H235" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I235" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J235" s="4">
+        <v>1</v>
+      </c>
+      <c r="K235" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L235" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="M235" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="N235" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="O235" s="4">
+        <v>19.3</v>
+      </c>
+      <c r="P235" s="4">
+        <v>23.3</v>
+      </c>
+      <c r="Q235" s="4">
+        <v>28.3</v>
+      </c>
       <c r="R235" s="3"/>
       <c r="S235" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>45</v>
@@ -13739,53 +13874,53 @@
         <v>24</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="G236" s="5">
-        <v>16.95</v>
-      </c>
-      <c r="H236" s="5">
-        <v>20.96</v>
-      </c>
-      <c r="I236" s="5">
-        <v>18.27</v>
-      </c>
-      <c r="J236" s="5">
-        <v>17.27</v>
-      </c>
-      <c r="K236" s="5">
-        <v>17.22</v>
-      </c>
-      <c r="L236" s="5">
-        <v>16.93</v>
-      </c>
-      <c r="M236" s="5">
-        <v>17.7</v>
-      </c>
-      <c r="N236" s="5">
-        <v>18.71</v>
-      </c>
-      <c r="O236" s="5">
-        <v>19.34</v>
-      </c>
-      <c r="P236" s="5">
-        <v>18.489999999999998</v>
+        <v>25</v>
+      </c>
+      <c r="G236" s="4">
+        <v>11.3</v>
+      </c>
+      <c r="H236" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="I236" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="J236" s="4">
+        <v>14.1</v>
+      </c>
+      <c r="K236" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="L236" s="4">
+        <v>14</v>
+      </c>
+      <c r="M236" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="N236" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="O236" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="P236" s="4">
+        <v>15.3</v>
       </c>
       <c r="Q236" s="3"/>
       <c r="R236" s="3"/>
       <c r="S236" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>45</v>
@@ -13794,53 +13929,51 @@
         <v>24</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G237" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="H237" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I237" s="4">
-        <v>10.6</v>
-      </c>
+        <v>30.8</v>
+      </c>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
       <c r="J237" s="4">
-        <v>11.8</v>
+        <v>33.4</v>
       </c>
       <c r="K237" s="4">
-        <v>12.5</v>
+        <v>34.5</v>
       </c>
       <c r="L237" s="4">
-        <v>11.6</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="M237" s="4">
-        <v>10.199999999999999</v>
+        <v>35.9</v>
       </c>
       <c r="N237" s="4">
-        <v>9.9</v>
+        <v>36.6</v>
       </c>
       <c r="O237" s="4">
-        <v>9.6999999999999993</v>
+        <v>37.5</v>
       </c>
       <c r="P237" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="Q237" s="3"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Q237" s="4">
+        <v>38.700000000000003</v>
+      </c>
       <c r="R237" s="3"/>
       <c r="S237" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>316</v>
+        <v>275</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>45</v>
@@ -13849,53 +13982,53 @@
         <v>24</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G238" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H238" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="I238" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="J238" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="K238" s="5">
-        <v>3.82</v>
-      </c>
-      <c r="L238" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="M238" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="N238" s="5">
-        <v>2.62</v>
-      </c>
-      <c r="O238" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="P238" s="5">
-        <v>2.66</v>
+        <v>279</v>
+      </c>
+      <c r="G238" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H238" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="I238" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="J238" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K238" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="L238" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M238" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="N238" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="O238" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="P238" s="4">
+        <v>13.1</v>
       </c>
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
       <c r="S238" s="2" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>45</v>
@@ -13904,53 +14037,53 @@
         <v>24</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="G239" s="4">
-        <v>100</v>
+        <v>16.2</v>
       </c>
       <c r="H239" s="4">
-        <v>99.8</v>
+        <v>16.2</v>
       </c>
       <c r="I239" s="4">
-        <v>97.6</v>
+        <v>16</v>
       </c>
       <c r="J239" s="4">
-        <v>96.3</v>
+        <v>15.7</v>
       </c>
       <c r="K239" s="4">
-        <v>92.7</v>
+        <v>15.7</v>
       </c>
       <c r="L239" s="4">
-        <v>93.6</v>
+        <v>15.5</v>
       </c>
       <c r="M239" s="4">
-        <v>96.9</v>
+        <v>15</v>
       </c>
       <c r="N239" s="4">
-        <v>100.8</v>
+        <v>14.7</v>
       </c>
       <c r="O239" s="4">
-        <v>100.6</v>
+        <v>15</v>
       </c>
       <c r="P239" s="4">
-        <v>95.4</v>
+        <v>15</v>
       </c>
       <c r="Q239" s="3"/>
       <c r="R239" s="3"/>
       <c r="S239" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>45</v>
@@ -13959,53 +14092,53 @@
         <v>24</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>321</v>
+        <v>25</v>
       </c>
       <c r="G240" s="4">
-        <v>100</v>
+        <v>66.5</v>
       </c>
       <c r="H240" s="4">
-        <v>99.8</v>
+        <v>67.5</v>
       </c>
       <c r="I240" s="4">
-        <v>97.9</v>
+        <v>67.2</v>
       </c>
       <c r="J240" s="4">
-        <v>97.1</v>
+        <v>69</v>
       </c>
       <c r="K240" s="4">
-        <v>94.1</v>
+        <v>68</v>
       </c>
       <c r="L240" s="4">
-        <v>94.5</v>
+        <v>69.5</v>
       </c>
       <c r="M240" s="4">
-        <v>96.8</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="N240" s="4">
-        <v>100.3</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="O240" s="4">
-        <v>99.6</v>
+        <v>71.7</v>
       </c>
       <c r="P240" s="4">
-        <v>94.5</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="Q240" s="3"/>
       <c r="R240" s="3"/>
       <c r="S240" s="2" t="s">
-        <v>324</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>45</v>
@@ -14014,92 +14147,88 @@
         <v>24</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G241" s="5">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="H241" s="5">
-        <v>10.35</v>
-      </c>
-      <c r="I241" s="5">
-        <v>10.97</v>
-      </c>
-      <c r="J241" s="5">
-        <v>11.46</v>
-      </c>
-      <c r="K241" s="5">
-        <v>11.61</v>
-      </c>
-      <c r="L241" s="5">
-        <v>11.89</v>
-      </c>
-      <c r="M241" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="N241" s="5">
-        <v>11.12</v>
-      </c>
-      <c r="O241" s="5">
-        <v>11.48</v>
-      </c>
-      <c r="P241" s="5">
-        <v>12.16</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G241" s="3"/>
+      <c r="H241" s="6">
+        <v>9009</v>
+      </c>
+      <c r="I241" s="6">
+        <v>-32498</v>
+      </c>
+      <c r="J241" s="6">
+        <v>13290</v>
+      </c>
+      <c r="K241" s="6">
+        <v>35266</v>
+      </c>
+      <c r="L241" s="6">
+        <v>28601</v>
+      </c>
+      <c r="M241" s="6">
+        <v>49727</v>
+      </c>
+      <c r="N241" s="6">
+        <v>44900</v>
+      </c>
+      <c r="O241" s="6">
+        <v>34350</v>
+      </c>
+      <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
       <c r="R241" s="3"/>
       <c r="S241" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G242" s="6">
-        <v>563</v>
-      </c>
-      <c r="H242" s="6">
-        <v>531</v>
-      </c>
-      <c r="I242" s="6">
-        <v>661</v>
-      </c>
-      <c r="J242" s="6">
-        <v>778</v>
-      </c>
-      <c r="K242" s="6">
-        <v>847</v>
-      </c>
-      <c r="L242" s="6">
-        <v>909</v>
-      </c>
-      <c r="M242" s="6">
-        <v>930</v>
-      </c>
-      <c r="N242" s="6">
-        <v>946</v>
-      </c>
-      <c r="O242" s="6">
-        <v>991</v>
-      </c>
-      <c r="P242" s="6">
-        <v>1050</v>
+        <v>288</v>
+      </c>
+      <c r="G242" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="H242" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="I242" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="J242" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="K242" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="L242" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="M242" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="N242" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="O242" s="4">
+        <v>27.8</v>
+      </c>
+      <c r="P242" s="4">
+        <v>28.5</v>
       </c>
       <c r="Q242" s="3"/>
       <c r="R242" s="3"/>
@@ -14107,500 +14236,392 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>333</v>
+        <v>31</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G243" s="6">
-        <v>40</v>
-      </c>
-      <c r="H243" s="6">
-        <v>60</v>
-      </c>
-      <c r="I243" s="6">
-        <v>40</v>
-      </c>
-      <c r="J243" s="6">
-        <v>40</v>
-      </c>
-      <c r="K243" s="6">
-        <v>40</v>
-      </c>
-      <c r="L243" s="6">
-        <v>40</v>
-      </c>
-      <c r="M243" s="6">
-        <v>60</v>
-      </c>
-      <c r="N243" s="6">
-        <v>40</v>
-      </c>
-      <c r="O243" s="6">
-        <v>40</v>
-      </c>
-      <c r="P243" s="6">
-        <v>40</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="4">
+        <v>30</v>
+      </c>
+      <c r="K243" s="4">
+        <v>30.1</v>
+      </c>
+      <c r="L243" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="M243" s="3"/>
+      <c r="N243" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="O243" s="4">
+        <v>27.3</v>
+      </c>
+      <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
       <c r="R243" s="3"/>
       <c r="S243" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>334</v>
+        <v>32</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G244" s="6">
-        <v>40</v>
-      </c>
-      <c r="H244" s="6">
-        <v>60</v>
-      </c>
-      <c r="I244" s="6">
-        <v>20</v>
-      </c>
-      <c r="J244" s="6">
-        <v>20</v>
-      </c>
-      <c r="K244" s="6">
-        <v>20</v>
-      </c>
-      <c r="L244" s="6">
-        <v>40</v>
-      </c>
-      <c r="M244" s="6">
-        <v>60</v>
-      </c>
-      <c r="N244" s="6">
-        <v>40</v>
-      </c>
-      <c r="O244" s="6">
-        <v>25</v>
-      </c>
-      <c r="P244" s="6">
-        <v>25</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="4">
+        <v>29.1</v>
+      </c>
+      <c r="K244" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="L244" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="M244" s="3"/>
+      <c r="N244" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="O244" s="4">
+        <v>26.5</v>
+      </c>
+      <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
       <c r="R244" s="3"/>
       <c r="S244" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G245" s="6">
-        <v>0</v>
-      </c>
-      <c r="H245" s="6">
-        <v>0</v>
-      </c>
-      <c r="I245" s="6">
-        <v>20</v>
-      </c>
-      <c r="J245" s="6">
-        <v>20</v>
-      </c>
-      <c r="K245" s="6">
-        <v>20</v>
-      </c>
-      <c r="L245" s="6">
-        <v>0</v>
-      </c>
-      <c r="M245" s="6">
-        <v>0</v>
-      </c>
-      <c r="N245" s="6">
-        <v>0</v>
-      </c>
-      <c r="O245" s="6">
-        <v>0</v>
-      </c>
-      <c r="P245" s="6">
-        <v>0</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="4">
+        <v>31.7</v>
+      </c>
+      <c r="L245" s="4">
+        <v>32.1</v>
+      </c>
+      <c r="M245" s="3"/>
+      <c r="N245" s="4">
+        <v>34</v>
+      </c>
+      <c r="O245" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
       <c r="R245" s="3"/>
       <c r="S245" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" ht="99" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G246" s="6">
-        <v>60</v>
-      </c>
-      <c r="H246" s="6">
-        <v>40</v>
-      </c>
-      <c r="I246" s="6">
-        <v>60</v>
-      </c>
-      <c r="J246" s="6">
-        <v>60</v>
-      </c>
-      <c r="K246" s="6">
-        <v>60</v>
-      </c>
-      <c r="L246" s="6">
-        <v>60</v>
-      </c>
-      <c r="M246" s="6">
-        <v>40</v>
-      </c>
-      <c r="N246" s="6">
-        <v>60</v>
-      </c>
-      <c r="O246" s="6">
-        <v>75</v>
-      </c>
-      <c r="P246" s="6">
-        <v>75</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="4">
+        <v>29.3</v>
+      </c>
+      <c r="L246" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="M246" s="3"/>
+      <c r="N246" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="O246" s="4">
+        <v>28</v>
+      </c>
+      <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
       <c r="S246" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G247" s="4">
-        <v>100</v>
-      </c>
-      <c r="H247" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="I247" s="4">
-        <v>99.9</v>
-      </c>
-      <c r="J247" s="4">
-        <v>101.8</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
       <c r="K247" s="4">
-        <v>104.9</v>
+        <v>32</v>
       </c>
       <c r="L247" s="4">
-        <v>106</v>
-      </c>
-      <c r="M247" s="4">
-        <v>119.9</v>
-      </c>
+        <v>30.7</v>
+      </c>
+      <c r="M247" s="3"/>
       <c r="N247" s="4">
-        <v>119.4</v>
+        <v>28.6</v>
       </c>
       <c r="O247" s="4">
-        <v>130</v>
-      </c>
-      <c r="P247" s="4">
-        <v>189.5</v>
-      </c>
+        <v>26.3</v>
+      </c>
+      <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
       <c r="R247" s="3"/>
       <c r="S247" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>329</v>
+        <v>280</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>24</v>
+        <v>293</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G248" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="H248" s="4">
-        <v>57.7</v>
-      </c>
-      <c r="I248" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="J248" s="4">
-        <v>64.3</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
       <c r="K248" s="4">
-        <v>68.7</v>
+        <v>30.3</v>
       </c>
       <c r="L248" s="4">
-        <v>69.5</v>
-      </c>
-      <c r="M248" s="4">
-        <v>72.900000000000006</v>
-      </c>
+        <v>30.1</v>
+      </c>
+      <c r="M248" s="3"/>
       <c r="N248" s="4">
-        <v>78.099999999999994</v>
+        <v>31.3</v>
       </c>
       <c r="O248" s="4">
-        <v>91.8</v>
-      </c>
-      <c r="P248" s="4">
-        <v>93.9</v>
-      </c>
+        <v>28.8</v>
+      </c>
+      <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
       <c r="R248" s="3"/>
       <c r="S248" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>24</v>
+        <v>294</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G249" s="4">
-        <v>88.4</v>
-      </c>
-      <c r="H249" s="4">
-        <v>87</v>
-      </c>
-      <c r="I249" s="4">
-        <v>84.4</v>
-      </c>
-      <c r="J249" s="4">
-        <v>84.7</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
       <c r="K249" s="4">
-        <v>83.3</v>
+        <v>32</v>
       </c>
       <c r="L249" s="4">
-        <v>85.9</v>
-      </c>
-      <c r="M249" s="4">
-        <v>87.2</v>
-      </c>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="M249" s="3"/>
       <c r="N249" s="4">
-        <v>80.8</v>
+        <v>29.4</v>
       </c>
       <c r="O249" s="4">
-        <v>75.3</v>
-      </c>
-      <c r="P249" s="4">
-        <v>77.400000000000006</v>
-      </c>
+        <v>27.8</v>
+      </c>
+      <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
       <c r="R249" s="3"/>
       <c r="S249" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>348</v>
+        <v>287</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G250" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="H250" s="7">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="I250" s="7">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="J250" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="K250" s="7">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="L250" s="7">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="M250" s="7">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="N250" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="O250" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="P250" s="7">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="Q250" s="7">
-        <v>0.2</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="4">
+        <v>37</v>
+      </c>
+      <c r="L250" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="M250" s="3"/>
+      <c r="N250" s="4">
+        <v>34.1</v>
+      </c>
+      <c r="O250" s="4">
+        <v>26.9</v>
+      </c>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
       <c r="R250" s="3"/>
       <c r="S250" s="2" t="s">
-        <v>349</v>
+        <v>26</v>
       </c>
     </row>
     <row r="251" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G251" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="H251" s="4">
-        <v>30.5</v>
-      </c>
-      <c r="I251" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="J251" s="4">
-        <v>30.6</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
       <c r="K251" s="4">
-        <v>30.7</v>
+        <v>29.8</v>
       </c>
       <c r="L251" s="4">
-        <v>30.8</v>
-      </c>
-      <c r="M251" s="4">
-        <v>30.8</v>
-      </c>
+        <v>34.4</v>
+      </c>
+      <c r="M251" s="3"/>
       <c r="N251" s="4">
-        <v>30.9</v>
+        <v>23.9</v>
       </c>
       <c r="O251" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="P251" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="Q251" s="4">
-        <v>30.9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
       <c r="R251" s="3"/>
       <c r="S251" s="2" t="s">
         <v>26</v>
@@ -14608,13 +14629,13 @@
     </row>
     <row r="252" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>45</v>
@@ -14623,95 +14644,95 @@
         <v>24</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G252" s="6">
-        <v>28</v>
-      </c>
-      <c r="H252" s="6">
-        <v>27</v>
-      </c>
-      <c r="I252" s="6">
-        <v>26</v>
-      </c>
-      <c r="J252" s="6">
-        <v>25</v>
-      </c>
-      <c r="K252" s="6">
-        <v>24</v>
-      </c>
-      <c r="L252" s="6">
-        <v>23</v>
-      </c>
-      <c r="M252" s="6">
-        <v>22</v>
-      </c>
-      <c r="N252" s="6">
-        <v>22</v>
-      </c>
-      <c r="O252" s="6">
-        <v>22</v>
-      </c>
-      <c r="P252" s="6">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G252" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="H252" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="I252" s="4">
+        <v>14.2</v>
+      </c>
+      <c r="J252" s="4">
+        <v>14</v>
+      </c>
+      <c r="K252" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="L252" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="M252" s="4">
+        <v>13</v>
+      </c>
+      <c r="N252" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="O252" s="4">
+        <v>13.8</v>
+      </c>
+      <c r="P252" s="4">
+        <v>12.6</v>
       </c>
       <c r="Q252" s="3"/>
       <c r="R252" s="3"/>
       <c r="S252" s="2" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
     </row>
     <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E253" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="G253" s="4">
-        <v>64.7</v>
+        <v>24.7</v>
       </c>
       <c r="H253" s="4">
-        <v>65.7</v>
+        <v>25</v>
       </c>
       <c r="I253" s="4">
-        <v>68.599999999999994</v>
+        <v>25.4</v>
       </c>
       <c r="J253" s="4">
-        <v>70.3</v>
+        <v>25.7</v>
       </c>
       <c r="K253" s="4">
-        <v>71.5</v>
+        <v>26.1</v>
       </c>
       <c r="L253" s="4">
-        <v>72.7</v>
+        <v>26.4</v>
       </c>
       <c r="M253" s="4">
-        <v>73.5</v>
+        <v>26.8</v>
       </c>
       <c r="N253" s="4">
-        <v>73.599999999999994</v>
+        <v>27.2</v>
       </c>
       <c r="O253" s="4">
-        <v>74</v>
+        <v>27.7</v>
       </c>
       <c r="P253" s="4">
-        <v>74.5</v>
+        <v>28.1</v>
       </c>
       <c r="Q253" s="4">
-        <v>74.8</v>
+        <v>28.7</v>
       </c>
       <c r="R253" s="3"/>
       <c r="S253" s="2" t="s">
@@ -14720,56 +14741,54 @@
     </row>
     <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F254" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G254" s="4">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="H254" s="4">
-        <v>88.4</v>
+        <v>10.3</v>
       </c>
       <c r="I254" s="4">
-        <v>91.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J254" s="4">
-        <v>93.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K254" s="4">
-        <v>93.9</v>
+        <v>8.9</v>
       </c>
       <c r="L254" s="4">
-        <v>94.6</v>
+        <v>10.6</v>
       </c>
       <c r="M254" s="4">
-        <v>94.8</v>
+        <v>10.1</v>
       </c>
       <c r="N254" s="4">
-        <v>94.5</v>
+        <v>10.5</v>
       </c>
       <c r="O254" s="4">
-        <v>94.6</v>
+        <v>10.5</v>
       </c>
       <c r="P254" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="Q254" s="4">
-        <v>94.7</v>
-      </c>
+        <v>10.4</v>
+      </c>
+      <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
       <c r="S254" s="2" t="s">
         <v>26</v>
@@ -14777,56 +14796,54 @@
     </row>
     <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F255" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G255" s="4">
-        <v>28.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H255" s="4">
-        <v>30.6</v>
+        <v>2.8</v>
       </c>
       <c r="I255" s="4">
-        <v>33.1</v>
+        <v>2.7</v>
       </c>
       <c r="J255" s="4">
-        <v>35.299999999999997</v>
+        <v>3.1</v>
       </c>
       <c r="K255" s="4">
-        <v>37.4</v>
+        <v>2.9</v>
       </c>
       <c r="L255" s="4">
-        <v>39.6</v>
+        <v>3.6</v>
       </c>
       <c r="M255" s="4">
-        <v>41.2</v>
+        <v>3.8</v>
       </c>
       <c r="N255" s="4">
-        <v>42</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O255" s="4">
-        <v>42.9</v>
+        <v>7</v>
       </c>
       <c r="P255" s="4">
-        <v>44</v>
-      </c>
-      <c r="Q255" s="4">
-        <v>45.2</v>
-      </c>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q255" s="3"/>
       <c r="R255" s="3"/>
       <c r="S255" s="2" t="s">
         <v>26</v>
@@ -14834,13 +14851,13 @@
     </row>
     <row r="256" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>343</v>
+        <v>297</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>45</v>
@@ -14849,267 +14866,273 @@
         <v>24</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G256" s="5">
-        <v>65.73</v>
-      </c>
-      <c r="H256" s="5">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="I256" s="5">
-        <v>67.349999999999994</v>
-      </c>
-      <c r="J256" s="5">
-        <v>69.77</v>
-      </c>
-      <c r="K256" s="5">
-        <v>70.48</v>
-      </c>
-      <c r="L256" s="5">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="M256" s="5">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="N256" s="5">
-        <v>72.52</v>
-      </c>
-      <c r="O256" s="5">
-        <v>73.17</v>
-      </c>
-      <c r="P256" s="5">
-        <v>73.930000000000007</v>
+        <v>52</v>
+      </c>
+      <c r="G256" s="4">
+        <v>166.5</v>
+      </c>
+      <c r="H256" s="4">
+        <v>166.2</v>
+      </c>
+      <c r="I256" s="4">
+        <v>165.6</v>
+      </c>
+      <c r="J256" s="4">
+        <v>155.5</v>
+      </c>
+      <c r="K256" s="4">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="L256" s="4">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="M256" s="4">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="N256" s="4">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="O256" s="4">
+        <v>163.4</v>
+      </c>
+      <c r="P256" s="4">
+        <v>167.6</v>
       </c>
       <c r="Q256" s="3"/>
       <c r="R256" s="3"/>
       <c r="S256" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>24</v>
+        <v>309</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G257" s="6">
-        <v>70</v>
-      </c>
-      <c r="H257" s="6">
-        <v>75</v>
-      </c>
-      <c r="I257" s="6">
-        <v>66</v>
-      </c>
-      <c r="J257" s="6">
-        <v>64</v>
-      </c>
-      <c r="K257" s="6">
-        <v>70</v>
-      </c>
-      <c r="L257" s="6">
-        <v>66</v>
-      </c>
-      <c r="M257" s="6">
-        <v>80</v>
-      </c>
-      <c r="N257" s="6">
-        <v>89</v>
-      </c>
-      <c r="O257" s="6">
-        <v>86</v>
-      </c>
-      <c r="P257" s="6">
-        <v>89</v>
-      </c>
-      <c r="Q257" s="6">
-        <v>85</v>
-      </c>
+      <c r="G257" s="5">
+        <v>14.82</v>
+      </c>
+      <c r="H257" s="5">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I257" s="5">
+        <v>10.3</v>
+      </c>
+      <c r="J257" s="5">
+        <v>13.27</v>
+      </c>
+      <c r="K257" s="5">
+        <v>21.1</v>
+      </c>
+      <c r="L257" s="5">
+        <v>26.39</v>
+      </c>
+      <c r="M257" s="5">
+        <v>27.84</v>
+      </c>
+      <c r="N257" s="5">
+        <v>26.73</v>
+      </c>
+      <c r="O257" s="5">
+        <v>26.18</v>
+      </c>
+      <c r="P257" s="5">
+        <v>25.03</v>
+      </c>
+      <c r="Q257" s="3"/>
       <c r="R257" s="3"/>
       <c r="S257" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="258" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>24</v>
+        <v>310</v>
       </c>
       <c r="F258" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G258" s="6">
-        <v>55</v>
-      </c>
-      <c r="H258" s="3"/>
-      <c r="I258" s="6">
-        <v>58</v>
-      </c>
-      <c r="J258" s="3"/>
-      <c r="K258" s="6">
-        <v>60</v>
-      </c>
-      <c r="L258" s="3"/>
-      <c r="M258" s="6">
-        <v>64</v>
-      </c>
-      <c r="N258" s="3"/>
-      <c r="O258" s="6">
-        <v>65</v>
-      </c>
-      <c r="P258" s="3"/>
-      <c r="Q258" s="6">
-        <v>74</v>
-      </c>
+      <c r="G258" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="H258" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="I258" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="J258" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="K258" s="5">
+        <v>5.42</v>
+      </c>
+      <c r="L258" s="5">
+        <v>6.09</v>
+      </c>
+      <c r="M258" s="5">
+        <v>6.99</v>
+      </c>
+      <c r="N258" s="5">
+        <v>7.08</v>
+      </c>
+      <c r="O258" s="5">
+        <v>8.11</v>
+      </c>
+      <c r="P258" s="5">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="Q258" s="3"/>
       <c r="R258" s="3"/>
       <c r="S258" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>360</v>
+        <v>298</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>362</v>
+        <v>25</v>
       </c>
       <c r="G259" s="5">
-        <v>0.98</v>
+        <v>0.32</v>
       </c>
       <c r="H259" s="5">
-        <v>0.93</v>
+        <v>0.37</v>
       </c>
       <c r="I259" s="5">
-        <v>0.96</v>
+        <v>0.42</v>
       </c>
       <c r="J259" s="5">
-        <v>1.05</v>
+        <v>6.78</v>
       </c>
       <c r="K259" s="5">
-        <v>1.05</v>
+        <v>15.1</v>
       </c>
       <c r="L259" s="5">
-        <v>1</v>
+        <v>13.25</v>
       </c>
       <c r="M259" s="5">
-        <v>0.95</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="N259" s="5">
-        <v>0.88</v>
+        <v>24.41</v>
       </c>
       <c r="O259" s="5">
-        <v>0.88</v>
+        <v>24.13</v>
       </c>
       <c r="P259" s="5">
-        <v>1.01</v>
+        <v>22.9</v>
       </c>
       <c r="Q259" s="3"/>
       <c r="R259" s="3"/>
       <c r="S259" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>45</v>
+        <v>308</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>24</v>
+        <v>312</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="G260" s="6">
-        <v>830</v>
-      </c>
-      <c r="H260" s="6">
-        <v>830</v>
-      </c>
-      <c r="I260" s="6">
-        <v>685</v>
-      </c>
-      <c r="J260" s="6">
-        <v>685</v>
-      </c>
-      <c r="K260" s="6">
-        <v>685</v>
-      </c>
-      <c r="L260" s="6">
-        <v>685</v>
-      </c>
-      <c r="M260" s="6">
-        <v>685</v>
-      </c>
-      <c r="N260" s="6">
-        <v>685</v>
-      </c>
-      <c r="O260" s="6">
-        <v>685</v>
-      </c>
-      <c r="P260" s="6">
-        <v>685</v>
+        <v>25</v>
+      </c>
+      <c r="G260" s="5">
+        <v>66.8</v>
+      </c>
+      <c r="H260" s="5">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="I260" s="5">
+        <v>66.91</v>
+      </c>
+      <c r="J260" s="5">
+        <v>61.95</v>
+      </c>
+      <c r="K260" s="5">
+        <v>58.38</v>
+      </c>
+      <c r="L260" s="5">
+        <v>54.29</v>
+      </c>
+      <c r="M260" s="5">
+        <v>45.74</v>
+      </c>
+      <c r="N260" s="5">
+        <v>41.77</v>
+      </c>
+      <c r="O260" s="5">
+        <v>41.58</v>
+      </c>
+      <c r="P260" s="5">
+        <v>43.03</v>
       </c>
       <c r="Q260" s="3"/>
       <c r="R260" s="3"/>
       <c r="S260" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>366</v>
+        <v>314</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>45</v>
@@ -15118,1079 +15141,1047 @@
         <v>24</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="G261" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="H261" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="I261" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="J261" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="K261" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="L261" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="M261" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="N261" s="5">
-        <v>0.64</v>
-      </c>
-      <c r="O261" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="P261" s="5">
-        <v>0.6</v>
+        <v>132</v>
+      </c>
+      <c r="G261" s="6">
+        <v>28</v>
+      </c>
+      <c r="H261" s="6">
+        <v>27</v>
+      </c>
+      <c r="I261" s="6">
+        <v>26</v>
+      </c>
+      <c r="J261" s="6">
+        <v>25</v>
+      </c>
+      <c r="K261" s="6">
+        <v>24</v>
+      </c>
+      <c r="L261" s="6">
+        <v>23</v>
+      </c>
+      <c r="M261" s="6">
+        <v>22</v>
+      </c>
+      <c r="N261" s="6">
+        <v>22</v>
+      </c>
+      <c r="O261" s="6">
+        <v>22</v>
+      </c>
+      <c r="P261" s="6">
+        <v>21</v>
       </c>
       <c r="Q261" s="3"/>
       <c r="R261" s="3"/>
       <c r="S261" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="262" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G262" s="6">
-        <v>10</v>
-      </c>
-      <c r="H262" s="6">
-        <v>9</v>
-      </c>
-      <c r="I262" s="6">
-        <v>11</v>
-      </c>
-      <c r="J262" s="6">
-        <v>11</v>
-      </c>
-      <c r="K262" s="6">
-        <v>15</v>
-      </c>
-      <c r="L262" s="6">
-        <v>16</v>
-      </c>
-      <c r="M262" s="6">
-        <v>19</v>
-      </c>
-      <c r="N262" s="6">
-        <v>21</v>
-      </c>
-      <c r="O262" s="6">
-        <v>25</v>
-      </c>
-      <c r="P262" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q262" s="6">
-        <v>34</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="G262" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="H262" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="I262" s="4">
+        <v>20.6</v>
+      </c>
+      <c r="J262" s="4">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="K262" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="L262" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="M262" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="N262" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="O262" s="4">
+        <v>21.8</v>
+      </c>
+      <c r="P262" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
       <c r="S262" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G263" s="6">
-        <v>10</v>
-      </c>
-      <c r="H263" s="6">
-        <v>9</v>
-      </c>
-      <c r="I263" s="6">
-        <v>11</v>
-      </c>
-      <c r="J263" s="6">
-        <v>12</v>
-      </c>
-      <c r="K263" s="6">
-        <v>14</v>
-      </c>
-      <c r="L263" s="6">
-        <v>15</v>
-      </c>
-      <c r="M263" s="6">
-        <v>19</v>
-      </c>
-      <c r="N263" s="6">
-        <v>21</v>
-      </c>
-      <c r="O263" s="6">
-        <v>24</v>
-      </c>
-      <c r="P263" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q263" s="6">
-        <v>32</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G263" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H263" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="I263" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J263" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K263" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="L263" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="M263" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="N263" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="O263" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="P263" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="Q263" s="3"/>
       <c r="R263" s="3"/>
       <c r="S263" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="264" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G264" s="6">
-        <v>10</v>
-      </c>
-      <c r="H264" s="6">
-        <v>9</v>
-      </c>
-      <c r="I264" s="6">
-        <v>10</v>
-      </c>
-      <c r="J264" s="6">
-        <v>11</v>
-      </c>
-      <c r="K264" s="6">
-        <v>15</v>
-      </c>
-      <c r="L264" s="6">
-        <v>16</v>
-      </c>
-      <c r="M264" s="6">
-        <v>19</v>
-      </c>
-      <c r="N264" s="6">
-        <v>21</v>
-      </c>
-      <c r="O264" s="6">
-        <v>26</v>
-      </c>
-      <c r="P264" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q264" s="6">
-        <v>35</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="G264" s="5">
+        <v>16.95</v>
+      </c>
+      <c r="H264" s="5">
+        <v>20.96</v>
+      </c>
+      <c r="I264" s="5">
+        <v>18.27</v>
+      </c>
+      <c r="J264" s="5">
+        <v>17.27</v>
+      </c>
+      <c r="K264" s="5">
+        <v>17.22</v>
+      </c>
+      <c r="L264" s="5">
+        <v>16.93</v>
+      </c>
+      <c r="M264" s="5">
+        <v>17.7</v>
+      </c>
+      <c r="N264" s="5">
+        <v>18.71</v>
+      </c>
+      <c r="O264" s="5">
+        <v>19.34</v>
+      </c>
+      <c r="P264" s="5">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="Q264" s="3"/>
       <c r="R264" s="3"/>
       <c r="S264" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="265" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>367</v>
+        <v>317</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G265" s="6">
-        <v>12</v>
-      </c>
-      <c r="H265" s="6">
-        <v>11</v>
-      </c>
-      <c r="I265" s="6">
-        <v>13</v>
-      </c>
-      <c r="J265" s="6">
-        <v>15</v>
-      </c>
-      <c r="K265" s="6">
-        <v>18</v>
-      </c>
-      <c r="L265" s="6">
-        <v>19</v>
-      </c>
-      <c r="M265" s="6">
-        <v>23</v>
-      </c>
-      <c r="N265" s="6">
-        <v>26</v>
-      </c>
-      <c r="O265" s="6">
-        <v>30</v>
-      </c>
-      <c r="P265" s="6">
-        <v>37</v>
-      </c>
-      <c r="Q265" s="6">
-        <v>39</v>
-      </c>
+      <c r="G265" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="H265" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I265" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="J265" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="K265" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="L265" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="M265" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N265" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="O265" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="P265" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q265" s="3"/>
       <c r="R265" s="3"/>
       <c r="S265" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="266" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G266" s="6">
-        <v>6</v>
-      </c>
-      <c r="H266" s="6">
-        <v>5</v>
-      </c>
-      <c r="I266" s="6">
-        <v>6</v>
-      </c>
-      <c r="J266" s="6">
-        <v>6</v>
-      </c>
-      <c r="K266" s="6">
-        <v>9</v>
-      </c>
-      <c r="L266" s="6">
-        <v>10</v>
-      </c>
-      <c r="M266" s="6">
-        <v>12</v>
-      </c>
-      <c r="N266" s="6">
-        <v>13</v>
-      </c>
-      <c r="O266" s="6">
-        <v>17</v>
-      </c>
-      <c r="P266" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q266" s="6">
-        <v>25</v>
-      </c>
+      <c r="G266" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H266" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="I266" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="J266" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="K266" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="L266" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="M266" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="N266" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="O266" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="P266" s="5">
+        <v>2.66</v>
+      </c>
+      <c r="Q266" s="3"/>
       <c r="R266" s="3"/>
       <c r="S266" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>369</v>
+        <v>24</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G267" s="6">
-        <v>10</v>
-      </c>
-      <c r="H267" s="6">
-        <v>6</v>
-      </c>
-      <c r="I267" s="6">
-        <v>8</v>
-      </c>
-      <c r="J267" s="6">
-        <v>9</v>
-      </c>
-      <c r="K267" s="6">
-        <v>9</v>
-      </c>
-      <c r="L267" s="6">
-        <v>8</v>
-      </c>
-      <c r="M267" s="6">
-        <v>9</v>
-      </c>
-      <c r="N267" s="6">
-        <v>11</v>
-      </c>
-      <c r="O267" s="6">
-        <v>16</v>
-      </c>
-      <c r="P267" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q267" s="6">
-        <v>21</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G267" s="4">
+        <v>100</v>
+      </c>
+      <c r="H267" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="I267" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="J267" s="4">
+        <v>96.3</v>
+      </c>
+      <c r="K267" s="4">
+        <v>92.7</v>
+      </c>
+      <c r="L267" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="M267" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="N267" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="O267" s="4">
+        <v>100.6</v>
+      </c>
+      <c r="P267" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="Q267" s="3"/>
       <c r="R267" s="3"/>
       <c r="S267" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="268" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="268" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>370</v>
+        <v>24</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G268" s="6">
-        <v>18</v>
-      </c>
-      <c r="H268" s="6">
-        <v>16</v>
-      </c>
-      <c r="I268" s="6">
-        <v>19</v>
-      </c>
-      <c r="J268" s="6">
-        <v>20</v>
-      </c>
-      <c r="K268" s="6">
-        <v>28</v>
-      </c>
-      <c r="L268" s="6">
-        <v>28</v>
-      </c>
-      <c r="M268" s="6">
-        <v>32</v>
-      </c>
-      <c r="N268" s="6">
-        <v>35</v>
-      </c>
-      <c r="O268" s="6">
-        <v>39</v>
-      </c>
-      <c r="P268" s="6">
-        <v>47</v>
-      </c>
-      <c r="Q268" s="6">
-        <v>53</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="G268" s="4">
+        <v>100</v>
+      </c>
+      <c r="H268" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="I268" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="J268" s="4">
+        <v>97.1</v>
+      </c>
+      <c r="K268" s="4">
+        <v>94.1</v>
+      </c>
+      <c r="L268" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="M268" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="N268" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="O268" s="4">
+        <v>99.6</v>
+      </c>
+      <c r="P268" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="Q268" s="3"/>
       <c r="R268" s="3"/>
       <c r="S268" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="269" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>371</v>
+        <v>24</v>
       </c>
       <c r="F269" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G269" s="6">
-        <v>13</v>
-      </c>
-      <c r="H269" s="6">
-        <v>13</v>
-      </c>
-      <c r="I269" s="6">
-        <v>16</v>
-      </c>
-      <c r="J269" s="6">
-        <v>19</v>
-      </c>
-      <c r="K269" s="6">
-        <v>24</v>
-      </c>
-      <c r="L269" s="6">
-        <v>25</v>
-      </c>
-      <c r="M269" s="6">
-        <v>27</v>
-      </c>
-      <c r="N269" s="6">
-        <v>33</v>
-      </c>
-      <c r="O269" s="6">
-        <v>36</v>
-      </c>
-      <c r="P269" s="6">
-        <v>46</v>
-      </c>
-      <c r="Q269" s="6">
-        <v>48</v>
-      </c>
+      <c r="G269" s="5">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="H269" s="5">
+        <v>10.35</v>
+      </c>
+      <c r="I269" s="5">
+        <v>10.97</v>
+      </c>
+      <c r="J269" s="5">
+        <v>11.46</v>
+      </c>
+      <c r="K269" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="L269" s="5">
+        <v>11.89</v>
+      </c>
+      <c r="M269" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="N269" s="5">
+        <v>11.12</v>
+      </c>
+      <c r="O269" s="5">
+        <v>11.48</v>
+      </c>
+      <c r="P269" s="5">
+        <v>12.16</v>
+      </c>
+      <c r="Q269" s="3"/>
       <c r="R269" s="3"/>
       <c r="S269" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>372</v>
+        <v>24</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>25</v>
+        <v>335</v>
       </c>
       <c r="G270" s="6">
-        <v>9</v>
+        <v>563</v>
       </c>
       <c r="H270" s="6">
-        <v>9</v>
+        <v>531</v>
       </c>
       <c r="I270" s="6">
-        <v>11</v>
+        <v>661</v>
       </c>
       <c r="J270" s="6">
-        <v>12</v>
+        <v>778</v>
       </c>
       <c r="K270" s="6">
-        <v>15</v>
+        <v>847</v>
       </c>
       <c r="L270" s="6">
-        <v>15</v>
+        <v>909</v>
       </c>
       <c r="M270" s="6">
-        <v>18</v>
+        <v>930</v>
       </c>
       <c r="N270" s="6">
-        <v>19</v>
+        <v>946</v>
       </c>
       <c r="O270" s="6">
-        <v>25</v>
+        <v>991</v>
       </c>
       <c r="P270" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q270" s="6">
-        <v>35</v>
-      </c>
+        <v>1050</v>
+      </c>
+      <c r="Q270" s="3"/>
       <c r="R270" s="3"/>
       <c r="S270" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>23</v>
+        <v>339</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="F271" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G271" s="6">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="H271" s="6">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="I271" s="6">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="J271" s="6">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="K271" s="6">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="L271" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M271" s="6">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="N271" s="6">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="O271" s="6">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P271" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q271" s="6">
-        <v>23</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="Q271" s="3"/>
       <c r="R271" s="3"/>
       <c r="S271" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="272" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>23</v>
+        <v>339</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="F272" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G272" s="6">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H272" s="6">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="I272" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J272" s="6">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="K272" s="6">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="L272" s="6">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="M272" s="6">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="N272" s="6">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="O272" s="6">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="P272" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q272" s="6">
-        <v>9</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q272" s="3"/>
       <c r="R272" s="3"/>
       <c r="S272" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>43</v>
+        <v>342</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G273" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H273" s="6">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I273" s="6">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J273" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K273" s="6">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L273" s="6">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M273" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N273" s="6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="O273" s="6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P273" s="6">
-        <v>64</v>
-      </c>
-      <c r="Q273" s="6">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q273" s="3"/>
       <c r="R273" s="3"/>
       <c r="S273" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" ht="99" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>170</v>
+        <v>339</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>42</v>
+        <v>343</v>
       </c>
       <c r="F274" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G274" s="6">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="H274" s="6">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I274" s="6">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="J274" s="6">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="K274" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="L274" s="6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M274" s="6">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N274" s="6">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O274" s="6">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="P274" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q274" s="6">
-        <v>25</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Q274" s="3"/>
       <c r="R274" s="3"/>
       <c r="S274" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="F275" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G275" s="6">
-        <v>2</v>
-      </c>
-      <c r="H275" s="6">
-        <v>1</v>
-      </c>
-      <c r="I275" s="6">
-        <v>2</v>
-      </c>
-      <c r="J275" s="6">
-        <v>1</v>
-      </c>
-      <c r="K275" s="6">
-        <v>1</v>
-      </c>
-      <c r="L275" s="6">
-        <v>2</v>
-      </c>
-      <c r="M275" s="6">
-        <v>2</v>
-      </c>
-      <c r="N275" s="6">
-        <v>2</v>
-      </c>
-      <c r="O275" s="6">
-        <v>4</v>
-      </c>
-      <c r="P275" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q275" s="6">
-        <v>5</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="G275" s="4">
+        <v>100</v>
+      </c>
+      <c r="H275" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="I275" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="J275" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="K275" s="4">
+        <v>104.9</v>
+      </c>
+      <c r="L275" s="4">
+        <v>106</v>
+      </c>
+      <c r="M275" s="4">
+        <v>119.9</v>
+      </c>
+      <c r="N275" s="4">
+        <v>119.4</v>
+      </c>
+      <c r="O275" s="4">
+        <v>130</v>
+      </c>
+      <c r="P275" s="4">
+        <v>189.5</v>
+      </c>
+      <c r="Q275" s="3"/>
       <c r="R275" s="3"/>
       <c r="S275" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G276" s="6">
-        <v>14</v>
-      </c>
-      <c r="H276" s="6">
-        <v>13</v>
-      </c>
-      <c r="I276" s="6">
-        <v>15</v>
-      </c>
-      <c r="J276" s="6">
-        <v>17</v>
-      </c>
-      <c r="K276" s="6">
-        <v>21</v>
-      </c>
-      <c r="L276" s="6">
-        <v>23</v>
-      </c>
-      <c r="M276" s="6">
-        <v>25</v>
-      </c>
-      <c r="N276" s="6">
-        <v>29</v>
-      </c>
-      <c r="O276" s="6">
-        <v>33</v>
-      </c>
-      <c r="P276" s="6">
-        <v>42</v>
-      </c>
-      <c r="Q276" s="6">
-        <v>45</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G276" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="H276" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="I276" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="J276" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="K276" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="L276" s="4">
+        <v>69.5</v>
+      </c>
+      <c r="M276" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N276" s="4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O276" s="4">
+        <v>91.8</v>
+      </c>
+      <c r="P276" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="Q276" s="3"/>
       <c r="R276" s="3"/>
       <c r="S276" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="F277" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G277" s="6">
-        <v>15</v>
-      </c>
-      <c r="H277" s="6">
-        <v>14</v>
-      </c>
-      <c r="I277" s="6">
-        <v>16</v>
-      </c>
-      <c r="J277" s="6">
-        <v>18</v>
-      </c>
-      <c r="K277" s="6">
-        <v>23</v>
-      </c>
-      <c r="L277" s="6">
-        <v>25</v>
-      </c>
-      <c r="M277" s="6">
-        <v>27</v>
-      </c>
-      <c r="N277" s="6">
-        <v>30</v>
-      </c>
-      <c r="O277" s="6">
-        <v>35</v>
-      </c>
-      <c r="P277" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q277" s="6">
-        <v>46</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="G277" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="H277" s="4">
+        <v>87</v>
+      </c>
+      <c r="I277" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="J277" s="4">
+        <v>84.7</v>
+      </c>
+      <c r="K277" s="4">
+        <v>83.3</v>
+      </c>
+      <c r="L277" s="4">
+        <v>85.9</v>
+      </c>
+      <c r="M277" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="N277" s="4">
+        <v>80.8</v>
+      </c>
+      <c r="O277" s="4">
+        <v>75.3</v>
+      </c>
+      <c r="P277" s="4">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="Q277" s="3"/>
       <c r="R277" s="3"/>
       <c r="S277" s="2" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="278" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C278" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>368</v>
-      </c>
       <c r="D278" s="2" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="F278" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G278" s="6">
-        <v>8</v>
-      </c>
-      <c r="H278" s="6">
-        <v>5</v>
-      </c>
-      <c r="I278" s="6">
-        <v>6</v>
-      </c>
-      <c r="J278" s="6">
-        <v>7</v>
-      </c>
-      <c r="K278" s="6">
-        <v>7</v>
-      </c>
-      <c r="L278" s="6">
-        <v>7</v>
-      </c>
-      <c r="M278" s="6">
-        <v>7</v>
-      </c>
-      <c r="N278" s="6">
-        <v>11</v>
-      </c>
-      <c r="O278" s="6">
-        <v>10</v>
-      </c>
-      <c r="P278" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q278" s="6">
-        <v>25</v>
+      <c r="G278" s="7">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H278" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I278" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J278" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K278" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L278" s="7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M278" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N278" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O278" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P278" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q278" s="7">
+        <v>0.2</v>
       </c>
       <c r="R278" s="3"/>
       <c r="S278" s="2" t="s">
-        <v>26</v>
+        <v>356</v>
       </c>
     </row>
     <row r="279" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="F279" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G279" s="6">
-        <v>4</v>
-      </c>
-      <c r="H279" s="6">
-        <v>3</v>
-      </c>
-      <c r="I279" s="6">
-        <v>5</v>
-      </c>
-      <c r="J279" s="6">
-        <v>4</v>
-      </c>
-      <c r="K279" s="6">
-        <v>5</v>
-      </c>
-      <c r="L279" s="6">
-        <v>5</v>
-      </c>
-      <c r="M279" s="6">
-        <v>7</v>
-      </c>
-      <c r="N279" s="6">
-        <v>8</v>
-      </c>
-      <c r="O279" s="6">
-        <v>9</v>
-      </c>
-      <c r="P279" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q279" s="6">
-        <v>14</v>
+      <c r="G279" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="H279" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="I279" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="J279" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="K279" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="L279" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="M279" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="N279" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="O279" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="P279" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="Q279" s="4">
+        <v>30.9</v>
       </c>
       <c r="R279" s="3"/>
       <c r="S279" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>45</v>
@@ -16199,230 +16190,1806 @@
         <v>24</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G280" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="H280" s="4">
-        <v>6</v>
-      </c>
-      <c r="I280" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J280" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="K280" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="L280" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M280" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="N280" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="O280" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="P280" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="Q280" s="4">
-        <v>4.4000000000000004</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="G280" s="6">
+        <v>28</v>
+      </c>
+      <c r="H280" s="6">
+        <v>27</v>
+      </c>
+      <c r="I280" s="6">
+        <v>26</v>
+      </c>
+      <c r="J280" s="6">
+        <v>25</v>
+      </c>
+      <c r="K280" s="6">
+        <v>24</v>
+      </c>
+      <c r="L280" s="6">
+        <v>23</v>
+      </c>
+      <c r="M280" s="6">
+        <v>22</v>
+      </c>
+      <c r="N280" s="6">
+        <v>22</v>
+      </c>
+      <c r="O280" s="6">
+        <v>22</v>
+      </c>
+      <c r="P280" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q280" s="3"/>
       <c r="R280" s="3"/>
       <c r="S280" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="281" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F281" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G281" s="5">
-        <v>377.75</v>
-      </c>
-      <c r="H281" s="5">
-        <v>417.47</v>
-      </c>
-      <c r="I281" s="5">
-        <v>421.06</v>
-      </c>
-      <c r="J281" s="5">
-        <v>487.12</v>
-      </c>
-      <c r="K281" s="5">
-        <v>451.84</v>
-      </c>
-      <c r="L281" s="5">
-        <v>440.89</v>
-      </c>
-      <c r="M281" s="5">
-        <v>662.95</v>
-      </c>
-      <c r="N281" s="5">
-        <v>679.46</v>
-      </c>
-      <c r="O281" s="5">
-        <v>766.04</v>
-      </c>
-      <c r="P281" s="5">
-        <v>776.56</v>
-      </c>
-      <c r="Q281" s="5">
-        <v>802.9</v>
+        <v>25</v>
+      </c>
+      <c r="G281" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="H281" s="4">
+        <v>65.7</v>
+      </c>
+      <c r="I281" s="4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J281" s="4">
+        <v>70.3</v>
+      </c>
+      <c r="K281" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="L281" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="M281" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="N281" s="4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="O281" s="4">
+        <v>74</v>
+      </c>
+      <c r="P281" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="Q281" s="4">
+        <v>74.8</v>
       </c>
       <c r="R281" s="3"/>
       <c r="S281" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="282" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G282" s="5">
-        <v>96.04</v>
-      </c>
-      <c r="H282" s="5">
-        <v>90.68</v>
-      </c>
-      <c r="I282" s="5">
-        <v>111.55</v>
-      </c>
-      <c r="J282" s="5">
-        <v>127.11</v>
-      </c>
-      <c r="K282" s="5">
-        <v>82.28</v>
-      </c>
-      <c r="L282" s="5">
-        <v>100.19</v>
-      </c>
-      <c r="M282" s="5">
-        <v>148.99</v>
-      </c>
-      <c r="N282" s="5">
-        <v>222.11</v>
-      </c>
-      <c r="O282" s="5">
-        <v>244.93</v>
-      </c>
-      <c r="P282" s="5">
-        <v>223.31</v>
-      </c>
-      <c r="Q282" s="5">
-        <v>206.01</v>
+        <v>25</v>
+      </c>
+      <c r="G282" s="4">
+        <v>88</v>
+      </c>
+      <c r="H282" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="I282" s="4">
+        <v>91.7</v>
+      </c>
+      <c r="J282" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="K282" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="L282" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="M282" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="N282" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="O282" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="P282" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="Q282" s="4">
+        <v>94.7</v>
       </c>
       <c r="R282" s="3"/>
       <c r="S282" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="283" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G283" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="H283" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I283" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="J283" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K283" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="L283" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="M283" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N283" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O283" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P283" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q283" s="5">
-        <v>0.14000000000000001</v>
+      <c r="G283" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="H283" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="I283" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="J283" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K283" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="L283" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="M283" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="N283" s="4">
+        <v>42</v>
+      </c>
+      <c r="O283" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="P283" s="4">
+        <v>44</v>
+      </c>
+      <c r="Q283" s="4">
+        <v>45.2</v>
       </c>
       <c r="R283" s="3"/>
       <c r="S283" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="284" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G284" s="5">
+        <v>65.73</v>
+      </c>
+      <c r="H284" s="5">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="I284" s="5">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="J284" s="5">
+        <v>69.77</v>
+      </c>
+      <c r="K284" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="L284" s="5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="M284" s="5">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="N284" s="5">
+        <v>72.52</v>
+      </c>
+      <c r="O284" s="5">
+        <v>73.17</v>
+      </c>
+      <c r="P284" s="5">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="Q284" s="3"/>
+      <c r="R284" s="3"/>
+      <c r="S284" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G285" s="6">
+        <v>70</v>
+      </c>
+      <c r="H285" s="6">
+        <v>75</v>
+      </c>
+      <c r="I285" s="6">
+        <v>66</v>
+      </c>
+      <c r="J285" s="6">
+        <v>64</v>
+      </c>
+      <c r="K285" s="6">
+        <v>70</v>
+      </c>
+      <c r="L285" s="6">
+        <v>66</v>
+      </c>
+      <c r="M285" s="6">
+        <v>80</v>
+      </c>
+      <c r="N285" s="6">
+        <v>89</v>
+      </c>
+      <c r="O285" s="6">
+        <v>86</v>
+      </c>
+      <c r="P285" s="6">
+        <v>89</v>
+      </c>
+      <c r="Q285" s="6">
+        <v>85</v>
+      </c>
+      <c r="R285" s="3"/>
+      <c r="S285" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G286" s="6">
+        <v>55</v>
+      </c>
+      <c r="H286" s="3"/>
+      <c r="I286" s="6">
+        <v>58</v>
+      </c>
+      <c r="J286" s="3"/>
+      <c r="K286" s="6">
+        <v>60</v>
+      </c>
+      <c r="L286" s="3"/>
+      <c r="M286" s="6">
+        <v>64</v>
+      </c>
+      <c r="N286" s="3"/>
+      <c r="O286" s="6">
+        <v>65</v>
+      </c>
+      <c r="P286" s="3"/>
+      <c r="Q286" s="6">
+        <v>74</v>
+      </c>
+      <c r="R286" s="3"/>
+      <c r="S286" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G287" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="H287" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="I287" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="J287" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="K287" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="L287" s="5">
+        <v>1</v>
+      </c>
+      <c r="M287" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="N287" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="O287" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P287" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="Q287" s="3"/>
+      <c r="R287" s="3"/>
+      <c r="S287" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G288" s="6">
+        <v>830</v>
+      </c>
+      <c r="H288" s="6">
+        <v>830</v>
+      </c>
+      <c r="I288" s="6">
+        <v>685</v>
+      </c>
+      <c r="J288" s="6">
+        <v>685</v>
+      </c>
+      <c r="K288" s="6">
+        <v>685</v>
+      </c>
+      <c r="L288" s="6">
+        <v>685</v>
+      </c>
+      <c r="M288" s="6">
+        <v>685</v>
+      </c>
+      <c r="N288" s="6">
+        <v>685</v>
+      </c>
+      <c r="O288" s="6">
+        <v>685</v>
+      </c>
+      <c r="P288" s="6">
+        <v>685</v>
+      </c>
+      <c r="Q288" s="3"/>
+      <c r="R288" s="3"/>
+      <c r="S288" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G289" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="H289" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="I289" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="J289" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K289" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="L289" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="M289" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="N289" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="O289" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="P289" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="Q289" s="3"/>
+      <c r="R289" s="3"/>
+      <c r="S289" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="290" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G290" s="6">
+        <v>10</v>
+      </c>
+      <c r="H290" s="6">
+        <v>9</v>
+      </c>
+      <c r="I290" s="6">
+        <v>11</v>
+      </c>
+      <c r="J290" s="6">
+        <v>11</v>
+      </c>
+      <c r="K290" s="6">
+        <v>15</v>
+      </c>
+      <c r="L290" s="6">
+        <v>16</v>
+      </c>
+      <c r="M290" s="6">
+        <v>19</v>
+      </c>
+      <c r="N290" s="6">
+        <v>21</v>
+      </c>
+      <c r="O290" s="6">
+        <v>25</v>
+      </c>
+      <c r="P290" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q290" s="6">
+        <v>34</v>
+      </c>
+      <c r="R290" s="3"/>
+      <c r="S290" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="291" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G291" s="6">
+        <v>10</v>
+      </c>
+      <c r="H291" s="6">
+        <v>9</v>
+      </c>
+      <c r="I291" s="6">
+        <v>11</v>
+      </c>
+      <c r="J291" s="6">
+        <v>12</v>
+      </c>
+      <c r="K291" s="6">
+        <v>14</v>
+      </c>
+      <c r="L291" s="6">
+        <v>15</v>
+      </c>
+      <c r="M291" s="6">
+        <v>19</v>
+      </c>
+      <c r="N291" s="6">
+        <v>21</v>
+      </c>
+      <c r="O291" s="6">
+        <v>24</v>
+      </c>
+      <c r="P291" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q291" s="6">
+        <v>32</v>
+      </c>
+      <c r="R291" s="3"/>
+      <c r="S291" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="292" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G292" s="6">
+        <v>10</v>
+      </c>
+      <c r="H292" s="6">
+        <v>9</v>
+      </c>
+      <c r="I292" s="6">
+        <v>10</v>
+      </c>
+      <c r="J292" s="6">
+        <v>11</v>
+      </c>
+      <c r="K292" s="6">
+        <v>15</v>
+      </c>
+      <c r="L292" s="6">
+        <v>16</v>
+      </c>
+      <c r="M292" s="6">
+        <v>19</v>
+      </c>
+      <c r="N292" s="6">
+        <v>21</v>
+      </c>
+      <c r="O292" s="6">
+        <v>26</v>
+      </c>
+      <c r="P292" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q292" s="6">
+        <v>35</v>
+      </c>
+      <c r="R292" s="3"/>
+      <c r="S292" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G293" s="6">
+        <v>12</v>
+      </c>
+      <c r="H293" s="6">
+        <v>11</v>
+      </c>
+      <c r="I293" s="6">
+        <v>13</v>
+      </c>
+      <c r="J293" s="6">
+        <v>15</v>
+      </c>
+      <c r="K293" s="6">
+        <v>18</v>
+      </c>
+      <c r="L293" s="6">
+        <v>19</v>
+      </c>
+      <c r="M293" s="6">
+        <v>23</v>
+      </c>
+      <c r="N293" s="6">
+        <v>26</v>
+      </c>
+      <c r="O293" s="6">
+        <v>30</v>
+      </c>
+      <c r="P293" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q293" s="6">
+        <v>39</v>
+      </c>
+      <c r="R293" s="3"/>
+      <c r="S293" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G294" s="6">
+        <v>6</v>
+      </c>
+      <c r="H294" s="6">
+        <v>5</v>
+      </c>
+      <c r="I294" s="6">
+        <v>6</v>
+      </c>
+      <c r="J294" s="6">
+        <v>6</v>
+      </c>
+      <c r="K294" s="6">
+        <v>9</v>
+      </c>
+      <c r="L294" s="6">
+        <v>10</v>
+      </c>
+      <c r="M294" s="6">
+        <v>12</v>
+      </c>
+      <c r="N294" s="6">
+        <v>13</v>
+      </c>
+      <c r="O294" s="6">
+        <v>17</v>
+      </c>
+      <c r="P294" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q294" s="6">
+        <v>25</v>
+      </c>
+      <c r="R294" s="3"/>
+      <c r="S294" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="295" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G295" s="6">
+        <v>10</v>
+      </c>
+      <c r="H295" s="6">
+        <v>6</v>
+      </c>
+      <c r="I295" s="6">
+        <v>8</v>
+      </c>
+      <c r="J295" s="6">
+        <v>9</v>
+      </c>
+      <c r="K295" s="6">
+        <v>9</v>
+      </c>
+      <c r="L295" s="6">
+        <v>8</v>
+      </c>
+      <c r="M295" s="6">
+        <v>9</v>
+      </c>
+      <c r="N295" s="6">
+        <v>11</v>
+      </c>
+      <c r="O295" s="6">
+        <v>16</v>
+      </c>
+      <c r="P295" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q295" s="6">
+        <v>21</v>
+      </c>
+      <c r="R295" s="3"/>
+      <c r="S295" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G296" s="6">
+        <v>18</v>
+      </c>
+      <c r="H296" s="6">
+        <v>16</v>
+      </c>
+      <c r="I296" s="6">
+        <v>19</v>
+      </c>
+      <c r="J296" s="6">
+        <v>20</v>
+      </c>
+      <c r="K296" s="6">
+        <v>28</v>
+      </c>
+      <c r="L296" s="6">
+        <v>28</v>
+      </c>
+      <c r="M296" s="6">
+        <v>32</v>
+      </c>
+      <c r="N296" s="6">
+        <v>35</v>
+      </c>
+      <c r="O296" s="6">
+        <v>39</v>
+      </c>
+      <c r="P296" s="6">
+        <v>47</v>
+      </c>
+      <c r="Q296" s="6">
+        <v>53</v>
+      </c>
+      <c r="R296" s="3"/>
+      <c r="S296" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G297" s="6">
+        <v>13</v>
+      </c>
+      <c r="H297" s="6">
+        <v>13</v>
+      </c>
+      <c r="I297" s="6">
+        <v>16</v>
+      </c>
+      <c r="J297" s="6">
+        <v>19</v>
+      </c>
+      <c r="K297" s="6">
+        <v>24</v>
+      </c>
+      <c r="L297" s="6">
+        <v>25</v>
+      </c>
+      <c r="M297" s="6">
+        <v>27</v>
+      </c>
+      <c r="N297" s="6">
+        <v>33</v>
+      </c>
+      <c r="O297" s="6">
+        <v>36</v>
+      </c>
+      <c r="P297" s="6">
+        <v>46</v>
+      </c>
+      <c r="Q297" s="6">
+        <v>48</v>
+      </c>
+      <c r="R297" s="3"/>
+      <c r="S297" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G298" s="6">
+        <v>9</v>
+      </c>
+      <c r="H298" s="6">
+        <v>9</v>
+      </c>
+      <c r="I298" s="6">
+        <v>11</v>
+      </c>
+      <c r="J298" s="6">
+        <v>12</v>
+      </c>
+      <c r="K298" s="6">
+        <v>15</v>
+      </c>
+      <c r="L298" s="6">
+        <v>15</v>
+      </c>
+      <c r="M298" s="6">
+        <v>18</v>
+      </c>
+      <c r="N298" s="6">
+        <v>19</v>
+      </c>
+      <c r="O298" s="6">
+        <v>25</v>
+      </c>
+      <c r="P298" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q298" s="6">
+        <v>35</v>
+      </c>
+      <c r="R298" s="3"/>
+      <c r="S298" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G299" s="6">
+        <v>4</v>
+      </c>
+      <c r="H299" s="6">
+        <v>5</v>
+      </c>
+      <c r="I299" s="6">
+        <v>6</v>
+      </c>
+      <c r="J299" s="6">
+        <v>6</v>
+      </c>
+      <c r="K299" s="6">
+        <v>7</v>
+      </c>
+      <c r="L299" s="6">
+        <v>10</v>
+      </c>
+      <c r="M299" s="6">
+        <v>12</v>
+      </c>
+      <c r="N299" s="6">
+        <v>12</v>
+      </c>
+      <c r="O299" s="6">
+        <v>14</v>
+      </c>
+      <c r="P299" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q299" s="6">
+        <v>23</v>
+      </c>
+      <c r="R299" s="3"/>
+      <c r="S299" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E300" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="284" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="10" t="s">
+      <c r="F300" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G300" s="6">
+        <v>2</v>
+      </c>
+      <c r="H300" s="6">
+        <v>2</v>
+      </c>
+      <c r="I300" s="6">
+        <v>2</v>
+      </c>
+      <c r="J300" s="6">
+        <v>2</v>
+      </c>
+      <c r="K300" s="6">
+        <v>4</v>
+      </c>
+      <c r="L300" s="6">
+        <v>3</v>
+      </c>
+      <c r="M300" s="6">
+        <v>4</v>
+      </c>
+      <c r="N300" s="6">
+        <v>5</v>
+      </c>
+      <c r="O300" s="6">
+        <v>6</v>
+      </c>
+      <c r="P300" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q300" s="6">
+        <v>9</v>
+      </c>
+      <c r="R300" s="3"/>
+      <c r="S300" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G301" s="6">
+        <v>27</v>
+      </c>
+      <c r="H301" s="6">
+        <v>27</v>
+      </c>
+      <c r="I301" s="6">
+        <v>28</v>
+      </c>
+      <c r="J301" s="6">
+        <v>30</v>
+      </c>
+      <c r="K301" s="6">
+        <v>39</v>
+      </c>
+      <c r="L301" s="6">
+        <v>41</v>
+      </c>
+      <c r="M301" s="6">
+        <v>45</v>
+      </c>
+      <c r="N301" s="6">
+        <v>49</v>
+      </c>
+      <c r="O301" s="6">
+        <v>55</v>
+      </c>
+      <c r="P301" s="6">
+        <v>64</v>
+      </c>
+      <c r="Q301" s="6">
+        <v>62</v>
+      </c>
+      <c r="R301" s="3"/>
+      <c r="S301" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G302" s="6">
+        <v>7</v>
+      </c>
+      <c r="H302" s="6">
+        <v>6</v>
+      </c>
+      <c r="I302" s="6">
+        <v>8</v>
+      </c>
+      <c r="J302" s="6">
+        <v>8</v>
+      </c>
+      <c r="K302" s="6">
+        <v>10</v>
+      </c>
+      <c r="L302" s="6">
+        <v>10</v>
+      </c>
+      <c r="M302" s="6">
+        <v>12</v>
+      </c>
+      <c r="N302" s="6">
+        <v>14</v>
+      </c>
+      <c r="O302" s="6">
+        <v>17</v>
+      </c>
+      <c r="P302" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q302" s="6">
+        <v>25</v>
+      </c>
+      <c r="R302" s="3"/>
+      <c r="S302" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G303" s="6">
+        <v>2</v>
+      </c>
+      <c r="H303" s="6">
+        <v>1</v>
+      </c>
+      <c r="I303" s="6">
+        <v>2</v>
+      </c>
+      <c r="J303" s="6">
+        <v>1</v>
+      </c>
+      <c r="K303" s="6">
+        <v>1</v>
+      </c>
+      <c r="L303" s="6">
+        <v>2</v>
+      </c>
+      <c r="M303" s="6">
+        <v>2</v>
+      </c>
+      <c r="N303" s="6">
+        <v>2</v>
+      </c>
+      <c r="O303" s="6">
+        <v>4</v>
+      </c>
+      <c r="P303" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q303" s="6">
+        <v>5</v>
+      </c>
+      <c r="R303" s="3"/>
+      <c r="S303" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G304" s="6">
+        <v>14</v>
+      </c>
+      <c r="H304" s="6">
+        <v>13</v>
+      </c>
+      <c r="I304" s="6">
+        <v>15</v>
+      </c>
+      <c r="J304" s="6">
+        <v>17</v>
+      </c>
+      <c r="K304" s="6">
+        <v>21</v>
+      </c>
+      <c r="L304" s="6">
+        <v>23</v>
+      </c>
+      <c r="M304" s="6">
+        <v>25</v>
+      </c>
+      <c r="N304" s="6">
+        <v>29</v>
+      </c>
+      <c r="O304" s="6">
+        <v>33</v>
+      </c>
+      <c r="P304" s="6">
+        <v>42</v>
+      </c>
+      <c r="Q304" s="6">
+        <v>45</v>
+      </c>
+      <c r="R304" s="3"/>
+      <c r="S304" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="305" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G305" s="6">
+        <v>15</v>
+      </c>
+      <c r="H305" s="6">
+        <v>14</v>
+      </c>
+      <c r="I305" s="6">
+        <v>16</v>
+      </c>
+      <c r="J305" s="6">
+        <v>18</v>
+      </c>
+      <c r="K305" s="6">
+        <v>23</v>
+      </c>
+      <c r="L305" s="6">
+        <v>25</v>
+      </c>
+      <c r="M305" s="6">
+        <v>27</v>
+      </c>
+      <c r="N305" s="6">
+        <v>30</v>
+      </c>
+      <c r="O305" s="6">
+        <v>35</v>
+      </c>
+      <c r="P305" s="6">
+        <v>44</v>
+      </c>
+      <c r="Q305" s="6">
+        <v>46</v>
+      </c>
+      <c r="R305" s="3"/>
+      <c r="S305" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="306" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G306" s="6">
+        <v>8</v>
+      </c>
+      <c r="H306" s="6">
+        <v>5</v>
+      </c>
+      <c r="I306" s="6">
+        <v>6</v>
+      </c>
+      <c r="J306" s="6">
+        <v>7</v>
+      </c>
+      <c r="K306" s="6">
+        <v>7</v>
+      </c>
+      <c r="L306" s="6">
+        <v>7</v>
+      </c>
+      <c r="M306" s="6">
+        <v>7</v>
+      </c>
+      <c r="N306" s="6">
+        <v>11</v>
+      </c>
+      <c r="O306" s="6">
+        <v>10</v>
+      </c>
+      <c r="P306" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q306" s="6">
+        <v>25</v>
+      </c>
+      <c r="R306" s="3"/>
+      <c r="S306" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G307" s="6">
+        <v>4</v>
+      </c>
+      <c r="H307" s="6">
+        <v>3</v>
+      </c>
+      <c r="I307" s="6">
+        <v>5</v>
+      </c>
+      <c r="J307" s="6">
+        <v>4</v>
+      </c>
+      <c r="K307" s="6">
+        <v>5</v>
+      </c>
+      <c r="L307" s="6">
+        <v>5</v>
+      </c>
+      <c r="M307" s="6">
+        <v>7</v>
+      </c>
+      <c r="N307" s="6">
+        <v>8</v>
+      </c>
+      <c r="O307" s="6">
+        <v>9</v>
+      </c>
+      <c r="P307" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q307" s="6">
+        <v>14</v>
+      </c>
+      <c r="R307" s="3"/>
+      <c r="S307" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G308" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="H308" s="4">
+        <v>6</v>
+      </c>
+      <c r="I308" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J308" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="K308" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="L308" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M308" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="N308" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="O308" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="P308" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Q308" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R308" s="3"/>
+      <c r="S308" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B285" s="8"/>
+      <c r="C309" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G309" s="5">
+        <v>377.75</v>
+      </c>
+      <c r="H309" s="5">
+        <v>417.47</v>
+      </c>
+      <c r="I309" s="5">
+        <v>421.06</v>
+      </c>
+      <c r="J309" s="5">
+        <v>487.12</v>
+      </c>
+      <c r="K309" s="5">
+        <v>451.84</v>
+      </c>
+      <c r="L309" s="5">
+        <v>440.89</v>
+      </c>
+      <c r="M309" s="5">
+        <v>662.95</v>
+      </c>
+      <c r="N309" s="5">
+        <v>679.46</v>
+      </c>
+      <c r="O309" s="5">
+        <v>766.04</v>
+      </c>
+      <c r="P309" s="5">
+        <v>776.56</v>
+      </c>
+      <c r="Q309" s="5">
+        <v>802.9</v>
+      </c>
+      <c r="R309" s="3"/>
+      <c r="S309" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="310" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G310" s="5">
+        <v>96.04</v>
+      </c>
+      <c r="H310" s="5">
+        <v>90.68</v>
+      </c>
+      <c r="I310" s="5">
+        <v>111.55</v>
+      </c>
+      <c r="J310" s="5">
+        <v>127.11</v>
+      </c>
+      <c r="K310" s="5">
+        <v>82.28</v>
+      </c>
+      <c r="L310" s="5">
+        <v>100.19</v>
+      </c>
+      <c r="M310" s="5">
+        <v>148.99</v>
+      </c>
+      <c r="N310" s="5">
+        <v>222.11</v>
+      </c>
+      <c r="O310" s="5">
+        <v>244.93</v>
+      </c>
+      <c r="P310" s="5">
+        <v>223.31</v>
+      </c>
+      <c r="Q310" s="5">
+        <v>206.01</v>
+      </c>
+      <c r="R310" s="3"/>
+      <c r="S310" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G311" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="H311" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="I311" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J311" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K311" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="L311" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M311" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="N311" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="O311" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P311" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q311" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R311" s="3"/>
+      <c r="S311" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B313" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A313:B313"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1183,7 +1183,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 09-11-2021, 11:05</t>
+    <t>Ostatnia aktualizacja: 24-11-2021, 11:16</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1727,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15275,24 +15275,26 @@
         <v>0.6</v>
       </c>
       <c r="K263" s="5">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="L263" s="5">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="M263" s="5">
         <v>0.64</v>
       </c>
       <c r="N263" s="5">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="O263" s="5">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="P263" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="Q263" s="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q263" s="5">
+        <v>0.79</v>
+      </c>
       <c r="R263" s="3"/>
       <c r="S263" s="2" t="s">
         <v>47</v>
@@ -15345,9 +15347,11 @@
         <v>19.34</v>
       </c>
       <c r="P264" s="5">
-        <v>18.489999999999998</v>
-      </c>
-      <c r="Q264" s="3"/>
+        <v>17.62</v>
+      </c>
+      <c r="Q264" s="5">
+        <v>17.53</v>
+      </c>
       <c r="R264" s="3"/>
       <c r="S264" s="2" t="s">
         <v>47</v>
@@ -15734,7 +15738,9 @@
       <c r="P271" s="6">
         <v>40</v>
       </c>
-      <c r="Q271" s="3"/>
+      <c r="Q271" s="6">
+        <v>60</v>
+      </c>
       <c r="R271" s="3"/>
       <c r="S271" s="2" t="s">
         <v>196</v>
@@ -15789,7 +15795,9 @@
       <c r="P272" s="6">
         <v>25</v>
       </c>
-      <c r="Q272" s="3"/>
+      <c r="Q272" s="6">
+        <v>20</v>
+      </c>
       <c r="R272" s="3"/>
       <c r="S272" s="2" t="s">
         <v>196</v>
@@ -15844,7 +15852,9 @@
       <c r="P273" s="6">
         <v>0</v>
       </c>
-      <c r="Q273" s="3"/>
+      <c r="Q273" s="6">
+        <v>40</v>
+      </c>
       <c r="R273" s="3"/>
       <c r="S273" s="2" t="s">
         <v>196</v>
@@ -15899,7 +15909,9 @@
       <c r="P274" s="6">
         <v>75</v>
       </c>
-      <c r="Q274" s="3"/>
+      <c r="Q274" s="6">
+        <v>40</v>
+      </c>
       <c r="R274" s="3"/>
       <c r="S274" s="2" t="s">
         <v>196</v>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1183,7 +1183,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 24-11-2021, 11:16</t>
+    <t>Ostatnia aktualizacja: 07-12-2021, 09:36</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1727,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1183,7 +1183,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-12-2021, 09:36</t>
+    <t>Ostatnia aktualizacja: 18-01-2022, 08:17</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1727,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1183,7 +1183,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 18-01-2022, 08:17</t>
+    <t>Ostatnia aktualizacja: 18-01-2022, 12:30</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7056"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Cele_1-17" sheetId="1" r:id="rId1"/>
@@ -793,7 +793,7 @@
     <t>8.9.a Saldo migracji zagranicznych na pobyt stały</t>
   </si>
   <si>
-    <t>Cel 9. Przemysł, Innowacyjność, Infrastruktura</t>
+    <t>Cel 9. Innowacyjność, Przemysł, Infrastruktura</t>
   </si>
   <si>
     <t>Poprawa środowiska prawno-instytucjonalnego sprzyjającego podejmowaniu ryzykownej działalności innowacyjnej</t>
@@ -1183,7 +1183,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 22-02-2022, 08:05</t>
+    <t>Ostatnia aktualizacja: 15-03-2022, 09:59</t>
   </si>
 </sst>
 </file>
@@ -1727,33 +1727,33 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="18" width="6.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -4065,7 +4065,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>96</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>96</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>96</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>96</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>96</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>96</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -6106,7 +6106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>134</v>
       </c>
@@ -6705,7 +6705,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>134</v>
       </c>
@@ -6762,7 +6762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>134</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>134</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>134</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>134</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>134</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>134</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>134</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>134</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>134</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>134</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>134</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>134</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>134</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>134</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>134</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>134</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>134</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>134</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>134</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>134</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>134</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>134</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>134</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>134</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>134</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>134</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>134</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
@@ -8455,7 +8455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>134</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>134</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>134</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>134</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>134</v>
       </c>
@@ -8831,7 +8831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>134</v>
       </c>
@@ -8878,7 +8878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>134</v>
       </c>
@@ -8925,7 +8925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>175</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>175</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>175</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>175</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>175</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>175</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>175</v>
       </c>
@@ -9288,7 +9288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>175</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>175</v>
       </c>
@@ -9378,7 +9378,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>175</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>175</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>175</v>
       </c>
@@ -9523,7 +9523,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>175</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>175</v>
       </c>
@@ -9593,7 +9593,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>175</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>175</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>175</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>192</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>192</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>192</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>192</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>192</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>192</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>201</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>201</v>
       </c>
@@ -10214,7 +10214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>201</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>201</v>
       </c>
@@ -10328,7 +10328,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>201</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>201</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>216</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>216</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>216</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>216</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>216</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>216</v>
       </c>
@@ -10772,7 +10772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>216</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>216</v>
       </c>
@@ -10886,7 +10886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>216</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>216</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>216</v>
       </c>
@@ -11057,7 +11057,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>216</v>
       </c>
@@ -11114,7 +11114,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>216</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>216</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>216</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>216</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>216</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>216</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>216</v>
       </c>
@@ -11513,7 +11513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>216</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>216</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>216</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>216</v>
       </c>
@@ -11741,7 +11741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>216</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>216</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>216</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>216</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>216</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>216</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>216</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>216</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>216</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>216</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>216</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>216</v>
       </c>
@@ -12375,7 +12375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>216</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>216</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>216</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>216</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>216</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>216</v>
       </c>
@@ -12717,7 +12717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>216</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>216</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -12888,7 +12888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>216</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>216</v>
       </c>
@@ -13002,7 +13002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>216</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>216</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>216</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>216</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>216</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>216</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>216</v>
       </c>
@@ -13401,7 +13401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>216</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>216</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>216</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>256</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>256</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>256</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>256</v>
       </c>
@@ -13794,7 +13794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>256</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>256</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>256</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>256</v>
       </c>
@@ -14016,7 +14016,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>256</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>275</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>275</v>
       </c>
@@ -14185,7 +14185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>275</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>275</v>
       </c>
@@ -14293,7 +14293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>275</v>
       </c>
@@ -14338,7 +14338,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>275</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>275</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>275</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>275</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>275</v>
       </c>
@@ -14555,7 +14555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>275</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>275</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>275</v>
       </c>
@@ -14684,7 +14684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>292</v>
       </c>
@@ -14739,7 +14739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>292</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>292</v>
       </c>
@@ -14853,7 +14853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>292</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>292</v>
       </c>
@@ -14967,7 +14967,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>292</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>292</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>292</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>292</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>292</v>
       </c>
@@ -15252,7 +15252,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>309</v>
       </c>
@@ -15309,7 +15309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>311</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>311</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>311</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>311</v>
       </c>
@@ -15537,7 +15537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>320</v>
       </c>
@@ -15592,7 +15592,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>320</v>
       </c>
@@ -15647,7 +15647,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>320</v>
       </c>
@@ -15702,7 +15702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>320</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>331</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>331</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>331</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>331</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>331</v>
       </c>
@@ -16042,7 +16042,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>331</v>
       </c>
@@ -16099,7 +16099,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>345</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>345</v>
       </c>
@@ -16213,7 +16213,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>345</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>345</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>345</v>
       </c>
@@ -16384,7 +16384,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>345</v>
       </c>
@@ -16441,7 +16441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>345</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>345</v>
       </c>
@@ -16555,7 +16555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>356</v>
       </c>
@@ -16614,7 +16614,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>356</v>
       </c>
@@ -16661,7 +16661,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>356</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>356</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>356</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>356</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>356</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>356</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>356</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>356</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>356</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>356</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>356</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>356</v>
       </c>
@@ -17361,7 +17361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>356</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>356</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>356</v>
       </c>
@@ -17538,7 +17538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>356</v>
       </c>
@@ -17597,7 +17597,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>356</v>
       </c>
@@ -17656,7 +17656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>356</v>
       </c>
@@ -17715,7 +17715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>356</v>
       </c>
@@ -17774,7 +17774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>356</v>
       </c>
@@ -17833,7 +17833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>356</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>356</v>
       </c>
@@ -17949,7 +17949,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>378</v>
       </c>
@@ -17999,14 +17999,14 @@
         <v>776.56</v>
       </c>
       <c r="Q309" s="5">
-        <v>802.9</v>
+        <v>829.27</v>
       </c>
       <c r="R309" s="3"/>
       <c r="S309" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>378</v>
       </c>
@@ -18056,14 +18056,14 @@
         <v>223.31</v>
       </c>
       <c r="Q310" s="5">
-        <v>206.01</v>
+        <v>225.08</v>
       </c>
       <c r="R310" s="3"/>
       <c r="S310" s="2" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>378</v>
       </c>
@@ -18120,8 +18120,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" spans="1:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>386</v>
       </c>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1183,7 +1183,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 15-03-2022, 09:59</t>
+    <t>Ostatnia aktualizacja: 12-04-2022, 07:58</t>
   </si>
 </sst>
 </file>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4332"/>
   </bookViews>
   <sheets>
     <sheet name="Cele_1-17" sheetId="1" r:id="rId1"/>
@@ -1726,34 +1726,34 @@
   <dimension ref="A1:S313"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="18" width="6.44140625" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3149,15 +3149,17 @@
         <v>0.48</v>
       </c>
       <c r="P28" s="5">
-        <v>0.44</v>
-      </c>
-      <c r="Q28" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0.45</v>
+      </c>
       <c r="R28" s="3"/>
       <c r="S28" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3328,7 +3330,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -3385,7 +3387,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3442,7 +3444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -3556,7 +3558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -3613,7 +3615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3672,7 +3674,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3790,7 +3792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -3849,7 +3851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -3908,7 +3910,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -3967,7 +3969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -4016,7 +4018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -4065,7 +4067,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -4114,7 +4116,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -4163,7 +4165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -4218,7 +4220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -4273,7 +4275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4383,7 +4385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -4438,7 +4440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -4493,7 +4495,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -4548,7 +4550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -4603,7 +4605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -4658,7 +4660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -4768,7 +4770,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -4823,7 +4825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>96</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -4933,7 +4935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -4988,7 +4990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -5098,7 +5100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>96</v>
       </c>
@@ -5153,7 +5155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>96</v>
       </c>
@@ -5208,7 +5210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
@@ -5263,7 +5265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
@@ -5318,7 +5320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5373,7 +5375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -5430,7 +5432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -5487,7 +5489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -5542,7 +5544,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -5581,7 +5583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -5620,7 +5622,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
@@ -5659,7 +5661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -5698,7 +5700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -5737,7 +5739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -5778,7 +5780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>96</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -5860,7 +5862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>96</v>
       </c>
@@ -5942,7 +5944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -5983,7 +5985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -6024,7 +6026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>96</v>
       </c>
@@ -6065,7 +6067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -6106,7 +6108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -6147,7 +6149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -6188,7 +6190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -6229,7 +6231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -6270,7 +6272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
@@ -6309,7 +6311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -6348,7 +6350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
@@ -6387,7 +6389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -6442,7 +6444,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -6548,7 +6550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -6648,7 +6650,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>134</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>134</v>
       </c>
@@ -6762,7 +6764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>134</v>
       </c>
@@ -6805,7 +6807,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>134</v>
       </c>
@@ -6848,7 +6850,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>134</v>
       </c>
@@ -6891,7 +6893,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>134</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>134</v>
       </c>
@@ -6977,7 +6979,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>134</v>
       </c>
@@ -7020,7 +7022,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>134</v>
       </c>
@@ -7077,7 +7079,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>134</v>
       </c>
@@ -7134,7 +7136,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>134</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>134</v>
       </c>
@@ -7248,7 +7250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>134</v>
       </c>
@@ -7305,7 +7307,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>134</v>
       </c>
@@ -7362,7 +7364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>134</v>
       </c>
@@ -7419,7 +7421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>134</v>
       </c>
@@ -7476,7 +7478,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>134</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>134</v>
       </c>
@@ -7590,7 +7592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>134</v>
       </c>
@@ -7647,7 +7649,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>134</v>
       </c>
@@ -7704,7 +7706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>134</v>
       </c>
@@ -7761,7 +7763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>134</v>
       </c>
@@ -7818,7 +7820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>134</v>
       </c>
@@ -7857,7 +7859,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>134</v>
       </c>
@@ -7894,7 +7896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>134</v>
       </c>
@@ -7931,7 +7933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>134</v>
       </c>
@@ -7968,7 +7970,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>134</v>
       </c>
@@ -8005,7 +8007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>134</v>
       </c>
@@ -8042,7 +8044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>134</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>134</v>
       </c>
@@ -8126,7 +8128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>134</v>
       </c>
@@ -8173,7 +8175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>134</v>
       </c>
@@ -8220,7 +8222,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>134</v>
       </c>
@@ -8267,7 +8269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>134</v>
       </c>
@@ -8314,7 +8316,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>134</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>134</v>
       </c>
@@ -8408,7 +8410,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>134</v>
       </c>
@@ -8455,7 +8457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>134</v>
       </c>
@@ -8502,7 +8504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -8549,7 +8551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>134</v>
       </c>
@@ -8596,7 +8598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>134</v>
       </c>
@@ -8643,7 +8645,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>134</v>
       </c>
@@ -8690,7 +8692,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>134</v>
       </c>
@@ -8737,7 +8739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>134</v>
       </c>
@@ -8784,7 +8786,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>134</v>
       </c>
@@ -8831,7 +8833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>134</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="72" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>134</v>
       </c>
@@ -8925,7 +8927,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>175</v>
       </c>
@@ -8982,7 +8984,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>175</v>
       </c>
@@ -9039,7 +9041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>175</v>
       </c>
@@ -9096,7 +9098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>175</v>
       </c>
@@ -9153,7 +9155,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>175</v>
       </c>
@@ -9198,7 +9200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="63" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>175</v>
       </c>
@@ -9243,7 +9245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>175</v>
       </c>
@@ -9288,7 +9290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>175</v>
       </c>
@@ -9333,7 +9335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>175</v>
       </c>
@@ -9378,7 +9380,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>175</v>
       </c>
@@ -9423,7 +9425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="54" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>175</v>
       </c>
@@ -9468,7 +9470,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>175</v>
       </c>
@@ -9523,7 +9525,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>175</v>
       </c>
@@ -9558,7 +9560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>175</v>
       </c>
@@ -9593,7 +9595,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>175</v>
       </c>
@@ -9650,7 +9652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>175</v>
       </c>
@@ -9707,7 +9709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>175</v>
       </c>
@@ -9764,7 +9766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>192</v>
       </c>
@@ -9819,7 +9821,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>192</v>
       </c>
@@ -9876,7 +9878,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>192</v>
       </c>
@@ -9933,7 +9935,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>192</v>
       </c>
@@ -9990,7 +9992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>192</v>
       </c>
@@ -10047,7 +10049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>192</v>
       </c>
@@ -10104,7 +10106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>201</v>
       </c>
@@ -10159,7 +10161,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>201</v>
       </c>
@@ -10214,7 +10216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>201</v>
       </c>
@@ -10271,7 +10273,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>201</v>
       </c>
@@ -10328,7 +10330,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>201</v>
       </c>
@@ -10383,7 +10385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>201</v>
       </c>
@@ -10440,7 +10442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>216</v>
       </c>
@@ -10495,7 +10497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>216</v>
       </c>
@@ -10552,7 +10554,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>216</v>
       </c>
@@ -10607,7 +10609,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>216</v>
       </c>
@@ -10658,7 +10660,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>216</v>
       </c>
@@ -10715,7 +10717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>216</v>
       </c>
@@ -10772,7 +10774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>216</v>
       </c>
@@ -10829,7 +10831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>216</v>
       </c>
@@ -10886,7 +10888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>216</v>
       </c>
@@ -10943,7 +10945,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>216</v>
       </c>
@@ -11000,7 +11002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>216</v>
       </c>
@@ -11057,7 +11059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>216</v>
       </c>
@@ -11114,7 +11116,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>216</v>
       </c>
@@ -11171,7 +11173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>216</v>
       </c>
@@ -11228,7 +11230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>216</v>
       </c>
@@ -11285,7 +11287,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>216</v>
       </c>
@@ -11342,7 +11344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>216</v>
       </c>
@@ -11399,7 +11401,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>216</v>
       </c>
@@ -11456,7 +11458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>216</v>
       </c>
@@ -11513,7 +11515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>216</v>
       </c>
@@ -11570,7 +11572,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>216</v>
       </c>
@@ -11627,7 +11629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>216</v>
       </c>
@@ -11684,7 +11686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>216</v>
       </c>
@@ -11741,7 +11743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>216</v>
       </c>
@@ -11798,7 +11800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>216</v>
       </c>
@@ -11855,7 +11857,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>216</v>
       </c>
@@ -11912,7 +11914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>216</v>
       </c>
@@ -11969,7 +11971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>216</v>
       </c>
@@ -12026,7 +12028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>216</v>
       </c>
@@ -12073,7 +12075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>216</v>
       </c>
@@ -12120,7 +12122,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>216</v>
       </c>
@@ -12167,7 +12169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>216</v>
       </c>
@@ -12214,7 +12216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>216</v>
       </c>
@@ -12261,7 +12263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>216</v>
       </c>
@@ -12318,7 +12320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>216</v>
       </c>
@@ -12375,7 +12377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>216</v>
       </c>
@@ -12432,7 +12434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>216</v>
       </c>
@@ -12489,7 +12491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>216</v>
       </c>
@@ -12546,7 +12548,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>216</v>
       </c>
@@ -12603,7 +12605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>216</v>
       </c>
@@ -12660,7 +12662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>216</v>
       </c>
@@ -12717,7 +12719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>216</v>
       </c>
@@ -12774,7 +12776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>216</v>
       </c>
@@ -12831,7 +12833,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>216</v>
       </c>
@@ -12888,7 +12890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>216</v>
       </c>
@@ -12945,7 +12947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>216</v>
       </c>
@@ -13002,7 +13004,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>216</v>
       </c>
@@ -13059,7 +13061,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>216</v>
       </c>
@@ -13116,7 +13118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>216</v>
       </c>
@@ -13173,7 +13175,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>216</v>
       </c>
@@ -13230,7 +13232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>216</v>
       </c>
@@ -13287,7 +13289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>216</v>
       </c>
@@ -13344,7 +13346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>216</v>
       </c>
@@ -13401,7 +13403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>216</v>
       </c>
@@ -13456,7 +13458,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>216</v>
       </c>
@@ -13511,7 +13513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>216</v>
       </c>
@@ -13566,7 +13568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>256</v>
       </c>
@@ -13623,7 +13625,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>256</v>
       </c>
@@ -13680,7 +13682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>256</v>
       </c>
@@ -13737,7 +13739,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>256</v>
       </c>
@@ -13794,7 +13796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>256</v>
       </c>
@@ -13849,7 +13851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>256</v>
       </c>
@@ -13906,7 +13908,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>256</v>
       </c>
@@ -13963,7 +13965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>256</v>
       </c>
@@ -14016,7 +14018,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>256</v>
       </c>
@@ -14073,7 +14075,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>275</v>
       </c>
@@ -14130,7 +14132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>275</v>
       </c>
@@ -14185,7 +14187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>275</v>
       </c>
@@ -14238,7 +14240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>275</v>
       </c>
@@ -14293,7 +14295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>275</v>
       </c>
@@ -14338,7 +14340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>275</v>
       </c>
@@ -14383,7 +14385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>275</v>
       </c>
@@ -14426,7 +14428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>275</v>
       </c>
@@ -14469,7 +14471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>275</v>
       </c>
@@ -14512,7 +14514,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>275</v>
       </c>
@@ -14555,7 +14557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>275</v>
       </c>
@@ -14598,7 +14600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>275</v>
       </c>
@@ -14641,7 +14643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>275</v>
       </c>
@@ -14684,7 +14686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>292</v>
       </c>
@@ -14739,7 +14741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>292</v>
       </c>
@@ -14796,7 +14798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>292</v>
       </c>
@@ -14853,7 +14855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>292</v>
       </c>
@@ -14910,7 +14912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>292</v>
       </c>
@@ -14967,7 +14969,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>292</v>
       </c>
@@ -15024,7 +15026,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>292</v>
       </c>
@@ -15081,7 +15083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>292</v>
       </c>
@@ -15138,7 +15140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>292</v>
       </c>
@@ -15195,7 +15197,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>292</v>
       </c>
@@ -15252,7 +15254,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>309</v>
       </c>
@@ -15309,7 +15311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>311</v>
       </c>
@@ -15366,7 +15368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>311</v>
       </c>
@@ -15423,7 +15425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>311</v>
       </c>
@@ -15480,7 +15482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>311</v>
       </c>
@@ -15537,7 +15539,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>320</v>
       </c>
@@ -15592,7 +15594,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>320</v>
       </c>
@@ -15647,7 +15649,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>320</v>
       </c>
@@ -15702,7 +15704,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>320</v>
       </c>
@@ -15757,7 +15759,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>331</v>
       </c>
@@ -15814,7 +15816,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>331</v>
       </c>
@@ -15871,7 +15873,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>331</v>
       </c>
@@ -15928,7 +15930,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="81" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>331</v>
       </c>
@@ -15985,7 +15987,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>331</v>
       </c>
@@ -16042,7 +16044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>331</v>
       </c>
@@ -16099,7 +16101,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>345</v>
       </c>
@@ -16156,7 +16158,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>345</v>
       </c>
@@ -16213,7 +16215,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>345</v>
       </c>
@@ -16270,7 +16272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>345</v>
       </c>
@@ -16327,7 +16329,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>345</v>
       </c>
@@ -16384,7 +16386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>345</v>
       </c>
@@ -16441,7 +16443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>345</v>
       </c>
@@ -16498,7 +16500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="36" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>345</v>
       </c>
@@ -16555,7 +16557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>356</v>
       </c>
@@ -16614,7 +16616,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>356</v>
       </c>
@@ -16661,7 +16663,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>356</v>
       </c>
@@ -16718,7 +16720,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>356</v>
       </c>
@@ -16773,7 +16775,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>356</v>
       </c>
@@ -16830,7 +16832,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>356</v>
       </c>
@@ -16889,7 +16891,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>356</v>
       </c>
@@ -16948,7 +16950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>356</v>
       </c>
@@ -17007,7 +17009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>356</v>
       </c>
@@ -17066,7 +17068,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>356</v>
       </c>
@@ -17125,7 +17127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>356</v>
       </c>
@@ -17184,7 +17186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>356</v>
       </c>
@@ -17243,7 +17245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>356</v>
       </c>
@@ -17302,7 +17304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>356</v>
       </c>
@@ -17361,7 +17363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>356</v>
       </c>
@@ -17420,7 +17422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>356</v>
       </c>
@@ -17479,7 +17481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>356</v>
       </c>
@@ -17538,7 +17540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>356</v>
       </c>
@@ -17597,7 +17599,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>356</v>
       </c>
@@ -17656,7 +17658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>356</v>
       </c>
@@ -17715,7 +17717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>356</v>
       </c>
@@ -17774,7 +17776,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>356</v>
       </c>
@@ -17833,7 +17835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>356</v>
       </c>
@@ -17892,7 +17894,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>356</v>
       </c>
@@ -17949,7 +17951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>378</v>
       </c>
@@ -18006,7 +18008,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>378</v>
       </c>
@@ -18063,7 +18065,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" ht="48" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>378</v>
       </c>
@@ -18120,8 +18122,8 @@
         <v>382</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="10" t="s">
         <v>386</v>
       </c>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1184,7 +1184,7 @@
     <t xml:space="preserve">17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 26-04-2022, 08:38</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 27-04-2022, 13:55</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1499,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7056"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Cele_1-17" sheetId="1" r:id="rId1"/>
@@ -1219,7 +1219,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 28-06-2022, 07:58</t>
+    <t>Ostatnia aktualizacja: 12-07-2022, 09:12</t>
   </si>
 </sst>
 </file>
@@ -1762,34 +1762,34 @@
   <dimension ref="A1:S338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="18" width="6.44140625" customWidth="1"/>
-    <col min="19" max="19" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
     <col min="20" max="20" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:19" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1900,12 +1900,14 @@
       <c r="Q4" s="4">
         <v>11.8</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="4">
+        <v>12</v>
+      </c>
       <c r="S4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1957,12 +1959,14 @@
       <c r="Q5" s="4">
         <v>13.4</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="4">
+        <v>13.6</v>
+      </c>
       <c r="S5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +1985,9 @@
       <c r="F6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4">
+        <v>16.3</v>
+      </c>
       <c r="H6" s="4">
         <v>15.9</v>
       </c>
@@ -2012,12 +2018,14 @@
       <c r="Q6" s="4">
         <v>11.7</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="4">
+        <v>12</v>
+      </c>
       <c r="S6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2069,12 +2077,14 @@
       <c r="Q7" s="4">
         <v>10</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="4">
+        <v>9.9</v>
+      </c>
       <c r="S7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2093,7 +2103,9 @@
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4">
+        <v>11.9</v>
+      </c>
       <c r="H8" s="4">
         <v>11.4</v>
       </c>
@@ -2124,12 +2136,14 @@
       <c r="Q8" s="4">
         <v>6.6</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="4">
+        <v>7.1</v>
+      </c>
       <c r="S8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -2148,7 +2162,9 @@
       <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="4">
+        <v>25.9</v>
+      </c>
       <c r="H9" s="4">
         <v>25.4</v>
       </c>
@@ -2179,12 +2195,14 @@
       <c r="Q9" s="4">
         <v>19.899999999999999</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="4">
+        <v>19.600000000000001</v>
+      </c>
       <c r="S9" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2203,7 +2221,9 @@
       <c r="F10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4">
+        <v>16.600000000000001</v>
+      </c>
       <c r="H10" s="4">
         <v>15.6</v>
       </c>
@@ -2234,12 +2254,14 @@
       <c r="Q10" s="4">
         <v>10.7</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="4">
+        <v>11.2</v>
+      </c>
       <c r="S10" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2258,7 +2280,9 @@
       <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="4">
+        <v>26.5</v>
+      </c>
       <c r="H11" s="4">
         <v>29.3</v>
       </c>
@@ -2289,12 +2313,14 @@
       <c r="Q11" s="4">
         <v>28.7</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="4">
+        <v>26.3</v>
+      </c>
       <c r="S11" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -2313,7 +2339,9 @@
       <c r="F12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="H12" s="4">
         <v>10</v>
       </c>
@@ -2344,12 +2372,14 @@
       <c r="Q12" s="4">
         <v>7.9</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="4">
+        <v>9.1</v>
+      </c>
       <c r="S12" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -2368,7 +2398,9 @@
       <c r="F13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4">
+        <v>13.2</v>
+      </c>
       <c r="H13" s="4">
         <v>12.5</v>
       </c>
@@ -2399,12 +2431,14 @@
       <c r="Q13" s="4">
         <v>9.6</v>
       </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="4">
+        <v>9.5</v>
+      </c>
       <c r="S13" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2423,7 +2457,9 @@
       <c r="F14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="4">
+        <v>25.7</v>
+      </c>
       <c r="H14" s="4">
         <v>26.4</v>
       </c>
@@ -2454,12 +2490,14 @@
       <c r="Q14" s="4">
         <v>17.3</v>
       </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="4">
+        <v>16.600000000000001</v>
+      </c>
       <c r="S14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2509,12 +2547,14 @@
       <c r="Q15" s="4">
         <v>23.3</v>
       </c>
-      <c r="R15" s="3"/>
+      <c r="R15" s="4">
+        <v>26.7</v>
+      </c>
       <c r="S15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2564,12 +2604,14 @@
       <c r="Q16" s="4">
         <v>17.8</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="4">
+        <v>18</v>
+      </c>
       <c r="S16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -2619,12 +2661,14 @@
       <c r="Q17" s="4">
         <v>10.5</v>
       </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="4">
+        <v>11.5</v>
+      </c>
       <c r="S17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
@@ -2674,12 +2718,14 @@
       <c r="Q18" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="4">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="S18" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
@@ -2736,7 +2782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -2789,7 +2835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -2842,7 +2888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2897,7 +2943,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2932,7 +2978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
@@ -2967,7 +3013,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
@@ -3024,7 +3070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
@@ -3081,7 +3127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -3138,7 +3184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>59</v>
       </c>
@@ -3195,7 +3241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -3252,7 +3298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>59</v>
       </c>
@@ -3309,7 +3355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>59</v>
       </c>
@@ -3366,7 +3412,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -3423,7 +3469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
@@ -3480,7 +3526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>59</v>
       </c>
@@ -3537,7 +3583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
@@ -3594,7 +3640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -3651,7 +3697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -3710,7 +3756,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
@@ -3769,7 +3815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>59</v>
       </c>
@@ -3828,7 +3874,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -3887,7 +3933,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>59</v>
       </c>
@@ -3946,7 +3992,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -4005,7 +4051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -4046,7 +4092,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>59</v>
       </c>
@@ -4087,7 +4133,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>59</v>
       </c>
@@ -4128,7 +4174,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
@@ -4169,7 +4215,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>95</v>
       </c>
@@ -4218,13 +4264,15 @@
       <c r="P47" s="4">
         <v>60.9</v>
       </c>
-      <c r="Q47" s="3"/>
+      <c r="Q47" s="4">
+        <v>60.3</v>
+      </c>
       <c r="R47" s="3"/>
       <c r="S47" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>95</v>
       </c>
@@ -4273,13 +4321,15 @@
       <c r="P48" s="4">
         <v>64.099999999999994</v>
       </c>
-      <c r="Q48" s="3"/>
+      <c r="Q48" s="4">
+        <v>64.3</v>
+      </c>
       <c r="R48" s="3"/>
       <c r="S48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>95</v>
       </c>
@@ -4336,7 +4386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
@@ -4393,7 +4443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>95</v>
       </c>
@@ -4450,7 +4500,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -4507,7 +4557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -4564,7 +4614,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
@@ -4621,7 +4671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>95</v>
       </c>
@@ -4678,7 +4728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
@@ -4735,7 +4785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>95</v>
       </c>
@@ -4792,7 +4842,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>95</v>
       </c>
@@ -4849,7 +4899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>95</v>
       </c>
@@ -4906,7 +4956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>95</v>
       </c>
@@ -4963,7 +5013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>95</v>
       </c>
@@ -5020,7 +5070,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>95</v>
       </c>
@@ -5077,7 +5127,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>95</v>
       </c>
@@ -5134,7 +5184,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>95</v>
       </c>
@@ -5191,7 +5241,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>95</v>
       </c>
@@ -5248,7 +5298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>95</v>
       </c>
@@ -5305,7 +5355,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>95</v>
       </c>
@@ -5362,7 +5412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>95</v>
       </c>
@@ -5419,7 +5469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>95</v>
       </c>
@@ -5476,7 +5526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>95</v>
       </c>
@@ -5533,7 +5583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>95</v>
       </c>
@@ -5590,7 +5640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -5629,7 +5679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>95</v>
       </c>
@@ -5668,7 +5718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>95</v>
       </c>
@@ -5707,7 +5757,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -5746,7 +5796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>95</v>
       </c>
@@ -5785,7 +5835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>95</v>
       </c>
@@ -5824,7 +5874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>95</v>
       </c>
@@ -5863,7 +5913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -5902,7 +5952,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>95</v>
       </c>
@@ -5941,7 +5991,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>95</v>
       </c>
@@ -5980,7 +6030,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>95</v>
       </c>
@@ -6019,7 +6069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>95</v>
       </c>
@@ -6058,7 +6108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>95</v>
       </c>
@@ -6097,7 +6147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>95</v>
       </c>
@@ -6138,7 +6188,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -6179,7 +6229,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>95</v>
       </c>
@@ -6220,7 +6270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>95</v>
       </c>
@@ -6261,7 +6311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>95</v>
       </c>
@@ -6302,7 +6352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>95</v>
       </c>
@@ -6343,7 +6393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>95</v>
       </c>
@@ -6384,7 +6434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>95</v>
       </c>
@@ -6425,7 +6475,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>95</v>
       </c>
@@ -6466,7 +6516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>95</v>
       </c>
@@ -6507,7 +6557,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>95</v>
       </c>
@@ -6548,7 +6598,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>95</v>
       </c>
@@ -6589,7 +6639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="97" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -6630,7 +6680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>95</v>
       </c>
@@ -6671,7 +6721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
@@ -6712,7 +6762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>95</v>
       </c>
@@ -6753,7 +6803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>95</v>
       </c>
@@ -6794,7 +6844,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -6835,7 +6885,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>95</v>
       </c>
@@ -6876,7 +6926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>95</v>
       </c>
@@ -6917,7 +6967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>95</v>
       </c>
@@ -6958,7 +7008,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>95</v>
       </c>
@@ -6999,7 +7049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>95</v>
       </c>
@@ -7040,7 +7090,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>95</v>
       </c>
@@ -7081,7 +7131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>95</v>
       </c>
@@ -7122,7 +7172,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>95</v>
       </c>
@@ -7163,7 +7213,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>95</v>
       </c>
@@ -7202,7 +7252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>95</v>
       </c>
@@ -7241,7 +7291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>95</v>
       </c>
@@ -7280,7 +7330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>95</v>
       </c>
@@ -7335,7 +7385,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>95</v>
       </c>
@@ -7392,7 +7442,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="116" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>95</v>
       </c>
@@ -7441,7 +7491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>95</v>
       </c>
@@ -7490,7 +7540,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="118" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>95</v>
       </c>
@@ -7539,7 +7589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>95</v>
       </c>
@@ -7582,7 +7632,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>95</v>
       </c>
@@ -7639,7 +7689,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>147</v>
       </c>
@@ -7696,7 +7746,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>147</v>
       </c>
@@ -7753,7 +7803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>147</v>
       </c>
@@ -7796,7 +7846,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>147</v>
       </c>
@@ -7839,7 +7889,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="125" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>147</v>
       </c>
@@ -7882,7 +7932,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>147</v>
       </c>
@@ -7925,7 +7975,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>147</v>
       </c>
@@ -7968,7 +8018,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>147</v>
       </c>
@@ -8011,7 +8061,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="129" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>147</v>
       </c>
@@ -8063,12 +8113,14 @@
       <c r="Q129" s="4">
         <v>87.2</v>
       </c>
-      <c r="R129" s="3"/>
+      <c r="R129" s="4">
+        <v>89.6</v>
+      </c>
       <c r="S129" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>147</v>
       </c>
@@ -8120,12 +8172,14 @@
       <c r="Q130" s="4">
         <v>101.1</v>
       </c>
-      <c r="R130" s="3"/>
+      <c r="R130" s="4">
+        <v>103.1</v>
+      </c>
       <c r="S130" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>147</v>
       </c>
@@ -8177,12 +8231,14 @@
       <c r="Q131" s="4">
         <v>67.7</v>
       </c>
-      <c r="R131" s="3"/>
+      <c r="R131" s="4">
+        <v>70.900000000000006</v>
+      </c>
       <c r="S131" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>147</v>
       </c>
@@ -8239,7 +8295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>147</v>
       </c>
@@ -8296,7 +8352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>147</v>
       </c>
@@ -8353,7 +8409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>147</v>
       </c>
@@ -8410,7 +8466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>147</v>
       </c>
@@ -8467,7 +8523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>147</v>
       </c>
@@ -8524,7 +8580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>147</v>
       </c>
@@ -8581,7 +8637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>147</v>
       </c>
@@ -8638,7 +8694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>147</v>
       </c>
@@ -8695,7 +8751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>147</v>
       </c>
@@ -8752,7 +8808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>147</v>
       </c>
@@ -8809,7 +8865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>147</v>
       </c>
@@ -8848,7 +8904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>147</v>
       </c>
@@ -8885,7 +8941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -8922,7 +8978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>147</v>
       </c>
@@ -8959,7 +9015,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>147</v>
       </c>
@@ -8996,7 +9052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="148" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>147</v>
       </c>
@@ -9033,7 +9089,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -9070,7 +9126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>147</v>
       </c>
@@ -9117,7 +9173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>147</v>
       </c>
@@ -9164,7 +9220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="152" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>147</v>
       </c>
@@ -9211,7 +9267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>147</v>
       </c>
@@ -9258,7 +9314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>147</v>
       </c>
@@ -9305,7 +9361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="155" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>147</v>
       </c>
@@ -9352,7 +9408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>147</v>
       </c>
@@ -9399,7 +9455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>147</v>
       </c>
@@ -9446,7 +9502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>147</v>
       </c>
@@ -9493,7 +9549,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>147</v>
       </c>
@@ -9540,7 +9596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>147</v>
       </c>
@@ -9587,7 +9643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>147</v>
       </c>
@@ -9634,7 +9690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>147</v>
       </c>
@@ -9681,7 +9737,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>147</v>
       </c>
@@ -9728,7 +9784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>147</v>
       </c>
@@ -9775,7 +9831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>147</v>
       </c>
@@ -9822,7 +9878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>147</v>
       </c>
@@ -9869,7 +9925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="76.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="72" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>147</v>
       </c>
@@ -9916,7 +9972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>188</v>
       </c>
@@ -9973,7 +10029,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>188</v>
       </c>
@@ -10030,7 +10086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>188</v>
       </c>
@@ -10087,7 +10143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>188</v>
       </c>
@@ -10144,7 +10200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>188</v>
       </c>
@@ -10191,7 +10247,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>188</v>
       </c>
@@ -10238,7 +10294,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>188</v>
       </c>
@@ -10285,7 +10341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>188</v>
       </c>
@@ -10332,7 +10388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>188</v>
       </c>
@@ -10379,7 +10435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>188</v>
       </c>
@@ -10426,7 +10482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="54" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>188</v>
       </c>
@@ -10473,7 +10529,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>188</v>
       </c>
@@ -10528,7 +10584,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="180" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>188</v>
       </c>
@@ -10563,7 +10619,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>188</v>
       </c>
@@ -10598,7 +10654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="182" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>188</v>
       </c>
@@ -10655,7 +10711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>188</v>
       </c>
@@ -10712,7 +10768,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>188</v>
       </c>
@@ -10769,7 +10825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>205</v>
       </c>
@@ -10824,7 +10880,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>205</v>
       </c>
@@ -10881,7 +10937,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="187" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>205</v>
       </c>
@@ -10938,7 +10994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>205</v>
       </c>
@@ -10995,7 +11051,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>205</v>
       </c>
@@ -11052,7 +11108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>205</v>
       </c>
@@ -11109,7 +11165,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>214</v>
       </c>
@@ -11164,7 +11220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>214</v>
       </c>
@@ -11221,7 +11277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>214</v>
       </c>
@@ -11278,7 +11334,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="194" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>214</v>
       </c>
@@ -11335,7 +11391,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>214</v>
       </c>
@@ -11392,7 +11448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>214</v>
       </c>
@@ -11449,7 +11505,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>229</v>
       </c>
@@ -11506,7 +11562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>229</v>
       </c>
@@ -11563,7 +11619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>229</v>
       </c>
@@ -11618,7 +11674,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>229</v>
       </c>
@@ -11669,7 +11725,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>229</v>
       </c>
@@ -11726,7 +11782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>229</v>
       </c>
@@ -11783,7 +11839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>229</v>
       </c>
@@ -11840,7 +11896,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>229</v>
       </c>
@@ -11897,7 +11953,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="205" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>229</v>
       </c>
@@ -11954,7 +12010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>229</v>
       </c>
@@ -12011,7 +12067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>229</v>
       </c>
@@ -12068,7 +12124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>229</v>
       </c>
@@ -12125,7 +12181,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>229</v>
       </c>
@@ -12182,7 +12238,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>229</v>
       </c>
@@ -12239,7 +12295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>229</v>
       </c>
@@ -12296,7 +12352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>229</v>
       </c>
@@ -12353,7 +12409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>229</v>
       </c>
@@ -12410,7 +12466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>229</v>
       </c>
@@ -12467,7 +12523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="215" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>229</v>
       </c>
@@ -12524,7 +12580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>229</v>
       </c>
@@ -12581,7 +12637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="217" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>229</v>
       </c>
@@ -12638,7 +12694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>229</v>
       </c>
@@ -12695,7 +12751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>229</v>
       </c>
@@ -12752,7 +12808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>229</v>
       </c>
@@ -12809,7 +12865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>229</v>
       </c>
@@ -12866,7 +12922,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>229</v>
       </c>
@@ -12923,7 +12979,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="223" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>229</v>
       </c>
@@ -12980,7 +13036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>229</v>
       </c>
@@ -13037,7 +13093,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="225" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>229</v>
       </c>
@@ -13084,7 +13140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>229</v>
       </c>
@@ -13131,7 +13187,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>229</v>
       </c>
@@ -13178,7 +13234,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="228" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>229</v>
       </c>
@@ -13225,7 +13281,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>229</v>
       </c>
@@ -13272,7 +13328,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="230" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>229</v>
       </c>
@@ -13329,7 +13385,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>229</v>
       </c>
@@ -13386,7 +13442,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>229</v>
       </c>
@@ -13443,7 +13499,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>229</v>
       </c>
@@ -13500,7 +13556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>229</v>
       </c>
@@ -13557,7 +13613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>229</v>
       </c>
@@ -13614,7 +13670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="236" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>229</v>
       </c>
@@ -13671,7 +13727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>229</v>
       </c>
@@ -13728,7 +13784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>229</v>
       </c>
@@ -13785,7 +13841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>229</v>
       </c>
@@ -13842,7 +13898,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>229</v>
       </c>
@@ -13899,7 +13955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>229</v>
       </c>
@@ -13956,7 +14012,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>229</v>
       </c>
@@ -14013,7 +14069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>229</v>
       </c>
@@ -14070,7 +14126,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>229</v>
       </c>
@@ -14127,7 +14183,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>229</v>
       </c>
@@ -14184,7 +14240,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>229</v>
       </c>
@@ -14241,7 +14297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>229</v>
       </c>
@@ -14298,7 +14354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>229</v>
       </c>
@@ -14355,7 +14411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>229</v>
       </c>
@@ -14412,7 +14468,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>229</v>
       </c>
@@ -14462,12 +14518,14 @@
       <c r="Q250" s="6">
         <v>4483</v>
       </c>
-      <c r="R250" s="3"/>
+      <c r="R250" s="6">
+        <v>3404</v>
+      </c>
       <c r="S250" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>229</v>
       </c>
@@ -14517,12 +14575,14 @@
       <c r="Q251" s="6">
         <v>1850</v>
       </c>
-      <c r="R251" s="3"/>
+      <c r="R251" s="6">
+        <v>1043</v>
+      </c>
       <c r="S251" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="252" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>229</v>
       </c>
@@ -14572,12 +14632,14 @@
       <c r="Q252" s="6">
         <v>2633</v>
       </c>
-      <c r="R252" s="3"/>
+      <c r="R252" s="6">
+        <v>2361</v>
+      </c>
       <c r="S252" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>269</v>
       </c>
@@ -14634,7 +14696,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="254" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>269</v>
       </c>
@@ -14691,7 +14753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>269</v>
       </c>
@@ -14748,7 +14810,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>269</v>
       </c>
@@ -14805,7 +14867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>269</v>
       </c>
@@ -14862,7 +14924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>269</v>
       </c>
@@ -14919,7 +14981,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="259" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>269</v>
       </c>
@@ -14976,7 +15038,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="260" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>269</v>
       </c>
@@ -15029,7 +15091,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="261" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>269</v>
       </c>
@@ -15086,7 +15148,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>288</v>
       </c>
@@ -15143,7 +15205,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>288</v>
       </c>
@@ -15200,7 +15262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>288</v>
       </c>
@@ -15253,7 +15315,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>288</v>
       </c>
@@ -15310,7 +15372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>288</v>
       </c>
@@ -15357,7 +15419,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>288</v>
       </c>
@@ -15404,7 +15466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="268" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>288</v>
       </c>
@@ -15449,7 +15511,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="269" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>288</v>
       </c>
@@ -15494,7 +15556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="270" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>288</v>
       </c>
@@ -15539,7 +15601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="271" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>288</v>
       </c>
@@ -15584,7 +15646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="272" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>288</v>
       </c>
@@ -15629,7 +15691,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>288</v>
       </c>
@@ -15674,7 +15736,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="274" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>288</v>
       </c>
@@ -15719,7 +15781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>305</v>
       </c>
@@ -15774,7 +15836,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>305</v>
       </c>
@@ -15831,7 +15893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="277" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>305</v>
       </c>
@@ -15888,7 +15950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="278" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>305</v>
       </c>
@@ -15945,7 +16007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="279" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>305</v>
       </c>
@@ -16002,7 +16064,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="280" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>305</v>
       </c>
@@ -16059,7 +16121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="281" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>305</v>
       </c>
@@ -16116,7 +16178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="282" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>305</v>
       </c>
@@ -16173,7 +16235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="283" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>305</v>
       </c>
@@ -16230,7 +16292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="284" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>305</v>
       </c>
@@ -16287,7 +16349,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="285" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>322</v>
       </c>
@@ -16344,7 +16406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="286" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>324</v>
       </c>
@@ -16401,7 +16463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="287" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>324</v>
       </c>
@@ -16458,7 +16520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="288" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>324</v>
       </c>
@@ -16515,7 +16577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>324</v>
       </c>
@@ -16572,7 +16634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="290" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>333</v>
       </c>
@@ -16629,7 +16691,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="291" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>333</v>
       </c>
@@ -16686,7 +16748,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="292" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>333</v>
       </c>
@@ -16743,7 +16805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="293" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>333</v>
       </c>
@@ -16800,7 +16862,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="294" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>343</v>
       </c>
@@ -16857,7 +16919,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="295" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>343</v>
       </c>
@@ -16914,7 +16976,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="296" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>343</v>
       </c>
@@ -16971,7 +17033,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="297" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:19" ht="81" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>343</v>
       </c>
@@ -17028,7 +17090,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="298" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>343</v>
       </c>
@@ -17085,7 +17147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="299" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>343</v>
       </c>
@@ -17142,7 +17204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>357</v>
       </c>
@@ -17199,7 +17261,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="301" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>357</v>
       </c>
@@ -17256,7 +17318,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="302" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>357</v>
       </c>
@@ -17313,7 +17375,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="303" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>357</v>
       </c>
@@ -17370,7 +17432,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="304" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>357</v>
       </c>
@@ -17427,7 +17489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="305" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>357</v>
       </c>
@@ -17484,7 +17546,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="306" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>357</v>
       </c>
@@ -17541,7 +17603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="307" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:19" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>357</v>
       </c>
@@ -17598,7 +17660,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="308" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>368</v>
       </c>
@@ -17657,7 +17719,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="309" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>368</v>
       </c>
@@ -17704,7 +17766,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="310" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>368</v>
       </c>
@@ -17761,7 +17823,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="311" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>368</v>
       </c>
@@ -17816,7 +17878,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="312" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>368</v>
       </c>
@@ -17873,7 +17935,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>368</v>
       </c>
@@ -17932,7 +17994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>368</v>
       </c>
@@ -17991,7 +18053,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>368</v>
       </c>
@@ -18050,7 +18112,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="316" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>368</v>
       </c>
@@ -18109,7 +18171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="317" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>368</v>
       </c>
@@ -18168,7 +18230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="318" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>368</v>
       </c>
@@ -18227,7 +18289,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="319" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>368</v>
       </c>
@@ -18286,7 +18348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="320" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>368</v>
       </c>
@@ -18345,7 +18407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="321" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>368</v>
       </c>
@@ -18404,7 +18466,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="322" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>368</v>
       </c>
@@ -18463,7 +18525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="323" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>368</v>
       </c>
@@ -18522,7 +18584,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="324" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>368</v>
       </c>
@@ -18581,7 +18643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="325" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>368</v>
       </c>
@@ -18640,7 +18702,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="326" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>368</v>
       </c>
@@ -18699,7 +18761,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="327" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>368</v>
       </c>
@@ -18758,7 +18820,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="328" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>368</v>
       </c>
@@ -18817,7 +18879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="329" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>368</v>
       </c>
@@ -18876,7 +18938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>368</v>
       </c>
@@ -18935,7 +18997,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>368</v>
       </c>
@@ -18992,7 +19054,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>390</v>
       </c>
@@ -19049,7 +19111,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:19" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>390</v>
       </c>
@@ -19106,7 +19168,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="48" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>390</v>
       </c>
@@ -19163,15 +19225,15 @@
         <v>394</v>
       </c>
     </row>
-    <row r="335" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" spans="1:2" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:19" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>398</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1223,7 +1223,7 @@
     <t xml:space="preserve">17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t xml:space="preserve">Ostatnia aktualizacja: 26-07-2022, 08:24</t>
+    <t xml:space="preserve">Ostatnia aktualizacja: 27-07-2022, 07:36</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1538,7 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11457,39 +11457,41 @@
         <v>25</v>
       </c>
       <c r="G201" s="6" t="n">
-        <v>50</v>
+        <v>48.3</v>
       </c>
       <c r="H201" s="6" t="n">
-        <v>50.2</v>
+        <v>48.6</v>
       </c>
       <c r="I201" s="6" t="n">
-        <v>50.2</v>
+        <v>48.9</v>
       </c>
       <c r="J201" s="6" t="n">
-        <v>50.2</v>
+        <v>48.9</v>
       </c>
       <c r="K201" s="6" t="n">
-        <v>51.2</v>
+        <v>50.1</v>
       </c>
       <c r="L201" s="6" t="n">
-        <v>51.9</v>
+        <v>51.1</v>
       </c>
       <c r="M201" s="6" t="n">
-        <v>52.8</v>
+        <v>52.1</v>
       </c>
       <c r="N201" s="6" t="n">
-        <v>53.7</v>
+        <v>53.2</v>
       </c>
       <c r="O201" s="6" t="n">
-        <v>54.2</v>
+        <v>53.9</v>
       </c>
       <c r="P201" s="6" t="n">
-        <v>54.4</v>
+        <v>54.1</v>
       </c>
       <c r="Q201" s="6" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="R201" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="R201" s="6" t="n">
+        <v>55.8</v>
+      </c>
       <c r="S201" s="4" t="s">
         <v>26</v>
       </c>
@@ -11514,39 +11516,37 @@
         <v>25</v>
       </c>
       <c r="G202" s="6" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="H202" s="6" t="n">
-        <v>58.3</v>
-      </c>
-      <c r="I202" s="6" t="n">
-        <v>58.2</v>
-      </c>
+        <v>55.6</v>
+      </c>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
       <c r="J202" s="6" t="n">
-        <v>58.2</v>
+        <v>56.4</v>
       </c>
       <c r="K202" s="6" t="n">
-        <v>59.2</v>
+        <v>57.7</v>
       </c>
       <c r="L202" s="6" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="M202" s="6" t="n">
         <v>59.8</v>
       </c>
-      <c r="M202" s="6" t="n">
-        <v>60.9</v>
-      </c>
       <c r="N202" s="6" t="n">
-        <v>62</v>
+        <v>61.2</v>
       </c>
       <c r="O202" s="6" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="P202" s="6" t="n">
         <v>62.4</v>
       </c>
-      <c r="P202" s="6" t="n">
-        <v>63</v>
-      </c>
       <c r="Q202" s="6" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="R202" s="5"/>
+        <v>62.3</v>
+      </c>
+      <c r="R202" s="6" t="n">
+        <v>63.8</v>
+      </c>
       <c r="S202" s="4" t="s">
         <v>26</v>
       </c>
@@ -11571,39 +11571,37 @@
         <v>25</v>
       </c>
       <c r="G203" s="6" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="H203" s="6" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="I203" s="6" t="n">
-        <v>42.9</v>
-      </c>
+        <v>41.5</v>
+      </c>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
       <c r="J203" s="6" t="n">
-        <v>42.8</v>
+        <v>42</v>
       </c>
       <c r="K203" s="6" t="n">
-        <v>43.8</v>
+        <v>43.2</v>
       </c>
       <c r="L203" s="6" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="M203" s="6" t="n">
-        <v>45.3</v>
+        <v>45.1</v>
       </c>
       <c r="N203" s="6" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="O203" s="6" t="n">
         <v>46.6</v>
       </c>
       <c r="P203" s="6" t="n">
-        <v>46.4</v>
+        <v>46.5</v>
       </c>
       <c r="Q203" s="6" t="n">
         <v>46.3</v>
       </c>
-      <c r="R203" s="5"/>
+      <c r="R203" s="6" t="n">
+        <v>48.5</v>
+      </c>
       <c r="S203" s="4" t="s">
         <v>26</v>
       </c>
@@ -11628,39 +11626,41 @@
         <v>25</v>
       </c>
       <c r="G204" s="6" t="n">
-        <v>26.4</v>
+        <v>26</v>
       </c>
       <c r="H204" s="6" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="I204" s="6" t="n">
-        <v>24.7</v>
+        <v>24.3</v>
       </c>
       <c r="J204" s="6" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="K204" s="6" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="L204" s="6" t="n">
-        <v>26</v>
+        <v>25.7</v>
       </c>
       <c r="M204" s="6" t="n">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="N204" s="6" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="O204" s="6" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="P204" s="6" t="n">
         <v>31.7</v>
       </c>
       <c r="Q204" s="6" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="R204" s="5"/>
+        <v>28.2</v>
+      </c>
+      <c r="R204" s="6" t="n">
+        <v>27.3</v>
+      </c>
       <c r="S204" s="4" t="s">
         <v>26</v>
       </c>
@@ -11685,39 +11685,41 @@
         <v>25</v>
       </c>
       <c r="G205" s="6" t="n">
-        <v>58.9</v>
+        <v>57</v>
       </c>
       <c r="H205" s="6" t="n">
-        <v>59.3</v>
+        <v>57.5</v>
       </c>
       <c r="I205" s="6" t="n">
-        <v>59.7</v>
+        <v>58</v>
       </c>
       <c r="J205" s="6" t="n">
-        <v>60</v>
+        <v>58.4</v>
       </c>
       <c r="K205" s="6" t="n">
-        <v>61.7</v>
+        <v>60.2</v>
       </c>
       <c r="L205" s="6" t="n">
-        <v>62.9</v>
+        <v>61.6</v>
       </c>
       <c r="M205" s="6" t="n">
-        <v>64.5</v>
+        <v>63.5</v>
       </c>
       <c r="N205" s="6" t="n">
-        <v>66.1</v>
+        <v>65.3</v>
       </c>
       <c r="O205" s="6" t="n">
-        <v>67.4</v>
+        <v>66.6</v>
       </c>
       <c r="P205" s="6" t="n">
-        <v>68.2</v>
+        <v>67.5</v>
       </c>
       <c r="Q205" s="6" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="R205" s="5"/>
+        <v>67.8</v>
+      </c>
+      <c r="R205" s="6" t="n">
+        <v>70.3</v>
+      </c>
       <c r="S205" s="4" t="s">
         <v>26</v>
       </c>
@@ -11742,39 +11744,37 @@
         <v>25</v>
       </c>
       <c r="G206" s="6" t="n">
-        <v>64.6</v>
-      </c>
-      <c r="H206" s="6" t="n">
-        <v>65</v>
-      </c>
-      <c r="I206" s="6" t="n">
-        <v>65.4</v>
-      </c>
+        <v>62.5</v>
+      </c>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
       <c r="J206" s="6" t="n">
-        <v>65.7</v>
+        <v>64.1</v>
       </c>
       <c r="K206" s="6" t="n">
-        <v>67.5</v>
+        <v>66</v>
       </c>
       <c r="L206" s="6" t="n">
-        <v>68.7</v>
+        <v>67.3</v>
       </c>
       <c r="M206" s="6" t="n">
-        <v>70.4</v>
+        <v>69.3</v>
       </c>
       <c r="N206" s="6" t="n">
-        <v>72.1</v>
+        <v>71.2</v>
       </c>
       <c r="O206" s="6" t="n">
-        <v>73.6</v>
+        <v>72.8</v>
       </c>
       <c r="P206" s="6" t="n">
-        <v>74.5</v>
+        <v>73.8</v>
       </c>
       <c r="Q206" s="6" t="n">
-        <v>74.9</v>
-      </c>
-      <c r="R206" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="R206" s="6" t="n">
+        <v>76.6</v>
+      </c>
       <c r="S206" s="4" t="s">
         <v>26</v>
       </c>
@@ -11799,39 +11799,41 @@
         <v>25</v>
       </c>
       <c r="G207" s="6" t="n">
-        <v>44.7</v>
+        <v>44.1</v>
       </c>
       <c r="H207" s="6" t="n">
-        <v>42.3</v>
+        <v>41.8</v>
       </c>
       <c r="I207" s="6" t="n">
-        <v>41.9</v>
+        <v>41.3</v>
       </c>
       <c r="J207" s="6" t="n">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="K207" s="6" t="n">
-        <v>43.8</v>
+        <v>43.3</v>
       </c>
       <c r="L207" s="6" t="n">
-        <v>44.5</v>
+        <v>44.1</v>
       </c>
       <c r="M207" s="6" t="n">
-        <v>48.4</v>
+        <v>47.9</v>
       </c>
       <c r="N207" s="6" t="n">
-        <v>50.7</v>
+        <v>50.3</v>
       </c>
       <c r="O207" s="6" t="n">
-        <v>53.5</v>
+        <v>53.3</v>
       </c>
       <c r="P207" s="6" t="n">
         <v>55.5</v>
       </c>
       <c r="Q207" s="6" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="R207" s="5"/>
+        <v>50.1</v>
+      </c>
+      <c r="R207" s="6" t="n">
+        <v>49.3</v>
+      </c>
       <c r="S207" s="4" t="s">
         <v>26</v>
       </c>
@@ -11856,39 +11858,41 @@
         <v>25</v>
       </c>
       <c r="G208" s="6" t="n">
-        <v>64.3</v>
+        <v>62.2</v>
       </c>
       <c r="H208" s="6" t="n">
-        <v>64.5</v>
+        <v>62.5</v>
       </c>
       <c r="I208" s="6" t="n">
-        <v>64.7</v>
+        <v>62.9</v>
       </c>
       <c r="J208" s="6" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="K208" s="6" t="n">
         <v>64.9</v>
       </c>
-      <c r="K208" s="6" t="n">
-        <v>66.5</v>
-      </c>
       <c r="L208" s="6" t="n">
-        <v>67.8</v>
+        <v>66.3</v>
       </c>
       <c r="M208" s="6" t="n">
-        <v>69.3</v>
+        <v>68.2</v>
       </c>
       <c r="N208" s="6" t="n">
-        <v>70.9</v>
+        <v>70</v>
       </c>
       <c r="O208" s="6" t="n">
-        <v>72.2</v>
+        <v>71.4</v>
       </c>
       <c r="P208" s="6" t="n">
-        <v>73</v>
+        <v>72.3</v>
       </c>
       <c r="Q208" s="6" t="n">
-        <v>73.6</v>
-      </c>
-      <c r="R208" s="5"/>
+        <v>72.7</v>
+      </c>
+      <c r="R208" s="6" t="n">
+        <v>75.4</v>
+      </c>
       <c r="S208" s="4" t="s">
         <v>26</v>
       </c>
@@ -11913,39 +11917,41 @@
         <v>25</v>
       </c>
       <c r="G209" s="6" t="n">
-        <v>30.3</v>
+        <v>28.2</v>
       </c>
       <c r="H209" s="6" t="n">
-        <v>31.2</v>
+        <v>29.2</v>
       </c>
       <c r="I209" s="6" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J209" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="K209" s="6" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="L209" s="6" t="n">
         <v>31.5</v>
       </c>
-      <c r="J209" s="6" t="n">
-        <v>31.6</v>
-      </c>
-      <c r="K209" s="6" t="n">
-        <v>32.1</v>
-      </c>
-      <c r="L209" s="6" t="n">
-        <v>32.5</v>
-      </c>
       <c r="M209" s="6" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="N209" s="6" t="n">
         <v>32.6</v>
       </c>
-      <c r="N209" s="6" t="n">
-        <v>33.2</v>
-      </c>
       <c r="O209" s="6" t="n">
-        <v>32.9</v>
+        <v>32.4</v>
       </c>
       <c r="P209" s="6" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="Q209" s="6" t="n">
         <v>32.6</v>
       </c>
-      <c r="Q209" s="6" t="n">
-        <v>33</v>
-      </c>
-      <c r="R209" s="5"/>
+      <c r="R209" s="6" t="n">
+        <v>34.7</v>
+      </c>
       <c r="S209" s="4" t="s">
         <v>26</v>
       </c>
@@ -11970,39 +11976,41 @@
         <v>25</v>
       </c>
       <c r="G210" s="6" t="n">
-        <v>34.1</v>
+        <v>31.5</v>
       </c>
       <c r="H210" s="6" t="n">
-        <v>36.9</v>
+        <v>34.3</v>
       </c>
       <c r="I210" s="6" t="n">
-        <v>38.7</v>
+        <v>36.1</v>
       </c>
       <c r="J210" s="6" t="n">
-        <v>40.6</v>
+        <v>38.3</v>
       </c>
       <c r="K210" s="6" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="L210" s="6" t="n">
         <v>42.5</v>
       </c>
-      <c r="L210" s="6" t="n">
-        <v>44.3</v>
-      </c>
       <c r="M210" s="6" t="n">
-        <v>46.1</v>
+        <v>44.5</v>
       </c>
       <c r="N210" s="6" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="O210" s="6" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="P210" s="6" t="n">
         <v>48.3</v>
       </c>
-      <c r="O210" s="6" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="P210" s="6" t="n">
-        <v>49.5</v>
-      </c>
       <c r="Q210" s="6" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="R210" s="5"/>
+        <v>50.4</v>
+      </c>
+      <c r="R210" s="6" t="n">
+        <v>54.7</v>
+      </c>
       <c r="S210" s="4" t="s">
         <v>26</v>
       </c>
@@ -12027,39 +12035,41 @@
         <v>25</v>
       </c>
       <c r="G211" s="6" t="n">
-        <v>9.4</v>
+        <v>7.1</v>
       </c>
       <c r="H211" s="6" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="I211" s="6" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="J211" s="6" t="n">
-        <v>9.4</v>
+        <v>7.8</v>
       </c>
       <c r="K211" s="6" t="n">
-        <v>9.7</v>
+        <v>8.6</v>
       </c>
       <c r="L211" s="6" t="n">
-        <v>9.5</v>
+        <v>8.8</v>
       </c>
       <c r="M211" s="6" t="n">
-        <v>9.9</v>
+        <v>9.2</v>
       </c>
       <c r="N211" s="6" t="n">
-        <v>11</v>
+        <v>10.3</v>
       </c>
       <c r="O211" s="6" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="P211" s="6" t="n">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="Q211" s="6" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="R211" s="5"/>
+        <v>10.9</v>
+      </c>
+      <c r="R211" s="6" t="n">
+        <v>11.5</v>
+      </c>
       <c r="S211" s="4" t="s">
         <v>26</v>
       </c>
@@ -12084,39 +12094,41 @@
         <v>25</v>
       </c>
       <c r="G212" s="6" t="n">
-        <v>49.7</v>
+        <v>50</v>
       </c>
       <c r="H212" s="6" t="n">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="I212" s="6" t="n">
-        <v>50.1</v>
+        <v>50.5</v>
       </c>
       <c r="J212" s="6" t="n">
-        <v>50.1</v>
+        <v>50.4</v>
       </c>
       <c r="K212" s="6" t="n">
-        <v>51.4</v>
+        <v>51.7</v>
       </c>
       <c r="L212" s="6" t="n">
-        <v>52.2</v>
+        <v>52.5</v>
       </c>
       <c r="M212" s="6" t="n">
-        <v>52.9</v>
+        <v>53.3</v>
       </c>
       <c r="N212" s="6" t="n">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
       <c r="O212" s="6" t="n">
-        <v>54.4</v>
+        <v>54.9</v>
       </c>
       <c r="P212" s="6" t="n">
-        <v>54.4</v>
+        <v>55</v>
       </c>
       <c r="Q212" s="6" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="R212" s="5"/>
+        <v>54.6</v>
+      </c>
+      <c r="R212" s="6" t="n">
+        <v>56</v>
+      </c>
       <c r="S212" s="4" t="s">
         <v>26</v>
       </c>
@@ -12141,39 +12153,41 @@
         <v>25</v>
       </c>
       <c r="G213" s="6" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="H213" s="6" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="I213" s="6" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="J213" s="6" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="K213" s="6" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="L213" s="6" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="M213" s="6" t="n">
         <v>50.4</v>
       </c>
-      <c r="H213" s="6" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="I213" s="6" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J213" s="6" t="n">
-        <v>50.3</v>
-      </c>
-      <c r="K213" s="6" t="n">
-        <v>50.9</v>
-      </c>
-      <c r="L213" s="6" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="M213" s="6" t="n">
-        <v>52.6</v>
-      </c>
       <c r="N213" s="6" t="n">
-        <v>53.5</v>
+        <v>51.8</v>
       </c>
       <c r="O213" s="6" t="n">
-        <v>53.8</v>
+        <v>52.3</v>
       </c>
       <c r="P213" s="6" t="n">
-        <v>54.2</v>
+        <v>52.9</v>
       </c>
       <c r="Q213" s="6" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="R213" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="R213" s="6" t="n">
+        <v>55.5</v>
+      </c>
       <c r="S213" s="4" t="s">
         <v>26</v>
       </c>
@@ -12198,39 +12212,37 @@
         <v>25</v>
       </c>
       <c r="G214" s="6" t="n">
-        <v>76.4</v>
-      </c>
-      <c r="H214" s="6" t="n">
-        <v>75.9</v>
-      </c>
-      <c r="I214" s="6" t="n">
-        <v>75.5</v>
-      </c>
+        <v>76.9</v>
+      </c>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
       <c r="J214" s="6" t="n">
-        <v>75.6</v>
+        <v>76.1</v>
       </c>
       <c r="K214" s="6" t="n">
-        <v>76.5</v>
+        <v>76.8</v>
       </c>
       <c r="L214" s="6" t="n">
-        <v>77.2</v>
+        <v>77.6</v>
       </c>
       <c r="M214" s="6" t="n">
-        <v>77.8</v>
+        <v>78.2</v>
       </c>
       <c r="N214" s="6" t="n">
-        <v>78.2</v>
+        <v>78.6</v>
       </c>
       <c r="O214" s="6" t="n">
-        <v>78.8</v>
+        <v>79.2</v>
       </c>
       <c r="P214" s="6" t="n">
-        <v>78.6</v>
+        <v>79.1</v>
       </c>
       <c r="Q214" s="6" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="R214" s="5"/>
+        <v>78.7</v>
+      </c>
+      <c r="R214" s="6" t="n">
+        <v>79.7</v>
+      </c>
       <c r="S214" s="4" t="s">
         <v>26</v>
       </c>
@@ -12255,39 +12267,37 @@
         <v>25</v>
       </c>
       <c r="G215" s="6" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="H215" s="6" t="n">
-        <v>61</v>
-      </c>
-      <c r="I215" s="6" t="n">
-        <v>60.5</v>
-      </c>
+        <v>59.7</v>
+      </c>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
       <c r="J215" s="6" t="n">
-        <v>59.6</v>
+        <v>58.5</v>
       </c>
       <c r="K215" s="6" t="n">
-        <v>59.7</v>
+        <v>58.9</v>
       </c>
       <c r="L215" s="6" t="n">
-        <v>59.9</v>
+        <v>59.1</v>
       </c>
       <c r="M215" s="6" t="n">
-        <v>60.8</v>
+        <v>60.2</v>
       </c>
       <c r="N215" s="6" t="n">
-        <v>60.6</v>
+        <v>60.2</v>
       </c>
       <c r="O215" s="6" t="n">
-        <v>60</v>
+        <v>59.5</v>
       </c>
       <c r="P215" s="6" t="n">
-        <v>59.6</v>
+        <v>59.2</v>
       </c>
       <c r="Q215" s="6" t="n">
-        <v>58.6</v>
-      </c>
-      <c r="R215" s="5"/>
+        <v>58.1</v>
+      </c>
+      <c r="R215" s="6" t="n">
+        <v>59.8</v>
+      </c>
       <c r="S215" s="4" t="s">
         <v>26</v>
       </c>
@@ -12312,39 +12322,37 @@
         <v>25</v>
       </c>
       <c r="G216" s="6" t="n">
-        <v>41.4</v>
-      </c>
-      <c r="H216" s="6" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="I216" s="6" t="n">
-        <v>41.7</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
       <c r="J216" s="6" t="n">
-        <v>42.2</v>
+        <v>41.8</v>
       </c>
       <c r="K216" s="6" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="L216" s="6" t="n">
         <v>43.9</v>
       </c>
-      <c r="L216" s="6" t="n">
-        <v>44.2</v>
-      </c>
       <c r="M216" s="6" t="n">
-        <v>45.8</v>
+        <v>45.7</v>
       </c>
       <c r="N216" s="6" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="O216" s="6" t="n">
-        <v>49.2</v>
+        <v>49.3</v>
       </c>
       <c r="P216" s="6" t="n">
         <v>49.9</v>
       </c>
       <c r="Q216" s="6" t="n">
-        <v>49.3</v>
-      </c>
-      <c r="R216" s="5"/>
+        <v>49.2</v>
+      </c>
+      <c r="R216" s="6" t="n">
+        <v>51</v>
+      </c>
       <c r="S216" s="4" t="s">
         <v>26</v>
       </c>
@@ -12369,39 +12377,37 @@
         <v>25</v>
       </c>
       <c r="G217" s="6" t="n">
-        <v>56.8</v>
-      </c>
-      <c r="H217" s="6" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="I217" s="6" t="n">
-        <v>54.9</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
       <c r="J217" s="6" t="n">
-        <v>53.7</v>
+        <v>50.6</v>
       </c>
       <c r="K217" s="6" t="n">
-        <v>54.3</v>
+        <v>51.4</v>
       </c>
       <c r="L217" s="6" t="n">
-        <v>54.6</v>
+        <v>52</v>
       </c>
       <c r="M217" s="6" t="n">
-        <v>54.4</v>
+        <v>52.2</v>
       </c>
       <c r="N217" s="6" t="n">
-        <v>54.7</v>
+        <v>52.8</v>
       </c>
       <c r="O217" s="6" t="n">
-        <v>54.3</v>
+        <v>52.7</v>
       </c>
       <c r="P217" s="6" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="Q217" s="6" t="n">
+        <v>51.3</v>
+      </c>
+      <c r="R217" s="6" t="n">
         <v>53.2</v>
       </c>
-      <c r="Q217" s="6" t="n">
-        <v>52.9</v>
-      </c>
-      <c r="R217" s="5"/>
       <c r="S217" s="4" t="s">
         <v>26</v>
       </c>
@@ -12426,39 +12432,37 @@
         <v>25</v>
       </c>
       <c r="G218" s="6" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="H218" s="6" t="n">
-        <v>16</v>
-      </c>
-      <c r="I218" s="6" t="n">
-        <v>15.7</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
       <c r="J218" s="6" t="n">
-        <v>14.9</v>
+        <v>13</v>
       </c>
       <c r="K218" s="6" t="n">
-        <v>14.8</v>
+        <v>13.3</v>
       </c>
       <c r="L218" s="6" t="n">
-        <v>15.1</v>
+        <v>13.8</v>
       </c>
       <c r="M218" s="6" t="n">
-        <v>14.6</v>
+        <v>13.7</v>
       </c>
       <c r="N218" s="6" t="n">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="O218" s="6" t="n">
-        <v>14.9</v>
+        <v>14.5</v>
       </c>
       <c r="P218" s="6" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="Q218" s="6" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="R218" s="5"/>
+        <v>14.7</v>
+      </c>
+      <c r="R218" s="6" t="n">
+        <v>16.5</v>
+      </c>
       <c r="S218" s="4" t="s">
         <v>26</v>
       </c>
@@ -13060,39 +13064,37 @@
         <v>25</v>
       </c>
       <c r="G230" s="6" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="6" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="K230" s="6" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="L230" s="6" t="n">
         <v>55.3</v>
       </c>
-      <c r="H230" s="6" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="I230" s="6" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="J230" s="6" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="K230" s="6" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="L230" s="6" t="n">
-        <v>56.2</v>
-      </c>
       <c r="M230" s="6" t="n">
-        <v>56.2</v>
+        <v>55.6</v>
       </c>
       <c r="N230" s="6" t="n">
-        <v>56.4</v>
+        <v>56</v>
       </c>
       <c r="O230" s="6" t="n">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="P230" s="6" t="n">
-        <v>56.2</v>
+        <v>56</v>
       </c>
       <c r="Q230" s="6" t="n">
-        <v>56.1</v>
-      </c>
-      <c r="R230" s="5"/>
+        <v>55.8</v>
+      </c>
+      <c r="R230" s="6" t="n">
+        <v>57.8</v>
+      </c>
       <c r="S230" s="4" t="s">
         <v>26</v>
       </c>
@@ -13117,25 +13119,21 @@
         <v>25</v>
       </c>
       <c r="G231" s="6" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="H231" s="6" t="n">
+        <v>46.3</v>
+      </c>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="6" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="K231" s="6" t="n">
         <v>47.8</v>
       </c>
-      <c r="I231" s="6" t="n">
+      <c r="L231" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="M231" s="6" t="n">
         <v>48.1</v>
-      </c>
-      <c r="J231" s="6" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="K231" s="6" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L231" s="6" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="M231" s="6" t="n">
-        <v>48.3</v>
       </c>
       <c r="N231" s="6" t="n">
         <v>48.4</v>
@@ -13144,12 +13142,14 @@
         <v>48.5</v>
       </c>
       <c r="P231" s="6" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="Q231" s="6" t="n">
         <v>47.9</v>
       </c>
-      <c r="R231" s="5"/>
+      <c r="R231" s="6" t="n">
+        <v>50.2</v>
+      </c>
       <c r="S231" s="4" t="s">
         <v>26</v>
       </c>
@@ -13174,39 +13174,37 @@
         <v>25</v>
       </c>
       <c r="G232" s="6" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="H232" s="6" t="n">
-        <v>64</v>
-      </c>
-      <c r="I232" s="6" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="6" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="K232" s="6" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="L232" s="6" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="M232" s="6" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="N232" s="6" t="n">
         <v>64.3</v>
       </c>
-      <c r="J232" s="6" t="n">
+      <c r="O232" s="6" t="n">
+        <v>64.2</v>
+      </c>
+      <c r="P232" s="6" t="n">
         <v>64.4</v>
       </c>
-      <c r="K232" s="6" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="L232" s="6" t="n">
-        <v>64.6</v>
-      </c>
-      <c r="M232" s="6" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="N232" s="6" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="O232" s="6" t="n">
-        <v>64.9</v>
-      </c>
-      <c r="P232" s="6" t="n">
-        <v>65</v>
-      </c>
       <c r="Q232" s="6" t="n">
-        <v>65.1</v>
-      </c>
-      <c r="R232" s="5"/>
+        <v>64.3</v>
+      </c>
+      <c r="R232" s="6" t="n">
+        <v>66</v>
+      </c>
       <c r="S232" s="4" t="s">
         <v>26</v>
       </c>
@@ -13231,39 +13229,37 @@
         <v>25</v>
       </c>
       <c r="G233" s="6" t="n">
-        <v>55.2</v>
-      </c>
-      <c r="H233" s="6" t="n">
-        <v>55.4</v>
-      </c>
-      <c r="I233" s="6" t="n">
-        <v>55.7</v>
-      </c>
+        <v>55.5</v>
+      </c>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
       <c r="J233" s="6" t="n">
-        <v>55.8</v>
+        <v>56.1</v>
       </c>
       <c r="K233" s="6" t="n">
-        <v>56.2</v>
+        <v>56.6</v>
       </c>
       <c r="L233" s="6" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="M233" s="6" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="N233" s="6" t="n">
+        <v>56.8</v>
+      </c>
+      <c r="O233" s="6" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="P233" s="6" t="n">
+        <v>56.7</v>
+      </c>
+      <c r="Q233" s="6" t="n">
         <v>56.3</v>
       </c>
-      <c r="M233" s="6" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="N233" s="6" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="O233" s="6" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="P233" s="6" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="Q233" s="6" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="R233" s="5"/>
+      <c r="R233" s="6" t="n">
+        <v>58</v>
+      </c>
       <c r="S233" s="4" t="s">
         <v>26</v>
       </c>
@@ -13288,39 +13284,37 @@
         <v>25</v>
       </c>
       <c r="G234" s="6" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="H234" s="6" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="I234" s="6" t="n">
-        <v>56.1</v>
-      </c>
+        <v>50.6</v>
+      </c>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
       <c r="J234" s="6" t="n">
-        <v>56.1</v>
+        <v>52.5</v>
       </c>
       <c r="K234" s="6" t="n">
-        <v>56.3</v>
+        <v>53.1</v>
       </c>
       <c r="L234" s="6" t="n">
-        <v>56</v>
+        <v>53.3</v>
       </c>
       <c r="M234" s="6" t="n">
-        <v>56.2</v>
+        <v>54.1</v>
       </c>
       <c r="N234" s="6" t="n">
-        <v>56.5</v>
+        <v>54.8</v>
       </c>
       <c r="O234" s="6" t="n">
-        <v>56.2</v>
+        <v>54.7</v>
       </c>
       <c r="P234" s="6" t="n">
-        <v>56.2</v>
+        <v>54.8</v>
       </c>
       <c r="Q234" s="6" t="n">
-        <v>56.3</v>
-      </c>
-      <c r="R234" s="5"/>
+        <v>54.9</v>
+      </c>
+      <c r="R234" s="6" t="n">
+        <v>57.4</v>
+      </c>
       <c r="S234" s="4" t="s">
         <v>26</v>
       </c>
@@ -13345,39 +13339,37 @@
         <v>25</v>
       </c>
       <c r="G235" s="6" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="H235" s="6" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="6" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="K235" s="6" t="n">
         <v>33.5</v>
       </c>
-      <c r="I235" s="6" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="J235" s="6" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="K235" s="6" t="n">
-        <v>33.9</v>
-      </c>
       <c r="L235" s="6" t="n">
-        <v>32.8</v>
+        <v>32.5</v>
       </c>
       <c r="M235" s="6" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="N235" s="6" t="n">
         <v>34.5</v>
       </c>
-      <c r="N235" s="6" t="n">
-        <v>34.8</v>
-      </c>
       <c r="O235" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="P235" s="6" t="n">
         <v>35.1</v>
       </c>
-      <c r="P235" s="6" t="n">
-        <v>35.2</v>
-      </c>
       <c r="Q235" s="6" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="R235" s="5"/>
+        <v>31.6</v>
+      </c>
+      <c r="R235" s="6" t="n">
+        <v>31</v>
+      </c>
       <c r="S235" s="4" t="s">
         <v>26</v>
       </c>
@@ -13402,39 +13394,37 @@
         <v>25</v>
       </c>
       <c r="G236" s="6" t="n">
-        <v>71.6</v>
-      </c>
-      <c r="H236" s="6" t="n">
-        <v>72.1</v>
-      </c>
-      <c r="I236" s="6" t="n">
-        <v>72.9</v>
-      </c>
+        <v>69.6</v>
+      </c>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
       <c r="J236" s="6" t="n">
-        <v>73.5</v>
+        <v>71.8</v>
       </c>
       <c r="K236" s="6" t="n">
-        <v>74.3</v>
+        <v>72.8</v>
       </c>
       <c r="L236" s="6" t="n">
-        <v>74.5</v>
+        <v>73.1</v>
       </c>
       <c r="M236" s="6" t="n">
-        <v>75.2</v>
+        <v>74</v>
       </c>
       <c r="N236" s="6" t="n">
-        <v>75.9</v>
+        <v>75</v>
       </c>
       <c r="O236" s="6" t="n">
-        <v>76.6</v>
+        <v>75.8</v>
       </c>
       <c r="P236" s="6" t="n">
-        <v>77.1</v>
+        <v>76.4</v>
       </c>
       <c r="Q236" s="6" t="n">
-        <v>77.4</v>
-      </c>
-      <c r="R236" s="5"/>
+        <v>76.5</v>
+      </c>
+      <c r="R236" s="6" t="n">
+        <v>79.4</v>
+      </c>
       <c r="S236" s="4" t="s">
         <v>26</v>
       </c>
@@ -13459,39 +13449,37 @@
         <v>25</v>
       </c>
       <c r="G237" s="6" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="H237" s="6" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="I237" s="6" t="n">
-        <v>34</v>
-      </c>
+        <v>30.6</v>
+      </c>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
       <c r="J237" s="6" t="n">
-        <v>34.2</v>
+        <v>32.5</v>
       </c>
       <c r="K237" s="6" t="n">
-        <v>34.3</v>
+        <v>33.1</v>
       </c>
       <c r="L237" s="6" t="n">
-        <v>34.4</v>
+        <v>33.4</v>
       </c>
       <c r="M237" s="6" t="n">
-        <v>34.1</v>
+        <v>33.3</v>
       </c>
       <c r="N237" s="6" t="n">
-        <v>34.4</v>
+        <v>33.8</v>
       </c>
       <c r="O237" s="6" t="n">
-        <v>33.8</v>
+        <v>33.3</v>
       </c>
       <c r="P237" s="6" t="n">
-        <v>33.4</v>
+        <v>33</v>
       </c>
       <c r="Q237" s="6" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="R237" s="5"/>
+        <v>33.3</v>
+      </c>
+      <c r="R237" s="6" t="n">
+        <v>35.6</v>
+      </c>
       <c r="S237" s="4" t="s">
         <v>26</v>
       </c>
@@ -13516,39 +13504,37 @@
         <v>25</v>
       </c>
       <c r="G238" s="6" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H238" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="I238" s="6" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="6" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="K238" s="6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L238" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="M238" s="6" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="N238" s="6" t="n">
         <v>17.4</v>
       </c>
-      <c r="J238" s="6" t="n">
-        <v>17.3</v>
-      </c>
-      <c r="K238" s="6" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="L238" s="6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="M238" s="6" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="N238" s="6" t="n">
-        <v>17.6</v>
-      </c>
       <c r="O238" s="6" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="P238" s="6" t="n">
         <v>17.1</v>
       </c>
       <c r="Q238" s="6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="R238" s="5"/>
+        <v>17.4</v>
+      </c>
+      <c r="R238" s="6" t="n">
+        <v>19.5</v>
+      </c>
       <c r="S238" s="4" t="s">
         <v>26</v>
       </c>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="402">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -775,6 +775,9 @@
     <t>65-69 lat</t>
   </si>
   <si>
+    <t>wg poziomu wykształcenia</t>
+  </si>
+  <si>
     <t>policealne oraz średnie zawodowe</t>
   </si>
   <si>
@@ -1225,7 +1228,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 30-08-2022, 14:24</t>
+    <t>Ostatnia aktualizacja: 06-09-2022, 11:45</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1772,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12755,7 +12758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>230</v>
       </c>
@@ -12766,7 +12769,7 @@
         <v>241</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>44</v>
@@ -12815,7 +12818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>230</v>
       </c>
@@ -12826,10 +12829,10 @@
         <v>241</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>26</v>
@@ -12875,7 +12878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>230</v>
       </c>
@@ -12886,7 +12889,7 @@
         <v>241</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>178</v>
@@ -12935,7 +12938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>230</v>
       </c>
@@ -12946,7 +12949,7 @@
         <v>241</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="E217" s="3" t="s">
         <v>42</v>
@@ -13006,10 +13009,10 @@
         <v>241</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>26</v>
@@ -13060,10 +13063,10 @@
         <v>230</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>91</v>
@@ -13118,10 +13121,10 @@
         <v>230</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>91</v>
@@ -13176,10 +13179,10 @@
         <v>230</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>91</v>
@@ -13234,10 +13237,10 @@
         <v>230</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>31</v>
@@ -13294,10 +13297,10 @@
         <v>230</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>31</v>
@@ -13354,10 +13357,10 @@
         <v>230</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>31</v>
@@ -13414,10 +13417,10 @@
         <v>230</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>91</v>
@@ -13462,10 +13465,10 @@
         <v>230</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>91</v>
@@ -13510,10 +13513,10 @@
         <v>230</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>91</v>
@@ -13558,10 +13561,10 @@
         <v>230</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>31</v>
@@ -13606,10 +13609,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>31</v>
@@ -13654,10 +13657,10 @@
         <v>230</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>91</v>
@@ -13714,10 +13717,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>91</v>
@@ -13774,10 +13777,10 @@
         <v>230</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>91</v>
@@ -13834,10 +13837,10 @@
         <v>230</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>31</v>
@@ -13894,10 +13897,10 @@
         <v>230</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>31</v>
@@ -13954,16 +13957,16 @@
         <v>230</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>26</v>
@@ -14014,16 +14017,16 @@
         <v>230</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>26</v>
@@ -14074,16 +14077,16 @@
         <v>230</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>26</v>
@@ -14134,16 +14137,16 @@
         <v>230</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F238" s="3" t="s">
         <v>26</v>
@@ -14194,10 +14197,10 @@
         <v>230</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>91</v>
@@ -14254,10 +14257,10 @@
         <v>230</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>91</v>
@@ -14314,10 +14317,10 @@
         <v>230</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>91</v>
@@ -14374,10 +14377,10 @@
         <v>230</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>31</v>
@@ -14434,10 +14437,10 @@
         <v>230</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>31</v>
@@ -14494,10 +14497,10 @@
         <v>230</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>91</v>
@@ -14554,10 +14557,10 @@
         <v>230</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>91</v>
@@ -14614,10 +14617,10 @@
         <v>230</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>91</v>
@@ -14674,10 +14677,10 @@
         <v>230</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>91</v>
@@ -14732,10 +14735,10 @@
         <v>230</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>91</v>
@@ -14790,10 +14793,10 @@
         <v>230</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>91</v>
@@ -14848,10 +14851,10 @@
         <v>230</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>91</v>
@@ -14906,10 +14909,10 @@
         <v>230</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>91</v>
@@ -14964,10 +14967,10 @@
         <v>230</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>91</v>
@@ -15019,13 +15022,13 @@
     </row>
     <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>46</v>
@@ -15072,18 +15075,18 @@
       </c>
       <c r="S253" s="3"/>
       <c r="T253" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>46</v>
@@ -15135,13 +15138,13 @@
     </row>
     <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>46</v>
@@ -15193,13 +15196,13 @@
     </row>
     <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>46</v>
@@ -15251,13 +15254,13 @@
     </row>
     <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>46</v>
@@ -15309,13 +15312,13 @@
     </row>
     <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>46</v>
@@ -15362,18 +15365,18 @@
       <c r="R258" s="3"/>
       <c r="S258" s="3"/>
       <c r="T258" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>46</v>
@@ -15425,13 +15428,13 @@
     </row>
     <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>46</v>
@@ -15474,18 +15477,18 @@
       <c r="R260" s="3"/>
       <c r="S260" s="3"/>
       <c r="T260" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>46</v>
@@ -15494,7 +15497,7 @@
         <v>25</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G261" s="4">
         <v>4.9000000000000004</v>
@@ -15537,13 +15540,13 @@
     </row>
     <row r="262" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>46</v>
@@ -15595,13 +15598,13 @@
     </row>
     <row r="263" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>46</v>
@@ -15653,13 +15656,13 @@
     </row>
     <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>46</v>
@@ -15707,13 +15710,13 @@
     </row>
     <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>31</v>
@@ -15722,7 +15725,7 @@
         <v>25</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G265" s="4">
         <v>31.1</v>
@@ -15765,13 +15768,13 @@
     </row>
     <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>31</v>
@@ -15780,7 +15783,7 @@
         <v>32</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G266" s="3"/>
       <c r="H266" s="3"/>
@@ -15813,13 +15816,13 @@
     </row>
     <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>31</v>
@@ -15828,7 +15831,7 @@
         <v>33</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G267" s="3"/>
       <c r="H267" s="3"/>
@@ -15861,22 +15864,22 @@
     </row>
     <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D268" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F268" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="G268" s="3"/>
       <c r="H268" s="3"/>
@@ -15907,22 +15910,22 @@
     </row>
     <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D269" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F269" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E269" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="G269" s="3"/>
       <c r="H269" s="3"/>
@@ -15953,22 +15956,22 @@
     </row>
     <row r="270" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D270" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F270" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E270" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="G270" s="3"/>
       <c r="H270" s="3"/>
@@ -15999,22 +16002,22 @@
     </row>
     <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D271" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F271" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="G271" s="3"/>
       <c r="H271" s="3"/>
@@ -16045,22 +16048,22 @@
     </row>
     <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D272" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F272" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E272" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="G272" s="3"/>
       <c r="H272" s="3"/>
@@ -16091,22 +16094,22 @@
     </row>
     <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D273" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F273" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E273" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="G273" s="3"/>
       <c r="H273" s="3"/>
@@ -16137,22 +16140,22 @@
     </row>
     <row r="274" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D274" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F274" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="G274" s="3"/>
       <c r="H274" s="3"/>
@@ -16183,13 +16186,13 @@
     </row>
     <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>46</v>
@@ -16239,13 +16242,13 @@
     </row>
     <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>46</v>
@@ -16254,7 +16257,7 @@
         <v>25</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G276" s="4">
         <v>24.7</v>
@@ -16297,13 +16300,13 @@
     </row>
     <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>46</v>
@@ -16355,13 +16358,13 @@
     </row>
     <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>46</v>
@@ -16413,13 +16416,13 @@
     </row>
     <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>46</v>
@@ -16466,24 +16469,24 @@
       <c r="R279" s="3"/>
       <c r="S279" s="3"/>
       <c r="T279" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F280" s="3" t="s">
         <v>26</v>
@@ -16529,19 +16532,19 @@
     </row>
     <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F281" s="3" t="s">
         <v>26</v>
@@ -16587,19 +16590,19 @@
     </row>
     <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>26</v>
@@ -16645,19 +16648,19 @@
     </row>
     <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>26</v>
@@ -16703,13 +16706,13 @@
     </row>
     <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>46</v>
@@ -16761,13 +16764,13 @@
     </row>
     <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>46</v>
@@ -16776,7 +16779,7 @@
         <v>25</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G285" s="4">
         <v>20.8</v>
@@ -16819,13 +16822,13 @@
     </row>
     <row r="286" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>46</v>
@@ -16834,7 +16837,7 @@
         <v>25</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G286" s="5">
         <v>0.57999999999999996</v>
@@ -16879,13 +16882,13 @@
     </row>
     <row r="287" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>46</v>
@@ -16894,7 +16897,7 @@
         <v>25</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G287" s="5">
         <v>16.32</v>
@@ -16939,13 +16942,13 @@
     </row>
     <row r="288" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>46</v>
@@ -16997,13 +17000,13 @@
     </row>
     <row r="289" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>46</v>
@@ -17055,13 +17058,13 @@
     </row>
     <row r="290" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>46</v>
@@ -17070,7 +17073,7 @@
         <v>25</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G290" s="4">
         <v>100</v>
@@ -17108,18 +17111,18 @@
       <c r="R290" s="3"/>
       <c r="S290" s="3"/>
       <c r="T290" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="291" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>46</v>
@@ -17128,7 +17131,7 @@
         <v>25</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G291" s="4">
         <v>100</v>
@@ -17166,18 +17169,18 @@
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
       <c r="T291" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>46</v>
@@ -17229,13 +17232,13 @@
     </row>
     <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>46</v>
@@ -17244,7 +17247,7 @@
         <v>25</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G293" s="6">
         <v>563</v>
@@ -17287,19 +17290,19 @@
     </row>
     <row r="294" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>26</v>
@@ -17345,19 +17348,19 @@
     </row>
     <row r="295" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>26</v>
@@ -17403,19 +17406,19 @@
     </row>
     <row r="296" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>26</v>
@@ -17461,19 +17464,19 @@
     </row>
     <row r="297" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F297" s="3" t="s">
         <v>26</v>
@@ -17519,13 +17522,13 @@
     </row>
     <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>46</v>
@@ -17534,7 +17537,7 @@
         <v>25</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G298" s="4">
         <v>100</v>
@@ -17577,13 +17580,13 @@
     </row>
     <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>46</v>
@@ -17592,7 +17595,7 @@
         <v>25</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G299" s="4">
         <v>59.5</v>
@@ -17635,13 +17638,13 @@
     </row>
     <row r="300" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>46</v>
@@ -17650,7 +17653,7 @@
         <v>25</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G300" s="4">
         <v>88.8</v>
@@ -17693,13 +17696,13 @@
     </row>
     <row r="301" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>46</v>
@@ -17748,18 +17751,18 @@
       </c>
       <c r="S301" s="3"/>
       <c r="T301" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="302" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>46</v>
@@ -17813,13 +17816,13 @@
     </row>
     <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>46</v>
@@ -17871,13 +17874,13 @@
     </row>
     <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>31</v>
@@ -17929,13 +17932,13 @@
     </row>
     <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>31</v>
@@ -17987,13 +17990,13 @@
     </row>
     <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>31</v>
@@ -18045,13 +18048,13 @@
     </row>
     <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>46</v>
@@ -18103,13 +18106,13 @@
     </row>
     <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>46</v>
@@ -18160,18 +18163,18 @@
         <v>83</v>
       </c>
       <c r="T308" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>46</v>
@@ -18208,18 +18211,18 @@
       <c r="R309" s="3"/>
       <c r="S309" s="3"/>
       <c r="T309" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>46</v>
@@ -18228,7 +18231,7 @@
         <v>25</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G310" s="5">
         <v>0.98</v>
@@ -18271,13 +18274,13 @@
     </row>
     <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>46</v>
@@ -18286,7 +18289,7 @@
         <v>25</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G311" s="6">
         <v>830</v>
@@ -18327,13 +18330,13 @@
     </row>
     <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>46</v>
@@ -18342,7 +18345,7 @@
         <v>25</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G312" s="5">
         <v>0.63</v>
@@ -18385,13 +18388,13 @@
     </row>
     <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>91</v>
@@ -18445,13 +18448,13 @@
     </row>
     <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>91</v>
@@ -18505,13 +18508,13 @@
     </row>
     <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>91</v>
@@ -18565,13 +18568,13 @@
     </row>
     <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>31</v>
@@ -18625,13 +18628,13 @@
     </row>
     <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>31</v>
@@ -18685,19 +18688,19 @@
     </row>
     <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>26</v>
@@ -18745,19 +18748,19 @@
     </row>
     <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>26</v>
@@ -18805,19 +18808,19 @@
     </row>
     <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>26</v>
@@ -18865,19 +18868,19 @@
     </row>
     <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>26</v>
@@ -18925,19 +18928,19 @@
     </row>
     <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>26</v>
@@ -18985,19 +18988,19 @@
     </row>
     <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>26</v>
@@ -19045,13 +19048,13 @@
     </row>
     <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>182</v>
@@ -19105,13 +19108,13 @@
     </row>
     <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>182</v>
@@ -19165,13 +19168,13 @@
     </row>
     <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>182</v>
@@ -19225,13 +19228,13 @@
     </row>
     <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>184</v>
@@ -19285,13 +19288,13 @@
     </row>
     <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>184</v>
@@ -19345,13 +19348,13 @@
     </row>
     <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>184</v>
@@ -19405,13 +19408,13 @@
     </row>
     <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>184</v>
@@ -19465,13 +19468,13 @@
     </row>
     <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>46</v>
@@ -19525,13 +19528,13 @@
     </row>
     <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>46</v>
@@ -19540,7 +19543,7 @@
         <v>25</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G332" s="5">
         <v>377.75</v>
@@ -19580,18 +19583,18 @@
       </c>
       <c r="S332" s="3"/>
       <c r="T332" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>46</v>
@@ -19600,7 +19603,7 @@
         <v>25</v>
       </c>
       <c r="F333" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G333" s="5">
         <v>96.04</v>
@@ -19640,18 +19643,18 @@
       </c>
       <c r="S333" s="3"/>
       <c r="T333" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="334" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>46</v>
@@ -19698,14 +19701,14 @@
       <c r="R334" s="3"/>
       <c r="S334" s="3"/>
       <c r="T334" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B337" s="8"/>
     </row>
@@ -19721,7 +19724,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1228,7 +1228,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 06-09-2022, 11:45</t>
+    <t>Ostatnia aktualizacja: 20-09-2022, 13:33</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1772,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:C3"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,15 +2995,33 @@
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="I23" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="K23" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M23" s="4">
+        <v>21</v>
+      </c>
+      <c r="N23" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="O23" s="4">
+        <v>28.7</v>
+      </c>
+      <c r="P23" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>37.5</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="2" t="s">
@@ -3031,15 +3049,33 @@
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="I24" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K24" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="L24" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="M24" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="N24" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O24" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="P24" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>9.6</v>
+      </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="2" t="s">
@@ -10827,15 +10863,33 @@
       </c>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-      <c r="M180" s="3"/>
-      <c r="N180" s="3"/>
-      <c r="O180" s="3"/>
-      <c r="P180" s="3"/>
-      <c r="Q180" s="3"/>
+      <c r="I180" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="J180" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="K180" s="4">
+        <v>16.3</v>
+      </c>
+      <c r="L180" s="4">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M180" s="4">
+        <v>21</v>
+      </c>
+      <c r="N180" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="O180" s="4">
+        <v>28.7</v>
+      </c>
+      <c r="P180" s="4">
+        <v>33.5</v>
+      </c>
+      <c r="Q180" s="4">
+        <v>37.5</v>
+      </c>
       <c r="R180" s="3"/>
       <c r="S180" s="3"/>
       <c r="T180" s="2" t="s">
@@ -10863,15 +10917,33 @@
       </c>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
-      <c r="M181" s="3"/>
-      <c r="N181" s="3"/>
-      <c r="O181" s="3"/>
-      <c r="P181" s="3"/>
-      <c r="Q181" s="3"/>
+      <c r="I181" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="J181" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K181" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="L181" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="M181" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="N181" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O181" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="P181" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="Q181" s="4">
+        <v>9.6</v>
+      </c>
       <c r="R181" s="3"/>
       <c r="S181" s="3"/>
       <c r="T181" s="2" t="s">
@@ -11168,7 +11240,9 @@
       <c r="Q186" s="4">
         <v>0.4</v>
       </c>
-      <c r="R186" s="3"/>
+      <c r="R186" s="4">
+        <v>0.5</v>
+      </c>
       <c r="S186" s="3"/>
       <c r="T186" s="2" t="s">
         <v>133</v>
@@ -19724,7 +19798,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1228,7 +1228,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 20-09-2022, 13:33</t>
+    <t>Ostatnia aktualizacja: 11-10-2022, 10:21</t>
   </si>
 </sst>
 </file>
@@ -1771,8 +1771,8 @@
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7845,12 +7845,14 @@
         <v>22</v>
       </c>
       <c r="P120" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q120" s="6">
         <v>19</v>
       </c>
-      <c r="R120" s="3"/>
+      <c r="R120" s="6">
+        <v>17</v>
+      </c>
       <c r="S120" s="3"/>
       <c r="T120" s="2" t="s">
         <v>147</v>
@@ -16825,12 +16827,14 @@
         <v>22</v>
       </c>
       <c r="P284" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q284" s="6">
         <v>19</v>
       </c>
-      <c r="R284" s="3"/>
+      <c r="R284" s="6">
+        <v>17</v>
+      </c>
       <c r="S284" s="3"/>
       <c r="T284" s="2" t="s">
         <v>147</v>
@@ -17935,12 +17939,14 @@
         <v>22</v>
       </c>
       <c r="P303" s="6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q303" s="6">
         <v>19</v>
       </c>
-      <c r="R303" s="3"/>
+      <c r="R303" s="6">
+        <v>17</v>
+      </c>
       <c r="S303" s="3"/>
       <c r="T303" s="2" t="s">
         <v>147</v>
@@ -19798,7 +19804,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1228,7 +1228,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 11-10-2022, 10:21</t>
+    <t>Ostatnia aktualizacja: 25-10-2022, 11:35</t>
   </si>
 </sst>
 </file>
@@ -1771,8 +1771,8 @@
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,7 +3422,7 @@
         <v>43</v>
       </c>
       <c r="Q30" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -3480,7 +3480,7 @@
         <v>2.66</v>
       </c>
       <c r="Q31" s="5">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -3598,7 +3598,9 @@
       <c r="Q33" s="4">
         <v>56.3</v>
       </c>
-      <c r="R33" s="3"/>
+      <c r="R33" s="4">
+        <v>57.9</v>
+      </c>
       <c r="S33" s="3"/>
       <c r="T33" s="2" t="s">
         <v>27</v>
@@ -3656,7 +3658,9 @@
       <c r="Q34" s="5">
         <v>3957.77</v>
       </c>
-      <c r="R34" s="3"/>
+      <c r="R34" s="5">
+        <v>4501.6099999999997</v>
+      </c>
       <c r="S34" s="3"/>
       <c r="T34" s="2" t="s">
         <v>27</v>
@@ -3714,7 +3718,9 @@
       <c r="Q35" s="5">
         <v>14.3</v>
       </c>
-      <c r="R35" s="3"/>
+      <c r="R35" s="5">
+        <v>13.05</v>
+      </c>
       <c r="S35" s="3"/>
       <c r="T35" s="2" t="s">
         <v>27</v>
@@ -3772,7 +3778,9 @@
       <c r="Q36" s="4">
         <v>53.9</v>
       </c>
-      <c r="R36" s="3"/>
+      <c r="R36" s="4">
+        <v>54.3</v>
+      </c>
       <c r="S36" s="3"/>
       <c r="T36" s="2" t="s">
         <v>27</v>
@@ -7647,7 +7655,9 @@
       <c r="P116" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q116" s="3"/>
+      <c r="Q116" s="4">
+        <v>4.5</v>
+      </c>
       <c r="R116" s="3"/>
       <c r="S116" s="3"/>
       <c r="T116" s="2" t="s">
@@ -7697,7 +7707,9 @@
       <c r="P117" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="Q117" s="3"/>
+      <c r="Q117" s="4">
+        <v>4.3</v>
+      </c>
       <c r="R117" s="3"/>
       <c r="S117" s="3"/>
       <c r="T117" s="2" t="s">
@@ -7747,7 +7759,9 @@
       <c r="P118" s="4">
         <v>0.2</v>
       </c>
-      <c r="Q118" s="3"/>
+      <c r="Q118" s="4">
+        <v>0.2</v>
+      </c>
       <c r="R118" s="3"/>
       <c r="S118" s="3"/>
       <c r="T118" s="2" t="s">
@@ -11302,7 +11316,9 @@
       <c r="Q187" s="4">
         <v>74.8</v>
       </c>
-      <c r="R187" s="3"/>
+      <c r="R187" s="4">
+        <v>75.2</v>
+      </c>
       <c r="S187" s="3"/>
       <c r="T187" s="2" t="s">
         <v>27</v>
@@ -11360,7 +11376,9 @@
       <c r="Q188" s="4">
         <v>94.7</v>
       </c>
-      <c r="R188" s="3"/>
+      <c r="R188" s="4">
+        <v>94.6</v>
+      </c>
       <c r="S188" s="3"/>
       <c r="T188" s="2" t="s">
         <v>27</v>
@@ -11418,7 +11436,9 @@
       <c r="Q189" s="4">
         <v>45.2</v>
       </c>
-      <c r="R189" s="3"/>
+      <c r="R189" s="4">
+        <v>46.3</v>
+      </c>
       <c r="S189" s="3"/>
       <c r="T189" s="2" t="s">
         <v>27</v>
@@ -11476,7 +11496,9 @@
       <c r="Q190" s="5">
         <v>73.319999999999993</v>
       </c>
-      <c r="R190" s="3"/>
+      <c r="R190" s="5">
+        <v>72.849999999999994</v>
+      </c>
       <c r="S190" s="3"/>
       <c r="T190" s="2" t="s">
         <v>27</v>
@@ -11824,7 +11846,9 @@
       <c r="Q196" s="4">
         <v>10.3</v>
       </c>
-      <c r="R196" s="3"/>
+      <c r="R196" s="4">
+        <v>11</v>
+      </c>
       <c r="S196" s="3"/>
       <c r="T196" s="2" t="s">
         <v>27</v>
@@ -13186,7 +13210,9 @@
       <c r="Q219" s="4">
         <v>73.900000000000006</v>
       </c>
-      <c r="R219" s="3"/>
+      <c r="R219" s="4">
+        <v>80.400000000000006</v>
+      </c>
       <c r="S219" s="3"/>
       <c r="T219" s="2" t="s">
         <v>27</v>
@@ -13244,7 +13270,9 @@
       <c r="Q220" s="4">
         <v>76.7</v>
       </c>
-      <c r="R220" s="3"/>
+      <c r="R220" s="4">
+        <v>84.2</v>
+      </c>
       <c r="S220" s="3"/>
       <c r="T220" s="2" t="s">
         <v>27</v>
@@ -13302,7 +13330,9 @@
       <c r="Q221" s="4">
         <v>71.5</v>
       </c>
-      <c r="R221" s="3"/>
+      <c r="R221" s="4">
+        <v>77.099999999999994</v>
+      </c>
       <c r="S221" s="3"/>
       <c r="T221" s="2" t="s">
         <v>27</v>
@@ -15149,7 +15179,9 @@
       <c r="R253" s="6">
         <v>40</v>
       </c>
-      <c r="S253" s="3"/>
+      <c r="S253" s="6">
+        <v>38</v>
+      </c>
       <c r="T253" s="2" t="s">
         <v>275</v>
       </c>
@@ -15438,7 +15470,9 @@
       <c r="Q258" s="4">
         <v>28.3</v>
       </c>
-      <c r="R258" s="3"/>
+      <c r="R258" s="4">
+        <v>34.200000000000003</v>
+      </c>
       <c r="S258" s="3"/>
       <c r="T258" s="2" t="s">
         <v>283</v>
@@ -15608,7 +15642,9 @@
       <c r="Q261" s="4">
         <v>13.6</v>
       </c>
-      <c r="R261" s="3"/>
+      <c r="R261" s="4">
+        <v>14.6</v>
+      </c>
       <c r="S261" s="3"/>
       <c r="T261" s="2" t="s">
         <v>27</v>
@@ -16542,7 +16578,9 @@
       <c r="Q279" s="4">
         <v>98.7</v>
       </c>
-      <c r="R279" s="3"/>
+      <c r="R279" s="4">
+        <v>109.5</v>
+      </c>
       <c r="S279" s="3"/>
       <c r="T279" s="2" t="s">
         <v>316</v>
@@ -16600,7 +16638,9 @@
       <c r="Q280" s="5">
         <v>26.68</v>
       </c>
-      <c r="R280" s="3"/>
+      <c r="R280" s="5">
+        <v>26.92</v>
+      </c>
       <c r="S280" s="3"/>
       <c r="T280" s="2" t="s">
         <v>27</v>
@@ -16658,7 +16698,9 @@
       <c r="Q281" s="5">
         <v>12.03</v>
       </c>
-      <c r="R281" s="3"/>
+      <c r="R281" s="5">
+        <v>13.34</v>
+      </c>
       <c r="S281" s="3"/>
       <c r="T281" s="2" t="s">
         <v>27</v>
@@ -16716,7 +16758,9 @@
       <c r="Q282" s="5">
         <v>21.52</v>
       </c>
-      <c r="R282" s="3"/>
+      <c r="R282" s="5">
+        <v>21.01</v>
+      </c>
       <c r="S282" s="3"/>
       <c r="T282" s="2" t="s">
         <v>27</v>
@@ -16774,7 +16818,9 @@
       <c r="Q283" s="5">
         <v>39.78</v>
       </c>
-      <c r="R283" s="3"/>
+      <c r="R283" s="5">
+        <v>38.729999999999997</v>
+      </c>
       <c r="S283" s="3"/>
       <c r="T283" s="2" t="s">
         <v>27</v>
@@ -17126,7 +17172,7 @@
         <v>2.66</v>
       </c>
       <c r="Q289" s="5">
-        <v>2.73</v>
+        <v>2.68</v>
       </c>
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
@@ -17418,7 +17464,9 @@
       <c r="Q294" s="6">
         <v>60</v>
       </c>
-      <c r="R294" s="3"/>
+      <c r="R294" s="6">
+        <v>67</v>
+      </c>
       <c r="S294" s="3"/>
       <c r="T294" s="2" t="s">
         <v>210</v>
@@ -17476,7 +17524,9 @@
       <c r="Q295" s="6">
         <v>20</v>
       </c>
-      <c r="R295" s="3"/>
+      <c r="R295" s="6">
+        <v>17</v>
+      </c>
       <c r="S295" s="3"/>
       <c r="T295" s="2" t="s">
         <v>210</v>
@@ -17534,7 +17584,9 @@
       <c r="Q296" s="6">
         <v>40</v>
       </c>
-      <c r="R296" s="3"/>
+      <c r="R296" s="6">
+        <v>17</v>
+      </c>
       <c r="S296" s="3"/>
       <c r="T296" s="2" t="s">
         <v>210</v>
@@ -17592,7 +17644,9 @@
       <c r="Q297" s="6">
         <v>40</v>
       </c>
-      <c r="R297" s="3"/>
+      <c r="R297" s="6">
+        <v>33</v>
+      </c>
       <c r="S297" s="3"/>
       <c r="T297" s="2" t="s">
         <v>210</v>
@@ -17708,7 +17762,9 @@
       <c r="Q299" s="4">
         <v>88.5</v>
       </c>
-      <c r="R299" s="3"/>
+      <c r="R299" s="4">
+        <v>96.7</v>
+      </c>
       <c r="S299" s="3"/>
       <c r="T299" s="2" t="s">
         <v>27</v>
@@ -17766,7 +17822,9 @@
       <c r="Q300" s="4">
         <v>80.3</v>
       </c>
-      <c r="R300" s="3"/>
+      <c r="R300" s="4">
+        <v>72</v>
+      </c>
       <c r="S300" s="3"/>
       <c r="T300" s="2" t="s">
         <v>147</v>
@@ -18004,7 +18062,9 @@
       <c r="Q304" s="4">
         <v>74.8</v>
       </c>
-      <c r="R304" s="3"/>
+      <c r="R304" s="4">
+        <v>75.2</v>
+      </c>
       <c r="S304" s="3"/>
       <c r="T304" s="2" t="s">
         <v>27</v>
@@ -18062,7 +18122,9 @@
       <c r="Q305" s="4">
         <v>94.7</v>
       </c>
-      <c r="R305" s="3"/>
+      <c r="R305" s="4">
+        <v>94.6</v>
+      </c>
       <c r="S305" s="3"/>
       <c r="T305" s="2" t="s">
         <v>27</v>
@@ -18120,7 +18182,9 @@
       <c r="Q306" s="4">
         <v>45.2</v>
       </c>
-      <c r="R306" s="3"/>
+      <c r="R306" s="4">
+        <v>46.3</v>
+      </c>
       <c r="S306" s="3"/>
       <c r="T306" s="2" t="s">
         <v>27</v>
@@ -18178,7 +18242,9 @@
       <c r="Q307" s="5">
         <v>73.319999999999993</v>
       </c>
-      <c r="R307" s="3"/>
+      <c r="R307" s="5">
+        <v>72.849999999999994</v>
+      </c>
       <c r="S307" s="3"/>
       <c r="T307" s="2" t="s">
         <v>27</v>
@@ -19778,7 +19844,9 @@
       <c r="Q334" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="R334" s="3"/>
+      <c r="R334" s="5">
+        <v>0.15</v>
+      </c>
       <c r="S334" s="3"/>
       <c r="T334" s="2" t="s">
         <v>397</v>
@@ -19804,7 +19872,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1228,20 +1223,20 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 25-10-2022, 11:35</t>
+    <t>Ostatnia aktualizacja: 15-11-2022, 08:48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10415]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10415]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1433,14 +1428,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1461,7 +1448,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1524,7 +1511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,10 +1543,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1591,7 +1577,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1767,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1775,7 +1760,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1788,17 +1773,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="36" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1860,7 +1845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="29.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1920,7 +1905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="29.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1980,7 +1965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="29.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="29.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2100,7 +2085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="29.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2160,7 +2145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="29.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2220,7 +2205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="39">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2280,7 +2265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="39">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2340,7 +2325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="39">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2400,7 +2385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="39">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2460,7 +2445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="39">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2520,7 +2505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="39">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2578,7 +2563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="39">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2636,7 +2621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="39">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2694,7 +2679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="39">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2752,7 +2737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="29.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2810,7 +2795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="29.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2864,7 +2849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="29.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2918,7 +2903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2968,13 +2953,15 @@
       <c r="Q22" s="4">
         <v>25.9</v>
       </c>
-      <c r="R22" s="3"/>
+      <c r="R22" s="4">
+        <v>28.8</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3028,7 +3015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3082,7 +3069,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="19.5">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3140,7 +3127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="19.5">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3198,7 +3185,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="19.5">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3256,7 +3243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="58.5">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -3314,7 +3301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="39">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -3372,7 +3359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="39">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3430,7 +3417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="48.75">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3488,7 +3475,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="29.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -3546,7 +3533,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="39">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -3606,7 +3593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="19.5">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -3666,7 +3653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="19.5">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -3726,7 +3713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="19.5">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -3786,7 +3773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="68.25">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
@@ -3846,7 +3833,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="68.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -3906,7 +3893,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="68.25">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -3966,7 +3953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="68.25">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -4026,7 +4013,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="68.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -4086,7 +4073,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="68.25">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
@@ -4146,7 +4133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="39">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -4188,7 +4175,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="39">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -4230,7 +4217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="39">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
@@ -4272,7 +4259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="39">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -4314,7 +4301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="19.5">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -4372,7 +4359,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="19.5">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -4430,7 +4417,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4488,7 +4475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4546,7 +4533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -4604,7 +4591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -4662,7 +4649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -4720,7 +4707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -4778,7 +4765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -4836,7 +4823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -4894,7 +4881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -4952,7 +4939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -5010,7 +4997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="19.5">
       <c r="A59" s="2" t="s">
         <v>96</v>
       </c>
@@ -5068,7 +5055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -5126,7 +5113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="19.5">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -5184,7 +5171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="19.5">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -5242,7 +5229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="19.5">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -5300,7 +5287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>96</v>
       </c>
@@ -5358,7 +5345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="19.5">
       <c r="A65" s="2" t="s">
         <v>96</v>
       </c>
@@ -5416,7 +5403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="19.5">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
@@ -5474,7 +5461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="19.5">
       <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
@@ -5532,7 +5519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="19.5">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5590,7 +5577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="19.5">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -5648,7 +5635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="19.5">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -5706,7 +5693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -5764,7 +5751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -5804,7 +5791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -5844,7 +5831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
@@ -5884,7 +5871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -5924,7 +5911,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="19.5">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -5964,7 +5951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="19.5">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -6004,7 +5991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>96</v>
       </c>
@@ -6044,7 +6031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -6084,7 +6071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -6124,7 +6111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>96</v>
       </c>
@@ -6164,7 +6151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="19.5">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -6204,7 +6191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="19.5">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -6244,7 +6231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>96</v>
       </c>
@@ -6284,7 +6271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="19.5">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -6326,7 +6313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -6368,7 +6355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -6410,7 +6397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -6452,7 +6439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -6494,7 +6481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
@@ -6536,7 +6523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -6578,7 +6565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
@@ -6620,7 +6607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -6662,7 +6649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -6704,7 +6691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -6746,7 +6733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="19.5">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -6788,7 +6775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="19.5">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -6830,7 +6817,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="19.5">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -6872,7 +6859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="19.5">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -6914,7 +6901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="19.5">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -6956,7 +6943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="19.5">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -6998,7 +6985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="19.5">
       <c r="A102" s="2" t="s">
         <v>96</v>
       </c>
@@ -7040,7 +7027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="19.5">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -7082,7 +7069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="19.5">
       <c r="A104" s="2" t="s">
         <v>96</v>
       </c>
@@ -7124,7 +7111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="19.5">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -7166,7 +7153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -7208,7 +7195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>96</v>
       </c>
@@ -7250,7 +7237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>96</v>
       </c>
@@ -7292,7 +7279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>96</v>
       </c>
@@ -7334,7 +7321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>96</v>
       </c>
@@ -7376,7 +7363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>96</v>
       </c>
@@ -7416,7 +7403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="19.5">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -7456,7 +7443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>96</v>
       </c>
@@ -7496,7 +7483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="19.5">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
@@ -7552,7 +7539,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="39">
       <c r="A115" s="2" t="s">
         <v>96</v>
       </c>
@@ -7612,7 +7599,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="29.25">
       <c r="A116" s="2" t="s">
         <v>96</v>
       </c>
@@ -7664,7 +7651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>96</v>
       </c>
@@ -7716,7 +7703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>96</v>
       </c>
@@ -7768,7 +7755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="29.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -7812,7 +7799,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="39">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
@@ -7872,7 +7859,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="29.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7932,7 +7919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="19.5">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -7992,7 +7979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="39">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8036,7 +8023,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="39">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8080,7 +8067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="39">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8124,7 +8111,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="39">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8168,7 +8155,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="39">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8212,7 +8199,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="39">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8256,7 +8243,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8316,7 +8303,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8376,7 +8363,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8436,7 +8423,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8496,7 +8483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8556,7 +8543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8616,7 +8603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8676,7 +8663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8736,7 +8723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8796,7 +8783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8856,7 +8843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8916,7 +8903,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8976,7 +8963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9036,7 +9023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9096,7 +9083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="78">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9136,7 +9123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="78">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9174,7 +9161,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="78">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9212,7 +9199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="78">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9250,7 +9237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="78">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9288,7 +9275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="78">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9326,7 +9313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="78">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9364,7 +9351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="78">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9412,7 +9399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="78">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9460,7 +9447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="78">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9508,7 +9495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="78">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9556,7 +9543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="78">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9604,7 +9591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="78">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9652,7 +9639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="78">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9700,7 +9687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="78">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9748,7 +9735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="78">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9796,7 +9783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="78">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9844,7 +9831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="78">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9892,7 +9879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="78">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9940,7 +9927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="78">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9988,7 +9975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="78">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -10036,7 +10023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="78">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -10084,7 +10071,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="78">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -10132,7 +10119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="78">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -10180,7 +10167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="78">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10228,7 +10215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>189</v>
       </c>
@@ -10286,7 +10273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>189</v>
       </c>
@@ -10346,7 +10333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="19.5">
       <c r="A170" s="2" t="s">
         <v>189</v>
       </c>
@@ -10406,7 +10393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="19.5">
       <c r="A171" s="2" t="s">
         <v>189</v>
       </c>
@@ -10466,7 +10453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="39">
       <c r="A172" s="2" t="s">
         <v>189</v>
       </c>
@@ -10514,7 +10501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="68.25">
       <c r="A173" s="2" t="s">
         <v>189</v>
       </c>
@@ -10562,7 +10549,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="48.75">
       <c r="A174" s="2" t="s">
         <v>189</v>
       </c>
@@ -10610,7 +10597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="39">
       <c r="A175" s="2" t="s">
         <v>189</v>
       </c>
@@ -10658,7 +10645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="39">
       <c r="A176" s="2" t="s">
         <v>189</v>
       </c>
@@ -10706,7 +10693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="39">
       <c r="A177" s="2" t="s">
         <v>189</v>
       </c>
@@ -10754,7 +10741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="68.25">
       <c r="A178" s="2" t="s">
         <v>189</v>
       </c>
@@ -10802,7 +10789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>189</v>
       </c>
@@ -10852,13 +10839,15 @@
       <c r="Q179" s="4">
         <v>25.9</v>
       </c>
-      <c r="R179" s="3"/>
+      <c r="R179" s="4">
+        <v>28.8</v>
+      </c>
       <c r="S179" s="3"/>
       <c r="T179" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="19.5">
       <c r="A180" s="2" t="s">
         <v>189</v>
       </c>
@@ -10912,7 +10901,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="19.5">
       <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
@@ -10966,7 +10955,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="29.25">
       <c r="A182" s="2" t="s">
         <v>189</v>
       </c>
@@ -11026,7 +11015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="29.25">
       <c r="A183" s="2" t="s">
         <v>189</v>
       </c>
@@ -11086,7 +11075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="29.25">
       <c r="A184" s="2" t="s">
         <v>189</v>
       </c>
@@ -11146,7 +11135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="19.5">
       <c r="A185" s="2" t="s">
         <v>206</v>
       </c>
@@ -11204,7 +11193,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="19.5">
       <c r="A186" s="2" t="s">
         <v>206</v>
       </c>
@@ -11264,7 +11253,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="48.75">
       <c r="A187" s="2" t="s">
         <v>206</v>
       </c>
@@ -11324,7 +11313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="48.75">
       <c r="A188" s="2" t="s">
         <v>206</v>
       </c>
@@ -11384,7 +11373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="48.75">
       <c r="A189" s="2" t="s">
         <v>206</v>
       </c>
@@ -11444,7 +11433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="48.75">
       <c r="A190" s="2" t="s">
         <v>206</v>
       </c>
@@ -11504,7 +11493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="39">
       <c r="A191" s="2" t="s">
         <v>215</v>
       </c>
@@ -11562,7 +11551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="29.25">
       <c r="A192" s="2" t="s">
         <v>215</v>
       </c>
@@ -11620,7 +11609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="29.25">
       <c r="A193" s="2" t="s">
         <v>215</v>
       </c>
@@ -11678,7 +11667,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="29.25">
       <c r="A194" s="2" t="s">
         <v>215</v>
       </c>
@@ -11736,7 +11725,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="29.25">
       <c r="A195" s="2" t="s">
         <v>215</v>
       </c>
@@ -11794,7 +11783,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>215</v>
       </c>
@@ -11854,7 +11843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="48.75">
       <c r="A197" s="2" t="s">
         <v>230</v>
       </c>
@@ -11912,7 +11901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="48.75">
       <c r="A198" s="2" t="s">
         <v>230</v>
       </c>
@@ -11970,7 +11959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="48.75">
       <c r="A199" s="2" t="s">
         <v>230</v>
       </c>
@@ -12026,7 +12015,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>230</v>
       </c>
@@ -12078,7 +12067,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="29.25">
       <c r="A201" s="2" t="s">
         <v>230</v>
       </c>
@@ -12138,7 +12127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="29.25">
       <c r="A202" s="2" t="s">
         <v>230</v>
       </c>
@@ -12198,7 +12187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="29.25">
       <c r="A203" s="2" t="s">
         <v>230</v>
       </c>
@@ -12258,7 +12247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>230</v>
       </c>
@@ -12318,7 +12307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="29.25">
       <c r="A205" s="2" t="s">
         <v>230</v>
       </c>
@@ -12378,7 +12367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>230</v>
       </c>
@@ -12438,7 +12427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>230</v>
       </c>
@@ -12498,7 +12487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>230</v>
       </c>
@@ -12558,7 +12547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="29.25">
       <c r="A209" s="2" t="s">
         <v>230</v>
       </c>
@@ -12618,7 +12607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="29.25">
       <c r="A210" s="2" t="s">
         <v>230</v>
       </c>
@@ -12678,7 +12667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="29.25">
       <c r="A211" s="2" t="s">
         <v>230</v>
       </c>
@@ -12738,7 +12727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>230</v>
       </c>
@@ -12798,7 +12787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>230</v>
       </c>
@@ -12858,7 +12847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>230</v>
       </c>
@@ -12918,7 +12907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>230</v>
       </c>
@@ -12978,7 +12967,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>230</v>
       </c>
@@ -13038,7 +13027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>230</v>
       </c>
@@ -13098,7 +13087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="39">
       <c r="A218" s="2" t="s">
         <v>230</v>
       </c>
@@ -13158,7 +13147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>230</v>
       </c>
@@ -13218,7 +13207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -13278,7 +13267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>230</v>
       </c>
@@ -13338,7 +13327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>230</v>
       </c>
@@ -13398,7 +13387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>230</v>
       </c>
@@ -13458,7 +13447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>230</v>
       </c>
@@ -13518,7 +13507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>230</v>
       </c>
@@ -13566,7 +13555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>230</v>
       </c>
@@ -13614,7 +13603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>230</v>
       </c>
@@ -13662,7 +13651,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
@@ -13710,7 +13699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>230</v>
       </c>
@@ -13758,7 +13747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="29.25">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -13818,7 +13807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -13878,7 +13867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="29.25">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -13938,7 +13927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>230</v>
       </c>
@@ -13998,7 +13987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>230</v>
       </c>
@@ -14058,7 +14047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>230</v>
       </c>
@@ -14118,7 +14107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>230</v>
       </c>
@@ -14178,7 +14167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>230</v>
       </c>
@@ -14238,7 +14227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>230</v>
       </c>
@@ -14298,7 +14287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>230</v>
       </c>
@@ -14358,7 +14347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>230</v>
       </c>
@@ -14418,7 +14407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>230</v>
       </c>
@@ -14478,7 +14467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>230</v>
       </c>
@@ -14538,7 +14527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>230</v>
       </c>
@@ -14598,7 +14587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>230</v>
       </c>
@@ -14658,7 +14647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>230</v>
       </c>
@@ -14718,7 +14707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>230</v>
       </c>
@@ -14778,7 +14767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>230</v>
       </c>
@@ -14797,46 +14786,26 @@
       <c r="F247" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G247" s="4">
-        <v>69</v>
-      </c>
-      <c r="H247" s="4">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="I247" s="4">
-        <v>70.3</v>
-      </c>
-      <c r="J247" s="4">
-        <v>71.8</v>
-      </c>
-      <c r="K247" s="4">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="L247" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="M247" s="4">
-        <v>75.7</v>
-      </c>
-      <c r="N247" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="O247" s="4">
-        <v>77.8</v>
-      </c>
-      <c r="P247" s="4">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="Q247" s="4">
-        <v>78.2</v>
-      </c>
-      <c r="R247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="4">
+        <v>80.599999999999994</v>
+      </c>
       <c r="S247" s="3"/>
       <c r="T247" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>230</v>
       </c>
@@ -14855,46 +14824,26 @@
       <c r="F248" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G248" s="4">
-        <v>67.5</v>
-      </c>
-      <c r="H248" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="I248" s="4">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="J248" s="4">
-        <v>72.2</v>
-      </c>
-      <c r="K248" s="4">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="L248" s="4">
-        <v>73.5</v>
-      </c>
-      <c r="M248" s="4">
-        <v>76.5</v>
-      </c>
-      <c r="N248" s="4">
-        <v>78.2</v>
-      </c>
-      <c r="O248" s="4">
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+      <c r="Q248" s="3"/>
+      <c r="R248" s="4">
         <v>79.2</v>
       </c>
-      <c r="P248" s="4">
-        <v>80</v>
-      </c>
-      <c r="Q248" s="4">
-        <v>79.7</v>
-      </c>
-      <c r="R248" s="3"/>
       <c r="S248" s="3"/>
       <c r="T248" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>230</v>
       </c>
@@ -14913,46 +14862,26 @@
       <c r="F249" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G249" s="4">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="H249" s="4">
-        <v>70.2</v>
-      </c>
-      <c r="I249" s="4">
-        <v>70.5</v>
-      </c>
-      <c r="J249" s="4">
-        <v>71.5</v>
-      </c>
-      <c r="K249" s="4">
-        <v>72.5</v>
-      </c>
-      <c r="L249" s="4">
-        <v>72.400000000000006</v>
-      </c>
-      <c r="M249" s="4">
-        <v>75</v>
-      </c>
-      <c r="N249" s="4">
-        <v>75.599999999999994</v>
-      </c>
-      <c r="O249" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="P249" s="4">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="Q249" s="4">
-        <v>77.2</v>
-      </c>
-      <c r="R249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="4">
+        <v>82.4</v>
+      </c>
       <c r="S249" s="3"/>
       <c r="T249" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>230</v>
       </c>
@@ -15010,7 +14939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>230</v>
       </c>
@@ -15068,7 +14997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>230</v>
       </c>
@@ -15126,7 +15055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="39">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -15186,7 +15115,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="39">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -15238,13 +15167,15 @@
       <c r="Q254" s="5">
         <v>1.39</v>
       </c>
-      <c r="R254" s="3"/>
+      <c r="R254" s="5">
+        <v>1.44</v>
+      </c>
       <c r="S254" s="3"/>
       <c r="T254" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="39">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -15302,7 +15233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="39">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -15360,7 +15291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="39">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -15418,7 +15349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="39">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -15478,7 +15409,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="39">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -15536,7 +15467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="39">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -15590,7 +15521,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="39">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -15650,7 +15581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>291</v>
       </c>
@@ -15708,7 +15639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>291</v>
       </c>
@@ -15766,7 +15697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="19.5">
       <c r="A264" s="2" t="s">
         <v>291</v>
       </c>
@@ -15820,7 +15751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="19.5">
       <c r="A265" s="2" t="s">
         <v>291</v>
       </c>
@@ -15878,7 +15809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="19.5">
       <c r="A266" s="2" t="s">
         <v>291</v>
       </c>
@@ -15926,7 +15857,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="19.5">
       <c r="A267" s="2" t="s">
         <v>291</v>
       </c>
@@ -15974,7 +15905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="29.25">
       <c r="A268" s="2" t="s">
         <v>291</v>
       </c>
@@ -16020,7 +15951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="29.25">
       <c r="A269" s="2" t="s">
         <v>291</v>
       </c>
@@ -16066,7 +15997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="29.25">
       <c r="A270" s="2" t="s">
         <v>291</v>
       </c>
@@ -16112,7 +16043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="29.25">
       <c r="A271" s="2" t="s">
         <v>291</v>
       </c>
@@ -16158,7 +16089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="29.25">
       <c r="A272" s="2" t="s">
         <v>291</v>
       </c>
@@ -16204,7 +16135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="29.25">
       <c r="A273" s="2" t="s">
         <v>291</v>
       </c>
@@ -16250,7 +16181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="39">
       <c r="A274" s="2" t="s">
         <v>291</v>
       </c>
@@ -16296,7 +16227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="39">
       <c r="A275" s="2" t="s">
         <v>308</v>
       </c>
@@ -16352,7 +16283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="39">
       <c r="A276" s="2" t="s">
         <v>308</v>
       </c>
@@ -16410,7 +16341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="39">
       <c r="A277" s="2" t="s">
         <v>308</v>
       </c>
@@ -16468,7 +16399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="39">
       <c r="A278" s="2" t="s">
         <v>308</v>
       </c>
@@ -16526,7 +16457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="39">
       <c r="A279" s="2" t="s">
         <v>308</v>
       </c>
@@ -16586,7 +16517,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="39">
       <c r="A280" s="2" t="s">
         <v>308</v>
       </c>
@@ -16646,7 +16577,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="39">
       <c r="A281" s="2" t="s">
         <v>308</v>
       </c>
@@ -16706,7 +16637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="39">
       <c r="A282" s="2" t="s">
         <v>308</v>
       </c>
@@ -16766,7 +16697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="39">
       <c r="A283" s="2" t="s">
         <v>308</v>
       </c>
@@ -16826,7 +16757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="58.5">
       <c r="A284" s="2" t="s">
         <v>308</v>
       </c>
@@ -16886,7 +16817,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="58.5">
       <c r="A285" s="2" t="s">
         <v>325</v>
       </c>
@@ -16944,7 +16875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="48.75">
       <c r="A286" s="2" t="s">
         <v>327</v>
       </c>
@@ -17004,7 +16935,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="48.75">
       <c r="A287" s="2" t="s">
         <v>327</v>
       </c>
@@ -17064,7 +16995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="48.75">
       <c r="A288" s="2" t="s">
         <v>327</v>
       </c>
@@ -17122,7 +17053,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="48.75">
       <c r="A289" s="2" t="s">
         <v>327</v>
       </c>
@@ -17180,7 +17111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="48.75">
       <c r="A290" s="2" t="s">
         <v>336</v>
       </c>
@@ -17238,7 +17169,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" ht="48.75">
       <c r="A291" s="2" t="s">
         <v>336</v>
       </c>
@@ -17296,7 +17227,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="29.25">
       <c r="A292" s="2" t="s">
         <v>336</v>
       </c>
@@ -17354,7 +17285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" ht="29.25">
       <c r="A293" s="2" t="s">
         <v>336</v>
       </c>
@@ -17412,7 +17343,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="87.75">
       <c r="A294" s="2" t="s">
         <v>346</v>
       </c>
@@ -17472,7 +17403,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="87.75">
       <c r="A295" s="2" t="s">
         <v>346</v>
       </c>
@@ -17532,7 +17463,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="87.75">
       <c r="A296" s="2" t="s">
         <v>346</v>
       </c>
@@ -17592,7 +17523,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="87.75">
       <c r="A297" s="2" t="s">
         <v>346</v>
       </c>
@@ -17652,7 +17583,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>346</v>
       </c>
@@ -17710,7 +17641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="29.25">
       <c r="A299" s="2" t="s">
         <v>346</v>
       </c>
@@ -17770,7 +17701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" ht="48.75">
       <c r="A300" s="2" t="s">
         <v>360</v>
       </c>
@@ -17830,7 +17761,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" ht="48.75">
       <c r="A301" s="2" t="s">
         <v>360</v>
       </c>
@@ -17890,7 +17821,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="48.75">
       <c r="A302" s="2" t="s">
         <v>360</v>
       </c>
@@ -17950,7 +17881,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="39">
       <c r="A303" s="2" t="s">
         <v>360</v>
       </c>
@@ -18010,7 +17941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="39">
       <c r="A304" s="2" t="s">
         <v>360</v>
       </c>
@@ -18070,7 +18001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="39">
       <c r="A305" s="2" t="s">
         <v>360</v>
       </c>
@@ -18130,7 +18061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="39">
       <c r="A306" s="2" t="s">
         <v>360</v>
       </c>
@@ -18190,7 +18121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" ht="39">
       <c r="A307" s="2" t="s">
         <v>360</v>
       </c>
@@ -18250,7 +18181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" ht="29.25">
       <c r="A308" s="2" t="s">
         <v>371</v>
       </c>
@@ -18312,7 +18243,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" ht="29.25">
       <c r="A309" s="2" t="s">
         <v>371</v>
       </c>
@@ -18360,7 +18291,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="29.25">
       <c r="A310" s="2" t="s">
         <v>371</v>
       </c>
@@ -18418,7 +18349,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="29.25">
       <c r="A311" s="2" t="s">
         <v>371</v>
       </c>
@@ -18474,7 +18405,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="29.25">
       <c r="A312" s="2" t="s">
         <v>371</v>
       </c>
@@ -18532,7 +18463,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="39">
       <c r="A313" s="2" t="s">
         <v>371</v>
       </c>
@@ -18592,7 +18523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="39">
       <c r="A314" s="2" t="s">
         <v>371</v>
       </c>
@@ -18652,7 +18583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="39">
       <c r="A315" s="2" t="s">
         <v>371</v>
       </c>
@@ -18712,7 +18643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="39">
       <c r="A316" s="2" t="s">
         <v>371</v>
       </c>
@@ -18772,7 +18703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="39">
       <c r="A317" s="2" t="s">
         <v>371</v>
       </c>
@@ -18832,7 +18763,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="39">
       <c r="A318" s="2" t="s">
         <v>371</v>
       </c>
@@ -18892,7 +18823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="39">
       <c r="A319" s="2" t="s">
         <v>371</v>
       </c>
@@ -18952,7 +18883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="39">
       <c r="A320" s="2" t="s">
         <v>371</v>
       </c>
@@ -19012,7 +18943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="39">
       <c r="A321" s="2" t="s">
         <v>371</v>
       </c>
@@ -19072,7 +19003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="39">
       <c r="A322" s="2" t="s">
         <v>371</v>
       </c>
@@ -19132,7 +19063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="39">
       <c r="A323" s="2" t="s">
         <v>371</v>
       </c>
@@ -19192,7 +19123,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="39">
       <c r="A324" s="2" t="s">
         <v>371</v>
       </c>
@@ -19252,7 +19183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="39">
       <c r="A325" s="2" t="s">
         <v>371</v>
       </c>
@@ -19312,7 +19243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="39">
       <c r="A326" s="2" t="s">
         <v>371</v>
       </c>
@@ -19372,7 +19303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="39">
       <c r="A327" s="2" t="s">
         <v>371</v>
       </c>
@@ -19432,7 +19363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="39">
       <c r="A328" s="2" t="s">
         <v>371</v>
       </c>
@@ -19492,7 +19423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="39">
       <c r="A329" s="2" t="s">
         <v>371</v>
       </c>
@@ -19552,7 +19483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="39">
       <c r="A330" s="2" t="s">
         <v>371</v>
       </c>
@@ -19612,7 +19543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" ht="29.25">
       <c r="A331" s="2" t="s">
         <v>371</v>
       </c>
@@ -19672,7 +19603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" ht="29.25">
       <c r="A332" s="2" t="s">
         <v>393</v>
       </c>
@@ -19732,7 +19663,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" ht="29.25">
       <c r="A333" s="2" t="s">
         <v>393</v>
       </c>
@@ -19792,7 +19723,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="48.75">
       <c r="A334" s="2" t="s">
         <v>393</v>
       </c>
@@ -19852,15 +19783,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
+    <row r="336" spans="1:20" ht="18" customHeight="1"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A337" s="10" t="s">
         <v>401</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1223,7 +1223,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 15-11-2022, 08:48</t>
+    <t>Ostatnia aktualizacja: 13-12-2022, 09:50</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T338"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
@@ -5596,38 +5596,20 @@
       <c r="F69" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G69" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="H69" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="I69" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="J69" s="4">
-        <v>22.1</v>
-      </c>
-      <c r="K69" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="L69" s="4">
-        <v>23</v>
-      </c>
-      <c r="M69" s="4">
-        <v>23.9</v>
-      </c>
-      <c r="N69" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="O69" s="4">
-        <v>23.3</v>
-      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
       <c r="P69" s="4">
-        <v>23.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="Q69" s="4">
-        <v>24.1</v>
+        <v>33.1</v>
       </c>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
@@ -5654,38 +5636,20 @@
       <c r="F70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G70" s="4">
-        <v>53.7</v>
-      </c>
-      <c r="H70" s="4">
-        <v>54.2</v>
-      </c>
-      <c r="I70" s="4">
-        <v>61.2</v>
-      </c>
-      <c r="J70" s="4">
-        <v>58</v>
-      </c>
-      <c r="K70" s="4">
-        <v>57.6</v>
-      </c>
-      <c r="L70" s="4">
-        <v>57.2</v>
-      </c>
-      <c r="M70" s="4">
-        <v>56.9</v>
-      </c>
-      <c r="N70" s="4">
-        <v>56.3</v>
-      </c>
-      <c r="O70" s="4">
-        <v>56.2</v>
-      </c>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
       <c r="P70" s="4">
-        <v>56.3</v>
+        <v>63</v>
       </c>
       <c r="Q70" s="4">
-        <v>56</v>
+        <v>62.6</v>
       </c>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\sdg_z_githuba\trunk\assets\excel\pl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1223,20 +1228,20 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 13-12-2022, 09:50</t>
+    <t>Ostatnia aktualizacja: 10-01-2023, 11:03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10415]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10415]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1428,6 +1433,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1448,7 +1461,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1511,7 +1524,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1543,9 +1556,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1577,6 +1591,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1752,15 +1767,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T338"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1773,17 +1788,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1">
+    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="25.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="29.25">
+    <row r="4" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="29.25">
+    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="29.25">
+    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="29.25">
+    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="29.25">
+    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="29.25">
+    <row r="9" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2205,7 +2220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="39">
+    <row r="10" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="39">
+    <row r="11" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="39">
+    <row r="12" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2385,7 +2400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="39">
+    <row r="13" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2445,7 +2460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="39">
+    <row r="14" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2505,7 +2520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="39">
+    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="39">
+    <row r="16" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="39">
+    <row r="17" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2679,7 +2694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="39">
+    <row r="18" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2737,7 +2752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="29.25">
+    <row r="19" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2795,7 +2810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="29.25">
+    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2849,7 +2864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="29.25">
+    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2903,7 +2918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="29.25">
+    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2961,7 +2976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="29.25">
+    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3015,7 +3030,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="29.25">
+    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3069,7 +3084,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19.5">
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3127,7 +3142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5">
+    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3185,7 +3200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5">
+    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3243,7 +3258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="58.5">
+    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -3301,7 +3316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="39">
+    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -3359,7 +3374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="39">
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3417,7 +3432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="48.75">
+    <row r="31" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3475,7 +3490,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="29.25">
+    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -3533,7 +3548,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="39">
+    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -3593,7 +3608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="19.5">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -3653,7 +3668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="19.5">
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -3713,7 +3728,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="19.5">
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -3773,7 +3788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="68.25">
+    <row r="37" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
@@ -3833,7 +3848,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="68.25">
+    <row r="38" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -3893,7 +3908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="68.25">
+    <row r="39" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -3953,7 +3968,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="68.25">
+    <row r="40" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -4013,7 +4028,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="68.25">
+    <row r="41" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -4073,7 +4088,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="68.25">
+    <row r="42" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
@@ -4133,7 +4148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="39">
+    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -4175,7 +4190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="39">
+    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -4217,7 +4232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="39">
+    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
@@ -4259,7 +4274,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="39">
+    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -4301,7 +4316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="19.5">
+    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -4359,7 +4374,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="19.5">
+    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -4417,7 +4432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="19.5">
+    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4475,7 +4490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="19.5">
+    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4533,7 +4548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="19.5">
+    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -4591,7 +4606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="19.5">
+    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -4649,7 +4664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="19.5">
+    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -4707,7 +4722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="19.5">
+    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -4765,7 +4780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="19.5">
+    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -4823,7 +4838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="19.5">
+    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -4881,7 +4896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="19.5">
+    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -4939,7 +4954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="19.5">
+    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -4997,7 +5012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="19.5">
+    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>96</v>
       </c>
@@ -5055,7 +5070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="19.5">
+    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -5113,7 +5128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="19.5">
+    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -5171,7 +5186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="19.5">
+    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -5229,7 +5244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="19.5">
+    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -5287,7 +5302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="19.5">
+    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>96</v>
       </c>
@@ -5345,7 +5360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="19.5">
+    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>96</v>
       </c>
@@ -5403,7 +5418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="19.5">
+    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
@@ -5461,7 +5476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="19.5">
+    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
@@ -5519,7 +5534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="19.5">
+    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5577,7 +5592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="19.5">
+    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -5617,7 +5632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="19.5">
+    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -5657,7 +5672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="29.25">
+    <row r="71" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -5715,7 +5730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="19.5">
+    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -5755,7 +5770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="19.5">
+    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -5795,7 +5810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="19.5">
+    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
@@ -5835,7 +5850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="19.5">
+    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -5875,7 +5890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="19.5">
+    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -5915,7 +5930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="19.5">
+    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -5955,7 +5970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="19.5">
+    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>96</v>
       </c>
@@ -5995,7 +6010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="19.5">
+    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -6035,7 +6050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="19.5">
+    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -6075,7 +6090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="19.5">
+    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>96</v>
       </c>
@@ -6115,7 +6130,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="19.5">
+    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -6155,7 +6170,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="19.5">
+    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -6195,7 +6210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="19.5">
+    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>96</v>
       </c>
@@ -6235,7 +6250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="19.5">
+    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -6277,7 +6292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="19.5">
+    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -6319,7 +6334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="19.5">
+    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -6361,7 +6376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="19.5">
+    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -6403,7 +6418,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="19.5">
+    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -6445,7 +6460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="19.5">
+    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
@@ -6487,7 +6502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="19.5">
+    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -6529,7 +6544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="19.5">
+    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
@@ -6571,7 +6586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="19.5">
+    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -6613,7 +6628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="19.5">
+    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -6655,7 +6670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="19.5">
+    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -6697,7 +6712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="19.5">
+    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -6739,7 +6754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="19.5">
+    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -6781,7 +6796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="19.5">
+    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -6823,7 +6838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="19.5">
+    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -6865,7 +6880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="19.5">
+    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -6907,7 +6922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="19.5">
+    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -6949,7 +6964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="19.5">
+    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>96</v>
       </c>
@@ -6991,7 +7006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="19.5">
+    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -7033,7 +7048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="19.5">
+    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>96</v>
       </c>
@@ -7075,7 +7090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="19.5">
+    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -7117,7 +7132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="19.5">
+    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -7159,7 +7174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="19.5">
+    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>96</v>
       </c>
@@ -7201,7 +7216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="19.5">
+    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>96</v>
       </c>
@@ -7243,7 +7258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="19.5">
+    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>96</v>
       </c>
@@ -7285,7 +7300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="19.5">
+    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>96</v>
       </c>
@@ -7327,7 +7342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="19.5">
+    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>96</v>
       </c>
@@ -7367,7 +7382,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="19.5">
+    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -7407,7 +7422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="19.5">
+    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>96</v>
       </c>
@@ -7447,7 +7462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="19.5">
+    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
@@ -7503,7 +7518,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="39">
+    <row r="115" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>96</v>
       </c>
@@ -7563,7 +7578,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="29.25">
+    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>96</v>
       </c>
@@ -7615,7 +7630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="29.25">
+    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>96</v>
       </c>
@@ -7667,7 +7682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="29.25">
+    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>96</v>
       </c>
@@ -7719,7 +7734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="29.25">
+    <row r="119" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -7763,7 +7778,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="39">
+    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
@@ -7823,7 +7838,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="29.25">
+    <row r="121" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7883,7 +7898,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="19.5">
+    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -7943,7 +7958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="39">
+    <row r="123" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -7987,7 +8002,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="39">
+    <row r="124" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8031,7 +8046,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="39">
+    <row r="125" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8075,7 +8090,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="39">
+    <row r="126" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8119,7 +8134,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="39">
+    <row r="127" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8163,7 +8178,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="39">
+    <row r="128" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8207,7 +8222,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="29.25">
+    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8267,7 +8282,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="29.25">
+    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8327,7 +8342,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="29.25">
+    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8387,7 +8402,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="29.25">
+    <row r="132" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8447,7 +8462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="29.25">
+    <row r="133" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8507,7 +8522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="29.25">
+    <row r="134" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8567,7 +8582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="29.25">
+    <row r="135" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8627,7 +8642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="29.25">
+    <row r="136" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8687,7 +8702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="29.25">
+    <row r="137" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8747,7 +8762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="29.25">
+    <row r="138" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8807,7 +8822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="29.25">
+    <row r="139" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8867,7 +8882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="29.25">
+    <row r="140" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8927,7 +8942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="29.25">
+    <row r="141" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -8987,7 +9002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="29.25">
+    <row r="142" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9047,7 +9062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="78">
+    <row r="143" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9087,7 +9102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="78">
+    <row r="144" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9125,7 +9140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="78">
+    <row r="145" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9163,7 +9178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="78">
+    <row r="146" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9201,7 +9216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="78">
+    <row r="147" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9239,7 +9254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="78">
+    <row r="148" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9277,7 +9292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="78">
+    <row r="149" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9315,7 +9330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="78">
+    <row r="150" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9363,7 +9378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="78">
+    <row r="151" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9411,7 +9426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="78">
+    <row r="152" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9459,7 +9474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="78">
+    <row r="153" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9507,7 +9522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="78">
+    <row r="154" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9555,7 +9570,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="78">
+    <row r="155" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9603,7 +9618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="78">
+    <row r="156" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9651,7 +9666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="78">
+    <row r="157" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9699,7 +9714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="78">
+    <row r="158" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9747,7 +9762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="78">
+    <row r="159" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9795,7 +9810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="78">
+    <row r="160" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9843,7 +9858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="78">
+    <row r="161" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9891,7 +9906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="78">
+    <row r="162" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9939,7 +9954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="78">
+    <row r="163" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -9987,7 +10002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="78">
+    <row r="164" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -10035,7 +10050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="78">
+    <row r="165" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -10083,7 +10098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="78">
+    <row r="166" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -10131,7 +10146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="78">
+    <row r="167" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10179,7 +10194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="19.5">
+    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>189</v>
       </c>
@@ -10237,7 +10252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="19.5">
+    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>189</v>
       </c>
@@ -10297,7 +10312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="19.5">
+    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>189</v>
       </c>
@@ -10357,7 +10372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="19.5">
+    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>189</v>
       </c>
@@ -10417,7 +10432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="39">
+    <row r="172" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>189</v>
       </c>
@@ -10465,7 +10480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="68.25">
+    <row r="173" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>189</v>
       </c>
@@ -10513,7 +10528,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="48.75">
+    <row r="174" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>189</v>
       </c>
@@ -10561,7 +10576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="39">
+    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>189</v>
       </c>
@@ -10609,7 +10624,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="39">
+    <row r="176" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>189</v>
       </c>
@@ -10657,7 +10672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="39">
+    <row r="177" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>189</v>
       </c>
@@ -10705,7 +10720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="68.25">
+    <row r="178" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>189</v>
       </c>
@@ -10753,7 +10768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="19.5">
+    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>189</v>
       </c>
@@ -10811,7 +10826,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="19.5">
+    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>189</v>
       </c>
@@ -10865,7 +10880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="19.5">
+    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
@@ -10919,7 +10934,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="29.25">
+    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>189</v>
       </c>
@@ -10979,7 +10994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="29.25">
+    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>189</v>
       </c>
@@ -11039,7 +11054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="29.25">
+    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>189</v>
       </c>
@@ -11099,7 +11114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="19.5">
+    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>206</v>
       </c>
@@ -11157,7 +11172,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="19.5">
+    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>206</v>
       </c>
@@ -11217,7 +11232,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="48.75">
+    <row r="187" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>206</v>
       </c>
@@ -11277,7 +11292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="48.75">
+    <row r="188" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>206</v>
       </c>
@@ -11337,7 +11352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="48.75">
+    <row r="189" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>206</v>
       </c>
@@ -11397,7 +11412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="48.75">
+    <row r="190" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>206</v>
       </c>
@@ -11457,7 +11472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="39">
+    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>215</v>
       </c>
@@ -11515,7 +11530,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="29.25">
+    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>215</v>
       </c>
@@ -11573,7 +11588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="29.25">
+    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>215</v>
       </c>
@@ -11631,7 +11646,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="29.25">
+    <row r="194" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>215</v>
       </c>
@@ -11689,7 +11704,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="29.25">
+    <row r="195" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>215</v>
       </c>
@@ -11747,7 +11762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="29.25">
+    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>215</v>
       </c>
@@ -11807,7 +11822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="48.75">
+    <row r="197" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>230</v>
       </c>
@@ -11865,7 +11880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="48.75">
+    <row r="198" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>230</v>
       </c>
@@ -11923,7 +11938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="48.75">
+    <row r="199" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>230</v>
       </c>
@@ -11979,7 +11994,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="29.25">
+    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>230</v>
       </c>
@@ -12031,7 +12046,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="29.25">
+    <row r="201" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>230</v>
       </c>
@@ -12091,7 +12106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="29.25">
+    <row r="202" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>230</v>
       </c>
@@ -12151,7 +12166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="29.25">
+    <row r="203" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>230</v>
       </c>
@@ -12211,7 +12226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="29.25">
+    <row r="204" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>230</v>
       </c>
@@ -12271,7 +12286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="29.25">
+    <row r="205" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>230</v>
       </c>
@@ -12331,7 +12346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="29.25">
+    <row r="206" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>230</v>
       </c>
@@ -12391,7 +12406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="29.25">
+    <row r="207" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>230</v>
       </c>
@@ -12451,7 +12466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="29.25">
+    <row r="208" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>230</v>
       </c>
@@ -12511,7 +12526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="29.25">
+    <row r="209" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>230</v>
       </c>
@@ -12571,7 +12586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="29.25">
+    <row r="210" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>230</v>
       </c>
@@ -12631,7 +12646,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="29.25">
+    <row r="211" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>230</v>
       </c>
@@ -12691,7 +12706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="29.25">
+    <row r="212" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>230</v>
       </c>
@@ -12751,7 +12766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="29.25">
+    <row r="213" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>230</v>
       </c>
@@ -12811,7 +12826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="29.25">
+    <row r="214" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>230</v>
       </c>
@@ -12871,7 +12886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="29.25">
+    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>230</v>
       </c>
@@ -12931,7 +12946,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="29.25">
+    <row r="216" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>230</v>
       </c>
@@ -12991,7 +13006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="29.25">
+    <row r="217" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>230</v>
       </c>
@@ -13051,7 +13066,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="39">
+    <row r="218" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>230</v>
       </c>
@@ -13111,7 +13126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="29.25">
+    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>230</v>
       </c>
@@ -13171,7 +13186,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="29.25">
+    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -13231,7 +13246,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="29.25">
+    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>230</v>
       </c>
@@ -13291,7 +13306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="29.25">
+    <row r="222" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>230</v>
       </c>
@@ -13351,7 +13366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="29.25">
+    <row r="223" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>230</v>
       </c>
@@ -13411,7 +13426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="29.25">
+    <row r="224" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>230</v>
       </c>
@@ -13471,7 +13486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="29.25">
+    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>230</v>
       </c>
@@ -13519,7 +13534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="29.25">
+    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>230</v>
       </c>
@@ -13567,7 +13582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="29.25">
+    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>230</v>
       </c>
@@ -13615,7 +13630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="29.25">
+    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
@@ -13663,7 +13678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="29.25">
+    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>230</v>
       </c>
@@ -13711,7 +13726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="29.25">
+    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -13771,7 +13786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="29.25">
+    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -13831,7 +13846,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="29.25">
+    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -13891,7 +13906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="29.25">
+    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>230</v>
       </c>
@@ -13951,7 +13966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="29.25">
+    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>230</v>
       </c>
@@ -14011,7 +14026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="29.25">
+    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>230</v>
       </c>
@@ -14071,7 +14086,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="29.25">
+    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>230</v>
       </c>
@@ -14131,7 +14146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="29.25">
+    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>230</v>
       </c>
@@ -14191,7 +14206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="29.25">
+    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>230</v>
       </c>
@@ -14251,7 +14266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="29.25">
+    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>230</v>
       </c>
@@ -14311,7 +14326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="29.25">
+    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>230</v>
       </c>
@@ -14371,7 +14386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="29.25">
+    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>230</v>
       </c>
@@ -14431,7 +14446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="29.25">
+    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>230</v>
       </c>
@@ -14491,7 +14506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="29.25">
+    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>230</v>
       </c>
@@ -14551,7 +14566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="29.25">
+    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>230</v>
       </c>
@@ -14611,7 +14626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="29.25">
+    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>230</v>
       </c>
@@ -14671,7 +14686,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="29.25">
+    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>230</v>
       </c>
@@ -14731,7 +14746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="29.25">
+    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>230</v>
       </c>
@@ -14769,7 +14784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="29.25">
+    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>230</v>
       </c>
@@ -14807,7 +14822,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="29.25">
+    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>230</v>
       </c>
@@ -14845,7 +14860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="29.25">
+    <row r="250" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>230</v>
       </c>
@@ -14903,7 +14918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="29.25">
+    <row r="251" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>230</v>
       </c>
@@ -14961,7 +14976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="29.25">
+    <row r="252" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>230</v>
       </c>
@@ -15019,7 +15034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="39">
+    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -15079,7 +15094,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="39">
+    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -15139,7 +15154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="39">
+    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -15197,7 +15212,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="39">
+    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -15255,7 +15270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="39">
+    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -15313,7 +15328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="39">
+    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -15373,7 +15388,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="39">
+    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -15431,7 +15446,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="39">
+    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -15485,7 +15500,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="39">
+    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -15545,7 +15560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="29.25">
+    <row r="262" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>291</v>
       </c>
@@ -15603,7 +15618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="29.25">
+    <row r="263" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>291</v>
       </c>
@@ -15661,7 +15676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="19.5">
+    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>291</v>
       </c>
@@ -15715,7 +15730,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="19.5">
+    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>291</v>
       </c>
@@ -15773,7 +15788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="19.5">
+    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>291</v>
       </c>
@@ -15821,7 +15836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="19.5">
+    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>291</v>
       </c>
@@ -15869,7 +15884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="29.25">
+    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>291</v>
       </c>
@@ -15915,7 +15930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="29.25">
+    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>291</v>
       </c>
@@ -15961,7 +15976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="29.25">
+    <row r="270" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>291</v>
       </c>
@@ -16007,7 +16022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="29.25">
+    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>291</v>
       </c>
@@ -16053,7 +16068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="29.25">
+    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>291</v>
       </c>
@@ -16099,7 +16114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="29.25">
+    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>291</v>
       </c>
@@ -16145,7 +16160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="39">
+    <row r="274" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>291</v>
       </c>
@@ -16191,7 +16206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="39">
+    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>308</v>
       </c>
@@ -16247,7 +16262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="39">
+    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>308</v>
       </c>
@@ -16305,7 +16320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="39">
+    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>308</v>
       </c>
@@ -16363,7 +16378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="39">
+    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>308</v>
       </c>
@@ -16421,7 +16436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="39">
+    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>308</v>
       </c>
@@ -16481,7 +16496,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="39">
+    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>308</v>
       </c>
@@ -16541,7 +16556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="39">
+    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>308</v>
       </c>
@@ -16601,7 +16616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="39">
+    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>308</v>
       </c>
@@ -16661,7 +16676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="39">
+    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>308</v>
       </c>
@@ -16721,7 +16736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="58.5">
+    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>308</v>
       </c>
@@ -16781,7 +16796,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="58.5">
+    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>325</v>
       </c>
@@ -16839,7 +16854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="48.75">
+    <row r="286" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>327</v>
       </c>
@@ -16899,7 +16914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="48.75">
+    <row r="287" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>327</v>
       </c>
@@ -16959,7 +16974,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="48.75">
+    <row r="288" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>327</v>
       </c>
@@ -17017,7 +17032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="48.75">
+    <row r="289" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>327</v>
       </c>
@@ -17075,7 +17090,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="48.75">
+    <row r="290" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>336</v>
       </c>
@@ -17133,7 +17148,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="48.75">
+    <row r="291" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>336</v>
       </c>
@@ -17191,7 +17206,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="29.25">
+    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>336</v>
       </c>
@@ -17249,7 +17264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="29.25">
+    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>336</v>
       </c>
@@ -17307,7 +17322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="87.75">
+    <row r="294" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>346</v>
       </c>
@@ -17367,7 +17382,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="87.75">
+    <row r="295" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>346</v>
       </c>
@@ -17427,7 +17442,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="87.75">
+    <row r="296" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>346</v>
       </c>
@@ -17487,7 +17502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="87.75">
+    <row r="297" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>346</v>
       </c>
@@ -17547,7 +17562,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="19.5">
+    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>346</v>
       </c>
@@ -17605,7 +17620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="29.25">
+    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>346</v>
       </c>
@@ -17665,7 +17680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="48.75">
+    <row r="300" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>360</v>
       </c>
@@ -17725,7 +17740,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="48.75">
+    <row r="301" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>360</v>
       </c>
@@ -17785,7 +17800,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="48.75">
+    <row r="302" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>360</v>
       </c>
@@ -17845,7 +17860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="39">
+    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>360</v>
       </c>
@@ -17905,7 +17920,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="39">
+    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>360</v>
       </c>
@@ -17965,7 +17980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="39">
+    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>360</v>
       </c>
@@ -18025,7 +18040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="39">
+    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>360</v>
       </c>
@@ -18085,7 +18100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="39">
+    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>360</v>
       </c>
@@ -18145,7 +18160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="29.25">
+    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>371</v>
       </c>
@@ -18207,7 +18222,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="29.25">
+    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>371</v>
       </c>
@@ -18255,7 +18270,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="29.25">
+    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>371</v>
       </c>
@@ -18313,7 +18328,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="29.25">
+    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>371</v>
       </c>
@@ -18369,7 +18384,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="29.25">
+    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>371</v>
       </c>
@@ -18427,7 +18442,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="39">
+    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>371</v>
       </c>
@@ -18487,7 +18502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="39">
+    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>371</v>
       </c>
@@ -18547,7 +18562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="39">
+    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>371</v>
       </c>
@@ -18607,7 +18622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="39">
+    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>371</v>
       </c>
@@ -18667,7 +18682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="39">
+    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>371</v>
       </c>
@@ -18727,7 +18742,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="39">
+    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>371</v>
       </c>
@@ -18787,7 +18802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="39">
+    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>371</v>
       </c>
@@ -18847,7 +18862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="39">
+    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>371</v>
       </c>
@@ -18907,7 +18922,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="39">
+    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>371</v>
       </c>
@@ -18967,7 +18982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="39">
+    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>371</v>
       </c>
@@ -19027,7 +19042,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="39">
+    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>371</v>
       </c>
@@ -19087,7 +19102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="39">
+    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>371</v>
       </c>
@@ -19147,7 +19162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="39">
+    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>371</v>
       </c>
@@ -19207,7 +19222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="39">
+    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>371</v>
       </c>
@@ -19267,7 +19282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="39">
+    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>371</v>
       </c>
@@ -19327,7 +19342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="39">
+    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>371</v>
       </c>
@@ -19387,7 +19402,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="39">
+    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>371</v>
       </c>
@@ -19447,7 +19462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="39">
+    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>371</v>
       </c>
@@ -19507,7 +19522,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="29.25">
+    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>371</v>
       </c>
@@ -19567,7 +19582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="29.25">
+    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>393</v>
       </c>
@@ -19627,7 +19642,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="29.25">
+    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>393</v>
       </c>
@@ -19687,7 +19702,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="48.75">
+    <row r="334" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>393</v>
       </c>
@@ -19747,15 +19762,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>401</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\sdg_z_githuba\trunk\assets\excel\pl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -691,7 +691,7 @@
     <t>Zapewnienie bezpieczeństwa energetycznego państwa</t>
   </si>
   <si>
-    <t>7.3.a Stosunek pozyskania energii ogółem do globalnego zużycia energii</t>
+    <t>7.3.a Stosunek pozyskania energii ogółem do globalnego zużycia energii ogółem</t>
   </si>
   <si>
     <t>Ministerstwo Klimatu i Środowiska/ Główny Urząd Statystyczny</t>
@@ -1222,13 +1222,13 @@
     <t>17.1.b Oficjalna pomoc rozwojowa dwustronna ogółem</t>
   </si>
   <si>
-    <t>Na okres 2016–2020 wybrano 6 głównych obszarów tematycznych pomocy: dobre rządzenie, demokracja i prawa człowieka, kapitał ludzki, przedsiębiorczość i sektor prywatny, zrównoważone rolnictwo i rozwój obszarów wiejskich, ochrona środowiska</t>
+    <t>&lt;p&gt;Na okres 2021–2030 wybrano następujące główne obszary tematyczne pomocy: pokój, sprawiedliwość i silne instytucje (SDG 16); równe szanse - edukacja (SDG 4), godna praca, przedsiębiorczość (SDG 8), redukcja nierówności (SDG 10), zrównoważone miasta, regionalne planowanie rozwoju i rozwój obszarów wiejskich (SDG 11); zdrowie (SDG 3); klimat i zasoby naturalne (SDG 13) - czysta woda i warunki sanitarne (SDG 6), lasy i różnorodność biologiczna, odnawialne źródła energii.&lt;/p&gt;</t>
   </si>
   <si>
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 10-01-2023, 11:03</t>
+    <t>Ostatnia aktualizacja: 31-01-2023, 13:21</t>
   </si>
 </sst>
 </file>
@@ -2772,39 +2772,41 @@
         <v>47</v>
       </c>
       <c r="G19" s="5">
-        <v>107.51</v>
+        <v>109.15</v>
       </c>
       <c r="H19" s="5">
-        <v>107.91</v>
+        <v>109.42</v>
       </c>
       <c r="I19" s="5">
-        <v>108.75</v>
+        <v>110.79</v>
       </c>
       <c r="J19" s="5">
-        <v>110.23</v>
+        <v>111.76</v>
       </c>
       <c r="K19" s="5">
-        <v>113.66</v>
+        <v>118.02</v>
       </c>
       <c r="L19" s="5">
-        <v>118.48</v>
+        <v>121.58</v>
       </c>
       <c r="M19" s="5">
-        <v>125.18</v>
+        <v>128.91999999999999</v>
       </c>
       <c r="N19" s="5">
-        <v>129.12</v>
+        <v>133.32</v>
       </c>
       <c r="O19" s="5">
-        <v>133.33000000000001</v>
+        <v>138.63</v>
       </c>
       <c r="P19" s="5">
-        <v>140.31</v>
+        <v>144.88</v>
       </c>
       <c r="Q19" s="5">
-        <v>145.31</v>
-      </c>
-      <c r="R19" s="3"/>
+        <v>150.78</v>
+      </c>
+      <c r="R19" s="5">
+        <v>146.35</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="2" t="s">
         <v>48</v>
@@ -2858,7 +2860,9 @@
       <c r="Q20" s="4">
         <v>2.7</v>
       </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="4">
+        <v>2.8</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="2" t="s">
         <v>27</v>
@@ -2912,7 +2916,9 @@
       <c r="Q21" s="4">
         <v>115.1</v>
       </c>
-      <c r="R21" s="3"/>
+      <c r="R21" s="4">
+        <v>121.5</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="2" t="s">
         <v>27</v>
@@ -3134,9 +3140,11 @@
         <v>385.9</v>
       </c>
       <c r="Q25" s="4">
-        <v>392.4</v>
-      </c>
-      <c r="R25" s="3"/>
+        <v>398.8</v>
+      </c>
+      <c r="R25" s="4">
+        <v>405.2</v>
+      </c>
       <c r="S25" s="3"/>
       <c r="T25" s="2" t="s">
         <v>27</v>
@@ -3192,9 +3200,11 @@
         <v>434.5</v>
       </c>
       <c r="Q26" s="4">
-        <v>443.3</v>
-      </c>
-      <c r="R26" s="3"/>
+        <v>452.1</v>
+      </c>
+      <c r="R26" s="4">
+        <v>460.3</v>
+      </c>
       <c r="S26" s="3"/>
       <c r="T26" s="2" t="s">
         <v>27</v>
@@ -3250,9 +3260,11 @@
         <v>313</v>
       </c>
       <c r="Q27" s="4">
-        <v>316.5</v>
-      </c>
-      <c r="R27" s="3"/>
+        <v>319.60000000000002</v>
+      </c>
+      <c r="R27" s="4">
+        <v>323.7</v>
+      </c>
       <c r="S27" s="3"/>
       <c r="T27" s="2" t="s">
         <v>27</v>
@@ -3368,7 +3380,9 @@
       <c r="Q29" s="5">
         <v>0.06</v>
       </c>
-      <c r="R29" s="3"/>
+      <c r="R29" s="5">
+        <v>0.06</v>
+      </c>
       <c r="S29" s="3"/>
       <c r="T29" s="2" t="s">
         <v>27</v>
@@ -3843,7 +3857,9 @@
       <c r="R37" s="6">
         <v>89880</v>
       </c>
-      <c r="S37" s="3"/>
+      <c r="S37" s="6">
+        <v>90374</v>
+      </c>
       <c r="T37" s="2" t="s">
         <v>82</v>
       </c>
@@ -3903,7 +3919,9 @@
       <c r="R38" s="6">
         <v>4185</v>
       </c>
-      <c r="S38" s="3"/>
+      <c r="S38" s="6">
+        <v>4164</v>
+      </c>
       <c r="T38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3963,7 +3981,9 @@
       <c r="R39" s="6">
         <v>1470</v>
       </c>
-      <c r="S39" s="3"/>
+      <c r="S39" s="6">
+        <v>1488</v>
+      </c>
       <c r="T39" s="2" t="s">
         <v>82</v>
       </c>
@@ -4023,7 +4043,9 @@
       <c r="R40" s="6">
         <v>8150</v>
       </c>
-      <c r="S40" s="3"/>
+      <c r="S40" s="6">
+        <v>8135</v>
+      </c>
       <c r="T40" s="2" t="s">
         <v>82</v>
       </c>
@@ -4083,7 +4105,9 @@
       <c r="R41" s="6">
         <v>169</v>
       </c>
-      <c r="S41" s="3"/>
+      <c r="S41" s="6">
+        <v>212</v>
+      </c>
       <c r="T41" s="2" t="s">
         <v>82</v>
       </c>
@@ -4143,7 +4167,9 @@
       <c r="R42" s="6">
         <v>42445</v>
       </c>
-      <c r="S42" s="3"/>
+      <c r="S42" s="6">
+        <v>50707</v>
+      </c>
       <c r="T42" s="2" t="s">
         <v>82</v>
       </c>
@@ -5626,7 +5652,9 @@
       <c r="Q69" s="4">
         <v>33.1</v>
       </c>
-      <c r="R69" s="3"/>
+      <c r="R69" s="4">
+        <v>34.299999999999997</v>
+      </c>
       <c r="S69" s="3"/>
       <c r="T69" s="2" t="s">
         <v>27</v>
@@ -5666,7 +5694,9 @@
       <c r="Q70" s="4">
         <v>62.6</v>
       </c>
-      <c r="R70" s="3"/>
+      <c r="R70" s="4">
+        <v>64.099999999999994</v>
+      </c>
       <c r="S70" s="3"/>
       <c r="T70" s="2" t="s">
         <v>27</v>
@@ -5724,7 +5754,9 @@
       <c r="Q71" s="4">
         <v>1.9</v>
       </c>
-      <c r="R71" s="3"/>
+      <c r="R71" s="4">
+        <v>2.7</v>
+      </c>
       <c r="S71" s="3"/>
       <c r="T71" s="2" t="s">
         <v>27</v>
@@ -7511,9 +7543,15 @@
       <c r="P114" s="4">
         <v>99.9</v>
       </c>
-      <c r="Q114" s="3"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="3"/>
+      <c r="Q114" s="4">
+        <v>100</v>
+      </c>
+      <c r="R114" s="4">
+        <v>100</v>
+      </c>
+      <c r="S114" s="4">
+        <v>100</v>
+      </c>
       <c r="T114" s="2" t="s">
         <v>133</v>
       </c>
@@ -9354,25 +9392,15 @@
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
-      <c r="L150" s="6">
-        <v>15</v>
-      </c>
-      <c r="M150" s="6">
-        <v>19</v>
-      </c>
-      <c r="N150" s="6">
+      <c r="L150" s="3"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="6">
         <v>21</v>
       </c>
-      <c r="O150" s="6">
-        <v>22</v>
-      </c>
-      <c r="P150" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q150" s="6">
-        <v>26</v>
-      </c>
-      <c r="R150" s="3"/>
       <c r="S150" s="3"/>
       <c r="T150" s="2" t="s">
         <v>27</v>
@@ -9402,25 +9430,15 @@
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
-      <c r="L151" s="6">
-        <v>14</v>
-      </c>
-      <c r="M151" s="6">
-        <v>19</v>
-      </c>
-      <c r="N151" s="6">
-        <v>21</v>
-      </c>
-      <c r="O151" s="6">
-        <v>21</v>
-      </c>
-      <c r="P151" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q151" s="6">
-        <v>26</v>
-      </c>
-      <c r="R151" s="3"/>
+      <c r="L151" s="3"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="6">
+        <v>20</v>
+      </c>
       <c r="S151" s="3"/>
       <c r="T151" s="2" t="s">
         <v>27</v>
@@ -9450,25 +9468,15 @@
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-      <c r="L152" s="6">
-        <v>16</v>
-      </c>
-      <c r="M152" s="6">
-        <v>20</v>
-      </c>
-      <c r="N152" s="6">
+      <c r="L152" s="3"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="6">
         <v>22</v>
       </c>
-      <c r="O152" s="6">
-        <v>23</v>
-      </c>
-      <c r="P152" s="6">
-        <v>22</v>
-      </c>
-      <c r="Q152" s="6">
-        <v>26</v>
-      </c>
-      <c r="R152" s="3"/>
       <c r="S152" s="3"/>
       <c r="T152" s="2" t="s">
         <v>27</v>
@@ -9498,25 +9506,15 @@
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-      <c r="L153" s="6">
-        <v>18</v>
-      </c>
-      <c r="M153" s="6">
+      <c r="L153" s="3"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="6">
         <v>23</v>
       </c>
-      <c r="N153" s="6">
-        <v>25</v>
-      </c>
-      <c r="O153" s="6">
-        <v>26</v>
-      </c>
-      <c r="P153" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q153" s="6">
-        <v>31</v>
-      </c>
-      <c r="R153" s="3"/>
       <c r="S153" s="3"/>
       <c r="T153" s="2" t="s">
         <v>27</v>
@@ -9546,25 +9544,15 @@
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
-      <c r="L154" s="6">
-        <v>10</v>
-      </c>
-      <c r="M154" s="6">
-        <v>14</v>
-      </c>
-      <c r="N154" s="6">
-        <v>16</v>
-      </c>
-      <c r="O154" s="6">
-        <v>15</v>
-      </c>
-      <c r="P154" s="6">
-        <v>16</v>
-      </c>
-      <c r="Q154" s="6">
-        <v>20</v>
-      </c>
-      <c r="R154" s="3"/>
+      <c r="L154" s="3"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="6">
+        <v>21</v>
+      </c>
       <c r="S154" s="3"/>
       <c r="T154" s="2" t="s">
         <v>27</v>
@@ -9594,25 +9582,15 @@
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
-      <c r="L155" s="6">
-        <v>38</v>
-      </c>
-      <c r="M155" s="6">
-        <v>43</v>
-      </c>
-      <c r="N155" s="6">
-        <v>48</v>
-      </c>
-      <c r="O155" s="6">
-        <v>46</v>
-      </c>
-      <c r="P155" s="6">
-        <v>48</v>
-      </c>
-      <c r="Q155" s="6">
-        <v>64</v>
-      </c>
-      <c r="R155" s="3"/>
+      <c r="L155" s="3"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="6">
+        <v>36</v>
+      </c>
       <c r="S155" s="3"/>
       <c r="T155" s="2" t="s">
         <v>27</v>
@@ -9642,25 +9620,15 @@
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
-      <c r="L156" s="6">
-        <v>28</v>
-      </c>
-      <c r="M156" s="6">
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="6">
         <v>34</v>
       </c>
-      <c r="N156" s="6">
-        <v>35</v>
-      </c>
-      <c r="O156" s="6">
-        <v>36</v>
-      </c>
-      <c r="P156" s="6">
-        <v>33</v>
-      </c>
-      <c r="Q156" s="6">
-        <v>39</v>
-      </c>
-      <c r="R156" s="3"/>
       <c r="S156" s="3"/>
       <c r="T156" s="2" t="s">
         <v>27</v>
@@ -9690,25 +9658,15 @@
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
-      <c r="L157" s="6">
-        <v>16</v>
-      </c>
-      <c r="M157" s="6">
-        <v>20</v>
-      </c>
-      <c r="N157" s="6">
-        <v>24</v>
-      </c>
-      <c r="O157" s="6">
+      <c r="L157" s="3"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="6">
         <v>28</v>
       </c>
-      <c r="P157" s="6">
-        <v>26</v>
-      </c>
-      <c r="Q157" s="6">
-        <v>32</v>
-      </c>
-      <c r="R157" s="3"/>
       <c r="S157" s="3"/>
       <c r="T157" s="2" t="s">
         <v>27</v>
@@ -9738,25 +9696,15 @@
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
-      <c r="L158" s="6">
-        <v>7</v>
-      </c>
-      <c r="M158" s="6">
-        <v>10</v>
-      </c>
-      <c r="N158" s="6">
-        <v>11</v>
-      </c>
-      <c r="O158" s="6">
-        <v>13</v>
-      </c>
-      <c r="P158" s="6">
-        <v>14</v>
-      </c>
-      <c r="Q158" s="6">
-        <v>19</v>
-      </c>
-      <c r="R158" s="3"/>
+      <c r="L158" s="3"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="6">
+        <v>17</v>
+      </c>
       <c r="S158" s="3"/>
       <c r="T158" s="2" t="s">
         <v>27</v>
@@ -9786,25 +9734,15 @@
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
-      <c r="L159" s="6">
-        <v>4</v>
-      </c>
-      <c r="M159" s="6">
-        <v>5</v>
-      </c>
-      <c r="N159" s="6">
-        <v>5</v>
-      </c>
-      <c r="O159" s="6">
-        <v>6</v>
-      </c>
-      <c r="P159" s="6">
-        <v>6</v>
-      </c>
-      <c r="Q159" s="6">
-        <v>7</v>
-      </c>
-      <c r="R159" s="3"/>
+      <c r="L159" s="3"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="6">
+        <v>8</v>
+      </c>
       <c r="S159" s="3"/>
       <c r="T159" s="2" t="s">
         <v>27</v>
@@ -9834,25 +9772,15 @@
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
-      <c r="L160" s="6">
-        <v>1</v>
-      </c>
-      <c r="M160" s="6">
-        <v>1</v>
-      </c>
-      <c r="N160" s="6">
-        <v>2</v>
-      </c>
-      <c r="O160" s="6">
-        <v>2</v>
-      </c>
-      <c r="P160" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q160" s="6">
-        <v>2</v>
-      </c>
-      <c r="R160" s="3"/>
+      <c r="L160" s="3"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="6">
+        <v>3</v>
+      </c>
       <c r="S160" s="3"/>
       <c r="T160" s="2" t="s">
         <v>27</v>
@@ -9882,25 +9810,15 @@
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
-      <c r="L161" s="6">
-        <v>12</v>
-      </c>
-      <c r="M161" s="6">
-        <v>16</v>
-      </c>
-      <c r="N161" s="6">
+      <c r="L161" s="3"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="6">
         <v>19</v>
       </c>
-      <c r="O161" s="6">
-        <v>20</v>
-      </c>
-      <c r="P161" s="6">
-        <v>22</v>
-      </c>
-      <c r="Q161" s="6">
-        <v>35</v>
-      </c>
-      <c r="R161" s="3"/>
       <c r="S161" s="3"/>
       <c r="T161" s="2" t="s">
         <v>27</v>
@@ -9930,25 +9848,15 @@
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
-      <c r="L162" s="6">
-        <v>9</v>
-      </c>
-      <c r="M162" s="6">
+      <c r="L162" s="3"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="6">
         <v>11</v>
       </c>
-      <c r="N162" s="6">
-        <v>11</v>
-      </c>
-      <c r="O162" s="6">
-        <v>12</v>
-      </c>
-      <c r="P162" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q162" s="6">
-        <v>14</v>
-      </c>
-      <c r="R162" s="3"/>
       <c r="S162" s="3"/>
       <c r="T162" s="2" t="s">
         <v>27</v>
@@ -9978,25 +9886,15 @@
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
-      <c r="L163" s="6">
-        <v>35</v>
-      </c>
-      <c r="M163" s="6">
-        <v>43</v>
-      </c>
-      <c r="N163" s="6">
-        <v>46</v>
-      </c>
-      <c r="O163" s="6">
-        <v>48</v>
-      </c>
-      <c r="P163" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q163" s="6">
-        <v>48</v>
-      </c>
-      <c r="R163" s="3"/>
+      <c r="L163" s="3"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="6">
+        <v>42</v>
+      </c>
       <c r="S163" s="3"/>
       <c r="T163" s="2" t="s">
         <v>27</v>
@@ -10026,25 +9924,15 @@
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
-      <c r="L164" s="6">
-        <v>17</v>
-      </c>
-      <c r="M164" s="6">
-        <v>22</v>
-      </c>
-      <c r="N164" s="6">
-        <v>24</v>
-      </c>
-      <c r="O164" s="6">
-        <v>26</v>
-      </c>
-      <c r="P164" s="6">
+      <c r="L164" s="3"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="6">
         <v>25</v>
       </c>
-      <c r="Q164" s="6">
-        <v>29</v>
-      </c>
-      <c r="R164" s="3"/>
       <c r="S164" s="3"/>
       <c r="T164" s="2" t="s">
         <v>27</v>
@@ -10074,25 +9962,15 @@
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
-      <c r="L165" s="6">
-        <v>19</v>
-      </c>
-      <c r="M165" s="6">
-        <v>23</v>
-      </c>
-      <c r="N165" s="6">
-        <v>25</v>
-      </c>
-      <c r="O165" s="6">
-        <v>27</v>
-      </c>
-      <c r="P165" s="6">
-        <v>26</v>
-      </c>
-      <c r="Q165" s="6">
-        <v>30</v>
-      </c>
-      <c r="R165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="6">
+        <v>26</v>
+      </c>
       <c r="S165" s="3"/>
       <c r="T165" s="2" t="s">
         <v>27</v>
@@ -10122,25 +10000,15 @@
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
-      <c r="L166" s="6">
-        <v>9</v>
-      </c>
-      <c r="M166" s="6">
-        <v>10</v>
-      </c>
-      <c r="N166" s="6">
-        <v>10</v>
-      </c>
-      <c r="O166" s="6">
-        <v>8</v>
-      </c>
-      <c r="P166" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q166" s="6">
-        <v>17</v>
-      </c>
-      <c r="R166" s="3"/>
+      <c r="L166" s="3"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="6">
+        <v>12</v>
+      </c>
       <c r="S166" s="3"/>
       <c r="T166" s="2" t="s">
         <v>27</v>
@@ -10170,25 +10038,15 @@
       <c r="I167" s="3"/>
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
-      <c r="L167" s="6">
+      <c r="L167" s="3"/>
+      <c r="M167" s="3"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="3"/>
+      <c r="P167" s="3"/>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="6">
         <v>12</v>
       </c>
-      <c r="M167" s="6">
-        <v>15</v>
-      </c>
-      <c r="N167" s="6">
-        <v>17</v>
-      </c>
-      <c r="O167" s="6">
-        <v>15</v>
-      </c>
-      <c r="P167" s="6">
-        <v>15</v>
-      </c>
-      <c r="Q167" s="6">
-        <v>21</v>
-      </c>
-      <c r="R167" s="3"/>
       <c r="S167" s="3"/>
       <c r="T167" s="2" t="s">
         <v>27</v>
@@ -10246,7 +10104,9 @@
       <c r="Q168" s="4">
         <v>4.8</v>
       </c>
-      <c r="R168" s="3"/>
+      <c r="R168" s="4">
+        <v>4.8</v>
+      </c>
       <c r="S168" s="3"/>
       <c r="T168" s="2" t="s">
         <v>27</v>
@@ -11632,15 +11492,17 @@
         <v>62</v>
       </c>
       <c r="O193" s="6">
+        <v>59</v>
+      </c>
+      <c r="P193" s="6">
         <v>58</v>
       </c>
-      <c r="P193" s="6">
+      <c r="Q193" s="6">
         <v>57</v>
       </c>
-      <c r="Q193" s="6">
+      <c r="R193" s="6">
         <v>56</v>
       </c>
-      <c r="R193" s="3"/>
       <c r="S193" s="3"/>
       <c r="T193" s="2" t="s">
         <v>223</v>
@@ -11696,9 +11558,11 @@
         <v>138.5</v>
       </c>
       <c r="Q194" s="4">
-        <v>118.7</v>
-      </c>
-      <c r="R194" s="3"/>
+        <v>118.6</v>
+      </c>
+      <c r="R194" s="4">
+        <v>169.7</v>
+      </c>
       <c r="S194" s="3"/>
       <c r="T194" s="2" t="s">
         <v>226</v>
@@ -11756,7 +11620,9 @@
       <c r="Q195" s="4">
         <v>8.9</v>
       </c>
-      <c r="R195" s="3"/>
+      <c r="R195" s="4">
+        <v>8.1999999999999993</v>
+      </c>
       <c r="S195" s="3"/>
       <c r="T195" s="2" t="s">
         <v>27</v>
@@ -11906,19 +11772,19 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="I198" s="5">
-        <v>2.25</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="J198" s="5">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="K198" s="5">
-        <v>2.19</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L198" s="5">
         <v>2.4300000000000002</v>
       </c>
       <c r="M198" s="5">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="N198" s="5">
         <v>2.0699999999999998</v>
@@ -11927,12 +11793,14 @@
         <v>1.72</v>
       </c>
       <c r="P198" s="5">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q198" s="5">
-        <v>1.67</v>
-      </c>
-      <c r="R198" s="3"/>
+        <v>1.66</v>
+      </c>
+      <c r="R198" s="5">
+        <v>1.58</v>
+      </c>
       <c r="S198" s="3"/>
       <c r="T198" s="2" t="s">
         <v>27</v>
@@ -15204,9 +15072,11 @@
         <v>0.83</v>
       </c>
       <c r="Q255" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="R255" s="3"/>
+        <v>0.87</v>
+      </c>
+      <c r="R255" s="5">
+        <v>0.91</v>
+      </c>
       <c r="S255" s="3"/>
       <c r="T255" s="2" t="s">
         <v>27</v>
@@ -15264,7 +15134,9 @@
       <c r="Q256" s="4">
         <v>10</v>
       </c>
-      <c r="R256" s="3"/>
+      <c r="R256" s="4">
+        <v>8.9</v>
+      </c>
       <c r="S256" s="3"/>
       <c r="T256" s="2" t="s">
         <v>27</v>
@@ -15440,7 +15312,9 @@
       <c r="Q259" s="4">
         <v>16</v>
       </c>
-      <c r="R259" s="3"/>
+      <c r="R259" s="4">
+        <v>16.2</v>
+      </c>
       <c r="S259" s="3"/>
       <c r="T259" s="2" t="s">
         <v>27</v>
@@ -15604,13 +15478,13 @@
         <v>14.7</v>
       </c>
       <c r="O262" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="P262" s="4">
         <v>15</v>
       </c>
-      <c r="P262" s="4">
-        <v>15.1</v>
-      </c>
       <c r="Q262" s="4">
-        <v>14.4</v>
+        <v>12.5</v>
       </c>
       <c r="R262" s="3"/>
       <c r="S262" s="3"/>
@@ -15782,7 +15656,9 @@
       <c r="Q265" s="4">
         <v>27.2</v>
       </c>
-      <c r="R265" s="3"/>
+      <c r="R265" s="4">
+        <v>26.8</v>
+      </c>
       <c r="S265" s="3"/>
       <c r="T265" s="2" t="s">
         <v>27</v>
@@ -16312,9 +16188,11 @@
         <v>28.1</v>
       </c>
       <c r="Q276" s="4">
-        <v>28.7</v>
-      </c>
-      <c r="R276" s="3"/>
+        <v>29.2</v>
+      </c>
+      <c r="R276" s="4">
+        <v>29.8</v>
+      </c>
       <c r="S276" s="3"/>
       <c r="T276" s="2" t="s">
         <v>27</v>
@@ -16430,7 +16308,9 @@
       <c r="Q278" s="4">
         <v>12.2</v>
       </c>
-      <c r="R278" s="3"/>
+      <c r="R278" s="4">
+        <v>15.4</v>
+      </c>
       <c r="S278" s="3"/>
       <c r="T278" s="2" t="s">
         <v>27</v>
@@ -16848,7 +16728,9 @@
       <c r="Q285" s="4">
         <v>22.3</v>
       </c>
-      <c r="R285" s="3"/>
+      <c r="R285" s="4">
+        <v>22.8</v>
+      </c>
       <c r="S285" s="3"/>
       <c r="T285" s="2" t="s">
         <v>27</v>
@@ -17024,9 +16906,11 @@
         <v>10.3</v>
       </c>
       <c r="Q288" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="R288" s="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="R288" s="4">
+        <v>9.1</v>
+      </c>
       <c r="S288" s="3"/>
       <c r="T288" s="2" t="s">
         <v>48</v>
@@ -17614,7 +17498,9 @@
       <c r="Q298" s="4">
         <v>186.6</v>
       </c>
-      <c r="R298" s="3"/>
+      <c r="R298" s="4">
+        <v>190.1</v>
+      </c>
       <c r="S298" s="3"/>
       <c r="T298" s="2" t="s">
         <v>27</v>
@@ -18290,39 +18176,41 @@
         <v>378</v>
       </c>
       <c r="G310" s="5">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="H310" s="5">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="I310" s="5">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="J310" s="5">
         <v>1.05</v>
       </c>
       <c r="K310" s="5">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="L310" s="5">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="M310" s="5">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="N310" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O310" s="5">
         <v>0.88</v>
       </c>
-      <c r="O310" s="5">
-        <v>0.94</v>
-      </c>
       <c r="P310" s="5">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Q310" s="5">
-        <v>0.89</v>
-      </c>
-      <c r="R310" s="3"/>
+        <v>0.86</v>
+      </c>
+      <c r="R310" s="5">
+        <v>0.84</v>
+      </c>
       <c r="S310" s="3"/>
       <c r="T310" s="2" t="s">
         <v>239</v>
@@ -18407,7 +18295,7 @@
         <v>0.63</v>
       </c>
       <c r="H312" s="5">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="I312" s="5">
         <v>0.66</v>
@@ -18416,27 +18304,29 @@
         <v>0.66</v>
       </c>
       <c r="K312" s="5">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="L312" s="5">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="M312" s="5">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="N312" s="5">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O312" s="5">
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P312" s="5">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="Q312" s="5">
-        <v>0.38</v>
-      </c>
-      <c r="R312" s="3"/>
+        <v>0.36</v>
+      </c>
+      <c r="R312" s="5">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="S312" s="3"/>
       <c r="T312" s="2" t="s">
         <v>239</v>
@@ -19632,7 +19522,7 @@
         <v>776.56</v>
       </c>
       <c r="Q332" s="5">
-        <v>829.27</v>
+        <v>829</v>
       </c>
       <c r="R332" s="5">
         <v>983.51</v>
@@ -19695,14 +19585,14 @@
         <v>225.08</v>
       </c>
       <c r="R333" s="5">
-        <v>296.06</v>
+        <v>296.20999999999998</v>
       </c>
       <c r="S333" s="3"/>
       <c r="T333" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>393</v>
       </c>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1228,7 +1228,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 31-01-2023, 13:21</t>
+    <t>Ostatnia aktualizacja: 02-02-2023, 14:25</t>
   </si>
 </sst>
 </file>
@@ -17261,7 +17261,9 @@
       <c r="R294" s="6">
         <v>67</v>
       </c>
-      <c r="S294" s="3"/>
+      <c r="S294" s="6">
+        <v>50</v>
+      </c>
       <c r="T294" s="2" t="s">
         <v>210</v>
       </c>
@@ -17321,7 +17323,9 @@
       <c r="R295" s="6">
         <v>17</v>
       </c>
-      <c r="S295" s="3"/>
+      <c r="S295" s="6">
+        <v>0</v>
+      </c>
       <c r="T295" s="2" t="s">
         <v>210</v>
       </c>
@@ -17381,7 +17385,9 @@
       <c r="R296" s="6">
         <v>17</v>
       </c>
-      <c r="S296" s="3"/>
+      <c r="S296" s="6">
+        <v>17</v>
+      </c>
       <c r="T296" s="2" t="s">
         <v>210</v>
       </c>
@@ -17441,7 +17447,9 @@
       <c r="R297" s="6">
         <v>33</v>
       </c>
-      <c r="S297" s="3"/>
+      <c r="S297" s="6">
+        <v>50</v>
+      </c>
       <c r="T297" s="2" t="s">
         <v>210</v>
       </c>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -1228,20 +1223,20 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 02-02-2023, 14:25</t>
+    <t>Ostatnia aktualizacja: 07-02-2023, 10:19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10415]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10415]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1433,14 +1428,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1461,7 +1448,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1524,7 +1511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,10 +1543,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1591,7 +1577,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1767,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -1775,7 +1760,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1788,17 +1773,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="36" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1860,7 +1845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="29.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1920,7 +1905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="29.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1980,7 +1965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="29.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="29.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2100,7 +2085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="29.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2160,7 +2145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="29.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2220,7 +2205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="39">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2280,7 +2265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="39">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2340,7 +2325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="39">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2400,7 +2385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="39">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2460,7 +2445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="39">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2520,7 +2505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="39">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2578,7 +2563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="39">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2636,7 +2621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="39">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2694,7 +2679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="39">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2752,7 +2737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="29.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2812,7 +2797,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="29.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2868,7 +2853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="29.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2924,7 +2909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2982,7 +2967,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3036,7 +3021,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3090,7 +3075,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="19.5">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3150,7 +3135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="19.5">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3210,7 +3195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="19.5">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3270,7 +3255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="58.5">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -3328,7 +3313,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="39">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -3388,7 +3373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="39">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3446,7 +3431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="48.75">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3504,7 +3489,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="29.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -3562,7 +3547,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="39">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -3622,7 +3607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="19.5">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -3682,7 +3667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="19.5">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -3742,7 +3727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="19.5">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -3802,7 +3787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="68.25">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
@@ -3864,7 +3849,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="68.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -3926,7 +3911,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="68.25">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -3988,7 +3973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="68.25">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -4050,7 +4035,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="68.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -4112,7 +4097,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="68.25">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
@@ -4174,7 +4159,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="39">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -4216,7 +4201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="39">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -4258,7 +4243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="39">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
@@ -4300,7 +4285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="39">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -4342,7 +4327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="19.5">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -4400,7 +4385,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="19.5">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -4458,7 +4443,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4510,13 +4495,15 @@
       <c r="Q49" s="4">
         <v>455.1</v>
       </c>
-      <c r="R49" s="3"/>
+      <c r="R49" s="4">
+        <v>475.8</v>
+      </c>
       <c r="S49" s="3"/>
       <c r="T49" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4568,13 +4555,15 @@
       <c r="Q50" s="4">
         <v>439.3</v>
       </c>
-      <c r="R50" s="3"/>
+      <c r="R50" s="4">
+        <v>450.7</v>
+      </c>
       <c r="S50" s="3"/>
       <c r="T50" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -4626,13 +4615,15 @@
       <c r="Q51" s="4">
         <v>469.9</v>
       </c>
-      <c r="R51" s="3"/>
+      <c r="R51" s="4">
+        <v>499.3</v>
+      </c>
       <c r="S51" s="3"/>
       <c r="T51" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -4684,13 +4675,15 @@
       <c r="Q52" s="4">
         <v>451.1</v>
       </c>
-      <c r="R52" s="3"/>
+      <c r="R52" s="4">
+        <v>480.2</v>
+      </c>
       <c r="S52" s="3"/>
       <c r="T52" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -4742,13 +4735,15 @@
       <c r="Q53" s="4">
         <v>461</v>
       </c>
-      <c r="R53" s="3"/>
+      <c r="R53" s="4">
+        <v>469.3</v>
+      </c>
       <c r="S53" s="3"/>
       <c r="T53" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -4800,13 +4795,15 @@
       <c r="Q54" s="4">
         <v>260.39999999999998</v>
       </c>
-      <c r="R54" s="3"/>
+      <c r="R54" s="4">
+        <v>246.5</v>
+      </c>
       <c r="S54" s="3"/>
       <c r="T54" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -4858,13 +4855,15 @@
       <c r="Q55" s="4">
         <v>293.10000000000002</v>
       </c>
-      <c r="R55" s="3"/>
+      <c r="R55" s="4">
+        <v>275.39999999999998</v>
+      </c>
       <c r="S55" s="3"/>
       <c r="T55" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -4916,13 +4915,15 @@
       <c r="Q56" s="4">
         <v>229.8</v>
       </c>
-      <c r="R56" s="3"/>
+      <c r="R56" s="4">
+        <v>219.5</v>
+      </c>
       <c r="S56" s="3"/>
       <c r="T56" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -4974,13 +4975,15 @@
       <c r="Q57" s="4">
         <v>281.5</v>
       </c>
-      <c r="R57" s="3"/>
+      <c r="R57" s="4">
+        <v>266</v>
+      </c>
       <c r="S57" s="3"/>
       <c r="T57" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -5032,13 +5035,15 @@
       <c r="Q58" s="4">
         <v>228.7</v>
       </c>
-      <c r="R58" s="3"/>
+      <c r="R58" s="4">
+        <v>217.6</v>
+      </c>
       <c r="S58" s="3"/>
       <c r="T58" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="19.5">
       <c r="A59" s="2" t="s">
         <v>96</v>
       </c>
@@ -5090,13 +5095,15 @@
       <c r="Q59" s="4">
         <v>31.7</v>
       </c>
-      <c r="R59" s="3"/>
+      <c r="R59" s="4">
+        <v>28.5</v>
+      </c>
       <c r="S59" s="3"/>
       <c r="T59" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -5148,13 +5155,15 @@
       <c r="Q60" s="4">
         <v>30</v>
       </c>
-      <c r="R60" s="3"/>
+      <c r="R60" s="4">
+        <v>26.4</v>
+      </c>
       <c r="S60" s="3"/>
       <c r="T60" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="19.5">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -5206,13 +5215,15 @@
       <c r="Q61" s="4">
         <v>33.299999999999997</v>
       </c>
-      <c r="R61" s="3"/>
+      <c r="R61" s="4">
+        <v>30.5</v>
+      </c>
       <c r="S61" s="3"/>
       <c r="T61" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="19.5">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -5264,13 +5275,15 @@
       <c r="Q62" s="4">
         <v>31.7</v>
       </c>
-      <c r="R62" s="3"/>
+      <c r="R62" s="4">
+        <v>28.6</v>
+      </c>
       <c r="S62" s="3"/>
       <c r="T62" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="19.5">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -5322,13 +5335,15 @@
       <c r="Q63" s="4">
         <v>31.7</v>
       </c>
-      <c r="R63" s="3"/>
+      <c r="R63" s="4">
+        <v>28.4</v>
+      </c>
       <c r="S63" s="3"/>
       <c r="T63" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>96</v>
       </c>
@@ -5378,15 +5393,17 @@
         <v>22.6</v>
       </c>
       <c r="Q64" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="R64" s="3"/>
+        <v>22.9</v>
+      </c>
+      <c r="R64" s="4">
+        <v>25.4</v>
+      </c>
       <c r="S64" s="3"/>
       <c r="T64" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="19.5">
       <c r="A65" s="2" t="s">
         <v>96</v>
       </c>
@@ -5436,15 +5453,17 @@
         <v>27.5</v>
       </c>
       <c r="Q65" s="4">
-        <v>28.3</v>
-      </c>
-      <c r="R65" s="3"/>
+        <v>28.4</v>
+      </c>
+      <c r="R65" s="4">
+        <v>30</v>
+      </c>
       <c r="S65" s="3"/>
       <c r="T65" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="19.5">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
@@ -5494,15 +5513,17 @@
         <v>18.100000000000001</v>
       </c>
       <c r="Q66" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="R66" s="3"/>
+        <v>17.7</v>
+      </c>
+      <c r="R66" s="4">
+        <v>21.1</v>
+      </c>
       <c r="S66" s="3"/>
       <c r="T66" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="19.5">
       <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
@@ -5552,15 +5573,17 @@
         <v>23.5</v>
       </c>
       <c r="Q67" s="4">
-        <v>23</v>
-      </c>
-      <c r="R67" s="3"/>
+        <v>23.1</v>
+      </c>
+      <c r="R67" s="4">
+        <v>25.5</v>
+      </c>
       <c r="S67" s="3"/>
       <c r="T67" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="19.5">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5612,13 +5635,15 @@
       <c r="Q68" s="4">
         <v>22.5</v>
       </c>
-      <c r="R68" s="3"/>
+      <c r="R68" s="4">
+        <v>25.3</v>
+      </c>
       <c r="S68" s="3"/>
       <c r="T68" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="19.5">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -5660,7 +5685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="19.5">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -5702,7 +5727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -5762,7 +5787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -5802,7 +5827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -5842,7 +5867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
@@ -5882,7 +5907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -5922,7 +5947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="19.5">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -5962,7 +5987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="19.5">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -6002,7 +6027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>96</v>
       </c>
@@ -6042,7 +6067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -6082,7 +6107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -6122,7 +6147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>96</v>
       </c>
@@ -6162,7 +6187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="19.5">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -6202,7 +6227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="19.5">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -6242,7 +6267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>96</v>
       </c>
@@ -6282,7 +6307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="19.5">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -6324,7 +6349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -6366,7 +6391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -6408,7 +6433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -6450,7 +6475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -6492,7 +6517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
@@ -6534,7 +6559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -6576,7 +6601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
@@ -6618,7 +6643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -6660,7 +6685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -6702,7 +6727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -6744,7 +6769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="19.5">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -6786,7 +6811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="19.5">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -6828,7 +6853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="19.5">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -6870,7 +6895,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="19.5">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -6912,7 +6937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="19.5">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -6954,7 +6979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="19.5">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -6996,7 +7021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="19.5">
       <c r="A102" s="2" t="s">
         <v>96</v>
       </c>
@@ -7038,7 +7063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="19.5">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -7080,7 +7105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="19.5">
       <c r="A104" s="2" t="s">
         <v>96</v>
       </c>
@@ -7122,7 +7147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="19.5">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -7164,7 +7189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -7206,7 +7231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>96</v>
       </c>
@@ -7248,7 +7273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>96</v>
       </c>
@@ -7290,7 +7315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>96</v>
       </c>
@@ -7332,7 +7357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>96</v>
       </c>
@@ -7374,7 +7399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>96</v>
       </c>
@@ -7414,7 +7439,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="19.5">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -7454,7 +7479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>96</v>
       </c>
@@ -7494,7 +7519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="19.5">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
@@ -7556,7 +7581,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="39">
       <c r="A115" s="2" t="s">
         <v>96</v>
       </c>
@@ -7616,7 +7641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="29.25">
       <c r="A116" s="2" t="s">
         <v>96</v>
       </c>
@@ -7668,7 +7693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>96</v>
       </c>
@@ -7720,7 +7745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>96</v>
       </c>
@@ -7772,7 +7797,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="29.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -7816,7 +7841,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="39">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
@@ -7876,7 +7901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="29.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7936,7 +7961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="19.5">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -7996,7 +8021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="39">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8040,7 +8065,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="39">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8084,7 +8109,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="39">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8128,7 +8153,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="39">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8172,7 +8197,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="39">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8216,7 +8241,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="39">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8260,7 +8285,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8320,7 +8345,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8380,7 +8405,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8440,7 +8465,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8500,7 +8525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8560,7 +8585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8620,7 +8645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8680,7 +8705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8740,7 +8765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8800,7 +8825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8860,7 +8885,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8920,7 +8945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -8980,7 +9005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9040,7 +9065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9100,7 +9125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="78">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9140,7 +9165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="78">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9178,7 +9203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="78">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9216,7 +9241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="78">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9254,7 +9279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="78">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9292,7 +9317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="78">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9330,7 +9355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="78">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9368,7 +9393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="78">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9406,7 +9431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="78">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9444,7 +9469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="78">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9482,7 +9507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="78">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9520,7 +9545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="78">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9558,7 +9583,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="78">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9596,7 +9621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="78">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9634,7 +9659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="78">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9672,7 +9697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="78">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9710,7 +9735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="78">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9748,7 +9773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="78">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9786,7 +9811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="78">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9824,7 +9849,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="78">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9862,7 +9887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="78">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -9900,7 +9925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="78">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -9938,7 +9963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="78">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -9976,7 +10001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="78">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -10014,7 +10039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="78">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10052,7 +10077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>189</v>
       </c>
@@ -10112,7 +10137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>189</v>
       </c>
@@ -10172,7 +10197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="19.5">
       <c r="A170" s="2" t="s">
         <v>189</v>
       </c>
@@ -10232,7 +10257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="19.5">
       <c r="A171" s="2" t="s">
         <v>189</v>
       </c>
@@ -10292,7 +10317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="39">
       <c r="A172" s="2" t="s">
         <v>189</v>
       </c>
@@ -10340,7 +10365,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="68.25">
       <c r="A173" s="2" t="s">
         <v>189</v>
       </c>
@@ -10388,7 +10413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="48.75">
       <c r="A174" s="2" t="s">
         <v>189</v>
       </c>
@@ -10436,7 +10461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="39">
       <c r="A175" s="2" t="s">
         <v>189</v>
       </c>
@@ -10484,7 +10509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="39">
       <c r="A176" s="2" t="s">
         <v>189</v>
       </c>
@@ -10532,7 +10557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="39">
       <c r="A177" s="2" t="s">
         <v>189</v>
       </c>
@@ -10580,7 +10605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="68.25">
       <c r="A178" s="2" t="s">
         <v>189</v>
       </c>
@@ -10628,7 +10653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>189</v>
       </c>
@@ -10686,7 +10711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="19.5">
       <c r="A180" s="2" t="s">
         <v>189</v>
       </c>
@@ -10740,7 +10765,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="19.5">
       <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
@@ -10794,7 +10819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="29.25">
       <c r="A182" s="2" t="s">
         <v>189</v>
       </c>
@@ -10854,7 +10879,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="29.25">
       <c r="A183" s="2" t="s">
         <v>189</v>
       </c>
@@ -10914,7 +10939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="29.25">
       <c r="A184" s="2" t="s">
         <v>189</v>
       </c>
@@ -10974,7 +10999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="19.5">
       <c r="A185" s="2" t="s">
         <v>206</v>
       </c>
@@ -11032,7 +11057,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="19.5">
       <c r="A186" s="2" t="s">
         <v>206</v>
       </c>
@@ -11092,7 +11117,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="48.75">
       <c r="A187" s="2" t="s">
         <v>206</v>
       </c>
@@ -11152,7 +11177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="48.75">
       <c r="A188" s="2" t="s">
         <v>206</v>
       </c>
@@ -11212,7 +11237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="48.75">
       <c r="A189" s="2" t="s">
         <v>206</v>
       </c>
@@ -11272,7 +11297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="48.75">
       <c r="A190" s="2" t="s">
         <v>206</v>
       </c>
@@ -11332,7 +11357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="39">
       <c r="A191" s="2" t="s">
         <v>215</v>
       </c>
@@ -11390,7 +11415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="29.25">
       <c r="A192" s="2" t="s">
         <v>215</v>
       </c>
@@ -11448,7 +11473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="29.25">
       <c r="A193" s="2" t="s">
         <v>215</v>
       </c>
@@ -11508,7 +11533,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="29.25">
       <c r="A194" s="2" t="s">
         <v>215</v>
       </c>
@@ -11568,7 +11593,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="29.25">
       <c r="A195" s="2" t="s">
         <v>215</v>
       </c>
@@ -11628,7 +11653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>215</v>
       </c>
@@ -11688,7 +11713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="48.75">
       <c r="A197" s="2" t="s">
         <v>230</v>
       </c>
@@ -11746,7 +11771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="48.75">
       <c r="A198" s="2" t="s">
         <v>230</v>
       </c>
@@ -11806,7 +11831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="48.75">
       <c r="A199" s="2" t="s">
         <v>230</v>
       </c>
@@ -11862,7 +11887,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>230</v>
       </c>
@@ -11914,7 +11939,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="29.25">
       <c r="A201" s="2" t="s">
         <v>230</v>
       </c>
@@ -11974,7 +11999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="29.25">
       <c r="A202" s="2" t="s">
         <v>230</v>
       </c>
@@ -12034,7 +12059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="29.25">
       <c r="A203" s="2" t="s">
         <v>230</v>
       </c>
@@ -12094,7 +12119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>230</v>
       </c>
@@ -12154,7 +12179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="29.25">
       <c r="A205" s="2" t="s">
         <v>230</v>
       </c>
@@ -12214,7 +12239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>230</v>
       </c>
@@ -12274,7 +12299,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>230</v>
       </c>
@@ -12334,7 +12359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>230</v>
       </c>
@@ -12394,7 +12419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="29.25">
       <c r="A209" s="2" t="s">
         <v>230</v>
       </c>
@@ -12454,7 +12479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="29.25">
       <c r="A210" s="2" t="s">
         <v>230</v>
       </c>
@@ -12514,7 +12539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="29.25">
       <c r="A211" s="2" t="s">
         <v>230</v>
       </c>
@@ -12574,7 +12599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>230</v>
       </c>
@@ -12634,7 +12659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>230</v>
       </c>
@@ -12694,7 +12719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>230</v>
       </c>
@@ -12754,7 +12779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>230</v>
       </c>
@@ -12814,7 +12839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>230</v>
       </c>
@@ -12874,7 +12899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>230</v>
       </c>
@@ -12934,7 +12959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="39">
       <c r="A218" s="2" t="s">
         <v>230</v>
       </c>
@@ -12994,7 +13019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>230</v>
       </c>
@@ -13054,7 +13079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -13114,7 +13139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>230</v>
       </c>
@@ -13174,7 +13199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>230</v>
       </c>
@@ -13234,7 +13259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>230</v>
       </c>
@@ -13294,7 +13319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>230</v>
       </c>
@@ -13354,7 +13379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>230</v>
       </c>
@@ -13402,7 +13427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>230</v>
       </c>
@@ -13450,7 +13475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>230</v>
       </c>
@@ -13498,7 +13523,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
@@ -13546,7 +13571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>230</v>
       </c>
@@ -13594,7 +13619,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="29.25">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -13654,7 +13679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -13714,7 +13739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="29.25">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -13774,7 +13799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>230</v>
       </c>
@@ -13834,7 +13859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>230</v>
       </c>
@@ -13894,7 +13919,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>230</v>
       </c>
@@ -13954,7 +13979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>230</v>
       </c>
@@ -14014,7 +14039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>230</v>
       </c>
@@ -14074,7 +14099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>230</v>
       </c>
@@ -14134,7 +14159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>230</v>
       </c>
@@ -14194,7 +14219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>230</v>
       </c>
@@ -14254,7 +14279,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>230</v>
       </c>
@@ -14314,7 +14339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>230</v>
       </c>
@@ -14374,7 +14399,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>230</v>
       </c>
@@ -14434,7 +14459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>230</v>
       </c>
@@ -14494,7 +14519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>230</v>
       </c>
@@ -14554,7 +14579,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>230</v>
       </c>
@@ -14614,7 +14639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>230</v>
       </c>
@@ -14652,7 +14677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>230</v>
       </c>
@@ -14690,7 +14715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>230</v>
       </c>
@@ -14728,7 +14753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>230</v>
       </c>
@@ -14786,7 +14811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>230</v>
       </c>
@@ -14844,7 +14869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>230</v>
       </c>
@@ -14902,7 +14927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="39">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14962,7 +14987,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="39">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -15022,7 +15047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="39">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -15082,7 +15107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="39">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -15142,7 +15167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="39">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -15200,7 +15225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="39">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -15260,7 +15285,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="39">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -15320,7 +15345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="39">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -15374,7 +15399,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="39">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -15434,7 +15459,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>291</v>
       </c>
@@ -15492,7 +15517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>291</v>
       </c>
@@ -15550,7 +15575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="19.5">
       <c r="A264" s="2" t="s">
         <v>291</v>
       </c>
@@ -15604,7 +15629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="19.5">
       <c r="A265" s="2" t="s">
         <v>291</v>
       </c>
@@ -15664,7 +15689,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="19.5">
       <c r="A266" s="2" t="s">
         <v>291</v>
       </c>
@@ -15712,7 +15737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="19.5">
       <c r="A267" s="2" t="s">
         <v>291</v>
       </c>
@@ -15760,7 +15785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="29.25">
       <c r="A268" s="2" t="s">
         <v>291</v>
       </c>
@@ -15806,7 +15831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="29.25">
       <c r="A269" s="2" t="s">
         <v>291</v>
       </c>
@@ -15852,7 +15877,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="29.25">
       <c r="A270" s="2" t="s">
         <v>291</v>
       </c>
@@ -15898,7 +15923,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="29.25">
       <c r="A271" s="2" t="s">
         <v>291</v>
       </c>
@@ -15944,7 +15969,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="29.25">
       <c r="A272" s="2" t="s">
         <v>291</v>
       </c>
@@ -15990,7 +16015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="29.25">
       <c r="A273" s="2" t="s">
         <v>291</v>
       </c>
@@ -16036,7 +16061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="39">
       <c r="A274" s="2" t="s">
         <v>291</v>
       </c>
@@ -16082,7 +16107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="39">
       <c r="A275" s="2" t="s">
         <v>308</v>
       </c>
@@ -16138,7 +16163,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="39">
       <c r="A276" s="2" t="s">
         <v>308</v>
       </c>
@@ -16198,7 +16223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="39">
       <c r="A277" s="2" t="s">
         <v>308</v>
       </c>
@@ -16256,7 +16281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="39">
       <c r="A278" s="2" t="s">
         <v>308</v>
       </c>
@@ -16316,7 +16341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="39">
       <c r="A279" s="2" t="s">
         <v>308</v>
       </c>
@@ -16376,7 +16401,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="39">
       <c r="A280" s="2" t="s">
         <v>308</v>
       </c>
@@ -16436,7 +16461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="39">
       <c r="A281" s="2" t="s">
         <v>308</v>
       </c>
@@ -16496,7 +16521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="39">
       <c r="A282" s="2" t="s">
         <v>308</v>
       </c>
@@ -16556,7 +16581,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="39">
       <c r="A283" s="2" t="s">
         <v>308</v>
       </c>
@@ -16616,7 +16641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="58.5">
       <c r="A284" s="2" t="s">
         <v>308</v>
       </c>
@@ -16676,7 +16701,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="58.5">
       <c r="A285" s="2" t="s">
         <v>325</v>
       </c>
@@ -16736,7 +16761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="48.75">
       <c r="A286" s="2" t="s">
         <v>327</v>
       </c>
@@ -16796,7 +16821,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="48.75">
       <c r="A287" s="2" t="s">
         <v>327</v>
       </c>
@@ -16856,7 +16881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="48.75">
       <c r="A288" s="2" t="s">
         <v>327</v>
       </c>
@@ -16916,7 +16941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="48.75">
       <c r="A289" s="2" t="s">
         <v>327</v>
       </c>
@@ -16974,7 +16999,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="48.75">
       <c r="A290" s="2" t="s">
         <v>336</v>
       </c>
@@ -17032,7 +17057,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" ht="48.75">
       <c r="A291" s="2" t="s">
         <v>336</v>
       </c>
@@ -17090,7 +17115,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="29.25">
       <c r="A292" s="2" t="s">
         <v>336</v>
       </c>
@@ -17148,7 +17173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" ht="29.25">
       <c r="A293" s="2" t="s">
         <v>336</v>
       </c>
@@ -17206,7 +17231,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="87.75">
       <c r="A294" s="2" t="s">
         <v>346</v>
       </c>
@@ -17268,7 +17293,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="87.75">
       <c r="A295" s="2" t="s">
         <v>346</v>
       </c>
@@ -17330,7 +17355,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="87.75">
       <c r="A296" s="2" t="s">
         <v>346</v>
       </c>
@@ -17392,7 +17417,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="87.75">
       <c r="A297" s="2" t="s">
         <v>346</v>
       </c>
@@ -17454,7 +17479,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="19.5">
       <c r="A298" s="2" t="s">
         <v>346</v>
       </c>
@@ -17514,7 +17539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="29.25">
       <c r="A299" s="2" t="s">
         <v>346</v>
       </c>
@@ -17574,7 +17599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" ht="48.75">
       <c r="A300" s="2" t="s">
         <v>360</v>
       </c>
@@ -17634,7 +17659,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" ht="48.75">
       <c r="A301" s="2" t="s">
         <v>360</v>
       </c>
@@ -17694,7 +17719,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="48.75">
       <c r="A302" s="2" t="s">
         <v>360</v>
       </c>
@@ -17754,7 +17779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="39">
       <c r="A303" s="2" t="s">
         <v>360</v>
       </c>
@@ -17814,7 +17839,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="39">
       <c r="A304" s="2" t="s">
         <v>360</v>
       </c>
@@ -17874,7 +17899,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="39">
       <c r="A305" s="2" t="s">
         <v>360</v>
       </c>
@@ -17934,7 +17959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="39">
       <c r="A306" s="2" t="s">
         <v>360</v>
       </c>
@@ -17994,7 +18019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" ht="39">
       <c r="A307" s="2" t="s">
         <v>360</v>
       </c>
@@ -18054,7 +18079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" ht="29.25">
       <c r="A308" s="2" t="s">
         <v>371</v>
       </c>
@@ -18116,7 +18141,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" ht="29.25">
       <c r="A309" s="2" t="s">
         <v>371</v>
       </c>
@@ -18164,7 +18189,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="29.25">
       <c r="A310" s="2" t="s">
         <v>371</v>
       </c>
@@ -18224,7 +18249,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="29.25">
       <c r="A311" s="2" t="s">
         <v>371</v>
       </c>
@@ -18280,7 +18305,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="29.25">
       <c r="A312" s="2" t="s">
         <v>371</v>
       </c>
@@ -18340,7 +18365,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="39">
       <c r="A313" s="2" t="s">
         <v>371</v>
       </c>
@@ -18400,7 +18425,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="39">
       <c r="A314" s="2" t="s">
         <v>371</v>
       </c>
@@ -18460,7 +18485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="39">
       <c r="A315" s="2" t="s">
         <v>371</v>
       </c>
@@ -18520,7 +18545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="39">
       <c r="A316" s="2" t="s">
         <v>371</v>
       </c>
@@ -18580,7 +18605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="39">
       <c r="A317" s="2" t="s">
         <v>371</v>
       </c>
@@ -18640,7 +18665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="39">
       <c r="A318" s="2" t="s">
         <v>371</v>
       </c>
@@ -18700,7 +18725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="39">
       <c r="A319" s="2" t="s">
         <v>371</v>
       </c>
@@ -18760,7 +18785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="39">
       <c r="A320" s="2" t="s">
         <v>371</v>
       </c>
@@ -18820,7 +18845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="39">
       <c r="A321" s="2" t="s">
         <v>371</v>
       </c>
@@ -18880,7 +18905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="39">
       <c r="A322" s="2" t="s">
         <v>371</v>
       </c>
@@ -18940,7 +18965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="39">
       <c r="A323" s="2" t="s">
         <v>371</v>
       </c>
@@ -19000,7 +19025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="39">
       <c r="A324" s="2" t="s">
         <v>371</v>
       </c>
@@ -19060,7 +19085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="39">
       <c r="A325" s="2" t="s">
         <v>371</v>
       </c>
@@ -19120,7 +19145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="39">
       <c r="A326" s="2" t="s">
         <v>371</v>
       </c>
@@ -19180,7 +19205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="39">
       <c r="A327" s="2" t="s">
         <v>371</v>
       </c>
@@ -19240,7 +19265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="39">
       <c r="A328" s="2" t="s">
         <v>371</v>
       </c>
@@ -19300,7 +19325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="39">
       <c r="A329" s="2" t="s">
         <v>371</v>
       </c>
@@ -19360,7 +19385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="39">
       <c r="A330" s="2" t="s">
         <v>371</v>
       </c>
@@ -19420,7 +19445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" ht="29.25">
       <c r="A331" s="2" t="s">
         <v>371</v>
       </c>
@@ -19480,7 +19505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" ht="29.25">
       <c r="A332" s="2" t="s">
         <v>393</v>
       </c>
@@ -19540,7 +19565,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" ht="29.25">
       <c r="A333" s="2" t="s">
         <v>393</v>
       </c>
@@ -19600,7 +19625,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="107.25">
       <c r="A334" s="2" t="s">
         <v>393</v>
       </c>
@@ -19660,15 +19685,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
+    <row r="336" spans="1:20" ht="18" customHeight="1"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1">
       <c r="A337" s="10" t="s">
         <v>401</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1223,7 +1223,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-02-2023, 10:19</t>
+    <t>Ostatnia aktualizacja: 07-02-2023, 13:43</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1448,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1760,7 +1760,7 @@
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -4493,7 +4493,7 @@
         <v>421</v>
       </c>
       <c r="Q49" s="4">
-        <v>455.1</v>
+        <v>457.2</v>
       </c>
       <c r="R49" s="4">
         <v>475.8</v>
@@ -4553,7 +4553,7 @@
         <v>406.4</v>
       </c>
       <c r="Q50" s="4">
-        <v>439.3</v>
+        <v>441.3</v>
       </c>
       <c r="R50" s="4">
         <v>450.7</v>
@@ -4613,7 +4613,7 @@
         <v>434.6</v>
       </c>
       <c r="Q51" s="4">
-        <v>469.9</v>
+        <v>472.1</v>
       </c>
       <c r="R51" s="4">
         <v>499.3</v>
@@ -4673,7 +4673,7 @@
         <v>418.9</v>
       </c>
       <c r="Q52" s="4">
-        <v>451.1</v>
+        <v>453.7</v>
       </c>
       <c r="R52" s="4">
         <v>480.2</v>
@@ -4733,7 +4733,7 @@
         <v>424</v>
       </c>
       <c r="Q53" s="4">
-        <v>461</v>
+        <v>462.5</v>
       </c>
       <c r="R53" s="4">
         <v>469.3</v>
@@ -4793,7 +4793,7 @@
         <v>261.3</v>
       </c>
       <c r="Q54" s="4">
-        <v>260.39999999999998</v>
+        <v>261.60000000000002</v>
       </c>
       <c r="R54" s="4">
         <v>246.5</v>
@@ -4853,7 +4853,7 @@
         <v>292.8</v>
       </c>
       <c r="Q55" s="4">
-        <v>293.10000000000002</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="R55" s="4">
         <v>275.39999999999998</v>
@@ -4913,7 +4913,7 @@
         <v>231.9</v>
       </c>
       <c r="Q56" s="4">
-        <v>229.8</v>
+        <v>230.8</v>
       </c>
       <c r="R56" s="4">
         <v>219.5</v>
@@ -4973,7 +4973,7 @@
         <v>282.7</v>
       </c>
       <c r="Q57" s="4">
-        <v>281.5</v>
+        <v>283.10000000000002</v>
       </c>
       <c r="R57" s="4">
         <v>266</v>
@@ -5033,7 +5033,7 @@
         <v>229.2</v>
       </c>
       <c r="Q58" s="4">
-        <v>228.7</v>
+        <v>229.5</v>
       </c>
       <c r="R58" s="4">
         <v>217.6</v>
@@ -5093,7 +5093,7 @@
         <v>24.2</v>
       </c>
       <c r="Q59" s="4">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="R59" s="4">
         <v>28.5</v>
@@ -5153,7 +5153,7 @@
         <v>22.6</v>
       </c>
       <c r="Q60" s="4">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="R60" s="4">
         <v>26.4</v>
@@ -5213,7 +5213,7 @@
         <v>25.7</v>
       </c>
       <c r="Q61" s="4">
-        <v>33.299999999999997</v>
+        <v>33.5</v>
       </c>
       <c r="R61" s="4">
         <v>30.5</v>
@@ -5273,7 +5273,7 @@
         <v>24.5</v>
       </c>
       <c r="Q62" s="4">
-        <v>31.7</v>
+        <v>31.9</v>
       </c>
       <c r="R62" s="4">
         <v>28.6</v>
@@ -5333,7 +5333,7 @@
         <v>23.7</v>
       </c>
       <c r="Q63" s="4">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="R63" s="4">
         <v>28.4</v>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -314,13 +319,13 @@
     <t>Zmniejszenie zapadalności na choroby cywilizacyjne i umieralności z ich powodu</t>
   </si>
   <si>
-    <t>3.1.a Oczekiwane lata życia w zdrowiu mężczyzn</t>
+    <t>3.1.a Oczekiwane trwanie życia w zdrowiu mężczyzn</t>
   </si>
   <si>
     <t>lata</t>
   </si>
   <si>
-    <t>3.1.b Oczekiwane lata życia w zdrowiu kobiet</t>
+    <t>3.1.b Oczekiwane trwanie życia w zdrowiu kobiet</t>
   </si>
   <si>
     <t>3.1.c Liczba zgonów w wyniku chorób układu krążenia na 100 tys. ludności</t>
@@ -1223,20 +1228,20 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-02-2023, 13:43</t>
+    <t>Ostatnia aktualizacja: 28-02-2023, 10:06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10415]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10415]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1428,6 +1433,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1511,7 +1524,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1543,9 +1556,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1577,6 +1591,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1752,15 +1767,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1773,17 +1788,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1">
+    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="25.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="29.25">
+    <row r="4" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="29.25">
+    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1965,7 +1980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="29.25">
+    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="29.25">
+    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2085,7 +2100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="29.25">
+    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="29.25">
+    <row r="9" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2205,7 +2220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="39">
+    <row r="10" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2265,7 +2280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="39">
+    <row r="11" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2325,7 +2340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="39">
+    <row r="12" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2385,7 +2400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="39">
+    <row r="13" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2445,7 +2460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="39">
+    <row r="14" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2505,7 +2520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="39">
+    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2563,7 +2578,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="39">
+    <row r="16" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="39">
+    <row r="17" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2679,7 +2694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="39">
+    <row r="18" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2737,7 +2752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="29.25">
+    <row r="19" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2797,7 +2812,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="29.25">
+    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2853,7 +2868,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="29.25">
+    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2909,7 +2924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="29.25">
+    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2960,14 +2975,16 @@
         <v>25.9</v>
       </c>
       <c r="R22" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="S22" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="S22" s="4">
+        <v>32.700000000000003</v>
+      </c>
       <c r="T22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="29.25">
+    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3015,13 +3032,17 @@
       <c r="Q23" s="4">
         <v>37.5</v>
       </c>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
+      <c r="R23" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="S23" s="4">
+        <v>49.3</v>
+      </c>
       <c r="T23" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="29.25">
+    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3069,13 +3090,17 @@
       <c r="Q24" s="4">
         <v>9.6</v>
       </c>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
+      <c r="R24" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="S24" s="4">
+        <v>17.100000000000001</v>
+      </c>
       <c r="T24" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19.5">
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3135,7 +3160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5">
+    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3195,7 +3220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5">
+    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3255,7 +3280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="58.5">
+    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -3313,7 +3338,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="39">
+    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -3373,7 +3398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="39">
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3431,7 +3456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="48.75">
+    <row r="31" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3489,7 +3514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="29.25">
+    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -3547,7 +3572,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="39">
+    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -3607,7 +3632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="19.5">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -3667,7 +3692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="19.5">
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -3727,7 +3752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="19.5">
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -3787,7 +3812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="68.25">
+    <row r="37" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
@@ -3849,7 +3874,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="68.25">
+    <row r="38" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -3911,7 +3936,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="68.25">
+    <row r="39" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -3973,7 +3998,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="68.25">
+    <row r="40" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -4035,7 +4060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="68.25">
+    <row r="41" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -4097,7 +4122,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="68.25">
+    <row r="42" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
@@ -4159,7 +4184,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="39">
+    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -4201,7 +4226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="39">
+    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -4243,7 +4268,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="39">
+    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
@@ -4285,7 +4310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="39">
+    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -4327,7 +4352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="19.5">
+    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -4347,45 +4372,47 @@
         <v>99</v>
       </c>
       <c r="G47" s="4">
+        <v>58</v>
+      </c>
+      <c r="H47" s="4">
+        <v>58.2</v>
+      </c>
+      <c r="I47" s="4">
         <v>58.5</v>
       </c>
-      <c r="H47" s="4">
+      <c r="J47" s="4">
+        <v>58.7</v>
+      </c>
+      <c r="K47" s="4">
+        <v>58.9</v>
+      </c>
+      <c r="L47" s="4">
+        <v>59</v>
+      </c>
+      <c r="M47" s="4">
+        <v>59.6</v>
+      </c>
+      <c r="N47" s="4">
+        <v>59.7</v>
+      </c>
+      <c r="O47" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="P47" s="4">
+        <v>59.8</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>59.2</v>
+      </c>
+      <c r="R47" s="4">
         <v>59.1</v>
       </c>
-      <c r="I47" s="4">
-        <v>59.1</v>
-      </c>
-      <c r="J47" s="4">
-        <v>59.2</v>
-      </c>
-      <c r="K47" s="4">
-        <v>59.8</v>
-      </c>
-      <c r="L47" s="4">
-        <v>60.1</v>
-      </c>
-      <c r="M47" s="4">
-        <v>61.3</v>
-      </c>
-      <c r="N47" s="4">
-        <v>60.6</v>
-      </c>
-      <c r="O47" s="4">
-        <v>60.5</v>
-      </c>
-      <c r="P47" s="4">
-        <v>60.9</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>60.3</v>
-      </c>
-      <c r="R47" s="3"/>
       <c r="S47" s="3"/>
       <c r="T47" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="19.5">
+    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -4405,45 +4432,47 @@
         <v>99</v>
       </c>
       <c r="G48" s="4">
-        <v>62.3</v>
+        <v>61.6</v>
       </c>
       <c r="H48" s="4">
-        <v>63.2</v>
+        <v>61.9</v>
       </c>
       <c r="I48" s="4">
-        <v>62.8</v>
+        <v>62.1</v>
       </c>
       <c r="J48" s="4">
-        <v>62.7</v>
+        <v>62.1</v>
       </c>
       <c r="K48" s="4">
-        <v>62.7</v>
+        <v>62.2</v>
       </c>
       <c r="L48" s="4">
-        <v>63.2</v>
+        <v>62.4</v>
       </c>
       <c r="M48" s="4">
-        <v>64.599999999999994</v>
+        <v>63</v>
       </c>
       <c r="N48" s="4">
-        <v>63.5</v>
+        <v>63.1</v>
       </c>
       <c r="O48" s="4">
-        <v>64.3</v>
+        <v>63.3</v>
       </c>
       <c r="P48" s="4">
-        <v>64.099999999999994</v>
+        <v>63.3</v>
       </c>
       <c r="Q48" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="R48" s="3"/>
+        <v>63.1</v>
+      </c>
+      <c r="R48" s="4">
+        <v>63.1</v>
+      </c>
       <c r="S48" s="3"/>
       <c r="T48" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="19.5">
+    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4503,7 +4532,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="19.5">
+    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4563,7 +4592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="19.5">
+    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -4623,7 +4652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="19.5">
+    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -4683,7 +4712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="19.5">
+    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -4743,7 +4772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="19.5">
+    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -4803,7 +4832,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="19.5">
+    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -4863,7 +4892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="19.5">
+    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -4923,7 +4952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="19.5">
+    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -4983,7 +5012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="19.5">
+    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -5043,7 +5072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="19.5">
+    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>96</v>
       </c>
@@ -5103,7 +5132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="19.5">
+    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -5163,7 +5192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="19.5">
+    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -5223,7 +5252,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="19.5">
+    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -5283,7 +5312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="19.5">
+    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -5343,7 +5372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="19.5">
+    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>96</v>
       </c>
@@ -5403,7 +5432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="19.5">
+    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>96</v>
       </c>
@@ -5463,7 +5492,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="19.5">
+    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
@@ -5523,7 +5552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="19.5">
+    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
@@ -5583,7 +5612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="19.5">
+    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5643,7 +5672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="19.5">
+    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -5685,7 +5714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="19.5">
+    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -5727,7 +5756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="29.25">
+    <row r="71" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -5787,7 +5816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="19.5">
+    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -5827,7 +5856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="19.5">
+    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -5867,7 +5896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="19.5">
+    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
@@ -5907,7 +5936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="19.5">
+    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -5947,7 +5976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="19.5">
+    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -5987,7 +6016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="19.5">
+    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -6027,7 +6056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="19.5">
+    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>96</v>
       </c>
@@ -6067,7 +6096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="19.5">
+    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -6107,7 +6136,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="19.5">
+    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -6147,7 +6176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="19.5">
+    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>96</v>
       </c>
@@ -6187,7 +6216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="19.5">
+    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -6227,7 +6256,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="19.5">
+    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -6267,7 +6296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="19.5">
+    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>96</v>
       </c>
@@ -6307,7 +6336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="19.5">
+    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -6349,7 +6378,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="19.5">
+    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -6391,7 +6420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="19.5">
+    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -6433,7 +6462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="19.5">
+    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -6475,7 +6504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="19.5">
+    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -6517,7 +6546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="19.5">
+    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
@@ -6559,7 +6588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="19.5">
+    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -6601,7 +6630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="19.5">
+    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
@@ -6643,7 +6672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="19.5">
+    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -6685,7 +6714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="19.5">
+    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -6727,7 +6756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="19.5">
+    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -6769,7 +6798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="19.5">
+    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -6811,7 +6840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="19.5">
+    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -6853,7 +6882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="19.5">
+    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -6895,7 +6924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="19.5">
+    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -6937,7 +6966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="19.5">
+    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -6979,7 +7008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="19.5">
+    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -7021,7 +7050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="19.5">
+    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>96</v>
       </c>
@@ -7063,7 +7092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="19.5">
+    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -7105,7 +7134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="19.5">
+    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>96</v>
       </c>
@@ -7147,7 +7176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="19.5">
+    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -7189,7 +7218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="19.5">
+    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -7231,7 +7260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="19.5">
+    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>96</v>
       </c>
@@ -7273,7 +7302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="19.5">
+    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>96</v>
       </c>
@@ -7315,7 +7344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="19.5">
+    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>96</v>
       </c>
@@ -7357,7 +7386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="19.5">
+    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>96</v>
       </c>
@@ -7399,7 +7428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="19.5">
+    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>96</v>
       </c>
@@ -7439,7 +7468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="19.5">
+    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -7479,7 +7508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="19.5">
+    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>96</v>
       </c>
@@ -7519,7 +7548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="19.5">
+    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
@@ -7581,7 +7610,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="39">
+    <row r="115" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>96</v>
       </c>
@@ -7641,7 +7670,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="29.25">
+    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>96</v>
       </c>
@@ -7693,7 +7722,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="29.25">
+    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>96</v>
       </c>
@@ -7745,7 +7774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="29.25">
+    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>96</v>
       </c>
@@ -7797,7 +7826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="29.25">
+    <row r="119" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -7841,7 +7870,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="39">
+    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
@@ -7901,7 +7930,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="29.25">
+    <row r="121" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7961,7 +7990,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="19.5">
+    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8021,7 +8050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="39">
+    <row r="123" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8065,7 +8094,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="39">
+    <row r="124" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8109,7 +8138,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="39">
+    <row r="125" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8153,7 +8182,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="39">
+    <row r="126" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8197,7 +8226,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="39">
+    <row r="127" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8241,7 +8270,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="39">
+    <row r="128" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8285,7 +8314,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="29.25">
+    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8335,17 +8364,17 @@
         <v>88.5</v>
       </c>
       <c r="Q129" s="4">
-        <v>87.2</v>
+        <v>85.2</v>
       </c>
       <c r="R129" s="4">
-        <v>89.6</v>
+        <v>88.3</v>
       </c>
       <c r="S129" s="3"/>
       <c r="T129" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="29.25">
+    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8395,17 +8424,17 @@
         <v>102.7</v>
       </c>
       <c r="Q130" s="4">
-        <v>101.1</v>
+        <v>103.1</v>
       </c>
       <c r="R130" s="4">
-        <v>103.1</v>
+        <v>106.3</v>
       </c>
       <c r="S130" s="3"/>
       <c r="T130" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="29.25">
+    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8455,17 +8484,17 @@
         <v>68.5</v>
       </c>
       <c r="Q131" s="4">
-        <v>67.7</v>
+        <v>62.5</v>
       </c>
       <c r="R131" s="4">
-        <v>70.900000000000006</v>
+        <v>65.8</v>
       </c>
       <c r="S131" s="3"/>
       <c r="T131" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="29.25">
+    <row r="132" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8525,7 +8554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="29.25">
+    <row r="133" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8585,7 +8614,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="29.25">
+    <row r="134" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8645,7 +8674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="29.25">
+    <row r="135" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8705,7 +8734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="29.25">
+    <row r="136" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8765,7 +8794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="29.25">
+    <row r="137" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8825,7 +8854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="29.25">
+    <row r="138" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8885,7 +8914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="29.25">
+    <row r="139" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8945,7 +8974,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="29.25">
+    <row r="140" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -9005,7 +9034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="29.25">
+    <row r="141" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9065,7 +9094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="29.25">
+    <row r="142" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9125,7 +9154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="78">
+    <row r="143" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9165,7 +9194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="78">
+    <row r="144" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9203,7 +9232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="78">
+    <row r="145" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9241,7 +9270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="78">
+    <row r="146" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9279,7 +9308,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="78">
+    <row r="147" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9317,7 +9346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="78">
+    <row r="148" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9355,7 +9384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="78">
+    <row r="149" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9393,7 +9422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="78">
+    <row r="150" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9431,7 +9460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="78">
+    <row r="151" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9469,7 +9498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="78">
+    <row r="152" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9507,7 +9536,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="78">
+    <row r="153" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9545,7 +9574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="78">
+    <row r="154" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9583,7 +9612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="78">
+    <row r="155" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9621,7 +9650,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="78">
+    <row r="156" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9659,7 +9688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="78">
+    <row r="157" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9697,7 +9726,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="78">
+    <row r="158" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9735,7 +9764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="78">
+    <row r="159" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9773,7 +9802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="78">
+    <row r="160" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9811,7 +9840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="78">
+    <row r="161" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9849,7 +9878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="78">
+    <row r="162" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9887,7 +9916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="78">
+    <row r="163" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -9925,7 +9954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="78">
+    <row r="164" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -9963,7 +9992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="78">
+    <row r="165" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -10001,7 +10030,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="78">
+    <row r="166" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -10039,7 +10068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="78">
+    <row r="167" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10077,7 +10106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="19.5">
+    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>189</v>
       </c>
@@ -10137,7 +10166,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="19.5">
+    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>189</v>
       </c>
@@ -10197,7 +10226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="19.5">
+    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>189</v>
       </c>
@@ -10257,7 +10286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="19.5">
+    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>189</v>
       </c>
@@ -10317,7 +10346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="39">
+    <row r="172" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>189</v>
       </c>
@@ -10365,7 +10394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="68.25">
+    <row r="173" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>189</v>
       </c>
@@ -10413,7 +10442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="48.75">
+    <row r="174" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>189</v>
       </c>
@@ -10461,7 +10490,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="39">
+    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>189</v>
       </c>
@@ -10509,7 +10538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="39">
+    <row r="176" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>189</v>
       </c>
@@ -10557,7 +10586,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="39">
+    <row r="177" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>189</v>
       </c>
@@ -10605,7 +10634,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="68.25">
+    <row r="178" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>189</v>
       </c>
@@ -10653,7 +10682,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="19.5">
+    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>189</v>
       </c>
@@ -10704,14 +10733,16 @@
         <v>25.9</v>
       </c>
       <c r="R179" s="4">
-        <v>28.8</v>
-      </c>
-      <c r="S179" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="S179" s="4">
+        <v>32.700000000000003</v>
+      </c>
       <c r="T179" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="19.5">
+    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>189</v>
       </c>
@@ -10759,13 +10790,17 @@
       <c r="Q180" s="4">
         <v>37.5</v>
       </c>
-      <c r="R180" s="3"/>
-      <c r="S180" s="3"/>
+      <c r="R180" s="4">
+        <v>44.5</v>
+      </c>
+      <c r="S180" s="4">
+        <v>49.3</v>
+      </c>
       <c r="T180" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="19.5">
+    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
@@ -10813,13 +10848,17 @@
       <c r="Q181" s="4">
         <v>9.6</v>
       </c>
-      <c r="R181" s="3"/>
-      <c r="S181" s="3"/>
+      <c r="R181" s="4">
+        <v>14.7</v>
+      </c>
+      <c r="S181" s="4">
+        <v>17.100000000000001</v>
+      </c>
       <c r="T181" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="29.25">
+    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>189</v>
       </c>
@@ -10879,7 +10918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="29.25">
+    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>189</v>
       </c>
@@ -10939,7 +10978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="29.25">
+    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>189</v>
       </c>
@@ -10999,7 +11038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="19.5">
+    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>206</v>
       </c>
@@ -11057,7 +11096,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="19.5">
+    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>206</v>
       </c>
@@ -11117,7 +11156,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="48.75">
+    <row r="187" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>206</v>
       </c>
@@ -11177,7 +11216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="48.75">
+    <row r="188" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>206</v>
       </c>
@@ -11237,7 +11276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="48.75">
+    <row r="189" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>206</v>
       </c>
@@ -11297,7 +11336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="48.75">
+    <row r="190" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>206</v>
       </c>
@@ -11357,7 +11396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="39">
+    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>215</v>
       </c>
@@ -11415,7 +11454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="29.25">
+    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>215</v>
       </c>
@@ -11467,13 +11506,15 @@
       <c r="Q192" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="R192" s="3"/>
+      <c r="R192" s="5">
+        <v>15.62</v>
+      </c>
       <c r="S192" s="3"/>
       <c r="T192" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="29.25">
+    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>215</v>
       </c>
@@ -11533,7 +11574,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="29.25">
+    <row r="194" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>215</v>
       </c>
@@ -11593,7 +11634,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="29.25">
+    <row r="195" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>215</v>
       </c>
@@ -11653,7 +11694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="29.25">
+    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>215</v>
       </c>
@@ -11713,7 +11754,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="48.75">
+    <row r="197" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>230</v>
       </c>
@@ -11771,7 +11812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="48.75">
+    <row r="198" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>230</v>
       </c>
@@ -11831,7 +11872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="48.75">
+    <row r="199" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>230</v>
       </c>
@@ -11887,7 +11928,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="29.25">
+    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>230</v>
       </c>
@@ -11939,7 +11980,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="29.25">
+    <row r="201" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>230</v>
       </c>
@@ -11999,7 +12040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="29.25">
+    <row r="202" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>230</v>
       </c>
@@ -12059,7 +12100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="29.25">
+    <row r="203" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>230</v>
       </c>
@@ -12119,7 +12160,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="29.25">
+    <row r="204" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>230</v>
       </c>
@@ -12179,7 +12220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="29.25">
+    <row r="205" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>230</v>
       </c>
@@ -12239,7 +12280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="29.25">
+    <row r="206" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>230</v>
       </c>
@@ -12299,7 +12340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="29.25">
+    <row r="207" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>230</v>
       </c>
@@ -12359,7 +12400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="29.25">
+    <row r="208" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>230</v>
       </c>
@@ -12419,7 +12460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="29.25">
+    <row r="209" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>230</v>
       </c>
@@ -12479,7 +12520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="29.25">
+    <row r="210" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>230</v>
       </c>
@@ -12539,7 +12580,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="29.25">
+    <row r="211" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>230</v>
       </c>
@@ -12599,7 +12640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="29.25">
+    <row r="212" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>230</v>
       </c>
@@ -12659,7 +12700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="29.25">
+    <row r="213" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>230</v>
       </c>
@@ -12719,7 +12760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="29.25">
+    <row r="214" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>230</v>
       </c>
@@ -12779,7 +12820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="29.25">
+    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>230</v>
       </c>
@@ -12839,7 +12880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="29.25">
+    <row r="216" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>230</v>
       </c>
@@ -12899,7 +12940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="29.25">
+    <row r="217" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>230</v>
       </c>
@@ -12959,7 +13000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="39">
+    <row r="218" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>230</v>
       </c>
@@ -13019,7 +13060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="29.25">
+    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>230</v>
       </c>
@@ -13079,7 +13120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="29.25">
+    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -13139,7 +13180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="29.25">
+    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>230</v>
       </c>
@@ -13199,7 +13240,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="29.25">
+    <row r="222" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>230</v>
       </c>
@@ -13259,7 +13300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="29.25">
+    <row r="223" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>230</v>
       </c>
@@ -13319,7 +13360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="29.25">
+    <row r="224" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>230</v>
       </c>
@@ -13379,7 +13420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="29.25">
+    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>230</v>
       </c>
@@ -13427,7 +13468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="29.25">
+    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>230</v>
       </c>
@@ -13475,7 +13516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="29.25">
+    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>230</v>
       </c>
@@ -13523,7 +13564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="29.25">
+    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
@@ -13571,7 +13612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="29.25">
+    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>230</v>
       </c>
@@ -13619,7 +13660,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="29.25">
+    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -13679,7 +13720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="29.25">
+    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -13739,7 +13780,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="29.25">
+    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -13799,7 +13840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="29.25">
+    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>230</v>
       </c>
@@ -13859,7 +13900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="29.25">
+    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>230</v>
       </c>
@@ -13919,7 +13960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="29.25">
+    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>230</v>
       </c>
@@ -13979,7 +14020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="29.25">
+    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>230</v>
       </c>
@@ -14039,7 +14080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="29.25">
+    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>230</v>
       </c>
@@ -14099,7 +14140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="29.25">
+    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>230</v>
       </c>
@@ -14159,7 +14200,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="29.25">
+    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>230</v>
       </c>
@@ -14219,7 +14260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="29.25">
+    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>230</v>
       </c>
@@ -14279,7 +14320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="29.25">
+    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>230</v>
       </c>
@@ -14339,7 +14380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="29.25">
+    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>230</v>
       </c>
@@ -14399,7 +14440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="29.25">
+    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>230</v>
       </c>
@@ -14459,7 +14500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="29.25">
+    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>230</v>
       </c>
@@ -14519,7 +14560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="29.25">
+    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>230</v>
       </c>
@@ -14579,7 +14620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="29.25">
+    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>230</v>
       </c>
@@ -14639,7 +14680,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="29.25">
+    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>230</v>
       </c>
@@ -14677,7 +14718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="29.25">
+    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>230</v>
       </c>
@@ -14715,7 +14756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="29.25">
+    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>230</v>
       </c>
@@ -14753,7 +14794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="29.25">
+    <row r="250" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>230</v>
       </c>
@@ -14811,7 +14852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="29.25">
+    <row r="251" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>230</v>
       </c>
@@ -14869,7 +14910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="29.25">
+    <row r="252" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>230</v>
       </c>
@@ -14927,7 +14968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="39">
+    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -14987,7 +15028,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="39">
+    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -15047,7 +15088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="39">
+    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -15107,7 +15148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="39">
+    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -15167,7 +15208,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="39">
+    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -15225,7 +15266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="39">
+    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -15285,7 +15326,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="39">
+    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -15345,7 +15386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="39">
+    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -15399,7 +15440,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="39">
+    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -15459,7 +15500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="29.25">
+    <row r="262" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>291</v>
       </c>
@@ -15517,7 +15558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="29.25">
+    <row r="263" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>291</v>
       </c>
@@ -15569,13 +15610,15 @@
       <c r="Q263" s="4">
         <v>78.3</v>
       </c>
-      <c r="R263" s="3"/>
+      <c r="R263" s="4">
+        <v>80.400000000000006</v>
+      </c>
       <c r="S263" s="3"/>
       <c r="T263" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="19.5">
+    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>291</v>
       </c>
@@ -15629,7 +15672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="19.5">
+    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>291</v>
       </c>
@@ -15689,7 +15732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="19.5">
+    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>291</v>
       </c>
@@ -15731,13 +15774,15 @@
       <c r="Q266" s="4">
         <v>26.4</v>
       </c>
-      <c r="R266" s="3"/>
+      <c r="R266" s="4">
+        <v>26.2</v>
+      </c>
       <c r="S266" s="3"/>
       <c r="T266" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="19.5">
+    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>291</v>
       </c>
@@ -15779,13 +15824,15 @@
       <c r="Q267" s="4">
         <v>26.5</v>
       </c>
-      <c r="R267" s="3"/>
+      <c r="R267" s="4">
+        <v>26.1</v>
+      </c>
       <c r="S267" s="3"/>
       <c r="T267" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="29.25">
+    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>291</v>
       </c>
@@ -15831,7 +15878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="29.25">
+    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>291</v>
       </c>
@@ -15877,7 +15924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="29.25">
+    <row r="270" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>291</v>
       </c>
@@ -15923,7 +15970,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="29.25">
+    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>291</v>
       </c>
@@ -15969,7 +16016,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="29.25">
+    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>291</v>
       </c>
@@ -16015,7 +16062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="29.25">
+    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>291</v>
       </c>
@@ -16061,7 +16108,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="39">
+    <row r="274" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>291</v>
       </c>
@@ -16107,7 +16154,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="39">
+    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>308</v>
       </c>
@@ -16163,7 +16210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="39">
+    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>308</v>
       </c>
@@ -16223,7 +16270,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="39">
+    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>308</v>
       </c>
@@ -16281,7 +16328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="39">
+    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>308</v>
       </c>
@@ -16341,7 +16388,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="39">
+    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>308</v>
       </c>
@@ -16401,7 +16448,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="39">
+    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>308</v>
       </c>
@@ -16461,7 +16508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="39">
+    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>308</v>
       </c>
@@ -16521,7 +16568,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="39">
+    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>308</v>
       </c>
@@ -16581,7 +16628,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="39">
+    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>308</v>
       </c>
@@ -16641,7 +16688,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="58.5">
+    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>308</v>
       </c>
@@ -16701,7 +16748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="58.5">
+    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>325</v>
       </c>
@@ -16761,7 +16808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="48.75">
+    <row r="286" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>327</v>
       </c>
@@ -16821,7 +16868,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="48.75">
+    <row r="287" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>327</v>
       </c>
@@ -16881,7 +16928,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="48.75">
+    <row r="288" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>327</v>
       </c>
@@ -16941,7 +16988,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="48.75">
+    <row r="289" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>327</v>
       </c>
@@ -16999,7 +17046,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="48.75">
+    <row r="290" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>336</v>
       </c>
@@ -17057,7 +17104,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="48.75">
+    <row r="291" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>336</v>
       </c>
@@ -17115,7 +17162,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="29.25">
+    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>336</v>
       </c>
@@ -17167,13 +17214,15 @@
       <c r="Q292" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="R292" s="3"/>
+      <c r="R292" s="5">
+        <v>15.62</v>
+      </c>
       <c r="S292" s="3"/>
       <c r="T292" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="29.25">
+    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>336</v>
       </c>
@@ -17231,7 +17280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="87.75">
+    <row r="294" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>346</v>
       </c>
@@ -17293,7 +17342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="87.75">
+    <row r="295" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>346</v>
       </c>
@@ -17355,7 +17404,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="87.75">
+    <row r="296" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>346</v>
       </c>
@@ -17417,7 +17466,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="87.75">
+    <row r="297" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>346</v>
       </c>
@@ -17479,7 +17528,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="19.5">
+    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>346</v>
       </c>
@@ -17539,7 +17588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="29.25">
+    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>346</v>
       </c>
@@ -17599,7 +17648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="48.75">
+    <row r="300" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>360</v>
       </c>
@@ -17659,7 +17708,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="48.75">
+    <row r="301" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>360</v>
       </c>
@@ -17719,7 +17768,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="48.75">
+    <row r="302" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>360</v>
       </c>
@@ -17779,7 +17828,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="39">
+    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>360</v>
       </c>
@@ -17839,7 +17888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="39">
+    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>360</v>
       </c>
@@ -17899,7 +17948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="39">
+    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>360</v>
       </c>
@@ -17959,7 +18008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="39">
+    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>360</v>
       </c>
@@ -18019,7 +18068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="39">
+    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>360</v>
       </c>
@@ -18079,7 +18128,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="29.25">
+    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>371</v>
       </c>
@@ -18141,7 +18190,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="29.25">
+    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>371</v>
       </c>
@@ -18189,7 +18238,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="29.25">
+    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>371</v>
       </c>
@@ -18249,7 +18298,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="29.25">
+    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>371</v>
       </c>
@@ -18305,7 +18354,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="29.25">
+    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>371</v>
       </c>
@@ -18365,7 +18414,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="39">
+    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>371</v>
       </c>
@@ -18425,7 +18474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="39">
+    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>371</v>
       </c>
@@ -18485,7 +18534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="39">
+    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>371</v>
       </c>
@@ -18545,7 +18594,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="39">
+    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>371</v>
       </c>
@@ -18605,7 +18654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="39">
+    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>371</v>
       </c>
@@ -18665,7 +18714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="39">
+    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>371</v>
       </c>
@@ -18725,7 +18774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="39">
+    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>371</v>
       </c>
@@ -18785,7 +18834,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="39">
+    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>371</v>
       </c>
@@ -18845,7 +18894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="39">
+    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>371</v>
       </c>
@@ -18905,7 +18954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="39">
+    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>371</v>
       </c>
@@ -18965,7 +19014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="39">
+    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>371</v>
       </c>
@@ -19025,7 +19074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="39">
+    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>371</v>
       </c>
@@ -19085,7 +19134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="39">
+    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>371</v>
       </c>
@@ -19145,7 +19194,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="39">
+    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>371</v>
       </c>
@@ -19205,7 +19254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="39">
+    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>371</v>
       </c>
@@ -19265,7 +19314,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="39">
+    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>371</v>
       </c>
@@ -19325,7 +19374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="39">
+    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>371</v>
       </c>
@@ -19385,7 +19434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="39">
+    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>371</v>
       </c>
@@ -19445,7 +19494,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="29.25">
+    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>371</v>
       </c>
@@ -19505,7 +19554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="29.25">
+    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>393</v>
       </c>
@@ -19565,7 +19614,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="29.25">
+    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>393</v>
       </c>
@@ -19625,7 +19674,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="107.25">
+    <row r="334" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>393</v>
       </c>
@@ -19685,15 +19734,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1">
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
         <v>401</v>
       </c>
       <c r="B337" s="8"/>
     </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1"/>
+    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">
@@ -19705,7 +19754,7 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1228,7 +1228,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 28-02-2023, 10:06</t>
+    <t>Ostatnia aktualizacja: 07-03-2023, 11:34</t>
   </si>
 </sst>
 </file>
@@ -1771,7 +1771,7 @@
   <dimension ref="A1:T338"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="S47" s="3"/>
       <c r="T47" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
@@ -7917,7 +7917,7 @@
         <v>22</v>
       </c>
       <c r="P120" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q120" s="6">
         <v>19</v>
@@ -16735,7 +16735,7 @@
         <v>22</v>
       </c>
       <c r="P284" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q284" s="6">
         <v>19</v>
@@ -17875,7 +17875,7 @@
         <v>22</v>
       </c>
       <c r="P303" s="6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q303" s="6">
         <v>19</v>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niewiadomskaew\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="398">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -952,7 +947,7 @@
     <t>Cel 11. Zrównoważone miasta i społeczności</t>
   </si>
   <si>
-    <t>Wzmocnienie zdolności miast i obszarów zurbanizowanych do zrównoważonego rozwoju i tworzenia miejsc pracy oraz poprawy jakości życia mieszkańców</t>
+    <t>Wzmocnienie zdolności miast i obszarów zurbanizowanych do zrównoważonego rozwoju i tworzenia miejsc pracy oraz poprawy jakości życia mieszkańców poprzez uwzględnienie w planach zagospodarowania w miastach konieczności zwiększenia obszarów zieleni i wodnych, korytarzy wentylacyjnych</t>
   </si>
   <si>
     <t>11.1.a Narażenie na nadmierny hałas</t>
@@ -994,18 +989,6 @@
     <t>składowanie</t>
   </si>
   <si>
-    <t>Poprawa jakości powietrza, zwłaszcza redukcja wielkości emisji zanieczyszczeń pyłowych powstających w sektorze bytowo-komunalnym w wyniku spalania złej jakości paliw stałych w niskich temperaturach i w kotłach małej mocy, jak również spalania odpadów</t>
-  </si>
-  <si>
-    <t>11.2.a Krajowy wskaźnik średniego narażenia na pył PM2,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cel 11. Zrównoważone miasta i społeczności </t>
-  </si>
-  <si>
-    <t>11.2.b Powierzchnia terenów zieleni w miastach [w m2] przypadająca na 1 mieszkańca</t>
-  </si>
-  <si>
     <t>Cel 12. Odpowiedzialna konsumpcja i produkcja</t>
   </si>
   <si>
@@ -1228,20 +1211,20 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 07-03-2023, 11:34</t>
+    <t>Ostatnia aktualizacja: 22-03-2023, 08:36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10415]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10415]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1433,14 +1416,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1461,7 +1436,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="0" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1524,7 +1499,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1556,10 +1531,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1591,7 +1565,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1767,15 +1740,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T338"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T335"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1788,17 +1761,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="36" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="25.5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1860,7 +1833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="29.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1920,7 +1893,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="29.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1980,7 +1953,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="29.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2040,7 +2013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="29.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2100,7 +2073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="29.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2160,7 +2133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="29.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2220,7 +2193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="39">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2280,7 +2253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="39">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2340,7 +2313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="39">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2400,7 +2373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="39">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2460,7 +2433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="39">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2520,7 +2493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="39">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2578,7 +2551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="39">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2636,7 +2609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="39">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2694,7 +2667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="39">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2752,7 +2725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="29.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2812,7 +2785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="29.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2868,7 +2841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="29.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2924,7 +2897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="29.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2984,7 +2957,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="29.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3042,7 +3015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="29.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3100,7 +3073,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="19.5">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3160,7 +3133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="19.5">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3220,7 +3193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="19.5">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3280,7 +3253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="58.5">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -3338,7 +3311,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="39">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -3398,7 +3371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="39">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3456,7 +3429,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="48.75">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3514,7 +3487,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="29.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -3572,7 +3545,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="39">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -3632,7 +3605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="19.5">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -3692,7 +3665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="19.5">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -3752,7 +3725,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="19.5">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -3812,7 +3785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="68.25">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
@@ -3874,7 +3847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="68.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -3936,7 +3909,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="68.25">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -3998,7 +3971,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="68.25">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -4060,7 +4033,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="68.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -4122,7 +4095,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="68.25">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
@@ -4184,7 +4157,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="39">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -4226,7 +4199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="39">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -4268,7 +4241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="39">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
@@ -4310,7 +4283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="39">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -4352,7 +4325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="19.5">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -4412,7 +4385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="19.5">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -4472,7 +4445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="19.5">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4532,7 +4505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="19.5">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4592,7 +4565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="19.5">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -4652,7 +4625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="19.5">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -4712,7 +4685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="19.5">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -4772,7 +4745,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="19.5">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -4832,7 +4805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="19.5">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -4892,7 +4865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="19.5">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -4952,7 +4925,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="19.5">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -5012,7 +4985,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="19.5">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -5072,7 +5045,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="19.5">
       <c r="A59" s="2" t="s">
         <v>96</v>
       </c>
@@ -5132,7 +5105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="19.5">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -5192,7 +5165,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="19.5">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -5252,7 +5225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="19.5">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -5312,7 +5285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="19.5">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -5372,7 +5345,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="19.5">
       <c r="A64" s="2" t="s">
         <v>96</v>
       </c>
@@ -5432,7 +5405,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="19.5">
       <c r="A65" s="2" t="s">
         <v>96</v>
       </c>
@@ -5492,7 +5465,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="19.5">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
@@ -5552,7 +5525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="19.5">
       <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
@@ -5612,7 +5585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="19.5">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5672,7 +5645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="19.5">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -5714,7 +5687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="19.5">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -5756,7 +5729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="29.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -5816,7 +5789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="19.5">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -5856,7 +5829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="19.5">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -5896,7 +5869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="19.5">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
@@ -5936,7 +5909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="19.5">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -5976,7 +5949,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="19.5">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -6016,7 +5989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="19.5">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -6056,7 +6029,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="19.5">
       <c r="A78" s="2" t="s">
         <v>96</v>
       </c>
@@ -6096,7 +6069,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="19.5">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -6136,7 +6109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="19.5">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -6176,7 +6149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="19.5">
       <c r="A81" s="2" t="s">
         <v>96</v>
       </c>
@@ -6216,7 +6189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="19.5">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -6256,7 +6229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="19.5">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -6296,7 +6269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="19.5">
       <c r="A84" s="2" t="s">
         <v>96</v>
       </c>
@@ -6336,7 +6309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="19.5">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -6378,7 +6351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="19.5">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -6420,7 +6393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="19.5">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -6462,7 +6435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="19.5">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -6504,7 +6477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="19.5">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -6546,7 +6519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="19.5">
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
@@ -6588,7 +6561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="19.5">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -6630,7 +6603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="19.5">
       <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
@@ -6672,7 +6645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="19.5">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -6714,7 +6687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="19.5">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -6756,7 +6729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="19.5">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -6798,7 +6771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="19.5">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -6840,7 +6813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="19.5">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -6882,7 +6855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="19.5">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -6924,7 +6897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="19.5">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -6966,7 +6939,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="19.5">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -7008,7 +6981,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="19.5">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -7050,7 +7023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="19.5">
       <c r="A102" s="2" t="s">
         <v>96</v>
       </c>
@@ -7092,7 +7065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="19.5">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -7134,7 +7107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="19.5">
       <c r="A104" s="2" t="s">
         <v>96</v>
       </c>
@@ -7176,7 +7149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="19.5">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -7218,7 +7191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="19.5">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -7260,7 +7233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="19.5">
       <c r="A107" s="2" t="s">
         <v>96</v>
       </c>
@@ -7302,7 +7275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="19.5">
       <c r="A108" s="2" t="s">
         <v>96</v>
       </c>
@@ -7344,7 +7317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="19.5">
       <c r="A109" s="2" t="s">
         <v>96</v>
       </c>
@@ -7386,7 +7359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="19.5">
       <c r="A110" s="2" t="s">
         <v>96</v>
       </c>
@@ -7428,7 +7401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="19.5">
       <c r="A111" s="2" t="s">
         <v>96</v>
       </c>
@@ -7468,7 +7441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="19.5">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -7508,7 +7481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="19.5">
       <c r="A113" s="2" t="s">
         <v>96</v>
       </c>
@@ -7548,7 +7521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="19.5">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
@@ -7610,7 +7583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="39">
       <c r="A115" s="2" t="s">
         <v>96</v>
       </c>
@@ -7670,7 +7643,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="29.25">
       <c r="A116" s="2" t="s">
         <v>96</v>
       </c>
@@ -7722,7 +7695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="29.25">
       <c r="A117" s="2" t="s">
         <v>96</v>
       </c>
@@ -7774,7 +7747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="29.25">
       <c r="A118" s="2" t="s">
         <v>96</v>
       </c>
@@ -7826,7 +7799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="29.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -7870,7 +7843,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="39">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
@@ -7930,7 +7903,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="29.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7990,7 +7963,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="19.5">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8050,7 +8023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="39">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8094,7 +8067,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="39">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8138,7 +8111,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="39">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8182,7 +8155,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="39">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8226,7 +8199,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="39">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8270,7 +8243,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="39">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8314,7 +8287,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="29.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8374,7 +8347,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="29.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8434,7 +8407,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="29.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8494,7 +8467,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="29.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8554,7 +8527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="29.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8614,7 +8587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="29.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8674,7 +8647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="29.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8734,7 +8707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="29.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8794,7 +8767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="29.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8854,7 +8827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="29.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8914,7 +8887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="29.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8974,7 +8947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="29.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -9034,7 +9007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="29.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9094,7 +9067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="29.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9154,7 +9127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="78">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9194,7 +9167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="78">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9232,7 +9205,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="78">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9270,7 +9243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="78">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9308,7 +9281,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="78">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9346,7 +9319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="78">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9384,7 +9357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="78">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9422,7 +9395,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="78">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9460,7 +9433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="78">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9498,7 +9471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="78">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9536,7 +9509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="78">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9574,7 +9547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="78">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9612,7 +9585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="78">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9650,7 +9623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="78">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9688,7 +9661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="78">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9726,7 +9699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="78">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9764,7 +9737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="78">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9802,7 +9775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="78">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9840,7 +9813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="78">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9878,7 +9851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="78">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9916,7 +9889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="78">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -9954,7 +9927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="78">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -9992,7 +9965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="78">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -10030,7 +10003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="78">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -10068,7 +10041,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="72" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="78">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10106,7 +10079,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="19.5">
       <c r="A168" s="2" t="s">
         <v>189</v>
       </c>
@@ -10166,7 +10139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="19.5">
       <c r="A169" s="2" t="s">
         <v>189</v>
       </c>
@@ -10226,7 +10199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="19.5">
       <c r="A170" s="2" t="s">
         <v>189</v>
       </c>
@@ -10286,7 +10259,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="19.5">
       <c r="A171" s="2" t="s">
         <v>189</v>
       </c>
@@ -10346,7 +10319,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="39">
       <c r="A172" s="2" t="s">
         <v>189</v>
       </c>
@@ -10394,7 +10367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="68.25">
       <c r="A173" s="2" t="s">
         <v>189</v>
       </c>
@@ -10442,7 +10415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="48.75">
       <c r="A174" s="2" t="s">
         <v>189</v>
       </c>
@@ -10490,7 +10463,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="39">
       <c r="A175" s="2" t="s">
         <v>189</v>
       </c>
@@ -10538,7 +10511,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="39">
       <c r="A176" s="2" t="s">
         <v>189</v>
       </c>
@@ -10586,7 +10559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="39">
       <c r="A177" s="2" t="s">
         <v>189</v>
       </c>
@@ -10634,7 +10607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="54" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="68.25">
       <c r="A178" s="2" t="s">
         <v>189</v>
       </c>
@@ -10682,7 +10655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="19.5">
       <c r="A179" s="2" t="s">
         <v>189</v>
       </c>
@@ -10742,7 +10715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="19.5">
       <c r="A180" s="2" t="s">
         <v>189</v>
       </c>
@@ -10800,7 +10773,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="19.5">
       <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
@@ -10858,7 +10831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="29.25">
       <c r="A182" s="2" t="s">
         <v>189</v>
       </c>
@@ -10918,7 +10891,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="29.25">
       <c r="A183" s="2" t="s">
         <v>189</v>
       </c>
@@ -10978,7 +10951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="29.25">
       <c r="A184" s="2" t="s">
         <v>189</v>
       </c>
@@ -11038,7 +11011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="19.5">
       <c r="A185" s="2" t="s">
         <v>206</v>
       </c>
@@ -11096,7 +11069,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="19.5">
       <c r="A186" s="2" t="s">
         <v>206</v>
       </c>
@@ -11156,7 +11129,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="48.75">
       <c r="A187" s="2" t="s">
         <v>206</v>
       </c>
@@ -11216,7 +11189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="48.75">
       <c r="A188" s="2" t="s">
         <v>206</v>
       </c>
@@ -11276,7 +11249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="48.75">
       <c r="A189" s="2" t="s">
         <v>206</v>
       </c>
@@ -11336,7 +11309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="48.75">
       <c r="A190" s="2" t="s">
         <v>206</v>
       </c>
@@ -11396,7 +11369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="39">
       <c r="A191" s="2" t="s">
         <v>215</v>
       </c>
@@ -11454,7 +11427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="29.25">
       <c r="A192" s="2" t="s">
         <v>215</v>
       </c>
@@ -11514,7 +11487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="29.25">
       <c r="A193" s="2" t="s">
         <v>215</v>
       </c>
@@ -11574,7 +11547,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="29.25">
       <c r="A194" s="2" t="s">
         <v>215</v>
       </c>
@@ -11634,7 +11607,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="29.25">
       <c r="A195" s="2" t="s">
         <v>215</v>
       </c>
@@ -11694,7 +11667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="29.25">
       <c r="A196" s="2" t="s">
         <v>215</v>
       </c>
@@ -11754,7 +11727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="48.75">
       <c r="A197" s="2" t="s">
         <v>230</v>
       </c>
@@ -11812,7 +11785,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="48.75">
       <c r="A198" s="2" t="s">
         <v>230</v>
       </c>
@@ -11872,7 +11845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="48.75">
       <c r="A199" s="2" t="s">
         <v>230</v>
       </c>
@@ -11928,7 +11901,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="29.25">
       <c r="A200" s="2" t="s">
         <v>230</v>
       </c>
@@ -11980,7 +11953,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="29.25">
       <c r="A201" s="2" t="s">
         <v>230</v>
       </c>
@@ -12040,7 +12013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="29.25">
       <c r="A202" s="2" t="s">
         <v>230</v>
       </c>
@@ -12100,7 +12073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="29.25">
       <c r="A203" s="2" t="s">
         <v>230</v>
       </c>
@@ -12160,7 +12133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="29.25">
       <c r="A204" s="2" t="s">
         <v>230</v>
       </c>
@@ -12220,7 +12193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="29.25">
       <c r="A205" s="2" t="s">
         <v>230</v>
       </c>
@@ -12280,7 +12253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="29.25">
       <c r="A206" s="2" t="s">
         <v>230</v>
       </c>
@@ -12340,7 +12313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="29.25">
       <c r="A207" s="2" t="s">
         <v>230</v>
       </c>
@@ -12400,7 +12373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="29.25">
       <c r="A208" s="2" t="s">
         <v>230</v>
       </c>
@@ -12460,7 +12433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="29.25">
       <c r="A209" s="2" t="s">
         <v>230</v>
       </c>
@@ -12520,7 +12493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="29.25">
       <c r="A210" s="2" t="s">
         <v>230</v>
       </c>
@@ -12580,7 +12553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="29.25">
       <c r="A211" s="2" t="s">
         <v>230</v>
       </c>
@@ -12640,7 +12613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="29.25">
       <c r="A212" s="2" t="s">
         <v>230</v>
       </c>
@@ -12700,7 +12673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="29.25">
       <c r="A213" s="2" t="s">
         <v>230</v>
       </c>
@@ -12760,7 +12733,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="29.25">
       <c r="A214" s="2" t="s">
         <v>230</v>
       </c>
@@ -12820,7 +12793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="29.25">
       <c r="A215" s="2" t="s">
         <v>230</v>
       </c>
@@ -12880,7 +12853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="29.25">
       <c r="A216" s="2" t="s">
         <v>230</v>
       </c>
@@ -12940,7 +12913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="29.25">
       <c r="A217" s="2" t="s">
         <v>230</v>
       </c>
@@ -13000,7 +12973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="39">
       <c r="A218" s="2" t="s">
         <v>230</v>
       </c>
@@ -13060,7 +13033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="29.25">
       <c r="A219" s="2" t="s">
         <v>230</v>
       </c>
@@ -13120,7 +13093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="29.25">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -13180,7 +13153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="29.25">
       <c r="A221" s="2" t="s">
         <v>230</v>
       </c>
@@ -13240,7 +13213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="29.25">
       <c r="A222" s="2" t="s">
         <v>230</v>
       </c>
@@ -13300,7 +13273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="29.25">
       <c r="A223" s="2" t="s">
         <v>230</v>
       </c>
@@ -13360,7 +13333,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="29.25">
       <c r="A224" s="2" t="s">
         <v>230</v>
       </c>
@@ -13420,7 +13393,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="29.25">
       <c r="A225" s="2" t="s">
         <v>230</v>
       </c>
@@ -13468,7 +13441,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="29.25">
       <c r="A226" s="2" t="s">
         <v>230</v>
       </c>
@@ -13516,7 +13489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="29.25">
       <c r="A227" s="2" t="s">
         <v>230</v>
       </c>
@@ -13564,7 +13537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="29.25">
       <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
@@ -13612,7 +13585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="29.25">
       <c r="A229" s="2" t="s">
         <v>230</v>
       </c>
@@ -13660,7 +13633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="29.25">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -13720,7 +13693,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="29.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -13780,7 +13753,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="29.25">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -13840,7 +13813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="29.25">
       <c r="A233" s="2" t="s">
         <v>230</v>
       </c>
@@ -13900,7 +13873,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="29.25">
       <c r="A234" s="2" t="s">
         <v>230</v>
       </c>
@@ -13960,7 +13933,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="29.25">
       <c r="A235" s="2" t="s">
         <v>230</v>
       </c>
@@ -14020,7 +13993,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="29.25">
       <c r="A236" s="2" t="s">
         <v>230</v>
       </c>
@@ -14080,7 +14053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="29.25">
       <c r="A237" s="2" t="s">
         <v>230</v>
       </c>
@@ -14140,7 +14113,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="29.25">
       <c r="A238" s="2" t="s">
         <v>230</v>
       </c>
@@ -14200,7 +14173,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="29.25">
       <c r="A239" s="2" t="s">
         <v>230</v>
       </c>
@@ -14260,7 +14233,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="29.25">
       <c r="A240" s="2" t="s">
         <v>230</v>
       </c>
@@ -14320,7 +14293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="29.25">
       <c r="A241" s="2" t="s">
         <v>230</v>
       </c>
@@ -14380,7 +14353,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="29.25">
       <c r="A242" s="2" t="s">
         <v>230</v>
       </c>
@@ -14440,7 +14413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="29.25">
       <c r="A243" s="2" t="s">
         <v>230</v>
       </c>
@@ -14500,7 +14473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="29.25">
       <c r="A244" s="2" t="s">
         <v>230</v>
       </c>
@@ -14560,7 +14533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="29.25">
       <c r="A245" s="2" t="s">
         <v>230</v>
       </c>
@@ -14620,7 +14593,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="29.25">
       <c r="A246" s="2" t="s">
         <v>230</v>
       </c>
@@ -14680,7 +14653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="29.25">
       <c r="A247" s="2" t="s">
         <v>230</v>
       </c>
@@ -14718,7 +14691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="29.25">
       <c r="A248" s="2" t="s">
         <v>230</v>
       </c>
@@ -14756,7 +14729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="29.25">
       <c r="A249" s="2" t="s">
         <v>230</v>
       </c>
@@ -14794,7 +14767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="29.25">
       <c r="A250" s="2" t="s">
         <v>230</v>
       </c>
@@ -14852,7 +14825,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="29.25">
       <c r="A251" s="2" t="s">
         <v>230</v>
       </c>
@@ -14910,7 +14883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="29.25">
       <c r="A252" s="2" t="s">
         <v>230</v>
       </c>
@@ -14968,7 +14941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="39">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -15028,7 +15001,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="39">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -15088,7 +15061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="39">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -15148,7 +15121,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="39">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -15208,7 +15181,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="39">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -15266,7 +15239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="39">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -15326,7 +15299,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="39">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -15386,7 +15359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="39">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -15440,7 +15413,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="39">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -15500,7 +15473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="29.25">
       <c r="A262" s="2" t="s">
         <v>291</v>
       </c>
@@ -15558,7 +15531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="29.25">
       <c r="A263" s="2" t="s">
         <v>291</v>
       </c>
@@ -15618,7 +15591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="19.5">
       <c r="A264" s="2" t="s">
         <v>291</v>
       </c>
@@ -15672,7 +15645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="19.5">
       <c r="A265" s="2" t="s">
         <v>291</v>
       </c>
@@ -15732,7 +15705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="19.5">
       <c r="A266" s="2" t="s">
         <v>291</v>
       </c>
@@ -15782,7 +15755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="19.5">
       <c r="A267" s="2" t="s">
         <v>291</v>
       </c>
@@ -15832,7 +15805,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="29.25">
       <c r="A268" s="2" t="s">
         <v>291</v>
       </c>
@@ -15878,7 +15851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="29.25">
       <c r="A269" s="2" t="s">
         <v>291</v>
       </c>
@@ -15924,7 +15897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="29.25">
       <c r="A270" s="2" t="s">
         <v>291</v>
       </c>
@@ -15970,7 +15943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="29.25">
       <c r="A271" s="2" t="s">
         <v>291</v>
       </c>
@@ -16016,7 +15989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="29.25">
       <c r="A272" s="2" t="s">
         <v>291</v>
       </c>
@@ -16062,7 +16035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="29.25">
       <c r="A273" s="2" t="s">
         <v>291</v>
       </c>
@@ -16108,7 +16081,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="39">
       <c r="A274" s="2" t="s">
         <v>291</v>
       </c>
@@ -16154,7 +16127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="68.25">
       <c r="A275" s="2" t="s">
         <v>308</v>
       </c>
@@ -16210,7 +16183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="68.25">
       <c r="A276" s="2" t="s">
         <v>308</v>
       </c>
@@ -16270,7 +16243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="68.25">
       <c r="A277" s="2" t="s">
         <v>308</v>
       </c>
@@ -16328,7 +16301,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="68.25">
       <c r="A278" s="2" t="s">
         <v>308</v>
       </c>
@@ -16388,7 +16361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="68.25">
       <c r="A279" s="2" t="s">
         <v>308</v>
       </c>
@@ -16448,7 +16421,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="68.25">
       <c r="A280" s="2" t="s">
         <v>308</v>
       </c>
@@ -16508,7 +16481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="68.25">
       <c r="A281" s="2" t="s">
         <v>308</v>
       </c>
@@ -16568,7 +16541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="68.25">
       <c r="A282" s="2" t="s">
         <v>308</v>
       </c>
@@ -16628,7 +16601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="68.25">
       <c r="A283" s="2" t="s">
         <v>308</v>
       </c>
@@ -16688,15 +16661,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="48.75">
       <c r="A284" s="2" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>46</v>
@@ -16705,58 +16678,58 @@
         <v>25</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G284" s="6">
-        <v>28</v>
-      </c>
-      <c r="H284" s="6">
-        <v>27</v>
-      </c>
-      <c r="I284" s="6">
-        <v>26</v>
-      </c>
-      <c r="J284" s="6">
-        <v>25</v>
-      </c>
-      <c r="K284" s="6">
-        <v>24</v>
-      </c>
-      <c r="L284" s="6">
-        <v>23</v>
-      </c>
-      <c r="M284" s="6">
-        <v>22</v>
-      </c>
-      <c r="N284" s="6">
-        <v>22</v>
-      </c>
-      <c r="O284" s="6">
-        <v>22</v>
-      </c>
-      <c r="P284" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q284" s="6">
-        <v>19</v>
-      </c>
-      <c r="R284" s="6">
-        <v>17</v>
+        <v>326</v>
+      </c>
+      <c r="G284" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H284" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="I284" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="J284" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="K284" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="L284" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M284" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="N284" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="O284" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="P284" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="Q284" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="R284" s="5">
+        <v>0.84</v>
       </c>
       <c r="S284" s="3"/>
       <c r="T284" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="285" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" ht="48.75">
       <c r="A285" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>46</v>
@@ -16765,55 +16738,55 @@
         <v>25</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G285" s="4">
-        <v>20.8</v>
-      </c>
-      <c r="H285" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="I285" s="4">
-        <v>20.6</v>
-      </c>
-      <c r="J285" s="4">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="K285" s="4">
-        <v>20.5</v>
-      </c>
-      <c r="L285" s="4">
-        <v>20.7</v>
-      </c>
-      <c r="M285" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="N285" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="O285" s="4">
-        <v>21.8</v>
-      </c>
-      <c r="P285" s="4">
-        <v>22.2</v>
-      </c>
-      <c r="Q285" s="4">
-        <v>22.3</v>
-      </c>
-      <c r="R285" s="4">
-        <v>22.8</v>
+        <v>328</v>
+      </c>
+      <c r="G285" s="5">
+        <v>16.32</v>
+      </c>
+      <c r="H285" s="5">
+        <v>20.22</v>
+      </c>
+      <c r="I285" s="5">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="J285" s="5">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="K285" s="5">
+        <v>16.41</v>
+      </c>
+      <c r="L285" s="5">
+        <v>16.28</v>
+      </c>
+      <c r="M285" s="5">
+        <v>16.82</v>
+      </c>
+      <c r="N285" s="5">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="O285" s="5">
+        <v>18.52</v>
+      </c>
+      <c r="P285" s="5">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="Q285" s="5">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="R285" s="5">
+        <v>18.02</v>
       </c>
       <c r="S285" s="3"/>
       <c r="T285" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="286" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" ht="48.75">
       <c r="A286" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>329</v>
@@ -16825,55 +16798,55 @@
         <v>25</v>
       </c>
       <c r="F286" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G286" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H286" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="I286" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="J286" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="K286" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="L286" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M286" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="N286" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="O286" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="P286" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="Q286" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="R286" s="5">
-        <v>0.84</v>
+        <v>26</v>
+      </c>
+      <c r="G286" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="H286" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I286" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="J286" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="K286" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="L286" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="M286" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N286" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="O286" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P286" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="Q286" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="R286" s="4">
+        <v>9.1</v>
       </c>
       <c r="S286" s="3"/>
       <c r="T286" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="48.75">
       <c r="A287" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>331</v>
@@ -16885,58 +16858,56 @@
         <v>25</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>332</v>
+        <v>26</v>
       </c>
       <c r="G287" s="5">
-        <v>16.32</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="H287" s="5">
-        <v>20.22</v>
+        <v>2.48</v>
       </c>
       <c r="I287" s="5">
-        <v>17.309999999999999</v>
+        <v>3.05</v>
       </c>
       <c r="J287" s="5">
-        <v>16.510000000000002</v>
+        <v>3.37</v>
       </c>
       <c r="K287" s="5">
-        <v>16.41</v>
+        <v>3.82</v>
       </c>
       <c r="L287" s="5">
-        <v>16.28</v>
+        <v>3.45</v>
       </c>
       <c r="M287" s="5">
-        <v>16.82</v>
+        <v>2.96</v>
       </c>
       <c r="N287" s="5">
-        <v>17.829999999999998</v>
+        <v>2.62</v>
       </c>
       <c r="O287" s="5">
-        <v>18.52</v>
+        <v>2.48</v>
       </c>
       <c r="P287" s="5">
-        <v>17.690000000000001</v>
+        <v>2.66</v>
       </c>
       <c r="Q287" s="5">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="R287" s="5">
-        <v>18.02</v>
-      </c>
+        <v>2.68</v>
+      </c>
+      <c r="R287" s="3"/>
       <c r="S287" s="3"/>
       <c r="T287" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" ht="48.75">
       <c r="A288" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>46</v>
@@ -16945,58 +16916,56 @@
         <v>25</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>26</v>
+        <v>335</v>
       </c>
       <c r="G288" s="4">
-        <v>10.8</v>
+        <v>100</v>
       </c>
       <c r="H288" s="4">
-        <v>9.1999999999999993</v>
+        <v>99.8</v>
       </c>
       <c r="I288" s="4">
-        <v>10.6</v>
+        <v>97.6</v>
       </c>
       <c r="J288" s="4">
-        <v>11.8</v>
+        <v>96.3</v>
       </c>
       <c r="K288" s="4">
-        <v>12.6</v>
+        <v>92.7</v>
       </c>
       <c r="L288" s="4">
-        <v>11.6</v>
+        <v>93.6</v>
       </c>
       <c r="M288" s="4">
-        <v>10.199999999999999</v>
+        <v>96.9</v>
       </c>
       <c r="N288" s="4">
-        <v>9.9</v>
+        <v>100.8</v>
       </c>
       <c r="O288" s="4">
-        <v>9.8000000000000007</v>
+        <v>100.6</v>
       </c>
       <c r="P288" s="4">
-        <v>10.3</v>
+        <v>95.1</v>
       </c>
       <c r="Q288" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="R288" s="4">
-        <v>9.1</v>
-      </c>
+        <v>90.6</v>
+      </c>
+      <c r="R288" s="3"/>
       <c r="S288" s="3"/>
       <c r="T288" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="289" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" ht="48.75">
       <c r="A289" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>46</v>
@@ -17005,56 +16974,56 @@
         <v>25</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G289" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H289" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="I289" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="J289" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="K289" s="5">
-        <v>3.82</v>
-      </c>
-      <c r="L289" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="M289" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="N289" s="5">
-        <v>2.62</v>
-      </c>
-      <c r="O289" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="P289" s="5">
-        <v>2.66</v>
-      </c>
-      <c r="Q289" s="5">
-        <v>2.68</v>
+        <v>335</v>
+      </c>
+      <c r="G289" s="4">
+        <v>100</v>
+      </c>
+      <c r="H289" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="I289" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="J289" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="K289" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="L289" s="4">
+        <v>94.2</v>
+      </c>
+      <c r="M289" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="N289" s="4">
+        <v>100.4</v>
+      </c>
+      <c r="O289" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="P289" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="Q289" s="4">
+        <v>91.1</v>
       </c>
       <c r="R289" s="3"/>
       <c r="S289" s="3"/>
       <c r="T289" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="29.25">
       <c r="A290" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>46</v>
@@ -17063,56 +17032,58 @@
         <v>25</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G290" s="4">
-        <v>100</v>
-      </c>
-      <c r="H290" s="4">
-        <v>99.8</v>
-      </c>
-      <c r="I290" s="4">
-        <v>97.6</v>
-      </c>
-      <c r="J290" s="4">
-        <v>96.3</v>
-      </c>
-      <c r="K290" s="4">
-        <v>92.7</v>
-      </c>
-      <c r="L290" s="4">
-        <v>93.6</v>
-      </c>
-      <c r="M290" s="4">
-        <v>96.9</v>
-      </c>
-      <c r="N290" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="O290" s="4">
-        <v>100.6</v>
-      </c>
-      <c r="P290" s="4">
-        <v>95.1</v>
-      </c>
-      <c r="Q290" s="4">
-        <v>90.6</v>
-      </c>
-      <c r="R290" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G290" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="H290" s="5">
+        <v>10.34</v>
+      </c>
+      <c r="I290" s="5">
+        <v>10.96</v>
+      </c>
+      <c r="J290" s="5">
+        <v>11.45</v>
+      </c>
+      <c r="K290" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="L290" s="5">
+        <v>11.88</v>
+      </c>
+      <c r="M290" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="N290" s="5">
+        <v>11.06</v>
+      </c>
+      <c r="O290" s="5">
+        <v>14.94</v>
+      </c>
+      <c r="P290" s="5">
+        <v>15.38</v>
+      </c>
+      <c r="Q290" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R290" s="5">
+        <v>15.62</v>
+      </c>
       <c r="S290" s="3"/>
       <c r="T290" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="291" spans="1:20" ht="29.25">
+      <c r="A291" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C291" s="2" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="291" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>46</v>
@@ -17121,422 +17092,424 @@
         <v>25</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="G291" s="4">
-        <v>100</v>
-      </c>
-      <c r="H291" s="4">
-        <v>99.7</v>
-      </c>
-      <c r="I291" s="4">
-        <v>97.9</v>
-      </c>
-      <c r="J291" s="4">
-        <v>96.9</v>
-      </c>
-      <c r="K291" s="4">
-        <v>93.8</v>
-      </c>
-      <c r="L291" s="4">
-        <v>94.2</v>
-      </c>
-      <c r="M291" s="4">
-        <v>96.9</v>
-      </c>
-      <c r="N291" s="4">
-        <v>100.4</v>
-      </c>
-      <c r="O291" s="4">
-        <v>100.1</v>
-      </c>
-      <c r="P291" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="Q291" s="4">
-        <v>91.1</v>
+        <v>341</v>
+      </c>
+      <c r="G291" s="6">
+        <v>563</v>
+      </c>
+      <c r="H291" s="6">
+        <v>531</v>
+      </c>
+      <c r="I291" s="6">
+        <v>661</v>
+      </c>
+      <c r="J291" s="6">
+        <v>778</v>
+      </c>
+      <c r="K291" s="6">
+        <v>847</v>
+      </c>
+      <c r="L291" s="6">
+        <v>909</v>
+      </c>
+      <c r="M291" s="6">
+        <v>930</v>
+      </c>
+      <c r="N291" s="6">
+        <v>946</v>
+      </c>
+      <c r="O291" s="6">
+        <v>991</v>
+      </c>
+      <c r="P291" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Q291" s="6">
+        <v>1073</v>
       </c>
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
       <c r="T291" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="292" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" ht="87.75">
       <c r="A292" s="2" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G292" s="6">
+        <v>40</v>
+      </c>
+      <c r="H292" s="6">
+        <v>60</v>
+      </c>
+      <c r="I292" s="6">
+        <v>40</v>
+      </c>
+      <c r="J292" s="6">
+        <v>40</v>
+      </c>
+      <c r="K292" s="6">
+        <v>40</v>
+      </c>
+      <c r="L292" s="6">
+        <v>40</v>
+      </c>
+      <c r="M292" s="6">
+        <v>60</v>
+      </c>
+      <c r="N292" s="6">
+        <v>40</v>
+      </c>
+      <c r="O292" s="6">
+        <v>40</v>
+      </c>
+      <c r="P292" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q292" s="6">
+        <v>60</v>
+      </c>
+      <c r="R292" s="6">
+        <v>67</v>
+      </c>
+      <c r="S292" s="6">
+        <v>50</v>
+      </c>
+      <c r="T292" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" ht="87.75">
+      <c r="A293" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="B293" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G292" s="5">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="H292" s="5">
-        <v>10.34</v>
-      </c>
-      <c r="I292" s="5">
-        <v>10.96</v>
-      </c>
-      <c r="J292" s="5">
-        <v>11.45</v>
-      </c>
-      <c r="K292" s="5">
-        <v>11.61</v>
-      </c>
-      <c r="L292" s="5">
-        <v>11.88</v>
-      </c>
-      <c r="M292" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="N292" s="5">
-        <v>11.06</v>
-      </c>
-      <c r="O292" s="5">
-        <v>14.94</v>
-      </c>
-      <c r="P292" s="5">
-        <v>15.38</v>
-      </c>
-      <c r="Q292" s="5">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="R292" s="5">
-        <v>15.62</v>
-      </c>
-      <c r="S292" s="3"/>
-      <c r="T292" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="293" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>344</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>46</v>
+        <v>345</v>
       </c>
       <c r="E293" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G293" s="6">
+        <v>40</v>
+      </c>
+      <c r="H293" s="6">
+        <v>60</v>
+      </c>
+      <c r="I293" s="6">
+        <v>20</v>
+      </c>
+      <c r="J293" s="6">
+        <v>20</v>
+      </c>
+      <c r="K293" s="6">
+        <v>20</v>
+      </c>
+      <c r="L293" s="6">
+        <v>40</v>
+      </c>
+      <c r="M293" s="6">
+        <v>60</v>
+      </c>
+      <c r="N293" s="6">
+        <v>40</v>
+      </c>
+      <c r="O293" s="6">
         <v>25</v>
       </c>
-      <c r="F293" s="3" t="s">
+      <c r="P293" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q293" s="6">
+        <v>20</v>
+      </c>
+      <c r="R293" s="6">
+        <v>17</v>
+      </c>
+      <c r="S293" s="6">
+        <v>0</v>
+      </c>
+      <c r="T293" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" ht="87.75">
+      <c r="A294" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D294" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G293" s="6">
-        <v>563</v>
-      </c>
-      <c r="H293" s="6">
-        <v>531</v>
-      </c>
-      <c r="I293" s="6">
-        <v>661</v>
-      </c>
-      <c r="J293" s="6">
-        <v>778</v>
-      </c>
-      <c r="K293" s="6">
-        <v>847</v>
-      </c>
-      <c r="L293" s="6">
-        <v>909</v>
-      </c>
-      <c r="M293" s="6">
-        <v>930</v>
-      </c>
-      <c r="N293" s="6">
-        <v>946</v>
-      </c>
-      <c r="O293" s="6">
-        <v>991</v>
-      </c>
-      <c r="P293" s="6">
-        <v>1050</v>
-      </c>
-      <c r="Q293" s="6">
-        <v>1073</v>
-      </c>
-      <c r="R293" s="3"/>
-      <c r="S293" s="3"/>
-      <c r="T293" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="294" spans="1:20" ht="81" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C294" s="2" t="s">
+      <c r="E294" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D294" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>350</v>
-      </c>
       <c r="F294" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G294" s="6">
+        <v>0</v>
+      </c>
+      <c r="H294" s="6">
+        <v>0</v>
+      </c>
+      <c r="I294" s="6">
+        <v>20</v>
+      </c>
+      <c r="J294" s="6">
+        <v>20</v>
+      </c>
+      <c r="K294" s="6">
+        <v>20</v>
+      </c>
+      <c r="L294" s="6">
+        <v>0</v>
+      </c>
+      <c r="M294" s="6">
+        <v>0</v>
+      </c>
+      <c r="N294" s="6">
+        <v>0</v>
+      </c>
+      <c r="O294" s="6">
+        <v>0</v>
+      </c>
+      <c r="P294" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q294" s="6">
         <v>40</v>
       </c>
-      <c r="H294" s="6">
-        <v>60</v>
-      </c>
-      <c r="I294" s="6">
-        <v>40</v>
-      </c>
-      <c r="J294" s="6">
-        <v>40</v>
-      </c>
-      <c r="K294" s="6">
-        <v>40</v>
-      </c>
-      <c r="L294" s="6">
-        <v>40</v>
-      </c>
-      <c r="M294" s="6">
-        <v>60</v>
-      </c>
-      <c r="N294" s="6">
-        <v>40</v>
-      </c>
-      <c r="O294" s="6">
-        <v>40</v>
-      </c>
-      <c r="P294" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q294" s="6">
-        <v>60</v>
-      </c>
       <c r="R294" s="6">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="S294" s="6">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="T294" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="87.75">
       <c r="A295" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D295" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E295" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E295" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="F295" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G295" s="6">
+        <v>60</v>
+      </c>
+      <c r="H295" s="6">
         <v>40</v>
       </c>
-      <c r="H295" s="6">
+      <c r="I295" s="6">
         <v>60</v>
       </c>
-      <c r="I295" s="6">
-        <v>20</v>
-      </c>
       <c r="J295" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="K295" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L295" s="6">
+        <v>60</v>
+      </c>
+      <c r="M295" s="6">
         <v>40</v>
       </c>
-      <c r="M295" s="6">
+      <c r="N295" s="6">
         <v>60</v>
       </c>
-      <c r="N295" s="6">
+      <c r="O295" s="6">
+        <v>75</v>
+      </c>
+      <c r="P295" s="6">
+        <v>75</v>
+      </c>
+      <c r="Q295" s="6">
         <v>40</v>
       </c>
-      <c r="O295" s="6">
-        <v>25</v>
-      </c>
-      <c r="P295" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q295" s="6">
-        <v>20</v>
-      </c>
       <c r="R295" s="6">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="S295" s="6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T295" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="19.5">
       <c r="A296" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>349</v>
+        <v>46</v>
       </c>
       <c r="E296" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F296" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="F296" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G296" s="6">
-        <v>0</v>
-      </c>
-      <c r="H296" s="6">
-        <v>0</v>
-      </c>
-      <c r="I296" s="6">
-        <v>20</v>
-      </c>
-      <c r="J296" s="6">
-        <v>20</v>
-      </c>
-      <c r="K296" s="6">
-        <v>20</v>
-      </c>
-      <c r="L296" s="6">
-        <v>0</v>
-      </c>
-      <c r="M296" s="6">
-        <v>0</v>
-      </c>
-      <c r="N296" s="6">
-        <v>0</v>
-      </c>
-      <c r="O296" s="6">
-        <v>0</v>
-      </c>
-      <c r="P296" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q296" s="6">
-        <v>40</v>
-      </c>
-      <c r="R296" s="6">
-        <v>17</v>
-      </c>
-      <c r="S296" s="6">
-        <v>17</v>
-      </c>
+      <c r="G296" s="4">
+        <v>100</v>
+      </c>
+      <c r="H296" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="I296" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="J296" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="K296" s="4">
+        <v>104.9</v>
+      </c>
+      <c r="L296" s="4">
+        <v>106</v>
+      </c>
+      <c r="M296" s="4">
+        <v>119.9</v>
+      </c>
+      <c r="N296" s="4">
+        <v>119.4</v>
+      </c>
+      <c r="O296" s="4">
+        <v>130</v>
+      </c>
+      <c r="P296" s="4">
+        <v>189.5</v>
+      </c>
+      <c r="Q296" s="4">
+        <v>186.6</v>
+      </c>
+      <c r="R296" s="4">
+        <v>190.1</v>
+      </c>
+      <c r="S296" s="3"/>
       <c r="T296" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="297" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="297" spans="1:20" ht="29.25">
       <c r="A297" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>349</v>
+        <v>46</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>353</v>
+        <v>25</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G297" s="6">
-        <v>60</v>
-      </c>
-      <c r="H297" s="6">
-        <v>40</v>
-      </c>
-      <c r="I297" s="6">
-        <v>60</v>
-      </c>
-      <c r="J297" s="6">
-        <v>60</v>
-      </c>
-      <c r="K297" s="6">
-        <v>60</v>
-      </c>
-      <c r="L297" s="6">
-        <v>60</v>
-      </c>
-      <c r="M297" s="6">
-        <v>40</v>
-      </c>
-      <c r="N297" s="6">
-        <v>60</v>
-      </c>
-      <c r="O297" s="6">
-        <v>75</v>
-      </c>
-      <c r="P297" s="6">
-        <v>75</v>
-      </c>
-      <c r="Q297" s="6">
-        <v>40</v>
-      </c>
-      <c r="R297" s="6">
-        <v>33</v>
-      </c>
-      <c r="S297" s="6">
-        <v>50</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="G297" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="H297" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="I297" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="J297" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="K297" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="L297" s="4">
+        <v>69.5</v>
+      </c>
+      <c r="M297" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N297" s="4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O297" s="4">
+        <v>91.8</v>
+      </c>
+      <c r="P297" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="Q297" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="R297" s="4">
+        <v>96.7</v>
+      </c>
+      <c r="S297" s="3"/>
       <c r="T297" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="298" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="298" spans="1:20" ht="48.75">
       <c r="A298" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>46</v>
@@ -17545,58 +17518,58 @@
         <v>25</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G298" s="4">
-        <v>100</v>
+        <v>88.8</v>
       </c>
       <c r="H298" s="4">
-        <v>100.8</v>
+        <v>87.4</v>
       </c>
       <c r="I298" s="4">
-        <v>99.9</v>
+        <v>85.2</v>
       </c>
       <c r="J298" s="4">
-        <v>101.8</v>
+        <v>85.2</v>
       </c>
       <c r="K298" s="4">
-        <v>104.9</v>
+        <v>83.9</v>
       </c>
       <c r="L298" s="4">
-        <v>106</v>
+        <v>85.8</v>
       </c>
       <c r="M298" s="4">
-        <v>119.9</v>
+        <v>87.6</v>
       </c>
       <c r="N298" s="4">
-        <v>119.4</v>
+        <v>81.2</v>
       </c>
       <c r="O298" s="4">
-        <v>130</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="P298" s="4">
-        <v>189.5</v>
+        <v>77.5</v>
       </c>
       <c r="Q298" s="4">
-        <v>186.6</v>
+        <v>80.3</v>
       </c>
       <c r="R298" s="4">
-        <v>190.1</v>
+        <v>72</v>
       </c>
       <c r="S298" s="3"/>
       <c r="T298" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" ht="48.75">
       <c r="A299" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>357</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>46</v>
@@ -17605,55 +17578,55 @@
         <v>25</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G299" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="H299" s="4">
-        <v>57.7</v>
-      </c>
-      <c r="I299" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="J299" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="K299" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="L299" s="4">
-        <v>69.5</v>
-      </c>
-      <c r="M299" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="N299" s="4">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="O299" s="4">
-        <v>91.8</v>
-      </c>
-      <c r="P299" s="4">
-        <v>93.9</v>
-      </c>
-      <c r="Q299" s="4">
-        <v>88.5</v>
-      </c>
-      <c r="R299" s="4">
-        <v>96.7</v>
+        <v>26</v>
+      </c>
+      <c r="G299" s="7">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H299" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I299" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J299" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K299" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L299" s="7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M299" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N299" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O299" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P299" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q299" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="R299" s="7">
+        <v>0.19900000000000001</v>
       </c>
       <c r="S299" s="3"/>
       <c r="T299" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="300" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" ht="48.75">
       <c r="A300" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>362</v>
@@ -17665,55 +17638,55 @@
         <v>25</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>363</v>
+        <v>26</v>
       </c>
       <c r="G300" s="4">
-        <v>88.8</v>
+        <v>30.5</v>
       </c>
       <c r="H300" s="4">
-        <v>87.4</v>
+        <v>30.5</v>
       </c>
       <c r="I300" s="4">
-        <v>85.2</v>
+        <v>30.6</v>
       </c>
       <c r="J300" s="4">
-        <v>85.2</v>
+        <v>30.6</v>
       </c>
       <c r="K300" s="4">
-        <v>83.9</v>
+        <v>30.7</v>
       </c>
       <c r="L300" s="4">
-        <v>85.8</v>
+        <v>30.8</v>
       </c>
       <c r="M300" s="4">
-        <v>87.6</v>
+        <v>30.8</v>
       </c>
       <c r="N300" s="4">
-        <v>81.2</v>
+        <v>30.9</v>
       </c>
       <c r="O300" s="4">
-        <v>75.099999999999994</v>
+        <v>30.9</v>
       </c>
       <c r="P300" s="4">
-        <v>77.5</v>
+        <v>30.9</v>
       </c>
       <c r="Q300" s="4">
-        <v>80.3</v>
+        <v>30.9</v>
       </c>
       <c r="R300" s="4">
-        <v>72</v>
+        <v>30.9</v>
       </c>
       <c r="S300" s="3"/>
       <c r="T300" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="301" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:20" ht="39">
       <c r="A301" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>364</v>
@@ -17725,61 +17698,61 @@
         <v>25</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G301" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="H301" s="7">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="I301" s="7">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="J301" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="K301" s="7">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="L301" s="7">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="M301" s="7">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="N301" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="O301" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="P301" s="7">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="Q301" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="R301" s="7">
-        <v>0.19900000000000001</v>
+        <v>146</v>
+      </c>
+      <c r="G301" s="6">
+        <v>28</v>
+      </c>
+      <c r="H301" s="6">
+        <v>27</v>
+      </c>
+      <c r="I301" s="6">
+        <v>26</v>
+      </c>
+      <c r="J301" s="6">
+        <v>25</v>
+      </c>
+      <c r="K301" s="6">
+        <v>24</v>
+      </c>
+      <c r="L301" s="6">
+        <v>23</v>
+      </c>
+      <c r="M301" s="6">
+        <v>22</v>
+      </c>
+      <c r="N301" s="6">
+        <v>22</v>
+      </c>
+      <c r="O301" s="6">
+        <v>22</v>
+      </c>
+      <c r="P301" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q301" s="6">
+        <v>19</v>
+      </c>
+      <c r="R301" s="6">
+        <v>17</v>
       </c>
       <c r="S301" s="3"/>
       <c r="T301" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" ht="39">
+      <c r="A302" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="302" spans="1:20" ht="36" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="D302" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>25</v>
@@ -17788,295 +17761,297 @@
         <v>26</v>
       </c>
       <c r="G302" s="4">
-        <v>30.5</v>
+        <v>64.7</v>
       </c>
       <c r="H302" s="4">
-        <v>30.5</v>
+        <v>65.7</v>
       </c>
       <c r="I302" s="4">
-        <v>30.6</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="J302" s="4">
-        <v>30.6</v>
+        <v>70.3</v>
       </c>
       <c r="K302" s="4">
-        <v>30.7</v>
+        <v>71.5</v>
       </c>
       <c r="L302" s="4">
-        <v>30.8</v>
+        <v>72.7</v>
       </c>
       <c r="M302" s="4">
-        <v>30.8</v>
+        <v>73.5</v>
       </c>
       <c r="N302" s="4">
-        <v>30.9</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="O302" s="4">
-        <v>30.9</v>
+        <v>74</v>
       </c>
       <c r="P302" s="4">
-        <v>30.9</v>
+        <v>74.5</v>
       </c>
       <c r="Q302" s="4">
-        <v>30.9</v>
+        <v>74.8</v>
       </c>
       <c r="R302" s="4">
-        <v>30.9</v>
+        <v>75.2</v>
       </c>
       <c r="S302" s="3"/>
       <c r="T302" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="39">
       <c r="A303" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G303" s="6">
-        <v>28</v>
-      </c>
-      <c r="H303" s="6">
-        <v>27</v>
-      </c>
-      <c r="I303" s="6">
-        <v>26</v>
-      </c>
-      <c r="J303" s="6">
-        <v>25</v>
-      </c>
-      <c r="K303" s="6">
-        <v>24</v>
-      </c>
-      <c r="L303" s="6">
-        <v>23</v>
-      </c>
-      <c r="M303" s="6">
-        <v>22</v>
-      </c>
-      <c r="N303" s="6">
-        <v>22</v>
-      </c>
-      <c r="O303" s="6">
-        <v>22</v>
-      </c>
-      <c r="P303" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q303" s="6">
-        <v>19</v>
-      </c>
-      <c r="R303" s="6">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="G303" s="4">
+        <v>88</v>
+      </c>
+      <c r="H303" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="I303" s="4">
+        <v>91.7</v>
+      </c>
+      <c r="J303" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="K303" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="L303" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="M303" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="N303" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="O303" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="P303" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="Q303" s="4">
+        <v>94.7</v>
+      </c>
+      <c r="R303" s="4">
+        <v>94.6</v>
       </c>
       <c r="S303" s="3"/>
       <c r="T303" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" ht="39">
       <c r="A304" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G304" s="4">
-        <v>64.7</v>
+        <v>28.5</v>
       </c>
       <c r="H304" s="4">
-        <v>65.7</v>
+        <v>30.6</v>
       </c>
       <c r="I304" s="4">
-        <v>68.599999999999994</v>
+        <v>33.1</v>
       </c>
       <c r="J304" s="4">
-        <v>70.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="K304" s="4">
-        <v>71.5</v>
+        <v>37.4</v>
       </c>
       <c r="L304" s="4">
-        <v>72.7</v>
+        <v>39.6</v>
       </c>
       <c r="M304" s="4">
-        <v>73.5</v>
+        <v>41.2</v>
       </c>
       <c r="N304" s="4">
-        <v>73.599999999999994</v>
+        <v>42</v>
       </c>
       <c r="O304" s="4">
-        <v>74</v>
+        <v>42.9</v>
       </c>
       <c r="P304" s="4">
-        <v>74.5</v>
+        <v>44</v>
       </c>
       <c r="Q304" s="4">
-        <v>74.8</v>
+        <v>45.2</v>
       </c>
       <c r="R304" s="4">
-        <v>75.2</v>
+        <v>46.3</v>
       </c>
       <c r="S304" s="3"/>
       <c r="T304" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="39">
       <c r="A305" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G305" s="4">
-        <v>88</v>
-      </c>
-      <c r="H305" s="4">
-        <v>88.4</v>
-      </c>
-      <c r="I305" s="4">
-        <v>91.7</v>
-      </c>
-      <c r="J305" s="4">
-        <v>93.3</v>
-      </c>
-      <c r="K305" s="4">
-        <v>93.9</v>
-      </c>
-      <c r="L305" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="M305" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="N305" s="4">
-        <v>94.5</v>
-      </c>
-      <c r="O305" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="P305" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="Q305" s="4">
-        <v>94.7</v>
-      </c>
-      <c r="R305" s="4">
-        <v>94.6</v>
+      <c r="G305" s="5">
+        <v>65.73</v>
+      </c>
+      <c r="H305" s="5">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="I305" s="5">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="J305" s="5">
+        <v>69.77</v>
+      </c>
+      <c r="K305" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="L305" s="5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="M305" s="5">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="N305" s="5">
+        <v>72.52</v>
+      </c>
+      <c r="O305" s="5">
+        <v>73.17</v>
+      </c>
+      <c r="P305" s="5">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="Q305" s="5">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="R305" s="5">
+        <v>72.849999999999994</v>
       </c>
       <c r="S305" s="3"/>
       <c r="T305" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="29.25">
       <c r="A306" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>369</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G306" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="H306" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="I306" s="4">
-        <v>33.1</v>
-      </c>
-      <c r="J306" s="4">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="K306" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="L306" s="4">
-        <v>39.6</v>
-      </c>
-      <c r="M306" s="4">
-        <v>41.2</v>
-      </c>
-      <c r="N306" s="4">
-        <v>42</v>
-      </c>
-      <c r="O306" s="4">
-        <v>42.9</v>
-      </c>
-      <c r="P306" s="4">
-        <v>44</v>
-      </c>
-      <c r="Q306" s="4">
-        <v>45.2</v>
-      </c>
-      <c r="R306" s="4">
-        <v>46.3</v>
-      </c>
-      <c r="S306" s="3"/>
+      <c r="G306" s="6">
+        <v>70</v>
+      </c>
+      <c r="H306" s="6">
+        <v>75</v>
+      </c>
+      <c r="I306" s="6">
+        <v>66</v>
+      </c>
+      <c r="J306" s="6">
+        <v>64</v>
+      </c>
+      <c r="K306" s="6">
+        <v>70</v>
+      </c>
+      <c r="L306" s="6">
+        <v>66</v>
+      </c>
+      <c r="M306" s="6">
+        <v>80</v>
+      </c>
+      <c r="N306" s="6">
+        <v>89</v>
+      </c>
+      <c r="O306" s="6">
+        <v>86</v>
+      </c>
+      <c r="P306" s="6">
+        <v>89</v>
+      </c>
+      <c r="Q306" s="6">
+        <v>85</v>
+      </c>
+      <c r="R306" s="6">
+        <v>82</v>
+      </c>
+      <c r="S306" s="6">
+        <v>83</v>
+      </c>
       <c r="T306" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="307" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" ht="29.25">
       <c r="A307" s="2" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>46</v>
@@ -18087,50 +18062,38 @@
       <c r="F307" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G307" s="5">
-        <v>65.73</v>
-      </c>
-      <c r="H307" s="5">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="I307" s="5">
-        <v>67.349999999999994</v>
-      </c>
-      <c r="J307" s="5">
-        <v>69.77</v>
-      </c>
-      <c r="K307" s="5">
-        <v>70.48</v>
-      </c>
-      <c r="L307" s="5">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="M307" s="5">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="N307" s="5">
-        <v>72.52</v>
-      </c>
-      <c r="O307" s="5">
-        <v>73.17</v>
-      </c>
-      <c r="P307" s="5">
-        <v>73.930000000000007</v>
-      </c>
-      <c r="Q307" s="5">
-        <v>73.319999999999993</v>
-      </c>
-      <c r="R307" s="5">
-        <v>72.849999999999994</v>
-      </c>
+      <c r="G307" s="6">
+        <v>55</v>
+      </c>
+      <c r="H307" s="3"/>
+      <c r="I307" s="6">
+        <v>58</v>
+      </c>
+      <c r="J307" s="3"/>
+      <c r="K307" s="6">
+        <v>60</v>
+      </c>
+      <c r="L307" s="3"/>
+      <c r="M307" s="6">
+        <v>64</v>
+      </c>
+      <c r="N307" s="3"/>
+      <c r="O307" s="6">
+        <v>65</v>
+      </c>
+      <c r="P307" s="3"/>
+      <c r="Q307" s="6">
+        <v>74</v>
+      </c>
+      <c r="R307" s="3"/>
       <c r="S307" s="3"/>
       <c r="T307" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" ht="29.25">
       <c r="A308" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>372</v>
@@ -18145,60 +18108,58 @@
         <v>25</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G308" s="6">
-        <v>70</v>
-      </c>
-      <c r="H308" s="6">
-        <v>75</v>
-      </c>
-      <c r="I308" s="6">
-        <v>66</v>
-      </c>
-      <c r="J308" s="6">
-        <v>64</v>
-      </c>
-      <c r="K308" s="6">
-        <v>70</v>
-      </c>
-      <c r="L308" s="6">
-        <v>66</v>
-      </c>
-      <c r="M308" s="6">
-        <v>80</v>
-      </c>
-      <c r="N308" s="6">
-        <v>89</v>
-      </c>
-      <c r="O308" s="6">
-        <v>86</v>
-      </c>
-      <c r="P308" s="6">
-        <v>89</v>
-      </c>
-      <c r="Q308" s="6">
-        <v>85</v>
-      </c>
-      <c r="R308" s="6">
-        <v>82</v>
-      </c>
-      <c r="S308" s="6">
-        <v>83</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="G308" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="H308" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="I308" s="5">
+        <v>1</v>
+      </c>
+      <c r="J308" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="K308" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="L308" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="M308" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N308" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O308" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P308" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="Q308" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="R308" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="S308" s="3"/>
       <c r="T308" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" ht="29.25">
       <c r="A309" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>46</v>
@@ -18207,46 +18168,54 @@
         <v>25</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>26</v>
+        <v>377</v>
       </c>
       <c r="G309" s="6">
-        <v>55</v>
-      </c>
-      <c r="H309" s="3"/>
+        <v>830</v>
+      </c>
+      <c r="H309" s="6">
+        <v>830</v>
+      </c>
       <c r="I309" s="6">
-        <v>58</v>
-      </c>
-      <c r="J309" s="3"/>
+        <v>685</v>
+      </c>
+      <c r="J309" s="6">
+        <v>685</v>
+      </c>
       <c r="K309" s="6">
-        <v>60</v>
-      </c>
-      <c r="L309" s="3"/>
+        <v>685</v>
+      </c>
+      <c r="L309" s="6">
+        <v>685</v>
+      </c>
       <c r="M309" s="6">
-        <v>64</v>
-      </c>
-      <c r="N309" s="3"/>
+        <v>685</v>
+      </c>
+      <c r="N309" s="6">
+        <v>685</v>
+      </c>
       <c r="O309" s="6">
-        <v>65</v>
-      </c>
-      <c r="P309" s="3"/>
-      <c r="Q309" s="6">
-        <v>74</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="P309" s="6">
+        <v>685</v>
+      </c>
+      <c r="Q309" s="3"/>
       <c r="R309" s="3"/>
       <c r="S309" s="3"/>
       <c r="T309" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="310" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" ht="29.25">
       <c r="A310" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>46</v>
@@ -18255,52 +18224,52 @@
         <v>25</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G310" s="5">
-        <v>1.02</v>
+        <v>0.63</v>
       </c>
       <c r="H310" s="5">
-        <v>0.96</v>
+        <v>0.6</v>
       </c>
       <c r="I310" s="5">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="J310" s="5">
-        <v>1.05</v>
+        <v>0.66</v>
       </c>
       <c r="K310" s="5">
-        <v>1.06</v>
+        <v>0.77</v>
       </c>
       <c r="L310" s="5">
-        <v>0.97</v>
+        <v>0.77</v>
       </c>
       <c r="M310" s="5">
-        <v>0.91</v>
+        <v>0.68</v>
       </c>
       <c r="N310" s="5">
-        <v>0.82</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O310" s="5">
-        <v>0.88</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P310" s="5">
-        <v>1.02</v>
+        <v>0.54</v>
       </c>
       <c r="Q310" s="5">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="R310" s="5">
-        <v>0.84</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S310" s="3"/>
       <c r="T310" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="39">
       <c r="A311" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>379</v>
@@ -18309,126 +18278,130 @@
         <v>380</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>381</v>
+        <v>26</v>
       </c>
       <c r="G311" s="6">
-        <v>830</v>
+        <v>10</v>
       </c>
       <c r="H311" s="6">
-        <v>830</v>
+        <v>9</v>
       </c>
       <c r="I311" s="6">
-        <v>685</v>
+        <v>11</v>
       </c>
       <c r="J311" s="6">
-        <v>685</v>
+        <v>11</v>
       </c>
       <c r="K311" s="6">
-        <v>685</v>
+        <v>15</v>
       </c>
       <c r="L311" s="6">
-        <v>685</v>
+        <v>16</v>
       </c>
       <c r="M311" s="6">
-        <v>685</v>
+        <v>19</v>
       </c>
       <c r="N311" s="6">
-        <v>685</v>
+        <v>21</v>
       </c>
       <c r="O311" s="6">
-        <v>685</v>
+        <v>25</v>
       </c>
       <c r="P311" s="6">
-        <v>685</v>
-      </c>
-      <c r="Q311" s="3"/>
-      <c r="R311" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="Q311" s="6">
+        <v>34</v>
+      </c>
+      <c r="R311" s="6">
+        <v>40</v>
+      </c>
       <c r="S311" s="3"/>
       <c r="T311" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="312" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" ht="39">
       <c r="A312" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>379</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F312" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="G312" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="H312" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I312" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="J312" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="K312" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="L312" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="M312" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="N312" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O312" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P312" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="Q312" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="R312" s="5">
-        <v>0.28999999999999998</v>
+        <v>26</v>
+      </c>
+      <c r="G312" s="6">
+        <v>10</v>
+      </c>
+      <c r="H312" s="6">
+        <v>9</v>
+      </c>
+      <c r="I312" s="6">
+        <v>11</v>
+      </c>
+      <c r="J312" s="6">
+        <v>12</v>
+      </c>
+      <c r="K312" s="6">
+        <v>14</v>
+      </c>
+      <c r="L312" s="6">
+        <v>15</v>
+      </c>
+      <c r="M312" s="6">
+        <v>19</v>
+      </c>
+      <c r="N312" s="6">
+        <v>21</v>
+      </c>
+      <c r="O312" s="6">
+        <v>24</v>
+      </c>
+      <c r="P312" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q312" s="6">
+        <v>32</v>
+      </c>
+      <c r="R312" s="6">
+        <v>39</v>
       </c>
       <c r="S312" s="3"/>
       <c r="T312" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="313" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" ht="39">
       <c r="A313" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>26</v>
@@ -18440,7 +18413,7 @@
         <v>9</v>
       </c>
       <c r="I313" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J313" s="6">
         <v>11</v>
@@ -18458,1051 +18431,1051 @@
         <v>21</v>
       </c>
       <c r="O313" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P313" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q313" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R313" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S313" s="3"/>
       <c r="T313" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="39">
       <c r="A314" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G314" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H314" s="6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I314" s="6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J314" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K314" s="6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L314" s="6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M314" s="6">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N314" s="6">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O314" s="6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P314" s="6">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q314" s="6">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R314" s="6">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="S314" s="3"/>
       <c r="T314" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="39">
       <c r="A315" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F315" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G315" s="6">
+        <v>6</v>
+      </c>
+      <c r="H315" s="6">
+        <v>5</v>
+      </c>
+      <c r="I315" s="6">
+        <v>6</v>
+      </c>
+      <c r="J315" s="6">
+        <v>6</v>
+      </c>
+      <c r="K315" s="6">
+        <v>9</v>
+      </c>
+      <c r="L315" s="6">
         <v>10</v>
       </c>
-      <c r="H315" s="6">
-        <v>9</v>
-      </c>
-      <c r="I315" s="6">
-        <v>10</v>
-      </c>
-      <c r="J315" s="6">
-        <v>11</v>
-      </c>
-      <c r="K315" s="6">
-        <v>15</v>
-      </c>
-      <c r="L315" s="6">
-        <v>16</v>
-      </c>
       <c r="M315" s="6">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="N315" s="6">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O315" s="6">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="P315" s="6">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="Q315" s="6">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R315" s="6">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="S315" s="3"/>
       <c r="T315" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="39">
       <c r="A316" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G316" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H316" s="6">
+        <v>6</v>
+      </c>
+      <c r="I316" s="6">
+        <v>8</v>
+      </c>
+      <c r="J316" s="6">
+        <v>9</v>
+      </c>
+      <c r="K316" s="6">
+        <v>9</v>
+      </c>
+      <c r="L316" s="6">
+        <v>8</v>
+      </c>
+      <c r="M316" s="6">
+        <v>9</v>
+      </c>
+      <c r="N316" s="6">
         <v>11</v>
       </c>
-      <c r="I316" s="6">
-        <v>13</v>
-      </c>
-      <c r="J316" s="6">
-        <v>15</v>
-      </c>
-      <c r="K316" s="6">
-        <v>18</v>
-      </c>
-      <c r="L316" s="6">
-        <v>19</v>
-      </c>
-      <c r="M316" s="6">
-        <v>23</v>
-      </c>
-      <c r="N316" s="6">
-        <v>26</v>
-      </c>
       <c r="O316" s="6">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P316" s="6">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="Q316" s="6">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="R316" s="6">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="S316" s="3"/>
       <c r="T316" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="39">
       <c r="A317" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>33</v>
+        <v>382</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G317" s="6">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H317" s="6">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I317" s="6">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J317" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K317" s="6">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L317" s="6">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M317" s="6">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N317" s="6">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="O317" s="6">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="P317" s="6">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="Q317" s="6">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="R317" s="6">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="S317" s="3"/>
       <c r="T317" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="39">
       <c r="A318" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G318" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H318" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I318" s="6">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J318" s="6">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K318" s="6">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="L318" s="6">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M318" s="6">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="N318" s="6">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="O318" s="6">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P318" s="6">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="Q318" s="6">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="R318" s="6">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="S318" s="3"/>
       <c r="T318" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="39">
       <c r="A319" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G319" s="6">
+        <v>9</v>
+      </c>
+      <c r="H319" s="6">
+        <v>9</v>
+      </c>
+      <c r="I319" s="6">
+        <v>11</v>
+      </c>
+      <c r="J319" s="6">
+        <v>12</v>
+      </c>
+      <c r="K319" s="6">
+        <v>15</v>
+      </c>
+      <c r="L319" s="6">
+        <v>15</v>
+      </c>
+      <c r="M319" s="6">
         <v>18</v>
       </c>
-      <c r="H319" s="6">
-        <v>16</v>
-      </c>
-      <c r="I319" s="6">
+      <c r="N319" s="6">
         <v>19</v>
       </c>
-      <c r="J319" s="6">
-        <v>20</v>
-      </c>
-      <c r="K319" s="6">
-        <v>28</v>
-      </c>
-      <c r="L319" s="6">
-        <v>28</v>
-      </c>
-      <c r="M319" s="6">
+      <c r="O319" s="6">
+        <v>25</v>
+      </c>
+      <c r="P319" s="6">
         <v>32</v>
       </c>
-      <c r="N319" s="6">
+      <c r="Q319" s="6">
         <v>35</v>
       </c>
-      <c r="O319" s="6">
-        <v>39</v>
-      </c>
-      <c r="P319" s="6">
-        <v>47</v>
-      </c>
-      <c r="Q319" s="6">
-        <v>53</v>
-      </c>
       <c r="R319" s="6">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="S319" s="3"/>
       <c r="T319" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="39">
       <c r="A320" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G320" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H320" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I320" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J320" s="6">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K320" s="6">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="L320" s="6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M320" s="6">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="N320" s="6">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="O320" s="6">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="P320" s="6">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Q320" s="6">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="R320" s="6">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="S320" s="3"/>
       <c r="T320" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="39">
       <c r="A321" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G321" s="6">
+        <v>2</v>
+      </c>
+      <c r="H321" s="6">
+        <v>2</v>
+      </c>
+      <c r="I321" s="6">
+        <v>2</v>
+      </c>
+      <c r="J321" s="6">
+        <v>2</v>
+      </c>
+      <c r="K321" s="6">
+        <v>4</v>
+      </c>
+      <c r="L321" s="6">
+        <v>3</v>
+      </c>
+      <c r="M321" s="6">
+        <v>4</v>
+      </c>
+      <c r="N321" s="6">
+        <v>5</v>
+      </c>
+      <c r="O321" s="6">
+        <v>6</v>
+      </c>
+      <c r="P321" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q321" s="6">
         <v>9</v>
       </c>
-      <c r="H321" s="6">
-        <v>9</v>
-      </c>
-      <c r="I321" s="6">
+      <c r="R321" s="6">
         <v>11</v>
-      </c>
-      <c r="J321" s="6">
-        <v>12</v>
-      </c>
-      <c r="K321" s="6">
-        <v>15</v>
-      </c>
-      <c r="L321" s="6">
-        <v>15</v>
-      </c>
-      <c r="M321" s="6">
-        <v>18</v>
-      </c>
-      <c r="N321" s="6">
-        <v>19</v>
-      </c>
-      <c r="O321" s="6">
-        <v>25</v>
-      </c>
-      <c r="P321" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q321" s="6">
-        <v>35</v>
-      </c>
-      <c r="R321" s="6">
-        <v>43</v>
       </c>
       <c r="S321" s="3"/>
       <c r="T321" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="39">
       <c r="A322" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>389</v>
+        <v>44</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G322" s="6">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H322" s="6">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I322" s="6">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J322" s="6">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K322" s="6">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="L322" s="6">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M322" s="6">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="N322" s="6">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="O322" s="6">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="P322" s="6">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="Q322" s="6">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="R322" s="6">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="S322" s="3"/>
       <c r="T322" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="39">
       <c r="A323" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G323" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H323" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I323" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J323" s="6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K323" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L323" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M323" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N323" s="6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="O323" s="6">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="P323" s="6">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Q323" s="6">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="R323" s="6">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="S323" s="3"/>
       <c r="T323" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="39">
       <c r="A324" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>182</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G324" s="6">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="H324" s="6">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I324" s="6">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="J324" s="6">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="K324" s="6">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="L324" s="6">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="M324" s="6">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="N324" s="6">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="O324" s="6">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="P324" s="6">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="Q324" s="6">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="R324" s="6">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="S324" s="3"/>
       <c r="T324" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="39">
       <c r="A325" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G325" s="6">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H325" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I325" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J325" s="6">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K325" s="6">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="L325" s="6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M325" s="6">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="N325" s="6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="O325" s="6">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P325" s="6">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="Q325" s="6">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="R325" s="6">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="S325" s="3"/>
       <c r="T325" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="39">
       <c r="A326" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G326" s="6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H326" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I326" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J326" s="6">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="K326" s="6">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L326" s="6">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="M326" s="6">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="N326" s="6">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="O326" s="6">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="P326" s="6">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="Q326" s="6">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="R326" s="6">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="S326" s="3"/>
       <c r="T326" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="39">
       <c r="A327" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G327" s="6">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H327" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I327" s="6">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J327" s="6">
+        <v>7</v>
+      </c>
+      <c r="K327" s="6">
+        <v>7</v>
+      </c>
+      <c r="L327" s="6">
+        <v>7</v>
+      </c>
+      <c r="M327" s="6">
+        <v>7</v>
+      </c>
+      <c r="N327" s="6">
+        <v>11</v>
+      </c>
+      <c r="O327" s="6">
+        <v>10</v>
+      </c>
+      <c r="P327" s="6">
         <v>17</v>
       </c>
-      <c r="K327" s="6">
-        <v>21</v>
-      </c>
-      <c r="L327" s="6">
-        <v>23</v>
-      </c>
-      <c r="M327" s="6">
+      <c r="Q327" s="6">
         <v>25</v>
       </c>
-      <c r="N327" s="6">
-        <v>29</v>
-      </c>
-      <c r="O327" s="6">
-        <v>33</v>
-      </c>
-      <c r="P327" s="6">
-        <v>42</v>
-      </c>
-      <c r="Q327" s="6">
-        <v>45</v>
-      </c>
       <c r="R327" s="6">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="S327" s="3"/>
       <c r="T327" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="39">
       <c r="A328" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G328" s="6">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H328" s="6">
+        <v>3</v>
+      </c>
+      <c r="I328" s="6">
+        <v>5</v>
+      </c>
+      <c r="J328" s="6">
+        <v>4</v>
+      </c>
+      <c r="K328" s="6">
+        <v>5</v>
+      </c>
+      <c r="L328" s="6">
+        <v>5</v>
+      </c>
+      <c r="M328" s="6">
+        <v>7</v>
+      </c>
+      <c r="N328" s="6">
+        <v>8</v>
+      </c>
+      <c r="O328" s="6">
+        <v>9</v>
+      </c>
+      <c r="P328" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q328" s="6">
         <v>14</v>
       </c>
-      <c r="I328" s="6">
-        <v>16</v>
-      </c>
-      <c r="J328" s="6">
-        <v>18</v>
-      </c>
-      <c r="K328" s="6">
-        <v>23</v>
-      </c>
-      <c r="L328" s="6">
-        <v>25</v>
-      </c>
-      <c r="M328" s="6">
-        <v>27</v>
-      </c>
-      <c r="N328" s="6">
-        <v>30</v>
-      </c>
-      <c r="O328" s="6">
-        <v>35</v>
-      </c>
-      <c r="P328" s="6">
-        <v>44</v>
-      </c>
-      <c r="Q328" s="6">
-        <v>46</v>
-      </c>
       <c r="R328" s="6">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="S328" s="3"/>
       <c r="T328" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="29.25">
       <c r="A329" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G329" s="6">
-        <v>8</v>
-      </c>
-      <c r="H329" s="6">
-        <v>5</v>
-      </c>
-      <c r="I329" s="6">
+      <c r="G329" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="H329" s="4">
         <v>6</v>
       </c>
-      <c r="J329" s="6">
-        <v>7</v>
-      </c>
-      <c r="K329" s="6">
-        <v>7</v>
-      </c>
-      <c r="L329" s="6">
-        <v>7</v>
-      </c>
-      <c r="M329" s="6">
-        <v>7</v>
-      </c>
-      <c r="N329" s="6">
-        <v>11</v>
-      </c>
-      <c r="O329" s="6">
-        <v>10</v>
-      </c>
-      <c r="P329" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q329" s="6">
-        <v>25</v>
-      </c>
-      <c r="R329" s="6">
-        <v>22</v>
+      <c r="I329" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J329" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="K329" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="L329" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M329" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="N329" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="O329" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="P329" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Q329" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R329" s="4">
+        <v>4.0999999999999996</v>
       </c>
       <c r="S329" s="3"/>
       <c r="T329" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="29.25">
       <c r="A330" s="2" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G330" s="6">
-        <v>4</v>
-      </c>
-      <c r="H330" s="6">
-        <v>3</v>
-      </c>
-      <c r="I330" s="6">
-        <v>5</v>
-      </c>
-      <c r="J330" s="6">
-        <v>4</v>
-      </c>
-      <c r="K330" s="6">
-        <v>5</v>
-      </c>
-      <c r="L330" s="6">
-        <v>5</v>
-      </c>
-      <c r="M330" s="6">
-        <v>7</v>
-      </c>
-      <c r="N330" s="6">
-        <v>8</v>
-      </c>
-      <c r="O330" s="6">
-        <v>9</v>
-      </c>
-      <c r="P330" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q330" s="6">
-        <v>14</v>
-      </c>
-      <c r="R330" s="6">
-        <v>17</v>
+        <v>392</v>
+      </c>
+      <c r="G330" s="5">
+        <v>377.75</v>
+      </c>
+      <c r="H330" s="5">
+        <v>417.47</v>
+      </c>
+      <c r="I330" s="5">
+        <v>421.06</v>
+      </c>
+      <c r="J330" s="5">
+        <v>487.12</v>
+      </c>
+      <c r="K330" s="5">
+        <v>451.84</v>
+      </c>
+      <c r="L330" s="5">
+        <v>440.89</v>
+      </c>
+      <c r="M330" s="5">
+        <v>662.95</v>
+      </c>
+      <c r="N330" s="5">
+        <v>679.46</v>
+      </c>
+      <c r="O330" s="5">
+        <v>766.04</v>
+      </c>
+      <c r="P330" s="5">
+        <v>776.56</v>
+      </c>
+      <c r="Q330" s="5">
+        <v>829</v>
+      </c>
+      <c r="R330" s="5">
+        <v>983.51</v>
       </c>
       <c r="S330" s="3"/>
       <c r="T330" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" ht="29.25">
       <c r="A331" s="2" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>46</v>
@@ -19511,58 +19484,58 @@
         <v>25</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G331" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="H331" s="4">
-        <v>6</v>
-      </c>
-      <c r="I331" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J331" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="K331" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="L331" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M331" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="N331" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="O331" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="P331" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="Q331" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="R331" s="4">
-        <v>4.0999999999999996</v>
+        <v>392</v>
+      </c>
+      <c r="G331" s="5">
+        <v>96.04</v>
+      </c>
+      <c r="H331" s="5">
+        <v>90.68</v>
+      </c>
+      <c r="I331" s="5">
+        <v>111.55</v>
+      </c>
+      <c r="J331" s="5">
+        <v>127.11</v>
+      </c>
+      <c r="K331" s="5">
+        <v>82.28</v>
+      </c>
+      <c r="L331" s="5">
+        <v>100.19</v>
+      </c>
+      <c r="M331" s="5">
+        <v>148.99</v>
+      </c>
+      <c r="N331" s="5">
+        <v>222.11</v>
+      </c>
+      <c r="O331" s="5">
+        <v>244.93</v>
+      </c>
+      <c r="P331" s="5">
+        <v>223.31</v>
+      </c>
+      <c r="Q331" s="5">
+        <v>225.08</v>
+      </c>
+      <c r="R331" s="5">
+        <v>296.20999999999998</v>
       </c>
       <c r="S331" s="3"/>
       <c r="T331" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" ht="107.25">
       <c r="A332" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>46</v>
@@ -19571,190 +19544,69 @@
         <v>25</v>
       </c>
       <c r="F332" s="3" t="s">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="G332" s="5">
-        <v>377.75</v>
+        <v>0.08</v>
       </c>
       <c r="H332" s="5">
-        <v>417.47</v>
+        <v>0.08</v>
       </c>
       <c r="I332" s="5">
-        <v>421.06</v>
+        <v>0.09</v>
       </c>
       <c r="J332" s="5">
-        <v>487.12</v>
+        <v>0.1</v>
       </c>
       <c r="K332" s="5">
-        <v>451.84</v>
+        <v>0.09</v>
       </c>
       <c r="L332" s="5">
-        <v>440.89</v>
+        <v>0.1</v>
       </c>
       <c r="M332" s="5">
-        <v>662.95</v>
+        <v>0.15</v>
       </c>
       <c r="N332" s="5">
-        <v>679.46</v>
+        <v>0.13</v>
       </c>
       <c r="O332" s="5">
-        <v>766.04</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P332" s="5">
-        <v>776.56</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q332" s="5">
-        <v>829</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R332" s="5">
-        <v>983.51</v>
+        <v>0.15</v>
       </c>
       <c r="S332" s="3"/>
       <c r="T332" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" ht="18" customHeight="1"/>
+    <row r="334" spans="1:20" ht="17.100000000000001" customHeight="1">
+      <c r="A334" s="10" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D333" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E333" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F333" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G333" s="5">
-        <v>96.04</v>
-      </c>
-      <c r="H333" s="5">
-        <v>90.68</v>
-      </c>
-      <c r="I333" s="5">
-        <v>111.55</v>
-      </c>
-      <c r="J333" s="5">
-        <v>127.11</v>
-      </c>
-      <c r="K333" s="5">
-        <v>82.28</v>
-      </c>
-      <c r="L333" s="5">
-        <v>100.19</v>
-      </c>
-      <c r="M333" s="5">
-        <v>148.99</v>
-      </c>
-      <c r="N333" s="5">
-        <v>222.11</v>
-      </c>
-      <c r="O333" s="5">
-        <v>244.93</v>
-      </c>
-      <c r="P333" s="5">
-        <v>223.31</v>
-      </c>
-      <c r="Q333" s="5">
-        <v>225.08</v>
-      </c>
-      <c r="R333" s="5">
-        <v>296.20999999999998</v>
-      </c>
-      <c r="S333" s="3"/>
-      <c r="T333" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="334" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D334" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E334" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F334" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G334" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="H334" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I334" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="J334" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K334" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="L334" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="M334" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N334" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O334" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P334" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q334" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R334" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="S334" s="3"/>
-      <c r="T334" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="B337" s="8"/>
-    </row>
-    <row r="338" spans="1:2" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B334" s="8"/>
+    </row>
+    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A334:B334"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.39370078740157499" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.39370078740157499"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
 </worksheet>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="430">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -989,6 +994,93 @@
     <t>składowanie</t>
   </si>
   <si>
+    <t>Wsparcie miast w radzeniu sobie z nagłymi zmianami, kryzysami, zarówno społeczno-gospodarczymi, jak i natury środowiskowej oraz zagwarantowanie mieszkańcom bezpieczeństwa i wysokiej jakości życia</t>
+  </si>
+  <si>
+    <t>11.2.c Odsetek mieszkańców korzystających z wodociągu na obszarach miejskich</t>
+  </si>
+  <si>
+    <t>11.2.d Udział ludności mieszkającej na terenach objętych procesami rewitalizacji w ogólnej liczbie ludności na obszarach miejskich</t>
+  </si>
+  <si>
+    <t>11.2.e Udział powierzchni obszarów zdegradowanych w powierzchni ogółem gmin miejskich</t>
+  </si>
+  <si>
+    <t>Wsparcie sprawiedliwego oraz zrównoważonego terytorialnie wzrostu gospodarczego poprzez dążenie do utrzymania policentrycznej i hierarchicznej struktury osadniczej kraju oraz tworzenie bardziej efektywnych powiązań sieciowych między miastami</t>
+  </si>
+  <si>
+    <t>11.3.a Udział powierzchni objętej obowiązującymi miejscowymi planami zagospodarowania przestrzennego w gminach miejskich</t>
+  </si>
+  <si>
+    <t>11.3.b Relacja długości linii komunikacji miejskiej na wsi do długości linii komunikacji miejskiej w miastach</t>
+  </si>
+  <si>
+    <t>Procent [%]</t>
+  </si>
+  <si>
+    <t>11.3.c Rozpiętość Wskaźnika Międzygałęziowej Dostępności Transportowej w Miejskich Obszarach Funkcjonalnych</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>Ministerstwo Funduszy i Polityki Regionalnej</t>
+  </si>
+  <si>
+    <t>Budowa zrównoważonego, dostępnego dla każdego, bezpiecznego i przystępnego cenowo systemu transportowego, zwłaszcza poprzez rozwój i priorytetyzację transportu publicznego</t>
+  </si>
+  <si>
+    <t>11.4.a Długość linii komunikacji miejskiej na 1 tys. mieszkańców</t>
+  </si>
+  <si>
+    <t>kilometry</t>
+  </si>
+  <si>
+    <t>11.4.b Liczba pieszych i rowerzystów zabitych lub ciężko rannych w wypadkach na terenie zabudowanym w przeliczeniu na 100 tys. ludności</t>
+  </si>
+  <si>
+    <t>Komenda Główna Policji</t>
+  </si>
+  <si>
+    <t>11.4.c Liczba przewozów pasażerskich w przeliczeniu na 1 mieszkańca obszarów miejskich</t>
+  </si>
+  <si>
+    <t>Zaspokojenie potrzeb mieszkaniowych ludności miast dzięki budowie powszechnego i dostępnego rynku mieszkaniowego, w tym szczególnie poprzez rozwój mieszkalnictwa społecznego</t>
+  </si>
+  <si>
+    <t>11.5.a Liczba mieszkań oddanych do użytkowania w miastach w przeliczeniu na 1 tys. ludności</t>
+  </si>
+  <si>
+    <t>11.5.b Liczba mieszkań społecznych czynszowych oraz komunalnych oddanych do użytkowania w miastach w przeliczeniu na 1 tys. ludności</t>
+  </si>
+  <si>
+    <t>11.5.c Liczba gospodarstw domowych oczekujących na najem socjalny na obszarach miejskich ogółem</t>
+  </si>
+  <si>
+    <t>11.5.d Liczba mieszkań, będących w zasobach komunalnych gmin w miastach na prawach powiatu ogółem</t>
+  </si>
+  <si>
+    <t>Poprawa jakości powietrza poprzez redukcję "niskiej emisji" (tj. do 40 m n.p.g.) pochodzącej m.in. z kotłowni domowych i transportu drogowego</t>
+  </si>
+  <si>
+    <t>11.6.a Emisja zanieczyszczeń pyłowych w miastach na prawach powiatu ogółem</t>
+  </si>
+  <si>
+    <t>tony</t>
+  </si>
+  <si>
+    <t>11.6.b Zdolność zainstalowanych urządzeń i instalacji do redukcji zanieczyszczeń w miastach na prawach powiatu ogółem</t>
+  </si>
+  <si>
+    <t>11.6.c Liczba aglomeracji i miast powyżej 100 tys. mieszkańców, w których wartość wskaźnika średniego narażenia nie przekracza pułapu stężenia ekspozycji na pył PM2,5 na poziomie 20 µg/m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cel 11. Zrównoważone miasta i społeczności </t>
+  </si>
+  <si>
+    <t>11.2.b Odsetek mieszkańców korzystających z instalacji ściekowych na obszarach miejskich</t>
+  </si>
+  <si>
     <t>Cel 12. Odpowiedzialna konsumpcja i produkcja</t>
   </si>
   <si>
@@ -1004,9 +1096,6 @@
     <t>12.1.b Krajowa Konsumpcja Materialna (DMC) na 1 mieszkańca</t>
   </si>
   <si>
-    <t>tony</t>
-  </si>
-  <si>
     <t>12.1.c Wskaźnik powtórnego wykorzystania materiałów</t>
   </si>
   <si>
@@ -1046,6 +1135,18 @@
     <t>TJ</t>
   </si>
   <si>
+    <t>Wzmocnienie roli adaptacji do zmian klimatu jako równoważnego z mitygacją środka walki ze zmianą klimatu</t>
+  </si>
+  <si>
+    <t>13.3.b Krajowy wskaźnik średniego narażenia na pył PM2,5</t>
+  </si>
+  <si>
+    <t>Zwiększenie odporności kraju na skutki zmian klimatycznych</t>
+  </si>
+  <si>
+    <t>13.4.b Pojemność obiektów małej retencji wodnej</t>
+  </si>
+  <si>
     <t>Cel 14. Życie pod wodą</t>
   </si>
   <si>
@@ -1211,20 +1312,20 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 22-03-2023, 08:36</t>
+    <t>Ostatnia aktualizacja: 04-04-2023, 13:52</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10415]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10415]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1416,6 +1517,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1436,7 +1545,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1499,7 +1608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1531,9 +1640,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1565,6 +1675,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1740,15 +1851,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T335"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T354"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1761,17 +1872,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1">
+    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="25.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1833,7 +1944,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="29.25">
+    <row r="4" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1893,7 +2004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="29.25">
+    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1953,7 +2064,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="29.25">
+    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2013,7 +2124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="29.25">
+    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2073,7 +2184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="29.25">
+    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2133,7 +2244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="29.25">
+    <row r="9" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2193,7 +2304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="39">
+    <row r="10" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2253,7 +2364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="39">
+    <row r="11" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2313,7 +2424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="39">
+    <row r="12" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -2373,7 +2484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="39">
+    <row r="13" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -2433,7 +2544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="39">
+    <row r="14" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -2493,7 +2604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="39">
+    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2551,7 +2662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="39">
+    <row r="16" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2609,7 +2720,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="39">
+    <row r="17" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2667,7 +2778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="39">
+    <row r="18" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2725,7 +2836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="29.25">
+    <row r="19" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2785,7 +2896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="29.25">
+    <row r="20" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2841,7 +2952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="29.25">
+    <row r="21" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2897,7 +3008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="29.25">
+    <row r="22" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2957,7 +3068,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="29.25">
+    <row r="23" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -3015,7 +3126,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="29.25">
+    <row r="24" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -3073,7 +3184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19.5">
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3133,7 +3244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5">
+    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3193,7 +3304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5">
+    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3253,7 +3364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="58.5">
+    <row r="28" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -3311,7 +3422,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="39">
+    <row r="29" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -3371,7 +3482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="39">
+    <row r="30" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3429,7 +3540,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="48.75">
+    <row r="31" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -3487,7 +3598,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="29.25">
+    <row r="32" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>60</v>
       </c>
@@ -3545,7 +3656,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="39">
+    <row r="33" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
@@ -3605,7 +3716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="19.5">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -3665,7 +3776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="19.5">
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>60</v>
       </c>
@@ -3725,7 +3836,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="19.5">
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
@@ -3785,7 +3896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="68.25">
+    <row r="37" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
@@ -3847,7 +3958,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="68.25">
+    <row r="38" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>60</v>
       </c>
@@ -3909,7 +4020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="68.25">
+    <row r="39" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>60</v>
       </c>
@@ -3971,7 +4082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="68.25">
+    <row r="40" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>60</v>
       </c>
@@ -4033,7 +4144,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="68.25">
+    <row r="41" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>60</v>
       </c>
@@ -4095,7 +4206,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="68.25">
+    <row r="42" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>60</v>
       </c>
@@ -4157,7 +4268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="39">
+    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -4199,7 +4310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="39">
+    <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -4241,7 +4352,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="39">
+    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
@@ -4283,7 +4394,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="39">
+    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>60</v>
       </c>
@@ -4325,7 +4436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="19.5">
+    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -4385,7 +4496,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="19.5">
+    <row r="48" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -4445,7 +4556,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="19.5">
+    <row r="49" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -4505,7 +4616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="19.5">
+    <row r="50" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -4565,7 +4676,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="19.5">
+    <row r="51" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>96</v>
       </c>
@@ -4625,7 +4736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="19.5">
+    <row r="52" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>96</v>
       </c>
@@ -4685,7 +4796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="19.5">
+    <row r="53" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -4745,7 +4856,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="19.5">
+    <row r="54" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -4805,7 +4916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="19.5">
+    <row r="55" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>96</v>
       </c>
@@ -4865,7 +4976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="19.5">
+    <row r="56" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>96</v>
       </c>
@@ -4925,7 +5036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="19.5">
+    <row r="57" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>96</v>
       </c>
@@ -4985,7 +5096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="19.5">
+    <row r="58" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>96</v>
       </c>
@@ -5045,7 +5156,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="19.5">
+    <row r="59" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>96</v>
       </c>
@@ -5105,7 +5216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="19.5">
+    <row r="60" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>96</v>
       </c>
@@ -5165,7 +5276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="19.5">
+    <row r="61" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>96</v>
       </c>
@@ -5225,7 +5336,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="19.5">
+    <row r="62" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -5285,7 +5396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="19.5">
+    <row r="63" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>96</v>
       </c>
@@ -5345,7 +5456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="19.5">
+    <row r="64" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>96</v>
       </c>
@@ -5405,7 +5516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="19.5">
+    <row r="65" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>96</v>
       </c>
@@ -5465,7 +5576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="19.5">
+    <row r="66" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>96</v>
       </c>
@@ -5525,7 +5636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="19.5">
+    <row r="67" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>96</v>
       </c>
@@ -5585,7 +5696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="19.5">
+    <row r="68" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>96</v>
       </c>
@@ -5645,7 +5756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="19.5">
+    <row r="69" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>96</v>
       </c>
@@ -5687,7 +5798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="19.5">
+    <row r="70" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>96</v>
       </c>
@@ -5729,7 +5840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="29.25">
+    <row r="71" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>96</v>
       </c>
@@ -5789,7 +5900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="19.5">
+    <row r="72" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>96</v>
       </c>
@@ -5829,7 +5940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="19.5">
+    <row r="73" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -5869,7 +5980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="19.5">
+    <row r="74" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
@@ -5909,7 +6020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="19.5">
+    <row r="75" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
@@ -5949,7 +6060,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="19.5">
+    <row r="76" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -5989,7 +6100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="19.5">
+    <row r="77" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>96</v>
       </c>
@@ -6029,7 +6140,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="19.5">
+    <row r="78" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>96</v>
       </c>
@@ -6069,7 +6180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="19.5">
+    <row r="79" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -6109,7 +6220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="19.5">
+    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -6149,7 +6260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="19.5">
+    <row r="81" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>96</v>
       </c>
@@ -6189,7 +6300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="19.5">
+    <row r="82" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>96</v>
       </c>
@@ -6229,7 +6340,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="19.5">
+    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>96</v>
       </c>
@@ -6269,7 +6380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="19.5">
+    <row r="84" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>96</v>
       </c>
@@ -6309,7 +6420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="19.5">
+    <row r="85" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>96</v>
       </c>
@@ -6351,7 +6462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="19.5">
+    <row r="86" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -6393,7 +6504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="19.5">
+    <row r="87" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -6435,7 +6546,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="19.5">
+    <row r="88" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>96</v>
       </c>
@@ -6477,7 +6588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="19.5">
+    <row r="89" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>96</v>
       </c>
@@ -6519,7 +6630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="19.5">
+    <row r="90" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>96</v>
       </c>
@@ -6561,7 +6672,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="19.5">
+    <row r="91" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>96</v>
       </c>
@@ -6603,7 +6714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="19.5">
+    <row r="92" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>96</v>
       </c>
@@ -6645,7 +6756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="19.5">
+    <row r="93" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>96</v>
       </c>
@@ -6687,7 +6798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="19.5">
+    <row r="94" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>96</v>
       </c>
@@ -6729,7 +6840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="19.5">
+    <row r="95" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>96</v>
       </c>
@@ -6771,7 +6882,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="19.5">
+    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>96</v>
       </c>
@@ -6813,7 +6924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="19.5">
+    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>96</v>
       </c>
@@ -6855,7 +6966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="19.5">
+    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -6897,7 +7008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="19.5">
+    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>96</v>
       </c>
@@ -6939,7 +7050,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="19.5">
+    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
@@ -6981,7 +7092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="19.5">
+    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>96</v>
       </c>
@@ -7023,7 +7134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="19.5">
+    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>96</v>
       </c>
@@ -7065,7 +7176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="19.5">
+    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -7107,7 +7218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="19.5">
+    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>96</v>
       </c>
@@ -7149,7 +7260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="19.5">
+    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>96</v>
       </c>
@@ -7191,7 +7302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="19.5">
+    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>96</v>
       </c>
@@ -7233,7 +7344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="19.5">
+    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>96</v>
       </c>
@@ -7275,7 +7386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="19.5">
+    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>96</v>
       </c>
@@ -7317,7 +7428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="19.5">
+    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>96</v>
       </c>
@@ -7359,7 +7470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="19.5">
+    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>96</v>
       </c>
@@ -7401,7 +7512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="19.5">
+    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>96</v>
       </c>
@@ -7441,7 +7552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="19.5">
+    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>96</v>
       </c>
@@ -7481,7 +7592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="19.5">
+    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>96</v>
       </c>
@@ -7521,7 +7632,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="19.5">
+    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>96</v>
       </c>
@@ -7583,7 +7694,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="39">
+    <row r="115" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>96</v>
       </c>
@@ -7643,7 +7754,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="29.25">
+    <row r="116" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>96</v>
       </c>
@@ -7695,7 +7806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="29.25">
+    <row r="117" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>96</v>
       </c>
@@ -7747,7 +7858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="29.25">
+    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>96</v>
       </c>
@@ -7799,7 +7910,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="29.25">
+    <row r="119" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>96</v>
       </c>
@@ -7843,7 +7954,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="39">
+    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>96</v>
       </c>
@@ -7903,7 +8014,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="29.25">
+    <row r="121" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>148</v>
       </c>
@@ -7963,7 +8074,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="19.5">
+    <row r="122" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>148</v>
       </c>
@@ -8023,7 +8134,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="39">
+    <row r="123" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>148</v>
       </c>
@@ -8067,7 +8178,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="39">
+    <row r="124" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>148</v>
       </c>
@@ -8111,7 +8222,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="39">
+    <row r="125" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -8155,7 +8266,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="39">
+    <row r="126" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>148</v>
       </c>
@@ -8199,7 +8310,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="39">
+    <row r="127" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>148</v>
       </c>
@@ -8243,7 +8354,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="39">
+    <row r="128" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>148</v>
       </c>
@@ -8287,7 +8398,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="29.25">
+    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>148</v>
       </c>
@@ -8347,7 +8458,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="29.25">
+    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>148</v>
       </c>
@@ -8407,7 +8518,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="29.25">
+    <row r="131" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>148</v>
       </c>
@@ -8467,7 +8578,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="29.25">
+    <row r="132" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>148</v>
       </c>
@@ -8527,7 +8638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="29.25">
+    <row r="133" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>148</v>
       </c>
@@ -8587,7 +8698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="29.25">
+    <row r="134" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>148</v>
       </c>
@@ -8647,7 +8758,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="29.25">
+    <row r="135" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>148</v>
       </c>
@@ -8707,7 +8818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="29.25">
+    <row r="136" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>148</v>
       </c>
@@ -8767,7 +8878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="29.25">
+    <row r="137" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>148</v>
       </c>
@@ -8827,7 +8938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="29.25">
+    <row r="138" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>148</v>
       </c>
@@ -8887,7 +8998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="29.25">
+    <row r="139" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>148</v>
       </c>
@@ -8947,7 +9058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="29.25">
+    <row r="140" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>148</v>
       </c>
@@ -9007,7 +9118,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="29.25">
+    <row r="141" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -9067,7 +9178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="29.25">
+    <row r="142" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>148</v>
       </c>
@@ -9127,7 +9238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="78">
+    <row r="143" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>148</v>
       </c>
@@ -9167,7 +9278,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="78">
+    <row r="144" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>148</v>
       </c>
@@ -9205,7 +9316,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="78">
+    <row r="145" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>148</v>
       </c>
@@ -9243,7 +9354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="78">
+    <row r="146" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -9281,7 +9392,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="78">
+    <row r="147" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>148</v>
       </c>
@@ -9319,7 +9430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="78">
+    <row r="148" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>148</v>
       </c>
@@ -9357,7 +9468,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="78">
+    <row r="149" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>148</v>
       </c>
@@ -9395,7 +9506,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="78">
+    <row r="150" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -9433,7 +9544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="78">
+    <row r="151" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>148</v>
       </c>
@@ -9471,7 +9582,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="78">
+    <row r="152" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>148</v>
       </c>
@@ -9509,7 +9620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="78">
+    <row r="153" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>148</v>
       </c>
@@ -9547,7 +9658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="78">
+    <row r="154" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
@@ -9585,7 +9696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="78">
+    <row r="155" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>148</v>
       </c>
@@ -9623,7 +9734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="78">
+    <row r="156" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -9661,7 +9772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="78">
+    <row r="157" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>148</v>
       </c>
@@ -9699,7 +9810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="78">
+    <row r="158" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>148</v>
       </c>
@@ -9737,7 +9848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="78">
+    <row r="159" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>148</v>
       </c>
@@ -9775,7 +9886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="78">
+    <row r="160" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>148</v>
       </c>
@@ -9813,7 +9924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="78">
+    <row r="161" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>148</v>
       </c>
@@ -9851,7 +9962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="78">
+    <row r="162" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>148</v>
       </c>
@@ -9889,7 +10000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="78">
+    <row r="163" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
@@ -9927,7 +10038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="78">
+    <row r="164" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>148</v>
       </c>
@@ -9965,7 +10076,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="78">
+    <row r="165" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>148</v>
       </c>
@@ -10003,7 +10114,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="78">
+    <row r="166" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>148</v>
       </c>
@@ -10041,7 +10152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="78">
+    <row r="167" spans="1:20" ht="72" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>148</v>
       </c>
@@ -10079,7 +10190,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="19.5">
+    <row r="168" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>189</v>
       </c>
@@ -10139,7 +10250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="19.5">
+    <row r="169" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>189</v>
       </c>
@@ -10199,7 +10310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="19.5">
+    <row r="170" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>189</v>
       </c>
@@ -10259,7 +10370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="19.5">
+    <row r="171" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>189</v>
       </c>
@@ -10319,7 +10430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="39">
+    <row r="172" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>189</v>
       </c>
@@ -10367,7 +10478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="68.25">
+    <row r="173" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>189</v>
       </c>
@@ -10415,7 +10526,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="48.75">
+    <row r="174" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>189</v>
       </c>
@@ -10463,7 +10574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="39">
+    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>189</v>
       </c>
@@ -10511,7 +10622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="39">
+    <row r="176" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>189</v>
       </c>
@@ -10559,7 +10670,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="39">
+    <row r="177" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>189</v>
       </c>
@@ -10607,7 +10718,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="68.25">
+    <row r="178" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>189</v>
       </c>
@@ -10655,7 +10766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="19.5">
+    <row r="179" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>189</v>
       </c>
@@ -10715,7 +10826,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="19.5">
+    <row r="180" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>189</v>
       </c>
@@ -10773,7 +10884,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="19.5">
+    <row r="181" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>189</v>
       </c>
@@ -10831,7 +10942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="29.25">
+    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>189</v>
       </c>
@@ -10891,7 +11002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="29.25">
+    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>189</v>
       </c>
@@ -10951,7 +11062,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="29.25">
+    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>189</v>
       </c>
@@ -11011,7 +11122,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="19.5">
+    <row r="185" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>206</v>
       </c>
@@ -11069,7 +11180,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="19.5">
+    <row r="186" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>206</v>
       </c>
@@ -11129,7 +11240,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="48.75">
+    <row r="187" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>206</v>
       </c>
@@ -11189,7 +11300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="48.75">
+    <row r="188" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>206</v>
       </c>
@@ -11249,7 +11360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="48.75">
+    <row r="189" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>206</v>
       </c>
@@ -11309,7 +11420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="48.75">
+    <row r="190" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>206</v>
       </c>
@@ -11369,7 +11480,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="39">
+    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>215</v>
       </c>
@@ -11427,7 +11538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="29.25">
+    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>215</v>
       </c>
@@ -11487,7 +11598,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="29.25">
+    <row r="193" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>215</v>
       </c>
@@ -11547,7 +11658,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="29.25">
+    <row r="194" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>215</v>
       </c>
@@ -11607,7 +11718,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="29.25">
+    <row r="195" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>215</v>
       </c>
@@ -11667,7 +11778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="29.25">
+    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>215</v>
       </c>
@@ -11727,7 +11838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="48.75">
+    <row r="197" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>230</v>
       </c>
@@ -11785,7 +11896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="48.75">
+    <row r="198" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>230</v>
       </c>
@@ -11845,7 +11956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="48.75">
+    <row r="199" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>230</v>
       </c>
@@ -11901,7 +12012,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="29.25">
+    <row r="200" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>230</v>
       </c>
@@ -11953,7 +12064,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="29.25">
+    <row r="201" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>230</v>
       </c>
@@ -12013,7 +12124,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="29.25">
+    <row r="202" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>230</v>
       </c>
@@ -12073,7 +12184,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="29.25">
+    <row r="203" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>230</v>
       </c>
@@ -12133,7 +12244,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="29.25">
+    <row r="204" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>230</v>
       </c>
@@ -12193,7 +12304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="29.25">
+    <row r="205" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>230</v>
       </c>
@@ -12253,7 +12364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="29.25">
+    <row r="206" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>230</v>
       </c>
@@ -12313,7 +12424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="29.25">
+    <row r="207" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>230</v>
       </c>
@@ -12373,7 +12484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="29.25">
+    <row r="208" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>230</v>
       </c>
@@ -12433,7 +12544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="29.25">
+    <row r="209" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>230</v>
       </c>
@@ -12493,7 +12604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="29.25">
+    <row r="210" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>230</v>
       </c>
@@ -12553,7 +12664,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="29.25">
+    <row r="211" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>230</v>
       </c>
@@ -12613,7 +12724,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="29.25">
+    <row r="212" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>230</v>
       </c>
@@ -12673,7 +12784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="29.25">
+    <row r="213" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>230</v>
       </c>
@@ -12733,7 +12844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="29.25">
+    <row r="214" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>230</v>
       </c>
@@ -12793,7 +12904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="29.25">
+    <row r="215" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>230</v>
       </c>
@@ -12853,7 +12964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="29.25">
+    <row r="216" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>230</v>
       </c>
@@ -12913,7 +13024,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="29.25">
+    <row r="217" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>230</v>
       </c>
@@ -12973,7 +13084,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="39">
+    <row r="218" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>230</v>
       </c>
@@ -13033,7 +13144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="29.25">
+    <row r="219" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>230</v>
       </c>
@@ -13093,7 +13204,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="29.25">
+    <row r="220" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>230</v>
       </c>
@@ -13153,7 +13264,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="29.25">
+    <row r="221" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>230</v>
       </c>
@@ -13213,7 +13324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="29.25">
+    <row r="222" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>230</v>
       </c>
@@ -13273,7 +13384,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="29.25">
+    <row r="223" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>230</v>
       </c>
@@ -13333,7 +13444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="29.25">
+    <row r="224" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>230</v>
       </c>
@@ -13393,7 +13504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="29.25">
+    <row r="225" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>230</v>
       </c>
@@ -13441,7 +13552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="29.25">
+    <row r="226" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>230</v>
       </c>
@@ -13489,7 +13600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="29.25">
+    <row r="227" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>230</v>
       </c>
@@ -13537,7 +13648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="29.25">
+    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>230</v>
       </c>
@@ -13585,7 +13696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="29.25">
+    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>230</v>
       </c>
@@ -13633,7 +13744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="29.25">
+    <row r="230" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>230</v>
       </c>
@@ -13693,7 +13804,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="29.25">
+    <row r="231" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>230</v>
       </c>
@@ -13753,7 +13864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="29.25">
+    <row r="232" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>230</v>
       </c>
@@ -13813,7 +13924,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="29.25">
+    <row r="233" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>230</v>
       </c>
@@ -13873,7 +13984,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="29.25">
+    <row r="234" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>230</v>
       </c>
@@ -13933,7 +14044,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="29.25">
+    <row r="235" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>230</v>
       </c>
@@ -13993,7 +14104,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="29.25">
+    <row r="236" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>230</v>
       </c>
@@ -14053,7 +14164,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="29.25">
+    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>230</v>
       </c>
@@ -14113,7 +14224,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="29.25">
+    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>230</v>
       </c>
@@ -14173,7 +14284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="29.25">
+    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>230</v>
       </c>
@@ -14233,7 +14344,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="29.25">
+    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>230</v>
       </c>
@@ -14293,7 +14404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="29.25">
+    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>230</v>
       </c>
@@ -14353,7 +14464,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="29.25">
+    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>230</v>
       </c>
@@ -14413,7 +14524,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="29.25">
+    <row r="243" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>230</v>
       </c>
@@ -14473,7 +14584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="29.25">
+    <row r="244" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>230</v>
       </c>
@@ -14533,7 +14644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="29.25">
+    <row r="245" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>230</v>
       </c>
@@ -14593,7 +14704,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="29.25">
+    <row r="246" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>230</v>
       </c>
@@ -14653,7 +14764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="29.25">
+    <row r="247" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>230</v>
       </c>
@@ -14691,7 +14802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="29.25">
+    <row r="248" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>230</v>
       </c>
@@ -14729,7 +14840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="29.25">
+    <row r="249" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>230</v>
       </c>
@@ -14767,7 +14878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="29.25">
+    <row r="250" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>230</v>
       </c>
@@ -14825,7 +14936,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="29.25">
+    <row r="251" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>230</v>
       </c>
@@ -14883,7 +14994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="29.25">
+    <row r="252" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>230</v>
       </c>
@@ -14941,7 +15052,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="39">
+    <row r="253" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>272</v>
       </c>
@@ -15001,7 +15112,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="39">
+    <row r="254" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>272</v>
       </c>
@@ -15061,7 +15172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="39">
+    <row r="255" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>272</v>
       </c>
@@ -15121,7 +15232,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="39">
+    <row r="256" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>272</v>
       </c>
@@ -15181,7 +15292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="39">
+    <row r="257" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>272</v>
       </c>
@@ -15239,7 +15350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="39">
+    <row r="258" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>272</v>
       </c>
@@ -15299,7 +15410,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="39">
+    <row r="259" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>272</v>
       </c>
@@ -15359,7 +15470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="39">
+    <row r="260" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>272</v>
       </c>
@@ -15413,7 +15524,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="39">
+    <row r="261" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>272</v>
       </c>
@@ -15473,7 +15584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="29.25">
+    <row r="262" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>291</v>
       </c>
@@ -15531,7 +15642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="29.25">
+    <row r="263" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>291</v>
       </c>
@@ -15591,7 +15702,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="19.5">
+    <row r="264" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>291</v>
       </c>
@@ -15645,7 +15756,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="19.5">
+    <row r="265" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>291</v>
       </c>
@@ -15705,7 +15816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="19.5">
+    <row r="266" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>291</v>
       </c>
@@ -15755,7 +15866,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="19.5">
+    <row r="267" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>291</v>
       </c>
@@ -15805,7 +15916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="29.25">
+    <row r="268" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>291</v>
       </c>
@@ -15851,7 +15962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="29.25">
+    <row r="269" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>291</v>
       </c>
@@ -15897,7 +16008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="29.25">
+    <row r="270" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>291</v>
       </c>
@@ -15943,7 +16054,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="29.25">
+    <row r="271" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>291</v>
       </c>
@@ -15989,7 +16100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="29.25">
+    <row r="272" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>291</v>
       </c>
@@ -16035,7 +16146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="29.25">
+    <row r="273" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>291</v>
       </c>
@@ -16081,7 +16192,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="39">
+    <row r="274" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>291</v>
       </c>
@@ -16127,7 +16238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="68.25">
+    <row r="275" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>308</v>
       </c>
@@ -16183,7 +16294,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="68.25">
+    <row r="276" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>308</v>
       </c>
@@ -16243,7 +16354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="68.25">
+    <row r="277" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>308</v>
       </c>
@@ -16301,7 +16412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="68.25">
+    <row r="278" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>308</v>
       </c>
@@ -16361,7 +16472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="68.25">
+    <row r="279" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>308</v>
       </c>
@@ -16421,7 +16532,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="68.25">
+    <row r="280" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>308</v>
       </c>
@@ -16481,7 +16592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="68.25">
+    <row r="281" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>308</v>
       </c>
@@ -16541,7 +16652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="68.25">
+    <row r="282" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>308</v>
       </c>
@@ -16601,7 +16712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="68.25">
+    <row r="283" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>308</v>
       </c>
@@ -16661,15 +16772,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="48.75">
+    <row r="284" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="C284" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>46</v>
@@ -16678,58 +16789,58 @@
         <v>25</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G284" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H284" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="I284" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="J284" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="K284" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="L284" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M284" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="N284" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="O284" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="P284" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="Q284" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="R284" s="5">
-        <v>0.84</v>
+        <v>26</v>
+      </c>
+      <c r="G284" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="H284" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="I284" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="J284" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="K284" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="L284" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="M284" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="N284" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="O284" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="P284" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="Q284" s="4">
+        <v>96.7</v>
+      </c>
+      <c r="R284" s="4">
+        <v>96.7</v>
       </c>
       <c r="S284" s="3"/>
       <c r="T284" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="285" spans="1:20" ht="48.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="285" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B285" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="C285" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>46</v>
@@ -16738,58 +16849,38 @@
         <v>25</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="G285" s="5">
-        <v>16.32</v>
-      </c>
-      <c r="H285" s="5">
-        <v>20.22</v>
-      </c>
-      <c r="I285" s="5">
-        <v>17.309999999999999</v>
-      </c>
-      <c r="J285" s="5">
-        <v>16.510000000000002</v>
-      </c>
-      <c r="K285" s="5">
-        <v>16.41</v>
-      </c>
-      <c r="L285" s="5">
-        <v>16.28</v>
-      </c>
-      <c r="M285" s="5">
-        <v>16.82</v>
-      </c>
-      <c r="N285" s="5">
-        <v>17.829999999999998</v>
-      </c>
-      <c r="O285" s="5">
-        <v>18.52</v>
-      </c>
-      <c r="P285" s="5">
-        <v>17.690000000000001</v>
-      </c>
-      <c r="Q285" s="5">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="R285" s="5">
-        <v>18.02</v>
+        <v>26</v>
+      </c>
+      <c r="G285" s="3"/>
+      <c r="H285" s="3"/>
+      <c r="I285" s="3"/>
+      <c r="J285" s="3"/>
+      <c r="K285" s="3"/>
+      <c r="L285" s="3"/>
+      <c r="M285" s="3"/>
+      <c r="N285" s="3"/>
+      <c r="O285" s="3"/>
+      <c r="P285" s="3"/>
+      <c r="Q285" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="R285" s="4">
+        <v>14.8</v>
       </c>
       <c r="S285" s="3"/>
       <c r="T285" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="286" spans="1:20" ht="48.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="C286" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>46</v>
@@ -16800,56 +16891,36 @@
       <c r="F286" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G286" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="H286" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I286" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="J286" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="K286" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="L286" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="M286" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N286" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="O286" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="P286" s="4">
-        <v>10.3</v>
-      </c>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3"/>
+      <c r="K286" s="3"/>
+      <c r="L286" s="3"/>
+      <c r="M286" s="3"/>
+      <c r="N286" s="3"/>
+      <c r="O286" s="3"/>
+      <c r="P286" s="3"/>
       <c r="Q286" s="4">
-        <v>7.5</v>
+        <v>13.3</v>
       </c>
       <c r="R286" s="4">
-        <v>9.1</v>
+        <v>13.5</v>
       </c>
       <c r="S286" s="3"/>
       <c r="T286" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="287" spans="1:20" ht="48.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>46</v>
@@ -16860,54 +16931,56 @@
       <c r="F287" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G287" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H287" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="I287" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="J287" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="K287" s="5">
-        <v>3.82</v>
-      </c>
-      <c r="L287" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="M287" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="N287" s="5">
-        <v>2.62</v>
-      </c>
-      <c r="O287" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="P287" s="5">
-        <v>2.66</v>
-      </c>
-      <c r="Q287" s="5">
-        <v>2.68</v>
-      </c>
-      <c r="R287" s="3"/>
+      <c r="G287" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="H287" s="4">
+        <v>44.7</v>
+      </c>
+      <c r="I287" s="4">
+        <v>46.5</v>
+      </c>
+      <c r="J287" s="4">
+        <v>48.2</v>
+      </c>
+      <c r="K287" s="4">
+        <v>49.6</v>
+      </c>
+      <c r="L287" s="4">
+        <v>49.8</v>
+      </c>
+      <c r="M287" s="4">
+        <v>50.6</v>
+      </c>
+      <c r="N287" s="4">
+        <v>51.2</v>
+      </c>
+      <c r="O287" s="4">
+        <v>52.4</v>
+      </c>
+      <c r="P287" s="4">
+        <v>53.4</v>
+      </c>
+      <c r="Q287" s="4">
+        <v>53.9</v>
+      </c>
+      <c r="R287" s="4">
+        <v>54.8</v>
+      </c>
       <c r="S287" s="3"/>
       <c r="T287" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="288" spans="1:20" ht="48.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>46</v>
@@ -16916,56 +16989,58 @@
         <v>25</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G288" s="4">
-        <v>100</v>
+        <v>41.6</v>
       </c>
       <c r="H288" s="4">
-        <v>99.8</v>
+        <v>44.7</v>
       </c>
       <c r="I288" s="4">
-        <v>97.6</v>
+        <v>46.5</v>
       </c>
       <c r="J288" s="4">
-        <v>96.3</v>
+        <v>48.2</v>
       </c>
       <c r="K288" s="4">
-        <v>92.7</v>
+        <v>49.6</v>
       </c>
       <c r="L288" s="4">
-        <v>93.6</v>
+        <v>49.8</v>
       </c>
       <c r="M288" s="4">
-        <v>96.9</v>
+        <v>50.6</v>
       </c>
       <c r="N288" s="4">
-        <v>100.8</v>
+        <v>51.2</v>
       </c>
       <c r="O288" s="4">
-        <v>100.6</v>
+        <v>52.4</v>
       </c>
       <c r="P288" s="4">
-        <v>95.1</v>
+        <v>53.4</v>
       </c>
       <c r="Q288" s="4">
-        <v>90.6</v>
-      </c>
-      <c r="R288" s="3"/>
+        <v>53.9</v>
+      </c>
+      <c r="R288" s="4">
+        <v>54.8</v>
+      </c>
       <c r="S288" s="3"/>
       <c r="T288" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="289" spans="1:20" ht="48.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="289" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>46</v>
@@ -16974,56 +17049,54 @@
         <v>25</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="G289" s="4">
-        <v>100</v>
-      </c>
-      <c r="H289" s="4">
-        <v>99.7</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
       <c r="I289" s="4">
-        <v>97.9</v>
+        <v>29.8</v>
       </c>
       <c r="J289" s="4">
-        <v>96.9</v>
+        <v>31.1</v>
       </c>
       <c r="K289" s="4">
-        <v>93.8</v>
+        <v>30.3</v>
       </c>
       <c r="L289" s="4">
-        <v>94.2</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="M289" s="4">
-        <v>96.9</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="N289" s="4">
-        <v>100.4</v>
+        <v>35.6</v>
       </c>
       <c r="O289" s="4">
-        <v>100.1</v>
+        <v>37.5</v>
       </c>
       <c r="P289" s="4">
-        <v>94.6</v>
+        <v>35.9</v>
       </c>
       <c r="Q289" s="4">
-        <v>91.1</v>
-      </c>
-      <c r="R289" s="3"/>
+        <v>36.6</v>
+      </c>
+      <c r="R289" s="4">
+        <v>36.1</v>
+      </c>
       <c r="S289" s="3"/>
       <c r="T289" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20" ht="29.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>46</v>
@@ -17032,58 +17105,54 @@
         <v>25</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G290" s="5">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="H290" s="5">
-        <v>10.34</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="G290" s="3"/>
+      <c r="H290" s="3"/>
       <c r="I290" s="5">
-        <v>10.96</v>
+        <v>1.39</v>
       </c>
       <c r="J290" s="5">
-        <v>11.45</v>
+        <v>1.41</v>
       </c>
       <c r="K290" s="5">
-        <v>11.61</v>
+        <v>1.43</v>
       </c>
       <c r="L290" s="5">
-        <v>11.88</v>
+        <v>1.48</v>
       </c>
       <c r="M290" s="5">
-        <v>11.4</v>
+        <v>1.47</v>
       </c>
       <c r="N290" s="5">
-        <v>11.06</v>
+        <v>1.5</v>
       </c>
       <c r="O290" s="5">
-        <v>14.94</v>
+        <v>1.53</v>
       </c>
       <c r="P290" s="5">
-        <v>15.38</v>
+        <v>1.57</v>
       </c>
       <c r="Q290" s="5">
-        <v>16.100000000000001</v>
+        <v>1.58</v>
       </c>
       <c r="R290" s="5">
-        <v>15.62</v>
+        <v>1.58</v>
       </c>
       <c r="S290" s="3"/>
       <c r="T290" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="29.25">
+    <row r="291" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>46</v>
@@ -17092,304 +17161,268 @@
         <v>25</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G291" s="6">
-        <v>563</v>
-      </c>
-      <c r="H291" s="6">
-        <v>531</v>
-      </c>
-      <c r="I291" s="6">
-        <v>661</v>
-      </c>
-      <c r="J291" s="6">
-        <v>778</v>
-      </c>
-      <c r="K291" s="6">
-        <v>847</v>
-      </c>
-      <c r="L291" s="6">
-        <v>909</v>
-      </c>
-      <c r="M291" s="6">
-        <v>930</v>
-      </c>
-      <c r="N291" s="6">
-        <v>946</v>
-      </c>
-      <c r="O291" s="6">
-        <v>991</v>
-      </c>
-      <c r="P291" s="6">
-        <v>1050</v>
-      </c>
-      <c r="Q291" s="6">
-        <v>1073</v>
+        <v>53</v>
+      </c>
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="3"/>
+      <c r="J291" s="3"/>
+      <c r="K291" s="3"/>
+      <c r="L291" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="M291" s="4">
+        <v>12.7</v>
+      </c>
+      <c r="N291" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="O291" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="P291" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="Q291" s="4">
+        <v>9</v>
       </c>
       <c r="R291" s="3"/>
       <c r="S291" s="3"/>
       <c r="T291" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="292" spans="1:20" ht="87.75">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="292" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G292" s="4">
+        <v>166.5</v>
+      </c>
+      <c r="H292" s="4">
+        <v>166.2</v>
+      </c>
+      <c r="I292" s="4">
+        <v>165.6</v>
+      </c>
+      <c r="J292" s="4">
+        <v>155.5</v>
+      </c>
+      <c r="K292" s="4">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="L292" s="4">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="M292" s="4">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="N292" s="4">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="O292" s="4">
+        <v>163.4</v>
+      </c>
+      <c r="P292" s="4">
+        <v>167.6</v>
+      </c>
+      <c r="Q292" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="R292" s="4">
+        <v>109.5</v>
+      </c>
+      <c r="S292" s="3"/>
+      <c r="T292" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="293" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G293" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="H293" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I293" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J293" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="K293" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="L293" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M293" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N293" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O293" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="P293" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="Q293" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="R293" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="S293" s="3"/>
+      <c r="T293" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="294" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="D294" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G294" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H294" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="I294" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J294" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K294" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="L294" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="M294" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="N294" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="O294" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="P294" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q294" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="R294" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S294" s="3"/>
+      <c r="T294" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="295" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C295" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="D295" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G295" s="3"/>
+      <c r="H295" s="3"/>
+      <c r="I295" s="3"/>
+      <c r="J295" s="3"/>
+      <c r="K295" s="3"/>
+      <c r="L295" s="3"/>
+      <c r="M295" s="3"/>
+      <c r="N295" s="3"/>
+      <c r="O295" s="3"/>
+      <c r="P295" s="6">
+        <v>74110</v>
+      </c>
+      <c r="Q295" s="6">
+        <v>68436</v>
+      </c>
+      <c r="R295" s="6">
+        <v>65117</v>
+      </c>
+      <c r="S295" s="3"/>
+      <c r="T295" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C296" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F292" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G292" s="6">
-        <v>40</v>
-      </c>
-      <c r="H292" s="6">
-        <v>60</v>
-      </c>
-      <c r="I292" s="6">
-        <v>40</v>
-      </c>
-      <c r="J292" s="6">
-        <v>40</v>
-      </c>
-      <c r="K292" s="6">
-        <v>40</v>
-      </c>
-      <c r="L292" s="6">
-        <v>40</v>
-      </c>
-      <c r="M292" s="6">
-        <v>60</v>
-      </c>
-      <c r="N292" s="6">
-        <v>40</v>
-      </c>
-      <c r="O292" s="6">
-        <v>40</v>
-      </c>
-      <c r="P292" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q292" s="6">
-        <v>60</v>
-      </c>
-      <c r="R292" s="6">
-        <v>67</v>
-      </c>
-      <c r="S292" s="6">
-        <v>50</v>
-      </c>
-      <c r="T292" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="293" spans="1:20" ht="87.75">
-      <c r="A293" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D293" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E293" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F293" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G293" s="6">
-        <v>40</v>
-      </c>
-      <c r="H293" s="6">
-        <v>60</v>
-      </c>
-      <c r="I293" s="6">
-        <v>20</v>
-      </c>
-      <c r="J293" s="6">
-        <v>20</v>
-      </c>
-      <c r="K293" s="6">
-        <v>20</v>
-      </c>
-      <c r="L293" s="6">
-        <v>40</v>
-      </c>
-      <c r="M293" s="6">
-        <v>60</v>
-      </c>
-      <c r="N293" s="6">
-        <v>40</v>
-      </c>
-      <c r="O293" s="6">
-        <v>25</v>
-      </c>
-      <c r="P293" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q293" s="6">
-        <v>20</v>
-      </c>
-      <c r="R293" s="6">
-        <v>17</v>
-      </c>
-      <c r="S293" s="6">
-        <v>0</v>
-      </c>
-      <c r="T293" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="294" spans="1:20" ht="87.75">
-      <c r="A294" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D294" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E294" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F294" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G294" s="6">
-        <v>0</v>
-      </c>
-      <c r="H294" s="6">
-        <v>0</v>
-      </c>
-      <c r="I294" s="6">
-        <v>20</v>
-      </c>
-      <c r="J294" s="6">
-        <v>20</v>
-      </c>
-      <c r="K294" s="6">
-        <v>20</v>
-      </c>
-      <c r="L294" s="6">
-        <v>0</v>
-      </c>
-      <c r="M294" s="6">
-        <v>0</v>
-      </c>
-      <c r="N294" s="6">
-        <v>0</v>
-      </c>
-      <c r="O294" s="6">
-        <v>0</v>
-      </c>
-      <c r="P294" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q294" s="6">
-        <v>40</v>
-      </c>
-      <c r="R294" s="6">
-        <v>17</v>
-      </c>
-      <c r="S294" s="6">
-        <v>17</v>
-      </c>
-      <c r="T294" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="295" spans="1:20" ht="87.75">
-      <c r="A295" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F295" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G295" s="6">
-        <v>60</v>
-      </c>
-      <c r="H295" s="6">
-        <v>40</v>
-      </c>
-      <c r="I295" s="6">
-        <v>60</v>
-      </c>
-      <c r="J295" s="6">
-        <v>60</v>
-      </c>
-      <c r="K295" s="6">
-        <v>60</v>
-      </c>
-      <c r="L295" s="6">
-        <v>60</v>
-      </c>
-      <c r="M295" s="6">
-        <v>40</v>
-      </c>
-      <c r="N295" s="6">
-        <v>60</v>
-      </c>
-      <c r="O295" s="6">
-        <v>75</v>
-      </c>
-      <c r="P295" s="6">
-        <v>75</v>
-      </c>
-      <c r="Q295" s="6">
-        <v>40</v>
-      </c>
-      <c r="R295" s="6">
-        <v>33</v>
-      </c>
-      <c r="S295" s="6">
-        <v>50</v>
-      </c>
-      <c r="T295" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="296" spans="1:20" ht="19.5">
-      <c r="A296" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>46</v>
@@ -17398,58 +17431,44 @@
         <v>25</v>
       </c>
       <c r="F296" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="G296" s="4">
-        <v>100</v>
-      </c>
-      <c r="H296" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="I296" s="4">
-        <v>99.9</v>
-      </c>
-      <c r="J296" s="4">
-        <v>101.8</v>
-      </c>
-      <c r="K296" s="4">
-        <v>104.9</v>
-      </c>
-      <c r="L296" s="4">
-        <v>106</v>
-      </c>
-      <c r="M296" s="4">
-        <v>119.9</v>
-      </c>
-      <c r="N296" s="4">
-        <v>119.4</v>
-      </c>
-      <c r="O296" s="4">
-        <v>130</v>
-      </c>
-      <c r="P296" s="4">
-        <v>189.5</v>
-      </c>
-      <c r="Q296" s="4">
-        <v>186.6</v>
-      </c>
-      <c r="R296" s="4">
-        <v>190.1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="6">
+        <v>546870</v>
+      </c>
+      <c r="K296" s="3"/>
+      <c r="L296" s="6">
+        <v>512116</v>
+      </c>
+      <c r="M296" s="6">
+        <v>501544</v>
+      </c>
+      <c r="N296" s="3"/>
+      <c r="O296" s="6">
+        <v>487452</v>
+      </c>
+      <c r="P296" s="3"/>
+      <c r="Q296" s="6">
+        <v>469607</v>
+      </c>
+      <c r="R296" s="3"/>
       <c r="S296" s="3"/>
       <c r="T296" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="29.25">
+    <row r="297" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>46</v>
@@ -17458,58 +17477,58 @@
         <v>25</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="G297" s="4">
-        <v>59.5</v>
-      </c>
-      <c r="H297" s="4">
-        <v>57.7</v>
-      </c>
-      <c r="I297" s="4">
-        <v>58.8</v>
-      </c>
-      <c r="J297" s="4">
-        <v>64.3</v>
-      </c>
-      <c r="K297" s="4">
-        <v>68.7</v>
-      </c>
-      <c r="L297" s="4">
-        <v>69.5</v>
-      </c>
-      <c r="M297" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="N297" s="4">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="O297" s="4">
-        <v>91.8</v>
-      </c>
-      <c r="P297" s="4">
-        <v>93.9</v>
-      </c>
-      <c r="Q297" s="4">
-        <v>88.5</v>
-      </c>
-      <c r="R297" s="4">
-        <v>96.7</v>
+        <v>347</v>
+      </c>
+      <c r="G297" s="6">
+        <v>22795</v>
+      </c>
+      <c r="H297" s="6">
+        <v>21359</v>
+      </c>
+      <c r="I297" s="6">
+        <v>20022</v>
+      </c>
+      <c r="J297" s="6">
+        <v>19636</v>
+      </c>
+      <c r="K297" s="6">
+        <v>18137</v>
+      </c>
+      <c r="L297" s="6">
+        <v>16793</v>
+      </c>
+      <c r="M297" s="6">
+        <v>15086</v>
+      </c>
+      <c r="N297" s="6">
+        <v>14505</v>
+      </c>
+      <c r="O297" s="6">
+        <v>14165</v>
+      </c>
+      <c r="P297" s="6">
+        <v>11466</v>
+      </c>
+      <c r="Q297" s="6">
+        <v>8767</v>
+      </c>
+      <c r="R297" s="6">
+        <v>8374</v>
       </c>
       <c r="S297" s="3"/>
       <c r="T297" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="48.75">
+    <row r="298" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>46</v>
@@ -17518,58 +17537,58 @@
         <v>25</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G298" s="4">
-        <v>88.8</v>
-      </c>
-      <c r="H298" s="4">
-        <v>87.4</v>
-      </c>
-      <c r="I298" s="4">
-        <v>85.2</v>
-      </c>
-      <c r="J298" s="4">
-        <v>85.2</v>
-      </c>
-      <c r="K298" s="4">
-        <v>83.9</v>
-      </c>
-      <c r="L298" s="4">
-        <v>85.8</v>
-      </c>
-      <c r="M298" s="4">
-        <v>87.6</v>
-      </c>
-      <c r="N298" s="4">
-        <v>81.2</v>
-      </c>
-      <c r="O298" s="4">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="P298" s="4">
-        <v>77.5</v>
-      </c>
-      <c r="Q298" s="4">
-        <v>80.3</v>
-      </c>
-      <c r="R298" s="4">
-        <v>72</v>
+        <v>347</v>
+      </c>
+      <c r="G298" s="6">
+        <v>961</v>
+      </c>
+      <c r="H298" s="6">
+        <v>136730</v>
+      </c>
+      <c r="I298" s="6">
+        <v>11553</v>
+      </c>
+      <c r="J298" s="6">
+        <v>15701</v>
+      </c>
+      <c r="K298" s="6">
+        <v>2758</v>
+      </c>
+      <c r="L298" s="6">
+        <v>69422</v>
+      </c>
+      <c r="M298" s="6">
+        <v>44764</v>
+      </c>
+      <c r="N298" s="6">
+        <v>78118</v>
+      </c>
+      <c r="O298" s="6">
+        <v>14958</v>
+      </c>
+      <c r="P298" s="6">
+        <v>68943</v>
+      </c>
+      <c r="Q298" s="6">
+        <v>57788</v>
+      </c>
+      <c r="R298" s="6">
+        <v>27276</v>
       </c>
       <c r="S298" s="3"/>
       <c r="T298" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="299" spans="1:20" ht="48.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>46</v>
@@ -17578,58 +17597,56 @@
         <v>25</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G299" s="7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="H299" s="7">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="I299" s="7">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="J299" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="K299" s="7">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="L299" s="7">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="M299" s="7">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="N299" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="O299" s="7">
-        <v>0.19800000000000001</v>
-      </c>
-      <c r="P299" s="7">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="Q299" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="R299" s="7">
-        <v>0.19900000000000001</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G299" s="6">
+        <v>6</v>
+      </c>
+      <c r="H299" s="6">
+        <v>8</v>
+      </c>
+      <c r="I299" s="6">
+        <v>8</v>
+      </c>
+      <c r="J299" s="6">
+        <v>10</v>
+      </c>
+      <c r="K299" s="6">
+        <v>9</v>
+      </c>
+      <c r="L299" s="6">
+        <v>10</v>
+      </c>
+      <c r="M299" s="6">
+        <v>11</v>
+      </c>
+      <c r="N299" s="6">
+        <v>13</v>
+      </c>
+      <c r="O299" s="6">
+        <v>12</v>
+      </c>
+      <c r="P299" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q299" s="6">
+        <v>21</v>
+      </c>
+      <c r="R299" s="3"/>
       <c r="S299" s="3"/>
       <c r="T299" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="300" spans="1:20" ht="48.75">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="300" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>46</v>
@@ -17641,55 +17658,55 @@
         <v>26</v>
       </c>
       <c r="G300" s="4">
-        <v>30.5</v>
+        <v>88</v>
       </c>
       <c r="H300" s="4">
-        <v>30.5</v>
+        <v>88.4</v>
       </c>
       <c r="I300" s="4">
-        <v>30.6</v>
+        <v>91.7</v>
       </c>
       <c r="J300" s="4">
-        <v>30.6</v>
+        <v>93.3</v>
       </c>
       <c r="K300" s="4">
-        <v>30.7</v>
+        <v>93.9</v>
       </c>
       <c r="L300" s="4">
-        <v>30.8</v>
+        <v>94.6</v>
       </c>
       <c r="M300" s="4">
-        <v>30.8</v>
+        <v>94.8</v>
       </c>
       <c r="N300" s="4">
-        <v>30.9</v>
+        <v>94.5</v>
       </c>
       <c r="O300" s="4">
-        <v>30.9</v>
+        <v>94.6</v>
       </c>
       <c r="P300" s="4">
-        <v>30.9</v>
+        <v>94.8</v>
       </c>
       <c r="Q300" s="4">
-        <v>30.9</v>
+        <v>94.7</v>
       </c>
       <c r="R300" s="4">
-        <v>30.9</v>
+        <v>94.6</v>
       </c>
       <c r="S300" s="3"/>
       <c r="T300" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="39">
+    <row r="301" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>46</v>
@@ -17698,238 +17715,236 @@
         <v>25</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G301" s="6">
-        <v>28</v>
-      </c>
-      <c r="H301" s="6">
-        <v>27</v>
-      </c>
-      <c r="I301" s="6">
-        <v>26</v>
-      </c>
-      <c r="J301" s="6">
-        <v>25</v>
-      </c>
-      <c r="K301" s="6">
-        <v>24</v>
-      </c>
-      <c r="L301" s="6">
-        <v>23</v>
-      </c>
-      <c r="M301" s="6">
-        <v>22</v>
-      </c>
-      <c r="N301" s="6">
-        <v>22</v>
-      </c>
-      <c r="O301" s="6">
-        <v>22</v>
-      </c>
-      <c r="P301" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q301" s="6">
-        <v>19</v>
-      </c>
-      <c r="R301" s="6">
-        <v>17</v>
+        <v>355</v>
+      </c>
+      <c r="G301" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H301" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="I301" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="J301" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="K301" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="L301" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M301" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="N301" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="O301" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="P301" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="Q301" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="R301" s="5">
+        <v>0.84</v>
       </c>
       <c r="S301" s="3"/>
       <c r="T301" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="302" spans="1:20" ht="39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="302" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C302" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="D302" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E302" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G302" s="4">
-        <v>64.7</v>
-      </c>
-      <c r="H302" s="4">
-        <v>65.7</v>
-      </c>
-      <c r="I302" s="4">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="J302" s="4">
-        <v>70.3</v>
-      </c>
-      <c r="K302" s="4">
-        <v>71.5</v>
-      </c>
-      <c r="L302" s="4">
-        <v>72.7</v>
-      </c>
-      <c r="M302" s="4">
-        <v>73.5</v>
-      </c>
-      <c r="N302" s="4">
-        <v>73.599999999999994</v>
-      </c>
-      <c r="O302" s="4">
-        <v>74</v>
-      </c>
-      <c r="P302" s="4">
-        <v>74.5</v>
-      </c>
-      <c r="Q302" s="4">
-        <v>74.8</v>
-      </c>
-      <c r="R302" s="4">
-        <v>75.2</v>
+        <v>347</v>
+      </c>
+      <c r="G302" s="5">
+        <v>16.32</v>
+      </c>
+      <c r="H302" s="5">
+        <v>20.22</v>
+      </c>
+      <c r="I302" s="5">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="J302" s="5">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="K302" s="5">
+        <v>16.41</v>
+      </c>
+      <c r="L302" s="5">
+        <v>16.28</v>
+      </c>
+      <c r="M302" s="5">
+        <v>16.82</v>
+      </c>
+      <c r="N302" s="5">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="O302" s="5">
+        <v>18.52</v>
+      </c>
+      <c r="P302" s="5">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="Q302" s="5">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="R302" s="5">
+        <v>18.02</v>
       </c>
       <c r="S302" s="3"/>
       <c r="T302" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="303" spans="1:20" ht="39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="303" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E303" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G303" s="4">
-        <v>88</v>
+        <v>10.8</v>
       </c>
       <c r="H303" s="4">
-        <v>88.4</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="I303" s="4">
-        <v>91.7</v>
+        <v>10.6</v>
       </c>
       <c r="J303" s="4">
-        <v>93.3</v>
+        <v>11.8</v>
       </c>
       <c r="K303" s="4">
-        <v>93.9</v>
+        <v>12.6</v>
       </c>
       <c r="L303" s="4">
-        <v>94.6</v>
+        <v>11.6</v>
       </c>
       <c r="M303" s="4">
-        <v>94.8</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N303" s="4">
-        <v>94.5</v>
+        <v>9.9</v>
       </c>
       <c r="O303" s="4">
-        <v>94.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="P303" s="4">
-        <v>94.8</v>
+        <v>10.3</v>
       </c>
       <c r="Q303" s="4">
-        <v>94.7</v>
+        <v>7.5</v>
       </c>
       <c r="R303" s="4">
-        <v>94.6</v>
+        <v>9.1</v>
       </c>
       <c r="S303" s="3"/>
       <c r="T303" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="304" spans="1:20" ht="39">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G304" s="4">
-        <v>28.5</v>
-      </c>
-      <c r="H304" s="4">
-        <v>30.6</v>
-      </c>
-      <c r="I304" s="4">
-        <v>33.1</v>
-      </c>
-      <c r="J304" s="4">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="K304" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="L304" s="4">
-        <v>39.6</v>
-      </c>
-      <c r="M304" s="4">
-        <v>41.2</v>
-      </c>
-      <c r="N304" s="4">
-        <v>42</v>
-      </c>
-      <c r="O304" s="4">
-        <v>42.9</v>
-      </c>
-      <c r="P304" s="4">
-        <v>44</v>
-      </c>
-      <c r="Q304" s="4">
-        <v>45.2</v>
-      </c>
-      <c r="R304" s="4">
-        <v>46.3</v>
-      </c>
+      <c r="G304" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H304" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="I304" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="J304" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="K304" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="L304" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="M304" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="N304" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="O304" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="P304" s="5">
+        <v>2.66</v>
+      </c>
+      <c r="Q304" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="R304" s="3"/>
       <c r="S304" s="3"/>
       <c r="T304" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="305" spans="1:20" ht="39">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>46</v>
@@ -17938,58 +17953,56 @@
         <v>25</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G305" s="5">
-        <v>65.73</v>
-      </c>
-      <c r="H305" s="5">
-        <v>64.760000000000005</v>
-      </c>
-      <c r="I305" s="5">
-        <v>67.349999999999994</v>
-      </c>
-      <c r="J305" s="5">
-        <v>69.77</v>
-      </c>
-      <c r="K305" s="5">
-        <v>70.48</v>
-      </c>
-      <c r="L305" s="5">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="M305" s="5">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="N305" s="5">
-        <v>72.52</v>
-      </c>
-      <c r="O305" s="5">
-        <v>73.17</v>
-      </c>
-      <c r="P305" s="5">
-        <v>73.930000000000007</v>
-      </c>
-      <c r="Q305" s="5">
-        <v>73.319999999999993</v>
-      </c>
-      <c r="R305" s="5">
-        <v>72.849999999999994</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G305" s="4">
+        <v>100</v>
+      </c>
+      <c r="H305" s="4">
+        <v>99.8</v>
+      </c>
+      <c r="I305" s="4">
+        <v>97.6</v>
+      </c>
+      <c r="J305" s="4">
+        <v>96.3</v>
+      </c>
+      <c r="K305" s="4">
+        <v>92.7</v>
+      </c>
+      <c r="L305" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="M305" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="N305" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="O305" s="4">
+        <v>100.6</v>
+      </c>
+      <c r="P305" s="4">
+        <v>95.1</v>
+      </c>
+      <c r="Q305" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="R305" s="3"/>
       <c r="S305" s="3"/>
       <c r="T305" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="306" spans="1:20" ht="29.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>46</v>
@@ -17998,60 +18011,56 @@
         <v>25</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G306" s="6">
-        <v>70</v>
-      </c>
-      <c r="H306" s="6">
-        <v>75</v>
-      </c>
-      <c r="I306" s="6">
-        <v>66</v>
-      </c>
-      <c r="J306" s="6">
-        <v>64</v>
-      </c>
-      <c r="K306" s="6">
-        <v>70</v>
-      </c>
-      <c r="L306" s="6">
-        <v>66</v>
-      </c>
-      <c r="M306" s="6">
-        <v>80</v>
-      </c>
-      <c r="N306" s="6">
-        <v>89</v>
-      </c>
-      <c r="O306" s="6">
-        <v>86</v>
-      </c>
-      <c r="P306" s="6">
-        <v>89</v>
-      </c>
-      <c r="Q306" s="6">
-        <v>85</v>
-      </c>
-      <c r="R306" s="6">
-        <v>82</v>
-      </c>
-      <c r="S306" s="6">
-        <v>83</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G306" s="4">
+        <v>100</v>
+      </c>
+      <c r="H306" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="I306" s="4">
+        <v>97.9</v>
+      </c>
+      <c r="J306" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="K306" s="4">
+        <v>93.8</v>
+      </c>
+      <c r="L306" s="4">
+        <v>94.2</v>
+      </c>
+      <c r="M306" s="4">
+        <v>96.9</v>
+      </c>
+      <c r="N306" s="4">
+        <v>100.4</v>
+      </c>
+      <c r="O306" s="4">
+        <v>100.1</v>
+      </c>
+      <c r="P306" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="Q306" s="4">
+        <v>91.1</v>
+      </c>
+      <c r="R306" s="3"/>
+      <c r="S306" s="3"/>
       <c r="T306" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="307" spans="1:20" ht="29.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>46</v>
@@ -18062,44 +18071,56 @@
       <c r="F307" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G307" s="6">
-        <v>55</v>
-      </c>
-      <c r="H307" s="3"/>
-      <c r="I307" s="6">
-        <v>58</v>
-      </c>
-      <c r="J307" s="3"/>
-      <c r="K307" s="6">
-        <v>60</v>
-      </c>
-      <c r="L307" s="3"/>
-      <c r="M307" s="6">
-        <v>64</v>
-      </c>
-      <c r="N307" s="3"/>
-      <c r="O307" s="6">
-        <v>65</v>
-      </c>
-      <c r="P307" s="3"/>
-      <c r="Q307" s="6">
-        <v>74</v>
-      </c>
-      <c r="R307" s="3"/>
+      <c r="G307" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="H307" s="5">
+        <v>10.34</v>
+      </c>
+      <c r="I307" s="5">
+        <v>10.96</v>
+      </c>
+      <c r="J307" s="5">
+        <v>11.45</v>
+      </c>
+      <c r="K307" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="L307" s="5">
+        <v>11.88</v>
+      </c>
+      <c r="M307" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="N307" s="5">
+        <v>11.06</v>
+      </c>
+      <c r="O307" s="5">
+        <v>14.94</v>
+      </c>
+      <c r="P307" s="5">
+        <v>15.38</v>
+      </c>
+      <c r="Q307" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R307" s="5">
+        <v>15.62</v>
+      </c>
       <c r="S307" s="3"/>
       <c r="T307" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="308" spans="1:20" ht="29.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>46</v>
@@ -18108,58 +18129,56 @@
         <v>25</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G308" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="H308" s="5">
-        <v>0.96</v>
-      </c>
-      <c r="I308" s="5">
-        <v>1</v>
-      </c>
-      <c r="J308" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="K308" s="5">
-        <v>1.06</v>
-      </c>
-      <c r="L308" s="5">
-        <v>0.97</v>
-      </c>
-      <c r="M308" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="N308" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="O308" s="5">
-        <v>0.88</v>
-      </c>
-      <c r="P308" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="Q308" s="5">
-        <v>0.86</v>
-      </c>
-      <c r="R308" s="5">
-        <v>0.84</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G308" s="6">
+        <v>563</v>
+      </c>
+      <c r="H308" s="6">
+        <v>531</v>
+      </c>
+      <c r="I308" s="6">
+        <v>661</v>
+      </c>
+      <c r="J308" s="6">
+        <v>778</v>
+      </c>
+      <c r="K308" s="6">
+        <v>847</v>
+      </c>
+      <c r="L308" s="6">
+        <v>909</v>
+      </c>
+      <c r="M308" s="6">
+        <v>930</v>
+      </c>
+      <c r="N308" s="6">
+        <v>946</v>
+      </c>
+      <c r="O308" s="6">
+        <v>991</v>
+      </c>
+      <c r="P308" s="6">
+        <v>1050</v>
+      </c>
+      <c r="Q308" s="6">
+        <v>1073</v>
+      </c>
+      <c r="R308" s="3"/>
       <c r="S308" s="3"/>
       <c r="T308" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="309" spans="1:20" ht="29.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>46</v>
@@ -18168,54 +18187,58 @@
         <v>25</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>377</v>
+        <v>46</v>
       </c>
       <c r="G309" s="6">
-        <v>830</v>
+        <v>28</v>
       </c>
       <c r="H309" s="6">
-        <v>830</v>
+        <v>27</v>
       </c>
       <c r="I309" s="6">
-        <v>685</v>
+        <v>26</v>
       </c>
       <c r="J309" s="6">
-        <v>685</v>
+        <v>25</v>
       </c>
       <c r="K309" s="6">
-        <v>685</v>
+        <v>24</v>
       </c>
       <c r="L309" s="6">
-        <v>685</v>
+        <v>23</v>
       </c>
       <c r="M309" s="6">
-        <v>685</v>
+        <v>22</v>
       </c>
       <c r="N309" s="6">
-        <v>685</v>
+        <v>22</v>
       </c>
       <c r="O309" s="6">
-        <v>685</v>
+        <v>22</v>
       </c>
       <c r="P309" s="6">
-        <v>685</v>
-      </c>
-      <c r="Q309" s="3"/>
-      <c r="R309" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="Q309" s="6">
+        <v>19</v>
+      </c>
+      <c r="R309" s="6">
+        <v>17</v>
+      </c>
       <c r="S309" s="3"/>
       <c r="T309" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="310" spans="1:20" ht="29.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>46</v>
@@ -18224,1138 +18247,1130 @@
         <v>25</v>
       </c>
       <c r="F310" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="G310" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="H310" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I310" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="J310" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="K310" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="L310" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="M310" s="5">
-        <v>0.68</v>
-      </c>
-      <c r="N310" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O310" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P310" s="5">
-        <v>0.54</v>
-      </c>
-      <c r="Q310" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="R310" s="5">
-        <v>0.28999999999999998</v>
+        <v>46</v>
+      </c>
+      <c r="G310" s="4">
+        <v>732401.6</v>
+      </c>
+      <c r="H310" s="4">
+        <v>740630</v>
+      </c>
+      <c r="I310" s="4">
+        <v>753624</v>
+      </c>
+      <c r="J310" s="4">
+        <v>752240.3</v>
+      </c>
+      <c r="K310" s="4">
+        <v>804401.8</v>
+      </c>
+      <c r="L310" s="4">
+        <v>830309.8</v>
+      </c>
+      <c r="M310" s="4">
+        <v>826034.2</v>
+      </c>
+      <c r="N310" s="3"/>
+      <c r="O310" s="4">
+        <v>846693.5</v>
+      </c>
+      <c r="P310" s="4">
+        <v>839607.4</v>
+      </c>
+      <c r="Q310" s="4">
+        <v>852978.8</v>
+      </c>
+      <c r="R310" s="4">
+        <v>855928.1</v>
       </c>
       <c r="S310" s="3"/>
       <c r="T310" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="311" spans="1:20" ht="39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B311" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G311" s="6">
+        <v>40</v>
+      </c>
+      <c r="H311" s="6">
+        <v>60</v>
+      </c>
+      <c r="I311" s="6">
+        <v>40</v>
+      </c>
+      <c r="J311" s="6">
+        <v>40</v>
+      </c>
+      <c r="K311" s="6">
+        <v>40</v>
+      </c>
+      <c r="L311" s="6">
+        <v>40</v>
+      </c>
+      <c r="M311" s="6">
+        <v>60</v>
+      </c>
+      <c r="N311" s="6">
+        <v>40</v>
+      </c>
+      <c r="O311" s="6">
+        <v>40</v>
+      </c>
+      <c r="P311" s="6">
+        <v>40</v>
+      </c>
+      <c r="Q311" s="6">
+        <v>60</v>
+      </c>
+      <c r="R311" s="6">
+        <v>67</v>
+      </c>
+      <c r="S311" s="6">
+        <v>50</v>
+      </c>
+      <c r="T311" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E312" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="F312" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G312" s="6">
+        <v>40</v>
+      </c>
+      <c r="H312" s="6">
+        <v>60</v>
+      </c>
+      <c r="I312" s="6">
+        <v>20</v>
+      </c>
+      <c r="J312" s="6">
+        <v>20</v>
+      </c>
+      <c r="K312" s="6">
+        <v>20</v>
+      </c>
+      <c r="L312" s="6">
+        <v>40</v>
+      </c>
+      <c r="M312" s="6">
+        <v>60</v>
+      </c>
+      <c r="N312" s="6">
+        <v>40</v>
+      </c>
+      <c r="O312" s="6">
+        <v>25</v>
+      </c>
+      <c r="P312" s="6">
+        <v>25</v>
+      </c>
+      <c r="Q312" s="6">
+        <v>20</v>
+      </c>
+      <c r="R312" s="6">
+        <v>17</v>
+      </c>
+      <c r="S312" s="6">
+        <v>0</v>
+      </c>
+      <c r="T312" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E313" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D311" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E311" s="3" t="s">
+      <c r="F313" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G313" s="6">
+        <v>0</v>
+      </c>
+      <c r="H313" s="6">
+        <v>0</v>
+      </c>
+      <c r="I313" s="6">
+        <v>20</v>
+      </c>
+      <c r="J313" s="6">
+        <v>20</v>
+      </c>
+      <c r="K313" s="6">
+        <v>20</v>
+      </c>
+      <c r="L313" s="6">
+        <v>0</v>
+      </c>
+      <c r="M313" s="6">
+        <v>0</v>
+      </c>
+      <c r="N313" s="6">
+        <v>0</v>
+      </c>
+      <c r="O313" s="6">
+        <v>0</v>
+      </c>
+      <c r="P313" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q313" s="6">
+        <v>40</v>
+      </c>
+      <c r="R313" s="6">
+        <v>17</v>
+      </c>
+      <c r="S313" s="6">
+        <v>17</v>
+      </c>
+      <c r="T313" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" ht="81" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G314" s="6">
+        <v>60</v>
+      </c>
+      <c r="H314" s="6">
+        <v>40</v>
+      </c>
+      <c r="I314" s="6">
+        <v>60</v>
+      </c>
+      <c r="J314" s="6">
+        <v>60</v>
+      </c>
+      <c r="K314" s="6">
+        <v>60</v>
+      </c>
+      <c r="L314" s="6">
+        <v>60</v>
+      </c>
+      <c r="M314" s="6">
+        <v>40</v>
+      </c>
+      <c r="N314" s="6">
+        <v>60</v>
+      </c>
+      <c r="O314" s="6">
+        <v>75</v>
+      </c>
+      <c r="P314" s="6">
+        <v>75</v>
+      </c>
+      <c r="Q314" s="6">
+        <v>40</v>
+      </c>
+      <c r="R314" s="6">
+        <v>33</v>
+      </c>
+      <c r="S314" s="6">
+        <v>50</v>
+      </c>
+      <c r="T314" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E315" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F311" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G311" s="6">
-        <v>10</v>
-      </c>
-      <c r="H311" s="6">
-        <v>9</v>
-      </c>
-      <c r="I311" s="6">
-        <v>11</v>
-      </c>
-      <c r="J311" s="6">
-        <v>11</v>
-      </c>
-      <c r="K311" s="6">
-        <v>15</v>
-      </c>
-      <c r="L311" s="6">
-        <v>16</v>
-      </c>
-      <c r="M311" s="6">
-        <v>19</v>
-      </c>
-      <c r="N311" s="6">
-        <v>21</v>
-      </c>
-      <c r="O311" s="6">
-        <v>25</v>
-      </c>
-      <c r="P311" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q311" s="6">
-        <v>34</v>
-      </c>
-      <c r="R311" s="6">
-        <v>40</v>
-      </c>
-      <c r="S311" s="3"/>
-      <c r="T311" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="312" spans="1:20" ht="39">
-      <c r="A312" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D312" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F312" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G312" s="6">
-        <v>10</v>
-      </c>
-      <c r="H312" s="6">
-        <v>9</v>
-      </c>
-      <c r="I312" s="6">
-        <v>11</v>
-      </c>
-      <c r="J312" s="6">
-        <v>12</v>
-      </c>
-      <c r="K312" s="6">
-        <v>14</v>
-      </c>
-      <c r="L312" s="6">
-        <v>15</v>
-      </c>
-      <c r="M312" s="6">
-        <v>19</v>
-      </c>
-      <c r="N312" s="6">
-        <v>21</v>
-      </c>
-      <c r="O312" s="6">
-        <v>24</v>
-      </c>
-      <c r="P312" s="6">
-        <v>31</v>
-      </c>
-      <c r="Q312" s="6">
-        <v>32</v>
-      </c>
-      <c r="R312" s="6">
-        <v>39</v>
-      </c>
-      <c r="S312" s="3"/>
-      <c r="T312" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="313" spans="1:20" ht="39">
-      <c r="A313" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G313" s="6">
-        <v>10</v>
-      </c>
-      <c r="H313" s="6">
-        <v>9</v>
-      </c>
-      <c r="I313" s="6">
-        <v>10</v>
-      </c>
-      <c r="J313" s="6">
-        <v>11</v>
-      </c>
-      <c r="K313" s="6">
-        <v>15</v>
-      </c>
-      <c r="L313" s="6">
-        <v>16</v>
-      </c>
-      <c r="M313" s="6">
-        <v>19</v>
-      </c>
-      <c r="N313" s="6">
-        <v>21</v>
-      </c>
-      <c r="O313" s="6">
-        <v>26</v>
-      </c>
-      <c r="P313" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q313" s="6">
-        <v>35</v>
-      </c>
-      <c r="R313" s="6">
-        <v>41</v>
-      </c>
-      <c r="S313" s="3"/>
-      <c r="T313" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="314" spans="1:20" ht="39">
-      <c r="A314" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D314" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F314" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G314" s="6">
-        <v>12</v>
-      </c>
-      <c r="H314" s="6">
-        <v>11</v>
-      </c>
-      <c r="I314" s="6">
-        <v>13</v>
-      </c>
-      <c r="J314" s="6">
-        <v>15</v>
-      </c>
-      <c r="K314" s="6">
-        <v>18</v>
-      </c>
-      <c r="L314" s="6">
-        <v>19</v>
-      </c>
-      <c r="M314" s="6">
-        <v>23</v>
-      </c>
-      <c r="N314" s="6">
-        <v>26</v>
-      </c>
-      <c r="O314" s="6">
-        <v>30</v>
-      </c>
-      <c r="P314" s="6">
-        <v>37</v>
-      </c>
-      <c r="Q314" s="6">
-        <v>39</v>
-      </c>
-      <c r="R314" s="6">
-        <v>46</v>
-      </c>
-      <c r="S314" s="3"/>
-      <c r="T314" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="315" spans="1:20" ht="39">
-      <c r="A315" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D315" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F315" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G315" s="6">
-        <v>6</v>
-      </c>
-      <c r="H315" s="6">
-        <v>5</v>
-      </c>
-      <c r="I315" s="6">
-        <v>6</v>
-      </c>
-      <c r="J315" s="6">
-        <v>6</v>
-      </c>
-      <c r="K315" s="6">
-        <v>9</v>
-      </c>
-      <c r="L315" s="6">
-        <v>10</v>
-      </c>
-      <c r="M315" s="6">
-        <v>12</v>
-      </c>
-      <c r="N315" s="6">
-        <v>13</v>
-      </c>
-      <c r="O315" s="6">
-        <v>17</v>
-      </c>
-      <c r="P315" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q315" s="6">
-        <v>25</v>
-      </c>
-      <c r="R315" s="6">
-        <v>31</v>
+        <v>384</v>
+      </c>
+      <c r="G315" s="4">
+        <v>100</v>
+      </c>
+      <c r="H315" s="4">
+        <v>100.8</v>
+      </c>
+      <c r="I315" s="4">
+        <v>99.9</v>
+      </c>
+      <c r="J315" s="4">
+        <v>101.8</v>
+      </c>
+      <c r="K315" s="4">
+        <v>104.9</v>
+      </c>
+      <c r="L315" s="4">
+        <v>106</v>
+      </c>
+      <c r="M315" s="4">
+        <v>119.9</v>
+      </c>
+      <c r="N315" s="4">
+        <v>119.4</v>
+      </c>
+      <c r="O315" s="4">
+        <v>130</v>
+      </c>
+      <c r="P315" s="4">
+        <v>189.5</v>
+      </c>
+      <c r="Q315" s="4">
+        <v>186.6</v>
+      </c>
+      <c r="R315" s="4">
+        <v>190.1</v>
       </c>
       <c r="S315" s="3"/>
       <c r="T315" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="39">
+    <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G316" s="6">
-        <v>10</v>
-      </c>
-      <c r="H316" s="6">
-        <v>6</v>
-      </c>
-      <c r="I316" s="6">
-        <v>8</v>
-      </c>
-      <c r="J316" s="6">
-        <v>9</v>
-      </c>
-      <c r="K316" s="6">
-        <v>9</v>
-      </c>
-      <c r="L316" s="6">
-        <v>8</v>
-      </c>
-      <c r="M316" s="6">
-        <v>9</v>
-      </c>
-      <c r="N316" s="6">
-        <v>11</v>
-      </c>
-      <c r="O316" s="6">
-        <v>16</v>
-      </c>
-      <c r="P316" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q316" s="6">
-        <v>21</v>
-      </c>
-      <c r="R316" s="6">
-        <v>27</v>
+        <v>387</v>
+      </c>
+      <c r="G316" s="4">
+        <v>59.5</v>
+      </c>
+      <c r="H316" s="4">
+        <v>57.7</v>
+      </c>
+      <c r="I316" s="4">
+        <v>58.8</v>
+      </c>
+      <c r="J316" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="K316" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="L316" s="4">
+        <v>69.5</v>
+      </c>
+      <c r="M316" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="N316" s="4">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="O316" s="4">
+        <v>91.8</v>
+      </c>
+      <c r="P316" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="Q316" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="R316" s="4">
+        <v>96.7</v>
       </c>
       <c r="S316" s="3"/>
       <c r="T316" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="39">
+    <row r="317" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>382</v>
+        <v>25</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G317" s="6">
-        <v>18</v>
-      </c>
-      <c r="H317" s="6">
-        <v>16</v>
-      </c>
-      <c r="I317" s="6">
-        <v>19</v>
-      </c>
-      <c r="J317" s="6">
-        <v>20</v>
-      </c>
-      <c r="K317" s="6">
-        <v>28</v>
-      </c>
-      <c r="L317" s="6">
-        <v>28</v>
-      </c>
-      <c r="M317" s="6">
-        <v>32</v>
-      </c>
-      <c r="N317" s="6">
-        <v>35</v>
-      </c>
-      <c r="O317" s="6">
-        <v>39</v>
-      </c>
-      <c r="P317" s="6">
-        <v>47</v>
-      </c>
-      <c r="Q317" s="6">
-        <v>53</v>
-      </c>
-      <c r="R317" s="6">
-        <v>60</v>
+        <v>391</v>
+      </c>
+      <c r="G317" s="4">
+        <v>88.8</v>
+      </c>
+      <c r="H317" s="4">
+        <v>87.4</v>
+      </c>
+      <c r="I317" s="4">
+        <v>85.2</v>
+      </c>
+      <c r="J317" s="4">
+        <v>85.2</v>
+      </c>
+      <c r="K317" s="4">
+        <v>83.9</v>
+      </c>
+      <c r="L317" s="4">
+        <v>85.8</v>
+      </c>
+      <c r="M317" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="N317" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="O317" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="P317" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="Q317" s="4">
+        <v>80.3</v>
+      </c>
+      <c r="R317" s="4">
+        <v>72</v>
       </c>
       <c r="S317" s="3"/>
       <c r="T317" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="318" spans="1:20" ht="39">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>383</v>
+        <v>25</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G318" s="6">
-        <v>13</v>
-      </c>
-      <c r="H318" s="6">
-        <v>13</v>
-      </c>
-      <c r="I318" s="6">
-        <v>16</v>
-      </c>
-      <c r="J318" s="6">
-        <v>19</v>
-      </c>
-      <c r="K318" s="6">
-        <v>24</v>
-      </c>
-      <c r="L318" s="6">
-        <v>25</v>
-      </c>
-      <c r="M318" s="6">
-        <v>27</v>
-      </c>
-      <c r="N318" s="6">
-        <v>33</v>
-      </c>
-      <c r="O318" s="6">
-        <v>36</v>
-      </c>
-      <c r="P318" s="6">
-        <v>46</v>
-      </c>
-      <c r="Q318" s="6">
-        <v>48</v>
-      </c>
-      <c r="R318" s="6">
-        <v>57</v>
+      <c r="G318" s="7">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="H318" s="7">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="I318" s="7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="J318" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="K318" s="7">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="L318" s="7">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="M318" s="7">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N318" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="O318" s="7">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="P318" s="7">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="Q318" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="R318" s="7">
+        <v>0.19900000000000001</v>
       </c>
       <c r="S318" s="3"/>
       <c r="T318" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="319" spans="1:20" ht="39">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>384</v>
+        <v>25</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G319" s="6">
-        <v>9</v>
-      </c>
-      <c r="H319" s="6">
-        <v>9</v>
-      </c>
-      <c r="I319" s="6">
-        <v>11</v>
-      </c>
-      <c r="J319" s="6">
-        <v>12</v>
-      </c>
-      <c r="K319" s="6">
-        <v>15</v>
-      </c>
-      <c r="L319" s="6">
-        <v>15</v>
-      </c>
-      <c r="M319" s="6">
-        <v>18</v>
-      </c>
-      <c r="N319" s="6">
-        <v>19</v>
-      </c>
-      <c r="O319" s="6">
-        <v>25</v>
-      </c>
-      <c r="P319" s="6">
-        <v>32</v>
-      </c>
-      <c r="Q319" s="6">
-        <v>35</v>
-      </c>
-      <c r="R319" s="6">
-        <v>43</v>
+      <c r="G319" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="H319" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="I319" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="J319" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="K319" s="4">
+        <v>30.7</v>
+      </c>
+      <c r="L319" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="M319" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="N319" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="O319" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="P319" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="Q319" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="R319" s="4">
+        <v>30.9</v>
       </c>
       <c r="S319" s="3"/>
       <c r="T319" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="39">
+    <row r="320" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="D320" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G320" s="6">
+        <v>28</v>
+      </c>
+      <c r="H320" s="6">
+        <v>27</v>
+      </c>
+      <c r="I320" s="6">
+        <v>26</v>
+      </c>
+      <c r="J320" s="6">
+        <v>25</v>
+      </c>
+      <c r="K320" s="6">
         <v>24</v>
       </c>
-      <c r="E320" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="F320" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G320" s="6">
-        <v>4</v>
-      </c>
-      <c r="H320" s="6">
-        <v>5</v>
-      </c>
-      <c r="I320" s="6">
-        <v>6</v>
-      </c>
-      <c r="J320" s="6">
-        <v>6</v>
-      </c>
-      <c r="K320" s="6">
-        <v>7</v>
-      </c>
       <c r="L320" s="6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M320" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="N320" s="6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="O320" s="6">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P320" s="6">
         <v>21</v>
       </c>
       <c r="Q320" s="6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R320" s="6">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="S320" s="3"/>
       <c r="T320" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="321" spans="1:20" ht="39">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>386</v>
+        <v>25</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G321" s="6">
-        <v>2</v>
-      </c>
-      <c r="H321" s="6">
-        <v>2</v>
-      </c>
-      <c r="I321" s="6">
-        <v>2</v>
-      </c>
-      <c r="J321" s="6">
-        <v>2</v>
-      </c>
-      <c r="K321" s="6">
-        <v>4</v>
-      </c>
-      <c r="L321" s="6">
-        <v>3</v>
-      </c>
-      <c r="M321" s="6">
-        <v>4</v>
-      </c>
-      <c r="N321" s="6">
-        <v>5</v>
-      </c>
-      <c r="O321" s="6">
-        <v>6</v>
-      </c>
-      <c r="P321" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q321" s="6">
-        <v>9</v>
-      </c>
-      <c r="R321" s="6">
-        <v>11</v>
+      <c r="G321" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="H321" s="4">
+        <v>65.7</v>
+      </c>
+      <c r="I321" s="4">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="J321" s="4">
+        <v>70.3</v>
+      </c>
+      <c r="K321" s="4">
+        <v>71.5</v>
+      </c>
+      <c r="L321" s="4">
+        <v>72.7</v>
+      </c>
+      <c r="M321" s="4">
+        <v>73.5</v>
+      </c>
+      <c r="N321" s="4">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="O321" s="4">
+        <v>74</v>
+      </c>
+      <c r="P321" s="4">
+        <v>74.5</v>
+      </c>
+      <c r="Q321" s="4">
+        <v>74.8</v>
+      </c>
+      <c r="R321" s="4">
+        <v>75.2</v>
       </c>
       <c r="S321" s="3"/>
       <c r="T321" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="39">
+    <row r="322" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="E322" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G322" s="6">
-        <v>27</v>
-      </c>
-      <c r="H322" s="6">
-        <v>27</v>
-      </c>
-      <c r="I322" s="6">
-        <v>28</v>
-      </c>
-      <c r="J322" s="6">
-        <v>30</v>
-      </c>
-      <c r="K322" s="6">
-        <v>39</v>
-      </c>
-      <c r="L322" s="6">
-        <v>41</v>
-      </c>
-      <c r="M322" s="6">
-        <v>45</v>
-      </c>
-      <c r="N322" s="6">
-        <v>49</v>
-      </c>
-      <c r="O322" s="6">
-        <v>55</v>
-      </c>
-      <c r="P322" s="6">
-        <v>64</v>
-      </c>
-      <c r="Q322" s="6">
-        <v>62</v>
-      </c>
-      <c r="R322" s="6">
-        <v>71</v>
+      <c r="G322" s="4">
+        <v>88</v>
+      </c>
+      <c r="H322" s="4">
+        <v>88.4</v>
+      </c>
+      <c r="I322" s="4">
+        <v>91.7</v>
+      </c>
+      <c r="J322" s="4">
+        <v>93.3</v>
+      </c>
+      <c r="K322" s="4">
+        <v>93.9</v>
+      </c>
+      <c r="L322" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="M322" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="N322" s="4">
+        <v>94.5</v>
+      </c>
+      <c r="O322" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="P322" s="4">
+        <v>94.8</v>
+      </c>
+      <c r="Q322" s="4">
+        <v>94.7</v>
+      </c>
+      <c r="R322" s="4">
+        <v>94.6</v>
       </c>
       <c r="S322" s="3"/>
       <c r="T322" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="39">
+    <row r="323" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G323" s="6">
-        <v>7</v>
-      </c>
-      <c r="H323" s="6">
-        <v>6</v>
-      </c>
-      <c r="I323" s="6">
-        <v>8</v>
-      </c>
-      <c r="J323" s="6">
-        <v>8</v>
-      </c>
-      <c r="K323" s="6">
-        <v>10</v>
-      </c>
-      <c r="L323" s="6">
-        <v>10</v>
-      </c>
-      <c r="M323" s="6">
-        <v>12</v>
-      </c>
-      <c r="N323" s="6">
-        <v>14</v>
-      </c>
-      <c r="O323" s="6">
-        <v>17</v>
-      </c>
-      <c r="P323" s="6">
-        <v>23</v>
-      </c>
-      <c r="Q323" s="6">
-        <v>25</v>
-      </c>
-      <c r="R323" s="6">
-        <v>29</v>
+      <c r="G323" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="H323" s="4">
+        <v>30.6</v>
+      </c>
+      <c r="I323" s="4">
+        <v>33.1</v>
+      </c>
+      <c r="J323" s="4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K323" s="4">
+        <v>37.4</v>
+      </c>
+      <c r="L323" s="4">
+        <v>39.6</v>
+      </c>
+      <c r="M323" s="4">
+        <v>41.2</v>
+      </c>
+      <c r="N323" s="4">
+        <v>42</v>
+      </c>
+      <c r="O323" s="4">
+        <v>42.9</v>
+      </c>
+      <c r="P323" s="4">
+        <v>44</v>
+      </c>
+      <c r="Q323" s="4">
+        <v>45.2</v>
+      </c>
+      <c r="R323" s="4">
+        <v>46.3</v>
       </c>
       <c r="S323" s="3"/>
       <c r="T323" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="39">
+    <row r="324" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G324" s="6">
-        <v>2</v>
-      </c>
-      <c r="H324" s="6">
-        <v>1</v>
-      </c>
-      <c r="I324" s="6">
-        <v>2</v>
-      </c>
-      <c r="J324" s="6">
-        <v>1</v>
-      </c>
-      <c r="K324" s="6">
-        <v>1</v>
-      </c>
-      <c r="L324" s="6">
-        <v>2</v>
-      </c>
-      <c r="M324" s="6">
-        <v>2</v>
-      </c>
-      <c r="N324" s="6">
-        <v>2</v>
-      </c>
-      <c r="O324" s="6">
-        <v>4</v>
-      </c>
-      <c r="P324" s="6">
-        <v>5</v>
-      </c>
-      <c r="Q324" s="6">
-        <v>5</v>
-      </c>
-      <c r="R324" s="6">
-        <v>8</v>
+      <c r="G324" s="5">
+        <v>65.73</v>
+      </c>
+      <c r="H324" s="5">
+        <v>64.760000000000005</v>
+      </c>
+      <c r="I324" s="5">
+        <v>67.349999999999994</v>
+      </c>
+      <c r="J324" s="5">
+        <v>69.77</v>
+      </c>
+      <c r="K324" s="5">
+        <v>70.48</v>
+      </c>
+      <c r="L324" s="5">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="M324" s="5">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="N324" s="5">
+        <v>72.52</v>
+      </c>
+      <c r="O324" s="5">
+        <v>73.17</v>
+      </c>
+      <c r="P324" s="5">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="Q324" s="5">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="R324" s="5">
+        <v>72.849999999999994</v>
       </c>
       <c r="S324" s="3"/>
       <c r="T324" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="39">
+    <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G325" s="6">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H325" s="6">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="I325" s="6">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="J325" s="6">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="K325" s="6">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="L325" s="6">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="M325" s="6">
+        <v>80</v>
+      </c>
+      <c r="N325" s="6">
+        <v>89</v>
+      </c>
+      <c r="O325" s="6">
+        <v>86</v>
+      </c>
+      <c r="P325" s="6">
+        <v>89</v>
+      </c>
+      <c r="Q325" s="6">
+        <v>85</v>
+      </c>
+      <c r="R325" s="6">
+        <v>82</v>
+      </c>
+      <c r="S325" s="6">
+        <v>83</v>
+      </c>
+      <c r="T325" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E326" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N325" s="6">
-        <v>29</v>
-      </c>
-      <c r="O325" s="6">
-        <v>33</v>
-      </c>
-      <c r="P325" s="6">
-        <v>42</v>
-      </c>
-      <c r="Q325" s="6">
-        <v>45</v>
-      </c>
-      <c r="R325" s="6">
-        <v>52</v>
-      </c>
-      <c r="S325" s="3"/>
-      <c r="T325" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="326" spans="1:20" ht="39">
-      <c r="A326" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D326" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E326" s="3" t="s">
-        <v>186</v>
-      </c>
       <c r="F326" s="3" t="s">
         <v>26</v>
       </c>
       <c r="G326" s="6">
-        <v>15</v>
-      </c>
-      <c r="H326" s="6">
-        <v>14</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H326" s="3"/>
       <c r="I326" s="6">
-        <v>16</v>
-      </c>
-      <c r="J326" s="6">
-        <v>18</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="J326" s="3"/>
       <c r="K326" s="6">
-        <v>23</v>
-      </c>
-      <c r="L326" s="6">
-        <v>25</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="L326" s="3"/>
       <c r="M326" s="6">
-        <v>27</v>
-      </c>
-      <c r="N326" s="6">
-        <v>30</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="N326" s="3"/>
       <c r="O326" s="6">
-        <v>35</v>
-      </c>
-      <c r="P326" s="6">
-        <v>44</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P326" s="3"/>
       <c r="Q326" s="6">
-        <v>46</v>
-      </c>
-      <c r="R326" s="6">
-        <v>54</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="R326" s="3"/>
       <c r="S326" s="3"/>
       <c r="T326" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="327" spans="1:20" ht="39">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G327" s="6">
-        <v>8</v>
-      </c>
-      <c r="H327" s="6">
-        <v>5</v>
-      </c>
-      <c r="I327" s="6">
-        <v>6</v>
-      </c>
-      <c r="J327" s="6">
-        <v>7</v>
-      </c>
-      <c r="K327" s="6">
-        <v>7</v>
-      </c>
-      <c r="L327" s="6">
-        <v>7</v>
-      </c>
-      <c r="M327" s="6">
-        <v>7</v>
-      </c>
-      <c r="N327" s="6">
-        <v>11</v>
-      </c>
-      <c r="O327" s="6">
-        <v>10</v>
-      </c>
-      <c r="P327" s="6">
-        <v>17</v>
-      </c>
-      <c r="Q327" s="6">
-        <v>25</v>
-      </c>
-      <c r="R327" s="6">
-        <v>22</v>
+        <v>406</v>
+      </c>
+      <c r="G327" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="H327" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="I327" s="5">
+        <v>1</v>
+      </c>
+      <c r="J327" s="5">
+        <v>1.05</v>
+      </c>
+      <c r="K327" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="L327" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="M327" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="N327" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="O327" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="P327" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="Q327" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="R327" s="5">
+        <v>0.84</v>
       </c>
       <c r="S327" s="3"/>
       <c r="T327" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="328" spans="1:20" ht="39">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>188</v>
+        <v>25</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>26</v>
+        <v>409</v>
       </c>
       <c r="G328" s="6">
-        <v>4</v>
+        <v>830</v>
       </c>
       <c r="H328" s="6">
-        <v>3</v>
+        <v>830</v>
       </c>
       <c r="I328" s="6">
-        <v>5</v>
+        <v>685</v>
       </c>
       <c r="J328" s="6">
-        <v>4</v>
+        <v>685</v>
       </c>
       <c r="K328" s="6">
-        <v>5</v>
+        <v>685</v>
       </c>
       <c r="L328" s="6">
-        <v>5</v>
+        <v>685</v>
       </c>
       <c r="M328" s="6">
-        <v>7</v>
+        <v>685</v>
       </c>
       <c r="N328" s="6">
-        <v>8</v>
+        <v>685</v>
       </c>
       <c r="O328" s="6">
-        <v>9</v>
+        <v>685</v>
       </c>
       <c r="P328" s="6">
-        <v>12</v>
-      </c>
-      <c r="Q328" s="6">
-        <v>14</v>
-      </c>
-      <c r="R328" s="6">
-        <v>17</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="Q328" s="3"/>
+      <c r="R328" s="3"/>
       <c r="S328" s="3"/>
       <c r="T328" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="329" spans="1:20" ht="29.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>46</v>
@@ -19364,243 +19379,1383 @@
         <v>25</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G329" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="H329" s="4">
-        <v>6</v>
-      </c>
-      <c r="I329" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J329" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="K329" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="L329" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="M329" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="N329" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="O329" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="P329" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="Q329" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="R329" s="4">
-        <v>4.0999999999999996</v>
+        <v>406</v>
+      </c>
+      <c r="G329" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="H329" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="I329" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="J329" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="K329" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="L329" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="M329" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="N329" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O329" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P329" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="Q329" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="R329" s="5">
+        <v>0.28999999999999998</v>
       </c>
       <c r="S329" s="3"/>
       <c r="T329" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="330" spans="1:20" ht="29.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E330" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F330" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G330" s="5">
-        <v>377.75</v>
-      </c>
-      <c r="H330" s="5">
-        <v>417.47</v>
-      </c>
-      <c r="I330" s="5">
-        <v>421.06</v>
-      </c>
-      <c r="J330" s="5">
-        <v>487.12</v>
-      </c>
-      <c r="K330" s="5">
-        <v>451.84</v>
-      </c>
-      <c r="L330" s="5">
-        <v>440.89</v>
-      </c>
-      <c r="M330" s="5">
-        <v>662.95</v>
-      </c>
-      <c r="N330" s="5">
-        <v>679.46</v>
-      </c>
-      <c r="O330" s="5">
-        <v>766.04</v>
-      </c>
-      <c r="P330" s="5">
-        <v>776.56</v>
-      </c>
-      <c r="Q330" s="5">
-        <v>829</v>
-      </c>
-      <c r="R330" s="5">
-        <v>983.51</v>
+        <v>26</v>
+      </c>
+      <c r="G330" s="6">
+        <v>10</v>
+      </c>
+      <c r="H330" s="6">
+        <v>9</v>
+      </c>
+      <c r="I330" s="6">
+        <v>11</v>
+      </c>
+      <c r="J330" s="6">
+        <v>11</v>
+      </c>
+      <c r="K330" s="6">
+        <v>15</v>
+      </c>
+      <c r="L330" s="6">
+        <v>16</v>
+      </c>
+      <c r="M330" s="6">
+        <v>19</v>
+      </c>
+      <c r="N330" s="6">
+        <v>21</v>
+      </c>
+      <c r="O330" s="6">
+        <v>25</v>
+      </c>
+      <c r="P330" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q330" s="6">
+        <v>34</v>
+      </c>
+      <c r="R330" s="6">
+        <v>40</v>
       </c>
       <c r="S330" s="3"/>
       <c r="T330" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="331" spans="1:20" ht="29.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E331" s="3" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F331" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G331" s="5">
-        <v>96.04</v>
-      </c>
-      <c r="H331" s="5">
-        <v>90.68</v>
-      </c>
-      <c r="I331" s="5">
-        <v>111.55</v>
-      </c>
-      <c r="J331" s="5">
-        <v>127.11</v>
-      </c>
-      <c r="K331" s="5">
-        <v>82.28</v>
-      </c>
-      <c r="L331" s="5">
-        <v>100.19</v>
-      </c>
-      <c r="M331" s="5">
-        <v>148.99</v>
-      </c>
-      <c r="N331" s="5">
-        <v>222.11</v>
-      </c>
-      <c r="O331" s="5">
-        <v>244.93</v>
-      </c>
-      <c r="P331" s="5">
-        <v>223.31</v>
-      </c>
-      <c r="Q331" s="5">
-        <v>225.08</v>
-      </c>
-      <c r="R331" s="5">
-        <v>296.20999999999998</v>
+        <v>26</v>
+      </c>
+      <c r="G331" s="6">
+        <v>10</v>
+      </c>
+      <c r="H331" s="6">
+        <v>9</v>
+      </c>
+      <c r="I331" s="6">
+        <v>11</v>
+      </c>
+      <c r="J331" s="6">
+        <v>12</v>
+      </c>
+      <c r="K331" s="6">
+        <v>14</v>
+      </c>
+      <c r="L331" s="6">
+        <v>15</v>
+      </c>
+      <c r="M331" s="6">
+        <v>19</v>
+      </c>
+      <c r="N331" s="6">
+        <v>21</v>
+      </c>
+      <c r="O331" s="6">
+        <v>24</v>
+      </c>
+      <c r="P331" s="6">
+        <v>31</v>
+      </c>
+      <c r="Q331" s="6">
+        <v>32</v>
+      </c>
+      <c r="R331" s="6">
+        <v>39</v>
       </c>
       <c r="S331" s="3"/>
       <c r="T331" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="332" spans="1:20" ht="107.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G332" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="H332" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="I332" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="J332" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="K332" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="L332" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="M332" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="N332" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O332" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="P332" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="Q332" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="R332" s="5">
-        <v>0.15</v>
+      <c r="G332" s="6">
+        <v>10</v>
+      </c>
+      <c r="H332" s="6">
+        <v>9</v>
+      </c>
+      <c r="I332" s="6">
+        <v>10</v>
+      </c>
+      <c r="J332" s="6">
+        <v>11</v>
+      </c>
+      <c r="K332" s="6">
+        <v>15</v>
+      </c>
+      <c r="L332" s="6">
+        <v>16</v>
+      </c>
+      <c r="M332" s="6">
+        <v>19</v>
+      </c>
+      <c r="N332" s="6">
+        <v>21</v>
+      </c>
+      <c r="O332" s="6">
+        <v>26</v>
+      </c>
+      <c r="P332" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q332" s="6">
+        <v>35</v>
+      </c>
+      <c r="R332" s="6">
+        <v>41</v>
       </c>
       <c r="S332" s="3"/>
       <c r="T332" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="333" spans="1:20" ht="18" customHeight="1"/>
-    <row r="334" spans="1:20" ht="17.100000000000001" customHeight="1">
-      <c r="A334" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="B334" s="8"/>
-    </row>
-    <row r="335" spans="1:20" ht="0" hidden="1" customHeight="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G333" s="6">
+        <v>12</v>
+      </c>
+      <c r="H333" s="6">
+        <v>11</v>
+      </c>
+      <c r="I333" s="6">
+        <v>13</v>
+      </c>
+      <c r="J333" s="6">
+        <v>15</v>
+      </c>
+      <c r="K333" s="6">
+        <v>18</v>
+      </c>
+      <c r="L333" s="6">
+        <v>19</v>
+      </c>
+      <c r="M333" s="6">
+        <v>23</v>
+      </c>
+      <c r="N333" s="6">
+        <v>26</v>
+      </c>
+      <c r="O333" s="6">
+        <v>30</v>
+      </c>
+      <c r="P333" s="6">
+        <v>37</v>
+      </c>
+      <c r="Q333" s="6">
+        <v>39</v>
+      </c>
+      <c r="R333" s="6">
+        <v>46</v>
+      </c>
+      <c r="S333" s="3"/>
+      <c r="T333" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G334" s="6">
+        <v>6</v>
+      </c>
+      <c r="H334" s="6">
+        <v>5</v>
+      </c>
+      <c r="I334" s="6">
+        <v>6</v>
+      </c>
+      <c r="J334" s="6">
+        <v>6</v>
+      </c>
+      <c r="K334" s="6">
+        <v>9</v>
+      </c>
+      <c r="L334" s="6">
+        <v>10</v>
+      </c>
+      <c r="M334" s="6">
+        <v>12</v>
+      </c>
+      <c r="N334" s="6">
+        <v>13</v>
+      </c>
+      <c r="O334" s="6">
+        <v>17</v>
+      </c>
+      <c r="P334" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q334" s="6">
+        <v>25</v>
+      </c>
+      <c r="R334" s="6">
+        <v>31</v>
+      </c>
+      <c r="S334" s="3"/>
+      <c r="T334" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G335" s="6">
+        <v>10</v>
+      </c>
+      <c r="H335" s="6">
+        <v>6</v>
+      </c>
+      <c r="I335" s="6">
+        <v>8</v>
+      </c>
+      <c r="J335" s="6">
+        <v>9</v>
+      </c>
+      <c r="K335" s="6">
+        <v>9</v>
+      </c>
+      <c r="L335" s="6">
+        <v>8</v>
+      </c>
+      <c r="M335" s="6">
+        <v>9</v>
+      </c>
+      <c r="N335" s="6">
+        <v>11</v>
+      </c>
+      <c r="O335" s="6">
+        <v>16</v>
+      </c>
+      <c r="P335" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q335" s="6">
+        <v>21</v>
+      </c>
+      <c r="R335" s="6">
+        <v>27</v>
+      </c>
+      <c r="S335" s="3"/>
+      <c r="T335" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G336" s="6">
+        <v>18</v>
+      </c>
+      <c r="H336" s="6">
+        <v>16</v>
+      </c>
+      <c r="I336" s="6">
+        <v>19</v>
+      </c>
+      <c r="J336" s="6">
+        <v>20</v>
+      </c>
+      <c r="K336" s="6">
+        <v>28</v>
+      </c>
+      <c r="L336" s="6">
+        <v>28</v>
+      </c>
+      <c r="M336" s="6">
+        <v>32</v>
+      </c>
+      <c r="N336" s="6">
+        <v>35</v>
+      </c>
+      <c r="O336" s="6">
+        <v>39</v>
+      </c>
+      <c r="P336" s="6">
+        <v>47</v>
+      </c>
+      <c r="Q336" s="6">
+        <v>53</v>
+      </c>
+      <c r="R336" s="6">
+        <v>60</v>
+      </c>
+      <c r="S336" s="3"/>
+      <c r="T336" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G337" s="6">
+        <v>13</v>
+      </c>
+      <c r="H337" s="6">
+        <v>13</v>
+      </c>
+      <c r="I337" s="6">
+        <v>16</v>
+      </c>
+      <c r="J337" s="6">
+        <v>19</v>
+      </c>
+      <c r="K337" s="6">
+        <v>24</v>
+      </c>
+      <c r="L337" s="6">
+        <v>25</v>
+      </c>
+      <c r="M337" s="6">
+        <v>27</v>
+      </c>
+      <c r="N337" s="6">
+        <v>33</v>
+      </c>
+      <c r="O337" s="6">
+        <v>36</v>
+      </c>
+      <c r="P337" s="6">
+        <v>46</v>
+      </c>
+      <c r="Q337" s="6">
+        <v>48</v>
+      </c>
+      <c r="R337" s="6">
+        <v>57</v>
+      </c>
+      <c r="S337" s="3"/>
+      <c r="T337" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G338" s="6">
+        <v>9</v>
+      </c>
+      <c r="H338" s="6">
+        <v>9</v>
+      </c>
+      <c r="I338" s="6">
+        <v>11</v>
+      </c>
+      <c r="J338" s="6">
+        <v>12</v>
+      </c>
+      <c r="K338" s="6">
+        <v>15</v>
+      </c>
+      <c r="L338" s="6">
+        <v>15</v>
+      </c>
+      <c r="M338" s="6">
+        <v>18</v>
+      </c>
+      <c r="N338" s="6">
+        <v>19</v>
+      </c>
+      <c r="O338" s="6">
+        <v>25</v>
+      </c>
+      <c r="P338" s="6">
+        <v>32</v>
+      </c>
+      <c r="Q338" s="6">
+        <v>35</v>
+      </c>
+      <c r="R338" s="6">
+        <v>43</v>
+      </c>
+      <c r="S338" s="3"/>
+      <c r="T338" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G339" s="6">
+        <v>4</v>
+      </c>
+      <c r="H339" s="6">
+        <v>5</v>
+      </c>
+      <c r="I339" s="6">
+        <v>6</v>
+      </c>
+      <c r="J339" s="6">
+        <v>6</v>
+      </c>
+      <c r="K339" s="6">
+        <v>7</v>
+      </c>
+      <c r="L339" s="6">
+        <v>10</v>
+      </c>
+      <c r="M339" s="6">
+        <v>12</v>
+      </c>
+      <c r="N339" s="6">
+        <v>12</v>
+      </c>
+      <c r="O339" s="6">
+        <v>14</v>
+      </c>
+      <c r="P339" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q339" s="6">
+        <v>23</v>
+      </c>
+      <c r="R339" s="6">
+        <v>29</v>
+      </c>
+      <c r="S339" s="3"/>
+      <c r="T339" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G340" s="6">
+        <v>2</v>
+      </c>
+      <c r="H340" s="6">
+        <v>2</v>
+      </c>
+      <c r="I340" s="6">
+        <v>2</v>
+      </c>
+      <c r="J340" s="6">
+        <v>2</v>
+      </c>
+      <c r="K340" s="6">
+        <v>4</v>
+      </c>
+      <c r="L340" s="6">
+        <v>3</v>
+      </c>
+      <c r="M340" s="6">
+        <v>4</v>
+      </c>
+      <c r="N340" s="6">
+        <v>5</v>
+      </c>
+      <c r="O340" s="6">
+        <v>6</v>
+      </c>
+      <c r="P340" s="6">
+        <v>8</v>
+      </c>
+      <c r="Q340" s="6">
+        <v>9</v>
+      </c>
+      <c r="R340" s="6">
+        <v>11</v>
+      </c>
+      <c r="S340" s="3"/>
+      <c r="T340" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G341" s="6">
+        <v>27</v>
+      </c>
+      <c r="H341" s="6">
+        <v>27</v>
+      </c>
+      <c r="I341" s="6">
+        <v>28</v>
+      </c>
+      <c r="J341" s="6">
+        <v>30</v>
+      </c>
+      <c r="K341" s="6">
+        <v>39</v>
+      </c>
+      <c r="L341" s="6">
+        <v>41</v>
+      </c>
+      <c r="M341" s="6">
+        <v>45</v>
+      </c>
+      <c r="N341" s="6">
+        <v>49</v>
+      </c>
+      <c r="O341" s="6">
+        <v>55</v>
+      </c>
+      <c r="P341" s="6">
+        <v>64</v>
+      </c>
+      <c r="Q341" s="6">
+        <v>62</v>
+      </c>
+      <c r="R341" s="6">
+        <v>71</v>
+      </c>
+      <c r="S341" s="3"/>
+      <c r="T341" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G342" s="6">
+        <v>7</v>
+      </c>
+      <c r="H342" s="6">
+        <v>6</v>
+      </c>
+      <c r="I342" s="6">
+        <v>8</v>
+      </c>
+      <c r="J342" s="6">
+        <v>8</v>
+      </c>
+      <c r="K342" s="6">
+        <v>10</v>
+      </c>
+      <c r="L342" s="6">
+        <v>10</v>
+      </c>
+      <c r="M342" s="6">
+        <v>12</v>
+      </c>
+      <c r="N342" s="6">
+        <v>14</v>
+      </c>
+      <c r="O342" s="6">
+        <v>17</v>
+      </c>
+      <c r="P342" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q342" s="6">
+        <v>25</v>
+      </c>
+      <c r="R342" s="6">
+        <v>29</v>
+      </c>
+      <c r="S342" s="3"/>
+      <c r="T342" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G343" s="6">
+        <v>2</v>
+      </c>
+      <c r="H343" s="6">
+        <v>1</v>
+      </c>
+      <c r="I343" s="6">
+        <v>2</v>
+      </c>
+      <c r="J343" s="6">
+        <v>1</v>
+      </c>
+      <c r="K343" s="6">
+        <v>1</v>
+      </c>
+      <c r="L343" s="6">
+        <v>2</v>
+      </c>
+      <c r="M343" s="6">
+        <v>2</v>
+      </c>
+      <c r="N343" s="6">
+        <v>2</v>
+      </c>
+      <c r="O343" s="6">
+        <v>4</v>
+      </c>
+      <c r="P343" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q343" s="6">
+        <v>5</v>
+      </c>
+      <c r="R343" s="6">
+        <v>8</v>
+      </c>
+      <c r="S343" s="3"/>
+      <c r="T343" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G344" s="6">
+        <v>14</v>
+      </c>
+      <c r="H344" s="6">
+        <v>13</v>
+      </c>
+      <c r="I344" s="6">
+        <v>15</v>
+      </c>
+      <c r="J344" s="6">
+        <v>17</v>
+      </c>
+      <c r="K344" s="6">
+        <v>21</v>
+      </c>
+      <c r="L344" s="6">
+        <v>23</v>
+      </c>
+      <c r="M344" s="6">
+        <v>25</v>
+      </c>
+      <c r="N344" s="6">
+        <v>29</v>
+      </c>
+      <c r="O344" s="6">
+        <v>33</v>
+      </c>
+      <c r="P344" s="6">
+        <v>42</v>
+      </c>
+      <c r="Q344" s="6">
+        <v>45</v>
+      </c>
+      <c r="R344" s="6">
+        <v>52</v>
+      </c>
+      <c r="S344" s="3"/>
+      <c r="T344" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G345" s="6">
+        <v>15</v>
+      </c>
+      <c r="H345" s="6">
+        <v>14</v>
+      </c>
+      <c r="I345" s="6">
+        <v>16</v>
+      </c>
+      <c r="J345" s="6">
+        <v>18</v>
+      </c>
+      <c r="K345" s="6">
+        <v>23</v>
+      </c>
+      <c r="L345" s="6">
+        <v>25</v>
+      </c>
+      <c r="M345" s="6">
+        <v>27</v>
+      </c>
+      <c r="N345" s="6">
+        <v>30</v>
+      </c>
+      <c r="O345" s="6">
+        <v>35</v>
+      </c>
+      <c r="P345" s="6">
+        <v>44</v>
+      </c>
+      <c r="Q345" s="6">
+        <v>46</v>
+      </c>
+      <c r="R345" s="6">
+        <v>54</v>
+      </c>
+      <c r="S345" s="3"/>
+      <c r="T345" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G346" s="6">
+        <v>8</v>
+      </c>
+      <c r="H346" s="6">
+        <v>5</v>
+      </c>
+      <c r="I346" s="6">
+        <v>6</v>
+      </c>
+      <c r="J346" s="6">
+        <v>7</v>
+      </c>
+      <c r="K346" s="6">
+        <v>7</v>
+      </c>
+      <c r="L346" s="6">
+        <v>7</v>
+      </c>
+      <c r="M346" s="6">
+        <v>7</v>
+      </c>
+      <c r="N346" s="6">
+        <v>11</v>
+      </c>
+      <c r="O346" s="6">
+        <v>10</v>
+      </c>
+      <c r="P346" s="6">
+        <v>17</v>
+      </c>
+      <c r="Q346" s="6">
+        <v>25</v>
+      </c>
+      <c r="R346" s="6">
+        <v>22</v>
+      </c>
+      <c r="S346" s="3"/>
+      <c r="T346" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G347" s="6">
+        <v>4</v>
+      </c>
+      <c r="H347" s="6">
+        <v>3</v>
+      </c>
+      <c r="I347" s="6">
+        <v>5</v>
+      </c>
+      <c r="J347" s="6">
+        <v>4</v>
+      </c>
+      <c r="K347" s="6">
+        <v>5</v>
+      </c>
+      <c r="L347" s="6">
+        <v>5</v>
+      </c>
+      <c r="M347" s="6">
+        <v>7</v>
+      </c>
+      <c r="N347" s="6">
+        <v>8</v>
+      </c>
+      <c r="O347" s="6">
+        <v>9</v>
+      </c>
+      <c r="P347" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q347" s="6">
+        <v>14</v>
+      </c>
+      <c r="R347" s="6">
+        <v>17</v>
+      </c>
+      <c r="S347" s="3"/>
+      <c r="T347" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G348" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="H348" s="4">
+        <v>6</v>
+      </c>
+      <c r="I348" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J348" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="K348" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="L348" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="M348" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="N348" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="O348" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="P348" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="Q348" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="R348" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S348" s="3"/>
+      <c r="T348" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G349" s="5">
+        <v>377.75</v>
+      </c>
+      <c r="H349" s="5">
+        <v>417.47</v>
+      </c>
+      <c r="I349" s="5">
+        <v>421.06</v>
+      </c>
+      <c r="J349" s="5">
+        <v>487.12</v>
+      </c>
+      <c r="K349" s="5">
+        <v>451.84</v>
+      </c>
+      <c r="L349" s="5">
+        <v>440.89</v>
+      </c>
+      <c r="M349" s="5">
+        <v>662.95</v>
+      </c>
+      <c r="N349" s="5">
+        <v>679.46</v>
+      </c>
+      <c r="O349" s="5">
+        <v>766.04</v>
+      </c>
+      <c r="P349" s="5">
+        <v>776.56</v>
+      </c>
+      <c r="Q349" s="5">
+        <v>829</v>
+      </c>
+      <c r="R349" s="5">
+        <v>983.51</v>
+      </c>
+      <c r="S349" s="3"/>
+      <c r="T349" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G350" s="5">
+        <v>96.04</v>
+      </c>
+      <c r="H350" s="5">
+        <v>90.68</v>
+      </c>
+      <c r="I350" s="5">
+        <v>111.55</v>
+      </c>
+      <c r="J350" s="5">
+        <v>127.11</v>
+      </c>
+      <c r="K350" s="5">
+        <v>82.28</v>
+      </c>
+      <c r="L350" s="5">
+        <v>100.19</v>
+      </c>
+      <c r="M350" s="5">
+        <v>148.99</v>
+      </c>
+      <c r="N350" s="5">
+        <v>222.11</v>
+      </c>
+      <c r="O350" s="5">
+        <v>244.93</v>
+      </c>
+      <c r="P350" s="5">
+        <v>223.31</v>
+      </c>
+      <c r="Q350" s="5">
+        <v>225.08</v>
+      </c>
+      <c r="R350" s="5">
+        <v>296.20999999999998</v>
+      </c>
+      <c r="S350" s="3"/>
+      <c r="T350" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" ht="90" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G351" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="H351" s="5">
+        <v>0.08</v>
+      </c>
+      <c r="I351" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J351" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="K351" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="L351" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="M351" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="N351" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="O351" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P351" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q351" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R351" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="S351" s="3"/>
+      <c r="T351" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="B354" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A3:C3"/>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="A354:B354"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="429">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -997,6 +997,9 @@
     <t>Wsparcie miast w radzeniu sobie z nagłymi zmianami, kryzysami, zarówno społeczno-gospodarczymi, jak i natury środowiskowej oraz zagwarantowanie mieszkańcom bezpieczeństwa i wysokiej jakości życia</t>
   </si>
   <si>
+    <t>11.2.b Odsetek mieszkańców korzystających z instalacji ściekowych na obszarach miejskich</t>
+  </si>
+  <si>
     <t>11.2.c Odsetek mieszkańców korzystających z wodociągu na obszarach miejskich</t>
   </si>
   <si>
@@ -1075,12 +1078,6 @@
     <t>11.6.c Liczba aglomeracji i miast powyżej 100 tys. mieszkańców, w których wartość wskaźnika średniego narażenia nie przekracza pułapu stężenia ekspozycji na pył PM2,5 na poziomie 20 µg/m3</t>
   </si>
   <si>
-    <t xml:space="preserve">Cel 11. Zrównoważone miasta i społeczności </t>
-  </si>
-  <si>
-    <t>11.2.b Odsetek mieszkańców korzystających z instalacji ściekowych na obszarach miejskich</t>
-  </si>
-  <si>
     <t>Cel 12. Odpowiedzialna konsumpcja i produkcja</t>
   </si>
   <si>
@@ -1312,7 +1309,7 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 04-04-2023, 13:52</t>
+    <t>Ostatnia aktualizacja: 06-04-2023, 07:39</t>
   </si>
 </sst>
 </file>
@@ -16792,40 +16789,40 @@
         <v>26</v>
       </c>
       <c r="G284" s="4">
-        <v>95.3</v>
+        <v>88</v>
       </c>
       <c r="H284" s="4">
-        <v>95.4</v>
+        <v>88.4</v>
       </c>
       <c r="I284" s="4">
-        <v>95.4</v>
+        <v>91.7</v>
       </c>
       <c r="J284" s="4">
-        <v>95.5</v>
+        <v>93.3</v>
       </c>
       <c r="K284" s="4">
-        <v>96.4</v>
+        <v>93.9</v>
       </c>
       <c r="L284" s="4">
-        <v>96.5</v>
+        <v>94.6</v>
       </c>
       <c r="M284" s="4">
-        <v>96.5</v>
+        <v>94.8</v>
       </c>
       <c r="N284" s="4">
-        <v>96.6</v>
+        <v>94.5</v>
       </c>
       <c r="O284" s="4">
-        <v>96.6</v>
+        <v>94.6</v>
       </c>
       <c r="P284" s="4">
-        <v>96.6</v>
+        <v>94.8</v>
       </c>
       <c r="Q284" s="4">
-        <v>96.7</v>
+        <v>94.7</v>
       </c>
       <c r="R284" s="4">
-        <v>96.7</v>
+        <v>94.6</v>
       </c>
       <c r="S284" s="3"/>
       <c r="T284" s="2" t="s">
@@ -16851,21 +16848,41 @@
       <c r="F285" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
-      <c r="I285" s="3"/>
-      <c r="J285" s="3"/>
-      <c r="K285" s="3"/>
-      <c r="L285" s="3"/>
-      <c r="M285" s="3"/>
-      <c r="N285" s="3"/>
-      <c r="O285" s="3"/>
-      <c r="P285" s="3"/>
+      <c r="G285" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="H285" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="I285" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="J285" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="K285" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="L285" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="M285" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="N285" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="O285" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="P285" s="4">
+        <v>96.6</v>
+      </c>
       <c r="Q285" s="4">
-        <v>15.7</v>
+        <v>96.7</v>
       </c>
       <c r="R285" s="4">
-        <v>14.8</v>
+        <v>96.7</v>
       </c>
       <c r="S285" s="3"/>
       <c r="T285" s="2" t="s">
@@ -16902,25 +16919,25 @@
       <c r="O286" s="3"/>
       <c r="P286" s="3"/>
       <c r="Q286" s="4">
-        <v>13.3</v>
+        <v>15.7</v>
       </c>
       <c r="R286" s="4">
-        <v>13.5</v>
+        <v>14.8</v>
       </c>
       <c r="S286" s="3"/>
       <c r="T286" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>46</v>
@@ -16931,41 +16948,21 @@
       <c r="F287" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G287" s="4">
-        <v>41.6</v>
-      </c>
-      <c r="H287" s="4">
-        <v>44.7</v>
-      </c>
-      <c r="I287" s="4">
-        <v>46.5</v>
-      </c>
-      <c r="J287" s="4">
-        <v>48.2</v>
-      </c>
-      <c r="K287" s="4">
-        <v>49.6</v>
-      </c>
-      <c r="L287" s="4">
-        <v>49.8</v>
-      </c>
-      <c r="M287" s="4">
-        <v>50.6</v>
-      </c>
-      <c r="N287" s="4">
-        <v>51.2</v>
-      </c>
-      <c r="O287" s="4">
-        <v>52.4</v>
-      </c>
-      <c r="P287" s="4">
-        <v>53.4</v>
-      </c>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="3"/>
+      <c r="J287" s="3"/>
+      <c r="K287" s="3"/>
+      <c r="L287" s="3"/>
+      <c r="M287" s="3"/>
+      <c r="N287" s="3"/>
+      <c r="O287" s="3"/>
+      <c r="P287" s="3"/>
       <c r="Q287" s="4">
-        <v>53.9</v>
+        <v>13.3</v>
       </c>
       <c r="R287" s="4">
-        <v>54.8</v>
+        <v>13.5</v>
       </c>
       <c r="S287" s="3"/>
       <c r="T287" s="2" t="s">
@@ -16977,7 +16974,7 @@
         <v>308</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>329</v>
@@ -16989,7 +16986,7 @@
         <v>25</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>330</v>
+        <v>26</v>
       </c>
       <c r="G288" s="4">
         <v>41.6</v>
@@ -17037,10 +17034,10 @@
         <v>308</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>46</v>
@@ -17049,7 +17046,7 @@
         <v>25</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G289" s="3"/>
       <c r="H289" s="3"/>
@@ -17085,18 +17082,18 @@
       </c>
       <c r="S289" s="3"/>
       <c r="T289" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="290" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="290" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>46</v>
@@ -17105,43 +17102,25 @@
         <v>25</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G290" s="3"/>
       <c r="H290" s="3"/>
-      <c r="I290" s="5">
-        <v>1.39</v>
-      </c>
-      <c r="J290" s="5">
-        <v>1.41</v>
-      </c>
-      <c r="K290" s="5">
-        <v>1.43</v>
-      </c>
-      <c r="L290" s="5">
-        <v>1.48</v>
-      </c>
-      <c r="M290" s="5">
-        <v>1.47</v>
-      </c>
-      <c r="N290" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="O290" s="5">
-        <v>1.53</v>
-      </c>
-      <c r="P290" s="5">
-        <v>1.57</v>
-      </c>
+      <c r="I290" s="3"/>
+      <c r="J290" s="3"/>
+      <c r="K290" s="3"/>
+      <c r="L290" s="3"/>
+      <c r="M290" s="3"/>
+      <c r="N290" s="3"/>
+      <c r="O290" s="3"/>
+      <c r="P290" s="3"/>
       <c r="Q290" s="5">
-        <v>1.58</v>
-      </c>
-      <c r="R290" s="5">
-        <v>1.58</v>
-      </c>
+        <v>83.49</v>
+      </c>
+      <c r="R290" s="3"/>
       <c r="S290" s="3"/>
       <c r="T290" s="2" t="s">
-        <v>27</v>
+        <v>334</v>
       </c>
     </row>
     <row r="291" spans="1:20" ht="36" x14ac:dyDescent="0.25">
@@ -17149,10 +17128,10 @@
         <v>308</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>46</v>
@@ -17161,35 +17140,43 @@
         <v>25</v>
       </c>
       <c r="F291" s="3" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="G291" s="3"/>
       <c r="H291" s="3"/>
-      <c r="I291" s="3"/>
-      <c r="J291" s="3"/>
-      <c r="K291" s="3"/>
-      <c r="L291" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="M291" s="4">
-        <v>12.7</v>
-      </c>
-      <c r="N291" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="O291" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="P291" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="Q291" s="4">
-        <v>9</v>
-      </c>
-      <c r="R291" s="3"/>
+      <c r="I291" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="J291" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="K291" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="L291" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="M291" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="N291" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="O291" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="P291" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="Q291" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="R291" s="5">
+        <v>1.58</v>
+      </c>
       <c r="S291" s="3"/>
       <c r="T291" s="2" t="s">
-        <v>338</v>
+        <v>27</v>
       </c>
     </row>
     <row r="292" spans="1:20" ht="36" x14ac:dyDescent="0.25">
@@ -17197,10 +17184,10 @@
         <v>308</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>46</v>
@@ -17211,45 +17198,33 @@
       <c r="F292" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G292" s="4">
-        <v>166.5</v>
-      </c>
-      <c r="H292" s="4">
-        <v>166.2</v>
-      </c>
-      <c r="I292" s="4">
-        <v>165.6</v>
-      </c>
-      <c r="J292" s="4">
-        <v>155.5</v>
-      </c>
-      <c r="K292" s="4">
-        <v>159.69999999999999</v>
-      </c>
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="3"/>
+      <c r="J292" s="3"/>
+      <c r="K292" s="3"/>
       <c r="L292" s="4">
-        <v>158.30000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="M292" s="4">
-        <v>162.69999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="N292" s="4">
-        <v>161.69999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="O292" s="4">
-        <v>163.4</v>
+        <v>11.4</v>
       </c>
       <c r="P292" s="4">
-        <v>167.6</v>
+        <v>10.6</v>
       </c>
       <c r="Q292" s="4">
-        <v>98.7</v>
-      </c>
-      <c r="R292" s="4">
-        <v>109.5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="R292" s="3"/>
       <c r="S292" s="3"/>
       <c r="T292" s="2" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
     </row>
     <row r="293" spans="1:20" ht="36" x14ac:dyDescent="0.25">
@@ -17257,10 +17232,10 @@
         <v>308</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C293" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>46</v>
@@ -17269,47 +17244,47 @@
         <v>25</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G293" s="4">
-        <v>3.7</v>
+        <v>166.5</v>
       </c>
       <c r="H293" s="4">
-        <v>3.4</v>
+        <v>166.2</v>
       </c>
       <c r="I293" s="4">
-        <v>4.0999999999999996</v>
+        <v>165.6</v>
       </c>
       <c r="J293" s="4">
-        <v>3.8</v>
+        <v>155.5</v>
       </c>
       <c r="K293" s="4">
-        <v>3.9</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="L293" s="4">
-        <v>3.9</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="M293" s="4">
-        <v>4.5999999999999996</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="N293" s="4">
-        <v>5.0999999999999996</v>
+        <v>161.69999999999999</v>
       </c>
       <c r="O293" s="4">
-        <v>5.4</v>
+        <v>163.4</v>
       </c>
       <c r="P293" s="4">
-        <v>6.1</v>
+        <v>167.6</v>
       </c>
       <c r="Q293" s="4">
-        <v>6.5</v>
+        <v>98.7</v>
       </c>
       <c r="R293" s="4">
-        <v>6.6</v>
+        <v>109.5</v>
       </c>
       <c r="S293" s="3"/>
       <c r="T293" s="2" t="s">
-        <v>27</v>
+        <v>316</v>
       </c>
     </row>
     <row r="294" spans="1:20" ht="36" x14ac:dyDescent="0.25">
@@ -17317,7 +17292,7 @@
         <v>308</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>342</v>
@@ -17331,41 +17306,41 @@
       <c r="F294" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G294" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="H294" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="I294" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J294" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K294" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="L294" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="M294" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="N294" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O294" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="P294" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="Q294" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="R294" s="5">
-        <v>0.1</v>
+      <c r="G294" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="H294" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I294" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J294" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="K294" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="L294" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M294" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N294" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O294" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="P294" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="Q294" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="R294" s="4">
+        <v>6.6</v>
       </c>
       <c r="S294" s="3"/>
       <c r="T294" s="2" t="s">
@@ -17377,7 +17352,7 @@
         <v>308</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>343</v>
@@ -17391,23 +17366,41 @@
       <c r="F295" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
-      <c r="I295" s="3"/>
-      <c r="J295" s="3"/>
-      <c r="K295" s="3"/>
-      <c r="L295" s="3"/>
-      <c r="M295" s="3"/>
-      <c r="N295" s="3"/>
-      <c r="O295" s="3"/>
-      <c r="P295" s="6">
-        <v>74110</v>
-      </c>
-      <c r="Q295" s="6">
-        <v>68436</v>
-      </c>
-      <c r="R295" s="6">
-        <v>65117</v>
+      <c r="G295" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H295" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="I295" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J295" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K295" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="L295" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="M295" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="N295" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="O295" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="P295" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q295" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="R295" s="5">
+        <v>0.1</v>
       </c>
       <c r="S295" s="3"/>
       <c r="T295" s="2" t="s">
@@ -17419,7 +17412,7 @@
         <v>308</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>344</v>
@@ -17436,39 +17429,35 @@
       <c r="G296" s="3"/>
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
-      <c r="J296" s="6">
-        <v>546870</v>
-      </c>
+      <c r="J296" s="3"/>
       <c r="K296" s="3"/>
-      <c r="L296" s="6">
-        <v>512116</v>
-      </c>
-      <c r="M296" s="6">
-        <v>501544</v>
-      </c>
+      <c r="L296" s="3"/>
+      <c r="M296" s="3"/>
       <c r="N296" s="3"/>
-      <c r="O296" s="6">
-        <v>487452</v>
-      </c>
-      <c r="P296" s="3"/>
+      <c r="O296" s="3"/>
+      <c r="P296" s="6">
+        <v>74110</v>
+      </c>
       <c r="Q296" s="6">
-        <v>469607</v>
-      </c>
-      <c r="R296" s="3"/>
+        <v>68436</v>
+      </c>
+      <c r="R296" s="6">
+        <v>65117</v>
+      </c>
       <c r="S296" s="3"/>
       <c r="T296" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B297" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>46</v>
@@ -17477,44 +17466,30 @@
         <v>25</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="G297" s="6">
-        <v>22795</v>
-      </c>
-      <c r="H297" s="6">
-        <v>21359</v>
-      </c>
-      <c r="I297" s="6">
-        <v>20022</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
       <c r="J297" s="6">
-        <v>19636</v>
-      </c>
-      <c r="K297" s="6">
-        <v>18137</v>
-      </c>
+        <v>546870</v>
+      </c>
+      <c r="K297" s="3"/>
       <c r="L297" s="6">
-        <v>16793</v>
+        <v>512116</v>
       </c>
       <c r="M297" s="6">
-        <v>15086</v>
-      </c>
-      <c r="N297" s="6">
-        <v>14505</v>
-      </c>
+        <v>501544</v>
+      </c>
+      <c r="N297" s="3"/>
       <c r="O297" s="6">
-        <v>14165</v>
-      </c>
-      <c r="P297" s="6">
-        <v>11466</v>
-      </c>
+        <v>487452</v>
+      </c>
+      <c r="P297" s="3"/>
       <c r="Q297" s="6">
-        <v>8767</v>
-      </c>
-      <c r="R297" s="6">
-        <v>8374</v>
-      </c>
+        <v>469607</v>
+      </c>
+      <c r="R297" s="3"/>
       <c r="S297" s="3"/>
       <c r="T297" s="2" t="s">
         <v>27</v>
@@ -17525,10 +17500,10 @@
         <v>308</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>46</v>
@@ -17537,55 +17512,55 @@
         <v>25</v>
       </c>
       <c r="F298" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G298" s="6">
-        <v>961</v>
+        <v>22795</v>
       </c>
       <c r="H298" s="6">
-        <v>136730</v>
+        <v>21359</v>
       </c>
       <c r="I298" s="6">
-        <v>11553</v>
+        <v>20022</v>
       </c>
       <c r="J298" s="6">
-        <v>15701</v>
+        <v>19636</v>
       </c>
       <c r="K298" s="6">
-        <v>2758</v>
+        <v>18137</v>
       </c>
       <c r="L298" s="6">
-        <v>69422</v>
+        <v>16793</v>
       </c>
       <c r="M298" s="6">
-        <v>44764</v>
+        <v>15086</v>
       </c>
       <c r="N298" s="6">
-        <v>78118</v>
+        <v>14505</v>
       </c>
       <c r="O298" s="6">
-        <v>14958</v>
+        <v>14165</v>
       </c>
       <c r="P298" s="6">
-        <v>68943</v>
+        <v>11466</v>
       </c>
       <c r="Q298" s="6">
-        <v>57788</v>
+        <v>8767</v>
       </c>
       <c r="R298" s="6">
-        <v>27276</v>
+        <v>8374</v>
       </c>
       <c r="S298" s="3"/>
       <c r="T298" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="36" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>308</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>349</v>
@@ -17597,56 +17572,58 @@
         <v>25</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>51</v>
+        <v>348</v>
       </c>
       <c r="G299" s="6">
-        <v>6</v>
+        <v>961</v>
       </c>
       <c r="H299" s="6">
-        <v>8</v>
+        <v>136730</v>
       </c>
       <c r="I299" s="6">
-        <v>8</v>
+        <v>11553</v>
       </c>
       <c r="J299" s="6">
-        <v>10</v>
+        <v>15701</v>
       </c>
       <c r="K299" s="6">
-        <v>9</v>
+        <v>2758</v>
       </c>
       <c r="L299" s="6">
-        <v>10</v>
+        <v>69422</v>
       </c>
       <c r="M299" s="6">
-        <v>11</v>
+        <v>44764</v>
       </c>
       <c r="N299" s="6">
-        <v>13</v>
+        <v>78118</v>
       </c>
       <c r="O299" s="6">
-        <v>12</v>
+        <v>14958</v>
       </c>
       <c r="P299" s="6">
-        <v>16</v>
+        <v>68943</v>
       </c>
       <c r="Q299" s="6">
-        <v>21</v>
-      </c>
-      <c r="R299" s="3"/>
+        <v>57788</v>
+      </c>
+      <c r="R299" s="6">
+        <v>27276</v>
+      </c>
       <c r="S299" s="3"/>
       <c r="T299" s="2" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
     </row>
     <row r="300" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C300" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>46</v>
@@ -17655,58 +17632,56 @@
         <v>25</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G300" s="4">
-        <v>88</v>
-      </c>
-      <c r="H300" s="4">
-        <v>88.4</v>
-      </c>
-      <c r="I300" s="4">
-        <v>91.7</v>
-      </c>
-      <c r="J300" s="4">
-        <v>93.3</v>
-      </c>
-      <c r="K300" s="4">
-        <v>93.9</v>
-      </c>
-      <c r="L300" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="M300" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="N300" s="4">
-        <v>94.5</v>
-      </c>
-      <c r="O300" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="P300" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="Q300" s="4">
-        <v>94.7</v>
-      </c>
-      <c r="R300" s="4">
-        <v>94.6</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G300" s="6">
+        <v>6</v>
+      </c>
+      <c r="H300" s="6">
+        <v>8</v>
+      </c>
+      <c r="I300" s="6">
+        <v>8</v>
+      </c>
+      <c r="J300" s="6">
+        <v>10</v>
+      </c>
+      <c r="K300" s="6">
+        <v>9</v>
+      </c>
+      <c r="L300" s="6">
+        <v>10</v>
+      </c>
+      <c r="M300" s="6">
+        <v>11</v>
+      </c>
+      <c r="N300" s="6">
+        <v>13</v>
+      </c>
+      <c r="O300" s="6">
+        <v>12</v>
+      </c>
+      <c r="P300" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q300" s="6">
+        <v>21</v>
+      </c>
+      <c r="R300" s="3"/>
       <c r="S300" s="3"/>
       <c r="T300" s="2" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
     </row>
     <row r="301" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="C301" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>46</v>
@@ -17715,7 +17690,7 @@
         <v>25</v>
       </c>
       <c r="F301" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G301" s="5">
         <v>0.57999999999999996</v>
@@ -17760,13 +17735,13 @@
     </row>
     <row r="302" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C302" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>46</v>
@@ -17775,7 +17750,7 @@
         <v>25</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G302" s="5">
         <v>16.32</v>
@@ -17820,13 +17795,13 @@
     </row>
     <row r="303" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C303" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>46</v>
@@ -17880,13 +17855,13 @@
     </row>
     <row r="304" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>46</v>
@@ -17938,13 +17913,13 @@
     </row>
     <row r="305" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="C305" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>46</v>
@@ -17953,7 +17928,7 @@
         <v>25</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G305" s="4">
         <v>100</v>
@@ -17991,18 +17966,18 @@
       <c r="R305" s="3"/>
       <c r="S305" s="3"/>
       <c r="T305" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="306" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B306" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="C306" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>46</v>
@@ -18011,7 +17986,7 @@
         <v>25</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G306" s="4">
         <v>100</v>
@@ -18049,18 +18024,18 @@
       <c r="R306" s="3"/>
       <c r="S306" s="3"/>
       <c r="T306" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="307" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C307" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>46</v>
@@ -18114,13 +18089,13 @@
     </row>
     <row r="308" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>46</v>
@@ -18129,7 +18104,7 @@
         <v>25</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G308" s="6">
         <v>563</v>
@@ -18172,13 +18147,13 @@
     </row>
     <row r="309" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C309" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>46</v>
@@ -18232,13 +18207,13 @@
     </row>
     <row r="310" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C310" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>46</v>
@@ -18290,19 +18265,19 @@
     </row>
     <row r="311" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="C311" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C311" s="2" t="s">
+      <c r="D311" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D311" s="2" t="s">
+      <c r="E311" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="E311" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>26</v>
@@ -18352,19 +18327,19 @@
     </row>
     <row r="312" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="C312" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C312" s="2" t="s">
+      <c r="D312" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D312" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="E312" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F312" s="3" t="s">
         <v>26</v>
@@ -18414,19 +18389,19 @@
     </row>
     <row r="313" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="C313" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="D313" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D313" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="E313" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>26</v>
@@ -18476,19 +18451,19 @@
     </row>
     <row r="314" spans="1:20" ht="81" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="C314" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C314" s="2" t="s">
+      <c r="D314" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D314" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="E314" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>26</v>
@@ -18538,13 +18513,13 @@
     </row>
     <row r="315" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C315" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>46</v>
@@ -18553,7 +18528,7 @@
         <v>25</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G315" s="4">
         <v>100</v>
@@ -18598,13 +18573,13 @@
     </row>
     <row r="316" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>46</v>
@@ -18613,7 +18588,7 @@
         <v>25</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G316" s="4">
         <v>59.5</v>
@@ -18658,13 +18633,13 @@
     </row>
     <row r="317" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="C317" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>46</v>
@@ -18673,7 +18648,7 @@
         <v>25</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G317" s="4">
         <v>88.8</v>
@@ -18718,13 +18693,13 @@
     </row>
     <row r="318" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B318" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C318" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>46</v>
@@ -18773,18 +18748,18 @@
       </c>
       <c r="S318" s="3"/>
       <c r="T318" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="319" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B319" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C319" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>46</v>
@@ -18838,13 +18813,13 @@
     </row>
     <row r="320" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>396</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>46</v>
@@ -18898,13 +18873,13 @@
     </row>
     <row r="321" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>31</v>
@@ -18958,13 +18933,13 @@
     </row>
     <row r="322" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>31</v>
@@ -19018,13 +18993,13 @@
     </row>
     <row r="323" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>31</v>
@@ -19078,13 +19053,13 @@
     </row>
     <row r="324" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>46</v>
@@ -19138,13 +19113,13 @@
     </row>
     <row r="325" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="C325" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>46</v>
@@ -19195,18 +19170,18 @@
         <v>83</v>
       </c>
       <c r="T325" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="326" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B326" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="C326" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>46</v>
@@ -19243,18 +19218,18 @@
       <c r="R326" s="3"/>
       <c r="S326" s="3"/>
       <c r="T326" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="327" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B327" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C327" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>46</v>
@@ -19263,7 +19238,7 @@
         <v>25</v>
       </c>
       <c r="F327" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G327" s="5">
         <v>1.02</v>
@@ -19308,13 +19283,13 @@
     </row>
     <row r="328" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C328" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>46</v>
@@ -19323,7 +19298,7 @@
         <v>25</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G328" s="6">
         <v>830</v>
@@ -19364,13 +19339,13 @@
     </row>
     <row r="329" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>46</v>
@@ -19379,7 +19354,7 @@
         <v>25</v>
       </c>
       <c r="F329" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G329" s="5">
         <v>0.63</v>
@@ -19424,13 +19399,13 @@
     </row>
     <row r="330" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B330" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C330" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>91</v>
@@ -19484,13 +19459,13 @@
     </row>
     <row r="331" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C331" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>91</v>
@@ -19544,13 +19519,13 @@
     </row>
     <row r="332" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B332" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>91</v>
@@ -19604,13 +19579,13 @@
     </row>
     <row r="333" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B333" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>31</v>
@@ -19664,13 +19639,13 @@
     </row>
     <row r="334" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C334" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>31</v>
@@ -19724,19 +19699,19 @@
     </row>
     <row r="335" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C335" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F335" s="3" t="s">
         <v>26</v>
@@ -19784,19 +19759,19 @@
     </row>
     <row r="336" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C336" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E336" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F336" s="3" t="s">
         <v>26</v>
@@ -19844,19 +19819,19 @@
     </row>
     <row r="337" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B337" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C337" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>26</v>
@@ -19904,19 +19879,19 @@
     </row>
     <row r="338" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C338" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>26</v>
@@ -19964,19 +19939,19 @@
     </row>
     <row r="339" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C339" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E339" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F339" s="3" t="s">
         <v>26</v>
@@ -20024,19 +19999,19 @@
     </row>
     <row r="340" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F340" s="3" t="s">
         <v>26</v>
@@ -20084,13 +20059,13 @@
     </row>
     <row r="341" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>182</v>
@@ -20144,13 +20119,13 @@
     </row>
     <row r="342" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C342" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>182</v>
@@ -20204,13 +20179,13 @@
     </row>
     <row r="343" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B343" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C343" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>182</v>
@@ -20264,13 +20239,13 @@
     </row>
     <row r="344" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>184</v>
@@ -20324,13 +20299,13 @@
     </row>
     <row r="345" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B345" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C345" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>184</v>
@@ -20384,13 +20359,13 @@
     </row>
     <row r="346" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B346" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>184</v>
@@ -20444,13 +20419,13 @@
     </row>
     <row r="347" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B347" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C347" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>184</v>
@@ -20504,13 +20479,13 @@
     </row>
     <row r="348" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B348" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C348" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>46</v>
@@ -20564,13 +20539,13 @@
     </row>
     <row r="349" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="C349" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>46</v>
@@ -20579,7 +20554,7 @@
         <v>25</v>
       </c>
       <c r="F349" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G349" s="5">
         <v>377.75</v>
@@ -20619,18 +20594,18 @@
       </c>
       <c r="S349" s="3"/>
       <c r="T349" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="350" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B350" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="C350" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>46</v>
@@ -20639,7 +20614,7 @@
         <v>25</v>
       </c>
       <c r="F350" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G350" s="5">
         <v>96.04</v>
@@ -20679,18 +20654,18 @@
       </c>
       <c r="S350" s="3"/>
       <c r="T350" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="351" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>46</v>
@@ -20739,14 +20714,14 @@
       </c>
       <c r="S351" s="3"/>
       <c r="T351" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="352" spans="1:20" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="353" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="354" spans="1:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B354" s="8"/>
     </row>

--- a/assets/excel/pl/wskazniki_krajowe.xlsx
+++ b/assets/excel/pl/wskazniki_krajowe.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sidwab\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="18060" windowHeight="7050"/>
   </bookViews>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="411">
   <si>
     <t>sdg.gov.pl</t>
   </si>
@@ -770,6 +775,15 @@
     <t>samotnych rodziców z dziećmi na utrzymaniu</t>
   </si>
   <si>
+    <t>Zapewnienie osobom z niepełnosprawnościami społecznego i ekonomicznego włączenia oraz dostępności, w tym poprzez ograniczanie barier w dostępie do korzystania z infrastruktury</t>
+  </si>
+  <si>
+    <t>10.4.a Liczba dostosowanych budynków mieszkalnictwa wielorodzinnego i użyteczności publicznej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministerstwo Funduszy i Polityki Regionalnej </t>
+  </si>
+  <si>
     <t>Cel 11. Zrównoważone miasta i społeczności</t>
   </si>
   <si>
@@ -1016,7 +1030,7 @@
     <t>13.6.b Zasięg realizowanych przedsięwzięć edukacyjno-informacyjnych</t>
   </si>
   <si>
-    <t>użytkownicy</t>
+    <t>mln użytkowników</t>
   </si>
   <si>
     <t xml:space="preserve">Ministerstwo Klimatu i Środowiska </t>
@@ -1040,7 +1054,7 @@
     <t>Ministerstwo Rolnictwa i Rozwoju Wsi</t>
   </si>
   <si>
-    <t>udział zasobów rybnych w pełni wykorzystanych (fully exploited) na Morzu Bałtyckim</t>
+    <t>odsetek zasobów rybnych w pełni wykorzystanych (fully exploited) na Morzu Bałtyckim</t>
   </si>
   <si>
     <t>odsetek stad ryb które są nie w pełni wykorzystane (non-fully exploited) na Morzu Bałtyckim</t>
@@ -1100,6 +1114,18 @@
     <t>15.2.c Ścieki przemysłowe i komunalne oczyszczane biologicznie, chemicznie i z podwyższonym usuwaniem biogenów w % ścieków wymagających oczyszczenia</t>
   </si>
   <si>
+    <t>Ochrona i zrównoważone użytkowanie gleb oraz przywracanie gleb zdegradowanych do stanu właściwego poprzez ich remediację i rekultywację</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3.a Nakłady na środki trwałe służące ochronie i przywróceniu wartości użytkowej gleb, ochronie wód podziemnych i powierzchniowych </t>
+  </si>
+  <si>
+    <t>tys. zł</t>
+  </si>
+  <si>
+    <t>15.3.b Grunty zrekultywowane i zagospodarowane w stosunku do powierzchni gruntów zdewastowanych i zdegradowanych</t>
+  </si>
+  <si>
     <t>Cel 16. Pokój, sprawiedliwość i silne instytucje</t>
   </si>
   <si>
@@ -1124,6 +1150,15 @@
     <t>punkty</t>
   </si>
   <si>
+    <t>Zintegrowanie zarządzanie bezpieczeństwem narodowym, w tym kierowanie obroną państwa oraz budowanie zdolności adaptacyjnych</t>
+  </si>
+  <si>
+    <t>16.3.a Udział wydatków na obronę narodową w PKB</t>
+  </si>
+  <si>
+    <t>Ministerstwo Obrony Narodowej</t>
+  </si>
+  <si>
     <t>Większe wykorzystanie technologii informacyjno-komunikacyjnych w zarządzaniu państwem i komunikacji z obywatelami (w tym z przedsiębiorcami)</t>
   </si>
   <si>
@@ -1181,20 +1216,59 @@
     <t>17.2.a Oficjalna Pomoc Rozwojowa w relacji do dochodu narodowego brutto</t>
   </si>
   <si>
-    <t>Ostatnia aktualizacja: 23-05-2023, 11:42</t>
+    <t>Promowanie uwzględniania kwestii związanych z równością szans oraz ochroną klimatu we wszystkich działaniach „Polskiej pomocy”</t>
+  </si>
+  <si>
+    <t>17.3.a Oficjalna Pomoc Rozwojowa (ODA) na rzecz równości płci</t>
+  </si>
+  <si>
+    <t>mln USD (w cenach bieżących)</t>
+  </si>
+  <si>
+    <t>Ministerstwo Finansów</t>
+  </si>
+  <si>
+    <t>Promowanie uwzględniania kwestii związanych z równością szans oraz ochroną klimatu we wszystkich działaniach "Polskiej pomocy"</t>
+  </si>
+  <si>
+    <t>17.3.b Oficjalna Pomoc Rozwojowa na rzecz mitygacji i adaptacji do zmian klimatu</t>
+  </si>
+  <si>
+    <t>Zwiększenie mobilizacji krajowych środków państw rozwijających się poprzez wsparcie techniczne i merytoryczne tych państw w poprawie ściągalności podatków</t>
+  </si>
+  <si>
+    <t>17.4.a Udział KAS w projektach twinningowych, działaniach finansowanych z Taiex oraz ze środków krajowych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ministerstwo Finansów </t>
+  </si>
+  <si>
+    <t>Wzmocnienie globalnego partnerstwa na rzecz zrównoważonego rozwoju w zakresie dzielenia się wiedzą i technologią w zakresie podatków w celu wsparcia w realizacji SDGs</t>
+  </si>
+  <si>
+    <t>17.5.a Zawieranie porozumień, umów oraz deklaracji o współpracy, wymianie informacji i pomocy wzajemnej z innymi państwami</t>
+  </si>
+  <si>
+    <t>Wdrożenie skutecznych metod zwalczania przestępczości gospodarczej oraz jej prewencji w państwach, będących zarazem beneficjentami projektów pomocowych SDGs</t>
+  </si>
+  <si>
+    <t>17.6.a Konferencje i szkolenia prowadzone przez ekspertów KAS w krajach objętych pomocą</t>
+  </si>
+  <si>
+    <t>Ostatnia aktualizacja: 06-06-2023, 11:45</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-10415]0.0;\-0.0;0.0"/>
     <numFmt numFmtId="165" formatCode="[$-10415]0.00;\-0.00;0.00"/>
     <numFmt numFmtId="166" formatCode="[$-10415]0;\-0;0"/>
     <numFmt numFmtId="167" formatCode="[$-10415]0.000;\-0.000;0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1386,6 +1460,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1406,7 +1488,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1469,7 +1551,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1501,9 +1583,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1535,6 +1618,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1710,15 +1794,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T289"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T298"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
@@ -1731,17 +1815,17 @@
     <col min="21" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="36" customHeight="1">
+    <row r="1" spans="1:20" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:20" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="25.5">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +1887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="39">
+    <row r="4" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1943,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="39">
+    <row r="5" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1915,7 +1999,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="29.25">
+    <row r="6" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +2059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="29.25">
+    <row r="7" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -2033,7 +2117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="29.25">
+    <row r="8" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -2091,7 +2175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="19.5">
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -2151,7 +2235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="19.5">
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
@@ -2211,7 +2295,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="19.5">
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2271,7 +2355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="58.5">
+    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2331,7 +2415,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="39">
+    <row r="13" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -2391,7 +2475,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="39">
+    <row r="14" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -2449,7 +2533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="48.75">
+    <row r="15" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -2507,7 +2591,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="29.25">
+    <row r="16" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -2565,7 +2649,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="39">
+    <row r="17" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -2625,7 +2709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="29.25">
+    <row r="18" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
@@ -2685,7 +2769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="29.25">
+    <row r="19" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -2745,7 +2829,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="19.5">
+    <row r="20" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -2787,7 +2871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="19.5">
+    <row r="21" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2829,7 +2913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="19.5">
+    <row r="22" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -2871,7 +2955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="19.5">
+    <row r="23" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2913,7 +2997,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="19.5">
+    <row r="24" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>64</v>
       </c>
@@ -2973,7 +3057,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="19.5">
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>64</v>
       </c>
@@ -3033,7 +3117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="19.5">
+    <row r="26" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -3093,7 +3177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="19.5">
+    <row r="27" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>64</v>
       </c>
@@ -3153,7 +3237,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="19.5">
+    <row r="28" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
@@ -3213,7 +3297,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="19.5">
+    <row r="29" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>64</v>
       </c>
@@ -3273,7 +3357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="19.5">
+    <row r="30" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -3333,7 +3417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="19.5">
+    <row r="31" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -3393,7 +3477,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="19.5">
+    <row r="32" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -3453,7 +3537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="19.5">
+    <row r="33" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -3513,7 +3597,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="19.5">
+    <row r="34" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>64</v>
       </c>
@@ -3573,7 +3657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="19.5">
+    <row r="35" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
@@ -3633,7 +3717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="19.5">
+    <row r="36" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>64</v>
       </c>
@@ -3693,7 +3777,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="19.5">
+    <row r="37" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>64</v>
       </c>
@@ -3753,7 +3837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="19.5">
+    <row r="38" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
@@ -3813,7 +3897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="19.5">
+    <row r="39" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>64</v>
       </c>
@@ -3873,7 +3957,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="19.5">
+    <row r="40" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>64</v>
       </c>
@@ -3933,7 +4017,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="19.5">
+    <row r="41" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -3993,7 +4077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="19.5">
+    <row r="42" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>64</v>
       </c>
@@ -4053,7 +4137,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="19.5">
+    <row r="43" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>64</v>
       </c>
@@ -4113,7 +4197,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="19.5">
+    <row r="44" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>64</v>
       </c>
@@ -4173,7 +4257,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="19.5">
+    <row r="45" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>64</v>
       </c>
@@ -4233,7 +4317,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="19.5">
+    <row r="46" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>64</v>
       </c>
@@ -4275,7 +4359,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:20" ht="19.5">
+    <row r="47" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>64</v>
       </c>
@@ -4317,7 +4401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="29.25">
+    <row r="48" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -4359,7 +4443,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="29.25">
+    <row r="49" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>64</v>
       </c>
@@ -4401,7 +4485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="29.25">
+    <row r="50" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>64</v>
       </c>
@@ -4443,7 +4527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="29.25">
+    <row r="51" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>64</v>
       </c>
@@ -4485,7 +4569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="29.25">
+    <row r="52" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>64</v>
       </c>
@@ -4527,7 +4611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="29.25">
+    <row r="53" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>64</v>
       </c>
@@ -4569,7 +4653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="29.25">
+    <row r="54" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>64</v>
       </c>
@@ -4611,7 +4695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="29.25">
+    <row r="55" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -4653,7 +4737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="29.25">
+    <row r="56" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>64</v>
       </c>
@@ -4695,7 +4779,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="29.25">
+    <row r="57" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>64</v>
       </c>
@@ -4737,7 +4821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="29.25">
+    <row r="58" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
@@ -4777,7 +4861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="29.25">
+    <row r="59" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>64</v>
       </c>
@@ -4817,7 +4901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="29.25">
+    <row r="60" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>64</v>
       </c>
@@ -4857,7 +4941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="29.25">
+    <row r="61" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>64</v>
       </c>
@@ -4919,7 +5003,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="39">
+    <row r="62" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
@@ -4979,7 +5063,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="29.25">
+    <row r="63" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
@@ -5031,7 +5115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="29.25">
+    <row r="64" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>64</v>
       </c>
@@ -5083,7 +5167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="29.25">
+    <row r="65" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>64</v>
       </c>
@@ -5135,7 +5219,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="29.25">
+    <row r="66" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -5179,7 +5263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="58.5">
+    <row r="67" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
@@ -5239,7 +5323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="29.25">
+    <row r="68" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>101</v>
       </c>
@@ -5299,7 +5383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="39">
+    <row r="69" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>101</v>
       </c>
@@ -5343,7 +5427,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:20" ht="39">
+    <row r="70" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>101</v>
       </c>
@@ -5387,7 +5471,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:20" ht="39">
+    <row r="71" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>101</v>
       </c>
@@ -5431,7 +5515,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:20" ht="39">
+    <row r="72" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>101</v>
       </c>
@@ -5475,7 +5559,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="39">
+    <row r="73" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>101</v>
       </c>
@@ -5519,7 +5603,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="39">
+    <row r="74" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>101</v>
       </c>
@@ -5563,7 +5647,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="29.25">
+    <row r="75" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>101</v>
       </c>
@@ -5623,7 +5707,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="29.25">
+    <row r="76" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>101</v>
       </c>
@@ -5683,7 +5767,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="29.25">
+    <row r="77" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>101</v>
       </c>
@@ -5743,7 +5827,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="39">
+    <row r="78" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>101</v>
       </c>
@@ -5798,12 +5882,14 @@
       <c r="R78" s="4">
         <v>5.9</v>
       </c>
-      <c r="S78" s="3"/>
+      <c r="S78" s="4">
+        <v>4.8</v>
+      </c>
       <c r="T78" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="39">
+    <row r="79" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>101</v>
       </c>
@@ -5858,12 +5944,14 @@
       <c r="R79" s="4">
         <v>7.2</v>
       </c>
-      <c r="S79" s="3"/>
+      <c r="S79" s="4">
+        <v>5.8</v>
+      </c>
       <c r="T79" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="39">
+    <row r="80" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>101</v>
       </c>
@@ -5918,12 +6006,14 @@
       <c r="R80" s="4">
         <v>4.5</v>
       </c>
-      <c r="S80" s="3"/>
+      <c r="S80" s="4">
+        <v>3.7</v>
+      </c>
       <c r="T80" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="39">
+    <row r="81" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>101</v>
       </c>
@@ -5983,7 +6073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="39">
+    <row r="82" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>101</v>
       </c>
@@ -6043,7 +6133,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="39">
+    <row r="83" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>101</v>
       </c>
@@ -6103,7 +6193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="39">
+    <row r="84" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>101</v>
       </c>
@@ -6163,7 +6253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="39">
+    <row r="85" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>101</v>
       </c>
@@ -6223,7 +6313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="39">
+    <row r="86" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>101</v>
       </c>
@@ -6283,7 +6373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="39">
+    <row r="87" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>101</v>
       </c>
@@ -6343,7 +6433,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="39">
+    <row r="88" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>101</v>
       </c>
@@ -6403,7 +6493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="39">
+    <row r="89" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>101</v>
       </c>
@@ -6443,7 +6533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="39">
+    <row r="90" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>101</v>
       </c>
@@ -6481,7 +6571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="39">
+    <row r="91" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>101</v>
       </c>
@@ -6519,7 +6609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="39">
+    <row r="92" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>101</v>
       </c>
@@ -6557,7 +6647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="39">
+    <row r="93" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>101</v>
       </c>
@@ -6595,7 +6685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="39">
+    <row r="94" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>101</v>
       </c>
@@ -6633,7 +6723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="39">
+    <row r="95" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>101</v>
       </c>
@@ -6671,7 +6761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="19.5">
+    <row r="96" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>101</v>
       </c>
@@ -6709,7 +6799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="19.5">
+    <row r="97" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>101</v>
       </c>
@@ -6747,7 +6837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="19.5">
+    <row r="98" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>101</v>
       </c>
@@ -6785,7 +6875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="19.5">
+    <row r="99" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>101</v>
       </c>
@@ -6823,7 +6913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="19.5">
+    <row r="100" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>101</v>
       </c>
@@ -6861,7 +6951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="19.5">
+    <row r="101" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>101</v>
       </c>
@@ -6899,7 +6989,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="19.5">
+    <row r="102" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>101</v>
       </c>
@@ -6937,7 +7027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="19.5">
+    <row r="103" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -6975,7 +7065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="19.5">
+    <row r="104" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>101</v>
       </c>
@@ -7013,7 +7103,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="19.5">
+    <row r="105" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>101</v>
       </c>
@@ -7051,7 +7141,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="19.5">
+    <row r="106" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>101</v>
       </c>
@@ -7089,7 +7179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="19.5">
+    <row r="107" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>101</v>
       </c>
@@ -7127,7 +7217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="19.5">
+    <row r="108" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>101</v>
       </c>
@@ -7165,7 +7255,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="19.5">
+    <row r="109" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>101</v>
       </c>
@@ -7203,7 +7293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="19.5">
+    <row r="110" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>101</v>
       </c>
@@ -7241,7 +7331,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="19.5">
+    <row r="111" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>101</v>
       </c>
@@ -7279,7 +7369,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="19.5">
+    <row r="112" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>101</v>
       </c>
@@ -7317,7 +7407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="19.5">
+    <row r="113" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>101</v>
       </c>
@@ -7355,7 +7445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="19.5">
+    <row r="114" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>145</v>
       </c>
@@ -7415,7 +7505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="19.5">
+    <row r="115" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>145</v>
       </c>
@@ -7470,12 +7560,14 @@
       <c r="R115" s="4">
         <v>10.3</v>
       </c>
-      <c r="S115" s="3"/>
+      <c r="S115" s="4">
+        <v>8.6</v>
+      </c>
       <c r="T115" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="19.5">
+    <row r="116" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>145</v>
       </c>
@@ -7530,12 +7622,14 @@
       <c r="R116" s="4">
         <v>6.8</v>
       </c>
-      <c r="S116" s="3"/>
+      <c r="S116" s="4">
+        <v>5.9</v>
+      </c>
       <c r="T116" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="19.5">
+    <row r="117" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>145</v>
       </c>
@@ -7590,12 +7684,14 @@
       <c r="R117" s="4">
         <v>15.5</v>
       </c>
-      <c r="S117" s="3"/>
+      <c r="S117" s="4">
+        <v>12.8</v>
+      </c>
       <c r="T117" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="39">
+    <row r="118" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>145</v>
       </c>
@@ -7643,7 +7739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="68.25">
+    <row r="119" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>145</v>
       </c>
@@ -7691,7 +7787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="48.75">
+    <row r="120" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>145</v>
       </c>
@@ -7739,7 +7835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="39">
+    <row r="121" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>145</v>
       </c>
@@ -7787,7 +7883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="39">
+    <row r="122" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>145</v>
       </c>
@@ -7835,7 +7931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="39">
+    <row r="123" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>145</v>
       </c>
@@ -7883,7 +7979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="68.25">
+    <row r="124" spans="1:20" ht="54" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>145</v>
       </c>
@@ -7931,7 +8027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="19.5">
+    <row r="125" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>145</v>
       </c>
@@ -7991,7 +8087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="19.5">
+    <row r="126" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>145</v>
       </c>
@@ -8049,7 +8145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="19.5">
+    <row r="127" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>145</v>
       </c>
@@ -8107,7 +8203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="29.25">
+    <row r="128" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>145</v>
       </c>
@@ -8167,7 +8263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="29.25">
+    <row r="129" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>145</v>
       </c>
@@ -8227,7 +8323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="29.25">
+    <row r="130" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>145</v>
       </c>
@@ -8287,7 +8383,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="19.5">
+    <row r="131" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>162</v>
       </c>
@@ -8345,7 +8441,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="19.5">
+    <row r="132" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>162</v>
       </c>
@@ -8405,7 +8501,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="48.75">
+    <row r="133" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>162</v>
       </c>
@@ -8465,7 +8561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="48.75">
+    <row r="134" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>162</v>
       </c>
@@ -8525,7 +8621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="48.75">
+    <row r="135" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>162</v>
       </c>
@@ -8585,7 +8681,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="48.75">
+    <row r="136" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>162</v>
       </c>
@@ -8645,7 +8741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="39">
+    <row r="137" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>171</v>
       </c>
@@ -8703,7 +8799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="29.25">
+    <row r="138" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>171</v>
       </c>
@@ -8763,7 +8859,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="29.25">
+    <row r="139" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>171</v>
       </c>
@@ -8823,7 +8919,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="29.25">
+    <row r="140" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>171</v>
       </c>
@@ -8883,7 +8979,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="48.75">
+    <row r="141" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>183</v>
       </c>
@@ -8943,7 +9039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="48.75">
+    <row r="142" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>183</v>
       </c>
@@ -9003,7 +9099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="48.75">
+    <row r="143" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>183</v>
       </c>
@@ -9059,7 +9155,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="29.25">
+    <row r="144" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>183</v>
       </c>
@@ -9111,7 +9207,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="29.25">
+    <row r="145" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>183</v>
       </c>
@@ -9171,7 +9267,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="29.25">
+    <row r="146" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>183</v>
       </c>
@@ -9231,7 +9327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="29.25">
+    <row r="147" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>183</v>
       </c>
@@ -9291,7 +9387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="29.25">
+    <row r="148" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>183</v>
       </c>
@@ -9351,7 +9447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="29.25">
+    <row r="149" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>183</v>
       </c>
@@ -9411,7 +9507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="29.25">
+    <row r="150" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>183</v>
       </c>
@@ -9471,7 +9567,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="29.25">
+    <row r="151" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>183</v>
       </c>
@@ -9531,7 +9627,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="29.25">
+    <row r="152" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>183</v>
       </c>
@@ -9591,7 +9687,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="29.25">
+    <row r="153" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>183</v>
       </c>
@@ -9651,7 +9747,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:20" ht="29.25">
+    <row r="154" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>183</v>
       </c>
@@ -9711,7 +9807,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:20" ht="29.25">
+    <row r="155" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>183</v>
       </c>
@@ -9771,7 +9867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="156" spans="1:20" ht="29.25">
+    <row r="156" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>183</v>
       </c>
@@ -9831,7 +9927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="157" spans="1:20" ht="29.25">
+    <row r="157" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>183</v>
       </c>
@@ -9891,7 +9987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="158" spans="1:20" ht="29.25">
+    <row r="158" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>183</v>
       </c>
@@ -9951,7 +10047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="159" spans="1:20" ht="29.25">
+    <row r="159" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>183</v>
       </c>
@@ -10011,7 +10107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="160" spans="1:20" ht="29.25">
+    <row r="160" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>183</v>
       </c>
@@ -10071,7 +10167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="161" spans="1:20" ht="29.25">
+    <row r="161" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>183</v>
       </c>
@@ -10131,7 +10227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="162" spans="1:20" ht="39">
+    <row r="162" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>183</v>
       </c>
@@ -10191,7 +10287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="163" spans="1:20" ht="29.25">
+    <row r="163" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>183</v>
       </c>
@@ -10251,7 +10347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="29.25">
+    <row r="164" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>183</v>
       </c>
@@ -10311,7 +10407,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:20" ht="29.25">
+    <row r="165" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>183</v>
       </c>
@@ -10371,7 +10467,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:20" ht="29.25">
+    <row r="166" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>183</v>
       </c>
@@ -10431,7 +10527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:20" ht="29.25">
+    <row r="167" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>183</v>
       </c>
@@ -10491,7 +10587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:20" ht="29.25">
+    <row r="168" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>183</v>
       </c>
@@ -10551,7 +10647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:20" ht="29.25">
+    <row r="169" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>183</v>
       </c>
@@ -10611,7 +10707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="170" spans="1:20" ht="29.25">
+    <row r="170" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>183</v>
       </c>
@@ -10671,7 +10767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="171" spans="1:20" ht="29.25">
+    <row r="171" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>183</v>
       </c>
@@ -10731,7 +10827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="172" spans="1:20" ht="29.25">
+    <row r="172" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>183</v>
       </c>
@@ -10791,7 +10887,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="173" spans="1:20" ht="29.25">
+    <row r="173" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>183</v>
       </c>
@@ -10851,7 +10947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="174" spans="1:20" ht="29.25">
+    <row r="174" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>183</v>
       </c>
@@ -10911,7 +11007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="175" spans="1:20" ht="29.25">
+    <row r="175" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>183</v>
       </c>
@@ -10971,7 +11067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="29.25">
+    <row r="176" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>183</v>
       </c>
@@ -11031,7 +11127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="29.25">
+    <row r="177" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>183</v>
       </c>
@@ -11091,7 +11187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="29.25">
+    <row r="178" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>183</v>
       </c>
@@ -11151,7 +11247,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="29.25">
+    <row r="179" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>183</v>
       </c>
@@ -11211,7 +11307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="29.25">
+    <row r="180" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>183</v>
       </c>
@@ -11271,7 +11367,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="29.25">
+    <row r="181" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>183</v>
       </c>
@@ -11331,7 +11427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="29.25">
+    <row r="182" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>183</v>
       </c>
@@ -11391,7 +11487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="29.25">
+    <row r="183" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -11449,7 +11545,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="29.25">
+    <row r="184" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>183</v>
       </c>
@@ -11507,7 +11603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="29.25">
+    <row r="185" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>183</v>
       </c>
@@ -11565,7 +11661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="39">
+    <row r="186" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>219</v>
       </c>
@@ -11625,7 +11721,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="39">
+    <row r="187" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>219</v>
       </c>
@@ -11685,7 +11781,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="39">
+    <row r="188" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>219</v>
       </c>
@@ -11745,7 +11841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="39">
+    <row r="189" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>219</v>
       </c>
@@ -11799,7 +11895,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="39">
+    <row r="190" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>219</v>
       </c>
@@ -11859,7 +11955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="29.25">
+    <row r="191" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>233</v>
       </c>
@@ -11917,7 +12013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="29.25">
+    <row r="192" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>233</v>
       </c>
@@ -11977,7 +12073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="19.5">
+    <row r="193" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>233</v>
       </c>
@@ -12033,7 +12129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="19.5">
+    <row r="194" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>233</v>
       </c>
@@ -12093,7 +12189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="19.5">
+    <row r="195" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>233</v>
       </c>
@@ -12143,7 +12239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="19.5">
+    <row r="196" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>233</v>
       </c>
@@ -12193,7 +12289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="29.25">
+    <row r="197" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>233</v>
       </c>
@@ -12239,7 +12335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="29.25">
+    <row r="198" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>233</v>
       </c>
@@ -12285,7 +12381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="29.25">
+    <row r="199" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>233</v>
       </c>
@@ -12331,7 +12427,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="29.25">
+    <row r="200" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>233</v>
       </c>
@@ -12377,7 +12473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="29.25">
+    <row r="201" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>233</v>
       </c>
@@ -12423,7 +12519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="29.25">
+    <row r="202" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>233</v>
       </c>
@@ -12469,7 +12565,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="39">
+    <row r="203" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>233</v>
       </c>
@@ -12515,15 +12611,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="68.25">
+    <row r="204" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>24</v>
@@ -12532,54 +12628,42 @@
         <v>25</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G204" s="4">
-        <v>16.2</v>
-      </c>
-      <c r="H204" s="4">
-        <v>14.5</v>
-      </c>
-      <c r="I204" s="4">
-        <v>14.2</v>
-      </c>
-      <c r="J204" s="4">
-        <v>14</v>
-      </c>
-      <c r="K204" s="4">
-        <v>13.4</v>
-      </c>
-      <c r="L204" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="M204" s="4">
-        <v>13</v>
-      </c>
-      <c r="N204" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="O204" s="4">
-        <v>13.8</v>
-      </c>
-      <c r="P204" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="Q204" s="3"/>
-      <c r="R204" s="3"/>
-      <c r="S204" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="3"/>
+      <c r="J204" s="3"/>
+      <c r="K204" s="3"/>
+      <c r="L204" s="3"/>
+      <c r="M204" s="3"/>
+      <c r="N204" s="3"/>
+      <c r="O204" s="3"/>
+      <c r="P204" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="6">
+        <v>5</v>
+      </c>
+      <c r="R204" s="6">
+        <v>40</v>
+      </c>
+      <c r="S204" s="6">
+        <v>92</v>
+      </c>
       <c r="T204" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="205" spans="1:20" ht="68.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>24</v>
@@ -12588,58 +12672,54 @@
         <v>25</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="G205" s="4">
-        <v>24.7</v>
+        <v>16.2</v>
       </c>
       <c r="H205" s="4">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="I205" s="4">
-        <v>25.4</v>
+        <v>14.2</v>
       </c>
       <c r="J205" s="4">
-        <v>25.7</v>
+        <v>14</v>
       </c>
       <c r="K205" s="4">
-        <v>26.1</v>
+        <v>13.4</v>
       </c>
       <c r="L205" s="4">
-        <v>26.4</v>
+        <v>12.4</v>
       </c>
       <c r="M205" s="4">
-        <v>26.8</v>
+        <v>13</v>
       </c>
       <c r="N205" s="4">
-        <v>27.2</v>
+        <v>12.4</v>
       </c>
       <c r="O205" s="4">
-        <v>27.7</v>
+        <v>13.8</v>
       </c>
       <c r="P205" s="4">
-        <v>28.1</v>
-      </c>
-      <c r="Q205" s="4">
-        <v>29.2</v>
-      </c>
-      <c r="R205" s="4">
-        <v>29.8</v>
-      </c>
+        <v>12.6</v>
+      </c>
+      <c r="Q205" s="3"/>
+      <c r="R205" s="3"/>
       <c r="S205" s="3"/>
       <c r="T205" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="68.25">
+    <row r="206" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>24</v>
@@ -12648,56 +12728,58 @@
         <v>25</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="G206" s="4">
-        <v>13</v>
+        <v>24.7</v>
       </c>
       <c r="H206" s="4">
-        <v>10.3</v>
+        <v>25</v>
       </c>
       <c r="I206" s="4">
-        <v>9.3000000000000007</v>
+        <v>25.4</v>
       </c>
       <c r="J206" s="4">
-        <v>8.8000000000000007</v>
+        <v>25.7</v>
       </c>
       <c r="K206" s="4">
-        <v>8.9</v>
+        <v>26.1</v>
       </c>
       <c r="L206" s="4">
-        <v>10.6</v>
+        <v>26.4</v>
       </c>
       <c r="M206" s="4">
-        <v>10.1</v>
+        <v>26.8</v>
       </c>
       <c r="N206" s="4">
-        <v>10.5</v>
+        <v>27.2</v>
       </c>
       <c r="O206" s="4">
-        <v>10.5</v>
+        <v>27.7</v>
       </c>
       <c r="P206" s="4">
-        <v>10.4</v>
+        <v>28.1</v>
       </c>
       <c r="Q206" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="R206" s="3"/>
+        <v>29.2</v>
+      </c>
+      <c r="R206" s="4">
+        <v>29.8</v>
+      </c>
       <c r="S206" s="3"/>
       <c r="T206" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="68.25">
+    <row r="207" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>24</v>
@@ -12709,55 +12791,53 @@
         <v>33</v>
       </c>
       <c r="G207" s="4">
-        <v>2.2999999999999998</v>
+        <v>13</v>
       </c>
       <c r="H207" s="4">
-        <v>2.8</v>
+        <v>10.3</v>
       </c>
       <c r="I207" s="4">
-        <v>2.7</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="J207" s="4">
-        <v>3.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="K207" s="4">
-        <v>2.9</v>
+        <v>8.9</v>
       </c>
       <c r="L207" s="4">
-        <v>3.6</v>
+        <v>10.6</v>
       </c>
       <c r="M207" s="4">
-        <v>3.8</v>
+        <v>10.1</v>
       </c>
       <c r="N207" s="4">
-        <v>4.0999999999999996</v>
+        <v>10.5</v>
       </c>
       <c r="O207" s="4">
-        <v>7</v>
+        <v>10.5</v>
       </c>
       <c r="P207" s="4">
-        <v>9.6999999999999993</v>
+        <v>10.4</v>
       </c>
       <c r="Q207" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="R207" s="4">
-        <v>15.4</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="R207" s="3"/>
       <c r="S207" s="3"/>
       <c r="T207" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="68.25">
+    <row r="208" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>24</v>
@@ -12766,358 +12846,358 @@
         <v>25</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G208" s="4">
-        <v>166.5</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H208" s="4">
-        <v>166.2</v>
+        <v>2.8</v>
       </c>
       <c r="I208" s="4">
-        <v>165.6</v>
+        <v>2.7</v>
       </c>
       <c r="J208" s="4">
-        <v>155.5</v>
+        <v>3.1</v>
       </c>
       <c r="K208" s="4">
-        <v>159.69999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="L208" s="4">
-        <v>158.30000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="M208" s="4">
-        <v>162.69999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="N208" s="4">
-        <v>161.69999999999999</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="O208" s="4">
-        <v>163.4</v>
+        <v>7</v>
       </c>
       <c r="P208" s="4">
-        <v>167.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="Q208" s="4">
-        <v>98.7</v>
+        <v>12.2</v>
       </c>
       <c r="R208" s="4">
-        <v>109.5</v>
+        <v>15.4</v>
       </c>
       <c r="S208" s="3"/>
       <c r="T208" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="209" spans="1:20" ht="68.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>259</v>
+        <v>24</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G209" s="5">
-        <v>14.82</v>
-      </c>
-      <c r="H209" s="5">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I209" s="5">
-        <v>10.3</v>
-      </c>
-      <c r="J209" s="5">
-        <v>13.27</v>
-      </c>
-      <c r="K209" s="5">
-        <v>21.1</v>
-      </c>
-      <c r="L209" s="5">
-        <v>26.39</v>
-      </c>
-      <c r="M209" s="5">
-        <v>27.84</v>
-      </c>
-      <c r="N209" s="5">
-        <v>26.73</v>
-      </c>
-      <c r="O209" s="5">
-        <v>26.18</v>
-      </c>
-      <c r="P209" s="5">
-        <v>25.03</v>
-      </c>
-      <c r="Q209" s="5">
-        <v>26.68</v>
-      </c>
-      <c r="R209" s="5">
-        <v>26.92</v>
+        <v>29</v>
+      </c>
+      <c r="G209" s="4">
+        <v>166.5</v>
+      </c>
+      <c r="H209" s="4">
+        <v>166.2</v>
+      </c>
+      <c r="I209" s="4">
+        <v>165.6</v>
+      </c>
+      <c r="J209" s="4">
+        <v>155.5</v>
+      </c>
+      <c r="K209" s="4">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="L209" s="4">
+        <v>158.30000000000001</v>
+      </c>
+      <c r="M209" s="4">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="N209" s="4">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="O209" s="4">
+        <v>163.4</v>
+      </c>
+      <c r="P209" s="4">
+        <v>167.6</v>
+      </c>
+      <c r="Q209" s="4">
+        <v>98.7</v>
+      </c>
+      <c r="R209" s="4">
+        <v>109.5</v>
       </c>
       <c r="S209" s="3"/>
       <c r="T209" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="210" spans="1:20" ht="68.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G210" s="5">
-        <v>1.5</v>
+        <v>14.82</v>
       </c>
       <c r="H210" s="5">
-        <v>1.73</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I210" s="5">
-        <v>1.67</v>
+        <v>10.3</v>
       </c>
       <c r="J210" s="5">
-        <v>1.88</v>
+        <v>13.27</v>
       </c>
       <c r="K210" s="5">
-        <v>5.42</v>
+        <v>21.1</v>
       </c>
       <c r="L210" s="5">
-        <v>6.09</v>
+        <v>26.39</v>
       </c>
       <c r="M210" s="5">
-        <v>6.99</v>
+        <v>27.84</v>
       </c>
       <c r="N210" s="5">
-        <v>7.08</v>
+        <v>26.73</v>
       </c>
       <c r="O210" s="5">
-        <v>8.11</v>
+        <v>26.18</v>
       </c>
       <c r="P210" s="5">
-        <v>9.0399999999999991</v>
+        <v>25.03</v>
       </c>
       <c r="Q210" s="5">
-        <v>12.03</v>
+        <v>26.68</v>
       </c>
       <c r="R210" s="5">
-        <v>13.34</v>
+        <v>26.92</v>
       </c>
       <c r="S210" s="3"/>
       <c r="T210" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="68.25">
+    <row r="211" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G211" s="5">
-        <v>0.32</v>
+        <v>1.5</v>
       </c>
       <c r="H211" s="5">
-        <v>0.37</v>
+        <v>1.73</v>
       </c>
       <c r="I211" s="5">
-        <v>0.42</v>
+        <v>1.67</v>
       </c>
       <c r="J211" s="5">
-        <v>6.78</v>
+        <v>1.88</v>
       </c>
       <c r="K211" s="5">
-        <v>15.1</v>
+        <v>5.42</v>
       </c>
       <c r="L211" s="5">
-        <v>13.25</v>
+        <v>6.09</v>
       </c>
       <c r="M211" s="5">
-        <v>19.440000000000001</v>
+        <v>6.99</v>
       </c>
       <c r="N211" s="5">
-        <v>24.41</v>
+        <v>7.08</v>
       </c>
       <c r="O211" s="5">
-        <v>24.13</v>
+        <v>8.11</v>
       </c>
       <c r="P211" s="5">
-        <v>22.9</v>
+        <v>9.0399999999999991</v>
       </c>
       <c r="Q211" s="5">
-        <v>21.52</v>
+        <v>12.03</v>
       </c>
       <c r="R211" s="5">
-        <v>21.01</v>
+        <v>13.34</v>
       </c>
       <c r="S211" s="3"/>
       <c r="T211" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="68.25">
+    <row r="212" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G212" s="5">
-        <v>66.8</v>
+        <v>0.32</v>
       </c>
       <c r="H212" s="5">
-        <v>69.260000000000005</v>
+        <v>0.37</v>
       </c>
       <c r="I212" s="5">
-        <v>66.91</v>
+        <v>0.42</v>
       </c>
       <c r="J212" s="5">
-        <v>61.95</v>
+        <v>6.78</v>
       </c>
       <c r="K212" s="5">
-        <v>58.38</v>
+        <v>15.1</v>
       </c>
       <c r="L212" s="5">
-        <v>54.29</v>
+        <v>13.25</v>
       </c>
       <c r="M212" s="5">
-        <v>45.74</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="N212" s="5">
-        <v>41.77</v>
+        <v>24.41</v>
       </c>
       <c r="O212" s="5">
-        <v>41.58</v>
+        <v>24.13</v>
       </c>
       <c r="P212" s="5">
-        <v>43.03</v>
+        <v>22.9</v>
       </c>
       <c r="Q212" s="5">
-        <v>39.78</v>
+        <v>21.52</v>
       </c>
       <c r="R212" s="5">
-        <v>38.729999999999997</v>
+        <v>21.01</v>
       </c>
       <c r="S212" s="3"/>
       <c r="T212" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="48.75">
+    <row r="213" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>24</v>
+        <v>262</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G213" s="4">
-        <v>88</v>
-      </c>
-      <c r="H213" s="4">
-        <v>88.4</v>
-      </c>
-      <c r="I213" s="4">
-        <v>91.7</v>
-      </c>
-      <c r="J213" s="4">
-        <v>93.3</v>
-      </c>
-      <c r="K213" s="4">
-        <v>93.9</v>
-      </c>
-      <c r="L213" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="M213" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="N213" s="4">
-        <v>94.5</v>
-      </c>
-      <c r="O213" s="4">
-        <v>94.6</v>
-      </c>
-      <c r="P213" s="4">
-        <v>94.8</v>
-      </c>
-      <c r="Q213" s="4">
-        <v>94.7</v>
-      </c>
-      <c r="R213" s="4">
-        <v>94.6</v>
+      <c r="G213" s="5">
+        <v>66.8</v>
+      </c>
+      <c r="H213" s="5">
+        <v>69.260000000000005</v>
+      </c>
+      <c r="I213" s="5">
+        <v>66.91</v>
+      </c>
+      <c r="J213" s="5">
+        <v>61.95</v>
+      </c>
+      <c r="K213" s="5">
+        <v>58.38</v>
+      </c>
+      <c r="L213" s="5">
+        <v>54.29</v>
+      </c>
+      <c r="M213" s="5">
+        <v>45.74</v>
+      </c>
+      <c r="N213" s="5">
+        <v>41.77</v>
+      </c>
+      <c r="O213" s="5">
+        <v>41.58</v>
+      </c>
+      <c r="P213" s="5">
+        <v>43.03</v>
+      </c>
+      <c r="Q213" s="5">
+        <v>39.78</v>
+      </c>
+      <c r="R213" s="5">
+        <v>38.729999999999997</v>
       </c>
       <c r="S213" s="3"/>
       <c r="T213" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="48.75">
+    <row r="214" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>24</v>
@@ -13129,55 +13209,55 @@
         <v>33</v>
       </c>
       <c r="G214" s="4">
-        <v>95.3</v>
+        <v>88</v>
       </c>
       <c r="H214" s="4">
-        <v>95.4</v>
+        <v>88.4</v>
       </c>
       <c r="I214" s="4">
-        <v>95.4</v>
+        <v>91.7</v>
       </c>
       <c r="J214" s="4">
-        <v>95.5</v>
+        <v>93.3</v>
       </c>
       <c r="K214" s="4">
-        <v>96.4</v>
+        <v>93.9</v>
       </c>
       <c r="L214" s="4">
-        <v>96.5</v>
+        <v>94.6</v>
       </c>
       <c r="M214" s="4">
-        <v>96.5</v>
+        <v>94.8</v>
       </c>
       <c r="N214" s="4">
-        <v>96.6</v>
+        <v>94.5</v>
       </c>
       <c r="O214" s="4">
-        <v>96.6</v>
+        <v>94.6</v>
       </c>
       <c r="P214" s="4">
-        <v>96.6</v>
+        <v>94.8</v>
       </c>
       <c r="Q214" s="4">
-        <v>96.7</v>
+        <v>94.7</v>
       </c>
       <c r="R214" s="4">
-        <v>96.7</v>
+        <v>94.6</v>
       </c>
       <c r="S214" s="3"/>
       <c r="T214" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="48.75">
+    <row r="215" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>24</v>
@@ -13188,36 +13268,56 @@
       <c r="F215" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
-      <c r="K215" s="3"/>
-      <c r="L215" s="3"/>
-      <c r="M215" s="3"/>
-      <c r="N215" s="3"/>
-      <c r="O215" s="3"/>
-      <c r="P215" s="3"/>
+      <c r="G215" s="4">
+        <v>95.3</v>
+      </c>
+      <c r="H215" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="I215" s="4">
+        <v>95.4</v>
+      </c>
+      <c r="J215" s="4">
+        <v>95.5</v>
+      </c>
+      <c r="K215" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="L215" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="M215" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="N215" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="O215" s="4">
+        <v>96.6</v>
+      </c>
+      <c r="P215" s="4">
+        <v>96.6</v>
+      </c>
       <c r="Q215" s="4">
-        <v>15.7</v>
+        <v>96.7</v>
       </c>
       <c r="R215" s="4">
-        <v>14.8</v>
+        <v>96.7</v>
       </c>
       <c r="S215" s="3"/>
       <c r="T215" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="48.75">
+    <row r="216" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>24</v>
@@ -13239,25 +13339,25 @@
       <c r="O216" s="3"/>
       <c r="P216" s="3"/>
       <c r="Q216" s="4">
-        <v>13.3</v>
+        <v>15.7</v>
       </c>
       <c r="R216" s="4">
-        <v>13.5</v>
+        <v>14.8</v>
       </c>
       <c r="S216" s="3"/>
       <c r="T216" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="48.75">
+    <row r="217" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>24</v>
@@ -13268,56 +13368,36 @@
       <c r="F217" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G217" s="4">
-        <v>41.6</v>
-      </c>
-      <c r="H217" s="4">
-        <v>44.7</v>
-      </c>
-      <c r="I217" s="4">
-        <v>46.5</v>
-      </c>
-      <c r="J217" s="4">
-        <v>48.2</v>
-      </c>
-      <c r="K217" s="4">
-        <v>49.6</v>
-      </c>
-      <c r="L217" s="4">
-        <v>49.8</v>
-      </c>
-      <c r="M217" s="4">
-        <v>50.6</v>
-      </c>
-      <c r="N217" s="4">
-        <v>51.2</v>
-      </c>
-      <c r="O217" s="4">
-        <v>52.4</v>
-      </c>
-      <c r="P217" s="4">
-        <v>53.4</v>
-      </c>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="3"/>
+      <c r="J217" s="3"/>
+      <c r="K217" s="3"/>
+      <c r="L217" s="3"/>
+      <c r="M217" s="3"/>
+      <c r="N217" s="3"/>
+      <c r="O217" s="3"/>
+      <c r="P217" s="3"/>
       <c r="Q217" s="4">
-        <v>53.9</v>
+        <v>13.3</v>
       </c>
       <c r="R217" s="4">
-        <v>54.8</v>
+        <v>13.5</v>
       </c>
       <c r="S217" s="3"/>
       <c r="T217" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="48.75">
+    <row r="218" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>24</v>
@@ -13326,54 +13406,58 @@
         <v>25</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="G218" s="4">
+        <v>41.6</v>
+      </c>
+      <c r="H218" s="4">
+        <v>44.7</v>
+      </c>
       <c r="I218" s="4">
-        <v>29.8</v>
+        <v>46.5</v>
       </c>
       <c r="J218" s="4">
-        <v>31.1</v>
+        <v>48.2</v>
       </c>
       <c r="K218" s="4">
-        <v>30.3</v>
+        <v>49.6</v>
       </c>
       <c r="L218" s="4">
-        <v>32.299999999999997</v>
+        <v>49.8</v>
       </c>
       <c r="M218" s="4">
-        <v>34.700000000000003</v>
+        <v>50.6</v>
       </c>
       <c r="N218" s="4">
-        <v>35.6</v>
+        <v>51.2</v>
       </c>
       <c r="O218" s="4">
-        <v>37.5</v>
+        <v>52.4</v>
       </c>
       <c r="P218" s="4">
-        <v>35.9</v>
+        <v>53.4</v>
       </c>
       <c r="Q218" s="4">
-        <v>36.6</v>
+        <v>53.9</v>
       </c>
       <c r="R218" s="4">
-        <v>36.1</v>
+        <v>54.8</v>
       </c>
       <c r="S218" s="3"/>
       <c r="T218" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="48.75">
+    <row r="219" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>24</v>
@@ -13382,36 +13466,54 @@
         <v>25</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
-      <c r="K219" s="3"/>
-      <c r="L219" s="3"/>
-      <c r="M219" s="3"/>
-      <c r="N219" s="3"/>
-      <c r="O219" s="3"/>
-      <c r="P219" s="3"/>
-      <c r="Q219" s="5">
-        <v>83.49</v>
-      </c>
-      <c r="R219" s="3"/>
+      <c r="I219" s="4">
+        <v>29.8</v>
+      </c>
+      <c r="J219" s="4">
+        <v>31.1</v>
+      </c>
+      <c r="K219" s="4">
+        <v>30.3</v>
+      </c>
+      <c r="L219" s="4">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="M219" s="4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="N219" s="4">
+        <v>35.6</v>
+      </c>
+      <c r="O219" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="P219" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="Q219" s="4">
+        <v>36.6</v>
+      </c>
+      <c r="R219" s="4">
+        <v>36.1</v>
+      </c>
       <c r="S219" s="3"/>
       <c r="T219" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="220" spans="1:20" ht="39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>24</v>
@@ -13420,54 +13522,36 @@
         <v>25</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
-      <c r="I220" s="5">
-        <v>1.39</v>
-      </c>
-      <c r="J220" s="5">
-        <v>1.41</v>
-      </c>
-      <c r="K220" s="5">
-        <v>1.43</v>
-      </c>
-      <c r="L220" s="5">
-        <v>1.48</v>
-      </c>
-      <c r="M220" s="5">
-        <v>1.47</v>
-      </c>
-      <c r="N220" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="O220" s="5">
-        <v>1.53</v>
-      </c>
-      <c r="P220" s="5">
-        <v>1.57</v>
-      </c>
+      <c r="I220" s="3"/>
+      <c r="J220" s="3"/>
+      <c r="K220" s="3"/>
+      <c r="L220" s="3"/>
+      <c r="M220" s="3"/>
+      <c r="N220" s="3"/>
+      <c r="O220" s="3"/>
+      <c r="P220" s="3"/>
       <c r="Q220" s="5">
-        <v>1.58</v>
-      </c>
-      <c r="R220" s="5">
-        <v>1.58</v>
-      </c>
+        <v>83.49</v>
+      </c>
+      <c r="R220" s="3"/>
       <c r="S220" s="3"/>
       <c r="T220" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="221" spans="1:20" ht="39">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>24</v>
@@ -13476,46 +13560,54 @@
         <v>25</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>29</v>
+        <v>281</v>
       </c>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-      <c r="J221" s="3"/>
-      <c r="K221" s="3"/>
-      <c r="L221" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="M221" s="4">
-        <v>12.7</v>
-      </c>
-      <c r="N221" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="O221" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="P221" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="Q221" s="4">
-        <v>9</v>
-      </c>
-      <c r="R221" s="3"/>
+      <c r="I221" s="5">
+        <v>1.39</v>
+      </c>
+      <c r="J221" s="5">
+        <v>1.41</v>
+      </c>
+      <c r="K221" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="L221" s="5">
+        <v>1.48</v>
+      </c>
+      <c r="M221" s="5">
+        <v>1.47</v>
+      </c>
+      <c r="N221" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="O221" s="5">
+        <v>1.53</v>
+      </c>
+      <c r="P221" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="Q221" s="5">
+        <v>1.58</v>
+      </c>
+      <c r="R221" s="5">
+        <v>1.58</v>
+      </c>
       <c r="S221" s="3"/>
       <c r="T221" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="222" spans="1:20" ht="39">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>24</v>
@@ -13526,56 +13618,44 @@
       <c r="F222" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G222" s="4">
-        <v>166.5</v>
-      </c>
-      <c r="H222" s="4">
-        <v>166.2</v>
-      </c>
-      <c r="I222" s="4">
-        <v>165.6</v>
-      </c>
-      <c r="J222" s="4">
-        <v>155.5</v>
-      </c>
-      <c r="K222" s="4">
-        <v>159.69999999999999</v>
-      </c>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="3"/>
+      <c r="J222" s="3"/>
+      <c r="K222" s="3"/>
       <c r="L222" s="4">
-        <v>158.30000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="M222" s="4">
-        <v>162.69999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="N222" s="4">
-        <v>161.69999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="O222" s="4">
-        <v>163.4</v>
+        <v>11.4</v>
       </c>
       <c r="P222" s="4">
-        <v>167.6</v>
+        <v>10.6</v>
       </c>
       <c r="Q222" s="4">
-        <v>98.7</v>
-      </c>
-      <c r="R222" s="4">
-        <v>109.5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="R222" s="3"/>
       <c r="S222" s="3"/>
       <c r="T222" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="223" spans="1:20" ht="39">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>24</v>
@@ -13584,58 +13664,58 @@
         <v>25</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G223" s="4">
-        <v>3.7</v>
+        <v>166.5</v>
       </c>
       <c r="H223" s="4">
-        <v>3.4</v>
+        <v>166.2</v>
       </c>
       <c r="I223" s="4">
-        <v>4.0999999999999996</v>
+        <v>165.6</v>
       </c>
       <c r="J223" s="4">
-        <v>3.8</v>
+        <v>155.5</v>
       </c>
       <c r="K223" s="4">
-        <v>3.9</v>
+        <v>159.69999999999999</v>
       </c>
       <c r="L223" s="4">
-        <v>3.9</v>
+        <v>158.30000000000001</v>
       </c>
       <c r="M223" s="4">
-        <v>4.5999999999999996</v>
+        <v>162.69999999999999</v>
       </c>
       <c r="N223" s="4">
-        <v>5.0999999999999996</v>
+        <v>161.69999999999999</v>
       </c>
       <c r="O223" s="4">
-        <v>5.4</v>
+        <v>163.4</v>
       </c>
       <c r="P223" s="4">
-        <v>6.1</v>
+        <v>167.6</v>
       </c>
       <c r="Q223" s="4">
-        <v>6.5</v>
+        <v>98.7</v>
       </c>
       <c r="R223" s="4">
-        <v>6.6</v>
+        <v>109.5</v>
       </c>
       <c r="S223" s="3"/>
       <c r="T223" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="224" spans="1:20" ht="39">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>24</v>
@@ -13646,56 +13726,56 @@
       <c r="F224" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G224" s="5">
-        <v>0.26</v>
-      </c>
-      <c r="H224" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="I224" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J224" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="K224" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="L224" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="M224" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="N224" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O224" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="P224" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="Q224" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="R224" s="5">
-        <v>0.1</v>
+      <c r="G224" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="H224" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I224" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J224" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="K224" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="L224" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="M224" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N224" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O224" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="P224" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="Q224" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="R224" s="4">
+        <v>6.6</v>
       </c>
       <c r="S224" s="3"/>
       <c r="T224" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="39">
+    <row r="225" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>24</v>
@@ -13706,38 +13786,56 @@
       <c r="F225" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="3"/>
-      <c r="K225" s="3"/>
-      <c r="L225" s="3"/>
-      <c r="M225" s="3"/>
-      <c r="N225" s="3"/>
-      <c r="O225" s="3"/>
-      <c r="P225" s="6">
-        <v>74110</v>
-      </c>
-      <c r="Q225" s="6">
-        <v>68436</v>
-      </c>
-      <c r="R225" s="6">
-        <v>65117</v>
+      <c r="G225" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="H225" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="I225" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J225" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K225" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="L225" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="M225" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="N225" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="O225" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="P225" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="Q225" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="R225" s="5">
+        <v>0.1</v>
       </c>
       <c r="S225" s="3"/>
       <c r="T225" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="39">
+    <row r="226" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>24</v>
@@ -13751,39 +13849,35 @@
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
-      <c r="J226" s="6">
-        <v>546870</v>
-      </c>
+      <c r="J226" s="3"/>
       <c r="K226" s="3"/>
-      <c r="L226" s="6">
-        <v>512116</v>
-      </c>
-      <c r="M226" s="6">
-        <v>501544</v>
-      </c>
+      <c r="L226" s="3"/>
+      <c r="M226" s="3"/>
       <c r="N226" s="3"/>
-      <c r="O226" s="6">
-        <v>487452</v>
-      </c>
-      <c r="P226" s="3"/>
+      <c r="O226" s="3"/>
+      <c r="P226" s="6">
+        <v>74110</v>
+      </c>
       <c r="Q226" s="6">
-        <v>469607</v>
-      </c>
-      <c r="R226" s="3"/>
+        <v>68436</v>
+      </c>
+      <c r="R226" s="6">
+        <v>65117</v>
+      </c>
       <c r="S226" s="3"/>
       <c r="T226" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="39">
+    <row r="227" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>24</v>
@@ -13792,58 +13886,44 @@
         <v>25</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G227" s="6">
-        <v>22795</v>
-      </c>
-      <c r="H227" s="6">
-        <v>21359</v>
-      </c>
-      <c r="I227" s="6">
-        <v>20022</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="3"/>
       <c r="J227" s="6">
-        <v>19636</v>
-      </c>
-      <c r="K227" s="6">
-        <v>18137</v>
-      </c>
+        <v>546870</v>
+      </c>
+      <c r="K227" s="3"/>
       <c r="L227" s="6">
-        <v>16793</v>
+        <v>512116</v>
       </c>
       <c r="M227" s="6">
-        <v>15086</v>
-      </c>
-      <c r="N227" s="6">
-        <v>14505</v>
-      </c>
+        <v>501544</v>
+      </c>
+      <c r="N227" s="3"/>
       <c r="O227" s="6">
-        <v>14165</v>
-      </c>
-      <c r="P227" s="6">
-        <v>11466</v>
-      </c>
+        <v>487452</v>
+      </c>
+      <c r="P227" s="3"/>
       <c r="Q227" s="6">
-        <v>8767</v>
-      </c>
-      <c r="R227" s="6">
-        <v>8374</v>
-      </c>
+        <v>469607</v>
+      </c>
+      <c r="R227" s="3"/>
       <c r="S227" s="3"/>
       <c r="T227" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="39">
+    <row r="228" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>24</v>
@@ -13852,58 +13932,58 @@
         <v>25</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G228" s="6">
-        <v>961</v>
+        <v>22795</v>
       </c>
       <c r="H228" s="6">
-        <v>136730</v>
+        <v>21359</v>
       </c>
       <c r="I228" s="6">
-        <v>11553</v>
+        <v>20022</v>
       </c>
       <c r="J228" s="6">
-        <v>15701</v>
+        <v>19636</v>
       </c>
       <c r="K228" s="6">
-        <v>2758</v>
+        <v>18137</v>
       </c>
       <c r="L228" s="6">
-        <v>69422</v>
+        <v>16793</v>
       </c>
       <c r="M228" s="6">
-        <v>44764</v>
+        <v>15086</v>
       </c>
       <c r="N228" s="6">
-        <v>78118</v>
+        <v>14505</v>
       </c>
       <c r="O228" s="6">
-        <v>14958</v>
+        <v>14165</v>
       </c>
       <c r="P228" s="6">
-        <v>68943</v>
+        <v>11466</v>
       </c>
       <c r="Q228" s="6">
-        <v>57788</v>
+        <v>8767</v>
       </c>
       <c r="R228" s="6">
-        <v>27276</v>
+        <v>8374</v>
       </c>
       <c r="S228" s="3"/>
       <c r="T228" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="39">
+    <row r="229" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>24</v>
@@ -13912,53 +13992,55 @@
         <v>25</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="G229" s="6">
-        <v>6</v>
+        <v>961</v>
       </c>
       <c r="H229" s="6">
-        <v>8</v>
+        <v>136730</v>
       </c>
       <c r="I229" s="6">
-        <v>8</v>
+        <v>11553</v>
       </c>
       <c r="J229" s="6">
-        <v>10</v>
+        <v>15701</v>
       </c>
       <c r="K229" s="6">
-        <v>9</v>
+        <v>2758</v>
       </c>
       <c r="L229" s="6">
-        <v>10</v>
+        <v>69422</v>
       </c>
       <c r="M229" s="6">
-        <v>11</v>
+        <v>44764</v>
       </c>
       <c r="N229" s="6">
-        <v>13</v>
+        <v>78118</v>
       </c>
       <c r="O229" s="6">
-        <v>12</v>
+        <v>14958</v>
       </c>
       <c r="P229" s="6">
-        <v>16</v>
+        <v>68943</v>
       </c>
       <c r="Q229" s="6">
-        <v>21</v>
-      </c>
-      <c r="R229" s="3"/>
+        <v>57788</v>
+      </c>
+      <c r="R229" s="6">
+        <v>27276</v>
+      </c>
       <c r="S229" s="3"/>
       <c r="T229" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="230" spans="1:20" ht="48.75">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>294</v>
@@ -13970,55 +14052,53 @@
         <v>25</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="G230" s="5">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="H230" s="5">
-        <v>0.49</v>
-      </c>
-      <c r="I230" s="5">
-        <v>0.59</v>
-      </c>
-      <c r="J230" s="5">
-        <v>0.62</v>
-      </c>
-      <c r="K230" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="L230" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="M230" s="5">
-        <v>0.67</v>
-      </c>
-      <c r="N230" s="5">
-        <v>0.69</v>
-      </c>
-      <c r="O230" s="5">
-        <v>0.71</v>
-      </c>
-      <c r="P230" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="Q230" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="R230" s="5">
-        <v>0.84</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G230" s="6">
+        <v>6</v>
+      </c>
+      <c r="H230" s="6">
+        <v>8</v>
+      </c>
+      <c r="I230" s="6">
+        <v>8</v>
+      </c>
+      <c r="J230" s="6">
+        <v>10</v>
+      </c>
+      <c r="K230" s="6">
+        <v>9</v>
+      </c>
+      <c r="L230" s="6">
+        <v>10</v>
+      </c>
+      <c r="M230" s="6">
+        <v>11</v>
+      </c>
+      <c r="N230" s="6">
+        <v>13</v>
+      </c>
+      <c r="O230" s="6">
+        <v>12</v>
+      </c>
+      <c r="P230" s="6">
+        <v>16</v>
+      </c>
+      <c r="Q230" s="6">
+        <v>21</v>
+      </c>
+      <c r="R230" s="3"/>
       <c r="S230" s="3"/>
       <c r="T230" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="231" spans="1:20" ht="48.75">
-      <c r="A231" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>297</v>
@@ -14030,58 +14110,58 @@
         <v>25</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="G231" s="5">
-        <v>16.32</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H231" s="5">
-        <v>20.22</v>
+        <v>0.49</v>
       </c>
       <c r="I231" s="5">
-        <v>17.309999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="J231" s="5">
-        <v>16.510000000000002</v>
+        <v>0.62</v>
       </c>
       <c r="K231" s="5">
-        <v>16.41</v>
+        <v>0.66</v>
       </c>
       <c r="L231" s="5">
-        <v>16.28</v>
+        <v>0.7</v>
       </c>
       <c r="M231" s="5">
-        <v>16.82</v>
+        <v>0.67</v>
       </c>
       <c r="N231" s="5">
-        <v>17.829999999999998</v>
+        <v>0.69</v>
       </c>
       <c r="O231" s="5">
-        <v>18.52</v>
+        <v>0.71</v>
       </c>
       <c r="P231" s="5">
-        <v>17.690000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="Q231" s="5">
-        <v>17.010000000000002</v>
+        <v>0.82</v>
       </c>
       <c r="R231" s="5">
-        <v>18.02</v>
+        <v>0.84</v>
       </c>
       <c r="S231" s="3"/>
       <c r="T231" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" ht="48.75">
-      <c r="A232" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="C232" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>24</v>
@@ -14090,58 +14170,58 @@
         <v>25</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G232" s="4">
-        <v>10.8</v>
-      </c>
-      <c r="H232" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="I232" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="J232" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="K232" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="L232" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="M232" s="4">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="N232" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="O232" s="4">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="P232" s="4">
-        <v>10.3</v>
-      </c>
-      <c r="Q232" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="R232" s="4">
-        <v>9.1</v>
+        <v>292</v>
+      </c>
+      <c r="G232" s="5">
+        <v>16.32</v>
+      </c>
+      <c r="H232" s="5">
+        <v>20.22</v>
+      </c>
+      <c r="I232" s="5">
+        <v>17.309999999999999</v>
+      </c>
+      <c r="J232" s="5">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="K232" s="5">
+        <v>16.41</v>
+      </c>
+      <c r="L232" s="5">
+        <v>16.28</v>
+      </c>
+      <c r="M232" s="5">
+        <v>16.82</v>
+      </c>
+      <c r="N232" s="5">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="O232" s="5">
+        <v>18.52</v>
+      </c>
+      <c r="P232" s="5">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="Q232" s="5">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="R232" s="5">
+        <v>18.02</v>
       </c>
       <c r="S232" s="3"/>
       <c r="T232" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" ht="48.75">
-      <c r="A233" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C233" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>24</v>
@@ -14152,48 +14232,50 @@
       <c r="F233" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G233" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="H233" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="I233" s="5">
-        <v>3.05</v>
-      </c>
-      <c r="J233" s="5">
-        <v>3.37</v>
-      </c>
-      <c r="K233" s="5">
-        <v>3.82</v>
-      </c>
-      <c r="L233" s="5">
-        <v>3.45</v>
-      </c>
-      <c r="M233" s="5">
-        <v>2.96</v>
-      </c>
-      <c r="N233" s="5">
-        <v>2.62</v>
-      </c>
-      <c r="O233" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="P233" s="5">
-        <v>2.66</v>
-      </c>
-      <c r="Q233" s="5">
-        <v>2.68</v>
-      </c>
-      <c r="R233" s="3"/>
+      <c r="G233" s="4">
+        <v>10.8</v>
+      </c>
+      <c r="H233" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I233" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="J233" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="K233" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="L233" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="M233" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="N233" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="O233" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P233" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="Q233" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="R233" s="4">
+        <v>9.1</v>
+      </c>
       <c r="S233" s="3"/>
       <c r="T233" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="234" spans="1:20" ht="48.75">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20" ht="36" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>302</v>
@@ -14208,55 +14290,53 @@
         <v>25</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G234" s="4">
-        <v>100</v>
-      </c>
-      <c r="H234" s="4">
-        <v>99.8</v>
-      </c>
-      <c r="I234" s="4">
-        <v>97.5</v>
-      </c>
-      <c r="J234" s="4">
-        <v>96.3</v>
-      </c>
-      <c r="K234" s="4">
-        <v>92.6</v>
-      </c>
-      <c r="L234" s="4">
-        <v>93.6</v>
-      </c>
-      <c r="M234" s="4">
-        <v>96.8</v>
-      </c>
-      <c r="N234" s="4">
-        <v>100.8</v>
-      </c>
-      <c r="O234" s="4">
-        <v>100.5</v>
-      </c>
-      <c r="P234" s="4">
-        <v>95</v>
-      </c>
-      <c r="Q234" s="4">
-        <v>90.5</v>
-      </c>
-      <c r="R234" s="4">
-        <v>99</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G234" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H234" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="I234" s="5">
+        <v>3.05</v>
+      </c>
+      <c r="J234" s="5">
+        <v>3.37</v>
+      </c>
+      <c r="K234" s="5">
+        <v>3.82</v>
+      </c>
+      <c r="L234" s="5">
+        <v>3.45</v>
+      </c>
+      <c r="M234" s="5">
+        <v>2.96</v>
+      </c>
+      <c r="N234" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="O234" s="5">
+        <v>2.48</v>
+      </c>
+      <c r="P234" s="5">
+        <v>2.66</v>
+      </c>
+      <c r="Q234" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="R234" s="3"/>
       <c r="S234" s="3"/>
       <c r="T234" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="235" spans="1:20" ht="48.75">
-      <c r="A235" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>306</v>
@@ -14268,58 +14348,58 @@
         <v>25</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G235" s="4">
         <v>100</v>
       </c>
       <c r="H235" s="4">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="I235" s="4">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="J235" s="4">
-        <v>96.7</v>
+        <v>96.3</v>
       </c>
       <c r="K235" s="4">
+        <v>92.6</v>
+      </c>
+      <c r="L235" s="4">
         <v>93.6</v>
-      </c>
-      <c r="L235" s="4">
-        <v>94.1</v>
       </c>
       <c r="M235" s="4">
         <v>96.8</v>
       </c>
       <c r="N235" s="4">
-        <v>100.4</v>
+        <v>100.8</v>
       </c>
       <c r="O235" s="4">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="P235" s="4">
-        <v>94.9</v>
+        <v>95</v>
       </c>
       <c r="Q235" s="4">
-        <v>91.2</v>
+        <v>90.5</v>
       </c>
       <c r="R235" s="4">
-        <v>98.1</v>
+        <v>99</v>
       </c>
       <c r="S235" s="3"/>
       <c r="T235" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" ht="29.25">
-      <c r="A236" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="C236" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>24</v>
@@ -14328,58 +14408,58 @@
         <v>25</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G236" s="5">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="H236" s="5">
-        <v>10.34</v>
-      </c>
-      <c r="I236" s="5">
-        <v>10.96</v>
-      </c>
-      <c r="J236" s="5">
-        <v>11.45</v>
-      </c>
-      <c r="K236" s="5">
-        <v>11.61</v>
-      </c>
-      <c r="L236" s="5">
-        <v>11.88</v>
-      </c>
-      <c r="M236" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="N236" s="5">
-        <v>11.06</v>
-      </c>
-      <c r="O236" s="5">
-        <v>14.94</v>
-      </c>
-      <c r="P236" s="5">
-        <v>15.38</v>
-      </c>
-      <c r="Q236" s="5">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="R236" s="5">
-        <v>15.62</v>
+        <v>307</v>
+      </c>
+      <c r="G236" s="4">
+        <v>100</v>
+      </c>
+      <c r="H236" s="4">
+        <v>99.7</v>
+      </c>
+      <c r="I236" s="4">
+        <v>97.7</v>
+      </c>
+      <c r="J236" s="4">
+        <v>96.7</v>
+      </c>
+      <c r="K236" s="4">
+        <v>93.6</v>
+      </c>
+      <c r="L236" s="4">
+        <v>94.1</v>
+      </c>
+      <c r="M236" s="4">
+        <v>96.8</v>
+      </c>
+      <c r="N236" s="4">
+        <v>100.4</v>
+      </c>
+      <c r="O236" s="4">
+        <v>100.4</v>
+      </c>
+      <c r="P236" s="4">
+        <v>94.9</v>
+      </c>
+      <c r="Q236" s="4">
+        <v>91.2</v>
+      </c>
+      <c r="R236" s="4">
+        <v>98.1</v>
       </c>
       <c r="S236" s="3"/>
       <c r="T236" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="237" spans="1:20" ht="29.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>24</v>
@@ -14388,56 +14468,58 @@
         <v>25</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G237" s="6">
-        <v>563</v>
-      </c>
-      <c r="H237" s="6">
-        <v>531</v>
-      </c>
-      <c r="I237" s="6">
-        <v>661</v>
-      </c>
-      <c r="J237" s="6">
-        <v>778</v>
-      </c>
-      <c r="K237" s="6">
-        <v>847</v>
-      </c>
-      <c r="L237" s="6">
-        <v>909</v>
-      </c>
-      <c r="M237" s="6">
-        <v>930</v>
-      </c>
-      <c r="N237" s="6">
-        <v>946</v>
-      </c>
-      <c r="O237" s="6">
-        <v>991</v>
-      </c>
-      <c r="P237" s="6">
-        <v>1050</v>
-      </c>
-      <c r="Q237" s="6">
-        <v>1073</v>
-      </c>
-      <c r="R237" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="G237" s="5">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="H237" s="5">
+        <v>10.34</v>
+      </c>
+      <c r="I237" s="5">
+        <v>10.96</v>
+      </c>
+      <c r="J237" s="5">
+        <v>11.45</v>
+      </c>
+      <c r="K237" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="L237" s="5">
+        <v>11.88</v>
+      </c>
+      <c r="M237" s="5">
+        <v>11.4</v>
+      </c>
+      <c r="N237" s="5">
+        <v>11.06</v>
+      </c>
+      <c r="O237" s="5">
+        <v>14.94</v>
+      </c>
+      <c r="P237" s="5">
+        <v>15.38</v>
+      </c>
+      <c r="Q237" s="5">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R237" s="5">
+        <v>15.62</v>
+      </c>
       <c r="S237" s="3"/>
       <c r="T237" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="29.25">
+    <row r="238" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>24</v>
@@ -14446,58 +14528,56 @@
         <v>25</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G238" s="6">
-        <v>2218</v>
+        <v>563</v>
       </c>
       <c r="H238" s="6">
-        <v>3117</v>
+        <v>531</v>
       </c>
       <c r="I238" s="6">
-        <v>4139</v>
+        <v>661</v>
       </c>
       <c r="J238" s="6">
-        <v>5205</v>
+        <v>778</v>
       </c>
       <c r="K238" s="6">
-        <v>5793</v>
+        <v>847</v>
       </c>
       <c r="L238" s="6">
-        <v>7105</v>
+        <v>909</v>
       </c>
       <c r="M238" s="6">
-        <v>8017</v>
+        <v>930</v>
       </c>
       <c r="N238" s="6">
-        <v>8195</v>
+        <v>946</v>
       </c>
       <c r="O238" s="6">
-        <v>8486</v>
+        <v>991</v>
       </c>
       <c r="P238" s="6">
-        <v>9547</v>
+        <v>1050</v>
       </c>
       <c r="Q238" s="6">
-        <v>12490</v>
-      </c>
-      <c r="R238" s="6">
-        <v>16935</v>
-      </c>
+        <v>1073</v>
+      </c>
+      <c r="R238" s="3"/>
       <c r="S238" s="3"/>
       <c r="T238" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="239" spans="1:20" ht="29.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>24</v>
@@ -14506,56 +14586,58 @@
         <v>25</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G239" s="4">
-        <v>91.3</v>
-      </c>
-      <c r="H239" s="4">
-        <v>91.3</v>
-      </c>
-      <c r="I239" s="4">
-        <v>84.8</v>
-      </c>
-      <c r="J239" s="4">
-        <v>80.400000000000006</v>
-      </c>
-      <c r="K239" s="4">
-        <v>93.5</v>
-      </c>
-      <c r="L239" s="4">
-        <v>87</v>
-      </c>
-      <c r="M239" s="4">
-        <v>78.3</v>
-      </c>
-      <c r="N239" s="4">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="O239" s="4">
-        <v>87</v>
-      </c>
-      <c r="P239" s="4">
-        <v>48</v>
-      </c>
-      <c r="Q239" s="4">
-        <v>35.5</v>
-      </c>
-      <c r="R239" s="3"/>
+        <v>315</v>
+      </c>
+      <c r="G239" s="6">
+        <v>2218</v>
+      </c>
+      <c r="H239" s="6">
+        <v>3117</v>
+      </c>
+      <c r="I239" s="6">
+        <v>4139</v>
+      </c>
+      <c r="J239" s="6">
+        <v>5205</v>
+      </c>
+      <c r="K239" s="6">
+        <v>5793</v>
+      </c>
+      <c r="L239" s="6">
+        <v>7105</v>
+      </c>
+      <c r="M239" s="6">
+        <v>8017</v>
+      </c>
+      <c r="N239" s="6">
+        <v>8195</v>
+      </c>
+      <c r="O239" s="6">
+        <v>8486</v>
+      </c>
+      <c r="P239" s="6">
+        <v>9547</v>
+      </c>
+      <c r="Q239" s="6">
+        <v>12490</v>
+      </c>
+      <c r="R239" s="6">
+        <v>16935</v>
+      </c>
       <c r="S239" s="3"/>
       <c r="T239" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="240" spans="1:20" ht="29.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>24</v>
@@ -14564,58 +14646,56 @@
         <v>25</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G240" s="6">
-        <v>28</v>
-      </c>
-      <c r="H240" s="6">
-        <v>27</v>
-      </c>
-      <c r="I240" s="6">
-        <v>26</v>
-      </c>
-      <c r="J240" s="6">
-        <v>25</v>
-      </c>
-      <c r="K240" s="6">
-        <v>24</v>
-      </c>
-      <c r="L240" s="6">
-        <v>23</v>
-      </c>
-      <c r="M240" s="6">
-        <v>22</v>
-      </c>
-      <c r="N240" s="6">
-        <v>22</v>
-      </c>
-      <c r="O240" s="6">
-        <v>22</v>
-      </c>
-      <c r="P240" s="6">
-        <v>21</v>
-      </c>
-      <c r="Q240" s="6">
-        <v>19</v>
-      </c>
-      <c r="R240" s="6">
-        <v>17</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G240" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="H240" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="I240" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="J240" s="4">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="K240" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="L240" s="4">
+        <v>87</v>
+      </c>
+      <c r="M240" s="4">
+        <v>78.3</v>
+      </c>
+      <c r="N240" s="4">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="O240" s="4">
+        <v>87</v>
+      </c>
+      <c r="P240" s="4">
+        <v>48</v>
+      </c>
+      <c r="Q240" s="4">
+        <v>35.5</v>
+      </c>
+      <c r="R240" s="3"/>
       <c r="S240" s="3"/>
       <c r="T240" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="29.25">
+    <row r="241" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>24</v>
@@ -14624,53 +14704,55 @@
         <v>25</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>318</v>
+        <v>99</v>
       </c>
       <c r="G241" s="6">
-        <v>2186</v>
+        <v>28</v>
       </c>
       <c r="H241" s="6">
-        <v>1721</v>
+        <v>27</v>
       </c>
       <c r="I241" s="6">
-        <v>2035</v>
+        <v>26</v>
       </c>
       <c r="J241" s="6">
-        <v>2174</v>
+        <v>25</v>
       </c>
       <c r="K241" s="6">
-        <v>1981</v>
+        <v>24</v>
       </c>
       <c r="L241" s="6">
-        <v>1725</v>
+        <v>23</v>
       </c>
       <c r="M241" s="6">
-        <v>1826</v>
+        <v>22</v>
       </c>
       <c r="N241" s="6">
-        <v>1792</v>
+        <v>22</v>
       </c>
       <c r="O241" s="6">
-        <v>1744</v>
+        <v>22</v>
       </c>
       <c r="P241" s="6">
-        <v>1494</v>
+        <v>21</v>
       </c>
       <c r="Q241" s="6">
-        <v>1820</v>
-      </c>
-      <c r="R241" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="R241" s="6">
+        <v>17</v>
+      </c>
       <c r="S241" s="3"/>
       <c r="T241" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="242" spans="1:20" ht="29.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>320</v>
@@ -14685,50 +14767,50 @@
         <v>321</v>
       </c>
       <c r="G242" s="6">
-        <v>48679</v>
+        <v>2186</v>
       </c>
       <c r="H242" s="6">
-        <v>48212</v>
+        <v>1721</v>
       </c>
       <c r="I242" s="6">
-        <v>46053</v>
+        <v>2035</v>
       </c>
       <c r="J242" s="6">
-        <v>43064</v>
+        <v>2174</v>
       </c>
       <c r="K242" s=